--- a/app/xlsx/4月_5月シフト.xlsx
+++ b/app/xlsx/4月_5月シフト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiha\OneDrive\デスクトップ\MyPrograming\MyGo\rolemaster0.5\RoleMaserV0.5\app\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DB9252-9D8D-4BE1-AF95-411D7153EADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CE1C35-8DD2-4297-A614-1A4A1DCA9271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -910,10 +910,6 @@
     <t>修 09:00-16:30</t>
   </si>
   <si>
-    <t>9：00-16:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>修 09:00-15:30</t>
   </si>
   <si>
@@ -950,6 +946,10 @@
   </si>
   <si>
     <t>修 08:00-15:00</t>
+  </si>
+  <si>
+    <t>修 09:00-16:00</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1931,28 +1931,55 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1985,6 +2012,36 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1994,128 +2051,11 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="39">
     <dxf>
       <font>
         <color theme="8"/>
@@ -2653,11 +2593,11 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="79"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="91" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="8">
@@ -2675,7 +2615,7 @@
       <c r="H6" s="8">
         <v>15</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="94" t="s">
         <v>167</v>
       </c>
       <c r="J6" s="8">
@@ -2698,11 +2638,11 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="80"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2718,7 +2658,7 @@
       <c r="H7" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I7" s="86"/>
+      <c r="I7" s="95"/>
       <c r="J7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2739,11 +2679,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="83"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="7">
         <v>68</v>
       </c>
@@ -2757,7 +2697,7 @@
         <v>60</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="86"/>
+      <c r="I8" s="95"/>
       <c r="J8" s="7">
         <v>90</v>
       </c>
@@ -2776,11 +2716,11 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="80"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="17">
         <v>14</v>
       </c>
@@ -2796,7 +2736,7 @@
       <c r="H9" s="17">
         <v>10</v>
       </c>
-      <c r="I9" s="86"/>
+      <c r="I9" s="95"/>
       <c r="J9" s="17">
         <v>18</v>
       </c>
@@ -2815,11 +2755,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2833,7 +2773,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="86"/>
+      <c r="I10" s="95"/>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2852,11 +2792,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="80"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="7" t="s">
         <v>94</v>
       </c>
@@ -2872,7 +2812,7 @@
       <c r="H11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="86"/>
+      <c r="I11" s="95"/>
       <c r="J11" s="7" t="s">
         <v>97</v>
       </c>
@@ -2891,11 +2831,11 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="80"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2911,7 +2851,7 @@
       <c r="H12" s="18">
         <v>0.6875</v>
       </c>
-      <c r="I12" s="86"/>
+      <c r="I12" s="95"/>
       <c r="J12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2932,11 +2872,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2952,7 +2892,7 @@
       <c r="H13" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="87"/>
+      <c r="I13" s="96"/>
       <c r="J13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2998,17 +2938,17 @@
       <c r="I14" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="88" t="s">
+      <c r="J14" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="88" t="s">
+      <c r="K14" s="97" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="43"/>
-      <c r="M14" s="88" t="s">
+      <c r="M14" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="88" t="s">
+      <c r="N14" s="97" t="s">
         <v>23</v>
       </c>
       <c r="O14" s="44" t="s">
@@ -3041,19 +2981,19 @@
       <c r="I15" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="J15" s="71" t="s">
+      <c r="J15" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="71" t="s">
+      <c r="K15" s="87" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="71" t="s">
+      <c r="M15" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="71" t="s">
+      <c r="N15" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O15" s="26" t="s">
@@ -3086,17 +3026,17 @@
       <c r="I16" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="J16" s="72" t="s">
+      <c r="J16" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="72" t="s">
+      <c r="K16" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="72" t="s">
+      <c r="M16" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="72" t="s">
+      <c r="N16" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="40" t="s">
@@ -3129,17 +3069,17 @@
       <c r="I17" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="71" t="s">
+      <c r="J17" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="N17" s="71" t="s">
+      <c r="M17" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O17" s="26" t="s">
@@ -3172,17 +3112,17 @@
       <c r="I18" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="72" t="s">
+      <c r="J18" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="72" t="s">
+      <c r="K18" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="39"/>
-      <c r="M18" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N18" s="72" t="s">
+      <c r="M18" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O18" s="40" t="s">
@@ -3215,17 +3155,17 @@
       <c r="I19" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="J19" s="71" t="s">
+      <c r="J19" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="71" t="s">
+      <c r="K19" s="87" t="s">
         <v>34</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="71" t="s">
+      <c r="M19" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="71" t="s">
+      <c r="N19" s="87" t="s">
         <v>28</v>
       </c>
       <c r="O19" s="26" t="s">
@@ -3258,17 +3198,17 @@
       <c r="I20" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J20" s="72" t="s">
+      <c r="J20" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="72" t="s">
+      <c r="K20" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="39"/>
-      <c r="M20" s="72" t="s">
+      <c r="M20" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="72" t="s">
+      <c r="N20" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O20" s="40" t="s">
@@ -3301,17 +3241,17 @@
       <c r="I21" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J21" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="71" t="s">
+      <c r="J21" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="71" t="s">
+      <c r="M21" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="71" t="s">
+      <c r="N21" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="26" t="s">
@@ -3344,17 +3284,17 @@
       <c r="I22" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="J22" s="72" t="s">
+      <c r="J22" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="72" t="s">
+      <c r="K22" s="86" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="39"/>
-      <c r="M22" s="72" t="s">
+      <c r="M22" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="N22" s="72" t="s">
+      <c r="N22" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O22" s="40" t="s">
@@ -3387,19 +3327,19 @@
       <c r="I23" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J23" s="71" t="s">
+      <c r="J23" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="71" t="s">
+      <c r="K23" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M23" s="71" t="s">
+      <c r="M23" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="71" t="s">
+      <c r="N23" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O23" s="26" t="s">
@@ -3432,17 +3372,17 @@
       <c r="I24" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="J24" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K24" s="72" t="s">
+      <c r="J24" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="39"/>
-      <c r="M24" s="72" t="s">
+      <c r="M24" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="72" t="s">
+      <c r="N24" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="40" t="s">
@@ -3475,17 +3415,17 @@
       <c r="I25" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="J25" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="71" t="s">
+      <c r="J25" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="87" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" s="71" t="s">
+      <c r="M25" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="87" t="s">
         <v>30</v>
       </c>
       <c r="O25" s="26" t="s">
@@ -3518,19 +3458,19 @@
       <c r="I26" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="72" t="s">
+      <c r="J26" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="72" t="s">
+      <c r="K26" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M26" s="72" t="s">
+      <c r="M26" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="72" t="s">
+      <c r="N26" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O26" s="40" t="s">
@@ -3563,17 +3503,17 @@
       <c r="I27" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="J27" s="71" t="s">
+      <c r="J27" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="71" t="s">
+      <c r="K27" s="87" t="s">
         <v>44</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="N27" s="71" t="s">
+      <c r="M27" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O27" s="26" t="s">
@@ -3606,19 +3546,19 @@
       <c r="I28" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="J28" s="72" t="s">
+      <c r="J28" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="72" t="s">
+      <c r="K28" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="72" t="s">
+      <c r="M28" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N28" s="72" t="s">
+      <c r="N28" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O28" s="40" t="s">
@@ -3651,17 +3591,17 @@
       <c r="I29" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="J29" s="71" t="s">
+      <c r="J29" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="71" t="s">
+      <c r="K29" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="71" t="s">
+      <c r="M29" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N29" s="71" t="s">
+      <c r="N29" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O29" s="26" t="s">
@@ -3694,17 +3634,17 @@
       <c r="I30" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="J30" s="72" t="s">
+      <c r="J30" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="72" t="s">
+      <c r="K30" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="39"/>
-      <c r="M30" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N30" s="72" t="s">
+      <c r="M30" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="86" t="s">
         <v>26</v>
       </c>
       <c r="O30" s="40" t="s">
@@ -3737,17 +3677,17 @@
       <c r="I31" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="J31" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" s="71" t="s">
+      <c r="J31" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="7"/>
-      <c r="M31" s="71" t="s">
+      <c r="M31" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N31" s="71" t="s">
+      <c r="N31" s="87" t="s">
         <v>28</v>
       </c>
       <c r="O31" s="26" t="s">
@@ -3780,17 +3720,17 @@
       <c r="I32" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J32" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K32" s="72" t="s">
+      <c r="J32" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="39"/>
-      <c r="M32" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N32" s="72" t="s">
+      <c r="M32" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N32" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="40" t="s">
@@ -3823,17 +3763,17 @@
       <c r="I33" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="J33" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" s="71" t="s">
+      <c r="J33" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="M33" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="N33" s="71" t="s">
+      <c r="M33" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N33" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O33" s="26" t="s">
@@ -3866,17 +3806,17 @@
       <c r="I34" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="J34" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K34" s="72" t="s">
+      <c r="J34" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K34" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="39"/>
-      <c r="M34" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N34" s="72" t="s">
+      <c r="M34" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N34" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O34" s="40" t="s">
@@ -3909,17 +3849,17 @@
       <c r="I35" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="J35" s="71" t="s">
+      <c r="J35" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="K35" s="71" t="s">
+      <c r="K35" s="87" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="7"/>
-      <c r="M35" s="71" t="s">
+      <c r="M35" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N35" s="71" t="s">
+      <c r="N35" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O35" s="26" t="s">
@@ -3952,17 +3892,17 @@
       <c r="I36" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="J36" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K36" s="72" t="s">
+      <c r="J36" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K36" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L36" s="39"/>
-      <c r="M36" s="72" t="s">
+      <c r="M36" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="72" t="s">
+      <c r="N36" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O36" s="40" t="s">
@@ -3995,17 +3935,17 @@
       <c r="I37" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="J37" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="K37" s="71" t="s">
+      <c r="J37" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L37" s="7"/>
-      <c r="M37" s="71" t="s">
+      <c r="M37" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="71" t="s">
+      <c r="N37" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O37" s="26" t="s">
@@ -4038,17 +3978,17 @@
       <c r="I38" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="J38" s="72" t="s">
+      <c r="J38" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="72" t="s">
+      <c r="K38" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L38" s="39"/>
-      <c r="M38" s="72" t="s">
+      <c r="M38" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N38" s="72" t="s">
+      <c r="N38" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O38" s="40" t="s">
@@ -4081,17 +4021,17 @@
       <c r="I39" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J39" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="K39" s="71" t="s">
+      <c r="J39" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="7"/>
-      <c r="M39" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="N39" s="71" t="s">
+      <c r="M39" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N39" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="26" t="s">
@@ -4124,19 +4064,19 @@
       <c r="I40" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="K40" s="77" t="s">
+      <c r="J40" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="98" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="N40" s="77" t="s">
+      <c r="M40" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="N40" s="98" t="s">
         <v>24</v>
       </c>
       <c r="O40" s="49" t="s">
@@ -4169,17 +4109,17 @@
       <c r="I41" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="78" t="s">
+      <c r="J41" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="K41" s="78" t="s">
+      <c r="K41" s="99" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="31"/>
-      <c r="M41" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="N41" s="78" t="s">
+      <c r="M41" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="N41" s="99" t="s">
         <v>24</v>
       </c>
       <c r="O41" s="32" t="s">
@@ -4212,17 +4152,17 @@
       <c r="I42" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K42" s="72" t="s">
+      <c r="J42" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L42" s="39"/>
-      <c r="M42" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N42" s="72" t="s">
+      <c r="M42" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N42" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O42" s="40" t="s">
@@ -4255,19 +4195,19 @@
       <c r="I43" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="J43" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="K43" s="71" t="s">
+      <c r="J43" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M43" s="71" t="s">
+      <c r="M43" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N43" s="71" t="s">
+      <c r="N43" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O43" s="26" t="s">
@@ -4300,17 +4240,17 @@
       <c r="I44" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="J44" s="72" t="s">
+      <c r="J44" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="K44" s="72" t="s">
+      <c r="K44" s="86" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="39"/>
-      <c r="M44" s="72" t="s">
+      <c r="M44" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="N44" s="72" t="s">
+      <c r="N44" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O44" s="40" t="s">
@@ -4343,17 +4283,17 @@
       <c r="I45" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="J45" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="K45" s="71" t="s">
+      <c r="J45" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L45" s="7"/>
-      <c r="M45" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="N45" s="71" t="s">
+      <c r="M45" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N45" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O45" s="26" t="s">
@@ -4386,17 +4326,17 @@
       <c r="I46" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J46" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K46" s="72" t="s">
+      <c r="J46" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K46" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="39"/>
-      <c r="M46" s="72" t="s">
+      <c r="M46" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N46" s="72" t="s">
+      <c r="N46" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O46" s="40" t="s">
@@ -4429,17 +4369,17 @@
       <c r="I47" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J47" s="71" t="s">
+      <c r="J47" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K47" s="71" t="s">
+      <c r="K47" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L47" s="7"/>
-      <c r="M47" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="N47" s="71" t="s">
+      <c r="M47" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N47" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O47" s="26" t="s">
@@ -4472,17 +4412,17 @@
       <c r="I48" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="J48" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K48" s="72" t="s">
+      <c r="J48" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K48" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L48" s="39"/>
-      <c r="M48" s="72" t="s">
+      <c r="M48" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N48" s="72" t="s">
+      <c r="N48" s="86" t="s">
         <v>66</v>
       </c>
       <c r="O48" s="40" t="s">
@@ -4515,17 +4455,17 @@
       <c r="I49" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="J49" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="K49" s="71" t="s">
+      <c r="J49" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K49" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="7"/>
-      <c r="M49" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="N49" s="71" t="s">
+      <c r="M49" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N49" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O49" s="26" t="s">
@@ -4558,17 +4498,17 @@
       <c r="I50" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="J50" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K50" s="72" t="s">
+      <c r="J50" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K50" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="39"/>
-      <c r="M50" s="72" t="s">
+      <c r="M50" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="N50" s="72" t="s">
+      <c r="N50" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O50" s="40" t="s">
@@ -4601,17 +4541,17 @@
       <c r="I51" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="J51" s="71" t="s">
+      <c r="J51" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="K51" s="71" t="s">
+      <c r="K51" s="87" t="s">
         <v>38</v>
       </c>
       <c r="L51" s="7"/>
-      <c r="M51" s="71" t="s">
+      <c r="M51" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="N51" s="71" t="s">
+      <c r="N51" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O51" s="26" t="s">
@@ -4644,19 +4584,19 @@
       <c r="I52" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="J52" s="72" t="s">
+      <c r="J52" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="72" t="s">
+      <c r="K52" s="86" t="s">
         <v>71</v>
       </c>
       <c r="L52" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M52" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N52" s="72" t="s">
+      <c r="M52" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N52" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O52" s="40" t="s">
@@ -4689,19 +4629,19 @@
       <c r="I53" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="J53" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="K53" s="71" t="s">
+      <c r="J53" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M53" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="N53" s="71" t="s">
+      <c r="M53" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N53" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O53" s="26" t="s">
@@ -4734,17 +4674,17 @@
       <c r="I54" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="J54" s="72" t="s">
+      <c r="J54" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="K54" s="72" t="s">
+      <c r="K54" s="86" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="39"/>
-      <c r="M54" s="72" t="s">
+      <c r="M54" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N54" s="72" t="s">
+      <c r="N54" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O54" s="40" t="s">
@@ -4777,17 +4717,17 @@
       <c r="I55" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="J55" s="71" t="s">
+      <c r="J55" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K55" s="71" t="s">
+      <c r="K55" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L55" s="7"/>
-      <c r="M55" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="N55" s="71" t="s">
+      <c r="M55" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N55" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O55" s="26" t="s">
@@ -4820,17 +4760,17 @@
       <c r="I56" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="J56" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K56" s="72" t="s">
+      <c r="J56" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K56" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L56" s="39"/>
-      <c r="M56" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N56" s="72" t="s">
+      <c r="M56" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N56" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O56" s="40" t="s">
@@ -4863,19 +4803,19 @@
       <c r="I57" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="J57" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="K57" s="71" t="s">
+      <c r="J57" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K57" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M57" s="71" t="s">
+      <c r="M57" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N57" s="71" t="s">
+      <c r="N57" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O57" s="26" t="s">
@@ -4908,17 +4848,17 @@
       <c r="I58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="J58" s="72" t="s">
+      <c r="J58" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="K58" s="72" t="s">
+      <c r="K58" s="86" t="s">
         <v>28</v>
       </c>
       <c r="L58" s="39"/>
-      <c r="M58" s="72" t="s">
+      <c r="M58" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="N58" s="72" t="s">
+      <c r="N58" s="86" t="s">
         <v>78</v>
       </c>
       <c r="O58" s="40" t="s">
@@ -4951,17 +4891,17 @@
       <c r="I59" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="J59" s="71" t="s">
+      <c r="J59" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="K59" s="71" t="s">
+      <c r="K59" s="87" t="s">
         <v>38</v>
       </c>
       <c r="L59" s="7"/>
-      <c r="M59" s="71" t="s">
+      <c r="M59" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N59" s="71" t="s">
+      <c r="N59" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O59" s="26" t="s">
@@ -4982,15 +4922,15 @@
       <c r="G60" s="51"/>
       <c r="H60" s="51"/>
       <c r="I60" s="50"/>
-      <c r="J60" s="75" t="s">
+      <c r="J60" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="K60" s="76"/>
+      <c r="K60" s="101"/>
       <c r="L60" s="51"/>
-      <c r="M60" s="72" t="s">
+      <c r="M60" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N60" s="72" t="s">
+      <c r="N60" s="86" t="s">
         <v>66</v>
       </c>
       <c r="O60" s="26" t="s">
@@ -5011,15 +4951,15 @@
       <c r="G61" s="31"/>
       <c r="H61" s="31"/>
       <c r="I61" s="30"/>
-      <c r="J61" s="73" t="s">
+      <c r="J61" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="K61" s="74"/>
+      <c r="K61" s="103"/>
       <c r="L61" s="31"/>
-      <c r="M61" s="71" t="s">
+      <c r="M61" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N61" s="71" t="s">
+      <c r="N61" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O61" s="40" t="s">
@@ -5040,17 +4980,17 @@
       <c r="G62" s="51"/>
       <c r="H62" s="51"/>
       <c r="I62" s="50"/>
-      <c r="J62" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="K62" s="71" t="s">
+      <c r="J62" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K62" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L62" s="51"/>
-      <c r="M62" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N62" s="72" t="s">
+      <c r="M62" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N62" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O62" s="26" t="s">
@@ -5071,15 +5011,15 @@
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
       <c r="I63" s="30"/>
-      <c r="J63" s="73" t="s">
+      <c r="J63" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="K63" s="74"/>
+      <c r="K63" s="103"/>
       <c r="L63" s="31"/>
-      <c r="M63" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N63" s="72" t="s">
+      <c r="M63" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N63" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O63" s="26" t="s">
@@ -5100,17 +5040,17 @@
       <c r="G64" s="51"/>
       <c r="H64" s="51"/>
       <c r="I64" s="50"/>
-      <c r="J64" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="K64" s="71" t="s">
+      <c r="J64" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K64" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L64" s="51"/>
-      <c r="M64" s="71" t="s">
+      <c r="M64" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N64" s="71" t="s">
+      <c r="N64" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O64" s="40" t="s">
@@ -5129,17 +5069,17 @@
       <c r="G65" s="31"/>
       <c r="H65" s="31"/>
       <c r="I65" s="30"/>
-      <c r="J65" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="K65" s="71" t="s">
+      <c r="J65" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K65" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L65" s="31"/>
-      <c r="M65" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N65" s="72" t="s">
+      <c r="M65" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N65" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O65" s="40" t="s">
@@ -5172,17 +5112,17 @@
       <c r="I66" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J66" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K66" s="72" t="s">
+      <c r="J66" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K66" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L66" s="39"/>
-      <c r="M66" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N66" s="72" t="s">
+      <c r="M66" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N66" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O66" s="40" t="s">
@@ -5228,6 +5168,102 @@
     <row r="69" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="J17:K17"/>
@@ -5241,145 +5277,49 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="M63:N63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:F6 I6:N6">
-    <cfRule type="expression" dxfId="50" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="4" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="5" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="6" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 D7:H7 J7:O7">
-    <cfRule type="expression" dxfId="47" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="1" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="2" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="3" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H6">
-    <cfRule type="expression" dxfId="44" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="10" stopIfTrue="1">
       <formula>I$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="11" stopIfTrue="1">
       <formula>I$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="12" stopIfTrue="1">
       <formula>I$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="expression" dxfId="41" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="7" stopIfTrue="1">
       <formula>X$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="8" stopIfTrue="1">
       <formula>X$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
       <formula>X$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5391,8 +5331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A1C220-DC63-401D-B66B-975EAA99E44B}">
   <dimension ref="A2:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66:C66"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5463,11 +5403,11 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="79"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="91" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="8">
@@ -5517,11 +5457,11 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A7" s="80"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="7" t="s">
         <v>176</v>
       </c>
@@ -5569,11 +5509,11 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="83"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="7">
         <v>12</v>
       </c>
@@ -5617,11 +5557,11 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A9" s="80"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="7">
         <v>6</v>
       </c>
@@ -5652,7 +5592,7 @@
         <v>96</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>98</v>
@@ -5665,11 +5605,11 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="7" t="s">
         <v>179</v>
       </c>
@@ -5713,11 +5653,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A11" s="80"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -5749,11 +5689,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A12" s="80"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="7" t="s">
         <v>180</v>
       </c>
@@ -5797,11 +5737,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -5863,40 +5803,40 @@
       </c>
       <c r="E14" s="43"/>
       <c r="F14" s="43"/>
-      <c r="G14" s="88" t="s">
+      <c r="G14" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="H14" s="88" t="s">
+      <c r="H14" s="97" t="s">
         <v>66</v>
       </c>
       <c r="I14" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="88" t="s">
+      <c r="J14" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="88" t="s">
+      <c r="K14" s="97" t="s">
         <v>66</v>
       </c>
       <c r="L14" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="M14" s="88" t="s">
-        <v>260</v>
-      </c>
-      <c r="N14" s="88" t="s">
+      <c r="M14" s="97" t="s">
+        <v>259</v>
+      </c>
+      <c r="N14" s="97" t="s">
         <v>26</v>
       </c>
       <c r="O14" s="43" t="s">
-        <v>266</v>
-      </c>
-      <c r="P14" s="88" t="s">
+        <v>265</v>
+      </c>
+      <c r="P14" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="Q14" s="88" t="s">
+      <c r="Q14" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="R14" s="103" t="s">
+      <c r="R14" s="78" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5915,37 +5855,37 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="71" t="s">
+      <c r="G15" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="71" t="s">
+      <c r="H15" s="87" t="s">
         <v>66</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="71" t="s">
+      <c r="J15" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="71" t="s">
+      <c r="K15" s="87" t="s">
         <v>66</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="71" t="s">
-        <v>259</v>
-      </c>
-      <c r="N15" s="71" t="s">
-        <v>259</v>
+      <c r="M15" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="N15" s="87" t="s">
+        <v>258</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="P15" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="P15" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="Q15" s="71" t="s">
+      <c r="Q15" s="87" t="s">
         <v>66</v>
       </c>
       <c r="R15" s="69" t="s">
@@ -5967,41 +5907,41 @@
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
-      <c r="G16" s="72" t="s">
+      <c r="G16" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="72" t="s">
+      <c r="H16" s="86" t="s">
         <v>30</v>
       </c>
       <c r="I16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="72" t="s">
+      <c r="J16" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="72" t="s">
+      <c r="M16" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="N16" s="72" t="s">
+      <c r="N16" s="86" t="s">
         <v>66</v>
       </c>
       <c r="O16" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="P16" s="72" t="s">
+        <v>265</v>
+      </c>
+      <c r="P16" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="Q16" s="72" t="s">
+      <c r="Q16" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="R16" s="104" t="s">
-        <v>266</v>
+      <c r="R16" s="79" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.15">
@@ -6019,41 +5959,41 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="71" t="s">
+      <c r="G17" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="71" t="s">
+      <c r="J17" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="71" t="s">
+      <c r="M17" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="P17" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="P17" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="Q17" s="71" t="s">
+      <c r="Q17" s="87" t="s">
         <v>30</v>
       </c>
       <c r="R17" s="69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.15">
@@ -6071,41 +6011,41 @@
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
-      <c r="G18" s="72" t="s">
+      <c r="G18" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="72" t="s">
+      <c r="H18" s="86" t="s">
         <v>66</v>
       </c>
       <c r="I18" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="72" t="s">
+      <c r="J18" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="N18" s="72" t="s">
+      <c r="M18" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="N18" s="86" t="s">
         <v>66</v>
       </c>
       <c r="O18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P18" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q18" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R18" s="104" t="s">
-        <v>266</v>
+      <c r="P18" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18" s="79" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.15">
@@ -6123,37 +6063,37 @@
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="71" t="s">
+      <c r="G19" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="71" t="s">
+      <c r="J19" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="K19" s="71" t="s">
+      <c r="K19" s="87" t="s">
         <v>66</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="71" t="s">
+      <c r="M19" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="P19" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="P19" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R19" s="69" t="s">
@@ -6175,41 +6115,41 @@
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
-      <c r="G20" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="72" t="s">
+      <c r="G20" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="72" t="s">
+      <c r="J20" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L20" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M20" s="72" t="s">
+      <c r="M20" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="N20" s="72" t="s">
+      <c r="N20" s="86" t="s">
         <v>66</v>
       </c>
       <c r="O20" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="P20" s="72" t="s">
+        <v>265</v>
+      </c>
+      <c r="P20" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="Q20" s="72" t="s">
+      <c r="Q20" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="R20" s="104" t="s">
-        <v>266</v>
+      <c r="R20" s="79" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.15">
@@ -6227,41 +6167,41 @@
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="71" t="s">
+      <c r="G21" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="87" t="s">
         <v>26</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="71" t="s">
+      <c r="J21" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="K21" s="71" t="s">
+      <c r="K21" s="87" t="s">
         <v>66</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M21" s="71" t="s">
-        <v>259</v>
-      </c>
-      <c r="N21" s="71" t="s">
-        <v>259</v>
+      <c r="M21" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="N21" s="87" t="s">
+        <v>258</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P21" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q21" s="71" t="s">
+      <c r="P21" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R21" s="69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.15">
@@ -6279,40 +6219,40 @@
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
-      <c r="G22" s="72" t="s">
+      <c r="G22" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="72" t="s">
+      <c r="H22" s="86" t="s">
         <v>66</v>
       </c>
       <c r="I22" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="72" t="s">
+      <c r="J22" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="72" t="s">
+      <c r="K22" s="86" t="s">
         <v>38</v>
       </c>
       <c r="L22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="72" t="s">
+      <c r="M22" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="N22" s="72" t="s">
+      <c r="N22" s="86" t="s">
         <v>66</v>
       </c>
       <c r="O22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P22" s="72" t="s">
+      <c r="P22" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="Q22" s="72" t="s">
+      <c r="Q22" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="R22" s="104" t="s">
+      <c r="R22" s="79" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6326,46 +6266,46 @@
       <c r="C23" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>256</v>
+      <c r="D23" s="39" t="s">
+        <v>267</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="71" t="s">
+      <c r="G23" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="71" t="s">
+      <c r="H23" s="87" t="s">
         <v>66</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="71" t="s">
+      <c r="J23" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M23" s="71" t="s">
+      <c r="M23" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="N23" s="71" t="s">
+      <c r="N23" s="87" t="s">
         <v>66</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P23" s="71" t="s">
+      <c r="P23" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="Q23" s="71" t="s">
+      <c r="Q23" s="87" t="s">
         <v>66</v>
       </c>
       <c r="R23" s="69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.15">
@@ -6383,41 +6323,41 @@
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
-      <c r="G24" s="72" t="s">
+      <c r="G24" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="72" t="s">
+      <c r="H24" s="86" t="s">
         <v>66</v>
       </c>
       <c r="I24" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" s="72" t="s">
+      <c r="J24" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M24" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="72" t="s">
+      <c r="M24" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O24" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P24" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q24" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R24" s="104" t="s">
-        <v>266</v>
+      <c r="P24" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24" s="79" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.15">
@@ -6435,37 +6375,37 @@
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="71" t="s">
+      <c r="G25" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="71" t="s">
+      <c r="H25" s="87" t="s">
         <v>30</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="71" t="s">
+      <c r="J25" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="71" t="s">
+      <c r="K25" s="87" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M25" s="71" t="s">
+      <c r="M25" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="N25" s="71" t="s">
+      <c r="N25" s="87" t="s">
         <v>30</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P25" s="71" t="s">
+      <c r="P25" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="Q25" s="71" t="s">
+      <c r="Q25" s="87" t="s">
         <v>30</v>
       </c>
       <c r="R25" s="69" t="s">
@@ -6487,41 +6427,41 @@
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
-      <c r="G26" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="72" t="s">
+      <c r="G26" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I26" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" s="72" t="s">
+      <c r="J26" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L26" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M26" s="72" t="s">
+      <c r="M26" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="N26" s="72" t="s">
+      <c r="N26" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O26" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P26" s="72" t="s">
+      <c r="P26" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="Q26" s="72" t="s">
+      <c r="Q26" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="R26" s="104" t="s">
-        <v>266</v>
+      <c r="R26" s="79" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.15">
@@ -6539,37 +6479,37 @@
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="71" t="s">
+      <c r="G27" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="K27" s="71" t="s">
+      <c r="J27" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M27" s="71" t="s">
-        <v>259</v>
-      </c>
-      <c r="N27" s="71" t="s">
-        <v>259</v>
+      <c r="M27" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="N27" s="87" t="s">
+        <v>258</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="P27" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q27" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="P27" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R27" s="69" t="s">
@@ -6591,41 +6531,41 @@
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
-      <c r="G28" s="72" t="s">
+      <c r="G28" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="72" t="s">
+      <c r="H28" s="86" t="s">
         <v>66</v>
       </c>
       <c r="I28" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="72" t="s">
+      <c r="J28" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="K28" s="72" t="s">
+      <c r="K28" s="86" t="s">
         <v>66</v>
       </c>
       <c r="L28" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="M28" s="72" t="s">
+      <c r="M28" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="N28" s="72" t="s">
+      <c r="N28" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O28" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="P28" s="72" t="s">
+        <v>265</v>
+      </c>
+      <c r="P28" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="72" t="s">
+      <c r="Q28" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="R28" s="104" t="s">
-        <v>266</v>
+      <c r="R28" s="79" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.15">
@@ -6643,41 +6583,41 @@
       </c>
       <c r="E29" s="60"/>
       <c r="F29" s="60"/>
-      <c r="G29" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="71" t="s">
+      <c r="G29" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="71" t="s">
+      <c r="J29" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M29" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="71" t="s">
+      <c r="M29" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="71" t="s">
+      <c r="P29" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="Q29" s="71" t="s">
+      <c r="Q29" s="87" t="s">
         <v>66</v>
       </c>
       <c r="R29" s="69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.15">
@@ -6695,41 +6635,41 @@
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
-      <c r="G30" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="72" t="s">
+      <c r="G30" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="72" t="s">
+      <c r="J30" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="K30" s="72" t="s">
+      <c r="K30" s="86" t="s">
         <v>66</v>
       </c>
       <c r="L30" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M30" s="72" t="s">
+      <c r="M30" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="N30" s="72" t="s">
+      <c r="N30" s="86" t="s">
         <v>66</v>
       </c>
       <c r="O30" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P30" s="72" t="s">
+      <c r="P30" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="Q30" s="72" t="s">
+      <c r="Q30" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="R30" s="104" t="s">
-        <v>266</v>
+      <c r="R30" s="79" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.15">
@@ -6742,43 +6682,43 @@
       <c r="C31" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>256</v>
+      <c r="D31" s="39" t="s">
+        <v>267</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="71" t="s">
+      <c r="G31" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="K31" s="71" t="s">
+      <c r="J31" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="M31" s="71" t="s">
-        <v>261</v>
-      </c>
-      <c r="N31" s="71" t="s">
-        <v>261</v>
+        <v>258</v>
+      </c>
+      <c r="M31" s="87" t="s">
+        <v>260</v>
+      </c>
+      <c r="N31" s="87" t="s">
+        <v>260</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P31" s="71" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q31" s="71" t="s">
-        <v>261</v>
+      <c r="P31" s="87" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q31" s="87" t="s">
+        <v>260</v>
       </c>
       <c r="R31" s="69" t="s">
         <v>24</v>
@@ -6799,40 +6739,40 @@
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="39"/>
-      <c r="G32" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="72" t="s">
+      <c r="G32" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I32" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J32" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" s="72" t="s">
+      <c r="J32" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M32" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="N32" s="72" t="s">
+      <c r="M32" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="P32" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R32" s="104" t="s">
+        <v>265</v>
+      </c>
+      <c r="P32" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" s="79" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6851,37 +6791,37 @@
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="71" t="s">
+      <c r="G33" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="71" t="s">
+      <c r="H33" s="87" t="s">
         <v>66</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" s="71" t="s">
+      <c r="J33" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M33" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="N33" s="71" t="s">
+      <c r="M33" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P33" s="71" t="s">
+      <c r="P33" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="Q33" s="71" t="s">
+      <c r="Q33" s="87" t="s">
         <v>38</v>
       </c>
       <c r="R33" s="69" t="s">
@@ -6899,45 +6839,45 @@
         <v>122</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="39"/>
-      <c r="G34" s="72" t="s">
+      <c r="G34" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H34" s="72" t="s">
+      <c r="H34" s="86" t="s">
         <v>66</v>
       </c>
       <c r="I34" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J34" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="K34" s="72" t="s">
+      <c r="J34" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L34" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M34" s="72" t="s">
-        <v>259</v>
-      </c>
-      <c r="N34" s="72" t="s">
-        <v>259</v>
+      <c r="M34" s="86" t="s">
+        <v>258</v>
+      </c>
+      <c r="N34" s="86" t="s">
+        <v>258</v>
       </c>
       <c r="O34" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="P34" s="72" t="s">
+        <v>265</v>
+      </c>
+      <c r="P34" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="Q34" s="72" t="s">
+      <c r="Q34" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="R34" s="104" t="s">
-        <v>266</v>
+      <c r="R34" s="79" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.15">
@@ -6955,37 +6895,37 @@
       </c>
       <c r="E35" s="60"/>
       <c r="F35" s="60"/>
-      <c r="G35" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="71" t="s">
+      <c r="G35" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J35" s="71" t="s">
+      <c r="J35" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="K35" s="71" t="s">
+      <c r="K35" s="87" t="s">
         <v>66</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M35" s="71" t="s">
+      <c r="M35" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="N35" s="71" t="s">
+      <c r="N35" s="87" t="s">
         <v>66</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P35" s="71" t="s">
+      <c r="P35" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="Q35" s="71" t="s">
+      <c r="Q35" s="87" t="s">
         <v>66</v>
       </c>
       <c r="R35" s="69" t="s">
@@ -7007,40 +6947,40 @@
       </c>
       <c r="E36" s="39"/>
       <c r="F36" s="39"/>
-      <c r="G36" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="72" t="s">
+      <c r="G36" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="72" t="s">
+      <c r="J36" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="K36" s="72" t="s">
+      <c r="K36" s="86" t="s">
         <v>66</v>
       </c>
       <c r="L36" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M36" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="N36" s="72" t="s">
+      <c r="M36" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P36" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q36" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R36" s="104" t="s">
+      <c r="P36" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="R36" s="79" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7059,41 +6999,41 @@
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="71" t="s">
+      <c r="G37" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J37" s="71" t="s">
+      <c r="J37" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="K37" s="71" t="s">
+      <c r="K37" s="87" t="s">
         <v>25</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M37" s="71" t="s">
+      <c r="M37" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="N37" s="71" t="s">
+      <c r="N37" s="87" t="s">
         <v>66</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="P37" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="P37" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="Q37" s="71" t="s">
+      <c r="Q37" s="87" t="s">
         <v>38</v>
       </c>
       <c r="R37" s="69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.15">
@@ -7111,40 +7051,40 @@
       </c>
       <c r="E38" s="39"/>
       <c r="F38" s="39"/>
-      <c r="G38" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="72" t="s">
+      <c r="G38" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J38" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="K38" s="72" t="s">
+      <c r="J38" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M38" s="72" t="s">
-        <v>262</v>
-      </c>
-      <c r="N38" s="72" t="s">
-        <v>262</v>
+      <c r="M38" s="86" t="s">
+        <v>261</v>
+      </c>
+      <c r="N38" s="86" t="s">
+        <v>261</v>
       </c>
       <c r="O38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P38" s="72" t="s">
+      <c r="P38" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="Q38" s="72" t="s">
+      <c r="Q38" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="R38" s="104" t="s">
+      <c r="R38" s="79" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7163,41 +7103,41 @@
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="71" t="s">
+      <c r="G39" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="K39" s="71" t="s">
+      <c r="J39" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M39" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="N39" s="71" t="s">
+      <c r="M39" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P39" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q39" s="71" t="s">
+      <c r="P39" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q39" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R39" s="69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -7215,40 +7155,40 @@
       </c>
       <c r="E40" s="48"/>
       <c r="F40" s="48"/>
-      <c r="G40" s="72" t="s">
+      <c r="G40" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H40" s="72" t="s">
+      <c r="H40" s="86" t="s">
         <v>66</v>
       </c>
       <c r="I40" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J40" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="K40" s="72" t="s">
+      <c r="J40" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L40" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M40" s="72" t="s">
+      <c r="M40" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="N40" s="72" t="s">
+      <c r="N40" s="86" t="s">
         <v>30</v>
       </c>
       <c r="O40" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="P40" s="72" t="s">
+      <c r="P40" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="Q40" s="72" t="s">
+      <c r="Q40" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="R40" s="104" t="s">
+      <c r="R40" s="79" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7256,51 +7196,51 @@
       <c r="A41" s="35">
         <v>28</v>
       </c>
-      <c r="B41" s="96" t="s">
+      <c r="B41" s="74" t="s">
         <v>234</v>
       </c>
       <c r="C41" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="D41" s="98" t="s">
+      <c r="D41" s="71" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="31"/>
-      <c r="G41" s="92" t="s">
+      <c r="G41" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="H41" s="92" t="s">
+      <c r="H41" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="I41" s="98" t="s">
+      <c r="I41" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="J41" s="92" t="s">
-        <v>26</v>
-      </c>
-      <c r="K41" s="92" t="s">
-        <v>26</v>
-      </c>
-      <c r="L41" s="98" t="s">
+      <c r="J41" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="L41" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="M41" s="92" t="s">
+      <c r="M41" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="N41" s="92" t="s">
+      <c r="N41" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="O41" s="98" t="s">
+      <c r="O41" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="P41" s="92" t="s">
+      <c r="P41" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="Q41" s="92" t="s">
+      <c r="Q41" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="R41" s="105" t="s">
+      <c r="R41" s="80" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7308,51 +7248,51 @@
       <c r="A42" s="37">
         <v>29</v>
       </c>
-      <c r="B42" s="97" t="s">
+      <c r="B42" s="75" t="s">
         <v>235</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="D42" s="99" t="s">
+      <c r="D42" s="72" t="s">
         <v>255</v>
       </c>
       <c r="E42" s="39"/>
       <c r="F42" s="39"/>
-      <c r="G42" s="93" t="s">
+      <c r="G42" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="H42" s="93" t="s">
+      <c r="H42" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="I42" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="J42" s="93" t="s">
+      <c r="I42" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="K42" s="93" t="s">
+      <c r="K42" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="L42" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="M42" s="93" t="s">
+      <c r="L42" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="N42" s="93" t="s">
+      <c r="N42" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="O42" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="P42" s="93" t="s">
+      <c r="O42" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="P42" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="Q42" s="93" t="s">
+      <c r="Q42" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="R42" s="106" t="s">
+      <c r="R42" s="81" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7371,40 +7311,40 @@
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="78" t="s">
+      <c r="G43" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="H43" s="78" t="s">
+      <c r="H43" s="99" t="s">
         <v>25</v>
       </c>
       <c r="I43" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J43" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="K43" s="78" t="s">
+      <c r="J43" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="99" t="s">
         <v>24</v>
       </c>
       <c r="L43" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="M43" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="N43" s="78" t="s">
+      <c r="M43" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" s="99" t="s">
         <v>24</v>
       </c>
       <c r="O43" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="P43" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q43" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="R43" s="107" t="s">
+      <c r="P43" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="R43" s="82" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7423,40 +7363,40 @@
       </c>
       <c r="E44" s="39"/>
       <c r="F44" s="39"/>
-      <c r="G44" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="72" t="s">
+      <c r="G44" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I44" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J44" s="72" t="s">
+      <c r="J44" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="K44" s="72" t="s">
+      <c r="K44" s="86" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M44" s="72" t="s">
+      <c r="M44" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="N44" s="72" t="s">
+      <c r="N44" s="86" t="s">
         <v>66</v>
       </c>
       <c r="O44" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P44" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q44" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R44" s="104" t="s">
+      <c r="P44" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q44" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="R44" s="79" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7475,37 +7415,37 @@
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="71" t="s">
+      <c r="G45" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="87" t="s">
         <v>26</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J45" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="K45" s="71" t="s">
+      <c r="J45" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M45" s="71" t="s">
+      <c r="M45" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="N45" s="71" t="s">
+      <c r="N45" s="87" t="s">
         <v>66</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P45" s="71" t="s">
+      <c r="P45" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="Q45" s="71" t="s">
+      <c r="Q45" s="87" t="s">
         <v>66</v>
       </c>
       <c r="R45" s="69" t="s">
@@ -7527,41 +7467,41 @@
       </c>
       <c r="E46" s="39"/>
       <c r="F46" s="39"/>
-      <c r="G46" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H46" s="72" t="s">
+      <c r="G46" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I46" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J46" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="K46" s="72" t="s">
+      <c r="J46" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M46" s="72" t="s">
+      <c r="M46" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="N46" s="72" t="s">
+      <c r="N46" s="86" t="s">
         <v>66</v>
       </c>
       <c r="O46" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="P46" s="72" t="s">
+      <c r="P46" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="Q46" s="72" t="s">
+      <c r="Q46" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="R46" s="104" t="s">
-        <v>266</v>
+      <c r="R46" s="79" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.15">
@@ -7579,41 +7519,41 @@
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="71" t="s">
+      <c r="G47" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="H47" s="71" t="s">
+      <c r="H47" s="87" t="s">
         <v>66</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J47" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="K47" s="71" t="s">
+      <c r="J47" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K47" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M47" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="N47" s="71" t="s">
+      <c r="M47" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N47" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P47" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q47" s="71" t="s">
+      <c r="P47" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q47" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R47" s="69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.15">
@@ -7631,40 +7571,40 @@
       </c>
       <c r="E48" s="39"/>
       <c r="F48" s="39"/>
-      <c r="G48" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="H48" s="72" t="s">
+      <c r="G48" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="86" t="s">
         <v>26</v>
       </c>
       <c r="I48" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J48" s="72" t="s">
+      <c r="J48" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="K48" s="72" t="s">
+      <c r="K48" s="86" t="s">
         <v>66</v>
       </c>
       <c r="L48" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M48" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="N48" s="72" t="s">
+      <c r="M48" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N48" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O48" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="P48" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q48" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R48" s="104" t="s">
+        <v>265</v>
+      </c>
+      <c r="P48" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q48" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="R48" s="79" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7683,37 +7623,37 @@
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="H49" s="71" t="s">
+      <c r="G49" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J49" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="K49" s="71" t="s">
+      <c r="J49" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M49" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="N49" s="71" t="s">
-        <v>263</v>
+      <c r="M49" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="N49" s="87" t="s">
+        <v>262</v>
       </c>
       <c r="O49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P49" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q49" s="71" t="s">
+      <c r="P49" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q49" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R49" s="69" t="s">
@@ -7735,40 +7675,40 @@
       </c>
       <c r="E50" s="39"/>
       <c r="F50" s="39"/>
-      <c r="G50" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H50" s="72" t="s">
+      <c r="G50" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I50" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J50" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="K50" s="72" t="s">
+      <c r="J50" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M50" s="72" t="s">
+      <c r="M50" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="N50" s="72" t="s">
+      <c r="N50" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O50" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="P50" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q50" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R50" s="104" t="s">
+        <v>265</v>
+      </c>
+      <c r="P50" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q50" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="R50" s="79" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7787,41 +7727,41 @@
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="H51" s="71" t="s">
+      <c r="G51" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" s="87" t="s">
         <v>26</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J51" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="K51" s="71" t="s">
+      <c r="J51" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K51" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L51" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M51" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="N51" s="71" t="s">
+      <c r="M51" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N51" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="P51" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q51" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="P51" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q51" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R51" s="69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.15">
@@ -7839,40 +7779,40 @@
       </c>
       <c r="E52" s="39"/>
       <c r="F52" s="39"/>
-      <c r="G52" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="H52" s="72" t="s">
+      <c r="G52" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="86" t="s">
         <v>26</v>
       </c>
       <c r="I52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J52" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="K52" s="72" t="s">
+      <c r="J52" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K52" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L52" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M52" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="N52" s="72" t="s">
+      <c r="M52" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N52" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P52" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q52" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R52" s="104" t="s">
+      <c r="P52" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q52" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="R52" s="79" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7880,7 +7820,7 @@
       <c r="A53" s="33">
         <v>40</v>
       </c>
-      <c r="B53" s="95" t="s">
+      <c r="B53" s="73" t="s">
         <v>244</v>
       </c>
       <c r="C53" s="38" t="s">
@@ -7891,41 +7831,41 @@
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="H53" s="94" t="s">
+      <c r="G53" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="105" t="s">
         <v>24</v>
       </c>
       <c r="I53" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J53" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="K53" s="94" t="s">
+      <c r="J53" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="K53" s="105" t="s">
         <v>24</v>
       </c>
       <c r="L53" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="M53" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="N53" s="94" t="s">
+      <c r="M53" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53" s="105" t="s">
         <v>26</v>
       </c>
       <c r="O53" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="P53" s="94" t="s">
+        <v>265</v>
+      </c>
+      <c r="P53" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="Q53" s="94" t="s">
+      <c r="Q53" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="R53" s="108" t="s">
-        <v>266</v>
+      <c r="R53" s="83" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.15">
@@ -7943,40 +7883,40 @@
       </c>
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
-      <c r="G54" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="H54" s="72" t="s">
+      <c r="G54" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" s="86" t="s">
         <v>26</v>
       </c>
       <c r="I54" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J54" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="K54" s="72" t="s">
+      <c r="J54" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="K54" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L54" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M54" s="72" t="s">
+      <c r="M54" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="N54" s="72" t="s">
+      <c r="N54" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O54" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="P54" s="72" t="s">
+      <c r="P54" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="Q54" s="72" t="s">
+      <c r="Q54" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="R54" s="104" t="s">
+      <c r="R54" s="79" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7995,37 +7935,37 @@
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="H55" s="71" t="s">
+      <c r="G55" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J55" s="71" t="s">
+      <c r="J55" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="K55" s="71" t="s">
+      <c r="K55" s="87" t="s">
         <v>25</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M55" s="71" t="s">
+      <c r="M55" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="N55" s="71" t="s">
+      <c r="N55" s="87" t="s">
         <v>30</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P55" s="71" t="s">
+      <c r="P55" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="Q55" s="71" t="s">
+      <c r="Q55" s="87" t="s">
         <v>66</v>
       </c>
       <c r="R55" s="69" t="s">
@@ -8047,40 +7987,40 @@
       </c>
       <c r="E56" s="39"/>
       <c r="F56" s="39"/>
-      <c r="G56" s="72" t="s">
+      <c r="G56" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="H56" s="72" t="s">
+      <c r="H56" s="86" t="s">
         <v>38</v>
       </c>
       <c r="I56" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J56" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="K56" s="72" t="s">
+      <c r="J56" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K56" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L56" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M56" s="72" t="s">
+      <c r="M56" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="N56" s="72" t="s">
+      <c r="N56" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O56" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="P56" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q56" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R56" s="104" t="s">
+      <c r="P56" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q56" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="R56" s="79" t="s">
         <v>24</v>
       </c>
     </row>
@@ -8099,41 +8039,41 @@
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="H57" s="71" t="s">
+      <c r="G57" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" s="87" t="s">
         <v>26</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J57" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="K57" s="71" t="s">
+      <c r="J57" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K57" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M57" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="N57" s="71" t="s">
+      <c r="M57" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="P57" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q57" s="71" t="s">
+        <v>266</v>
+      </c>
+      <c r="P57" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q57" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R57" s="69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.15">
@@ -8151,40 +8091,40 @@
       </c>
       <c r="E58" s="39"/>
       <c r="F58" s="39"/>
-      <c r="G58" s="72" t="s">
+      <c r="G58" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="H58" s="72" t="s">
+      <c r="H58" s="86" t="s">
         <v>38</v>
       </c>
       <c r="I58" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J58" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="K58" s="72" t="s">
+      <c r="J58" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="K58" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L58" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="M58" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="N58" s="72" t="s">
+      <c r="M58" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N58" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O58" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P58" s="72" t="s">
+      <c r="P58" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="Q58" s="72" t="s">
+      <c r="Q58" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="R58" s="104" t="s">
+      <c r="R58" s="79" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8192,7 +8132,7 @@
       <c r="A59" s="33">
         <v>46</v>
       </c>
-      <c r="B59" s="95" t="s">
+      <c r="B59" s="73" t="s">
         <v>200</v>
       </c>
       <c r="C59" s="50" t="s">
@@ -8203,37 +8143,37 @@
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
-      <c r="G59" s="71" t="s">
+      <c r="G59" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H59" s="71" t="s">
+      <c r="H59" s="87" t="s">
         <v>25</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J59" s="71" t="s">
+      <c r="J59" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="K59" s="71" t="s">
+      <c r="K59" s="87" t="s">
         <v>66</v>
       </c>
       <c r="L59" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M59" s="71" t="s">
+      <c r="M59" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="N59" s="71" t="s">
+      <c r="N59" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P59" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q59" s="71" t="s">
+      <c r="P59" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q59" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R59" s="69" t="s">
@@ -8255,40 +8195,40 @@
       </c>
       <c r="E60" s="39"/>
       <c r="F60" s="39"/>
-      <c r="G60" s="72" t="s">
+      <c r="G60" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="H60" s="72" t="s">
+      <c r="H60" s="86" t="s">
         <v>30</v>
       </c>
       <c r="I60" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J60" s="72" t="s">
+      <c r="J60" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="K60" s="72" t="s">
+      <c r="K60" s="86" t="s">
         <v>30</v>
       </c>
       <c r="L60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="M60" s="72" t="s">
+      <c r="M60" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="N60" s="72" t="s">
+      <c r="N60" s="86" t="s">
         <v>30</v>
       </c>
       <c r="O60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="P60" s="72" t="s">
+      <c r="P60" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="Q60" s="72" t="s">
+      <c r="Q60" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="R60" s="104" t="s">
+      <c r="R60" s="79" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8296,7 +8236,7 @@
       <c r="A61" s="33">
         <v>48</v>
       </c>
-      <c r="B61" s="95" t="s">
+      <c r="B61" s="73" t="s">
         <v>202</v>
       </c>
       <c r="C61" s="30" t="s">
@@ -8307,41 +8247,41 @@
       </c>
       <c r="E61" s="32"/>
       <c r="F61" s="32"/>
-      <c r="G61" s="71" t="s">
+      <c r="G61" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="H61" s="71" t="s">
+      <c r="H61" s="87" t="s">
         <v>66</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J61" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="K61" s="71" t="s">
+      <c r="J61" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K61" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L61" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M61" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="N61" s="71" t="s">
+      <c r="M61" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N61" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O61" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P61" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q61" s="71" t="s">
+      <c r="P61" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q61" s="87" t="s">
         <v>26</v>
       </c>
       <c r="R61" s="69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.15">
@@ -8359,40 +8299,40 @@
       </c>
       <c r="E62" s="52"/>
       <c r="F62" s="52"/>
-      <c r="G62" s="72" t="s">
+      <c r="G62" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="H62" s="72" t="s">
+      <c r="H62" s="86" t="s">
         <v>25</v>
       </c>
       <c r="I62" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J62" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="K62" s="72" t="s">
+      <c r="J62" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="K62" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L62" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="M62" s="72" t="s">
-        <v>264</v>
-      </c>
-      <c r="N62" s="72" t="s">
-        <v>264</v>
+      <c r="M62" s="86" t="s">
+        <v>263</v>
+      </c>
+      <c r="N62" s="86" t="s">
+        <v>263</v>
       </c>
       <c r="O62" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P62" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q62" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="R62" s="104" t="s">
+      <c r="P62" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q62" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="R62" s="79" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8411,37 +8351,37 @@
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="32"/>
-      <c r="G63" s="71" t="s">
+      <c r="G63" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="H63" s="71" t="s">
+      <c r="H63" s="87" t="s">
         <v>38</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J63" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="K63" s="71" t="s">
+      <c r="J63" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K63" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M63" s="71" t="s">
+      <c r="M63" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="N63" s="71" t="s">
+      <c r="N63" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="P63" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q63" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="P63" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q63" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R63" s="69" t="s">
@@ -8463,41 +8403,41 @@
       </c>
       <c r="E64" s="52"/>
       <c r="F64" s="52"/>
-      <c r="G64" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="H64" s="72" t="s">
+      <c r="G64" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" s="86" t="s">
         <v>26</v>
       </c>
       <c r="I64" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J64" s="72" t="s">
-        <v>258</v>
-      </c>
-      <c r="K64" s="72" t="s">
-        <v>258</v>
+      <c r="J64" s="86" t="s">
+        <v>257</v>
+      </c>
+      <c r="K64" s="86" t="s">
+        <v>257</v>
       </c>
       <c r="L64" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="M64" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="N64" s="72" t="s">
+      <c r="M64" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N64" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O64" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P64" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q64" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="R64" s="104" t="s">
-        <v>266</v>
+      <c r="P64" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q64" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="R64" s="79" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -8515,37 +8455,37 @@
       </c>
       <c r="E65" s="32"/>
       <c r="F65" s="32"/>
-      <c r="G65" s="71" t="s">
+      <c r="G65" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="71" t="s">
+      <c r="H65" s="87" t="s">
         <v>30</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J65" s="71" t="s">
+      <c r="J65" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="K65" s="71" t="s">
+      <c r="K65" s="87" t="s">
         <v>30</v>
       </c>
       <c r="L65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M65" s="71" t="s">
+      <c r="M65" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="N65" s="71" t="s">
+      <c r="N65" s="87" t="s">
         <v>30</v>
       </c>
       <c r="O65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P65" s="71" t="s">
+      <c r="P65" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="Q65" s="71" t="s">
+      <c r="Q65" s="87" t="s">
         <v>30</v>
       </c>
       <c r="R65" s="69" t="s">
@@ -8611,106 +8551,212 @@
     </row>
     <row r="69" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="70" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="L70" s="100"/>
-      <c r="M70" s="100"/>
-      <c r="N70" s="100"/>
-      <c r="O70" s="100"/>
-      <c r="P70" s="100"/>
-      <c r="Q70" s="100"/>
-      <c r="R70" s="109"/>
+      <c r="L70" s="76"/>
+      <c r="M70" s="76"/>
+      <c r="N70" s="76"/>
+      <c r="O70" s="76"/>
+      <c r="P70" s="76"/>
+      <c r="Q70" s="76"/>
+      <c r="R70" s="84"/>
     </row>
     <row r="71" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="L71" s="100"/>
-      <c r="M71" s="102"/>
-      <c r="N71" s="102"/>
-      <c r="O71" s="100"/>
-      <c r="P71" s="102"/>
-      <c r="Q71" s="102"/>
-      <c r="R71" s="109"/>
+      <c r="L71" s="76"/>
+      <c r="M71" s="104"/>
+      <c r="N71" s="104"/>
+      <c r="O71" s="76"/>
+      <c r="P71" s="104"/>
+      <c r="Q71" s="104"/>
+      <c r="R71" s="84"/>
     </row>
     <row r="72" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="L72" s="101"/>
-      <c r="M72" s="101"/>
-      <c r="N72" s="101"/>
-      <c r="O72" s="101"/>
-      <c r="P72" s="101"/>
-      <c r="Q72" s="101"/>
-      <c r="R72" s="110"/>
+      <c r="L72" s="77"/>
+      <c r="M72" s="77"/>
+      <c r="N72" s="77"/>
+      <c r="O72" s="77"/>
+      <c r="P72" s="77"/>
+      <c r="Q72" s="77"/>
+      <c r="R72" s="85"/>
     </row>
     <row r="73" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="74" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="75" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="L75" s="100"/>
-      <c r="M75" s="100"/>
-      <c r="N75" s="100"/>
-      <c r="O75" s="100"/>
-      <c r="P75" s="100"/>
-      <c r="Q75" s="100"/>
-      <c r="R75" s="109"/>
+      <c r="L75" s="76"/>
+      <c r="M75" s="76"/>
+      <c r="N75" s="76"/>
+      <c r="O75" s="76"/>
+      <c r="P75" s="76"/>
+      <c r="Q75" s="76"/>
+      <c r="R75" s="84"/>
     </row>
     <row r="76" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="L76" s="100"/>
-      <c r="M76" s="102"/>
-      <c r="N76" s="102"/>
-      <c r="O76" s="100"/>
-      <c r="P76" s="102"/>
-      <c r="Q76" s="102"/>
-      <c r="R76" s="109"/>
+      <c r="L76" s="76"/>
+      <c r="M76" s="104"/>
+      <c r="N76" s="104"/>
+      <c r="O76" s="76"/>
+      <c r="P76" s="104"/>
+      <c r="Q76" s="104"/>
+      <c r="R76" s="84"/>
     </row>
     <row r="77" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="L77" s="101"/>
-      <c r="M77" s="101"/>
-      <c r="N77" s="101"/>
-      <c r="O77" s="101"/>
-      <c r="P77" s="101"/>
-      <c r="Q77" s="101"/>
-      <c r="R77" s="110"/>
+      <c r="L77" s="77"/>
+      <c r="M77" s="77"/>
+      <c r="N77" s="77"/>
+      <c r="O77" s="77"/>
+      <c r="P77" s="77"/>
+      <c r="Q77" s="77"/>
+      <c r="R77" s="85"/>
     </row>
     <row r="78" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="214">
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
     <mergeCell ref="M64:N64"/>
     <mergeCell ref="M65:N65"/>
     <mergeCell ref="M71:N71"/>
@@ -8735,220 +8781,81 @@
     <mergeCell ref="M54:N54"/>
     <mergeCell ref="M55:N55"/>
     <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="P60:Q60"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:C6">
-    <cfRule type="expression" dxfId="38" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="19" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="20" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="21" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="35" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="16" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="17" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="18" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:K7">
-    <cfRule type="expression" dxfId="32" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="D6:R7">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
       <formula>D$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
       <formula>D$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
       <formula>D$7="土"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L7">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
-      <formula>L$5="1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
-      <formula>L$7="日"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
-      <formula>L$7="土"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:N7">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
-      <formula>M$5="1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>M$7="日"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
-      <formula>M$7="土"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:R7">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>O$5="1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>O$7="日"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>O$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9040,11 +8947,11 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="79"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="91" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="8">
@@ -9062,7 +8969,7 @@
       <c r="H6" s="8">
         <v>15</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="94" t="s">
         <v>167</v>
       </c>
       <c r="J6" s="8">
@@ -9083,7 +8990,7 @@
       <c r="O6" s="25">
         <v>30</v>
       </c>
-      <c r="P6" s="85" t="s">
+      <c r="P6" s="94" t="s">
         <v>167</v>
       </c>
       <c r="Q6" s="8">
@@ -9113,16 +9020,16 @@
       <c r="Y6" s="68">
         <v>7</v>
       </c>
-      <c r="Z6" s="89" t="s">
+      <c r="Z6" s="108" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="80"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
@@ -9138,7 +9045,7 @@
       <c r="H7" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I7" s="86"/>
+      <c r="I7" s="95"/>
       <c r="J7" s="7" t="s">
         <v>8</v>
       </c>
@@ -9157,7 +9064,7 @@
       <c r="O7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="86"/>
+      <c r="P7" s="95"/>
       <c r="Q7" s="7" t="s">
         <v>176</v>
       </c>
@@ -9183,14 +9090,14 @@
         <v>8</v>
       </c>
       <c r="Y7" s="69"/>
-      <c r="Z7" s="90"/>
+      <c r="Z7" s="109"/>
     </row>
     <row r="8" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="83"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="7">
         <v>68</v>
       </c>
@@ -9204,7 +9111,7 @@
         <v>60</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="86"/>
+      <c r="I8" s="95"/>
       <c r="J8" s="7">
         <v>90</v>
       </c>
@@ -9221,7 +9128,7 @@
       <c r="O8" s="26">
         <v>59</v>
       </c>
-      <c r="P8" s="86"/>
+      <c r="P8" s="95"/>
       <c r="Q8" s="7">
         <v>12</v>
       </c>
@@ -9243,14 +9150,14 @@
         <v>11</v>
       </c>
       <c r="Y8" s="69"/>
-      <c r="Z8" s="90"/>
+      <c r="Z8" s="109"/>
     </row>
     <row r="9" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="80"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="17">
         <v>14</v>
       </c>
@@ -9266,7 +9173,7 @@
       <c r="H9" s="17">
         <v>10</v>
       </c>
-      <c r="I9" s="86"/>
+      <c r="I9" s="95"/>
       <c r="J9" s="17">
         <v>18</v>
       </c>
@@ -9283,7 +9190,7 @@
       <c r="O9" s="36">
         <v>12</v>
       </c>
-      <c r="P9" s="86"/>
+      <c r="P9" s="95"/>
       <c r="Q9" s="7">
         <v>6</v>
       </c>
@@ -9305,14 +9212,14 @@
         <v>6</v>
       </c>
       <c r="Y9" s="69"/>
-      <c r="Z9" s="90"/>
+      <c r="Z9" s="109"/>
     </row>
     <row r="10" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
@@ -9326,7 +9233,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="86"/>
+      <c r="I10" s="95"/>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
@@ -9343,7 +9250,7 @@
       <c r="O10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="86"/>
+      <c r="P10" s="95"/>
       <c r="Q10" s="7" t="s">
         <v>179</v>
       </c>
@@ -9365,14 +9272,14 @@
         <v>14</v>
       </c>
       <c r="Y10" s="69"/>
-      <c r="Z10" s="90"/>
+      <c r="Z10" s="109"/>
     </row>
     <row r="11" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="80"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="7" t="s">
         <v>94</v>
       </c>
@@ -9388,7 +9295,7 @@
       <c r="H11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="86"/>
+      <c r="I11" s="95"/>
       <c r="J11" s="7" t="s">
         <v>97</v>
       </c>
@@ -9405,7 +9312,7 @@
       <c r="O11" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="P11" s="86"/>
+      <c r="P11" s="95"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
@@ -9415,14 +9322,14 @@
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="69"/>
-      <c r="Z11" s="90"/>
+      <c r="Z11" s="109"/>
     </row>
     <row r="12" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="80"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
@@ -9438,7 +9345,7 @@
       <c r="H12" s="18">
         <v>0.6875</v>
       </c>
-      <c r="I12" s="86"/>
+      <c r="I12" s="95"/>
       <c r="J12" s="7" t="s">
         <v>17</v>
       </c>
@@ -9457,7 +9364,7 @@
       <c r="O12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="86"/>
+      <c r="P12" s="95"/>
       <c r="Q12" s="7" t="s">
         <v>180</v>
       </c>
@@ -9479,14 +9386,14 @@
         <v>18</v>
       </c>
       <c r="Y12" s="69"/>
-      <c r="Z12" s="90"/>
+      <c r="Z12" s="109"/>
     </row>
     <row r="13" spans="1:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -9502,7 +9409,7 @@
       <c r="H13" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="87"/>
+      <c r="I13" s="96"/>
       <c r="J13" s="7" t="s">
         <v>21</v>
       </c>
@@ -9521,7 +9428,7 @@
       <c r="O13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="P13" s="87"/>
+      <c r="P13" s="96"/>
       <c r="Q13" s="7" t="s">
         <v>21</v>
       </c>
@@ -9549,7 +9456,7 @@
       <c r="Y13" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="Z13" s="91"/>
+      <c r="Z13" s="110"/>
     </row>
     <row r="14" spans="1:26" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A14" s="41">
@@ -9577,17 +9484,17 @@
       <c r="I14" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="88" t="s">
+      <c r="J14" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="88" t="s">
+      <c r="K14" s="97" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="43"/>
-      <c r="M14" s="88" t="s">
+      <c r="M14" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="88" t="s">
+      <c r="N14" s="97" t="s">
         <v>23</v>
       </c>
       <c r="O14" s="44" t="s">
@@ -9601,19 +9508,19 @@
       </c>
       <c r="R14" s="43"/>
       <c r="S14" s="43"/>
-      <c r="T14" s="88" t="s">
+      <c r="T14" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="U14" s="88" t="s">
+      <c r="U14" s="97" t="s">
         <v>23</v>
       </c>
       <c r="V14" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="W14" s="88" t="s">
+      <c r="W14" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="X14" s="88" t="s">
+      <c r="X14" s="97" t="s">
         <v>23</v>
       </c>
       <c r="Y14" s="44"/>
@@ -9647,19 +9554,19 @@
       <c r="I15" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="J15" s="71" t="s">
+      <c r="J15" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="71" t="s">
+      <c r="K15" s="87" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="71" t="s">
+      <c r="M15" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="71" t="s">
+      <c r="N15" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O15" s="26" t="s">
@@ -9673,19 +9580,19 @@
       </c>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="71" t="s">
+      <c r="T15" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="U15" s="71" t="s">
+      <c r="U15" s="87" t="s">
         <v>23</v>
       </c>
       <c r="V15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W15" s="71" t="s">
+      <c r="W15" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="X15" s="71" t="s">
+      <c r="X15" s="87" t="s">
         <v>23</v>
       </c>
       <c r="Y15" s="26"/>
@@ -9719,17 +9626,17 @@
       <c r="I16" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="J16" s="72" t="s">
+      <c r="J16" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="72" t="s">
+      <c r="K16" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="72" t="s">
+      <c r="M16" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="72" t="s">
+      <c r="N16" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="40" t="s">
@@ -9743,19 +9650,19 @@
       </c>
       <c r="R16" s="39"/>
       <c r="S16" s="39"/>
-      <c r="T16" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U16" s="72" t="s">
+      <c r="T16" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U16" s="86" t="s">
         <v>30</v>
       </c>
       <c r="V16" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W16" s="72" t="s">
+      <c r="W16" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="X16" s="72" t="s">
+      <c r="X16" s="86" t="s">
         <v>182</v>
       </c>
       <c r="Y16" s="40"/>
@@ -9789,17 +9696,17 @@
       <c r="I17" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="K17" s="71" t="s">
+      <c r="J17" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="N17" s="71" t="s">
+      <c r="M17" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O17" s="26" t="s">
@@ -9813,19 +9720,19 @@
       </c>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
-      <c r="T17" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="U17" s="71" t="s">
+      <c r="T17" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U17" s="87" t="s">
         <v>30</v>
       </c>
       <c r="V17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W17" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="X17" s="71" t="s">
+      <c r="W17" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X17" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y17" s="26"/>
@@ -9859,17 +9766,17 @@
       <c r="I18" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="72" t="s">
+      <c r="J18" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="72" t="s">
+      <c r="K18" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="39"/>
-      <c r="M18" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N18" s="72" t="s">
+      <c r="M18" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O18" s="40" t="s">
@@ -9883,19 +9790,19 @@
       </c>
       <c r="R18" s="39"/>
       <c r="S18" s="39"/>
-      <c r="T18" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="U18" s="72" t="s">
+      <c r="T18" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="U18" s="86" t="s">
         <v>30</v>
       </c>
       <c r="V18" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W18" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X18" s="72" t="s">
+      <c r="W18" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X18" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y18" s="40"/>
@@ -9929,17 +9836,17 @@
       <c r="I19" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="J19" s="71" t="s">
+      <c r="J19" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="71" t="s">
+      <c r="K19" s="87" t="s">
         <v>34</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="71" t="s">
+      <c r="M19" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="71" t="s">
+      <c r="N19" s="87" t="s">
         <v>28</v>
       </c>
       <c r="O19" s="26" t="s">
@@ -9953,19 +9860,19 @@
       </c>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
-      <c r="T19" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="U19" s="71" t="s">
+      <c r="T19" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U19" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W19" s="71" t="s">
+      <c r="W19" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="X19" s="71" t="s">
+      <c r="X19" s="87" t="s">
         <v>23</v>
       </c>
       <c r="Y19" s="26"/>
@@ -9999,17 +9906,17 @@
       <c r="I20" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J20" s="72" t="s">
+      <c r="J20" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="72" t="s">
+      <c r="K20" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="39"/>
-      <c r="M20" s="72" t="s">
+      <c r="M20" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="72" t="s">
+      <c r="N20" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O20" s="40" t="s">
@@ -10023,19 +9930,19 @@
       </c>
       <c r="R20" s="39"/>
       <c r="S20" s="39"/>
-      <c r="T20" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U20" s="72" t="s">
+      <c r="T20" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U20" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V20" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W20" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X20" s="72" t="s">
+      <c r="W20" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X20" s="86" t="s">
         <v>26</v>
       </c>
       <c r="Y20" s="40"/>
@@ -10069,17 +9976,17 @@
       <c r="I21" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J21" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="71" t="s">
+      <c r="J21" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="71" t="s">
+      <c r="M21" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="71" t="s">
+      <c r="N21" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="26" t="s">
@@ -10093,19 +10000,19 @@
       </c>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
-      <c r="T21" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="U21" s="71" t="s">
+      <c r="T21" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U21" s="87" t="s">
         <v>26</v>
       </c>
       <c r="V21" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W21" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="X21" s="71" t="s">
+      <c r="W21" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X21" s="87" t="s">
         <v>24</v>
       </c>
       <c r="Y21" s="26"/>
@@ -10139,17 +10046,17 @@
       <c r="I22" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="J22" s="72" t="s">
+      <c r="J22" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="72" t="s">
+      <c r="K22" s="86" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="39"/>
-      <c r="M22" s="72" t="s">
+      <c r="M22" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="N22" s="72" t="s">
+      <c r="N22" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O22" s="40" t="s">
@@ -10163,19 +10070,19 @@
       </c>
       <c r="R22" s="39"/>
       <c r="S22" s="39"/>
-      <c r="T22" s="72" t="s">
+      <c r="T22" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="U22" s="72" t="s">
+      <c r="U22" s="86" t="s">
         <v>23</v>
       </c>
       <c r="V22" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W22" s="72" t="s">
+      <c r="W22" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="X22" s="72" t="s">
+      <c r="X22" s="86" t="s">
         <v>23</v>
       </c>
       <c r="Y22" s="40"/>
@@ -10209,19 +10116,19 @@
       <c r="I23" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J23" s="71" t="s">
+      <c r="J23" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="71" t="s">
+      <c r="K23" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M23" s="71" t="s">
+      <c r="M23" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="71" t="s">
+      <c r="N23" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O23" s="26" t="s">
@@ -10235,19 +10142,19 @@
       </c>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
-      <c r="T23" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="U23" s="71" t="s">
+      <c r="T23" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U23" s="87" t="s">
         <v>30</v>
       </c>
       <c r="V23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W23" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="X23" s="71" t="s">
+      <c r="W23" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X23" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y23" s="26"/>
@@ -10281,17 +10188,17 @@
       <c r="I24" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="J24" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K24" s="72" t="s">
+      <c r="J24" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="39"/>
-      <c r="M24" s="72" t="s">
+      <c r="M24" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="72" t="s">
+      <c r="N24" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="40" t="s">
@@ -10305,19 +10212,19 @@
       </c>
       <c r="R24" s="39"/>
       <c r="S24" s="39"/>
-      <c r="T24" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U24" s="72" t="s">
+      <c r="T24" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U24" s="86" t="s">
         <v>30</v>
       </c>
       <c r="V24" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W24" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X24" s="72" t="s">
+      <c r="W24" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X24" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y24" s="40"/>
@@ -10351,17 +10258,17 @@
       <c r="I25" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="J25" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="71" t="s">
+      <c r="J25" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="87" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" s="71" t="s">
+      <c r="M25" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="87" t="s">
         <v>30</v>
       </c>
       <c r="O25" s="26" t="s">
@@ -10375,19 +10282,19 @@
       </c>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
-      <c r="T25" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="U25" s="71" t="s">
+      <c r="T25" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U25" s="87" t="s">
         <v>30</v>
       </c>
       <c r="V25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W25" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="X25" s="71" t="s">
+      <c r="W25" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X25" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y25" s="26"/>
@@ -10421,19 +10328,19 @@
       <c r="I26" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="72" t="s">
+      <c r="J26" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="72" t="s">
+      <c r="K26" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M26" s="72" t="s">
+      <c r="M26" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="72" t="s">
+      <c r="N26" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O26" s="40" t="s">
@@ -10447,19 +10354,19 @@
       </c>
       <c r="R26" s="39"/>
       <c r="S26" s="39"/>
-      <c r="T26" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U26" s="72" t="s">
+      <c r="T26" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U26" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V26" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W26" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X26" s="72" t="s">
+      <c r="W26" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X26" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y26" s="40"/>
@@ -10493,17 +10400,17 @@
       <c r="I27" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="J27" s="71" t="s">
+      <c r="J27" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="71" t="s">
+      <c r="K27" s="87" t="s">
         <v>44</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="N27" s="71" t="s">
+      <c r="M27" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O27" s="26" t="s">
@@ -10517,19 +10424,19 @@
       </c>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
-      <c r="T27" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="U27" s="71" t="s">
+      <c r="T27" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U27" s="87" t="s">
         <v>30</v>
       </c>
       <c r="V27" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W27" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="X27" s="71" t="s">
+      <c r="W27" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X27" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y27" s="26"/>
@@ -10563,19 +10470,19 @@
       <c r="I28" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="J28" s="72" t="s">
+      <c r="J28" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="72" t="s">
+      <c r="K28" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="72" t="s">
+      <c r="M28" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N28" s="72" t="s">
+      <c r="N28" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O28" s="40" t="s">
@@ -10589,19 +10496,19 @@
       </c>
       <c r="R28" s="39"/>
       <c r="S28" s="39"/>
-      <c r="T28" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U28" s="72" t="s">
+      <c r="T28" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U28" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V28" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W28" s="72" t="s">
+      <c r="W28" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="X28" s="72" t="s">
+      <c r="X28" s="86" t="s">
         <v>23</v>
       </c>
       <c r="Y28" s="40"/>
@@ -10635,17 +10542,17 @@
       <c r="I29" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="J29" s="71" t="s">
+      <c r="J29" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="71" t="s">
+      <c r="K29" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="71" t="s">
+      <c r="M29" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N29" s="71" t="s">
+      <c r="N29" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O29" s="26" t="s">
@@ -10659,19 +10566,19 @@
       </c>
       <c r="R29" s="60"/>
       <c r="S29" s="60"/>
-      <c r="T29" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="U29" s="71" t="s">
+      <c r="T29" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U29" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V29" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W29" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="X29" s="71" t="s">
+      <c r="W29" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X29" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y29" s="26"/>
@@ -10705,17 +10612,17 @@
       <c r="I30" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="J30" s="72" t="s">
+      <c r="J30" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="72" t="s">
+      <c r="K30" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="39"/>
-      <c r="M30" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N30" s="72" t="s">
+      <c r="M30" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="86" t="s">
         <v>26</v>
       </c>
       <c r="O30" s="40" t="s">
@@ -10729,19 +10636,19 @@
       </c>
       <c r="R30" s="39"/>
       <c r="S30" s="39"/>
-      <c r="T30" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U30" s="72" t="s">
+      <c r="T30" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U30" s="86" t="s">
         <v>30</v>
       </c>
       <c r="V30" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W30" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X30" s="72" t="s">
+      <c r="W30" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X30" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y30" s="40"/>
@@ -10775,17 +10682,17 @@
       <c r="I31" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="J31" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" s="71" t="s">
+      <c r="J31" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="7"/>
-      <c r="M31" s="71" t="s">
+      <c r="M31" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N31" s="71" t="s">
+      <c r="N31" s="87" t="s">
         <v>28</v>
       </c>
       <c r="O31" s="26" t="s">
@@ -10799,19 +10706,19 @@
       </c>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
-      <c r="T31" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="U31" s="71" t="s">
+      <c r="T31" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U31" s="87" t="s">
         <v>30</v>
       </c>
       <c r="V31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W31" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="X31" s="71" t="s">
+      <c r="W31" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X31" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y31" s="26"/>
@@ -10845,17 +10752,17 @@
       <c r="I32" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J32" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K32" s="72" t="s">
+      <c r="J32" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="39"/>
-      <c r="M32" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N32" s="72" t="s">
+      <c r="M32" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N32" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="40" t="s">
@@ -10869,19 +10776,19 @@
       </c>
       <c r="R32" s="39"/>
       <c r="S32" s="39"/>
-      <c r="T32" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U32" s="72" t="s">
+      <c r="T32" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U32" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V32" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W32" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X32" s="72" t="s">
+      <c r="W32" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X32" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y32" s="40"/>
@@ -10915,17 +10822,17 @@
       <c r="I33" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="J33" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" s="71" t="s">
+      <c r="J33" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="M33" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="N33" s="71" t="s">
+      <c r="M33" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N33" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O33" s="26" t="s">
@@ -10939,19 +10846,19 @@
       </c>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
-      <c r="T33" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="U33" s="71" t="s">
+      <c r="T33" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U33" s="87" t="s">
         <v>30</v>
       </c>
       <c r="V33" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W33" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="X33" s="71" t="s">
+      <c r="W33" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X33" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y33" s="26"/>
@@ -10985,17 +10892,17 @@
       <c r="I34" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="J34" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K34" s="72" t="s">
+      <c r="J34" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K34" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="39"/>
-      <c r="M34" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N34" s="72" t="s">
+      <c r="M34" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N34" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O34" s="40" t="s">
@@ -11009,19 +10916,19 @@
       </c>
       <c r="R34" s="39"/>
       <c r="S34" s="39"/>
-      <c r="T34" s="72" t="s">
+      <c r="T34" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="U34" s="72" t="s">
+      <c r="U34" s="86" t="s">
         <v>23</v>
       </c>
       <c r="V34" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W34" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X34" s="72" t="s">
+      <c r="W34" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X34" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y34" s="40"/>
@@ -11055,17 +10962,17 @@
       <c r="I35" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="J35" s="71" t="s">
+      <c r="J35" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="K35" s="71" t="s">
+      <c r="K35" s="87" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="7"/>
-      <c r="M35" s="71" t="s">
+      <c r="M35" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N35" s="71" t="s">
+      <c r="N35" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O35" s="26" t="s">
@@ -11079,19 +10986,19 @@
       </c>
       <c r="R35" s="60"/>
       <c r="S35" s="60"/>
-      <c r="T35" s="71" t="s">
+      <c r="T35" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="U35" s="71" t="s">
+      <c r="U35" s="87" t="s">
         <v>23</v>
       </c>
       <c r="V35" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="W35" s="71" t="s">
+      <c r="W35" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="X35" s="71" t="s">
+      <c r="X35" s="87" t="s">
         <v>23</v>
       </c>
       <c r="Y35" s="26"/>
@@ -11125,17 +11032,17 @@
       <c r="I36" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="J36" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K36" s="72" t="s">
+      <c r="J36" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K36" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L36" s="39"/>
-      <c r="M36" s="72" t="s">
+      <c r="M36" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="72" t="s">
+      <c r="N36" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O36" s="40" t="s">
@@ -11149,19 +11056,19 @@
       </c>
       <c r="R36" s="39"/>
       <c r="S36" s="39"/>
-      <c r="T36" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U36" s="72" t="s">
+      <c r="T36" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U36" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V36" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W36" s="72" t="s">
+      <c r="W36" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="X36" s="72" t="s">
+      <c r="X36" s="86" t="s">
         <v>23</v>
       </c>
       <c r="Y36" s="40"/>
@@ -11195,17 +11102,17 @@
       <c r="I37" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="J37" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="K37" s="71" t="s">
+      <c r="J37" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L37" s="7"/>
-      <c r="M37" s="71" t="s">
+      <c r="M37" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="71" t="s">
+      <c r="N37" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O37" s="26" t="s">
@@ -11219,19 +11126,19 @@
       </c>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
-      <c r="T37" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="U37" s="71" t="s">
+      <c r="T37" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U37" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W37" s="71" t="s">
+      <c r="W37" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="X37" s="71" t="s">
+      <c r="X37" s="87" t="s">
         <v>23</v>
       </c>
       <c r="Y37" s="26"/>
@@ -11265,17 +11172,17 @@
       <c r="I38" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="J38" s="72" t="s">
+      <c r="J38" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="72" t="s">
+      <c r="K38" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L38" s="39"/>
-      <c r="M38" s="72" t="s">
+      <c r="M38" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N38" s="72" t="s">
+      <c r="N38" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O38" s="40" t="s">
@@ -11289,19 +11196,19 @@
       </c>
       <c r="R38" s="39"/>
       <c r="S38" s="39"/>
-      <c r="T38" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U38" s="72" t="s">
+      <c r="T38" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U38" s="86" t="s">
         <v>30</v>
       </c>
       <c r="V38" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W38" s="72" t="s">
+      <c r="W38" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="X38" s="72" t="s">
+      <c r="X38" s="86" t="s">
         <v>23</v>
       </c>
       <c r="Y38" s="40"/>
@@ -11335,17 +11242,17 @@
       <c r="I39" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J39" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="K39" s="71" t="s">
+      <c r="J39" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="7"/>
-      <c r="M39" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="N39" s="71" t="s">
+      <c r="M39" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N39" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="26" t="s">
@@ -11359,19 +11266,19 @@
       </c>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
-      <c r="T39" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="U39" s="71" t="s">
+      <c r="T39" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U39" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V39" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W39" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="X39" s="71" t="s">
+      <c r="W39" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X39" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y39" s="26"/>
@@ -11405,19 +11312,19 @@
       <c r="I40" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="K40" s="77" t="s">
+      <c r="J40" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="98" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="N40" s="77" t="s">
+      <c r="M40" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="N40" s="98" t="s">
         <v>24</v>
       </c>
       <c r="O40" s="49" t="s">
@@ -11431,19 +11338,19 @@
       </c>
       <c r="R40" s="48"/>
       <c r="S40" s="48"/>
-      <c r="T40" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="U40" s="77" t="s">
+      <c r="T40" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="U40" s="98" t="s">
         <v>30</v>
       </c>
       <c r="V40" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="W40" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="X40" s="77" t="s">
+      <c r="W40" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="X40" s="98" t="s">
         <v>30</v>
       </c>
       <c r="Y40" s="49"/>
@@ -11477,17 +11384,17 @@
       <c r="I41" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="78" t="s">
+      <c r="J41" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="K41" s="78" t="s">
+      <c r="K41" s="99" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="31"/>
-      <c r="M41" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="N41" s="78" t="s">
+      <c r="M41" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="N41" s="99" t="s">
         <v>24</v>
       </c>
       <c r="O41" s="32" t="s">
@@ -11501,19 +11408,19 @@
       </c>
       <c r="R41" s="31"/>
       <c r="S41" s="31"/>
-      <c r="T41" s="78" t="s">
+      <c r="T41" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="U41" s="78" t="s">
+      <c r="U41" s="99" t="s">
         <v>23</v>
       </c>
       <c r="V41" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="W41" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="X41" s="78" t="s">
+      <c r="W41" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="X41" s="99" t="s">
         <v>30</v>
       </c>
       <c r="Y41" s="32"/>
@@ -11547,17 +11454,17 @@
       <c r="I42" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K42" s="72" t="s">
+      <c r="J42" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L42" s="39"/>
-      <c r="M42" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N42" s="72" t="s">
+      <c r="M42" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N42" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O42" s="40" t="s">
@@ -11571,19 +11478,19 @@
       </c>
       <c r="R42" s="39"/>
       <c r="S42" s="39"/>
-      <c r="T42" s="72" t="s">
+      <c r="T42" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="U42" s="72" t="s">
+      <c r="U42" s="86" t="s">
         <v>38</v>
       </c>
       <c r="V42" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W42" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X42" s="72" t="s">
+      <c r="W42" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X42" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y42" s="40"/>
@@ -11617,19 +11524,19 @@
       <c r="I43" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="J43" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="K43" s="71" t="s">
+      <c r="J43" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M43" s="71" t="s">
+      <c r="M43" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N43" s="71" t="s">
+      <c r="N43" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O43" s="26" t="s">
@@ -11643,19 +11550,19 @@
       </c>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
-      <c r="T43" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="U43" s="71" t="s">
+      <c r="T43" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U43" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V43" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W43" s="71" t="s">
+      <c r="W43" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="X43" s="71" t="s">
+      <c r="X43" s="87" t="s">
         <v>23</v>
       </c>
       <c r="Y43" s="26"/>
@@ -11689,17 +11596,17 @@
       <c r="I44" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="J44" s="72" t="s">
+      <c r="J44" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="K44" s="72" t="s">
+      <c r="K44" s="86" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="39"/>
-      <c r="M44" s="72" t="s">
+      <c r="M44" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="N44" s="72" t="s">
+      <c r="N44" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O44" s="40" t="s">
@@ -11713,19 +11620,19 @@
       </c>
       <c r="R44" s="39"/>
       <c r="S44" s="39"/>
-      <c r="T44" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U44" s="72" t="s">
+      <c r="T44" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U44" s="86" t="s">
         <v>26</v>
       </c>
       <c r="V44" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W44" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X44" s="72" t="s">
+      <c r="W44" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X44" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y44" s="40"/>
@@ -11759,17 +11666,17 @@
       <c r="I45" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="J45" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="K45" s="71" t="s">
+      <c r="J45" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L45" s="7"/>
-      <c r="M45" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="N45" s="71" t="s">
+      <c r="M45" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N45" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O45" s="26" t="s">
@@ -11783,19 +11690,19 @@
       </c>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
-      <c r="T45" s="71" t="s">
+      <c r="T45" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="U45" s="71" t="s">
+      <c r="U45" s="87" t="s">
         <v>182</v>
       </c>
       <c r="V45" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W45" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="X45" s="71" t="s">
+      <c r="W45" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X45" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y45" s="26"/>
@@ -11829,17 +11736,17 @@
       <c r="I46" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J46" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K46" s="72" t="s">
+      <c r="J46" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K46" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="39"/>
-      <c r="M46" s="72" t="s">
+      <c r="M46" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N46" s="72" t="s">
+      <c r="N46" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O46" s="40" t="s">
@@ -11853,19 +11760,19 @@
       </c>
       <c r="R46" s="39"/>
       <c r="S46" s="39"/>
-      <c r="T46" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U46" s="72" t="s">
+      <c r="T46" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U46" s="86" t="s">
         <v>30</v>
       </c>
       <c r="V46" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W46" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X46" s="72" t="s">
+      <c r="W46" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X46" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y46" s="40"/>
@@ -11899,17 +11806,17 @@
       <c r="I47" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J47" s="71" t="s">
+      <c r="J47" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K47" s="71" t="s">
+      <c r="K47" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L47" s="7"/>
-      <c r="M47" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="N47" s="71" t="s">
+      <c r="M47" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N47" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O47" s="26" t="s">
@@ -11923,19 +11830,19 @@
       </c>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
-      <c r="T47" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="U47" s="71" t="s">
+      <c r="T47" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U47" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V47" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W47" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="X47" s="71" t="s">
+      <c r="W47" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X47" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y47" s="26"/>
@@ -11969,17 +11876,17 @@
       <c r="I48" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="J48" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K48" s="72" t="s">
+      <c r="J48" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K48" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L48" s="39"/>
-      <c r="M48" s="72" t="s">
+      <c r="M48" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N48" s="72" t="s">
+      <c r="N48" s="86" t="s">
         <v>66</v>
       </c>
       <c r="O48" s="40" t="s">
@@ -11993,19 +11900,19 @@
       </c>
       <c r="R48" s="39"/>
       <c r="S48" s="39"/>
-      <c r="T48" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U48" s="72" t="s">
+      <c r="T48" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U48" s="86" t="s">
         <v>30</v>
       </c>
       <c r="V48" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W48" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X48" s="72" t="s">
+      <c r="W48" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X48" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y48" s="40"/>
@@ -12039,17 +11946,17 @@
       <c r="I49" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="J49" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="K49" s="71" t="s">
+      <c r="J49" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K49" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="7"/>
-      <c r="M49" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="N49" s="71" t="s">
+      <c r="M49" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N49" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O49" s="26" t="s">
@@ -12063,19 +11970,19 @@
       </c>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
-      <c r="T49" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="U49" s="71" t="s">
+      <c r="T49" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U49" s="87" t="s">
         <v>26</v>
       </c>
       <c r="V49" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W49" s="71" t="s">
+      <c r="W49" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="X49" s="71" t="s">
+      <c r="X49" s="87" t="s">
         <v>23</v>
       </c>
       <c r="Y49" s="26"/>
@@ -12109,17 +12016,17 @@
       <c r="I50" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="J50" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K50" s="72" t="s">
+      <c r="J50" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K50" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="39"/>
-      <c r="M50" s="72" t="s">
+      <c r="M50" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="N50" s="72" t="s">
+      <c r="N50" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O50" s="40" t="s">
@@ -12133,19 +12040,19 @@
       </c>
       <c r="R50" s="39"/>
       <c r="S50" s="39"/>
-      <c r="T50" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U50" s="72" t="s">
+      <c r="T50" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U50" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V50" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W50" s="72" t="s">
+      <c r="W50" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="X50" s="72" t="s">
+      <c r="X50" s="86" t="s">
         <v>23</v>
       </c>
       <c r="Y50" s="40"/>
@@ -12179,17 +12086,17 @@
       <c r="I51" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="J51" s="71" t="s">
+      <c r="J51" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="K51" s="71" t="s">
+      <c r="K51" s="87" t="s">
         <v>38</v>
       </c>
       <c r="L51" s="7"/>
-      <c r="M51" s="71" t="s">
+      <c r="M51" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="N51" s="71" t="s">
+      <c r="N51" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O51" s="26" t="s">
@@ -12203,19 +12110,19 @@
       </c>
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
-      <c r="T51" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="U51" s="71" t="s">
+      <c r="T51" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U51" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V51" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W51" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="X51" s="71" t="s">
+      <c r="W51" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X51" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y51" s="26"/>
@@ -12249,19 +12156,19 @@
       <c r="I52" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="J52" s="72" t="s">
+      <c r="J52" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="72" t="s">
+      <c r="K52" s="86" t="s">
         <v>71</v>
       </c>
       <c r="L52" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M52" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N52" s="72" t="s">
+      <c r="M52" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N52" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O52" s="40" t="s">
@@ -12275,19 +12182,19 @@
       </c>
       <c r="R52" s="39"/>
       <c r="S52" s="39"/>
-      <c r="T52" s="72" t="s">
+      <c r="T52" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="U52" s="72" t="s">
+      <c r="U52" s="86" t="s">
         <v>71</v>
       </c>
       <c r="V52" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W52" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X52" s="72" t="s">
+      <c r="W52" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X52" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y52" s="40"/>
@@ -12321,19 +12228,19 @@
       <c r="I53" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="J53" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="K53" s="71" t="s">
+      <c r="J53" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M53" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="N53" s="71" t="s">
+      <c r="M53" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N53" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O53" s="26" t="s">
@@ -12347,19 +12254,19 @@
       </c>
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
-      <c r="T53" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="U53" s="71" t="s">
+      <c r="T53" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U53" s="87" t="s">
         <v>30</v>
       </c>
       <c r="V53" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W53" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="X53" s="71" t="s">
+      <c r="W53" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X53" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y53" s="26"/>
@@ -12393,17 +12300,17 @@
       <c r="I54" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="J54" s="72" t="s">
+      <c r="J54" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="K54" s="72" t="s">
+      <c r="K54" s="86" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="39"/>
-      <c r="M54" s="72" t="s">
+      <c r="M54" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N54" s="72" t="s">
+      <c r="N54" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O54" s="40" t="s">
@@ -12417,19 +12324,19 @@
       </c>
       <c r="R54" s="39"/>
       <c r="S54" s="39"/>
-      <c r="T54" s="72" t="s">
+      <c r="T54" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="U54" s="72" t="s">
+      <c r="U54" s="86" t="s">
         <v>182</v>
       </c>
       <c r="V54" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W54" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X54" s="72" t="s">
+      <c r="W54" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X54" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y54" s="40"/>
@@ -12463,17 +12370,17 @@
       <c r="I55" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="J55" s="71" t="s">
+      <c r="J55" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K55" s="71" t="s">
+      <c r="K55" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L55" s="7"/>
-      <c r="M55" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="N55" s="71" t="s">
+      <c r="M55" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N55" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O55" s="26" t="s">
@@ -12487,19 +12394,19 @@
       </c>
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
-      <c r="T55" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="U55" s="71" t="s">
+      <c r="T55" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U55" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V55" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W55" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="X55" s="71" t="s">
+      <c r="W55" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X55" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y55" s="26"/>
@@ -12533,17 +12440,17 @@
       <c r="I56" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="J56" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K56" s="72" t="s">
+      <c r="J56" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K56" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L56" s="39"/>
-      <c r="M56" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N56" s="72" t="s">
+      <c r="M56" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N56" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O56" s="40" t="s">
@@ -12557,19 +12464,19 @@
       </c>
       <c r="R56" s="39"/>
       <c r="S56" s="39"/>
-      <c r="T56" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U56" s="72" t="s">
+      <c r="T56" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U56" s="86" t="s">
         <v>26</v>
       </c>
       <c r="V56" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W56" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X56" s="72" t="s">
+      <c r="W56" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X56" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y56" s="40"/>
@@ -12603,19 +12510,19 @@
       <c r="I57" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="J57" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="K57" s="71" t="s">
+      <c r="J57" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K57" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M57" s="71" t="s">
+      <c r="M57" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N57" s="71" t="s">
+      <c r="N57" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O57" s="26" t="s">
@@ -12629,19 +12536,19 @@
       </c>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
-      <c r="T57" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="U57" s="71" t="s">
+      <c r="T57" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U57" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V57" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W57" s="71" t="s">
+      <c r="W57" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="X57" s="71" t="s">
+      <c r="X57" s="87" t="s">
         <v>25</v>
       </c>
       <c r="Y57" s="26"/>
@@ -12675,17 +12582,17 @@
       <c r="I58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="J58" s="72" t="s">
+      <c r="J58" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="K58" s="72" t="s">
+      <c r="K58" s="86" t="s">
         <v>28</v>
       </c>
       <c r="L58" s="39"/>
-      <c r="M58" s="72" t="s">
+      <c r="M58" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="N58" s="72" t="s">
+      <c r="N58" s="86" t="s">
         <v>78</v>
       </c>
       <c r="O58" s="40" t="s">
@@ -12699,19 +12606,19 @@
       </c>
       <c r="R58" s="39"/>
       <c r="S58" s="39"/>
-      <c r="T58" s="72" t="s">
+      <c r="T58" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="U58" s="72" t="s">
+      <c r="U58" s="86" t="s">
         <v>38</v>
       </c>
       <c r="V58" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W58" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X58" s="72" t="s">
+      <c r="W58" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X58" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y58" s="40"/>
@@ -12745,17 +12652,17 @@
       <c r="I59" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="J59" s="71" t="s">
+      <c r="J59" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="K59" s="71" t="s">
+      <c r="K59" s="87" t="s">
         <v>38</v>
       </c>
       <c r="L59" s="7"/>
-      <c r="M59" s="71" t="s">
+      <c r="M59" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N59" s="71" t="s">
+      <c r="N59" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O59" s="26" t="s">
@@ -12769,19 +12676,19 @@
       </c>
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
-      <c r="T59" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="U59" s="71" t="s">
+      <c r="T59" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U59" s="87" t="s">
         <v>26</v>
       </c>
       <c r="V59" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W59" s="71" t="s">
+      <c r="W59" s="87" t="s">
         <v>184</v>
       </c>
-      <c r="X59" s="71" t="s">
+      <c r="X59" s="87" t="s">
         <v>185</v>
       </c>
       <c r="Y59" s="26"/>
@@ -12801,11 +12708,11 @@
       <c r="G60" s="51"/>
       <c r="H60" s="51"/>
       <c r="I60" s="50"/>
-      <c r="J60" s="75"/>
-      <c r="K60" s="76"/>
+      <c r="J60" s="100"/>
+      <c r="K60" s="101"/>
       <c r="L60" s="51"/>
-      <c r="M60" s="75"/>
-      <c r="N60" s="76"/>
+      <c r="M60" s="100"/>
+      <c r="N60" s="101"/>
       <c r="O60" s="52"/>
       <c r="P60" s="66"/>
       <c r="Q60" s="39" t="s">
@@ -12813,19 +12720,19 @@
       </c>
       <c r="R60" s="39"/>
       <c r="S60" s="39"/>
-      <c r="T60" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U60" s="72" t="s">
+      <c r="T60" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U60" s="86" t="s">
         <v>26</v>
       </c>
       <c r="V60" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W60" s="72" t="s">
+      <c r="W60" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="X60" s="72" t="s">
+      <c r="X60" s="86" t="s">
         <v>23</v>
       </c>
       <c r="Y60" s="52"/>
@@ -12843,11 +12750,11 @@
       <c r="G61" s="31"/>
       <c r="H61" s="31"/>
       <c r="I61" s="30"/>
-      <c r="J61" s="73"/>
-      <c r="K61" s="74"/>
+      <c r="J61" s="102"/>
+      <c r="K61" s="103"/>
       <c r="L61" s="31"/>
-      <c r="M61" s="73"/>
-      <c r="N61" s="74"/>
+      <c r="M61" s="102"/>
+      <c r="N61" s="103"/>
       <c r="O61" s="32"/>
       <c r="P61" s="65"/>
       <c r="Q61" s="32"/>
@@ -12873,11 +12780,11 @@
       <c r="G62" s="51"/>
       <c r="H62" s="51"/>
       <c r="I62" s="50"/>
-      <c r="J62" s="75"/>
-      <c r="K62" s="76"/>
+      <c r="J62" s="100"/>
+      <c r="K62" s="101"/>
       <c r="L62" s="51"/>
-      <c r="M62" s="75"/>
-      <c r="N62" s="76"/>
+      <c r="M62" s="100"/>
+      <c r="N62" s="101"/>
       <c r="O62" s="52"/>
       <c r="P62" s="66"/>
       <c r="Q62" s="52"/>
@@ -12903,11 +12810,11 @@
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
       <c r="I63" s="30"/>
-      <c r="J63" s="73"/>
-      <c r="K63" s="74"/>
+      <c r="J63" s="102"/>
+      <c r="K63" s="103"/>
       <c r="L63" s="31"/>
-      <c r="M63" s="73"/>
-      <c r="N63" s="74"/>
+      <c r="M63" s="102"/>
+      <c r="N63" s="103"/>
       <c r="O63" s="32"/>
       <c r="P63" s="65"/>
       <c r="Q63" s="32"/>
@@ -12933,11 +12840,11 @@
       <c r="G64" s="51"/>
       <c r="H64" s="51"/>
       <c r="I64" s="50"/>
-      <c r="J64" s="75"/>
-      <c r="K64" s="76"/>
+      <c r="J64" s="100"/>
+      <c r="K64" s="101"/>
       <c r="L64" s="51"/>
-      <c r="M64" s="75"/>
-      <c r="N64" s="76"/>
+      <c r="M64" s="100"/>
+      <c r="N64" s="101"/>
       <c r="O64" s="52"/>
       <c r="P64" s="66"/>
       <c r="Q64" s="52"/>
@@ -12963,11 +12870,11 @@
       <c r="G65" s="31"/>
       <c r="H65" s="31"/>
       <c r="I65" s="30"/>
-      <c r="J65" s="73"/>
-      <c r="K65" s="74"/>
+      <c r="J65" s="102"/>
+      <c r="K65" s="103"/>
       <c r="L65" s="31"/>
-      <c r="M65" s="73"/>
-      <c r="N65" s="74"/>
+      <c r="M65" s="102"/>
+      <c r="N65" s="103"/>
       <c r="O65" s="32"/>
       <c r="P65" s="65"/>
       <c r="Q65" s="32"/>
@@ -13007,17 +12914,17 @@
       <c r="I66" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J66" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K66" s="72" t="s">
+      <c r="J66" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K66" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L66" s="39"/>
-      <c r="M66" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N66" s="72" t="s">
+      <c r="M66" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N66" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O66" s="40" t="s">
@@ -13100,96 +13007,97 @@
     <row r="69" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="205">
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="W47:X47"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="W48:X48"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="W54:X54"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="W56:X56"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="W57:X57"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="I6:I13"/>
+    <mergeCell ref="Z6:Z13"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
     <mergeCell ref="T59:U59"/>
     <mergeCell ref="W59:X59"/>
     <mergeCell ref="T60:U60"/>
@@ -13214,162 +13122,161 @@
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="M24:N24"/>
     <mergeCell ref="M25:N25"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="I6:I13"/>
-    <mergeCell ref="Z6:Z13"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="W54:X54"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="W56:X56"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="W18:X18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:F6 I6:N6 Z6:IV6">
-    <cfRule type="expression" dxfId="26" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="10" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="11" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 D7:H7 J7:O7 AA7:IV7">
-    <cfRule type="expression" dxfId="23" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H6">
-    <cfRule type="expression" dxfId="20" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="58" stopIfTrue="1">
       <formula>I$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="59" stopIfTrue="1">
       <formula>I$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="60" stopIfTrue="1">
       <formula>I$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="expression" dxfId="17" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="46" stopIfTrue="1">
       <formula>X$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="47" stopIfTrue="1">
       <formula>X$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="48" stopIfTrue="1">
       <formula>X$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="expression" dxfId="14" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>Q$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>Q$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>Q$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Y7">
-    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>Q$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>Q$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>Q$7="土"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/app/xlsx/4月_5月シフト.xlsx
+++ b/app/xlsx/4月_5月シフト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiha\OneDrive\デスクトップ\MyPrograming\MyGo\rolemaster0.5\RoleMaserV0.5\app\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CE1C35-8DD2-4297-A614-1A4A1DCA9271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8BC550-79A8-4F18-9981-054D8FB27163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1976,10 +1976,28 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2012,35 +2030,17 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2593,11 +2593,11 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="88"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="97" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="8">
@@ -2615,7 +2615,7 @@
       <c r="H6" s="8">
         <v>15</v>
       </c>
-      <c r="I6" s="94" t="s">
+      <c r="I6" s="100" t="s">
         <v>167</v>
       </c>
       <c r="J6" s="8">
@@ -2638,11 +2638,11 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="89"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="92"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2658,7 +2658,7 @@
       <c r="H7" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I7" s="95"/>
+      <c r="I7" s="101"/>
       <c r="J7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2679,11 +2679,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="89"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="92"/>
+      <c r="C8" s="98"/>
       <c r="D8" s="7">
         <v>68</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>60</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="95"/>
+      <c r="I8" s="101"/>
       <c r="J8" s="7">
         <v>90</v>
       </c>
@@ -2716,11 +2716,11 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="89"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="92"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="17">
         <v>14</v>
       </c>
@@ -2736,7 +2736,7 @@
       <c r="H9" s="17">
         <v>10</v>
       </c>
-      <c r="I9" s="95"/>
+      <c r="I9" s="101"/>
       <c r="J9" s="17">
         <v>18</v>
       </c>
@@ -2755,11 +2755,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="89"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="92"/>
+      <c r="C10" s="98"/>
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="95"/>
+      <c r="I10" s="101"/>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2792,11 +2792,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="89"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="92"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="7" t="s">
         <v>94</v>
       </c>
@@ -2812,7 +2812,7 @@
       <c r="H11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="95"/>
+      <c r="I11" s="101"/>
       <c r="J11" s="7" t="s">
         <v>97</v>
       </c>
@@ -2831,11 +2831,11 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="89"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="92"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2851,7 +2851,7 @@
       <c r="H12" s="18">
         <v>0.6875</v>
       </c>
-      <c r="I12" s="95"/>
+      <c r="I12" s="101"/>
       <c r="J12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2872,11 +2872,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="90"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="93"/>
+      <c r="C13" s="99"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2892,7 +2892,7 @@
       <c r="H13" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="96"/>
+      <c r="I13" s="102"/>
       <c r="J13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2938,17 +2938,17 @@
       <c r="I14" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="97" t="s">
+      <c r="J14" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="97" t="s">
+      <c r="K14" s="103" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="43"/>
-      <c r="M14" s="97" t="s">
+      <c r="M14" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="97" t="s">
+      <c r="N14" s="103" t="s">
         <v>23</v>
       </c>
       <c r="O14" s="44" t="s">
@@ -2981,19 +2981,19 @@
       <c r="I15" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="J15" s="87" t="s">
+      <c r="J15" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="87" t="s">
+      <c r="K15" s="86" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="87" t="s">
+      <c r="M15" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="87" t="s">
+      <c r="N15" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O15" s="26" t="s">
@@ -3026,17 +3026,17 @@
       <c r="I16" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="J16" s="86" t="s">
+      <c r="J16" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="86" t="s">
+      <c r="K16" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="86" t="s">
+      <c r="M16" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="86" t="s">
+      <c r="N16" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="40" t="s">
@@ -3069,17 +3069,17 @@
       <c r="I17" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="87" t="s">
+      <c r="J17" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N17" s="87" t="s">
+      <c r="M17" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O17" s="26" t="s">
@@ -3112,17 +3112,17 @@
       <c r="I18" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="86" t="s">
+      <c r="J18" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="86" t="s">
+      <c r="K18" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="39"/>
-      <c r="M18" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N18" s="86" t="s">
+      <c r="M18" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O18" s="40" t="s">
@@ -3155,17 +3155,17 @@
       <c r="I19" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="J19" s="87" t="s">
+      <c r="J19" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="87" t="s">
+      <c r="K19" s="86" t="s">
         <v>34</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="87" t="s">
+      <c r="M19" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="87" t="s">
+      <c r="N19" s="86" t="s">
         <v>28</v>
       </c>
       <c r="O19" s="26" t="s">
@@ -3198,17 +3198,17 @@
       <c r="I20" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J20" s="86" t="s">
+      <c r="J20" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="86" t="s">
+      <c r="K20" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="39"/>
-      <c r="M20" s="86" t="s">
+      <c r="M20" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="86" t="s">
+      <c r="N20" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O20" s="40" t="s">
@@ -3241,17 +3241,17 @@
       <c r="I21" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J21" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="87" t="s">
+      <c r="J21" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="87" t="s">
+      <c r="M21" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="87" t="s">
+      <c r="N21" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="26" t="s">
@@ -3284,17 +3284,17 @@
       <c r="I22" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="J22" s="86" t="s">
+      <c r="J22" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="86" t="s">
+      <c r="K22" s="87" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="39"/>
-      <c r="M22" s="86" t="s">
+      <c r="M22" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="N22" s="86" t="s">
+      <c r="N22" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O22" s="40" t="s">
@@ -3327,19 +3327,19 @@
       <c r="I23" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J23" s="87" t="s">
+      <c r="J23" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="87" t="s">
+      <c r="K23" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M23" s="87" t="s">
+      <c r="M23" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="87" t="s">
+      <c r="N23" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O23" s="26" t="s">
@@ -3372,17 +3372,17 @@
       <c r="I24" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="J24" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K24" s="86" t="s">
+      <c r="J24" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="39"/>
-      <c r="M24" s="86" t="s">
+      <c r="M24" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="86" t="s">
+      <c r="N24" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="40" t="s">
@@ -3415,17 +3415,17 @@
       <c r="I25" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="J25" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="87" t="s">
+      <c r="J25" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="86" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" s="87" t="s">
+      <c r="M25" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="86" t="s">
         <v>30</v>
       </c>
       <c r="O25" s="26" t="s">
@@ -3458,19 +3458,19 @@
       <c r="I26" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="86" t="s">
+      <c r="J26" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="86" t="s">
+      <c r="K26" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M26" s="86" t="s">
+      <c r="M26" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="86" t="s">
+      <c r="N26" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O26" s="40" t="s">
@@ -3503,17 +3503,17 @@
       <c r="I27" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="J27" s="87" t="s">
+      <c r="J27" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="87" t="s">
+      <c r="K27" s="86" t="s">
         <v>44</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N27" s="87" t="s">
+      <c r="M27" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O27" s="26" t="s">
@@ -3546,19 +3546,19 @@
       <c r="I28" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="J28" s="86" t="s">
+      <c r="J28" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="86" t="s">
+      <c r="K28" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="86" t="s">
+      <c r="M28" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N28" s="86" t="s">
+      <c r="N28" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O28" s="40" t="s">
@@ -3591,17 +3591,17 @@
       <c r="I29" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="J29" s="87" t="s">
+      <c r="J29" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="87" t="s">
+      <c r="K29" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="87" t="s">
+      <c r="M29" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N29" s="87" t="s">
+      <c r="N29" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O29" s="26" t="s">
@@ -3634,17 +3634,17 @@
       <c r="I30" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="J30" s="86" t="s">
+      <c r="J30" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="86" t="s">
+      <c r="K30" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="39"/>
-      <c r="M30" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N30" s="86" t="s">
+      <c r="M30" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="87" t="s">
         <v>26</v>
       </c>
       <c r="O30" s="40" t="s">
@@ -3677,17 +3677,17 @@
       <c r="I31" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="J31" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" s="87" t="s">
+      <c r="J31" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="7"/>
-      <c r="M31" s="87" t="s">
+      <c r="M31" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N31" s="87" t="s">
+      <c r="N31" s="86" t="s">
         <v>28</v>
       </c>
       <c r="O31" s="26" t="s">
@@ -3720,17 +3720,17 @@
       <c r="I32" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J32" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K32" s="86" t="s">
+      <c r="J32" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="39"/>
-      <c r="M32" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N32" s="86" t="s">
+      <c r="M32" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N32" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="40" t="s">
@@ -3763,17 +3763,17 @@
       <c r="I33" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="J33" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" s="87" t="s">
+      <c r="J33" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="M33" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N33" s="87" t="s">
+      <c r="M33" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N33" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O33" s="26" t="s">
@@ -3806,17 +3806,17 @@
       <c r="I34" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="J34" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K34" s="86" t="s">
+      <c r="J34" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K34" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="39"/>
-      <c r="M34" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N34" s="86" t="s">
+      <c r="M34" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N34" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O34" s="40" t="s">
@@ -3849,17 +3849,17 @@
       <c r="I35" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="J35" s="87" t="s">
+      <c r="J35" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="K35" s="87" t="s">
+      <c r="K35" s="86" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="7"/>
-      <c r="M35" s="87" t="s">
+      <c r="M35" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N35" s="87" t="s">
+      <c r="N35" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O35" s="26" t="s">
@@ -3892,17 +3892,17 @@
       <c r="I36" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="J36" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K36" s="86" t="s">
+      <c r="J36" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K36" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L36" s="39"/>
-      <c r="M36" s="86" t="s">
+      <c r="M36" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="86" t="s">
+      <c r="N36" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O36" s="40" t="s">
@@ -3935,17 +3935,17 @@
       <c r="I37" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="J37" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K37" s="87" t="s">
+      <c r="J37" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L37" s="7"/>
-      <c r="M37" s="87" t="s">
+      <c r="M37" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="87" t="s">
+      <c r="N37" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O37" s="26" t="s">
@@ -3978,17 +3978,17 @@
       <c r="I38" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="J38" s="86" t="s">
+      <c r="J38" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="86" t="s">
+      <c r="K38" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L38" s="39"/>
-      <c r="M38" s="86" t="s">
+      <c r="M38" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N38" s="86" t="s">
+      <c r="N38" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O38" s="40" t="s">
@@ -4021,17 +4021,17 @@
       <c r="I39" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J39" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K39" s="87" t="s">
+      <c r="J39" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="7"/>
-      <c r="M39" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N39" s="87" t="s">
+      <c r="M39" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N39" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="26" t="s">
@@ -4064,19 +4064,19 @@
       <c r="I40" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="98" t="s">
-        <v>91</v>
-      </c>
-      <c r="K40" s="98" t="s">
+      <c r="J40" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="92" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="98" t="s">
-        <v>91</v>
-      </c>
-      <c r="N40" s="98" t="s">
+      <c r="M40" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="N40" s="92" t="s">
         <v>24</v>
       </c>
       <c r="O40" s="49" t="s">
@@ -4109,17 +4109,17 @@
       <c r="I41" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="99" t="s">
+      <c r="J41" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="K41" s="99" t="s">
+      <c r="K41" s="93" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="31"/>
-      <c r="M41" s="99" t="s">
-        <v>91</v>
-      </c>
-      <c r="N41" s="99" t="s">
+      <c r="M41" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="N41" s="93" t="s">
         <v>24</v>
       </c>
       <c r="O41" s="32" t="s">
@@ -4152,17 +4152,17 @@
       <c r="I42" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K42" s="86" t="s">
+      <c r="J42" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L42" s="39"/>
-      <c r="M42" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N42" s="86" t="s">
+      <c r="M42" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N42" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O42" s="40" t="s">
@@ -4195,19 +4195,19 @@
       <c r="I43" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="J43" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K43" s="87" t="s">
+      <c r="J43" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M43" s="87" t="s">
+      <c r="M43" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N43" s="87" t="s">
+      <c r="N43" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O43" s="26" t="s">
@@ -4240,17 +4240,17 @@
       <c r="I44" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="J44" s="86" t="s">
+      <c r="J44" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="K44" s="86" t="s">
+      <c r="K44" s="87" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="39"/>
-      <c r="M44" s="86" t="s">
+      <c r="M44" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="N44" s="86" t="s">
+      <c r="N44" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O44" s="40" t="s">
@@ -4283,17 +4283,17 @@
       <c r="I45" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="J45" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K45" s="87" t="s">
+      <c r="J45" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L45" s="7"/>
-      <c r="M45" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N45" s="87" t="s">
+      <c r="M45" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N45" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O45" s="26" t="s">
@@ -4326,17 +4326,17 @@
       <c r="I46" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J46" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K46" s="86" t="s">
+      <c r="J46" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K46" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="39"/>
-      <c r="M46" s="86" t="s">
+      <c r="M46" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N46" s="86" t="s">
+      <c r="N46" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O46" s="40" t="s">
@@ -4369,17 +4369,17 @@
       <c r="I47" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J47" s="87" t="s">
+      <c r="J47" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K47" s="87" t="s">
+      <c r="K47" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L47" s="7"/>
-      <c r="M47" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N47" s="87" t="s">
+      <c r="M47" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N47" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O47" s="26" t="s">
@@ -4412,17 +4412,17 @@
       <c r="I48" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="J48" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K48" s="86" t="s">
+      <c r="J48" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K48" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L48" s="39"/>
-      <c r="M48" s="86" t="s">
+      <c r="M48" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N48" s="86" t="s">
+      <c r="N48" s="87" t="s">
         <v>66</v>
       </c>
       <c r="O48" s="40" t="s">
@@ -4455,17 +4455,17 @@
       <c r="I49" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="J49" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K49" s="87" t="s">
+      <c r="J49" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K49" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="7"/>
-      <c r="M49" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N49" s="87" t="s">
+      <c r="M49" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N49" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O49" s="26" t="s">
@@ -4498,17 +4498,17 @@
       <c r="I50" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="J50" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K50" s="86" t="s">
+      <c r="J50" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K50" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="39"/>
-      <c r="M50" s="86" t="s">
+      <c r="M50" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="N50" s="86" t="s">
+      <c r="N50" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O50" s="40" t="s">
@@ -4541,17 +4541,17 @@
       <c r="I51" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="J51" s="87" t="s">
+      <c r="J51" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="K51" s="87" t="s">
+      <c r="K51" s="86" t="s">
         <v>38</v>
       </c>
       <c r="L51" s="7"/>
-      <c r="M51" s="87" t="s">
+      <c r="M51" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="N51" s="87" t="s">
+      <c r="N51" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O51" s="26" t="s">
@@ -4584,19 +4584,19 @@
       <c r="I52" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="J52" s="86" t="s">
+      <c r="J52" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="86" t="s">
+      <c r="K52" s="87" t="s">
         <v>71</v>
       </c>
       <c r="L52" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M52" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N52" s="86" t="s">
+      <c r="M52" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N52" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O52" s="40" t="s">
@@ -4629,19 +4629,19 @@
       <c r="I53" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="J53" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K53" s="87" t="s">
+      <c r="J53" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M53" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N53" s="87" t="s">
+      <c r="M53" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N53" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O53" s="26" t="s">
@@ -4674,17 +4674,17 @@
       <c r="I54" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="J54" s="86" t="s">
+      <c r="J54" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="K54" s="86" t="s">
+      <c r="K54" s="87" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="39"/>
-      <c r="M54" s="86" t="s">
+      <c r="M54" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N54" s="86" t="s">
+      <c r="N54" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O54" s="40" t="s">
@@ -4717,17 +4717,17 @@
       <c r="I55" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="J55" s="87" t="s">
+      <c r="J55" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K55" s="87" t="s">
+      <c r="K55" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L55" s="7"/>
-      <c r="M55" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N55" s="87" t="s">
+      <c r="M55" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N55" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O55" s="26" t="s">
@@ -4760,17 +4760,17 @@
       <c r="I56" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="J56" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K56" s="86" t="s">
+      <c r="J56" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K56" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L56" s="39"/>
-      <c r="M56" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N56" s="86" t="s">
+      <c r="M56" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N56" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O56" s="40" t="s">
@@ -4803,19 +4803,19 @@
       <c r="I57" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="J57" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K57" s="87" t="s">
+      <c r="J57" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K57" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M57" s="87" t="s">
+      <c r="M57" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N57" s="87" t="s">
+      <c r="N57" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O57" s="26" t="s">
@@ -4848,17 +4848,17 @@
       <c r="I58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="J58" s="86" t="s">
+      <c r="J58" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="K58" s="86" t="s">
+      <c r="K58" s="87" t="s">
         <v>28</v>
       </c>
       <c r="L58" s="39"/>
-      <c r="M58" s="86" t="s">
+      <c r="M58" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="N58" s="86" t="s">
+      <c r="N58" s="87" t="s">
         <v>78</v>
       </c>
       <c r="O58" s="40" t="s">
@@ -4891,17 +4891,17 @@
       <c r="I59" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="J59" s="87" t="s">
+      <c r="J59" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="K59" s="87" t="s">
+      <c r="K59" s="86" t="s">
         <v>38</v>
       </c>
       <c r="L59" s="7"/>
-      <c r="M59" s="87" t="s">
+      <c r="M59" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N59" s="87" t="s">
+      <c r="N59" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O59" s="26" t="s">
@@ -4922,15 +4922,15 @@
       <c r="G60" s="51"/>
       <c r="H60" s="51"/>
       <c r="I60" s="50"/>
-      <c r="J60" s="100" t="s">
+      <c r="J60" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="K60" s="101"/>
+      <c r="K60" s="91"/>
       <c r="L60" s="51"/>
-      <c r="M60" s="86" t="s">
+      <c r="M60" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N60" s="86" t="s">
+      <c r="N60" s="87" t="s">
         <v>66</v>
       </c>
       <c r="O60" s="26" t="s">
@@ -4951,15 +4951,15 @@
       <c r="G61" s="31"/>
       <c r="H61" s="31"/>
       <c r="I61" s="30"/>
-      <c r="J61" s="102" t="s">
+      <c r="J61" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="K61" s="103"/>
+      <c r="K61" s="89"/>
       <c r="L61" s="31"/>
-      <c r="M61" s="87" t="s">
+      <c r="M61" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N61" s="87" t="s">
+      <c r="N61" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O61" s="40" t="s">
@@ -4980,17 +4980,17 @@
       <c r="G62" s="51"/>
       <c r="H62" s="51"/>
       <c r="I62" s="50"/>
-      <c r="J62" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K62" s="87" t="s">
+      <c r="J62" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K62" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L62" s="51"/>
-      <c r="M62" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N62" s="86" t="s">
+      <c r="M62" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N62" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O62" s="26" t="s">
@@ -5011,15 +5011,15 @@
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
       <c r="I63" s="30"/>
-      <c r="J63" s="102" t="s">
+      <c r="J63" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="K63" s="103"/>
+      <c r="K63" s="89"/>
       <c r="L63" s="31"/>
-      <c r="M63" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N63" s="86" t="s">
+      <c r="M63" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N63" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O63" s="26" t="s">
@@ -5040,17 +5040,17 @@
       <c r="G64" s="51"/>
       <c r="H64" s="51"/>
       <c r="I64" s="50"/>
-      <c r="J64" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K64" s="87" t="s">
+      <c r="J64" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K64" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L64" s="51"/>
-      <c r="M64" s="87" t="s">
+      <c r="M64" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N64" s="87" t="s">
+      <c r="N64" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O64" s="40" t="s">
@@ -5069,17 +5069,17 @@
       <c r="G65" s="31"/>
       <c r="H65" s="31"/>
       <c r="I65" s="30"/>
-      <c r="J65" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K65" s="87" t="s">
+      <c r="J65" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K65" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L65" s="31"/>
-      <c r="M65" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N65" s="86" t="s">
+      <c r="M65" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N65" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O65" s="40" t="s">
@@ -5112,17 +5112,17 @@
       <c r="I66" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J66" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K66" s="86" t="s">
+      <c r="J66" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K66" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L66" s="39"/>
-      <c r="M66" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N66" s="86" t="s">
+      <c r="M66" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N66" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O66" s="40" t="s">
@@ -5168,102 +5168,6 @@
     <row r="69" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:N21"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="J17:K17"/>
@@ -5277,6 +5181,102 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M15:N15"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="M63:N63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:F6 I6:N6">
@@ -5331,8 +5331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A1C220-DC63-401D-B66B-975EAA99E44B}">
   <dimension ref="A2:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5403,11 +5403,11 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="88"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="97" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="8">
@@ -5457,11 +5457,11 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A7" s="89"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="92"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="7" t="s">
         <v>176</v>
       </c>
@@ -5509,11 +5509,11 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="89"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="92"/>
+      <c r="C8" s="98"/>
       <c r="D8" s="7">
         <v>12</v>
       </c>
@@ -5557,11 +5557,11 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A9" s="89"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="92"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="7">
         <v>6</v>
       </c>
@@ -5605,11 +5605,11 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A10" s="89"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="92"/>
+      <c r="C10" s="98"/>
       <c r="D10" s="7" t="s">
         <v>179</v>
       </c>
@@ -5653,11 +5653,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A11" s="89"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="92"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -5689,11 +5689,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A12" s="89"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="92"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="7" t="s">
         <v>180</v>
       </c>
@@ -5737,11 +5737,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="90"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="93"/>
+      <c r="C13" s="99"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -5803,37 +5803,37 @@
       </c>
       <c r="E14" s="43"/>
       <c r="F14" s="43"/>
-      <c r="G14" s="97" t="s">
+      <c r="G14" s="103" t="s">
         <v>196</v>
       </c>
-      <c r="H14" s="97" t="s">
+      <c r="H14" s="103" t="s">
         <v>66</v>
       </c>
       <c r="I14" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="97" t="s">
+      <c r="J14" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="97" t="s">
+      <c r="K14" s="103" t="s">
         <v>66</v>
       </c>
       <c r="L14" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="M14" s="97" t="s">
+      <c r="M14" s="103" t="s">
         <v>259</v>
       </c>
-      <c r="N14" s="97" t="s">
+      <c r="N14" s="103" t="s">
         <v>26</v>
       </c>
       <c r="O14" s="43" t="s">
         <v>265</v>
       </c>
-      <c r="P14" s="97" t="s">
+      <c r="P14" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="Q14" s="97" t="s">
+      <c r="Q14" s="103" t="s">
         <v>66</v>
       </c>
       <c r="R14" s="78" t="s">
@@ -5855,37 +5855,37 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="87" t="s">
+      <c r="G15" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="87" t="s">
+      <c r="H15" s="86" t="s">
         <v>66</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="87" t="s">
+      <c r="J15" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="87" t="s">
+      <c r="K15" s="86" t="s">
         <v>66</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="87" t="s">
+      <c r="M15" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="N15" s="87" t="s">
+      <c r="N15" s="86" t="s">
         <v>258</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P15" s="87" t="s">
+      <c r="P15" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="Q15" s="87" t="s">
+      <c r="Q15" s="86" t="s">
         <v>66</v>
       </c>
       <c r="R15" s="69" t="s">
@@ -5907,37 +5907,37 @@
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
-      <c r="G16" s="86" t="s">
+      <c r="G16" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="86" t="s">
+      <c r="H16" s="87" t="s">
         <v>30</v>
       </c>
       <c r="I16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="86" t="s">
+      <c r="J16" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="86" t="s">
+      <c r="M16" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="N16" s="86" t="s">
+      <c r="N16" s="87" t="s">
         <v>66</v>
       </c>
       <c r="O16" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="P16" s="86" t="s">
+      <c r="P16" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="Q16" s="86" t="s">
+      <c r="Q16" s="87" t="s">
         <v>38</v>
       </c>
       <c r="R16" s="79" t="s">
@@ -5959,37 +5959,37 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="87" t="s">
+      <c r="G17" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="87" t="s">
+      <c r="J17" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="87" t="s">
+      <c r="M17" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P17" s="87" t="s">
+      <c r="P17" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="Q17" s="87" t="s">
+      <c r="Q17" s="86" t="s">
         <v>30</v>
       </c>
       <c r="R17" s="69" t="s">
@@ -6011,37 +6011,37 @@
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
-      <c r="G18" s="86" t="s">
+      <c r="G18" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="86" t="s">
+      <c r="H18" s="87" t="s">
         <v>66</v>
       </c>
       <c r="I18" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="86" t="s">
+      <c r="J18" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="N18" s="86" t="s">
+      <c r="M18" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="N18" s="87" t="s">
         <v>66</v>
       </c>
       <c r="O18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P18" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q18" s="86" t="s">
+      <c r="P18" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R18" s="79" t="s">
@@ -6063,37 +6063,37 @@
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="87" t="s">
+      <c r="G19" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="87" t="s">
+      <c r="J19" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="K19" s="87" t="s">
+      <c r="K19" s="86" t="s">
         <v>66</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="87" t="s">
+      <c r="M19" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P19" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19" s="87" t="s">
+      <c r="P19" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R19" s="69" t="s">
@@ -6115,37 +6115,37 @@
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
-      <c r="G20" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="86" t="s">
+      <c r="G20" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="86" t="s">
+      <c r="J20" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L20" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M20" s="86" t="s">
+      <c r="M20" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="N20" s="86" t="s">
+      <c r="N20" s="87" t="s">
         <v>66</v>
       </c>
       <c r="O20" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="P20" s="86" t="s">
+      <c r="P20" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="Q20" s="86" t="s">
+      <c r="Q20" s="87" t="s">
         <v>66</v>
       </c>
       <c r="R20" s="79" t="s">
@@ -6167,37 +6167,37 @@
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="87" t="s">
+      <c r="G21" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="86" t="s">
         <v>26</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="87" t="s">
+      <c r="J21" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="K21" s="87" t="s">
+      <c r="K21" s="86" t="s">
         <v>66</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M21" s="87" t="s">
+      <c r="M21" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="N21" s="87" t="s">
+      <c r="N21" s="86" t="s">
         <v>258</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P21" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q21" s="87" t="s">
+      <c r="P21" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R21" s="69" t="s">
@@ -6219,37 +6219,37 @@
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
-      <c r="G22" s="86" t="s">
+      <c r="G22" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="86" t="s">
+      <c r="H22" s="87" t="s">
         <v>66</v>
       </c>
       <c r="I22" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="86" t="s">
+      <c r="J22" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="86" t="s">
+      <c r="K22" s="87" t="s">
         <v>38</v>
       </c>
       <c r="L22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="86" t="s">
+      <c r="M22" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="N22" s="86" t="s">
+      <c r="N22" s="87" t="s">
         <v>66</v>
       </c>
       <c r="O22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P22" s="86" t="s">
+      <c r="P22" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="Q22" s="86" t="s">
+      <c r="Q22" s="87" t="s">
         <v>66</v>
       </c>
       <c r="R22" s="79" t="s">
@@ -6271,37 +6271,37 @@
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="87" t="s">
+      <c r="G23" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="87" t="s">
+      <c r="H23" s="86" t="s">
         <v>66</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="87" t="s">
+      <c r="J23" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M23" s="87" t="s">
+      <c r="M23" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="N23" s="87" t="s">
+      <c r="N23" s="86" t="s">
         <v>66</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P23" s="87" t="s">
+      <c r="P23" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="Q23" s="87" t="s">
+      <c r="Q23" s="86" t="s">
         <v>66</v>
       </c>
       <c r="R23" s="69" t="s">
@@ -6323,37 +6323,37 @@
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
-      <c r="G24" s="86" t="s">
+      <c r="G24" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="86" t="s">
+      <c r="H24" s="87" t="s">
         <v>66</v>
       </c>
       <c r="I24" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" s="86" t="s">
+      <c r="J24" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M24" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="86" t="s">
+      <c r="M24" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O24" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P24" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q24" s="86" t="s">
+      <c r="P24" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R24" s="79" t="s">
@@ -6375,37 +6375,37 @@
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="87" t="s">
+      <c r="G25" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="87" t="s">
+      <c r="H25" s="86" t="s">
         <v>30</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="87" t="s">
+      <c r="J25" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="87" t="s">
+      <c r="K25" s="86" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M25" s="87" t="s">
+      <c r="M25" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="N25" s="87" t="s">
+      <c r="N25" s="86" t="s">
         <v>30</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P25" s="87" t="s">
+      <c r="P25" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="Q25" s="87" t="s">
+      <c r="Q25" s="86" t="s">
         <v>30</v>
       </c>
       <c r="R25" s="69" t="s">
@@ -6427,37 +6427,37 @@
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
-      <c r="G26" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="86" t="s">
+      <c r="G26" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I26" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" s="86" t="s">
+      <c r="J26" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L26" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M26" s="86" t="s">
+      <c r="M26" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="N26" s="86" t="s">
+      <c r="N26" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O26" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P26" s="86" t="s">
+      <c r="P26" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="Q26" s="86" t="s">
+      <c r="Q26" s="87" t="s">
         <v>66</v>
       </c>
       <c r="R26" s="79" t="s">
@@ -6479,37 +6479,37 @@
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="87" t="s">
+      <c r="G27" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K27" s="87" t="s">
+      <c r="J27" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M27" s="87" t="s">
+      <c r="M27" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="N27" s="87" t="s">
+      <c r="N27" s="86" t="s">
         <v>258</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P27" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q27" s="87" t="s">
+      <c r="P27" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R27" s="69" t="s">
@@ -6531,37 +6531,37 @@
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
-      <c r="G28" s="86" t="s">
+      <c r="G28" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="86" t="s">
+      <c r="H28" s="87" t="s">
         <v>66</v>
       </c>
       <c r="I28" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="86" t="s">
+      <c r="J28" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="K28" s="86" t="s">
+      <c r="K28" s="87" t="s">
         <v>66</v>
       </c>
       <c r="L28" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="M28" s="86" t="s">
+      <c r="M28" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="N28" s="86" t="s">
+      <c r="N28" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O28" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="P28" s="86" t="s">
+      <c r="P28" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="86" t="s">
+      <c r="Q28" s="87" t="s">
         <v>38</v>
       </c>
       <c r="R28" s="79" t="s">
@@ -6583,37 +6583,37 @@
       </c>
       <c r="E29" s="60"/>
       <c r="F29" s="60"/>
-      <c r="G29" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="87" t="s">
+      <c r="G29" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="87" t="s">
+      <c r="J29" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M29" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="87" t="s">
+      <c r="M29" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="87" t="s">
+      <c r="P29" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="Q29" s="87" t="s">
+      <c r="Q29" s="86" t="s">
         <v>66</v>
       </c>
       <c r="R29" s="69" t="s">
@@ -6635,37 +6635,37 @@
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
-      <c r="G30" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="86" t="s">
+      <c r="G30" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="86" t="s">
+      <c r="J30" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="K30" s="86" t="s">
+      <c r="K30" s="87" t="s">
         <v>66</v>
       </c>
       <c r="L30" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M30" s="86" t="s">
+      <c r="M30" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="N30" s="86" t="s">
+      <c r="N30" s="87" t="s">
         <v>66</v>
       </c>
       <c r="O30" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P30" s="86" t="s">
+      <c r="P30" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="Q30" s="86" t="s">
+      <c r="Q30" s="87" t="s">
         <v>66</v>
       </c>
       <c r="R30" s="79" t="s">
@@ -6683,41 +6683,41 @@
         <v>161</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>267</v>
+        <v>26</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="87" t="s">
+      <c r="G31" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K31" s="87" t="s">
+      <c r="J31" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="M31" s="87" t="s">
+      <c r="M31" s="86" t="s">
         <v>260</v>
       </c>
-      <c r="N31" s="87" t="s">
+      <c r="N31" s="86" t="s">
         <v>260</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P31" s="87" t="s">
+      <c r="P31" s="86" t="s">
         <v>260</v>
       </c>
-      <c r="Q31" s="87" t="s">
+      <c r="Q31" s="86" t="s">
         <v>260</v>
       </c>
       <c r="R31" s="69" t="s">
@@ -6735,41 +6735,41 @@
         <v>120</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>26</v>
+        <v>267</v>
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="39"/>
-      <c r="G32" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="86" t="s">
+      <c r="G32" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I32" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J32" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" s="86" t="s">
+      <c r="J32" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M32" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N32" s="86" t="s">
+      <c r="M32" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="P32" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32" s="86" t="s">
+      <c r="P32" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R32" s="79" t="s">
@@ -6791,37 +6791,37 @@
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="87" t="s">
+      <c r="G33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="87" t="s">
+      <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" s="87" t="s">
+      <c r="J33" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M33" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="N33" s="87" t="s">
+      <c r="M33" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P33" s="87" t="s">
+      <c r="P33" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="Q33" s="87" t="s">
+      <c r="Q33" s="86" t="s">
         <v>38</v>
       </c>
       <c r="R33" s="69" t="s">
@@ -6843,37 +6843,37 @@
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="39"/>
-      <c r="G34" s="86" t="s">
+      <c r="G34" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="H34" s="86" t="s">
+      <c r="H34" s="87" t="s">
         <v>66</v>
       </c>
       <c r="I34" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J34" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="K34" s="86" t="s">
+      <c r="J34" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L34" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M34" s="86" t="s">
+      <c r="M34" s="87" t="s">
         <v>258</v>
       </c>
-      <c r="N34" s="86" t="s">
+      <c r="N34" s="87" t="s">
         <v>258</v>
       </c>
       <c r="O34" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="P34" s="86" t="s">
+      <c r="P34" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="Q34" s="86" t="s">
+      <c r="Q34" s="87" t="s">
         <v>38</v>
       </c>
       <c r="R34" s="79" t="s">
@@ -6895,37 +6895,37 @@
       </c>
       <c r="E35" s="60"/>
       <c r="F35" s="60"/>
-      <c r="G35" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="87" t="s">
+      <c r="G35" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J35" s="87" t="s">
+      <c r="J35" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="K35" s="87" t="s">
+      <c r="K35" s="86" t="s">
         <v>66</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M35" s="87" t="s">
+      <c r="M35" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="N35" s="87" t="s">
+      <c r="N35" s="86" t="s">
         <v>66</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P35" s="87" t="s">
+      <c r="P35" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="Q35" s="87" t="s">
+      <c r="Q35" s="86" t="s">
         <v>66</v>
       </c>
       <c r="R35" s="69" t="s">
@@ -6947,37 +6947,37 @@
       </c>
       <c r="E36" s="39"/>
       <c r="F36" s="39"/>
-      <c r="G36" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="86" t="s">
+      <c r="G36" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="86" t="s">
+      <c r="J36" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="K36" s="86" t="s">
+      <c r="K36" s="87" t="s">
         <v>66</v>
       </c>
       <c r="L36" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M36" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N36" s="86" t="s">
+      <c r="M36" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P36" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q36" s="86" t="s">
+      <c r="P36" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R36" s="79" t="s">
@@ -6999,37 +6999,37 @@
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="87" t="s">
+      <c r="G37" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J37" s="87" t="s">
+      <c r="J37" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="K37" s="87" t="s">
+      <c r="K37" s="86" t="s">
         <v>25</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M37" s="87" t="s">
+      <c r="M37" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="N37" s="87" t="s">
+      <c r="N37" s="86" t="s">
         <v>66</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P37" s="87" t="s">
+      <c r="P37" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="Q37" s="87" t="s">
+      <c r="Q37" s="86" t="s">
         <v>38</v>
       </c>
       <c r="R37" s="69" t="s">
@@ -7051,37 +7051,37 @@
       </c>
       <c r="E38" s="39"/>
       <c r="F38" s="39"/>
-      <c r="G38" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="86" t="s">
+      <c r="G38" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J38" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K38" s="86" t="s">
+      <c r="J38" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M38" s="86" t="s">
+      <c r="M38" s="87" t="s">
         <v>261</v>
       </c>
-      <c r="N38" s="86" t="s">
+      <c r="N38" s="87" t="s">
         <v>261</v>
       </c>
       <c r="O38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P38" s="86" t="s">
+      <c r="P38" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="Q38" s="86" t="s">
+      <c r="Q38" s="87" t="s">
         <v>66</v>
       </c>
       <c r="R38" s="79" t="s">
@@ -7103,37 +7103,37 @@
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="87" t="s">
+      <c r="G39" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K39" s="87" t="s">
+      <c r="J39" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M39" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="N39" s="87" t="s">
+      <c r="M39" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P39" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q39" s="87" t="s">
+      <c r="P39" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q39" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R39" s="69" t="s">
@@ -7155,37 +7155,37 @@
       </c>
       <c r="E40" s="48"/>
       <c r="F40" s="48"/>
-      <c r="G40" s="86" t="s">
+      <c r="G40" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="H40" s="86" t="s">
+      <c r="H40" s="87" t="s">
         <v>66</v>
       </c>
       <c r="I40" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J40" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="K40" s="86" t="s">
+      <c r="J40" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L40" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M40" s="86" t="s">
+      <c r="M40" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="N40" s="86" t="s">
+      <c r="N40" s="87" t="s">
         <v>30</v>
       </c>
       <c r="O40" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="P40" s="86" t="s">
+      <c r="P40" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="Q40" s="86" t="s">
+      <c r="Q40" s="87" t="s">
         <v>30</v>
       </c>
       <c r="R40" s="79" t="s">
@@ -7207,37 +7207,37 @@
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="31"/>
-      <c r="G41" s="106" t="s">
+      <c r="G41" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="H41" s="106" t="s">
+      <c r="H41" s="104" t="s">
         <v>66</v>
       </c>
       <c r="I41" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="J41" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="K41" s="106" t="s">
+      <c r="J41" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" s="104" t="s">
         <v>26</v>
       </c>
       <c r="L41" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="M41" s="106" t="s">
+      <c r="M41" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="N41" s="106" t="s">
+      <c r="N41" s="104" t="s">
         <v>23</v>
       </c>
       <c r="O41" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="P41" s="106" t="s">
+      <c r="P41" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="Q41" s="106" t="s">
+      <c r="Q41" s="104" t="s">
         <v>23</v>
       </c>
       <c r="R41" s="80" t="s">
@@ -7259,37 +7259,37 @@
       </c>
       <c r="E42" s="39"/>
       <c r="F42" s="39"/>
-      <c r="G42" s="107" t="s">
+      <c r="G42" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="H42" s="107" t="s">
+      <c r="H42" s="105" t="s">
         <v>66</v>
       </c>
       <c r="I42" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="J42" s="107" t="s">
+      <c r="J42" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="K42" s="107" t="s">
+      <c r="K42" s="105" t="s">
         <v>66</v>
       </c>
       <c r="L42" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="107" t="s">
+      <c r="M42" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="N42" s="107" t="s">
+      <c r="N42" s="105" t="s">
         <v>38</v>
       </c>
       <c r="O42" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="P42" s="107" t="s">
+      <c r="P42" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="Q42" s="107" t="s">
+      <c r="Q42" s="105" t="s">
         <v>66</v>
       </c>
       <c r="R42" s="81" t="s">
@@ -7311,37 +7311,37 @@
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="99" t="s">
+      <c r="G43" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="H43" s="99" t="s">
+      <c r="H43" s="93" t="s">
         <v>25</v>
       </c>
       <c r="I43" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J43" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="K43" s="99" t="s">
+      <c r="J43" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="93" t="s">
         <v>24</v>
       </c>
       <c r="L43" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="M43" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="N43" s="99" t="s">
+      <c r="M43" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" s="93" t="s">
         <v>24</v>
       </c>
       <c r="O43" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="P43" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q43" s="99" t="s">
+      <c r="P43" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43" s="93" t="s">
         <v>24</v>
       </c>
       <c r="R43" s="82" t="s">
@@ -7363,37 +7363,37 @@
       </c>
       <c r="E44" s="39"/>
       <c r="F44" s="39"/>
-      <c r="G44" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="86" t="s">
+      <c r="G44" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I44" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J44" s="86" t="s">
+      <c r="J44" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="K44" s="86" t="s">
+      <c r="K44" s="87" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M44" s="86" t="s">
+      <c r="M44" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="N44" s="86" t="s">
+      <c r="N44" s="87" t="s">
         <v>66</v>
       </c>
       <c r="O44" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P44" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q44" s="86" t="s">
+      <c r="P44" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q44" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R44" s="79" t="s">
@@ -7415,37 +7415,37 @@
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="87" t="s">
+      <c r="G45" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="86" t="s">
         <v>26</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J45" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="K45" s="87" t="s">
+      <c r="J45" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M45" s="87" t="s">
+      <c r="M45" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="N45" s="87" t="s">
+      <c r="N45" s="86" t="s">
         <v>66</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P45" s="87" t="s">
+      <c r="P45" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="Q45" s="87" t="s">
+      <c r="Q45" s="86" t="s">
         <v>66</v>
       </c>
       <c r="R45" s="69" t="s">
@@ -7467,37 +7467,37 @@
       </c>
       <c r="E46" s="39"/>
       <c r="F46" s="39"/>
-      <c r="G46" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H46" s="86" t="s">
+      <c r="G46" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I46" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J46" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K46" s="86" t="s">
+      <c r="J46" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M46" s="86" t="s">
+      <c r="M46" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="N46" s="86" t="s">
+      <c r="N46" s="87" t="s">
         <v>66</v>
       </c>
       <c r="O46" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="P46" s="86" t="s">
+      <c r="P46" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="Q46" s="86" t="s">
+      <c r="Q46" s="87" t="s">
         <v>66</v>
       </c>
       <c r="R46" s="79" t="s">
@@ -7519,37 +7519,37 @@
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="87" t="s">
+      <c r="G47" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H47" s="87" t="s">
+      <c r="H47" s="86" t="s">
         <v>66</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J47" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="K47" s="87" t="s">
+      <c r="J47" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="K47" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M47" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="N47" s="87" t="s">
+      <c r="M47" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N47" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P47" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q47" s="87" t="s">
+      <c r="P47" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q47" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R47" s="69" t="s">
@@ -7571,37 +7571,37 @@
       </c>
       <c r="E48" s="39"/>
       <c r="F48" s="39"/>
-      <c r="G48" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="H48" s="86" t="s">
+      <c r="G48" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="87" t="s">
         <v>26</v>
       </c>
       <c r="I48" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J48" s="86" t="s">
+      <c r="J48" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="K48" s="86" t="s">
+      <c r="K48" s="87" t="s">
         <v>66</v>
       </c>
       <c r="L48" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M48" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N48" s="86" t="s">
+      <c r="M48" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N48" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O48" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="P48" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q48" s="86" t="s">
+      <c r="P48" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q48" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R48" s="79" t="s">
@@ -7623,37 +7623,37 @@
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H49" s="87" t="s">
+      <c r="G49" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J49" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K49" s="87" t="s">
+      <c r="J49" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M49" s="87" t="s">
+      <c r="M49" s="86" t="s">
         <v>262</v>
       </c>
-      <c r="N49" s="87" t="s">
+      <c r="N49" s="86" t="s">
         <v>262</v>
       </c>
       <c r="O49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P49" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q49" s="87" t="s">
+      <c r="P49" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q49" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R49" s="69" t="s">
@@ -7675,37 +7675,37 @@
       </c>
       <c r="E50" s="39"/>
       <c r="F50" s="39"/>
-      <c r="G50" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H50" s="86" t="s">
+      <c r="G50" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I50" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J50" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K50" s="86" t="s">
+      <c r="J50" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M50" s="86" t="s">
+      <c r="M50" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="N50" s="86" t="s">
+      <c r="N50" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O50" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="P50" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q50" s="86" t="s">
+      <c r="P50" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q50" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R50" s="79" t="s">
@@ -7727,37 +7727,37 @@
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="H51" s="87" t="s">
+      <c r="G51" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" s="86" t="s">
         <v>26</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J51" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="K51" s="87" t="s">
+      <c r="J51" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="K51" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L51" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M51" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="N51" s="87" t="s">
+      <c r="M51" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N51" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P51" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q51" s="87" t="s">
+      <c r="P51" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q51" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R51" s="69" t="s">
@@ -7779,37 +7779,37 @@
       </c>
       <c r="E52" s="39"/>
       <c r="F52" s="39"/>
-      <c r="G52" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="H52" s="86" t="s">
+      <c r="G52" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="87" t="s">
         <v>26</v>
       </c>
       <c r="I52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J52" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K52" s="86" t="s">
+      <c r="J52" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K52" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L52" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M52" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N52" s="86" t="s">
+      <c r="M52" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N52" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P52" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q52" s="86" t="s">
+      <c r="P52" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q52" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R52" s="79" t="s">
@@ -7831,37 +7831,37 @@
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="H53" s="105" t="s">
+      <c r="G53" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="106" t="s">
         <v>24</v>
       </c>
       <c r="I53" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J53" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="K53" s="105" t="s">
+      <c r="J53" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="K53" s="106" t="s">
         <v>24</v>
       </c>
       <c r="L53" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="M53" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="N53" s="105" t="s">
+      <c r="M53" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53" s="106" t="s">
         <v>26</v>
       </c>
       <c r="O53" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="P53" s="105" t="s">
+      <c r="P53" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="Q53" s="105" t="s">
+      <c r="Q53" s="106" t="s">
         <v>38</v>
       </c>
       <c r="R53" s="83" t="s">
@@ -7883,37 +7883,37 @@
       </c>
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
-      <c r="G54" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="H54" s="86" t="s">
+      <c r="G54" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" s="87" t="s">
         <v>26</v>
       </c>
       <c r="I54" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J54" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="K54" s="86" t="s">
+      <c r="J54" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K54" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L54" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M54" s="86" t="s">
+      <c r="M54" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="N54" s="86" t="s">
+      <c r="N54" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O54" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="P54" s="86" t="s">
+      <c r="P54" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="Q54" s="86" t="s">
+      <c r="Q54" s="87" t="s">
         <v>38</v>
       </c>
       <c r="R54" s="79" t="s">
@@ -7935,37 +7935,37 @@
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H55" s="87" t="s">
+      <c r="G55" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J55" s="87" t="s">
+      <c r="J55" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="K55" s="87" t="s">
+      <c r="K55" s="86" t="s">
         <v>25</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M55" s="87" t="s">
+      <c r="M55" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="N55" s="87" t="s">
+      <c r="N55" s="86" t="s">
         <v>30</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P55" s="87" t="s">
+      <c r="P55" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="Q55" s="87" t="s">
+      <c r="Q55" s="86" t="s">
         <v>66</v>
       </c>
       <c r="R55" s="69" t="s">
@@ -7987,37 +7987,37 @@
       </c>
       <c r="E56" s="39"/>
       <c r="F56" s="39"/>
-      <c r="G56" s="86" t="s">
+      <c r="G56" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="H56" s="86" t="s">
+      <c r="H56" s="87" t="s">
         <v>38</v>
       </c>
       <c r="I56" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J56" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K56" s="86" t="s">
+      <c r="J56" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K56" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L56" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M56" s="86" t="s">
+      <c r="M56" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="N56" s="86" t="s">
+      <c r="N56" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O56" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="P56" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q56" s="86" t="s">
+      <c r="P56" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q56" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R56" s="79" t="s">
@@ -8039,37 +8039,37 @@
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="H57" s="87" t="s">
+      <c r="G57" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" s="86" t="s">
         <v>26</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J57" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="K57" s="87" t="s">
+      <c r="J57" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="K57" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M57" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="N57" s="87" t="s">
+      <c r="M57" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P57" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q57" s="87" t="s">
+      <c r="P57" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q57" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R57" s="69" t="s">
@@ -8091,37 +8091,37 @@
       </c>
       <c r="E58" s="39"/>
       <c r="F58" s="39"/>
-      <c r="G58" s="86" t="s">
+      <c r="G58" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="H58" s="86" t="s">
+      <c r="H58" s="87" t="s">
         <v>38</v>
       </c>
       <c r="I58" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J58" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="K58" s="86" t="s">
+      <c r="J58" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K58" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L58" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="M58" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N58" s="86" t="s">
+      <c r="M58" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N58" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O58" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P58" s="86" t="s">
+      <c r="P58" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="Q58" s="86" t="s">
+      <c r="Q58" s="87" t="s">
         <v>25</v>
       </c>
       <c r="R58" s="79" t="s">
@@ -8143,37 +8143,37 @@
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
-      <c r="G59" s="87" t="s">
+      <c r="G59" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="H59" s="87" t="s">
+      <c r="H59" s="86" t="s">
         <v>25</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J59" s="87" t="s">
+      <c r="J59" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="K59" s="87" t="s">
+      <c r="K59" s="86" t="s">
         <v>66</v>
       </c>
       <c r="L59" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M59" s="87" t="s">
+      <c r="M59" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="N59" s="87" t="s">
+      <c r="N59" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P59" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q59" s="87" t="s">
+      <c r="P59" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q59" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R59" s="69" t="s">
@@ -8195,37 +8195,37 @@
       </c>
       <c r="E60" s="39"/>
       <c r="F60" s="39"/>
-      <c r="G60" s="86" t="s">
+      <c r="G60" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="H60" s="86" t="s">
+      <c r="H60" s="87" t="s">
         <v>30</v>
       </c>
       <c r="I60" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J60" s="86" t="s">
+      <c r="J60" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="K60" s="86" t="s">
+      <c r="K60" s="87" t="s">
         <v>30</v>
       </c>
       <c r="L60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="M60" s="86" t="s">
+      <c r="M60" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="N60" s="86" t="s">
+      <c r="N60" s="87" t="s">
         <v>30</v>
       </c>
       <c r="O60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="P60" s="86" t="s">
+      <c r="P60" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="Q60" s="86" t="s">
+      <c r="Q60" s="87" t="s">
         <v>25</v>
       </c>
       <c r="R60" s="79" t="s">
@@ -8247,37 +8247,37 @@
       </c>
       <c r="E61" s="32"/>
       <c r="F61" s="32"/>
-      <c r="G61" s="87" t="s">
+      <c r="G61" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H61" s="87" t="s">
+      <c r="H61" s="86" t="s">
         <v>66</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J61" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K61" s="87" t="s">
+      <c r="J61" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K61" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L61" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M61" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="N61" s="87" t="s">
+      <c r="M61" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N61" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O61" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P61" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q61" s="87" t="s">
+      <c r="P61" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q61" s="86" t="s">
         <v>26</v>
       </c>
       <c r="R61" s="69" t="s">
@@ -8299,37 +8299,37 @@
       </c>
       <c r="E62" s="52"/>
       <c r="F62" s="52"/>
-      <c r="G62" s="86" t="s">
+      <c r="G62" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H62" s="86" t="s">
+      <c r="H62" s="87" t="s">
         <v>25</v>
       </c>
       <c r="I62" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J62" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="K62" s="86" t="s">
+      <c r="J62" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K62" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L62" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="M62" s="86" t="s">
+      <c r="M62" s="87" t="s">
         <v>263</v>
       </c>
-      <c r="N62" s="86" t="s">
+      <c r="N62" s="87" t="s">
         <v>263</v>
       </c>
       <c r="O62" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P62" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q62" s="86" t="s">
+      <c r="P62" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q62" s="87" t="s">
         <v>26</v>
       </c>
       <c r="R62" s="79" t="s">
@@ -8351,37 +8351,37 @@
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="32"/>
-      <c r="G63" s="87" t="s">
+      <c r="G63" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="H63" s="87" t="s">
+      <c r="H63" s="86" t="s">
         <v>38</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J63" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K63" s="87" t="s">
+      <c r="J63" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K63" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M63" s="87" t="s">
+      <c r="M63" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="N63" s="87" t="s">
+      <c r="N63" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O63" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P63" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q63" s="87" t="s">
+      <c r="P63" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q63" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R63" s="69" t="s">
@@ -8403,37 +8403,37 @@
       </c>
       <c r="E64" s="52"/>
       <c r="F64" s="52"/>
-      <c r="G64" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="H64" s="86" t="s">
+      <c r="G64" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" s="87" t="s">
         <v>26</v>
       </c>
       <c r="I64" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J64" s="86" t="s">
+      <c r="J64" s="87" t="s">
         <v>257</v>
       </c>
-      <c r="K64" s="86" t="s">
+      <c r="K64" s="87" t="s">
         <v>257</v>
       </c>
       <c r="L64" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="M64" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N64" s="86" t="s">
+      <c r="M64" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N64" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O64" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P64" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q64" s="86" t="s">
+      <c r="P64" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q64" s="87" t="s">
         <v>26</v>
       </c>
       <c r="R64" s="79" t="s">
@@ -8455,37 +8455,37 @@
       </c>
       <c r="E65" s="32"/>
       <c r="F65" s="32"/>
-      <c r="G65" s="87" t="s">
+      <c r="G65" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="87" t="s">
+      <c r="H65" s="86" t="s">
         <v>30</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J65" s="87" t="s">
+      <c r="J65" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="K65" s="87" t="s">
+      <c r="K65" s="86" t="s">
         <v>30</v>
       </c>
       <c r="L65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M65" s="87" t="s">
+      <c r="M65" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="N65" s="87" t="s">
+      <c r="N65" s="86" t="s">
         <v>30</v>
       </c>
       <c r="O65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P65" s="87" t="s">
+      <c r="P65" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="Q65" s="87" t="s">
+      <c r="Q65" s="86" t="s">
         <v>30</v>
       </c>
       <c r="R65" s="69" t="s">
@@ -8561,11 +8561,11 @@
     </row>
     <row r="71" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="L71" s="76"/>
-      <c r="M71" s="104"/>
-      <c r="N71" s="104"/>
+      <c r="M71" s="107"/>
+      <c r="N71" s="107"/>
       <c r="O71" s="76"/>
-      <c r="P71" s="104"/>
-      <c r="Q71" s="104"/>
+      <c r="P71" s="107"/>
+      <c r="Q71" s="107"/>
       <c r="R71" s="84"/>
     </row>
     <row r="72" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -8590,11 +8590,11 @@
     </row>
     <row r="76" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="L76" s="76"/>
-      <c r="M76" s="104"/>
-      <c r="N76" s="104"/>
+      <c r="M76" s="107"/>
+      <c r="N76" s="107"/>
       <c r="O76" s="76"/>
-      <c r="P76" s="104"/>
-      <c r="Q76" s="104"/>
+      <c r="P76" s="107"/>
+      <c r="Q76" s="107"/>
       <c r="R76" s="84"/>
     </row>
     <row r="77" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -8609,154 +8609,48 @@
     <row r="78" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="214">
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P30:Q30"/>
     <mergeCell ref="M64:N64"/>
     <mergeCell ref="M65:N65"/>
     <mergeCell ref="M71:N71"/>
@@ -8781,48 +8675,154 @@
     <mergeCell ref="M54:N54"/>
     <mergeCell ref="M55:N55"/>
     <mergeCell ref="M56:N56"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="G14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:C6">
@@ -8947,11 +8947,11 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="88"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="97" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="8">
@@ -8969,7 +8969,7 @@
       <c r="H6" s="8">
         <v>15</v>
       </c>
-      <c r="I6" s="94" t="s">
+      <c r="I6" s="100" t="s">
         <v>167</v>
       </c>
       <c r="J6" s="8">
@@ -8990,7 +8990,7 @@
       <c r="O6" s="25">
         <v>30</v>
       </c>
-      <c r="P6" s="94" t="s">
+      <c r="P6" s="100" t="s">
         <v>167</v>
       </c>
       <c r="Q6" s="8">
@@ -9025,11 +9025,11 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="89"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="92"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
@@ -9045,7 +9045,7 @@
       <c r="H7" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I7" s="95"/>
+      <c r="I7" s="101"/>
       <c r="J7" s="7" t="s">
         <v>8</v>
       </c>
@@ -9064,7 +9064,7 @@
       <c r="O7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="95"/>
+      <c r="P7" s="101"/>
       <c r="Q7" s="7" t="s">
         <v>176</v>
       </c>
@@ -9093,11 +9093,11 @@
       <c r="Z7" s="109"/>
     </row>
     <row r="8" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="89"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="92"/>
+      <c r="C8" s="98"/>
       <c r="D8" s="7">
         <v>68</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>60</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="95"/>
+      <c r="I8" s="101"/>
       <c r="J8" s="7">
         <v>90</v>
       </c>
@@ -9128,7 +9128,7 @@
       <c r="O8" s="26">
         <v>59</v>
       </c>
-      <c r="P8" s="95"/>
+      <c r="P8" s="101"/>
       <c r="Q8" s="7">
         <v>12</v>
       </c>
@@ -9153,11 +9153,11 @@
       <c r="Z8" s="109"/>
     </row>
     <row r="9" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="89"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="92"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="17">
         <v>14</v>
       </c>
@@ -9173,7 +9173,7 @@
       <c r="H9" s="17">
         <v>10</v>
       </c>
-      <c r="I9" s="95"/>
+      <c r="I9" s="101"/>
       <c r="J9" s="17">
         <v>18</v>
       </c>
@@ -9190,7 +9190,7 @@
       <c r="O9" s="36">
         <v>12</v>
       </c>
-      <c r="P9" s="95"/>
+      <c r="P9" s="101"/>
       <c r="Q9" s="7">
         <v>6</v>
       </c>
@@ -9215,11 +9215,11 @@
       <c r="Z9" s="109"/>
     </row>
     <row r="10" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="89"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="92"/>
+      <c r="C10" s="98"/>
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="95"/>
+      <c r="I10" s="101"/>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
@@ -9250,7 +9250,7 @@
       <c r="O10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="95"/>
+      <c r="P10" s="101"/>
       <c r="Q10" s="7" t="s">
         <v>179</v>
       </c>
@@ -9275,11 +9275,11 @@
       <c r="Z10" s="109"/>
     </row>
     <row r="11" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="89"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="92"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="7" t="s">
         <v>94</v>
       </c>
@@ -9295,7 +9295,7 @@
       <c r="H11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="95"/>
+      <c r="I11" s="101"/>
       <c r="J11" s="7" t="s">
         <v>97</v>
       </c>
@@ -9312,7 +9312,7 @@
       <c r="O11" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="P11" s="95"/>
+      <c r="P11" s="101"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
@@ -9325,11 +9325,11 @@
       <c r="Z11" s="109"/>
     </row>
     <row r="12" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="89"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="92"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
@@ -9345,7 +9345,7 @@
       <c r="H12" s="18">
         <v>0.6875</v>
       </c>
-      <c r="I12" s="95"/>
+      <c r="I12" s="101"/>
       <c r="J12" s="7" t="s">
         <v>17</v>
       </c>
@@ -9364,7 +9364,7 @@
       <c r="O12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="95"/>
+      <c r="P12" s="101"/>
       <c r="Q12" s="7" t="s">
         <v>180</v>
       </c>
@@ -9389,11 +9389,11 @@
       <c r="Z12" s="109"/>
     </row>
     <row r="13" spans="1:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="90"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="93"/>
+      <c r="C13" s="99"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -9409,7 +9409,7 @@
       <c r="H13" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="96"/>
+      <c r="I13" s="102"/>
       <c r="J13" s="7" t="s">
         <v>21</v>
       </c>
@@ -9428,7 +9428,7 @@
       <c r="O13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="P13" s="96"/>
+      <c r="P13" s="102"/>
       <c r="Q13" s="7" t="s">
         <v>21</v>
       </c>
@@ -9484,17 +9484,17 @@
       <c r="I14" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="97" t="s">
+      <c r="J14" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="97" t="s">
+      <c r="K14" s="103" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="43"/>
-      <c r="M14" s="97" t="s">
+      <c r="M14" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="97" t="s">
+      <c r="N14" s="103" t="s">
         <v>23</v>
       </c>
       <c r="O14" s="44" t="s">
@@ -9508,19 +9508,19 @@
       </c>
       <c r="R14" s="43"/>
       <c r="S14" s="43"/>
-      <c r="T14" s="97" t="s">
+      <c r="T14" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="U14" s="97" t="s">
+      <c r="U14" s="103" t="s">
         <v>23</v>
       </c>
       <c r="V14" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="W14" s="97" t="s">
+      <c r="W14" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="X14" s="97" t="s">
+      <c r="X14" s="103" t="s">
         <v>23</v>
       </c>
       <c r="Y14" s="44"/>
@@ -9554,19 +9554,19 @@
       <c r="I15" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="J15" s="87" t="s">
+      <c r="J15" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="87" t="s">
+      <c r="K15" s="86" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="87" t="s">
+      <c r="M15" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="87" t="s">
+      <c r="N15" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O15" s="26" t="s">
@@ -9580,19 +9580,19 @@
       </c>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="87" t="s">
+      <c r="T15" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="U15" s="87" t="s">
+      <c r="U15" s="86" t="s">
         <v>23</v>
       </c>
       <c r="V15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W15" s="87" t="s">
+      <c r="W15" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="X15" s="87" t="s">
+      <c r="X15" s="86" t="s">
         <v>23</v>
       </c>
       <c r="Y15" s="26"/>
@@ -9626,17 +9626,17 @@
       <c r="I16" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="J16" s="86" t="s">
+      <c r="J16" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="86" t="s">
+      <c r="K16" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="86" t="s">
+      <c r="M16" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="86" t="s">
+      <c r="N16" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="40" t="s">
@@ -9650,19 +9650,19 @@
       </c>
       <c r="R16" s="39"/>
       <c r="S16" s="39"/>
-      <c r="T16" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U16" s="86" t="s">
+      <c r="T16" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U16" s="87" t="s">
         <v>30</v>
       </c>
       <c r="V16" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W16" s="86" t="s">
+      <c r="W16" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="X16" s="86" t="s">
+      <c r="X16" s="87" t="s">
         <v>182</v>
       </c>
       <c r="Y16" s="40"/>
@@ -9696,17 +9696,17 @@
       <c r="I17" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K17" s="87" t="s">
+      <c r="J17" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N17" s="87" t="s">
+      <c r="M17" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O17" s="26" t="s">
@@ -9720,19 +9720,19 @@
       </c>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
-      <c r="T17" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U17" s="87" t="s">
+      <c r="T17" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U17" s="86" t="s">
         <v>30</v>
       </c>
       <c r="V17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W17" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X17" s="87" t="s">
+      <c r="W17" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X17" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y17" s="26"/>
@@ -9766,17 +9766,17 @@
       <c r="I18" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="86" t="s">
+      <c r="J18" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="86" t="s">
+      <c r="K18" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="39"/>
-      <c r="M18" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N18" s="86" t="s">
+      <c r="M18" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O18" s="40" t="s">
@@ -9790,19 +9790,19 @@
       </c>
       <c r="R18" s="39"/>
       <c r="S18" s="39"/>
-      <c r="T18" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="U18" s="86" t="s">
+      <c r="T18" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="U18" s="87" t="s">
         <v>30</v>
       </c>
       <c r="V18" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W18" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X18" s="86" t="s">
+      <c r="W18" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X18" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y18" s="40"/>
@@ -9836,17 +9836,17 @@
       <c r="I19" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="J19" s="87" t="s">
+      <c r="J19" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="87" t="s">
+      <c r="K19" s="86" t="s">
         <v>34</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="87" t="s">
+      <c r="M19" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="87" t="s">
+      <c r="N19" s="86" t="s">
         <v>28</v>
       </c>
       <c r="O19" s="26" t="s">
@@ -9860,19 +9860,19 @@
       </c>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
-      <c r="T19" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U19" s="87" t="s">
+      <c r="T19" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U19" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W19" s="87" t="s">
+      <c r="W19" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="X19" s="87" t="s">
+      <c r="X19" s="86" t="s">
         <v>23</v>
       </c>
       <c r="Y19" s="26"/>
@@ -9906,17 +9906,17 @@
       <c r="I20" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J20" s="86" t="s">
+      <c r="J20" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="86" t="s">
+      <c r="K20" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="39"/>
-      <c r="M20" s="86" t="s">
+      <c r="M20" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="86" t="s">
+      <c r="N20" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O20" s="40" t="s">
@@ -9930,19 +9930,19 @@
       </c>
       <c r="R20" s="39"/>
       <c r="S20" s="39"/>
-      <c r="T20" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U20" s="86" t="s">
+      <c r="T20" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U20" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V20" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W20" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X20" s="86" t="s">
+      <c r="W20" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X20" s="87" t="s">
         <v>26</v>
       </c>
       <c r="Y20" s="40"/>
@@ -9976,17 +9976,17 @@
       <c r="I21" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J21" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="87" t="s">
+      <c r="J21" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="87" t="s">
+      <c r="M21" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="87" t="s">
+      <c r="N21" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="26" t="s">
@@ -10000,19 +10000,19 @@
       </c>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
-      <c r="T21" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U21" s="87" t="s">
+      <c r="T21" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U21" s="86" t="s">
         <v>26</v>
       </c>
       <c r="V21" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W21" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X21" s="87" t="s">
+      <c r="W21" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X21" s="86" t="s">
         <v>24</v>
       </c>
       <c r="Y21" s="26"/>
@@ -10046,17 +10046,17 @@
       <c r="I22" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="J22" s="86" t="s">
+      <c r="J22" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="86" t="s">
+      <c r="K22" s="87" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="39"/>
-      <c r="M22" s="86" t="s">
+      <c r="M22" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="N22" s="86" t="s">
+      <c r="N22" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O22" s="40" t="s">
@@ -10070,19 +10070,19 @@
       </c>
       <c r="R22" s="39"/>
       <c r="S22" s="39"/>
-      <c r="T22" s="86" t="s">
+      <c r="T22" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="U22" s="86" t="s">
+      <c r="U22" s="87" t="s">
         <v>23</v>
       </c>
       <c r="V22" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W22" s="86" t="s">
+      <c r="W22" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="X22" s="86" t="s">
+      <c r="X22" s="87" t="s">
         <v>23</v>
       </c>
       <c r="Y22" s="40"/>
@@ -10116,19 +10116,19 @@
       <c r="I23" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J23" s="87" t="s">
+      <c r="J23" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="87" t="s">
+      <c r="K23" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M23" s="87" t="s">
+      <c r="M23" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="87" t="s">
+      <c r="N23" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O23" s="26" t="s">
@@ -10142,19 +10142,19 @@
       </c>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
-      <c r="T23" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U23" s="87" t="s">
+      <c r="T23" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U23" s="86" t="s">
         <v>30</v>
       </c>
       <c r="V23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W23" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X23" s="87" t="s">
+      <c r="W23" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X23" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y23" s="26"/>
@@ -10188,17 +10188,17 @@
       <c r="I24" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="J24" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K24" s="86" t="s">
+      <c r="J24" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="39"/>
-      <c r="M24" s="86" t="s">
+      <c r="M24" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="86" t="s">
+      <c r="N24" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="40" t="s">
@@ -10212,19 +10212,19 @@
       </c>
       <c r="R24" s="39"/>
       <c r="S24" s="39"/>
-      <c r="T24" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U24" s="86" t="s">
+      <c r="T24" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U24" s="87" t="s">
         <v>30</v>
       </c>
       <c r="V24" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W24" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X24" s="86" t="s">
+      <c r="W24" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X24" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y24" s="40"/>
@@ -10258,17 +10258,17 @@
       <c r="I25" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="J25" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="87" t="s">
+      <c r="J25" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="86" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" s="87" t="s">
+      <c r="M25" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="86" t="s">
         <v>30</v>
       </c>
       <c r="O25" s="26" t="s">
@@ -10282,19 +10282,19 @@
       </c>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
-      <c r="T25" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U25" s="87" t="s">
+      <c r="T25" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U25" s="86" t="s">
         <v>30</v>
       </c>
       <c r="V25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W25" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X25" s="87" t="s">
+      <c r="W25" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X25" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y25" s="26"/>
@@ -10328,19 +10328,19 @@
       <c r="I26" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="86" t="s">
+      <c r="J26" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="86" t="s">
+      <c r="K26" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M26" s="86" t="s">
+      <c r="M26" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="86" t="s">
+      <c r="N26" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O26" s="40" t="s">
@@ -10354,19 +10354,19 @@
       </c>
       <c r="R26" s="39"/>
       <c r="S26" s="39"/>
-      <c r="T26" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U26" s="86" t="s">
+      <c r="T26" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U26" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V26" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W26" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X26" s="86" t="s">
+      <c r="W26" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X26" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y26" s="40"/>
@@ -10400,17 +10400,17 @@
       <c r="I27" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="J27" s="87" t="s">
+      <c r="J27" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="87" t="s">
+      <c r="K27" s="86" t="s">
         <v>44</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N27" s="87" t="s">
+      <c r="M27" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O27" s="26" t="s">
@@ -10424,19 +10424,19 @@
       </c>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
-      <c r="T27" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U27" s="87" t="s">
+      <c r="T27" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U27" s="86" t="s">
         <v>30</v>
       </c>
       <c r="V27" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W27" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X27" s="87" t="s">
+      <c r="W27" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X27" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y27" s="26"/>
@@ -10470,19 +10470,19 @@
       <c r="I28" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="J28" s="86" t="s">
+      <c r="J28" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="86" t="s">
+      <c r="K28" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="86" t="s">
+      <c r="M28" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N28" s="86" t="s">
+      <c r="N28" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O28" s="40" t="s">
@@ -10496,19 +10496,19 @@
       </c>
       <c r="R28" s="39"/>
       <c r="S28" s="39"/>
-      <c r="T28" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U28" s="86" t="s">
+      <c r="T28" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U28" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V28" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W28" s="86" t="s">
+      <c r="W28" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="X28" s="86" t="s">
+      <c r="X28" s="87" t="s">
         <v>23</v>
       </c>
       <c r="Y28" s="40"/>
@@ -10542,17 +10542,17 @@
       <c r="I29" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="J29" s="87" t="s">
+      <c r="J29" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="87" t="s">
+      <c r="K29" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="87" t="s">
+      <c r="M29" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N29" s="87" t="s">
+      <c r="N29" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O29" s="26" t="s">
@@ -10566,19 +10566,19 @@
       </c>
       <c r="R29" s="60"/>
       <c r="S29" s="60"/>
-      <c r="T29" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U29" s="87" t="s">
+      <c r="T29" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U29" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V29" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W29" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X29" s="87" t="s">
+      <c r="W29" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X29" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y29" s="26"/>
@@ -10612,17 +10612,17 @@
       <c r="I30" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="J30" s="86" t="s">
+      <c r="J30" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="86" t="s">
+      <c r="K30" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="39"/>
-      <c r="M30" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N30" s="86" t="s">
+      <c r="M30" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="87" t="s">
         <v>26</v>
       </c>
       <c r="O30" s="40" t="s">
@@ -10636,19 +10636,19 @@
       </c>
       <c r="R30" s="39"/>
       <c r="S30" s="39"/>
-      <c r="T30" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U30" s="86" t="s">
+      <c r="T30" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U30" s="87" t="s">
         <v>30</v>
       </c>
       <c r="V30" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W30" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X30" s="86" t="s">
+      <c r="W30" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X30" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y30" s="40"/>
@@ -10682,17 +10682,17 @@
       <c r="I31" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="J31" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" s="87" t="s">
+      <c r="J31" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="7"/>
-      <c r="M31" s="87" t="s">
+      <c r="M31" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N31" s="87" t="s">
+      <c r="N31" s="86" t="s">
         <v>28</v>
       </c>
       <c r="O31" s="26" t="s">
@@ -10706,19 +10706,19 @@
       </c>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
-      <c r="T31" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U31" s="87" t="s">
+      <c r="T31" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U31" s="86" t="s">
         <v>30</v>
       </c>
       <c r="V31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W31" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X31" s="87" t="s">
+      <c r="W31" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X31" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y31" s="26"/>
@@ -10752,17 +10752,17 @@
       <c r="I32" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J32" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K32" s="86" t="s">
+      <c r="J32" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="39"/>
-      <c r="M32" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N32" s="86" t="s">
+      <c r="M32" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N32" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="40" t="s">
@@ -10776,19 +10776,19 @@
       </c>
       <c r="R32" s="39"/>
       <c r="S32" s="39"/>
-      <c r="T32" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U32" s="86" t="s">
+      <c r="T32" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U32" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V32" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W32" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X32" s="86" t="s">
+      <c r="W32" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X32" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y32" s="40"/>
@@ -10822,17 +10822,17 @@
       <c r="I33" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="J33" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" s="87" t="s">
+      <c r="J33" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="M33" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N33" s="87" t="s">
+      <c r="M33" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N33" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O33" s="26" t="s">
@@ -10846,19 +10846,19 @@
       </c>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
-      <c r="T33" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U33" s="87" t="s">
+      <c r="T33" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U33" s="86" t="s">
         <v>30</v>
       </c>
       <c r="V33" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W33" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X33" s="87" t="s">
+      <c r="W33" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X33" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y33" s="26"/>
@@ -10892,17 +10892,17 @@
       <c r="I34" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="J34" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K34" s="86" t="s">
+      <c r="J34" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K34" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="39"/>
-      <c r="M34" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N34" s="86" t="s">
+      <c r="M34" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N34" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O34" s="40" t="s">
@@ -10916,19 +10916,19 @@
       </c>
       <c r="R34" s="39"/>
       <c r="S34" s="39"/>
-      <c r="T34" s="86" t="s">
+      <c r="T34" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="U34" s="86" t="s">
+      <c r="U34" s="87" t="s">
         <v>23</v>
       </c>
       <c r="V34" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W34" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X34" s="86" t="s">
+      <c r="W34" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X34" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y34" s="40"/>
@@ -10962,17 +10962,17 @@
       <c r="I35" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="J35" s="87" t="s">
+      <c r="J35" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="K35" s="87" t="s">
+      <c r="K35" s="86" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="7"/>
-      <c r="M35" s="87" t="s">
+      <c r="M35" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N35" s="87" t="s">
+      <c r="N35" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O35" s="26" t="s">
@@ -10986,19 +10986,19 @@
       </c>
       <c r="R35" s="60"/>
       <c r="S35" s="60"/>
-      <c r="T35" s="87" t="s">
+      <c r="T35" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="U35" s="87" t="s">
+      <c r="U35" s="86" t="s">
         <v>23</v>
       </c>
       <c r="V35" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="W35" s="87" t="s">
+      <c r="W35" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="X35" s="87" t="s">
+      <c r="X35" s="86" t="s">
         <v>23</v>
       </c>
       <c r="Y35" s="26"/>
@@ -11032,17 +11032,17 @@
       <c r="I36" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="J36" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K36" s="86" t="s">
+      <c r="J36" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K36" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L36" s="39"/>
-      <c r="M36" s="86" t="s">
+      <c r="M36" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="86" t="s">
+      <c r="N36" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O36" s="40" t="s">
@@ -11056,19 +11056,19 @@
       </c>
       <c r="R36" s="39"/>
       <c r="S36" s="39"/>
-      <c r="T36" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U36" s="86" t="s">
+      <c r="T36" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U36" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V36" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W36" s="86" t="s">
+      <c r="W36" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="X36" s="86" t="s">
+      <c r="X36" s="87" t="s">
         <v>23</v>
       </c>
       <c r="Y36" s="40"/>
@@ -11102,17 +11102,17 @@
       <c r="I37" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="J37" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K37" s="87" t="s">
+      <c r="J37" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L37" s="7"/>
-      <c r="M37" s="87" t="s">
+      <c r="M37" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="87" t="s">
+      <c r="N37" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O37" s="26" t="s">
@@ -11126,19 +11126,19 @@
       </c>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
-      <c r="T37" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U37" s="87" t="s">
+      <c r="T37" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U37" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W37" s="87" t="s">
+      <c r="W37" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="X37" s="87" t="s">
+      <c r="X37" s="86" t="s">
         <v>23</v>
       </c>
       <c r="Y37" s="26"/>
@@ -11172,17 +11172,17 @@
       <c r="I38" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="J38" s="86" t="s">
+      <c r="J38" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="86" t="s">
+      <c r="K38" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L38" s="39"/>
-      <c r="M38" s="86" t="s">
+      <c r="M38" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N38" s="86" t="s">
+      <c r="N38" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O38" s="40" t="s">
@@ -11196,19 +11196,19 @@
       </c>
       <c r="R38" s="39"/>
       <c r="S38" s="39"/>
-      <c r="T38" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U38" s="86" t="s">
+      <c r="T38" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U38" s="87" t="s">
         <v>30</v>
       </c>
       <c r="V38" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W38" s="86" t="s">
+      <c r="W38" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="X38" s="86" t="s">
+      <c r="X38" s="87" t="s">
         <v>23</v>
       </c>
       <c r="Y38" s="40"/>
@@ -11242,17 +11242,17 @@
       <c r="I39" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J39" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K39" s="87" t="s">
+      <c r="J39" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="7"/>
-      <c r="M39" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N39" s="87" t="s">
+      <c r="M39" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N39" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="26" t="s">
@@ -11266,19 +11266,19 @@
       </c>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
-      <c r="T39" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U39" s="87" t="s">
+      <c r="T39" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U39" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V39" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W39" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X39" s="87" t="s">
+      <c r="W39" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X39" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y39" s="26"/>
@@ -11312,19 +11312,19 @@
       <c r="I40" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="98" t="s">
-        <v>91</v>
-      </c>
-      <c r="K40" s="98" t="s">
+      <c r="J40" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="92" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="98" t="s">
-        <v>91</v>
-      </c>
-      <c r="N40" s="98" t="s">
+      <c r="M40" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="N40" s="92" t="s">
         <v>24</v>
       </c>
       <c r="O40" s="49" t="s">
@@ -11338,19 +11338,19 @@
       </c>
       <c r="R40" s="48"/>
       <c r="S40" s="48"/>
-      <c r="T40" s="98" t="s">
-        <v>91</v>
-      </c>
-      <c r="U40" s="98" t="s">
+      <c r="T40" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="U40" s="92" t="s">
         <v>30</v>
       </c>
       <c r="V40" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="W40" s="98" t="s">
-        <v>91</v>
-      </c>
-      <c r="X40" s="98" t="s">
+      <c r="W40" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="X40" s="92" t="s">
         <v>30</v>
       </c>
       <c r="Y40" s="49"/>
@@ -11384,17 +11384,17 @@
       <c r="I41" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="99" t="s">
+      <c r="J41" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="K41" s="99" t="s">
+      <c r="K41" s="93" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="31"/>
-      <c r="M41" s="99" t="s">
-        <v>91</v>
-      </c>
-      <c r="N41" s="99" t="s">
+      <c r="M41" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="N41" s="93" t="s">
         <v>24</v>
       </c>
       <c r="O41" s="32" t="s">
@@ -11408,19 +11408,19 @@
       </c>
       <c r="R41" s="31"/>
       <c r="S41" s="31"/>
-      <c r="T41" s="99" t="s">
+      <c r="T41" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="U41" s="99" t="s">
+      <c r="U41" s="93" t="s">
         <v>23</v>
       </c>
       <c r="V41" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="W41" s="99" t="s">
-        <v>91</v>
-      </c>
-      <c r="X41" s="99" t="s">
+      <c r="W41" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="X41" s="93" t="s">
         <v>30</v>
       </c>
       <c r="Y41" s="32"/>
@@ -11454,17 +11454,17 @@
       <c r="I42" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K42" s="86" t="s">
+      <c r="J42" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L42" s="39"/>
-      <c r="M42" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N42" s="86" t="s">
+      <c r="M42" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N42" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O42" s="40" t="s">
@@ -11478,19 +11478,19 @@
       </c>
       <c r="R42" s="39"/>
       <c r="S42" s="39"/>
-      <c r="T42" s="86" t="s">
+      <c r="T42" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="U42" s="86" t="s">
+      <c r="U42" s="87" t="s">
         <v>38</v>
       </c>
       <c r="V42" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W42" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X42" s="86" t="s">
+      <c r="W42" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X42" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y42" s="40"/>
@@ -11524,19 +11524,19 @@
       <c r="I43" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="J43" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K43" s="87" t="s">
+      <c r="J43" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M43" s="87" t="s">
+      <c r="M43" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N43" s="87" t="s">
+      <c r="N43" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O43" s="26" t="s">
@@ -11550,19 +11550,19 @@
       </c>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
-      <c r="T43" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U43" s="87" t="s">
+      <c r="T43" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U43" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V43" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W43" s="87" t="s">
+      <c r="W43" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="X43" s="87" t="s">
+      <c r="X43" s="86" t="s">
         <v>23</v>
       </c>
       <c r="Y43" s="26"/>
@@ -11596,17 +11596,17 @@
       <c r="I44" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="J44" s="86" t="s">
+      <c r="J44" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="K44" s="86" t="s">
+      <c r="K44" s="87" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="39"/>
-      <c r="M44" s="86" t="s">
+      <c r="M44" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="N44" s="86" t="s">
+      <c r="N44" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O44" s="40" t="s">
@@ -11620,19 +11620,19 @@
       </c>
       <c r="R44" s="39"/>
       <c r="S44" s="39"/>
-      <c r="T44" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U44" s="86" t="s">
+      <c r="T44" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U44" s="87" t="s">
         <v>26</v>
       </c>
       <c r="V44" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W44" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X44" s="86" t="s">
+      <c r="W44" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X44" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y44" s="40"/>
@@ -11666,17 +11666,17 @@
       <c r="I45" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="J45" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K45" s="87" t="s">
+      <c r="J45" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L45" s="7"/>
-      <c r="M45" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N45" s="87" t="s">
+      <c r="M45" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N45" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O45" s="26" t="s">
@@ -11690,19 +11690,19 @@
       </c>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
-      <c r="T45" s="87" t="s">
+      <c r="T45" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="U45" s="87" t="s">
+      <c r="U45" s="86" t="s">
         <v>182</v>
       </c>
       <c r="V45" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W45" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X45" s="87" t="s">
+      <c r="W45" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X45" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y45" s="26"/>
@@ -11736,17 +11736,17 @@
       <c r="I46" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J46" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K46" s="86" t="s">
+      <c r="J46" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K46" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="39"/>
-      <c r="M46" s="86" t="s">
+      <c r="M46" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N46" s="86" t="s">
+      <c r="N46" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O46" s="40" t="s">
@@ -11760,19 +11760,19 @@
       </c>
       <c r="R46" s="39"/>
       <c r="S46" s="39"/>
-      <c r="T46" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U46" s="86" t="s">
+      <c r="T46" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U46" s="87" t="s">
         <v>30</v>
       </c>
       <c r="V46" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W46" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X46" s="86" t="s">
+      <c r="W46" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X46" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y46" s="40"/>
@@ -11806,17 +11806,17 @@
       <c r="I47" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J47" s="87" t="s">
+      <c r="J47" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K47" s="87" t="s">
+      <c r="K47" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L47" s="7"/>
-      <c r="M47" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N47" s="87" t="s">
+      <c r="M47" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N47" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O47" s="26" t="s">
@@ -11830,19 +11830,19 @@
       </c>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
-      <c r="T47" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U47" s="87" t="s">
+      <c r="T47" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U47" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V47" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W47" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X47" s="87" t="s">
+      <c r="W47" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X47" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y47" s="26"/>
@@ -11876,17 +11876,17 @@
       <c r="I48" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="J48" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K48" s="86" t="s">
+      <c r="J48" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K48" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L48" s="39"/>
-      <c r="M48" s="86" t="s">
+      <c r="M48" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N48" s="86" t="s">
+      <c r="N48" s="87" t="s">
         <v>66</v>
       </c>
       <c r="O48" s="40" t="s">
@@ -11900,19 +11900,19 @@
       </c>
       <c r="R48" s="39"/>
       <c r="S48" s="39"/>
-      <c r="T48" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U48" s="86" t="s">
+      <c r="T48" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U48" s="87" t="s">
         <v>30</v>
       </c>
       <c r="V48" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W48" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X48" s="86" t="s">
+      <c r="W48" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X48" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y48" s="40"/>
@@ -11946,17 +11946,17 @@
       <c r="I49" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="J49" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K49" s="87" t="s">
+      <c r="J49" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K49" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="7"/>
-      <c r="M49" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N49" s="87" t="s">
+      <c r="M49" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N49" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O49" s="26" t="s">
@@ -11970,19 +11970,19 @@
       </c>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
-      <c r="T49" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U49" s="87" t="s">
+      <c r="T49" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U49" s="86" t="s">
         <v>26</v>
       </c>
       <c r="V49" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W49" s="87" t="s">
+      <c r="W49" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="X49" s="87" t="s">
+      <c r="X49" s="86" t="s">
         <v>23</v>
       </c>
       <c r="Y49" s="26"/>
@@ -12016,17 +12016,17 @@
       <c r="I50" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="J50" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K50" s="86" t="s">
+      <c r="J50" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K50" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="39"/>
-      <c r="M50" s="86" t="s">
+      <c r="M50" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="N50" s="86" t="s">
+      <c r="N50" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O50" s="40" t="s">
@@ -12040,19 +12040,19 @@
       </c>
       <c r="R50" s="39"/>
       <c r="S50" s="39"/>
-      <c r="T50" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U50" s="86" t="s">
+      <c r="T50" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U50" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V50" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W50" s="86" t="s">
+      <c r="W50" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="X50" s="86" t="s">
+      <c r="X50" s="87" t="s">
         <v>23</v>
       </c>
       <c r="Y50" s="40"/>
@@ -12086,17 +12086,17 @@
       <c r="I51" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="J51" s="87" t="s">
+      <c r="J51" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="K51" s="87" t="s">
+      <c r="K51" s="86" t="s">
         <v>38</v>
       </c>
       <c r="L51" s="7"/>
-      <c r="M51" s="87" t="s">
+      <c r="M51" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="N51" s="87" t="s">
+      <c r="N51" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O51" s="26" t="s">
@@ -12110,19 +12110,19 @@
       </c>
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
-      <c r="T51" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U51" s="87" t="s">
+      <c r="T51" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U51" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V51" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W51" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X51" s="87" t="s">
+      <c r="W51" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X51" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y51" s="26"/>
@@ -12156,19 +12156,19 @@
       <c r="I52" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="J52" s="86" t="s">
+      <c r="J52" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="86" t="s">
+      <c r="K52" s="87" t="s">
         <v>71</v>
       </c>
       <c r="L52" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M52" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N52" s="86" t="s">
+      <c r="M52" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N52" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O52" s="40" t="s">
@@ -12182,19 +12182,19 @@
       </c>
       <c r="R52" s="39"/>
       <c r="S52" s="39"/>
-      <c r="T52" s="86" t="s">
+      <c r="T52" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="U52" s="86" t="s">
+      <c r="U52" s="87" t="s">
         <v>71</v>
       </c>
       <c r="V52" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W52" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X52" s="86" t="s">
+      <c r="W52" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X52" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y52" s="40"/>
@@ -12228,19 +12228,19 @@
       <c r="I53" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="J53" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K53" s="87" t="s">
+      <c r="J53" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M53" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N53" s="87" t="s">
+      <c r="M53" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N53" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O53" s="26" t="s">
@@ -12254,19 +12254,19 @@
       </c>
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
-      <c r="T53" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U53" s="87" t="s">
+      <c r="T53" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U53" s="86" t="s">
         <v>30</v>
       </c>
       <c r="V53" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W53" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X53" s="87" t="s">
+      <c r="W53" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X53" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y53" s="26"/>
@@ -12300,17 +12300,17 @@
       <c r="I54" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="J54" s="86" t="s">
+      <c r="J54" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="K54" s="86" t="s">
+      <c r="K54" s="87" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="39"/>
-      <c r="M54" s="86" t="s">
+      <c r="M54" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N54" s="86" t="s">
+      <c r="N54" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O54" s="40" t="s">
@@ -12324,19 +12324,19 @@
       </c>
       <c r="R54" s="39"/>
       <c r="S54" s="39"/>
-      <c r="T54" s="86" t="s">
+      <c r="T54" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="U54" s="86" t="s">
+      <c r="U54" s="87" t="s">
         <v>182</v>
       </c>
       <c r="V54" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W54" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X54" s="86" t="s">
+      <c r="W54" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X54" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y54" s="40"/>
@@ -12370,17 +12370,17 @@
       <c r="I55" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="J55" s="87" t="s">
+      <c r="J55" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K55" s="87" t="s">
+      <c r="K55" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L55" s="7"/>
-      <c r="M55" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N55" s="87" t="s">
+      <c r="M55" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N55" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O55" s="26" t="s">
@@ -12394,19 +12394,19 @@
       </c>
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
-      <c r="T55" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U55" s="87" t="s">
+      <c r="T55" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U55" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V55" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W55" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X55" s="87" t="s">
+      <c r="W55" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X55" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y55" s="26"/>
@@ -12440,17 +12440,17 @@
       <c r="I56" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="J56" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K56" s="86" t="s">
+      <c r="J56" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K56" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L56" s="39"/>
-      <c r="M56" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N56" s="86" t="s">
+      <c r="M56" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N56" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O56" s="40" t="s">
@@ -12464,19 +12464,19 @@
       </c>
       <c r="R56" s="39"/>
       <c r="S56" s="39"/>
-      <c r="T56" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U56" s="86" t="s">
+      <c r="T56" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U56" s="87" t="s">
         <v>26</v>
       </c>
       <c r="V56" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W56" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X56" s="86" t="s">
+      <c r="W56" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X56" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y56" s="40"/>
@@ -12510,19 +12510,19 @@
       <c r="I57" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="J57" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K57" s="87" t="s">
+      <c r="J57" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K57" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M57" s="87" t="s">
+      <c r="M57" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N57" s="87" t="s">
+      <c r="N57" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O57" s="26" t="s">
@@ -12536,19 +12536,19 @@
       </c>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
-      <c r="T57" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U57" s="87" t="s">
+      <c r="T57" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U57" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V57" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W57" s="87" t="s">
+      <c r="W57" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="X57" s="87" t="s">
+      <c r="X57" s="86" t="s">
         <v>25</v>
       </c>
       <c r="Y57" s="26"/>
@@ -12582,17 +12582,17 @@
       <c r="I58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="J58" s="86" t="s">
+      <c r="J58" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="K58" s="86" t="s">
+      <c r="K58" s="87" t="s">
         <v>28</v>
       </c>
       <c r="L58" s="39"/>
-      <c r="M58" s="86" t="s">
+      <c r="M58" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="N58" s="86" t="s">
+      <c r="N58" s="87" t="s">
         <v>78</v>
       </c>
       <c r="O58" s="40" t="s">
@@ -12606,19 +12606,19 @@
       </c>
       <c r="R58" s="39"/>
       <c r="S58" s="39"/>
-      <c r="T58" s="86" t="s">
+      <c r="T58" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="U58" s="86" t="s">
+      <c r="U58" s="87" t="s">
         <v>38</v>
       </c>
       <c r="V58" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W58" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X58" s="86" t="s">
+      <c r="W58" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X58" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y58" s="40"/>
@@ -12652,17 +12652,17 @@
       <c r="I59" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="J59" s="87" t="s">
+      <c r="J59" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="K59" s="87" t="s">
+      <c r="K59" s="86" t="s">
         <v>38</v>
       </c>
       <c r="L59" s="7"/>
-      <c r="M59" s="87" t="s">
+      <c r="M59" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N59" s="87" t="s">
+      <c r="N59" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O59" s="26" t="s">
@@ -12676,19 +12676,19 @@
       </c>
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
-      <c r="T59" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U59" s="87" t="s">
+      <c r="T59" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U59" s="86" t="s">
         <v>26</v>
       </c>
       <c r="V59" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W59" s="87" t="s">
+      <c r="W59" s="86" t="s">
         <v>184</v>
       </c>
-      <c r="X59" s="87" t="s">
+      <c r="X59" s="86" t="s">
         <v>185</v>
       </c>
       <c r="Y59" s="26"/>
@@ -12708,11 +12708,11 @@
       <c r="G60" s="51"/>
       <c r="H60" s="51"/>
       <c r="I60" s="50"/>
-      <c r="J60" s="100"/>
-      <c r="K60" s="101"/>
+      <c r="J60" s="90"/>
+      <c r="K60" s="91"/>
       <c r="L60" s="51"/>
-      <c r="M60" s="100"/>
-      <c r="N60" s="101"/>
+      <c r="M60" s="90"/>
+      <c r="N60" s="91"/>
       <c r="O60" s="52"/>
       <c r="P60" s="66"/>
       <c r="Q60" s="39" t="s">
@@ -12720,19 +12720,19 @@
       </c>
       <c r="R60" s="39"/>
       <c r="S60" s="39"/>
-      <c r="T60" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U60" s="86" t="s">
+      <c r="T60" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U60" s="87" t="s">
         <v>26</v>
       </c>
       <c r="V60" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W60" s="86" t="s">
+      <c r="W60" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="X60" s="86" t="s">
+      <c r="X60" s="87" t="s">
         <v>23</v>
       </c>
       <c r="Y60" s="52"/>
@@ -12750,11 +12750,11 @@
       <c r="G61" s="31"/>
       <c r="H61" s="31"/>
       <c r="I61" s="30"/>
-      <c r="J61" s="102"/>
-      <c r="K61" s="103"/>
+      <c r="J61" s="88"/>
+      <c r="K61" s="89"/>
       <c r="L61" s="31"/>
-      <c r="M61" s="102"/>
-      <c r="N61" s="103"/>
+      <c r="M61" s="88"/>
+      <c r="N61" s="89"/>
       <c r="O61" s="32"/>
       <c r="P61" s="65"/>
       <c r="Q61" s="32"/>
@@ -12780,11 +12780,11 @@
       <c r="G62" s="51"/>
       <c r="H62" s="51"/>
       <c r="I62" s="50"/>
-      <c r="J62" s="100"/>
-      <c r="K62" s="101"/>
+      <c r="J62" s="90"/>
+      <c r="K62" s="91"/>
       <c r="L62" s="51"/>
-      <c r="M62" s="100"/>
-      <c r="N62" s="101"/>
+      <c r="M62" s="90"/>
+      <c r="N62" s="91"/>
       <c r="O62" s="52"/>
       <c r="P62" s="66"/>
       <c r="Q62" s="52"/>
@@ -12810,11 +12810,11 @@
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
       <c r="I63" s="30"/>
-      <c r="J63" s="102"/>
-      <c r="K63" s="103"/>
+      <c r="J63" s="88"/>
+      <c r="K63" s="89"/>
       <c r="L63" s="31"/>
-      <c r="M63" s="102"/>
-      <c r="N63" s="103"/>
+      <c r="M63" s="88"/>
+      <c r="N63" s="89"/>
       <c r="O63" s="32"/>
       <c r="P63" s="65"/>
       <c r="Q63" s="32"/>
@@ -12840,11 +12840,11 @@
       <c r="G64" s="51"/>
       <c r="H64" s="51"/>
       <c r="I64" s="50"/>
-      <c r="J64" s="100"/>
-      <c r="K64" s="101"/>
+      <c r="J64" s="90"/>
+      <c r="K64" s="91"/>
       <c r="L64" s="51"/>
-      <c r="M64" s="100"/>
-      <c r="N64" s="101"/>
+      <c r="M64" s="90"/>
+      <c r="N64" s="91"/>
       <c r="O64" s="52"/>
       <c r="P64" s="66"/>
       <c r="Q64" s="52"/>
@@ -12870,11 +12870,11 @@
       <c r="G65" s="31"/>
       <c r="H65" s="31"/>
       <c r="I65" s="30"/>
-      <c r="J65" s="102"/>
-      <c r="K65" s="103"/>
+      <c r="J65" s="88"/>
+      <c r="K65" s="89"/>
       <c r="L65" s="31"/>
-      <c r="M65" s="102"/>
-      <c r="N65" s="103"/>
+      <c r="M65" s="88"/>
+      <c r="N65" s="89"/>
       <c r="O65" s="32"/>
       <c r="P65" s="65"/>
       <c r="Q65" s="32"/>
@@ -12914,17 +12914,17 @@
       <c r="I66" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J66" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K66" s="86" t="s">
+      <c r="J66" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K66" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L66" s="39"/>
-      <c r="M66" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N66" s="86" t="s">
+      <c r="M66" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N66" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O66" s="40" t="s">
@@ -13007,36 +13007,157 @@
     <row r="69" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="205">
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="W54:X54"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="W56:X56"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="W60:X60"/>
+    <mergeCell ref="P6:P13"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="I6:I13"/>
+    <mergeCell ref="Z6:Z13"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M60:N60"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="J57:K57"/>
     <mergeCell ref="J58:K58"/>
@@ -13061,157 +13182,36 @@
     <mergeCell ref="J47:K47"/>
     <mergeCell ref="J48:K48"/>
     <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="I6:I13"/>
-    <mergeCell ref="Z6:Z13"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="W60:X60"/>
-    <mergeCell ref="P6:P13"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="W54:X54"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="W56:X56"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="W57:X57"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="W47:X47"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="W48:X48"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:F6 I6:N6 Z6:IV6">

--- a/app/xlsx/4月_5月シフト.xlsx
+++ b/app/xlsx/4月_5月シフト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiha\OneDrive\デスクトップ\MyPrograming\MyGo\rolemaster0.5\RoleMaserV0.5\app\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8BC550-79A8-4F18-9981-054D8FB27163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87DCA98-1860-4352-A0C1-A99F5292A1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PJシフト4月" sheetId="4" r:id="rId1"/>
@@ -1976,28 +1976,10 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2030,17 +2012,35 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2593,11 +2593,11 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="94"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="91" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="8">
@@ -2615,7 +2615,7 @@
       <c r="H6" s="8">
         <v>15</v>
       </c>
-      <c r="I6" s="100" t="s">
+      <c r="I6" s="94" t="s">
         <v>167</v>
       </c>
       <c r="J6" s="8">
@@ -2638,11 +2638,11 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="95"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="98"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2658,7 +2658,7 @@
       <c r="H7" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I7" s="101"/>
+      <c r="I7" s="95"/>
       <c r="J7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2679,11 +2679,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="95"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="98"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="7">
         <v>68</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>60</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="101"/>
+      <c r="I8" s="95"/>
       <c r="J8" s="7">
         <v>90</v>
       </c>
@@ -2716,11 +2716,11 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="95"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="98"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="17">
         <v>14</v>
       </c>
@@ -2736,7 +2736,7 @@
       <c r="H9" s="17">
         <v>10</v>
       </c>
-      <c r="I9" s="101"/>
+      <c r="I9" s="95"/>
       <c r="J9" s="17">
         <v>18</v>
       </c>
@@ -2755,11 +2755,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="95"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="98"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="101"/>
+      <c r="I10" s="95"/>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2792,11 +2792,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="95"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="98"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="7" t="s">
         <v>94</v>
       </c>
@@ -2812,7 +2812,7 @@
       <c r="H11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="101"/>
+      <c r="I11" s="95"/>
       <c r="J11" s="7" t="s">
         <v>97</v>
       </c>
@@ -2831,11 +2831,11 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="95"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="98"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2851,7 +2851,7 @@
       <c r="H12" s="18">
         <v>0.6875</v>
       </c>
-      <c r="I12" s="101"/>
+      <c r="I12" s="95"/>
       <c r="J12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2872,11 +2872,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="96"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="99"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2892,7 +2892,7 @@
       <c r="H13" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="102"/>
+      <c r="I13" s="96"/>
       <c r="J13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2938,17 +2938,17 @@
       <c r="I14" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="103" t="s">
+      <c r="J14" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="103" t="s">
+      <c r="K14" s="97" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="43"/>
-      <c r="M14" s="103" t="s">
+      <c r="M14" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="103" t="s">
+      <c r="N14" s="97" t="s">
         <v>23</v>
       </c>
       <c r="O14" s="44" t="s">
@@ -2981,19 +2981,19 @@
       <c r="I15" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="J15" s="86" t="s">
+      <c r="J15" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="86" t="s">
+      <c r="K15" s="87" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="86" t="s">
+      <c r="M15" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="86" t="s">
+      <c r="N15" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O15" s="26" t="s">
@@ -3026,17 +3026,17 @@
       <c r="I16" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="J16" s="87" t="s">
+      <c r="J16" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="87" t="s">
+      <c r="K16" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="87" t="s">
+      <c r="M16" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="87" t="s">
+      <c r="N16" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="40" t="s">
@@ -3069,17 +3069,17 @@
       <c r="I17" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="86" t="s">
+      <c r="J17" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N17" s="86" t="s">
+      <c r="M17" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O17" s="26" t="s">
@@ -3112,17 +3112,17 @@
       <c r="I18" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="87" t="s">
+      <c r="J18" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="87" t="s">
+      <c r="K18" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="39"/>
-      <c r="M18" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N18" s="87" t="s">
+      <c r="M18" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O18" s="40" t="s">
@@ -3155,17 +3155,17 @@
       <c r="I19" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="J19" s="86" t="s">
+      <c r="J19" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="86" t="s">
+      <c r="K19" s="87" t="s">
         <v>34</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="86" t="s">
+      <c r="M19" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="86" t="s">
+      <c r="N19" s="87" t="s">
         <v>28</v>
       </c>
       <c r="O19" s="26" t="s">
@@ -3198,17 +3198,17 @@
       <c r="I20" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J20" s="87" t="s">
+      <c r="J20" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="87" t="s">
+      <c r="K20" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="39"/>
-      <c r="M20" s="87" t="s">
+      <c r="M20" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="87" t="s">
+      <c r="N20" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O20" s="40" t="s">
@@ -3241,17 +3241,17 @@
       <c r="I21" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J21" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="86" t="s">
+      <c r="J21" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="86" t="s">
+      <c r="M21" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="86" t="s">
+      <c r="N21" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="26" t="s">
@@ -3284,17 +3284,17 @@
       <c r="I22" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="J22" s="87" t="s">
+      <c r="J22" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="87" t="s">
+      <c r="K22" s="86" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="39"/>
-      <c r="M22" s="87" t="s">
+      <c r="M22" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="N22" s="87" t="s">
+      <c r="N22" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O22" s="40" t="s">
@@ -3327,19 +3327,19 @@
       <c r="I23" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J23" s="86" t="s">
+      <c r="J23" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="86" t="s">
+      <c r="K23" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M23" s="86" t="s">
+      <c r="M23" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="86" t="s">
+      <c r="N23" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O23" s="26" t="s">
@@ -3372,17 +3372,17 @@
       <c r="I24" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="J24" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K24" s="87" t="s">
+      <c r="J24" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="39"/>
-      <c r="M24" s="87" t="s">
+      <c r="M24" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="87" t="s">
+      <c r="N24" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="40" t="s">
@@ -3415,17 +3415,17 @@
       <c r="I25" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="J25" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="86" t="s">
+      <c r="J25" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="87" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" s="86" t="s">
+      <c r="M25" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="87" t="s">
         <v>30</v>
       </c>
       <c r="O25" s="26" t="s">
@@ -3458,19 +3458,19 @@
       <c r="I26" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="87" t="s">
+      <c r="J26" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="87" t="s">
+      <c r="K26" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M26" s="87" t="s">
+      <c r="M26" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="87" t="s">
+      <c r="N26" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O26" s="40" t="s">
@@ -3503,17 +3503,17 @@
       <c r="I27" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="J27" s="86" t="s">
+      <c r="J27" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="86" t="s">
+      <c r="K27" s="87" t="s">
         <v>44</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N27" s="86" t="s">
+      <c r="M27" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O27" s="26" t="s">
@@ -3546,19 +3546,19 @@
       <c r="I28" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="J28" s="87" t="s">
+      <c r="J28" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="87" t="s">
+      <c r="K28" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="87" t="s">
+      <c r="M28" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N28" s="87" t="s">
+      <c r="N28" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O28" s="40" t="s">
@@ -3591,17 +3591,17 @@
       <c r="I29" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="J29" s="86" t="s">
+      <c r="J29" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="86" t="s">
+      <c r="K29" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="86" t="s">
+      <c r="M29" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N29" s="86" t="s">
+      <c r="N29" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O29" s="26" t="s">
@@ -3634,17 +3634,17 @@
       <c r="I30" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="J30" s="87" t="s">
+      <c r="J30" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="87" t="s">
+      <c r="K30" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="39"/>
-      <c r="M30" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N30" s="87" t="s">
+      <c r="M30" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="86" t="s">
         <v>26</v>
       </c>
       <c r="O30" s="40" t="s">
@@ -3677,17 +3677,17 @@
       <c r="I31" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="J31" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" s="86" t="s">
+      <c r="J31" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="7"/>
-      <c r="M31" s="86" t="s">
+      <c r="M31" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N31" s="86" t="s">
+      <c r="N31" s="87" t="s">
         <v>28</v>
       </c>
       <c r="O31" s="26" t="s">
@@ -3720,17 +3720,17 @@
       <c r="I32" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J32" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K32" s="87" t="s">
+      <c r="J32" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="39"/>
-      <c r="M32" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N32" s="87" t="s">
+      <c r="M32" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N32" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="40" t="s">
@@ -3763,17 +3763,17 @@
       <c r="I33" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="J33" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" s="86" t="s">
+      <c r="J33" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="M33" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N33" s="86" t="s">
+      <c r="M33" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N33" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O33" s="26" t="s">
@@ -3806,17 +3806,17 @@
       <c r="I34" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="J34" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K34" s="87" t="s">
+      <c r="J34" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K34" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="39"/>
-      <c r="M34" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N34" s="87" t="s">
+      <c r="M34" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N34" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O34" s="40" t="s">
@@ -3849,17 +3849,17 @@
       <c r="I35" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="J35" s="86" t="s">
+      <c r="J35" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="K35" s="86" t="s">
+      <c r="K35" s="87" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="7"/>
-      <c r="M35" s="86" t="s">
+      <c r="M35" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N35" s="86" t="s">
+      <c r="N35" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O35" s="26" t="s">
@@ -3892,17 +3892,17 @@
       <c r="I36" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="J36" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K36" s="87" t="s">
+      <c r="J36" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K36" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L36" s="39"/>
-      <c r="M36" s="87" t="s">
+      <c r="M36" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="87" t="s">
+      <c r="N36" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O36" s="40" t="s">
@@ -3935,17 +3935,17 @@
       <c r="I37" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="J37" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K37" s="86" t="s">
+      <c r="J37" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L37" s="7"/>
-      <c r="M37" s="86" t="s">
+      <c r="M37" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="86" t="s">
+      <c r="N37" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O37" s="26" t="s">
@@ -3978,17 +3978,17 @@
       <c r="I38" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="J38" s="87" t="s">
+      <c r="J38" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="87" t="s">
+      <c r="K38" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L38" s="39"/>
-      <c r="M38" s="87" t="s">
+      <c r="M38" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N38" s="87" t="s">
+      <c r="N38" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O38" s="40" t="s">
@@ -4021,17 +4021,17 @@
       <c r="I39" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J39" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K39" s="86" t="s">
+      <c r="J39" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="7"/>
-      <c r="M39" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N39" s="86" t="s">
+      <c r="M39" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N39" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="26" t="s">
@@ -4064,19 +4064,19 @@
       <c r="I40" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="K40" s="92" t="s">
+      <c r="J40" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="98" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="N40" s="92" t="s">
+      <c r="M40" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="N40" s="98" t="s">
         <v>24</v>
       </c>
       <c r="O40" s="49" t="s">
@@ -4109,17 +4109,17 @@
       <c r="I41" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="93" t="s">
+      <c r="J41" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="K41" s="93" t="s">
+      <c r="K41" s="99" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="31"/>
-      <c r="M41" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="N41" s="93" t="s">
+      <c r="M41" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="N41" s="99" t="s">
         <v>24</v>
       </c>
       <c r="O41" s="32" t="s">
@@ -4152,17 +4152,17 @@
       <c r="I42" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K42" s="87" t="s">
+      <c r="J42" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L42" s="39"/>
-      <c r="M42" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N42" s="87" t="s">
+      <c r="M42" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N42" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O42" s="40" t="s">
@@ -4195,19 +4195,19 @@
       <c r="I43" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="J43" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K43" s="86" t="s">
+      <c r="J43" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M43" s="86" t="s">
+      <c r="M43" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N43" s="86" t="s">
+      <c r="N43" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O43" s="26" t="s">
@@ -4240,17 +4240,17 @@
       <c r="I44" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="J44" s="87" t="s">
+      <c r="J44" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="K44" s="87" t="s">
+      <c r="K44" s="86" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="39"/>
-      <c r="M44" s="87" t="s">
+      <c r="M44" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="N44" s="87" t="s">
+      <c r="N44" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O44" s="40" t="s">
@@ -4283,17 +4283,17 @@
       <c r="I45" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="J45" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K45" s="86" t="s">
+      <c r="J45" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L45" s="7"/>
-      <c r="M45" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N45" s="86" t="s">
+      <c r="M45" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N45" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O45" s="26" t="s">
@@ -4326,17 +4326,17 @@
       <c r="I46" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J46" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K46" s="87" t="s">
+      <c r="J46" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K46" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="39"/>
-      <c r="M46" s="87" t="s">
+      <c r="M46" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N46" s="87" t="s">
+      <c r="N46" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O46" s="40" t="s">
@@ -4369,17 +4369,17 @@
       <c r="I47" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J47" s="86" t="s">
+      <c r="J47" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K47" s="86" t="s">
+      <c r="K47" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L47" s="7"/>
-      <c r="M47" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N47" s="86" t="s">
+      <c r="M47" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N47" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O47" s="26" t="s">
@@ -4412,17 +4412,17 @@
       <c r="I48" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="J48" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K48" s="87" t="s">
+      <c r="J48" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K48" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L48" s="39"/>
-      <c r="M48" s="87" t="s">
+      <c r="M48" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N48" s="87" t="s">
+      <c r="N48" s="86" t="s">
         <v>66</v>
       </c>
       <c r="O48" s="40" t="s">
@@ -4455,17 +4455,17 @@
       <c r="I49" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="J49" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K49" s="86" t="s">
+      <c r="J49" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K49" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="7"/>
-      <c r="M49" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N49" s="86" t="s">
+      <c r="M49" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N49" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O49" s="26" t="s">
@@ -4498,17 +4498,17 @@
       <c r="I50" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="J50" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K50" s="87" t="s">
+      <c r="J50" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K50" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="39"/>
-      <c r="M50" s="87" t="s">
+      <c r="M50" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="N50" s="87" t="s">
+      <c r="N50" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O50" s="40" t="s">
@@ -4541,17 +4541,17 @@
       <c r="I51" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="J51" s="86" t="s">
+      <c r="J51" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="K51" s="86" t="s">
+      <c r="K51" s="87" t="s">
         <v>38</v>
       </c>
       <c r="L51" s="7"/>
-      <c r="M51" s="86" t="s">
+      <c r="M51" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="N51" s="86" t="s">
+      <c r="N51" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O51" s="26" t="s">
@@ -4584,19 +4584,19 @@
       <c r="I52" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="J52" s="87" t="s">
+      <c r="J52" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="87" t="s">
+      <c r="K52" s="86" t="s">
         <v>71</v>
       </c>
       <c r="L52" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M52" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N52" s="87" t="s">
+      <c r="M52" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N52" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O52" s="40" t="s">
@@ -4629,19 +4629,19 @@
       <c r="I53" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="J53" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K53" s="86" t="s">
+      <c r="J53" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M53" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N53" s="86" t="s">
+      <c r="M53" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N53" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O53" s="26" t="s">
@@ -4674,17 +4674,17 @@
       <c r="I54" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="J54" s="87" t="s">
+      <c r="J54" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="K54" s="87" t="s">
+      <c r="K54" s="86" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="39"/>
-      <c r="M54" s="87" t="s">
+      <c r="M54" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N54" s="87" t="s">
+      <c r="N54" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O54" s="40" t="s">
@@ -4717,17 +4717,17 @@
       <c r="I55" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="J55" s="86" t="s">
+      <c r="J55" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K55" s="86" t="s">
+      <c r="K55" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L55" s="7"/>
-      <c r="M55" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N55" s="86" t="s">
+      <c r="M55" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N55" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O55" s="26" t="s">
@@ -4760,17 +4760,17 @@
       <c r="I56" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="J56" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K56" s="87" t="s">
+      <c r="J56" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K56" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L56" s="39"/>
-      <c r="M56" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N56" s="87" t="s">
+      <c r="M56" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N56" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O56" s="40" t="s">
@@ -4803,19 +4803,19 @@
       <c r="I57" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="J57" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K57" s="86" t="s">
+      <c r="J57" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K57" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M57" s="86" t="s">
+      <c r="M57" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N57" s="86" t="s">
+      <c r="N57" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O57" s="26" t="s">
@@ -4848,17 +4848,17 @@
       <c r="I58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="J58" s="87" t="s">
+      <c r="J58" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="K58" s="87" t="s">
+      <c r="K58" s="86" t="s">
         <v>28</v>
       </c>
       <c r="L58" s="39"/>
-      <c r="M58" s="87" t="s">
+      <c r="M58" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="N58" s="87" t="s">
+      <c r="N58" s="86" t="s">
         <v>78</v>
       </c>
       <c r="O58" s="40" t="s">
@@ -4891,17 +4891,17 @@
       <c r="I59" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="J59" s="86" t="s">
+      <c r="J59" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="K59" s="86" t="s">
+      <c r="K59" s="87" t="s">
         <v>38</v>
       </c>
       <c r="L59" s="7"/>
-      <c r="M59" s="86" t="s">
+      <c r="M59" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N59" s="86" t="s">
+      <c r="N59" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O59" s="26" t="s">
@@ -4922,15 +4922,15 @@
       <c r="G60" s="51"/>
       <c r="H60" s="51"/>
       <c r="I60" s="50"/>
-      <c r="J60" s="90" t="s">
+      <c r="J60" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="K60" s="91"/>
+      <c r="K60" s="101"/>
       <c r="L60" s="51"/>
-      <c r="M60" s="87" t="s">
+      <c r="M60" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N60" s="87" t="s">
+      <c r="N60" s="86" t="s">
         <v>66</v>
       </c>
       <c r="O60" s="26" t="s">
@@ -4951,15 +4951,15 @@
       <c r="G61" s="31"/>
       <c r="H61" s="31"/>
       <c r="I61" s="30"/>
-      <c r="J61" s="88" t="s">
+      <c r="J61" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="K61" s="89"/>
+      <c r="K61" s="103"/>
       <c r="L61" s="31"/>
-      <c r="M61" s="86" t="s">
+      <c r="M61" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N61" s="86" t="s">
+      <c r="N61" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O61" s="40" t="s">
@@ -4980,17 +4980,17 @@
       <c r="G62" s="51"/>
       <c r="H62" s="51"/>
       <c r="I62" s="50"/>
-      <c r="J62" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K62" s="86" t="s">
+      <c r="J62" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K62" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L62" s="51"/>
-      <c r="M62" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N62" s="87" t="s">
+      <c r="M62" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N62" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O62" s="26" t="s">
@@ -5011,15 +5011,15 @@
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
       <c r="I63" s="30"/>
-      <c r="J63" s="88" t="s">
+      <c r="J63" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="K63" s="89"/>
+      <c r="K63" s="103"/>
       <c r="L63" s="31"/>
-      <c r="M63" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N63" s="87" t="s">
+      <c r="M63" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N63" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O63" s="26" t="s">
@@ -5040,17 +5040,17 @@
       <c r="G64" s="51"/>
       <c r="H64" s="51"/>
       <c r="I64" s="50"/>
-      <c r="J64" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K64" s="86" t="s">
+      <c r="J64" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K64" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L64" s="51"/>
-      <c r="M64" s="86" t="s">
+      <c r="M64" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N64" s="86" t="s">
+      <c r="N64" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O64" s="40" t="s">
@@ -5069,17 +5069,17 @@
       <c r="G65" s="31"/>
       <c r="H65" s="31"/>
       <c r="I65" s="30"/>
-      <c r="J65" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K65" s="86" t="s">
+      <c r="J65" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K65" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L65" s="31"/>
-      <c r="M65" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N65" s="87" t="s">
+      <c r="M65" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N65" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O65" s="40" t="s">
@@ -5112,17 +5112,17 @@
       <c r="I66" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J66" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K66" s="87" t="s">
+      <c r="J66" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K66" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L66" s="39"/>
-      <c r="M66" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N66" s="87" t="s">
+      <c r="M66" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N66" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O66" s="40" t="s">
@@ -5168,6 +5168,102 @@
     <row r="69" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="J17:K17"/>
@@ -5181,102 +5277,6 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="M63:N63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:F6 I6:N6">
@@ -5331,8 +5331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A1C220-DC63-401D-B66B-975EAA99E44B}">
   <dimension ref="A2:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58:H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5403,11 +5403,11 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="94"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="91" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="8">
@@ -5457,11 +5457,11 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A7" s="95"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="98"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="7" t="s">
         <v>176</v>
       </c>
@@ -5509,11 +5509,11 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="95"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="98"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="7">
         <v>12</v>
       </c>
@@ -5557,11 +5557,11 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A9" s="95"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="98"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="7">
         <v>6</v>
       </c>
@@ -5605,11 +5605,11 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A10" s="95"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="98"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="7" t="s">
         <v>179</v>
       </c>
@@ -5653,11 +5653,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A11" s="95"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="98"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -5689,11 +5689,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A12" s="95"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="98"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="7" t="s">
         <v>180</v>
       </c>
@@ -5737,11 +5737,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="96"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="99"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -5803,37 +5803,37 @@
       </c>
       <c r="E14" s="43"/>
       <c r="F14" s="43"/>
-      <c r="G14" s="103" t="s">
+      <c r="G14" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="H14" s="103" t="s">
+      <c r="H14" s="97" t="s">
         <v>66</v>
       </c>
       <c r="I14" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="103" t="s">
+      <c r="J14" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="103" t="s">
+      <c r="K14" s="97" t="s">
         <v>66</v>
       </c>
       <c r="L14" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="M14" s="103" t="s">
+      <c r="M14" s="97" t="s">
         <v>259</v>
       </c>
-      <c r="N14" s="103" t="s">
+      <c r="N14" s="97" t="s">
         <v>26</v>
       </c>
       <c r="O14" s="43" t="s">
         <v>265</v>
       </c>
-      <c r="P14" s="103" t="s">
+      <c r="P14" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="Q14" s="103" t="s">
+      <c r="Q14" s="97" t="s">
         <v>66</v>
       </c>
       <c r="R14" s="78" t="s">
@@ -5855,37 +5855,37 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="86" t="s">
+      <c r="G15" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="86" t="s">
+      <c r="H15" s="87" t="s">
         <v>66</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="86" t="s">
+      <c r="J15" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="86" t="s">
+      <c r="K15" s="87" t="s">
         <v>66</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="86" t="s">
+      <c r="M15" s="87" t="s">
         <v>258</v>
       </c>
-      <c r="N15" s="86" t="s">
+      <c r="N15" s="87" t="s">
         <v>258</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P15" s="86" t="s">
+      <c r="P15" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="Q15" s="86" t="s">
+      <c r="Q15" s="87" t="s">
         <v>66</v>
       </c>
       <c r="R15" s="69" t="s">
@@ -5907,37 +5907,37 @@
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
-      <c r="G16" s="87" t="s">
+      <c r="G16" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="87" t="s">
+      <c r="H16" s="86" t="s">
         <v>30</v>
       </c>
       <c r="I16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="87" t="s">
+      <c r="J16" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="87" t="s">
+      <c r="M16" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="N16" s="87" t="s">
+      <c r="N16" s="86" t="s">
         <v>66</v>
       </c>
       <c r="O16" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="P16" s="87" t="s">
+      <c r="P16" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="Q16" s="87" t="s">
+      <c r="Q16" s="86" t="s">
         <v>38</v>
       </c>
       <c r="R16" s="79" t="s">
@@ -5959,37 +5959,37 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="86" t="s">
+      <c r="G17" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="86" t="s">
+      <c r="J17" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="86" t="s">
+      <c r="M17" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P17" s="86" t="s">
+      <c r="P17" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="Q17" s="86" t="s">
+      <c r="Q17" s="87" t="s">
         <v>30</v>
       </c>
       <c r="R17" s="69" t="s">
@@ -6011,37 +6011,37 @@
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
-      <c r="G18" s="87" t="s">
+      <c r="G18" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="87" t="s">
+      <c r="H18" s="86" t="s">
         <v>66</v>
       </c>
       <c r="I18" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="87" t="s">
+      <c r="J18" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="N18" s="87" t="s">
+      <c r="M18" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="N18" s="86" t="s">
         <v>66</v>
       </c>
       <c r="O18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P18" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q18" s="87" t="s">
+      <c r="P18" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R18" s="79" t="s">
@@ -6063,37 +6063,37 @@
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="86" t="s">
+      <c r="G19" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="86" t="s">
+      <c r="J19" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="K19" s="86" t="s">
+      <c r="K19" s="87" t="s">
         <v>66</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="86" t="s">
+      <c r="M19" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P19" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19" s="86" t="s">
+      <c r="P19" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R19" s="69" t="s">
@@ -6115,37 +6115,37 @@
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
-      <c r="G20" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="87" t="s">
+      <c r="G20" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="87" t="s">
+      <c r="J20" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L20" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M20" s="87" t="s">
+      <c r="M20" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="N20" s="87" t="s">
+      <c r="N20" s="86" t="s">
         <v>66</v>
       </c>
       <c r="O20" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="P20" s="87" t="s">
+      <c r="P20" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="Q20" s="87" t="s">
+      <c r="Q20" s="86" t="s">
         <v>66</v>
       </c>
       <c r="R20" s="79" t="s">
@@ -6167,37 +6167,37 @@
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="86" t="s">
+      <c r="G21" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="87" t="s">
         <v>26</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="86" t="s">
+      <c r="J21" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="K21" s="86" t="s">
+      <c r="K21" s="87" t="s">
         <v>66</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M21" s="86" t="s">
+      <c r="M21" s="87" t="s">
         <v>258</v>
       </c>
-      <c r="N21" s="86" t="s">
+      <c r="N21" s="87" t="s">
         <v>258</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P21" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q21" s="86" t="s">
+      <c r="P21" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R21" s="69" t="s">
@@ -6219,37 +6219,37 @@
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
-      <c r="G22" s="87" t="s">
+      <c r="G22" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="87" t="s">
+      <c r="H22" s="86" t="s">
         <v>66</v>
       </c>
       <c r="I22" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="87" t="s">
+      <c r="J22" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="87" t="s">
+      <c r="K22" s="86" t="s">
         <v>38</v>
       </c>
       <c r="L22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="87" t="s">
+      <c r="M22" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="N22" s="87" t="s">
+      <c r="N22" s="86" t="s">
         <v>66</v>
       </c>
       <c r="O22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P22" s="87" t="s">
+      <c r="P22" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="Q22" s="87" t="s">
+      <c r="Q22" s="86" t="s">
         <v>66</v>
       </c>
       <c r="R22" s="79" t="s">
@@ -6271,37 +6271,37 @@
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="86" t="s">
+      <c r="G23" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="86" t="s">
+      <c r="H23" s="87" t="s">
         <v>66</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="86" t="s">
+      <c r="J23" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M23" s="86" t="s">
+      <c r="M23" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="N23" s="86" t="s">
+      <c r="N23" s="87" t="s">
         <v>66</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P23" s="86" t="s">
+      <c r="P23" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="Q23" s="86" t="s">
+      <c r="Q23" s="87" t="s">
         <v>66</v>
       </c>
       <c r="R23" s="69" t="s">
@@ -6323,37 +6323,37 @@
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
-      <c r="G24" s="87" t="s">
+      <c r="G24" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="87" t="s">
+      <c r="H24" s="86" t="s">
         <v>66</v>
       </c>
       <c r="I24" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" s="87" t="s">
+      <c r="J24" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M24" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="87" t="s">
+      <c r="M24" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O24" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P24" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q24" s="87" t="s">
+      <c r="P24" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R24" s="79" t="s">
@@ -6375,37 +6375,37 @@
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="86" t="s">
+      <c r="G25" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="86" t="s">
+      <c r="H25" s="87" t="s">
         <v>30</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="86" t="s">
+      <c r="J25" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="86" t="s">
+      <c r="K25" s="87" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M25" s="86" t="s">
+      <c r="M25" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="N25" s="86" t="s">
+      <c r="N25" s="87" t="s">
         <v>30</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P25" s="86" t="s">
+      <c r="P25" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="Q25" s="86" t="s">
+      <c r="Q25" s="87" t="s">
         <v>30</v>
       </c>
       <c r="R25" s="69" t="s">
@@ -6427,37 +6427,37 @@
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
-      <c r="G26" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="87" t="s">
+      <c r="G26" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I26" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" s="87" t="s">
+      <c r="J26" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L26" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M26" s="87" t="s">
+      <c r="M26" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="N26" s="87" t="s">
+      <c r="N26" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O26" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P26" s="87" t="s">
+      <c r="P26" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="Q26" s="87" t="s">
+      <c r="Q26" s="86" t="s">
         <v>66</v>
       </c>
       <c r="R26" s="79" t="s">
@@ -6479,37 +6479,37 @@
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="86" t="s">
+      <c r="G27" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K27" s="86" t="s">
+      <c r="J27" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M27" s="86" t="s">
+      <c r="M27" s="87" t="s">
         <v>258</v>
       </c>
-      <c r="N27" s="86" t="s">
+      <c r="N27" s="87" t="s">
         <v>258</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P27" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q27" s="86" t="s">
+      <c r="P27" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R27" s="69" t="s">
@@ -6531,37 +6531,37 @@
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
-      <c r="G28" s="87" t="s">
+      <c r="G28" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="87" t="s">
+      <c r="H28" s="86" t="s">
         <v>66</v>
       </c>
       <c r="I28" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="87" t="s">
+      <c r="J28" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="K28" s="87" t="s">
+      <c r="K28" s="86" t="s">
         <v>66</v>
       </c>
       <c r="L28" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="M28" s="87" t="s">
+      <c r="M28" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="N28" s="87" t="s">
+      <c r="N28" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O28" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="P28" s="87" t="s">
+      <c r="P28" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="87" t="s">
+      <c r="Q28" s="86" t="s">
         <v>38</v>
       </c>
       <c r="R28" s="79" t="s">
@@ -6583,37 +6583,37 @@
       </c>
       <c r="E29" s="60"/>
       <c r="F29" s="60"/>
-      <c r="G29" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="86" t="s">
+      <c r="G29" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="86" t="s">
+      <c r="J29" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M29" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="86" t="s">
+      <c r="M29" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="86" t="s">
+      <c r="P29" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="Q29" s="86" t="s">
+      <c r="Q29" s="87" t="s">
         <v>66</v>
       </c>
       <c r="R29" s="69" t="s">
@@ -6635,37 +6635,37 @@
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
-      <c r="G30" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="87" t="s">
+      <c r="G30" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="87" t="s">
+      <c r="J30" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="K30" s="87" t="s">
+      <c r="K30" s="86" t="s">
         <v>66</v>
       </c>
       <c r="L30" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M30" s="87" t="s">
+      <c r="M30" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="N30" s="87" t="s">
+      <c r="N30" s="86" t="s">
         <v>66</v>
       </c>
       <c r="O30" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P30" s="87" t="s">
+      <c r="P30" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="Q30" s="87" t="s">
+      <c r="Q30" s="86" t="s">
         <v>66</v>
       </c>
       <c r="R30" s="79" t="s">
@@ -6687,37 +6687,37 @@
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="86" t="s">
+      <c r="G31" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K31" s="86" t="s">
+      <c r="J31" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="M31" s="86" t="s">
+      <c r="M31" s="87" t="s">
         <v>260</v>
       </c>
-      <c r="N31" s="86" t="s">
+      <c r="N31" s="87" t="s">
         <v>260</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P31" s="86" t="s">
+      <c r="P31" s="87" t="s">
         <v>260</v>
       </c>
-      <c r="Q31" s="86" t="s">
+      <c r="Q31" s="87" t="s">
         <v>260</v>
       </c>
       <c r="R31" s="69" t="s">
@@ -6739,37 +6739,37 @@
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="39"/>
-      <c r="G32" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="87" t="s">
+      <c r="G32" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I32" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J32" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" s="87" t="s">
+      <c r="J32" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M32" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="N32" s="87" t="s">
+      <c r="M32" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="P32" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32" s="87" t="s">
+      <c r="P32" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R32" s="79" t="s">
@@ -6791,37 +6791,37 @@
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="86" t="s">
+      <c r="G33" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="86" t="s">
+      <c r="H33" s="87" t="s">
         <v>66</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" s="86" t="s">
+      <c r="J33" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M33" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N33" s="86" t="s">
+      <c r="M33" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P33" s="86" t="s">
+      <c r="P33" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="Q33" s="86" t="s">
+      <c r="Q33" s="87" t="s">
         <v>38</v>
       </c>
       <c r="R33" s="69" t="s">
@@ -6843,37 +6843,37 @@
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="39"/>
-      <c r="G34" s="87" t="s">
+      <c r="G34" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H34" s="87" t="s">
+      <c r="H34" s="86" t="s">
         <v>66</v>
       </c>
       <c r="I34" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J34" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="K34" s="87" t="s">
+      <c r="J34" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L34" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M34" s="87" t="s">
+      <c r="M34" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="N34" s="87" t="s">
+      <c r="N34" s="86" t="s">
         <v>258</v>
       </c>
       <c r="O34" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="P34" s="87" t="s">
+      <c r="P34" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="Q34" s="87" t="s">
+      <c r="Q34" s="86" t="s">
         <v>38</v>
       </c>
       <c r="R34" s="79" t="s">
@@ -6895,37 +6895,37 @@
       </c>
       <c r="E35" s="60"/>
       <c r="F35" s="60"/>
-      <c r="G35" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="86" t="s">
+      <c r="G35" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J35" s="86" t="s">
+      <c r="J35" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="K35" s="86" t="s">
+      <c r="K35" s="87" t="s">
         <v>66</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M35" s="86" t="s">
+      <c r="M35" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="N35" s="86" t="s">
+      <c r="N35" s="87" t="s">
         <v>66</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P35" s="86" t="s">
+      <c r="P35" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="Q35" s="86" t="s">
+      <c r="Q35" s="87" t="s">
         <v>66</v>
       </c>
       <c r="R35" s="69" t="s">
@@ -6947,37 +6947,37 @@
       </c>
       <c r="E36" s="39"/>
       <c r="F36" s="39"/>
-      <c r="G36" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="87" t="s">
+      <c r="G36" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="87" t="s">
+      <c r="J36" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="K36" s="87" t="s">
+      <c r="K36" s="86" t="s">
         <v>66</v>
       </c>
       <c r="L36" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M36" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="N36" s="87" t="s">
+      <c r="M36" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P36" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q36" s="87" t="s">
+      <c r="P36" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R36" s="79" t="s">
@@ -6999,37 +6999,37 @@
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="86" t="s">
+      <c r="G37" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J37" s="86" t="s">
+      <c r="J37" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="K37" s="86" t="s">
+      <c r="K37" s="87" t="s">
         <v>25</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M37" s="86" t="s">
+      <c r="M37" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="N37" s="86" t="s">
+      <c r="N37" s="87" t="s">
         <v>66</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P37" s="86" t="s">
+      <c r="P37" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="Q37" s="86" t="s">
+      <c r="Q37" s="87" t="s">
         <v>38</v>
       </c>
       <c r="R37" s="69" t="s">
@@ -7051,37 +7051,37 @@
       </c>
       <c r="E38" s="39"/>
       <c r="F38" s="39"/>
-      <c r="G38" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="87" t="s">
+      <c r="G38" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J38" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K38" s="87" t="s">
+      <c r="J38" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M38" s="87" t="s">
+      <c r="M38" s="86" t="s">
         <v>261</v>
       </c>
-      <c r="N38" s="87" t="s">
+      <c r="N38" s="86" t="s">
         <v>261</v>
       </c>
       <c r="O38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P38" s="87" t="s">
+      <c r="P38" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="Q38" s="87" t="s">
+      <c r="Q38" s="86" t="s">
         <v>66</v>
       </c>
       <c r="R38" s="79" t="s">
@@ -7103,37 +7103,37 @@
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="86" t="s">
+      <c r="G39" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K39" s="86" t="s">
+      <c r="J39" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M39" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N39" s="86" t="s">
+      <c r="M39" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P39" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q39" s="86" t="s">
+      <c r="P39" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q39" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R39" s="69" t="s">
@@ -7155,37 +7155,37 @@
       </c>
       <c r="E40" s="48"/>
       <c r="F40" s="48"/>
-      <c r="G40" s="87" t="s">
+      <c r="G40" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H40" s="87" t="s">
+      <c r="H40" s="86" t="s">
         <v>66</v>
       </c>
       <c r="I40" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J40" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="K40" s="87" t="s">
+      <c r="J40" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L40" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M40" s="87" t="s">
+      <c r="M40" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="N40" s="87" t="s">
+      <c r="N40" s="86" t="s">
         <v>30</v>
       </c>
       <c r="O40" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="P40" s="87" t="s">
+      <c r="P40" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="Q40" s="87" t="s">
+      <c r="Q40" s="86" t="s">
         <v>30</v>
       </c>
       <c r="R40" s="79" t="s">
@@ -7207,37 +7207,37 @@
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="31"/>
-      <c r="G41" s="104" t="s">
+      <c r="G41" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="H41" s="104" t="s">
+      <c r="H41" s="106" t="s">
         <v>66</v>
       </c>
       <c r="I41" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="J41" s="104" t="s">
-        <v>26</v>
-      </c>
-      <c r="K41" s="104" t="s">
+      <c r="J41" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" s="106" t="s">
         <v>26</v>
       </c>
       <c r="L41" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="M41" s="104" t="s">
+      <c r="M41" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="N41" s="104" t="s">
+      <c r="N41" s="106" t="s">
         <v>23</v>
       </c>
       <c r="O41" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="P41" s="104" t="s">
+      <c r="P41" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="Q41" s="104" t="s">
+      <c r="Q41" s="106" t="s">
         <v>23</v>
       </c>
       <c r="R41" s="80" t="s">
@@ -7259,37 +7259,37 @@
       </c>
       <c r="E42" s="39"/>
       <c r="F42" s="39"/>
-      <c r="G42" s="105" t="s">
+      <c r="G42" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="H42" s="105" t="s">
+      <c r="H42" s="107" t="s">
         <v>66</v>
       </c>
       <c r="I42" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="J42" s="105" t="s">
+      <c r="J42" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="K42" s="105" t="s">
+      <c r="K42" s="107" t="s">
         <v>66</v>
       </c>
       <c r="L42" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="105" t="s">
+      <c r="M42" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="N42" s="105" t="s">
+      <c r="N42" s="107" t="s">
         <v>38</v>
       </c>
       <c r="O42" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="P42" s="105" t="s">
+      <c r="P42" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="Q42" s="105" t="s">
+      <c r="Q42" s="107" t="s">
         <v>66</v>
       </c>
       <c r="R42" s="81" t="s">
@@ -7311,37 +7311,37 @@
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="93" t="s">
+      <c r="G43" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="H43" s="93" t="s">
+      <c r="H43" s="99" t="s">
         <v>25</v>
       </c>
       <c r="I43" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J43" s="93" t="s">
-        <v>24</v>
-      </c>
-      <c r="K43" s="93" t="s">
+      <c r="J43" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="99" t="s">
         <v>24</v>
       </c>
       <c r="L43" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="M43" s="93" t="s">
-        <v>24</v>
-      </c>
-      <c r="N43" s="93" t="s">
+      <c r="M43" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" s="99" t="s">
         <v>24</v>
       </c>
       <c r="O43" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="P43" s="93" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q43" s="93" t="s">
+      <c r="P43" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43" s="99" t="s">
         <v>24</v>
       </c>
       <c r="R43" s="82" t="s">
@@ -7363,37 +7363,37 @@
       </c>
       <c r="E44" s="39"/>
       <c r="F44" s="39"/>
-      <c r="G44" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="87" t="s">
+      <c r="G44" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I44" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J44" s="87" t="s">
+      <c r="J44" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="K44" s="87" t="s">
+      <c r="K44" s="86" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M44" s="87" t="s">
+      <c r="M44" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="N44" s="87" t="s">
+      <c r="N44" s="86" t="s">
         <v>66</v>
       </c>
       <c r="O44" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P44" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q44" s="87" t="s">
+      <c r="P44" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q44" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R44" s="79" t="s">
@@ -7415,37 +7415,37 @@
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="86" t="s">
+      <c r="G45" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="87" t="s">
         <v>26</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J45" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="K45" s="86" t="s">
+      <c r="J45" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M45" s="86" t="s">
+      <c r="M45" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="N45" s="86" t="s">
+      <c r="N45" s="87" t="s">
         <v>66</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P45" s="86" t="s">
+      <c r="P45" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="Q45" s="86" t="s">
+      <c r="Q45" s="87" t="s">
         <v>66</v>
       </c>
       <c r="R45" s="69" t="s">
@@ -7467,37 +7467,37 @@
       </c>
       <c r="E46" s="39"/>
       <c r="F46" s="39"/>
-      <c r="G46" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H46" s="87" t="s">
+      <c r="G46" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I46" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J46" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K46" s="87" t="s">
+      <c r="J46" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M46" s="87" t="s">
+      <c r="M46" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="N46" s="87" t="s">
+      <c r="N46" s="86" t="s">
         <v>66</v>
       </c>
       <c r="O46" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="P46" s="87" t="s">
+      <c r="P46" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="Q46" s="87" t="s">
+      <c r="Q46" s="86" t="s">
         <v>66</v>
       </c>
       <c r="R46" s="79" t="s">
@@ -7519,37 +7519,37 @@
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="86" t="s">
+      <c r="G47" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="H47" s="86" t="s">
+      <c r="H47" s="87" t="s">
         <v>66</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J47" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="K47" s="86" t="s">
+      <c r="J47" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K47" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M47" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N47" s="86" t="s">
+      <c r="M47" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N47" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P47" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q47" s="86" t="s">
+      <c r="P47" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q47" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R47" s="69" t="s">
@@ -7571,37 +7571,37 @@
       </c>
       <c r="E48" s="39"/>
       <c r="F48" s="39"/>
-      <c r="G48" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="H48" s="87" t="s">
+      <c r="G48" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="86" t="s">
         <v>26</v>
       </c>
       <c r="I48" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J48" s="87" t="s">
+      <c r="J48" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="K48" s="87" t="s">
+      <c r="K48" s="86" t="s">
         <v>66</v>
       </c>
       <c r="L48" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M48" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="N48" s="87" t="s">
+      <c r="M48" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N48" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O48" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="P48" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q48" s="87" t="s">
+      <c r="P48" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q48" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R48" s="79" t="s">
@@ -7623,37 +7623,37 @@
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H49" s="86" t="s">
+      <c r="G49" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J49" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K49" s="86" t="s">
+      <c r="J49" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M49" s="86" t="s">
+      <c r="M49" s="87" t="s">
         <v>262</v>
       </c>
-      <c r="N49" s="86" t="s">
+      <c r="N49" s="87" t="s">
         <v>262</v>
       </c>
       <c r="O49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P49" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q49" s="86" t="s">
+      <c r="P49" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q49" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R49" s="69" t="s">
@@ -7675,37 +7675,37 @@
       </c>
       <c r="E50" s="39"/>
       <c r="F50" s="39"/>
-      <c r="G50" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H50" s="87" t="s">
+      <c r="G50" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I50" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J50" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K50" s="87" t="s">
+      <c r="J50" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M50" s="87" t="s">
+      <c r="M50" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="N50" s="87" t="s">
+      <c r="N50" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O50" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="P50" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q50" s="87" t="s">
+      <c r="P50" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q50" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R50" s="79" t="s">
@@ -7727,37 +7727,37 @@
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="H51" s="86" t="s">
+      <c r="G51" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" s="87" t="s">
         <v>26</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J51" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="K51" s="86" t="s">
+      <c r="J51" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K51" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L51" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M51" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N51" s="86" t="s">
+      <c r="M51" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N51" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P51" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q51" s="86" t="s">
+      <c r="P51" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q51" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R51" s="69" t="s">
@@ -7779,37 +7779,37 @@
       </c>
       <c r="E52" s="39"/>
       <c r="F52" s="39"/>
-      <c r="G52" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="H52" s="87" t="s">
+      <c r="G52" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="86" t="s">
         <v>26</v>
       </c>
       <c r="I52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J52" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K52" s="87" t="s">
+      <c r="J52" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K52" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L52" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M52" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="N52" s="87" t="s">
+      <c r="M52" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N52" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P52" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q52" s="87" t="s">
+      <c r="P52" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q52" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R52" s="79" t="s">
@@ -7831,37 +7831,37 @@
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H53" s="106" t="s">
+      <c r="G53" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="105" t="s">
         <v>24</v>
       </c>
       <c r="I53" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J53" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="K53" s="106" t="s">
+      <c r="J53" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="K53" s="105" t="s">
         <v>24</v>
       </c>
       <c r="L53" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="M53" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="N53" s="106" t="s">
+      <c r="M53" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53" s="105" t="s">
         <v>26</v>
       </c>
       <c r="O53" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="P53" s="106" t="s">
+      <c r="P53" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="Q53" s="106" t="s">
+      <c r="Q53" s="105" t="s">
         <v>38</v>
       </c>
       <c r="R53" s="83" t="s">
@@ -7883,37 +7883,37 @@
       </c>
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
-      <c r="G54" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="H54" s="87" t="s">
+      <c r="G54" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" s="86" t="s">
         <v>26</v>
       </c>
       <c r="I54" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J54" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="K54" s="87" t="s">
+      <c r="J54" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="K54" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L54" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M54" s="87" t="s">
+      <c r="M54" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="N54" s="87" t="s">
+      <c r="N54" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O54" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="P54" s="87" t="s">
+      <c r="P54" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="Q54" s="87" t="s">
+      <c r="Q54" s="86" t="s">
         <v>38</v>
       </c>
       <c r="R54" s="79" t="s">
@@ -7935,37 +7935,37 @@
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H55" s="86" t="s">
-        <v>24</v>
+      <c r="G55" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="H55" s="87" t="s">
+        <v>66</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J55" s="86" t="s">
+      <c r="J55" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="K55" s="86" t="s">
+      <c r="K55" s="87" t="s">
         <v>25</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M55" s="86" t="s">
+      <c r="M55" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="N55" s="86" t="s">
+      <c r="N55" s="87" t="s">
         <v>30</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P55" s="86" t="s">
+      <c r="P55" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="Q55" s="86" t="s">
+      <c r="Q55" s="87" t="s">
         <v>66</v>
       </c>
       <c r="R55" s="69" t="s">
@@ -7987,37 +7987,37 @@
       </c>
       <c r="E56" s="39"/>
       <c r="F56" s="39"/>
-      <c r="G56" s="87" t="s">
+      <c r="G56" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="H56" s="87" t="s">
+      <c r="H56" s="86" t="s">
         <v>38</v>
       </c>
       <c r="I56" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J56" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K56" s="87" t="s">
+      <c r="J56" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K56" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L56" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M56" s="87" t="s">
+      <c r="M56" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="N56" s="87" t="s">
+      <c r="N56" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O56" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="P56" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q56" s="87" t="s">
+      <c r="P56" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q56" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R56" s="79" t="s">
@@ -8039,37 +8039,37 @@
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="H57" s="86" t="s">
+      <c r="G57" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" s="87" t="s">
         <v>26</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J57" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="K57" s="86" t="s">
+      <c r="J57" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K57" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M57" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N57" s="86" t="s">
+      <c r="M57" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P57" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q57" s="86" t="s">
+      <c r="P57" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q57" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R57" s="69" t="s">
@@ -8091,37 +8091,37 @@
       </c>
       <c r="E58" s="39"/>
       <c r="F58" s="39"/>
-      <c r="G58" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="H58" s="87" t="s">
-        <v>38</v>
+      <c r="G58" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="86" t="s">
+        <v>24</v>
       </c>
       <c r="I58" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J58" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="K58" s="87" t="s">
+      <c r="J58" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="K58" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L58" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="M58" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="N58" s="87" t="s">
+      <c r="M58" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N58" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O58" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P58" s="87" t="s">
+      <c r="P58" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="Q58" s="87" t="s">
+      <c r="Q58" s="86" t="s">
         <v>25</v>
       </c>
       <c r="R58" s="79" t="s">
@@ -8143,37 +8143,37 @@
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
-      <c r="G59" s="86" t="s">
+      <c r="G59" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H59" s="86" t="s">
+      <c r="H59" s="87" t="s">
         <v>25</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J59" s="86" t="s">
+      <c r="J59" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="K59" s="86" t="s">
+      <c r="K59" s="87" t="s">
         <v>66</v>
       </c>
       <c r="L59" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M59" s="86" t="s">
+      <c r="M59" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="N59" s="86" t="s">
+      <c r="N59" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P59" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q59" s="86" t="s">
+      <c r="P59" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q59" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R59" s="69" t="s">
@@ -8195,37 +8195,37 @@
       </c>
       <c r="E60" s="39"/>
       <c r="F60" s="39"/>
-      <c r="G60" s="87" t="s">
+      <c r="G60" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="H60" s="87" t="s">
+      <c r="H60" s="86" t="s">
         <v>30</v>
       </c>
       <c r="I60" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J60" s="87" t="s">
+      <c r="J60" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="K60" s="87" t="s">
+      <c r="K60" s="86" t="s">
         <v>30</v>
       </c>
       <c r="L60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="M60" s="87" t="s">
+      <c r="M60" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="N60" s="87" t="s">
+      <c r="N60" s="86" t="s">
         <v>30</v>
       </c>
       <c r="O60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="P60" s="87" t="s">
+      <c r="P60" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="Q60" s="87" t="s">
+      <c r="Q60" s="86" t="s">
         <v>25</v>
       </c>
       <c r="R60" s="79" t="s">
@@ -8247,37 +8247,37 @@
       </c>
       <c r="E61" s="32"/>
       <c r="F61" s="32"/>
-      <c r="G61" s="86" t="s">
+      <c r="G61" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="H61" s="86" t="s">
+      <c r="H61" s="87" t="s">
         <v>66</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J61" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K61" s="86" t="s">
+      <c r="J61" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K61" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L61" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M61" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N61" s="86" t="s">
+      <c r="M61" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N61" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O61" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P61" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q61" s="86" t="s">
+      <c r="P61" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q61" s="87" t="s">
         <v>26</v>
       </c>
       <c r="R61" s="69" t="s">
@@ -8299,37 +8299,37 @@
       </c>
       <c r="E62" s="52"/>
       <c r="F62" s="52"/>
-      <c r="G62" s="87" t="s">
+      <c r="G62" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="H62" s="87" t="s">
+      <c r="H62" s="86" t="s">
         <v>25</v>
       </c>
       <c r="I62" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J62" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="K62" s="87" t="s">
+      <c r="J62" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="K62" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L62" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="M62" s="87" t="s">
+      <c r="M62" s="86" t="s">
         <v>263</v>
       </c>
-      <c r="N62" s="87" t="s">
+      <c r="N62" s="86" t="s">
         <v>263</v>
       </c>
       <c r="O62" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P62" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q62" s="87" t="s">
+      <c r="P62" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q62" s="86" t="s">
         <v>26</v>
       </c>
       <c r="R62" s="79" t="s">
@@ -8351,37 +8351,37 @@
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="32"/>
-      <c r="G63" s="86" t="s">
+      <c r="G63" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="H63" s="86" t="s">
+      <c r="H63" s="87" t="s">
         <v>38</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J63" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K63" s="86" t="s">
+      <c r="J63" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K63" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M63" s="86" t="s">
+      <c r="M63" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="N63" s="86" t="s">
+      <c r="N63" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O63" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P63" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q63" s="86" t="s">
+      <c r="P63" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q63" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R63" s="69" t="s">
@@ -8403,37 +8403,37 @@
       </c>
       <c r="E64" s="52"/>
       <c r="F64" s="52"/>
-      <c r="G64" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="H64" s="87" t="s">
+      <c r="G64" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" s="86" t="s">
         <v>26</v>
       </c>
       <c r="I64" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J64" s="87" t="s">
+      <c r="J64" s="86" t="s">
         <v>257</v>
       </c>
-      <c r="K64" s="87" t="s">
+      <c r="K64" s="86" t="s">
         <v>257</v>
       </c>
       <c r="L64" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="M64" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="N64" s="87" t="s">
+      <c r="M64" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N64" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O64" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P64" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q64" s="87" t="s">
+      <c r="P64" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q64" s="86" t="s">
         <v>26</v>
       </c>
       <c r="R64" s="79" t="s">
@@ -8455,37 +8455,37 @@
       </c>
       <c r="E65" s="32"/>
       <c r="F65" s="32"/>
-      <c r="G65" s="86" t="s">
+      <c r="G65" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="86" t="s">
+      <c r="H65" s="87" t="s">
         <v>30</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J65" s="86" t="s">
+      <c r="J65" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="K65" s="86" t="s">
+      <c r="K65" s="87" t="s">
         <v>30</v>
       </c>
       <c r="L65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M65" s="86" t="s">
+      <c r="M65" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="N65" s="86" t="s">
+      <c r="N65" s="87" t="s">
         <v>30</v>
       </c>
       <c r="O65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P65" s="86" t="s">
+      <c r="P65" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="Q65" s="86" t="s">
+      <c r="Q65" s="87" t="s">
         <v>30</v>
       </c>
       <c r="R65" s="69" t="s">
@@ -8561,11 +8561,11 @@
     </row>
     <row r="71" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="L71" s="76"/>
-      <c r="M71" s="107"/>
-      <c r="N71" s="107"/>
+      <c r="M71" s="104"/>
+      <c r="N71" s="104"/>
       <c r="O71" s="76"/>
-      <c r="P71" s="107"/>
-      <c r="Q71" s="107"/>
+      <c r="P71" s="104"/>
+      <c r="Q71" s="104"/>
       <c r="R71" s="84"/>
     </row>
     <row r="72" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -8590,11 +8590,11 @@
     </row>
     <row r="76" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="L76" s="76"/>
-      <c r="M76" s="107"/>
-      <c r="N76" s="107"/>
+      <c r="M76" s="104"/>
+      <c r="N76" s="104"/>
       <c r="O76" s="76"/>
-      <c r="P76" s="107"/>
-      <c r="Q76" s="107"/>
+      <c r="P76" s="104"/>
+      <c r="Q76" s="104"/>
       <c r="R76" s="84"/>
     </row>
     <row r="77" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -8609,48 +8609,154 @@
     <row r="78" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="214">
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
     <mergeCell ref="M64:N64"/>
     <mergeCell ref="M65:N65"/>
     <mergeCell ref="M71:N71"/>
@@ -8675,154 +8781,48 @@
     <mergeCell ref="M54:N54"/>
     <mergeCell ref="M55:N55"/>
     <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="P60:Q60"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:C6">
@@ -8947,11 +8947,11 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="94"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="91" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="8">
@@ -8969,7 +8969,7 @@
       <c r="H6" s="8">
         <v>15</v>
       </c>
-      <c r="I6" s="100" t="s">
+      <c r="I6" s="94" t="s">
         <v>167</v>
       </c>
       <c r="J6" s="8">
@@ -8990,7 +8990,7 @@
       <c r="O6" s="25">
         <v>30</v>
       </c>
-      <c r="P6" s="100" t="s">
+      <c r="P6" s="94" t="s">
         <v>167</v>
       </c>
       <c r="Q6" s="8">
@@ -9025,11 +9025,11 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="95"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="98"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
@@ -9045,7 +9045,7 @@
       <c r="H7" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I7" s="101"/>
+      <c r="I7" s="95"/>
       <c r="J7" s="7" t="s">
         <v>8</v>
       </c>
@@ -9064,7 +9064,7 @@
       <c r="O7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="101"/>
+      <c r="P7" s="95"/>
       <c r="Q7" s="7" t="s">
         <v>176</v>
       </c>
@@ -9093,11 +9093,11 @@
       <c r="Z7" s="109"/>
     </row>
     <row r="8" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="95"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="98"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="7">
         <v>68</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>60</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="101"/>
+      <c r="I8" s="95"/>
       <c r="J8" s="7">
         <v>90</v>
       </c>
@@ -9128,7 +9128,7 @@
       <c r="O8" s="26">
         <v>59</v>
       </c>
-      <c r="P8" s="101"/>
+      <c r="P8" s="95"/>
       <c r="Q8" s="7">
         <v>12</v>
       </c>
@@ -9153,11 +9153,11 @@
       <c r="Z8" s="109"/>
     </row>
     <row r="9" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="95"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="98"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="17">
         <v>14</v>
       </c>
@@ -9173,7 +9173,7 @@
       <c r="H9" s="17">
         <v>10</v>
       </c>
-      <c r="I9" s="101"/>
+      <c r="I9" s="95"/>
       <c r="J9" s="17">
         <v>18</v>
       </c>
@@ -9190,7 +9190,7 @@
       <c r="O9" s="36">
         <v>12</v>
       </c>
-      <c r="P9" s="101"/>
+      <c r="P9" s="95"/>
       <c r="Q9" s="7">
         <v>6</v>
       </c>
@@ -9215,11 +9215,11 @@
       <c r="Z9" s="109"/>
     </row>
     <row r="10" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="95"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="98"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="101"/>
+      <c r="I10" s="95"/>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
@@ -9250,7 +9250,7 @@
       <c r="O10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="101"/>
+      <c r="P10" s="95"/>
       <c r="Q10" s="7" t="s">
         <v>179</v>
       </c>
@@ -9275,11 +9275,11 @@
       <c r="Z10" s="109"/>
     </row>
     <row r="11" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="95"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="98"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="7" t="s">
         <v>94</v>
       </c>
@@ -9295,7 +9295,7 @@
       <c r="H11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="101"/>
+      <c r="I11" s="95"/>
       <c r="J11" s="7" t="s">
         <v>97</v>
       </c>
@@ -9312,7 +9312,7 @@
       <c r="O11" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="P11" s="101"/>
+      <c r="P11" s="95"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
@@ -9325,11 +9325,11 @@
       <c r="Z11" s="109"/>
     </row>
     <row r="12" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="95"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="98"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
@@ -9345,7 +9345,7 @@
       <c r="H12" s="18">
         <v>0.6875</v>
       </c>
-      <c r="I12" s="101"/>
+      <c r="I12" s="95"/>
       <c r="J12" s="7" t="s">
         <v>17</v>
       </c>
@@ -9364,7 +9364,7 @@
       <c r="O12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="101"/>
+      <c r="P12" s="95"/>
       <c r="Q12" s="7" t="s">
         <v>180</v>
       </c>
@@ -9389,11 +9389,11 @@
       <c r="Z12" s="109"/>
     </row>
     <row r="13" spans="1:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="96"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="99"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -9409,7 +9409,7 @@
       <c r="H13" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="102"/>
+      <c r="I13" s="96"/>
       <c r="J13" s="7" t="s">
         <v>21</v>
       </c>
@@ -9428,7 +9428,7 @@
       <c r="O13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="P13" s="102"/>
+      <c r="P13" s="96"/>
       <c r="Q13" s="7" t="s">
         <v>21</v>
       </c>
@@ -9484,17 +9484,17 @@
       <c r="I14" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="103" t="s">
+      <c r="J14" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="103" t="s">
+      <c r="K14" s="97" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="43"/>
-      <c r="M14" s="103" t="s">
+      <c r="M14" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="103" t="s">
+      <c r="N14" s="97" t="s">
         <v>23</v>
       </c>
       <c r="O14" s="44" t="s">
@@ -9508,19 +9508,19 @@
       </c>
       <c r="R14" s="43"/>
       <c r="S14" s="43"/>
-      <c r="T14" s="103" t="s">
+      <c r="T14" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="U14" s="103" t="s">
+      <c r="U14" s="97" t="s">
         <v>23</v>
       </c>
       <c r="V14" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="W14" s="103" t="s">
+      <c r="W14" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="X14" s="103" t="s">
+      <c r="X14" s="97" t="s">
         <v>23</v>
       </c>
       <c r="Y14" s="44"/>
@@ -9554,19 +9554,19 @@
       <c r="I15" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="J15" s="86" t="s">
+      <c r="J15" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="86" t="s">
+      <c r="K15" s="87" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="86" t="s">
+      <c r="M15" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="86" t="s">
+      <c r="N15" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O15" s="26" t="s">
@@ -9580,19 +9580,19 @@
       </c>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="86" t="s">
+      <c r="T15" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="U15" s="86" t="s">
+      <c r="U15" s="87" t="s">
         <v>23</v>
       </c>
       <c r="V15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W15" s="86" t="s">
+      <c r="W15" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="X15" s="86" t="s">
+      <c r="X15" s="87" t="s">
         <v>23</v>
       </c>
       <c r="Y15" s="26"/>
@@ -9626,17 +9626,17 @@
       <c r="I16" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="J16" s="87" t="s">
+      <c r="J16" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="87" t="s">
+      <c r="K16" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="87" t="s">
+      <c r="M16" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="87" t="s">
+      <c r="N16" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="40" t="s">
@@ -9650,19 +9650,19 @@
       </c>
       <c r="R16" s="39"/>
       <c r="S16" s="39"/>
-      <c r="T16" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U16" s="87" t="s">
+      <c r="T16" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U16" s="86" t="s">
         <v>30</v>
       </c>
       <c r="V16" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W16" s="87" t="s">
+      <c r="W16" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="X16" s="87" t="s">
+      <c r="X16" s="86" t="s">
         <v>182</v>
       </c>
       <c r="Y16" s="40"/>
@@ -9696,17 +9696,17 @@
       <c r="I17" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K17" s="86" t="s">
+      <c r="J17" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N17" s="86" t="s">
+      <c r="M17" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O17" s="26" t="s">
@@ -9720,19 +9720,19 @@
       </c>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
-      <c r="T17" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U17" s="86" t="s">
+      <c r="T17" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U17" s="87" t="s">
         <v>30</v>
       </c>
       <c r="V17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W17" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X17" s="86" t="s">
+      <c r="W17" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X17" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y17" s="26"/>
@@ -9766,17 +9766,17 @@
       <c r="I18" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="87" t="s">
+      <c r="J18" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="87" t="s">
+      <c r="K18" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="39"/>
-      <c r="M18" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N18" s="87" t="s">
+      <c r="M18" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O18" s="40" t="s">
@@ -9790,19 +9790,19 @@
       </c>
       <c r="R18" s="39"/>
       <c r="S18" s="39"/>
-      <c r="T18" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="U18" s="87" t="s">
+      <c r="T18" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="U18" s="86" t="s">
         <v>30</v>
       </c>
       <c r="V18" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W18" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X18" s="87" t="s">
+      <c r="W18" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X18" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y18" s="40"/>
@@ -9836,17 +9836,17 @@
       <c r="I19" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="J19" s="86" t="s">
+      <c r="J19" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="86" t="s">
+      <c r="K19" s="87" t="s">
         <v>34</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="86" t="s">
+      <c r="M19" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="86" t="s">
+      <c r="N19" s="87" t="s">
         <v>28</v>
       </c>
       <c r="O19" s="26" t="s">
@@ -9860,19 +9860,19 @@
       </c>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
-      <c r="T19" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U19" s="86" t="s">
+      <c r="T19" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U19" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W19" s="86" t="s">
+      <c r="W19" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="X19" s="86" t="s">
+      <c r="X19" s="87" t="s">
         <v>23</v>
       </c>
       <c r="Y19" s="26"/>
@@ -9906,17 +9906,17 @@
       <c r="I20" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J20" s="87" t="s">
+      <c r="J20" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="87" t="s">
+      <c r="K20" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="39"/>
-      <c r="M20" s="87" t="s">
+      <c r="M20" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="87" t="s">
+      <c r="N20" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O20" s="40" t="s">
@@ -9930,19 +9930,19 @@
       </c>
       <c r="R20" s="39"/>
       <c r="S20" s="39"/>
-      <c r="T20" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U20" s="87" t="s">
+      <c r="T20" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U20" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V20" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W20" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X20" s="87" t="s">
+      <c r="W20" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X20" s="86" t="s">
         <v>26</v>
       </c>
       <c r="Y20" s="40"/>
@@ -9976,17 +9976,17 @@
       <c r="I21" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J21" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="86" t="s">
+      <c r="J21" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="86" t="s">
+      <c r="M21" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="86" t="s">
+      <c r="N21" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="26" t="s">
@@ -10000,19 +10000,19 @@
       </c>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
-      <c r="T21" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U21" s="86" t="s">
+      <c r="T21" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U21" s="87" t="s">
         <v>26</v>
       </c>
       <c r="V21" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W21" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X21" s="86" t="s">
+      <c r="W21" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X21" s="87" t="s">
         <v>24</v>
       </c>
       <c r="Y21" s="26"/>
@@ -10046,17 +10046,17 @@
       <c r="I22" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="J22" s="87" t="s">
+      <c r="J22" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="87" t="s">
+      <c r="K22" s="86" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="39"/>
-      <c r="M22" s="87" t="s">
+      <c r="M22" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="N22" s="87" t="s">
+      <c r="N22" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O22" s="40" t="s">
@@ -10070,19 +10070,19 @@
       </c>
       <c r="R22" s="39"/>
       <c r="S22" s="39"/>
-      <c r="T22" s="87" t="s">
+      <c r="T22" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="U22" s="87" t="s">
+      <c r="U22" s="86" t="s">
         <v>23</v>
       </c>
       <c r="V22" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W22" s="87" t="s">
+      <c r="W22" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="X22" s="87" t="s">
+      <c r="X22" s="86" t="s">
         <v>23</v>
       </c>
       <c r="Y22" s="40"/>
@@ -10116,19 +10116,19 @@
       <c r="I23" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J23" s="86" t="s">
+      <c r="J23" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="86" t="s">
+      <c r="K23" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M23" s="86" t="s">
+      <c r="M23" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="86" t="s">
+      <c r="N23" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O23" s="26" t="s">
@@ -10142,19 +10142,19 @@
       </c>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
-      <c r="T23" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U23" s="86" t="s">
+      <c r="T23" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U23" s="87" t="s">
         <v>30</v>
       </c>
       <c r="V23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W23" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X23" s="86" t="s">
+      <c r="W23" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X23" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y23" s="26"/>
@@ -10188,17 +10188,17 @@
       <c r="I24" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="J24" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K24" s="87" t="s">
+      <c r="J24" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="39"/>
-      <c r="M24" s="87" t="s">
+      <c r="M24" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="87" t="s">
+      <c r="N24" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="40" t="s">
@@ -10212,19 +10212,19 @@
       </c>
       <c r="R24" s="39"/>
       <c r="S24" s="39"/>
-      <c r="T24" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U24" s="87" t="s">
+      <c r="T24" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U24" s="86" t="s">
         <v>30</v>
       </c>
       <c r="V24" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W24" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X24" s="87" t="s">
+      <c r="W24" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X24" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y24" s="40"/>
@@ -10258,17 +10258,17 @@
       <c r="I25" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="J25" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="86" t="s">
+      <c r="J25" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="87" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" s="86" t="s">
+      <c r="M25" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="87" t="s">
         <v>30</v>
       </c>
       <c r="O25" s="26" t="s">
@@ -10282,19 +10282,19 @@
       </c>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
-      <c r="T25" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U25" s="86" t="s">
+      <c r="T25" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U25" s="87" t="s">
         <v>30</v>
       </c>
       <c r="V25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W25" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X25" s="86" t="s">
+      <c r="W25" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X25" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y25" s="26"/>
@@ -10328,19 +10328,19 @@
       <c r="I26" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="87" t="s">
+      <c r="J26" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="87" t="s">
+      <c r="K26" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M26" s="87" t="s">
+      <c r="M26" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="87" t="s">
+      <c r="N26" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O26" s="40" t="s">
@@ -10354,19 +10354,19 @@
       </c>
       <c r="R26" s="39"/>
       <c r="S26" s="39"/>
-      <c r="T26" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U26" s="87" t="s">
+      <c r="T26" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U26" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V26" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W26" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X26" s="87" t="s">
+      <c r="W26" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X26" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y26" s="40"/>
@@ -10400,17 +10400,17 @@
       <c r="I27" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="J27" s="86" t="s">
+      <c r="J27" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="86" t="s">
+      <c r="K27" s="87" t="s">
         <v>44</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N27" s="86" t="s">
+      <c r="M27" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O27" s="26" t="s">
@@ -10424,19 +10424,19 @@
       </c>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
-      <c r="T27" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U27" s="86" t="s">
+      <c r="T27" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U27" s="87" t="s">
         <v>30</v>
       </c>
       <c r="V27" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W27" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X27" s="86" t="s">
+      <c r="W27" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X27" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y27" s="26"/>
@@ -10470,19 +10470,19 @@
       <c r="I28" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="J28" s="87" t="s">
+      <c r="J28" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="87" t="s">
+      <c r="K28" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="87" t="s">
+      <c r="M28" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N28" s="87" t="s">
+      <c r="N28" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O28" s="40" t="s">
@@ -10496,19 +10496,19 @@
       </c>
       <c r="R28" s="39"/>
       <c r="S28" s="39"/>
-      <c r="T28" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U28" s="87" t="s">
+      <c r="T28" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U28" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V28" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W28" s="87" t="s">
+      <c r="W28" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="X28" s="87" t="s">
+      <c r="X28" s="86" t="s">
         <v>23</v>
       </c>
       <c r="Y28" s="40"/>
@@ -10542,17 +10542,17 @@
       <c r="I29" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="J29" s="86" t="s">
+      <c r="J29" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="86" t="s">
+      <c r="K29" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="86" t="s">
+      <c r="M29" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N29" s="86" t="s">
+      <c r="N29" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O29" s="26" t="s">
@@ -10566,19 +10566,19 @@
       </c>
       <c r="R29" s="60"/>
       <c r="S29" s="60"/>
-      <c r="T29" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U29" s="86" t="s">
+      <c r="T29" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U29" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V29" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W29" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X29" s="86" t="s">
+      <c r="W29" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X29" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y29" s="26"/>
@@ -10612,17 +10612,17 @@
       <c r="I30" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="J30" s="87" t="s">
+      <c r="J30" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="87" t="s">
+      <c r="K30" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="39"/>
-      <c r="M30" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N30" s="87" t="s">
+      <c r="M30" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="86" t="s">
         <v>26</v>
       </c>
       <c r="O30" s="40" t="s">
@@ -10636,19 +10636,19 @@
       </c>
       <c r="R30" s="39"/>
       <c r="S30" s="39"/>
-      <c r="T30" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U30" s="87" t="s">
+      <c r="T30" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U30" s="86" t="s">
         <v>30</v>
       </c>
       <c r="V30" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W30" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X30" s="87" t="s">
+      <c r="W30" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X30" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y30" s="40"/>
@@ -10682,17 +10682,17 @@
       <c r="I31" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="J31" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" s="86" t="s">
+      <c r="J31" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="7"/>
-      <c r="M31" s="86" t="s">
+      <c r="M31" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N31" s="86" t="s">
+      <c r="N31" s="87" t="s">
         <v>28</v>
       </c>
       <c r="O31" s="26" t="s">
@@ -10706,19 +10706,19 @@
       </c>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
-      <c r="T31" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U31" s="86" t="s">
+      <c r="T31" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U31" s="87" t="s">
         <v>30</v>
       </c>
       <c r="V31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W31" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X31" s="86" t="s">
+      <c r="W31" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X31" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y31" s="26"/>
@@ -10752,17 +10752,17 @@
       <c r="I32" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J32" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K32" s="87" t="s">
+      <c r="J32" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="39"/>
-      <c r="M32" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N32" s="87" t="s">
+      <c r="M32" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N32" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="40" t="s">
@@ -10776,19 +10776,19 @@
       </c>
       <c r="R32" s="39"/>
       <c r="S32" s="39"/>
-      <c r="T32" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U32" s="87" t="s">
+      <c r="T32" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U32" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V32" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W32" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X32" s="87" t="s">
+      <c r="W32" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X32" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y32" s="40"/>
@@ -10822,17 +10822,17 @@
       <c r="I33" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="J33" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" s="86" t="s">
+      <c r="J33" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="M33" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N33" s="86" t="s">
+      <c r="M33" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N33" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O33" s="26" t="s">
@@ -10846,19 +10846,19 @@
       </c>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
-      <c r="T33" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U33" s="86" t="s">
+      <c r="T33" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U33" s="87" t="s">
         <v>30</v>
       </c>
       <c r="V33" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W33" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X33" s="86" t="s">
+      <c r="W33" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X33" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y33" s="26"/>
@@ -10892,17 +10892,17 @@
       <c r="I34" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="J34" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K34" s="87" t="s">
+      <c r="J34" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K34" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="39"/>
-      <c r="M34" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N34" s="87" t="s">
+      <c r="M34" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N34" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O34" s="40" t="s">
@@ -10916,19 +10916,19 @@
       </c>
       <c r="R34" s="39"/>
       <c r="S34" s="39"/>
-      <c r="T34" s="87" t="s">
+      <c r="T34" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="U34" s="87" t="s">
+      <c r="U34" s="86" t="s">
         <v>23</v>
       </c>
       <c r="V34" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W34" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X34" s="87" t="s">
+      <c r="W34" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X34" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y34" s="40"/>
@@ -10962,17 +10962,17 @@
       <c r="I35" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="J35" s="86" t="s">
+      <c r="J35" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="K35" s="86" t="s">
+      <c r="K35" s="87" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="7"/>
-      <c r="M35" s="86" t="s">
+      <c r="M35" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N35" s="86" t="s">
+      <c r="N35" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O35" s="26" t="s">
@@ -10986,19 +10986,19 @@
       </c>
       <c r="R35" s="60"/>
       <c r="S35" s="60"/>
-      <c r="T35" s="86" t="s">
+      <c r="T35" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="U35" s="86" t="s">
+      <c r="U35" s="87" t="s">
         <v>23</v>
       </c>
       <c r="V35" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="W35" s="86" t="s">
+      <c r="W35" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="X35" s="86" t="s">
+      <c r="X35" s="87" t="s">
         <v>23</v>
       </c>
       <c r="Y35" s="26"/>
@@ -11032,17 +11032,17 @@
       <c r="I36" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="J36" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K36" s="87" t="s">
+      <c r="J36" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K36" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L36" s="39"/>
-      <c r="M36" s="87" t="s">
+      <c r="M36" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="87" t="s">
+      <c r="N36" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O36" s="40" t="s">
@@ -11056,19 +11056,19 @@
       </c>
       <c r="R36" s="39"/>
       <c r="S36" s="39"/>
-      <c r="T36" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U36" s="87" t="s">
+      <c r="T36" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U36" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V36" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W36" s="87" t="s">
+      <c r="W36" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="X36" s="87" t="s">
+      <c r="X36" s="86" t="s">
         <v>23</v>
       </c>
       <c r="Y36" s="40"/>
@@ -11102,17 +11102,17 @@
       <c r="I37" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="J37" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K37" s="86" t="s">
+      <c r="J37" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L37" s="7"/>
-      <c r="M37" s="86" t="s">
+      <c r="M37" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="86" t="s">
+      <c r="N37" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O37" s="26" t="s">
@@ -11126,19 +11126,19 @@
       </c>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
-      <c r="T37" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U37" s="86" t="s">
+      <c r="T37" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U37" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W37" s="86" t="s">
+      <c r="W37" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="X37" s="86" t="s">
+      <c r="X37" s="87" t="s">
         <v>23</v>
       </c>
       <c r="Y37" s="26"/>
@@ -11172,17 +11172,17 @@
       <c r="I38" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="J38" s="87" t="s">
+      <c r="J38" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="87" t="s">
+      <c r="K38" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L38" s="39"/>
-      <c r="M38" s="87" t="s">
+      <c r="M38" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N38" s="87" t="s">
+      <c r="N38" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O38" s="40" t="s">
@@ -11196,19 +11196,19 @@
       </c>
       <c r="R38" s="39"/>
       <c r="S38" s="39"/>
-      <c r="T38" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U38" s="87" t="s">
+      <c r="T38" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U38" s="86" t="s">
         <v>30</v>
       </c>
       <c r="V38" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W38" s="87" t="s">
+      <c r="W38" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="X38" s="87" t="s">
+      <c r="X38" s="86" t="s">
         <v>23</v>
       </c>
       <c r="Y38" s="40"/>
@@ -11242,17 +11242,17 @@
       <c r="I39" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J39" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K39" s="86" t="s">
+      <c r="J39" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="7"/>
-      <c r="M39" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N39" s="86" t="s">
+      <c r="M39" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N39" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="26" t="s">
@@ -11266,19 +11266,19 @@
       </c>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
-      <c r="T39" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U39" s="86" t="s">
+      <c r="T39" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U39" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V39" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W39" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X39" s="86" t="s">
+      <c r="W39" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X39" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y39" s="26"/>
@@ -11312,19 +11312,19 @@
       <c r="I40" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="K40" s="92" t="s">
+      <c r="J40" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="98" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="N40" s="92" t="s">
+      <c r="M40" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="N40" s="98" t="s">
         <v>24</v>
       </c>
       <c r="O40" s="49" t="s">
@@ -11338,19 +11338,19 @@
       </c>
       <c r="R40" s="48"/>
       <c r="S40" s="48"/>
-      <c r="T40" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="U40" s="92" t="s">
+      <c r="T40" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="U40" s="98" t="s">
         <v>30</v>
       </c>
       <c r="V40" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="W40" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="X40" s="92" t="s">
+      <c r="W40" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="X40" s="98" t="s">
         <v>30</v>
       </c>
       <c r="Y40" s="49"/>
@@ -11384,17 +11384,17 @@
       <c r="I41" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="93" t="s">
+      <c r="J41" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="K41" s="93" t="s">
+      <c r="K41" s="99" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="31"/>
-      <c r="M41" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="N41" s="93" t="s">
+      <c r="M41" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="N41" s="99" t="s">
         <v>24</v>
       </c>
       <c r="O41" s="32" t="s">
@@ -11408,19 +11408,19 @@
       </c>
       <c r="R41" s="31"/>
       <c r="S41" s="31"/>
-      <c r="T41" s="93" t="s">
+      <c r="T41" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="U41" s="93" t="s">
+      <c r="U41" s="99" t="s">
         <v>23</v>
       </c>
       <c r="V41" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="W41" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="X41" s="93" t="s">
+      <c r="W41" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="X41" s="99" t="s">
         <v>30</v>
       </c>
       <c r="Y41" s="32"/>
@@ -11454,17 +11454,17 @@
       <c r="I42" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K42" s="87" t="s">
+      <c r="J42" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L42" s="39"/>
-      <c r="M42" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N42" s="87" t="s">
+      <c r="M42" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N42" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O42" s="40" t="s">
@@ -11478,19 +11478,19 @@
       </c>
       <c r="R42" s="39"/>
       <c r="S42" s="39"/>
-      <c r="T42" s="87" t="s">
+      <c r="T42" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="U42" s="87" t="s">
+      <c r="U42" s="86" t="s">
         <v>38</v>
       </c>
       <c r="V42" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W42" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X42" s="87" t="s">
+      <c r="W42" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X42" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y42" s="40"/>
@@ -11524,19 +11524,19 @@
       <c r="I43" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="J43" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K43" s="86" t="s">
+      <c r="J43" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M43" s="86" t="s">
+      <c r="M43" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N43" s="86" t="s">
+      <c r="N43" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O43" s="26" t="s">
@@ -11550,19 +11550,19 @@
       </c>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
-      <c r="T43" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U43" s="86" t="s">
+      <c r="T43" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U43" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V43" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W43" s="86" t="s">
+      <c r="W43" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="X43" s="86" t="s">
+      <c r="X43" s="87" t="s">
         <v>23</v>
       </c>
       <c r="Y43" s="26"/>
@@ -11596,17 +11596,17 @@
       <c r="I44" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="J44" s="87" t="s">
+      <c r="J44" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="K44" s="87" t="s">
+      <c r="K44" s="86" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="39"/>
-      <c r="M44" s="87" t="s">
+      <c r="M44" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="N44" s="87" t="s">
+      <c r="N44" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O44" s="40" t="s">
@@ -11620,19 +11620,19 @@
       </c>
       <c r="R44" s="39"/>
       <c r="S44" s="39"/>
-      <c r="T44" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U44" s="87" t="s">
+      <c r="T44" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U44" s="86" t="s">
         <v>26</v>
       </c>
       <c r="V44" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W44" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X44" s="87" t="s">
+      <c r="W44" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X44" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y44" s="40"/>
@@ -11666,17 +11666,17 @@
       <c r="I45" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="J45" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K45" s="86" t="s">
+      <c r="J45" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L45" s="7"/>
-      <c r="M45" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N45" s="86" t="s">
+      <c r="M45" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N45" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O45" s="26" t="s">
@@ -11690,19 +11690,19 @@
       </c>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
-      <c r="T45" s="86" t="s">
+      <c r="T45" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="U45" s="86" t="s">
+      <c r="U45" s="87" t="s">
         <v>182</v>
       </c>
       <c r="V45" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W45" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X45" s="86" t="s">
+      <c r="W45" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X45" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y45" s="26"/>
@@ -11736,17 +11736,17 @@
       <c r="I46" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J46" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K46" s="87" t="s">
+      <c r="J46" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K46" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="39"/>
-      <c r="M46" s="87" t="s">
+      <c r="M46" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N46" s="87" t="s">
+      <c r="N46" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O46" s="40" t="s">
@@ -11760,19 +11760,19 @@
       </c>
       <c r="R46" s="39"/>
       <c r="S46" s="39"/>
-      <c r="T46" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U46" s="87" t="s">
+      <c r="T46" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U46" s="86" t="s">
         <v>30</v>
       </c>
       <c r="V46" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W46" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X46" s="87" t="s">
+      <c r="W46" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X46" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y46" s="40"/>
@@ -11806,17 +11806,17 @@
       <c r="I47" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J47" s="86" t="s">
+      <c r="J47" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K47" s="86" t="s">
+      <c r="K47" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L47" s="7"/>
-      <c r="M47" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N47" s="86" t="s">
+      <c r="M47" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N47" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O47" s="26" t="s">
@@ -11830,19 +11830,19 @@
       </c>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
-      <c r="T47" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U47" s="86" t="s">
+      <c r="T47" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U47" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V47" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W47" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X47" s="86" t="s">
+      <c r="W47" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X47" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y47" s="26"/>
@@ -11876,17 +11876,17 @@
       <c r="I48" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="J48" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K48" s="87" t="s">
+      <c r="J48" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K48" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L48" s="39"/>
-      <c r="M48" s="87" t="s">
+      <c r="M48" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N48" s="87" t="s">
+      <c r="N48" s="86" t="s">
         <v>66</v>
       </c>
       <c r="O48" s="40" t="s">
@@ -11900,19 +11900,19 @@
       </c>
       <c r="R48" s="39"/>
       <c r="S48" s="39"/>
-      <c r="T48" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U48" s="87" t="s">
+      <c r="T48" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U48" s="86" t="s">
         <v>30</v>
       </c>
       <c r="V48" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W48" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X48" s="87" t="s">
+      <c r="W48" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X48" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y48" s="40"/>
@@ -11946,17 +11946,17 @@
       <c r="I49" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="J49" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K49" s="86" t="s">
+      <c r="J49" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K49" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="7"/>
-      <c r="M49" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N49" s="86" t="s">
+      <c r="M49" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N49" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O49" s="26" t="s">
@@ -11970,19 +11970,19 @@
       </c>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
-      <c r="T49" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U49" s="86" t="s">
+      <c r="T49" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U49" s="87" t="s">
         <v>26</v>
       </c>
       <c r="V49" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W49" s="86" t="s">
+      <c r="W49" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="X49" s="86" t="s">
+      <c r="X49" s="87" t="s">
         <v>23</v>
       </c>
       <c r="Y49" s="26"/>
@@ -12016,17 +12016,17 @@
       <c r="I50" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="J50" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K50" s="87" t="s">
+      <c r="J50" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K50" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="39"/>
-      <c r="M50" s="87" t="s">
+      <c r="M50" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="N50" s="87" t="s">
+      <c r="N50" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O50" s="40" t="s">
@@ -12040,19 +12040,19 @@
       </c>
       <c r="R50" s="39"/>
       <c r="S50" s="39"/>
-      <c r="T50" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U50" s="87" t="s">
+      <c r="T50" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U50" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V50" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W50" s="87" t="s">
+      <c r="W50" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="X50" s="87" t="s">
+      <c r="X50" s="86" t="s">
         <v>23</v>
       </c>
       <c r="Y50" s="40"/>
@@ -12086,17 +12086,17 @@
       <c r="I51" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="J51" s="86" t="s">
+      <c r="J51" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="K51" s="86" t="s">
+      <c r="K51" s="87" t="s">
         <v>38</v>
       </c>
       <c r="L51" s="7"/>
-      <c r="M51" s="86" t="s">
+      <c r="M51" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="N51" s="86" t="s">
+      <c r="N51" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O51" s="26" t="s">
@@ -12110,19 +12110,19 @@
       </c>
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
-      <c r="T51" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U51" s="86" t="s">
+      <c r="T51" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U51" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V51" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W51" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X51" s="86" t="s">
+      <c r="W51" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X51" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y51" s="26"/>
@@ -12156,19 +12156,19 @@
       <c r="I52" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="J52" s="87" t="s">
+      <c r="J52" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="87" t="s">
+      <c r="K52" s="86" t="s">
         <v>71</v>
       </c>
       <c r="L52" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M52" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N52" s="87" t="s">
+      <c r="M52" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N52" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O52" s="40" t="s">
@@ -12182,19 +12182,19 @@
       </c>
       <c r="R52" s="39"/>
       <c r="S52" s="39"/>
-      <c r="T52" s="87" t="s">
+      <c r="T52" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="U52" s="87" t="s">
+      <c r="U52" s="86" t="s">
         <v>71</v>
       </c>
       <c r="V52" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W52" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X52" s="87" t="s">
+      <c r="W52" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X52" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y52" s="40"/>
@@ -12228,19 +12228,19 @@
       <c r="I53" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="J53" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K53" s="86" t="s">
+      <c r="J53" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M53" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N53" s="86" t="s">
+      <c r="M53" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N53" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O53" s="26" t="s">
@@ -12254,19 +12254,19 @@
       </c>
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
-      <c r="T53" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U53" s="86" t="s">
+      <c r="T53" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U53" s="87" t="s">
         <v>30</v>
       </c>
       <c r="V53" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W53" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X53" s="86" t="s">
+      <c r="W53" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X53" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y53" s="26"/>
@@ -12300,17 +12300,17 @@
       <c r="I54" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="J54" s="87" t="s">
+      <c r="J54" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="K54" s="87" t="s">
+      <c r="K54" s="86" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="39"/>
-      <c r="M54" s="87" t="s">
+      <c r="M54" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N54" s="87" t="s">
+      <c r="N54" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O54" s="40" t="s">
@@ -12324,19 +12324,19 @@
       </c>
       <c r="R54" s="39"/>
       <c r="S54" s="39"/>
-      <c r="T54" s="87" t="s">
+      <c r="T54" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="U54" s="87" t="s">
+      <c r="U54" s="86" t="s">
         <v>182</v>
       </c>
       <c r="V54" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W54" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X54" s="87" t="s">
+      <c r="W54" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X54" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y54" s="40"/>
@@ -12370,17 +12370,17 @@
       <c r="I55" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="J55" s="86" t="s">
+      <c r="J55" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K55" s="86" t="s">
+      <c r="K55" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L55" s="7"/>
-      <c r="M55" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N55" s="86" t="s">
+      <c r="M55" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N55" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O55" s="26" t="s">
@@ -12394,19 +12394,19 @@
       </c>
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
-      <c r="T55" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U55" s="86" t="s">
+      <c r="T55" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U55" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V55" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W55" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X55" s="86" t="s">
+      <c r="W55" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X55" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y55" s="26"/>
@@ -12440,17 +12440,17 @@
       <c r="I56" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="J56" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K56" s="87" t="s">
+      <c r="J56" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K56" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L56" s="39"/>
-      <c r="M56" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N56" s="87" t="s">
+      <c r="M56" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N56" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O56" s="40" t="s">
@@ -12464,19 +12464,19 @@
       </c>
       <c r="R56" s="39"/>
       <c r="S56" s="39"/>
-      <c r="T56" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U56" s="87" t="s">
+      <c r="T56" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U56" s="86" t="s">
         <v>26</v>
       </c>
       <c r="V56" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W56" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X56" s="87" t="s">
+      <c r="W56" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X56" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y56" s="40"/>
@@ -12510,19 +12510,19 @@
       <c r="I57" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="J57" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K57" s="86" t="s">
+      <c r="J57" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K57" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M57" s="86" t="s">
+      <c r="M57" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N57" s="86" t="s">
+      <c r="N57" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O57" s="26" t="s">
@@ -12536,19 +12536,19 @@
       </c>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
-      <c r="T57" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U57" s="86" t="s">
+      <c r="T57" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U57" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V57" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W57" s="86" t="s">
+      <c r="W57" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="X57" s="86" t="s">
+      <c r="X57" s="87" t="s">
         <v>25</v>
       </c>
       <c r="Y57" s="26"/>
@@ -12582,17 +12582,17 @@
       <c r="I58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="J58" s="87" t="s">
+      <c r="J58" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="K58" s="87" t="s">
+      <c r="K58" s="86" t="s">
         <v>28</v>
       </c>
       <c r="L58" s="39"/>
-      <c r="M58" s="87" t="s">
+      <c r="M58" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="N58" s="87" t="s">
+      <c r="N58" s="86" t="s">
         <v>78</v>
       </c>
       <c r="O58" s="40" t="s">
@@ -12606,19 +12606,19 @@
       </c>
       <c r="R58" s="39"/>
       <c r="S58" s="39"/>
-      <c r="T58" s="87" t="s">
+      <c r="T58" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="U58" s="87" t="s">
+      <c r="U58" s="86" t="s">
         <v>38</v>
       </c>
       <c r="V58" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W58" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X58" s="87" t="s">
+      <c r="W58" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X58" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y58" s="40"/>
@@ -12652,17 +12652,17 @@
       <c r="I59" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="J59" s="86" t="s">
+      <c r="J59" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="K59" s="86" t="s">
+      <c r="K59" s="87" t="s">
         <v>38</v>
       </c>
       <c r="L59" s="7"/>
-      <c r="M59" s="86" t="s">
+      <c r="M59" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N59" s="86" t="s">
+      <c r="N59" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O59" s="26" t="s">
@@ -12676,19 +12676,19 @@
       </c>
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
-      <c r="T59" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U59" s="86" t="s">
+      <c r="T59" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U59" s="87" t="s">
         <v>26</v>
       </c>
       <c r="V59" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W59" s="86" t="s">
+      <c r="W59" s="87" t="s">
         <v>184</v>
       </c>
-      <c r="X59" s="86" t="s">
+      <c r="X59" s="87" t="s">
         <v>185</v>
       </c>
       <c r="Y59" s="26"/>
@@ -12708,11 +12708,11 @@
       <c r="G60" s="51"/>
       <c r="H60" s="51"/>
       <c r="I60" s="50"/>
-      <c r="J60" s="90"/>
-      <c r="K60" s="91"/>
+      <c r="J60" s="100"/>
+      <c r="K60" s="101"/>
       <c r="L60" s="51"/>
-      <c r="M60" s="90"/>
-      <c r="N60" s="91"/>
+      <c r="M60" s="100"/>
+      <c r="N60" s="101"/>
       <c r="O60" s="52"/>
       <c r="P60" s="66"/>
       <c r="Q60" s="39" t="s">
@@ -12720,19 +12720,19 @@
       </c>
       <c r="R60" s="39"/>
       <c r="S60" s="39"/>
-      <c r="T60" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U60" s="87" t="s">
+      <c r="T60" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U60" s="86" t="s">
         <v>26</v>
       </c>
       <c r="V60" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W60" s="87" t="s">
+      <c r="W60" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="X60" s="87" t="s">
+      <c r="X60" s="86" t="s">
         <v>23</v>
       </c>
       <c r="Y60" s="52"/>
@@ -12750,11 +12750,11 @@
       <c r="G61" s="31"/>
       <c r="H61" s="31"/>
       <c r="I61" s="30"/>
-      <c r="J61" s="88"/>
-      <c r="K61" s="89"/>
+      <c r="J61" s="102"/>
+      <c r="K61" s="103"/>
       <c r="L61" s="31"/>
-      <c r="M61" s="88"/>
-      <c r="N61" s="89"/>
+      <c r="M61" s="102"/>
+      <c r="N61" s="103"/>
       <c r="O61" s="32"/>
       <c r="P61" s="65"/>
       <c r="Q61" s="32"/>
@@ -12780,11 +12780,11 @@
       <c r="G62" s="51"/>
       <c r="H62" s="51"/>
       <c r="I62" s="50"/>
-      <c r="J62" s="90"/>
-      <c r="K62" s="91"/>
+      <c r="J62" s="100"/>
+      <c r="K62" s="101"/>
       <c r="L62" s="51"/>
-      <c r="M62" s="90"/>
-      <c r="N62" s="91"/>
+      <c r="M62" s="100"/>
+      <c r="N62" s="101"/>
       <c r="O62" s="52"/>
       <c r="P62" s="66"/>
       <c r="Q62" s="52"/>
@@ -12810,11 +12810,11 @@
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
       <c r="I63" s="30"/>
-      <c r="J63" s="88"/>
-      <c r="K63" s="89"/>
+      <c r="J63" s="102"/>
+      <c r="K63" s="103"/>
       <c r="L63" s="31"/>
-      <c r="M63" s="88"/>
-      <c r="N63" s="89"/>
+      <c r="M63" s="102"/>
+      <c r="N63" s="103"/>
       <c r="O63" s="32"/>
       <c r="P63" s="65"/>
       <c r="Q63" s="32"/>
@@ -12840,11 +12840,11 @@
       <c r="G64" s="51"/>
       <c r="H64" s="51"/>
       <c r="I64" s="50"/>
-      <c r="J64" s="90"/>
-      <c r="K64" s="91"/>
+      <c r="J64" s="100"/>
+      <c r="K64" s="101"/>
       <c r="L64" s="51"/>
-      <c r="M64" s="90"/>
-      <c r="N64" s="91"/>
+      <c r="M64" s="100"/>
+      <c r="N64" s="101"/>
       <c r="O64" s="52"/>
       <c r="P64" s="66"/>
       <c r="Q64" s="52"/>
@@ -12870,11 +12870,11 @@
       <c r="G65" s="31"/>
       <c r="H65" s="31"/>
       <c r="I65" s="30"/>
-      <c r="J65" s="88"/>
-      <c r="K65" s="89"/>
+      <c r="J65" s="102"/>
+      <c r="K65" s="103"/>
       <c r="L65" s="31"/>
-      <c r="M65" s="88"/>
-      <c r="N65" s="89"/>
+      <c r="M65" s="102"/>
+      <c r="N65" s="103"/>
       <c r="O65" s="32"/>
       <c r="P65" s="65"/>
       <c r="Q65" s="32"/>
@@ -12914,17 +12914,17 @@
       <c r="I66" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J66" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K66" s="87" t="s">
+      <c r="J66" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K66" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L66" s="39"/>
-      <c r="M66" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N66" s="87" t="s">
+      <c r="M66" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N66" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O66" s="40" t="s">
@@ -13007,96 +13007,97 @@
     <row r="69" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="205">
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="W47:X47"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="W48:X48"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="W54:X54"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="W56:X56"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="W57:X57"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="I6:I13"/>
+    <mergeCell ref="Z6:Z13"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
     <mergeCell ref="T59:U59"/>
     <mergeCell ref="W59:X59"/>
     <mergeCell ref="T60:U60"/>
@@ -13121,97 +13122,96 @@
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="M24:N24"/>
     <mergeCell ref="M25:N25"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="I6:I13"/>
-    <mergeCell ref="Z6:Z13"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="W54:X54"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="W56:X56"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="W18:X18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:F6 I6:N6 Z6:IV6">

--- a/app/xlsx/4月_5月シフト.xlsx
+++ b/app/xlsx/4月_5月シフト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiha\OneDrive\デスクトップ\MyPrograming\MyGo\rolemaster0.5\RoleMaserV0.5\app\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87DCA98-1860-4352-A0C1-A99F5292A1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8384A8-A824-479E-97E0-1B904245027F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="267">
   <si>
     <t>ミエルココン</t>
   </si>
@@ -917,10 +917,6 @@
   </si>
   <si>
     <t>修 15:30-21:30</t>
-  </si>
-  <si>
-    <t>15：30－21：30</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>修 08:30-12:00</t>
@@ -1976,10 +1972,28 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2012,35 +2026,17 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2593,11 +2589,11 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="88"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="97" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="8">
@@ -2615,7 +2611,7 @@
       <c r="H6" s="8">
         <v>15</v>
       </c>
-      <c r="I6" s="94" t="s">
+      <c r="I6" s="100" t="s">
         <v>167</v>
       </c>
       <c r="J6" s="8">
@@ -2638,11 +2634,11 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="89"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="92"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2658,7 +2654,7 @@
       <c r="H7" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I7" s="95"/>
+      <c r="I7" s="101"/>
       <c r="J7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2679,11 +2675,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="89"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="92"/>
+      <c r="C8" s="98"/>
       <c r="D8" s="7">
         <v>68</v>
       </c>
@@ -2697,7 +2693,7 @@
         <v>60</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="95"/>
+      <c r="I8" s="101"/>
       <c r="J8" s="7">
         <v>90</v>
       </c>
@@ -2716,11 +2712,11 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="89"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="92"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="17">
         <v>14</v>
       </c>
@@ -2736,7 +2732,7 @@
       <c r="H9" s="17">
         <v>10</v>
       </c>
-      <c r="I9" s="95"/>
+      <c r="I9" s="101"/>
       <c r="J9" s="17">
         <v>18</v>
       </c>
@@ -2755,11 +2751,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="89"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="92"/>
+      <c r="C10" s="98"/>
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2773,7 +2769,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="95"/>
+      <c r="I10" s="101"/>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2792,11 +2788,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="89"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="92"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="7" t="s">
         <v>94</v>
       </c>
@@ -2812,7 +2808,7 @@
       <c r="H11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="95"/>
+      <c r="I11" s="101"/>
       <c r="J11" s="7" t="s">
         <v>97</v>
       </c>
@@ -2831,11 +2827,11 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="89"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="92"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2851,7 +2847,7 @@
       <c r="H12" s="18">
         <v>0.6875</v>
       </c>
-      <c r="I12" s="95"/>
+      <c r="I12" s="101"/>
       <c r="J12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2872,11 +2868,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="90"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="93"/>
+      <c r="C13" s="99"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2892,7 +2888,7 @@
       <c r="H13" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="96"/>
+      <c r="I13" s="102"/>
       <c r="J13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2938,17 +2934,17 @@
       <c r="I14" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="97" t="s">
+      <c r="J14" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="97" t="s">
+      <c r="K14" s="103" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="43"/>
-      <c r="M14" s="97" t="s">
+      <c r="M14" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="97" t="s">
+      <c r="N14" s="103" t="s">
         <v>23</v>
       </c>
       <c r="O14" s="44" t="s">
@@ -2981,19 +2977,19 @@
       <c r="I15" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="J15" s="87" t="s">
+      <c r="J15" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="87" t="s">
+      <c r="K15" s="86" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="87" t="s">
+      <c r="M15" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="87" t="s">
+      <c r="N15" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O15" s="26" t="s">
@@ -3026,17 +3022,17 @@
       <c r="I16" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="J16" s="86" t="s">
+      <c r="J16" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="86" t="s">
+      <c r="K16" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="86" t="s">
+      <c r="M16" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="86" t="s">
+      <c r="N16" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="40" t="s">
@@ -3069,17 +3065,17 @@
       <c r="I17" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="87" t="s">
+      <c r="J17" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N17" s="87" t="s">
+      <c r="M17" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O17" s="26" t="s">
@@ -3112,17 +3108,17 @@
       <c r="I18" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="86" t="s">
+      <c r="J18" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="86" t="s">
+      <c r="K18" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="39"/>
-      <c r="M18" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N18" s="86" t="s">
+      <c r="M18" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O18" s="40" t="s">
@@ -3155,17 +3151,17 @@
       <c r="I19" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="J19" s="87" t="s">
+      <c r="J19" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="87" t="s">
+      <c r="K19" s="86" t="s">
         <v>34</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="87" t="s">
+      <c r="M19" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="87" t="s">
+      <c r="N19" s="86" t="s">
         <v>28</v>
       </c>
       <c r="O19" s="26" t="s">
@@ -3198,17 +3194,17 @@
       <c r="I20" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J20" s="86" t="s">
+      <c r="J20" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="86" t="s">
+      <c r="K20" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="39"/>
-      <c r="M20" s="86" t="s">
+      <c r="M20" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="86" t="s">
+      <c r="N20" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O20" s="40" t="s">
@@ -3241,17 +3237,17 @@
       <c r="I21" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J21" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="87" t="s">
+      <c r="J21" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="87" t="s">
+      <c r="M21" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="87" t="s">
+      <c r="N21" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="26" t="s">
@@ -3284,17 +3280,17 @@
       <c r="I22" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="J22" s="86" t="s">
+      <c r="J22" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="86" t="s">
+      <c r="K22" s="87" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="39"/>
-      <c r="M22" s="86" t="s">
+      <c r="M22" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="N22" s="86" t="s">
+      <c r="N22" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O22" s="40" t="s">
@@ -3327,19 +3323,19 @@
       <c r="I23" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J23" s="87" t="s">
+      <c r="J23" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="87" t="s">
+      <c r="K23" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M23" s="87" t="s">
+      <c r="M23" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="87" t="s">
+      <c r="N23" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O23" s="26" t="s">
@@ -3372,17 +3368,17 @@
       <c r="I24" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="J24" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K24" s="86" t="s">
+      <c r="J24" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="39"/>
-      <c r="M24" s="86" t="s">
+      <c r="M24" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="86" t="s">
+      <c r="N24" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="40" t="s">
@@ -3415,17 +3411,17 @@
       <c r="I25" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="J25" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="87" t="s">
+      <c r="J25" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="86" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" s="87" t="s">
+      <c r="M25" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="86" t="s">
         <v>30</v>
       </c>
       <c r="O25" s="26" t="s">
@@ -3458,19 +3454,19 @@
       <c r="I26" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="86" t="s">
+      <c r="J26" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="86" t="s">
+      <c r="K26" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M26" s="86" t="s">
+      <c r="M26" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="86" t="s">
+      <c r="N26" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O26" s="40" t="s">
@@ -3503,17 +3499,17 @@
       <c r="I27" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="J27" s="87" t="s">
+      <c r="J27" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="87" t="s">
+      <c r="K27" s="86" t="s">
         <v>44</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N27" s="87" t="s">
+      <c r="M27" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O27" s="26" t="s">
@@ -3546,19 +3542,19 @@
       <c r="I28" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="J28" s="86" t="s">
+      <c r="J28" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="86" t="s">
+      <c r="K28" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="86" t="s">
+      <c r="M28" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N28" s="86" t="s">
+      <c r="N28" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O28" s="40" t="s">
@@ -3591,17 +3587,17 @@
       <c r="I29" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="J29" s="87" t="s">
+      <c r="J29" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="87" t="s">
+      <c r="K29" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="87" t="s">
+      <c r="M29" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N29" s="87" t="s">
+      <c r="N29" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O29" s="26" t="s">
@@ -3634,17 +3630,17 @@
       <c r="I30" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="J30" s="86" t="s">
+      <c r="J30" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="86" t="s">
+      <c r="K30" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="39"/>
-      <c r="M30" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N30" s="86" t="s">
+      <c r="M30" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="87" t="s">
         <v>26</v>
       </c>
       <c r="O30" s="40" t="s">
@@ -3677,17 +3673,17 @@
       <c r="I31" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="J31" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" s="87" t="s">
+      <c r="J31" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="7"/>
-      <c r="M31" s="87" t="s">
+      <c r="M31" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N31" s="87" t="s">
+      <c r="N31" s="86" t="s">
         <v>28</v>
       </c>
       <c r="O31" s="26" t="s">
@@ -3720,17 +3716,17 @@
       <c r="I32" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J32" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K32" s="86" t="s">
+      <c r="J32" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="39"/>
-      <c r="M32" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N32" s="86" t="s">
+      <c r="M32" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N32" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="40" t="s">
@@ -3763,17 +3759,17 @@
       <c r="I33" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="J33" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" s="87" t="s">
+      <c r="J33" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="M33" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N33" s="87" t="s">
+      <c r="M33" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N33" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O33" s="26" t="s">
@@ -3806,17 +3802,17 @@
       <c r="I34" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="J34" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K34" s="86" t="s">
+      <c r="J34" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K34" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="39"/>
-      <c r="M34" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N34" s="86" t="s">
+      <c r="M34" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N34" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O34" s="40" t="s">
@@ -3849,17 +3845,17 @@
       <c r="I35" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="J35" s="87" t="s">
+      <c r="J35" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="K35" s="87" t="s">
+      <c r="K35" s="86" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="7"/>
-      <c r="M35" s="87" t="s">
+      <c r="M35" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N35" s="87" t="s">
+      <c r="N35" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O35" s="26" t="s">
@@ -3892,17 +3888,17 @@
       <c r="I36" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="J36" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K36" s="86" t="s">
+      <c r="J36" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K36" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L36" s="39"/>
-      <c r="M36" s="86" t="s">
+      <c r="M36" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="86" t="s">
+      <c r="N36" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O36" s="40" t="s">
@@ -3935,17 +3931,17 @@
       <c r="I37" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="J37" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K37" s="87" t="s">
+      <c r="J37" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L37" s="7"/>
-      <c r="M37" s="87" t="s">
+      <c r="M37" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="87" t="s">
+      <c r="N37" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O37" s="26" t="s">
@@ -3978,17 +3974,17 @@
       <c r="I38" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="J38" s="86" t="s">
+      <c r="J38" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="86" t="s">
+      <c r="K38" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L38" s="39"/>
-      <c r="M38" s="86" t="s">
+      <c r="M38" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N38" s="86" t="s">
+      <c r="N38" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O38" s="40" t="s">
@@ -4021,17 +4017,17 @@
       <c r="I39" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J39" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K39" s="87" t="s">
+      <c r="J39" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="7"/>
-      <c r="M39" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N39" s="87" t="s">
+      <c r="M39" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N39" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="26" t="s">
@@ -4064,19 +4060,19 @@
       <c r="I40" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="98" t="s">
-        <v>91</v>
-      </c>
-      <c r="K40" s="98" t="s">
+      <c r="J40" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="92" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="98" t="s">
-        <v>91</v>
-      </c>
-      <c r="N40" s="98" t="s">
+      <c r="M40" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="N40" s="92" t="s">
         <v>24</v>
       </c>
       <c r="O40" s="49" t="s">
@@ -4109,17 +4105,17 @@
       <c r="I41" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="99" t="s">
+      <c r="J41" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="K41" s="99" t="s">
+      <c r="K41" s="93" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="31"/>
-      <c r="M41" s="99" t="s">
-        <v>91</v>
-      </c>
-      <c r="N41" s="99" t="s">
+      <c r="M41" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="N41" s="93" t="s">
         <v>24</v>
       </c>
       <c r="O41" s="32" t="s">
@@ -4152,17 +4148,17 @@
       <c r="I42" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K42" s="86" t="s">
+      <c r="J42" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L42" s="39"/>
-      <c r="M42" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N42" s="86" t="s">
+      <c r="M42" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N42" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O42" s="40" t="s">
@@ -4195,19 +4191,19 @@
       <c r="I43" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="J43" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K43" s="87" t="s">
+      <c r="J43" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M43" s="87" t="s">
+      <c r="M43" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N43" s="87" t="s">
+      <c r="N43" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O43" s="26" t="s">
@@ -4240,17 +4236,17 @@
       <c r="I44" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="J44" s="86" t="s">
+      <c r="J44" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="K44" s="86" t="s">
+      <c r="K44" s="87" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="39"/>
-      <c r="M44" s="86" t="s">
+      <c r="M44" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="N44" s="86" t="s">
+      <c r="N44" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O44" s="40" t="s">
@@ -4283,17 +4279,17 @@
       <c r="I45" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="J45" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K45" s="87" t="s">
+      <c r="J45" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L45" s="7"/>
-      <c r="M45" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N45" s="87" t="s">
+      <c r="M45" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N45" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O45" s="26" t="s">
@@ -4326,17 +4322,17 @@
       <c r="I46" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J46" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K46" s="86" t="s">
+      <c r="J46" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K46" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="39"/>
-      <c r="M46" s="86" t="s">
+      <c r="M46" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N46" s="86" t="s">
+      <c r="N46" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O46" s="40" t="s">
@@ -4369,17 +4365,17 @@
       <c r="I47" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J47" s="87" t="s">
+      <c r="J47" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K47" s="87" t="s">
+      <c r="K47" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L47" s="7"/>
-      <c r="M47" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N47" s="87" t="s">
+      <c r="M47" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N47" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O47" s="26" t="s">
@@ -4412,17 +4408,17 @@
       <c r="I48" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="J48" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K48" s="86" t="s">
+      <c r="J48" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K48" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L48" s="39"/>
-      <c r="M48" s="86" t="s">
+      <c r="M48" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N48" s="86" t="s">
+      <c r="N48" s="87" t="s">
         <v>66</v>
       </c>
       <c r="O48" s="40" t="s">
@@ -4455,17 +4451,17 @@
       <c r="I49" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="J49" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K49" s="87" t="s">
+      <c r="J49" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K49" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="7"/>
-      <c r="M49" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N49" s="87" t="s">
+      <c r="M49" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N49" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O49" s="26" t="s">
@@ -4498,17 +4494,17 @@
       <c r="I50" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="J50" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K50" s="86" t="s">
+      <c r="J50" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K50" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="39"/>
-      <c r="M50" s="86" t="s">
+      <c r="M50" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="N50" s="86" t="s">
+      <c r="N50" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O50" s="40" t="s">
@@ -4541,17 +4537,17 @@
       <c r="I51" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="J51" s="87" t="s">
+      <c r="J51" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="K51" s="87" t="s">
+      <c r="K51" s="86" t="s">
         <v>38</v>
       </c>
       <c r="L51" s="7"/>
-      <c r="M51" s="87" t="s">
+      <c r="M51" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="N51" s="87" t="s">
+      <c r="N51" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O51" s="26" t="s">
@@ -4584,19 +4580,19 @@
       <c r="I52" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="J52" s="86" t="s">
+      <c r="J52" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="86" t="s">
+      <c r="K52" s="87" t="s">
         <v>71</v>
       </c>
       <c r="L52" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M52" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N52" s="86" t="s">
+      <c r="M52" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N52" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O52" s="40" t="s">
@@ -4629,19 +4625,19 @@
       <c r="I53" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="J53" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K53" s="87" t="s">
+      <c r="J53" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M53" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N53" s="87" t="s">
+      <c r="M53" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N53" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O53" s="26" t="s">
@@ -4674,17 +4670,17 @@
       <c r="I54" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="J54" s="86" t="s">
+      <c r="J54" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="K54" s="86" t="s">
+      <c r="K54" s="87" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="39"/>
-      <c r="M54" s="86" t="s">
+      <c r="M54" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N54" s="86" t="s">
+      <c r="N54" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O54" s="40" t="s">
@@ -4717,17 +4713,17 @@
       <c r="I55" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="J55" s="87" t="s">
+      <c r="J55" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K55" s="87" t="s">
+      <c r="K55" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L55" s="7"/>
-      <c r="M55" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N55" s="87" t="s">
+      <c r="M55" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N55" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O55" s="26" t="s">
@@ -4760,17 +4756,17 @@
       <c r="I56" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="J56" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K56" s="86" t="s">
+      <c r="J56" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K56" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L56" s="39"/>
-      <c r="M56" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N56" s="86" t="s">
+      <c r="M56" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N56" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O56" s="40" t="s">
@@ -4803,19 +4799,19 @@
       <c r="I57" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="J57" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K57" s="87" t="s">
+      <c r="J57" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K57" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M57" s="87" t="s">
+      <c r="M57" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N57" s="87" t="s">
+      <c r="N57" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O57" s="26" t="s">
@@ -4848,17 +4844,17 @@
       <c r="I58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="J58" s="86" t="s">
+      <c r="J58" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="K58" s="86" t="s">
+      <c r="K58" s="87" t="s">
         <v>28</v>
       </c>
       <c r="L58" s="39"/>
-      <c r="M58" s="86" t="s">
+      <c r="M58" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="N58" s="86" t="s">
+      <c r="N58" s="87" t="s">
         <v>78</v>
       </c>
       <c r="O58" s="40" t="s">
@@ -4891,17 +4887,17 @@
       <c r="I59" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="J59" s="87" t="s">
+      <c r="J59" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="K59" s="87" t="s">
+      <c r="K59" s="86" t="s">
         <v>38</v>
       </c>
       <c r="L59" s="7"/>
-      <c r="M59" s="87" t="s">
+      <c r="M59" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N59" s="87" t="s">
+      <c r="N59" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O59" s="26" t="s">
@@ -4922,15 +4918,15 @@
       <c r="G60" s="51"/>
       <c r="H60" s="51"/>
       <c r="I60" s="50"/>
-      <c r="J60" s="100" t="s">
+      <c r="J60" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="K60" s="101"/>
+      <c r="K60" s="91"/>
       <c r="L60" s="51"/>
-      <c r="M60" s="86" t="s">
+      <c r="M60" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N60" s="86" t="s">
+      <c r="N60" s="87" t="s">
         <v>66</v>
       </c>
       <c r="O60" s="26" t="s">
@@ -4951,15 +4947,15 @@
       <c r="G61" s="31"/>
       <c r="H61" s="31"/>
       <c r="I61" s="30"/>
-      <c r="J61" s="102" t="s">
+      <c r="J61" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="K61" s="103"/>
+      <c r="K61" s="89"/>
       <c r="L61" s="31"/>
-      <c r="M61" s="87" t="s">
+      <c r="M61" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N61" s="87" t="s">
+      <c r="N61" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O61" s="40" t="s">
@@ -4980,17 +4976,17 @@
       <c r="G62" s="51"/>
       <c r="H62" s="51"/>
       <c r="I62" s="50"/>
-      <c r="J62" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K62" s="87" t="s">
+      <c r="J62" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K62" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L62" s="51"/>
-      <c r="M62" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N62" s="86" t="s">
+      <c r="M62" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N62" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O62" s="26" t="s">
@@ -5011,15 +5007,15 @@
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
       <c r="I63" s="30"/>
-      <c r="J63" s="102" t="s">
+      <c r="J63" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="K63" s="103"/>
+      <c r="K63" s="89"/>
       <c r="L63" s="31"/>
-      <c r="M63" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N63" s="86" t="s">
+      <c r="M63" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N63" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O63" s="26" t="s">
@@ -5040,17 +5036,17 @@
       <c r="G64" s="51"/>
       <c r="H64" s="51"/>
       <c r="I64" s="50"/>
-      <c r="J64" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K64" s="87" t="s">
+      <c r="J64" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K64" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L64" s="51"/>
-      <c r="M64" s="87" t="s">
+      <c r="M64" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N64" s="87" t="s">
+      <c r="N64" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O64" s="40" t="s">
@@ -5069,17 +5065,17 @@
       <c r="G65" s="31"/>
       <c r="H65" s="31"/>
       <c r="I65" s="30"/>
-      <c r="J65" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K65" s="87" t="s">
+      <c r="J65" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K65" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L65" s="31"/>
-      <c r="M65" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N65" s="86" t="s">
+      <c r="M65" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N65" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O65" s="40" t="s">
@@ -5112,17 +5108,17 @@
       <c r="I66" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J66" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K66" s="86" t="s">
+      <c r="J66" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K66" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L66" s="39"/>
-      <c r="M66" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N66" s="86" t="s">
+      <c r="M66" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N66" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O66" s="40" t="s">
@@ -5168,102 +5164,6 @@
     <row r="69" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:N21"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="J17:K17"/>
@@ -5277,6 +5177,102 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M15:N15"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="M63:N63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:F6 I6:N6">
@@ -5331,8 +5327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A1C220-DC63-401D-B66B-975EAA99E44B}">
   <dimension ref="A2:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58:H58"/>
+    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5403,11 +5399,11 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="88"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="97" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="8">
@@ -5457,11 +5453,11 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A7" s="89"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="92"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="7" t="s">
         <v>176</v>
       </c>
@@ -5509,11 +5505,11 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="89"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="92"/>
+      <c r="C8" s="98"/>
       <c r="D8" s="7">
         <v>12</v>
       </c>
@@ -5557,11 +5553,11 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A9" s="89"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="92"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="7">
         <v>6</v>
       </c>
@@ -5592,7 +5588,7 @@
         <v>96</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>98</v>
@@ -5605,11 +5601,11 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A10" s="89"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="92"/>
+      <c r="C10" s="98"/>
       <c r="D10" s="7" t="s">
         <v>179</v>
       </c>
@@ -5653,11 +5649,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A11" s="89"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="92"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -5689,11 +5685,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A12" s="89"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="92"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="7" t="s">
         <v>180</v>
       </c>
@@ -5737,11 +5733,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="90"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="93"/>
+      <c r="C13" s="99"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -5803,37 +5799,37 @@
       </c>
       <c r="E14" s="43"/>
       <c r="F14" s="43"/>
-      <c r="G14" s="97" t="s">
+      <c r="G14" s="103" t="s">
         <v>196</v>
       </c>
-      <c r="H14" s="97" t="s">
+      <c r="H14" s="103" t="s">
         <v>66</v>
       </c>
       <c r="I14" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="97" t="s">
+      <c r="J14" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="97" t="s">
+      <c r="K14" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="L14" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14" s="97" t="s">
-        <v>259</v>
-      </c>
-      <c r="N14" s="97" t="s">
-        <v>26</v>
+      <c r="L14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="86" t="s">
+        <v>258</v>
+      </c>
+      <c r="N14" s="86" t="s">
+        <v>258</v>
       </c>
       <c r="O14" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="P14" s="97" t="s">
+        <v>264</v>
+      </c>
+      <c r="P14" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="Q14" s="97" t="s">
+      <c r="Q14" s="103" t="s">
         <v>66</v>
       </c>
       <c r="R14" s="78" t="s">
@@ -5855,37 +5851,37 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="87" t="s">
+      <c r="G15" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="87" t="s">
+      <c r="H15" s="86" t="s">
         <v>66</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="87" t="s">
+      <c r="J15" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="87" t="s">
+      <c r="K15" s="86" t="s">
         <v>66</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="87" t="s">
+      <c r="M15" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="N15" s="87" t="s">
+      <c r="N15" s="86" t="s">
         <v>258</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="P15" s="87" t="s">
+        <v>264</v>
+      </c>
+      <c r="P15" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="Q15" s="87" t="s">
+      <c r="Q15" s="86" t="s">
         <v>66</v>
       </c>
       <c r="R15" s="69" t="s">
@@ -5907,41 +5903,41 @@
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
-      <c r="G16" s="86" t="s">
+      <c r="G16" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="86" t="s">
+      <c r="H16" s="87" t="s">
         <v>30</v>
       </c>
       <c r="I16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="86" t="s">
+      <c r="J16" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="86" t="s">
+      <c r="M16" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="N16" s="86" t="s">
+      <c r="N16" s="87" t="s">
         <v>66</v>
       </c>
       <c r="O16" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="P16" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="P16" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="Q16" s="86" t="s">
+      <c r="Q16" s="87" t="s">
         <v>38</v>
       </c>
       <c r="R16" s="79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.15">
@@ -5959,41 +5955,41 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="87" t="s">
+      <c r="G17" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="87" t="s">
+      <c r="J17" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="87" t="s">
+      <c r="M17" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="P17" s="87" t="s">
+        <v>264</v>
+      </c>
+      <c r="P17" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="Q17" s="87" t="s">
+      <c r="Q17" s="86" t="s">
         <v>30</v>
       </c>
       <c r="R17" s="69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.15">
@@ -6011,41 +6007,41 @@
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
-      <c r="G18" s="86" t="s">
+      <c r="G18" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="86" t="s">
+      <c r="H18" s="87" t="s">
         <v>66</v>
       </c>
       <c r="I18" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="86" t="s">
+      <c r="J18" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="N18" s="86" t="s">
+      <c r="M18" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="N18" s="87" t="s">
         <v>66</v>
       </c>
       <c r="O18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P18" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q18" s="86" t="s">
+      <c r="P18" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R18" s="79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.15">
@@ -6063,37 +6059,37 @@
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="87" t="s">
+      <c r="G19" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="87" t="s">
+      <c r="J19" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="K19" s="87" t="s">
+      <c r="K19" s="86" t="s">
         <v>66</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="87" t="s">
+      <c r="M19" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="P19" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19" s="87" t="s">
+        <v>264</v>
+      </c>
+      <c r="P19" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R19" s="69" t="s">
@@ -6115,41 +6111,41 @@
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
-      <c r="G20" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="86" t="s">
+      <c r="G20" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="86" t="s">
+      <c r="J20" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L20" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M20" s="86" t="s">
+      <c r="M20" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="N20" s="86" t="s">
+      <c r="N20" s="87" t="s">
         <v>66</v>
       </c>
       <c r="O20" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="P20" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="P20" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="Q20" s="86" t="s">
+      <c r="Q20" s="87" t="s">
         <v>66</v>
       </c>
       <c r="R20" s="79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.15">
@@ -6167,41 +6163,41 @@
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="87" t="s">
+      <c r="G21" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="86" t="s">
         <v>26</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="87" t="s">
+      <c r="J21" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="K21" s="87" t="s">
+      <c r="K21" s="86" t="s">
         <v>66</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M21" s="87" t="s">
+      <c r="M21" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="N21" s="87" t="s">
+      <c r="N21" s="86" t="s">
         <v>258</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P21" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q21" s="87" t="s">
+      <c r="P21" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R21" s="69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.15">
@@ -6219,37 +6215,37 @@
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
-      <c r="G22" s="86" t="s">
+      <c r="G22" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="86" t="s">
+      <c r="H22" s="87" t="s">
         <v>66</v>
       </c>
       <c r="I22" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="86" t="s">
+      <c r="J22" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="86" t="s">
+      <c r="K22" s="87" t="s">
         <v>38</v>
       </c>
       <c r="L22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="86" t="s">
+      <c r="M22" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="N22" s="86" t="s">
+      <c r="N22" s="87" t="s">
         <v>66</v>
       </c>
       <c r="O22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P22" s="86" t="s">
+      <c r="P22" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="Q22" s="86" t="s">
+      <c r="Q22" s="87" t="s">
         <v>66</v>
       </c>
       <c r="R22" s="79" t="s">
@@ -6267,45 +6263,45 @@
         <v>111</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="87" t="s">
+      <c r="G23" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="87" t="s">
+      <c r="H23" s="86" t="s">
         <v>66</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="87" t="s">
+      <c r="J23" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M23" s="87" t="s">
+      <c r="M23" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="N23" s="87" t="s">
+      <c r="N23" s="86" t="s">
         <v>66</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P23" s="87" t="s">
+      <c r="P23" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="Q23" s="87" t="s">
+      <c r="Q23" s="86" t="s">
         <v>66</v>
       </c>
       <c r="R23" s="69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.15">
@@ -6323,41 +6319,41 @@
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
-      <c r="G24" s="86" t="s">
+      <c r="G24" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="86" t="s">
+      <c r="H24" s="87" t="s">
         <v>66</v>
       </c>
       <c r="I24" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" s="86" t="s">
+      <c r="J24" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M24" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="86" t="s">
+      <c r="M24" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O24" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P24" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q24" s="86" t="s">
+      <c r="P24" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R24" s="79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.15">
@@ -6375,37 +6371,37 @@
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="87" t="s">
+      <c r="G25" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="87" t="s">
+      <c r="H25" s="86" t="s">
         <v>30</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="87" t="s">
+      <c r="J25" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="87" t="s">
+      <c r="K25" s="86" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M25" s="87" t="s">
+      <c r="M25" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="N25" s="87" t="s">
+      <c r="N25" s="86" t="s">
         <v>30</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P25" s="87" t="s">
+      <c r="P25" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="Q25" s="87" t="s">
+      <c r="Q25" s="86" t="s">
         <v>30</v>
       </c>
       <c r="R25" s="69" t="s">
@@ -6427,41 +6423,41 @@
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
-      <c r="G26" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="86" t="s">
+      <c r="G26" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I26" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" s="86" t="s">
+      <c r="J26" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L26" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M26" s="86" t="s">
+      <c r="M26" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="N26" s="86" t="s">
+      <c r="N26" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O26" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P26" s="86" t="s">
+      <c r="P26" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="Q26" s="86" t="s">
+      <c r="Q26" s="87" t="s">
         <v>66</v>
       </c>
       <c r="R26" s="79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.15">
@@ -6479,37 +6475,37 @@
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="87" t="s">
+      <c r="G27" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K27" s="87" t="s">
+      <c r="J27" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M27" s="87" t="s">
+      <c r="M27" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="N27" s="87" t="s">
+      <c r="N27" s="86" t="s">
         <v>258</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="P27" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q27" s="87" t="s">
+        <v>264</v>
+      </c>
+      <c r="P27" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R27" s="69" t="s">
@@ -6531,41 +6527,41 @@
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
-      <c r="G28" s="86" t="s">
+      <c r="G28" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="86" t="s">
+      <c r="H28" s="87" t="s">
         <v>66</v>
       </c>
       <c r="I28" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="86" t="s">
+      <c r="J28" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="K28" s="86" t="s">
+      <c r="K28" s="87" t="s">
         <v>66</v>
       </c>
       <c r="L28" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="M28" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="N28" s="86" t="s">
+      <c r="M28" s="87" t="s">
         <v>38</v>
       </c>
+      <c r="N28" s="87" t="s">
+        <v>38</v>
+      </c>
       <c r="O28" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="P28" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="P28" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="86" t="s">
+      <c r="Q28" s="87" t="s">
         <v>38</v>
       </c>
       <c r="R28" s="79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.15">
@@ -6583,41 +6579,41 @@
       </c>
       <c r="E29" s="60"/>
       <c r="F29" s="60"/>
-      <c r="G29" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="87" t="s">
+      <c r="G29" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="87" t="s">
+      <c r="J29" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M29" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="87" t="s">
+      <c r="M29" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="87" t="s">
+      <c r="P29" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="Q29" s="87" t="s">
+      <c r="Q29" s="86" t="s">
         <v>66</v>
       </c>
       <c r="R29" s="69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.15">
@@ -6635,41 +6631,41 @@
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
-      <c r="G30" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="86" t="s">
+      <c r="G30" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="86" t="s">
+      <c r="J30" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="K30" s="86" t="s">
+      <c r="K30" s="87" t="s">
         <v>66</v>
       </c>
       <c r="L30" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M30" s="86" t="s">
+      <c r="M30" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="N30" s="86" t="s">
+      <c r="N30" s="87" t="s">
         <v>66</v>
       </c>
       <c r="O30" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P30" s="86" t="s">
+      <c r="P30" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="Q30" s="86" t="s">
+      <c r="Q30" s="87" t="s">
         <v>66</v>
       </c>
       <c r="R30" s="79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.15">
@@ -6687,38 +6683,38 @@
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="87" t="s">
+      <c r="G31" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K31" s="87" t="s">
+      <c r="J31" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="M31" s="87" t="s">
-        <v>260</v>
-      </c>
-      <c r="N31" s="87" t="s">
-        <v>260</v>
+      <c r="M31" s="86" t="s">
+        <v>259</v>
+      </c>
+      <c r="N31" s="86" t="s">
+        <v>259</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P31" s="87" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q31" s="87" t="s">
-        <v>260</v>
+      <c r="P31" s="86" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q31" s="86" t="s">
+        <v>259</v>
       </c>
       <c r="R31" s="69" t="s">
         <v>24</v>
@@ -6735,41 +6731,41 @@
         <v>120</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="39"/>
-      <c r="G32" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="86" t="s">
+      <c r="G32" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I32" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J32" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" s="86" t="s">
+      <c r="J32" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M32" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N32" s="86" t="s">
+      <c r="M32" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="P32" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="P32" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R32" s="79" t="s">
@@ -6791,37 +6787,37 @@
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="87" t="s">
+      <c r="G33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="87" t="s">
+      <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" s="87" t="s">
+      <c r="J33" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M33" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="N33" s="87" t="s">
+      <c r="M33" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P33" s="87" t="s">
+      <c r="P33" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="Q33" s="87" t="s">
+      <c r="Q33" s="86" t="s">
         <v>38</v>
       </c>
       <c r="R33" s="69" t="s">
@@ -6843,41 +6839,41 @@
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="39"/>
-      <c r="G34" s="86" t="s">
+      <c r="G34" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="H34" s="86" t="s">
+      <c r="H34" s="87" t="s">
         <v>66</v>
       </c>
       <c r="I34" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J34" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="K34" s="86" t="s">
+      <c r="J34" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L34" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M34" s="86" t="s">
+      <c r="M34" s="87" t="s">
         <v>258</v>
       </c>
-      <c r="N34" s="86" t="s">
+      <c r="N34" s="87" t="s">
         <v>258</v>
       </c>
       <c r="O34" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="P34" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="P34" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="Q34" s="86" t="s">
+      <c r="Q34" s="87" t="s">
         <v>38</v>
       </c>
       <c r="R34" s="79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.15">
@@ -6895,37 +6891,37 @@
       </c>
       <c r="E35" s="60"/>
       <c r="F35" s="60"/>
-      <c r="G35" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="87" t="s">
+      <c r="G35" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J35" s="87" t="s">
+      <c r="J35" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="K35" s="87" t="s">
+      <c r="K35" s="86" t="s">
         <v>66</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M35" s="87" t="s">
+      <c r="M35" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="N35" s="87" t="s">
+      <c r="N35" s="86" t="s">
         <v>66</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P35" s="87" t="s">
+      <c r="P35" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="Q35" s="87" t="s">
+      <c r="Q35" s="86" t="s">
         <v>66</v>
       </c>
       <c r="R35" s="69" t="s">
@@ -6947,37 +6943,37 @@
       </c>
       <c r="E36" s="39"/>
       <c r="F36" s="39"/>
-      <c r="G36" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="86" t="s">
+      <c r="G36" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="86" t="s">
+      <c r="J36" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="K36" s="86" t="s">
+      <c r="K36" s="87" t="s">
         <v>66</v>
       </c>
       <c r="L36" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M36" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N36" s="86" t="s">
+      <c r="M36" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P36" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q36" s="86" t="s">
+      <c r="P36" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R36" s="79" t="s">
@@ -6999,41 +6995,41 @@
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="87" t="s">
+      <c r="G37" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J37" s="87" t="s">
+      <c r="J37" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="K37" s="87" t="s">
+      <c r="K37" s="86" t="s">
         <v>25</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M37" s="87" t="s">
+      <c r="M37" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="N37" s="87" t="s">
+      <c r="N37" s="86" t="s">
         <v>66</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="P37" s="87" t="s">
+        <v>264</v>
+      </c>
+      <c r="P37" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="Q37" s="87" t="s">
+      <c r="Q37" s="86" t="s">
         <v>38</v>
       </c>
       <c r="R37" s="69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.15">
@@ -7051,37 +7047,37 @@
       </c>
       <c r="E38" s="39"/>
       <c r="F38" s="39"/>
-      <c r="G38" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="86" t="s">
+      <c r="G38" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J38" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K38" s="86" t="s">
+      <c r="J38" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M38" s="86" t="s">
-        <v>261</v>
-      </c>
-      <c r="N38" s="86" t="s">
-        <v>261</v>
+      <c r="M38" s="87" t="s">
+        <v>260</v>
+      </c>
+      <c r="N38" s="87" t="s">
+        <v>260</v>
       </c>
       <c r="O38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P38" s="86" t="s">
+      <c r="P38" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="Q38" s="86" t="s">
+      <c r="Q38" s="87" t="s">
         <v>66</v>
       </c>
       <c r="R38" s="79" t="s">
@@ -7103,41 +7099,41 @@
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="87" t="s">
+      <c r="G39" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K39" s="87" t="s">
+      <c r="J39" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M39" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="N39" s="87" t="s">
+      <c r="M39" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P39" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q39" s="87" t="s">
+      <c r="P39" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q39" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R39" s="69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -7155,37 +7151,37 @@
       </c>
       <c r="E40" s="48"/>
       <c r="F40" s="48"/>
-      <c r="G40" s="86" t="s">
+      <c r="G40" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="H40" s="86" t="s">
+      <c r="H40" s="87" t="s">
         <v>66</v>
       </c>
       <c r="I40" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J40" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="K40" s="86" t="s">
+      <c r="J40" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L40" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M40" s="86" t="s">
+      <c r="M40" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="N40" s="86" t="s">
+      <c r="N40" s="87" t="s">
         <v>30</v>
       </c>
       <c r="O40" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="P40" s="86" t="s">
+      <c r="P40" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="Q40" s="86" t="s">
+      <c r="Q40" s="87" t="s">
         <v>30</v>
       </c>
       <c r="R40" s="79" t="s">
@@ -7207,37 +7203,37 @@
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="31"/>
-      <c r="G41" s="106" t="s">
+      <c r="G41" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="H41" s="106" t="s">
+      <c r="H41" s="104" t="s">
         <v>66</v>
       </c>
       <c r="I41" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="J41" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="K41" s="106" t="s">
+      <c r="J41" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" s="104" t="s">
         <v>26</v>
       </c>
       <c r="L41" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="M41" s="106" t="s">
+      <c r="M41" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="N41" s="106" t="s">
+      <c r="N41" s="104" t="s">
         <v>23</v>
       </c>
       <c r="O41" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="P41" s="106" t="s">
+      <c r="P41" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="Q41" s="106" t="s">
+      <c r="Q41" s="104" t="s">
         <v>23</v>
       </c>
       <c r="R41" s="80" t="s">
@@ -7259,37 +7255,37 @@
       </c>
       <c r="E42" s="39"/>
       <c r="F42" s="39"/>
-      <c r="G42" s="107" t="s">
+      <c r="G42" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="H42" s="107" t="s">
+      <c r="H42" s="105" t="s">
         <v>66</v>
       </c>
       <c r="I42" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="J42" s="107" t="s">
+      <c r="J42" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="K42" s="107" t="s">
+      <c r="K42" s="105" t="s">
         <v>66</v>
       </c>
       <c r="L42" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="107" t="s">
+      <c r="M42" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="N42" s="107" t="s">
+      <c r="N42" s="105" t="s">
         <v>38</v>
       </c>
       <c r="O42" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="P42" s="107" t="s">
+      <c r="P42" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="Q42" s="107" t="s">
+      <c r="Q42" s="105" t="s">
         <v>66</v>
       </c>
       <c r="R42" s="81" t="s">
@@ -7311,37 +7307,37 @@
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="99" t="s">
+      <c r="G43" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="H43" s="99" t="s">
+      <c r="H43" s="93" t="s">
         <v>25</v>
       </c>
       <c r="I43" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J43" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="K43" s="99" t="s">
+      <c r="J43" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="93" t="s">
         <v>24</v>
       </c>
       <c r="L43" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="M43" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="N43" s="99" t="s">
+      <c r="M43" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" s="93" t="s">
         <v>24</v>
       </c>
       <c r="O43" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="P43" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q43" s="99" t="s">
+      <c r="P43" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43" s="93" t="s">
         <v>24</v>
       </c>
       <c r="R43" s="82" t="s">
@@ -7363,37 +7359,37 @@
       </c>
       <c r="E44" s="39"/>
       <c r="F44" s="39"/>
-      <c r="G44" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="86" t="s">
+      <c r="G44" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I44" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J44" s="86" t="s">
+      <c r="J44" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="K44" s="86" t="s">
+      <c r="K44" s="87" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M44" s="86" t="s">
+      <c r="M44" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="N44" s="86" t="s">
+      <c r="N44" s="87" t="s">
         <v>66</v>
       </c>
       <c r="O44" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P44" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q44" s="86" t="s">
+      <c r="P44" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q44" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R44" s="79" t="s">
@@ -7415,37 +7411,37 @@
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="87" t="s">
+      <c r="G45" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="86" t="s">
         <v>26</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J45" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="K45" s="87" t="s">
+      <c r="J45" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M45" s="87" t="s">
+      <c r="M45" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="N45" s="87" t="s">
+      <c r="N45" s="86" t="s">
         <v>66</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P45" s="87" t="s">
+      <c r="P45" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="Q45" s="87" t="s">
+      <c r="Q45" s="86" t="s">
         <v>66</v>
       </c>
       <c r="R45" s="69" t="s">
@@ -7467,41 +7463,41 @@
       </c>
       <c r="E46" s="39"/>
       <c r="F46" s="39"/>
-      <c r="G46" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H46" s="86" t="s">
+      <c r="G46" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I46" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J46" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K46" s="86" t="s">
+      <c r="J46" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M46" s="86" t="s">
+      <c r="M46" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="N46" s="86" t="s">
+      <c r="N46" s="87" t="s">
         <v>66</v>
       </c>
       <c r="O46" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="P46" s="86" t="s">
+      <c r="P46" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="Q46" s="86" t="s">
+      <c r="Q46" s="87" t="s">
         <v>66</v>
       </c>
       <c r="R46" s="79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.15">
@@ -7519,41 +7515,41 @@
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="87" t="s">
+      <c r="G47" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H47" s="87" t="s">
+      <c r="H47" s="86" t="s">
         <v>66</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J47" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="K47" s="87" t="s">
+      <c r="J47" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="K47" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M47" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="N47" s="87" t="s">
+      <c r="M47" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N47" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P47" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q47" s="87" t="s">
+      <c r="P47" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q47" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R47" s="69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.15">
@@ -7571,37 +7567,37 @@
       </c>
       <c r="E48" s="39"/>
       <c r="F48" s="39"/>
-      <c r="G48" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="H48" s="86" t="s">
+      <c r="G48" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="87" t="s">
         <v>26</v>
       </c>
       <c r="I48" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J48" s="86" t="s">
+      <c r="J48" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="K48" s="86" t="s">
+      <c r="K48" s="87" t="s">
         <v>66</v>
       </c>
       <c r="L48" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M48" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N48" s="86" t="s">
+      <c r="M48" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N48" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O48" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="P48" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q48" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="P48" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q48" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R48" s="79" t="s">
@@ -7623,37 +7619,37 @@
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H49" s="87" t="s">
+      <c r="G49" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="86" t="s">
         <v>24</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J49" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K49" s="87" t="s">
+      <c r="J49" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M49" s="87" t="s">
-        <v>262</v>
-      </c>
-      <c r="N49" s="87" t="s">
-        <v>262</v>
+      <c r="M49" s="86" t="s">
+        <v>261</v>
+      </c>
+      <c r="N49" s="86" t="s">
+        <v>261</v>
       </c>
       <c r="O49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P49" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q49" s="87" t="s">
+      <c r="P49" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q49" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R49" s="69" t="s">
@@ -7675,37 +7671,37 @@
       </c>
       <c r="E50" s="39"/>
       <c r="F50" s="39"/>
-      <c r="G50" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H50" s="86" t="s">
+      <c r="G50" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I50" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J50" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K50" s="86" t="s">
+      <c r="J50" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M50" s="86" t="s">
+      <c r="M50" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="N50" s="86" t="s">
+      <c r="N50" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O50" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="P50" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q50" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="P50" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q50" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R50" s="79" t="s">
@@ -7727,41 +7723,41 @@
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="H51" s="87" t="s">
+      <c r="G51" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" s="86" t="s">
         <v>26</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J51" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="K51" s="87" t="s">
+      <c r="J51" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="K51" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L51" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M51" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="N51" s="87" t="s">
+      <c r="M51" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N51" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="P51" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q51" s="87" t="s">
+        <v>264</v>
+      </c>
+      <c r="P51" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q51" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R51" s="69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.15">
@@ -7779,37 +7775,37 @@
       </c>
       <c r="E52" s="39"/>
       <c r="F52" s="39"/>
-      <c r="G52" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="H52" s="86" t="s">
+      <c r="G52" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="87" t="s">
         <v>26</v>
       </c>
       <c r="I52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J52" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K52" s="86" t="s">
+      <c r="J52" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K52" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L52" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M52" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N52" s="86" t="s">
+      <c r="M52" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N52" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P52" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q52" s="86" t="s">
+      <c r="P52" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q52" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R52" s="79" t="s">
@@ -7831,41 +7827,41 @@
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="H53" s="105" t="s">
+      <c r="G53" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="106" t="s">
         <v>24</v>
       </c>
       <c r="I53" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J53" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="K53" s="105" t="s">
+      <c r="J53" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="K53" s="106" t="s">
         <v>24</v>
       </c>
       <c r="L53" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="M53" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="N53" s="105" t="s">
+      <c r="M53" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53" s="106" t="s">
         <v>26</v>
       </c>
       <c r="O53" s="60" t="s">
-        <v>265</v>
-      </c>
-      <c r="P53" s="105" t="s">
+        <v>264</v>
+      </c>
+      <c r="P53" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="Q53" s="105" t="s">
+      <c r="Q53" s="106" t="s">
         <v>38</v>
       </c>
       <c r="R53" s="83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.15">
@@ -7883,37 +7879,37 @@
       </c>
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
-      <c r="G54" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="H54" s="86" t="s">
+      <c r="G54" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" s="87" t="s">
         <v>26</v>
       </c>
       <c r="I54" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J54" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="K54" s="86" t="s">
+      <c r="J54" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K54" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L54" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M54" s="86" t="s">
+      <c r="M54" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="N54" s="86" t="s">
+      <c r="N54" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O54" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="P54" s="86" t="s">
+      <c r="P54" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="Q54" s="86" t="s">
+      <c r="Q54" s="87" t="s">
         <v>38</v>
       </c>
       <c r="R54" s="79" t="s">
@@ -7935,37 +7931,37 @@
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="87" t="s">
+      <c r="G55" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H55" s="87" t="s">
+      <c r="H55" s="86" t="s">
         <v>66</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J55" s="87" t="s">
+      <c r="J55" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="K55" s="87" t="s">
+      <c r="K55" s="86" t="s">
         <v>25</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M55" s="87" t="s">
+      <c r="M55" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="N55" s="87" t="s">
+      <c r="N55" s="86" t="s">
         <v>30</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P55" s="87" t="s">
+      <c r="P55" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="Q55" s="87" t="s">
+      <c r="Q55" s="86" t="s">
         <v>66</v>
       </c>
       <c r="R55" s="69" t="s">
@@ -7987,37 +7983,37 @@
       </c>
       <c r="E56" s="39"/>
       <c r="F56" s="39"/>
-      <c r="G56" s="86" t="s">
+      <c r="G56" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="H56" s="86" t="s">
+      <c r="H56" s="87" t="s">
         <v>38</v>
       </c>
       <c r="I56" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J56" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K56" s="86" t="s">
+      <c r="J56" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K56" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L56" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M56" s="86" t="s">
+      <c r="M56" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="N56" s="86" t="s">
+      <c r="N56" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O56" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="P56" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q56" s="86" t="s">
+      <c r="P56" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q56" s="87" t="s">
         <v>24</v>
       </c>
       <c r="R56" s="79" t="s">
@@ -8039,41 +8035,41 @@
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="H57" s="87" t="s">
+      <c r="G57" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" s="86" t="s">
         <v>26</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J57" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="K57" s="87" t="s">
+      <c r="J57" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="K57" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M57" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="N57" s="87" t="s">
+      <c r="M57" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="P57" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q57" s="87" t="s">
+        <v>265</v>
+      </c>
+      <c r="P57" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q57" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R57" s="69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.15">
@@ -8091,37 +8087,37 @@
       </c>
       <c r="E58" s="39"/>
       <c r="F58" s="39"/>
-      <c r="G58" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H58" s="86" t="s">
+      <c r="G58" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="87" t="s">
         <v>24</v>
       </c>
       <c r="I58" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J58" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="K58" s="86" t="s">
+      <c r="J58" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K58" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L58" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="M58" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N58" s="86" t="s">
+      <c r="M58" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N58" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O58" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P58" s="86" t="s">
+      <c r="P58" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="Q58" s="86" t="s">
+      <c r="Q58" s="87" t="s">
         <v>25</v>
       </c>
       <c r="R58" s="79" t="s">
@@ -8143,37 +8139,37 @@
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
-      <c r="G59" s="87" t="s">
+      <c r="G59" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="H59" s="87" t="s">
+      <c r="H59" s="86" t="s">
         <v>25</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J59" s="87" t="s">
+      <c r="J59" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="K59" s="87" t="s">
+      <c r="K59" s="86" t="s">
         <v>66</v>
       </c>
       <c r="L59" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M59" s="87" t="s">
+      <c r="M59" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="N59" s="87" t="s">
+      <c r="N59" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P59" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q59" s="87" t="s">
+      <c r="P59" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q59" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R59" s="69" t="s">
@@ -8195,37 +8191,37 @@
       </c>
       <c r="E60" s="39"/>
       <c r="F60" s="39"/>
-      <c r="G60" s="86" t="s">
+      <c r="G60" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="H60" s="86" t="s">
+      <c r="H60" s="87" t="s">
         <v>30</v>
       </c>
       <c r="I60" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J60" s="86" t="s">
+      <c r="J60" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="K60" s="86" t="s">
+      <c r="K60" s="87" t="s">
         <v>30</v>
       </c>
       <c r="L60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="M60" s="86" t="s">
+      <c r="M60" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="N60" s="86" t="s">
+      <c r="N60" s="87" t="s">
         <v>30</v>
       </c>
       <c r="O60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="P60" s="86" t="s">
+      <c r="P60" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="Q60" s="86" t="s">
+      <c r="Q60" s="87" t="s">
         <v>25</v>
       </c>
       <c r="R60" s="79" t="s">
@@ -8247,41 +8243,41 @@
       </c>
       <c r="E61" s="32"/>
       <c r="F61" s="32"/>
-      <c r="G61" s="87" t="s">
+      <c r="G61" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H61" s="87" t="s">
+      <c r="H61" s="86" t="s">
         <v>66</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J61" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K61" s="87" t="s">
+      <c r="J61" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K61" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L61" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M61" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="N61" s="87" t="s">
+      <c r="M61" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N61" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O61" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P61" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q61" s="87" t="s">
+      <c r="P61" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q61" s="86" t="s">
         <v>26</v>
       </c>
       <c r="R61" s="69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.15">
@@ -8299,37 +8295,37 @@
       </c>
       <c r="E62" s="52"/>
       <c r="F62" s="52"/>
-      <c r="G62" s="86" t="s">
+      <c r="G62" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H62" s="86" t="s">
+      <c r="H62" s="87" t="s">
         <v>25</v>
       </c>
       <c r="I62" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J62" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="K62" s="86" t="s">
+      <c r="J62" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K62" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L62" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="M62" s="86" t="s">
-        <v>263</v>
-      </c>
-      <c r="N62" s="86" t="s">
-        <v>263</v>
+      <c r="M62" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="N62" s="87" t="s">
+        <v>262</v>
       </c>
       <c r="O62" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P62" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q62" s="86" t="s">
+      <c r="P62" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q62" s="87" t="s">
         <v>26</v>
       </c>
       <c r="R62" s="79" t="s">
@@ -8351,37 +8347,37 @@
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="32"/>
-      <c r="G63" s="87" t="s">
+      <c r="G63" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="H63" s="87" t="s">
+      <c r="H63" s="86" t="s">
         <v>38</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J63" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="K63" s="87" t="s">
+      <c r="J63" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K63" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M63" s="87" t="s">
+      <c r="M63" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="N63" s="87" t="s">
+      <c r="N63" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="P63" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q63" s="87" t="s">
+        <v>264</v>
+      </c>
+      <c r="P63" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q63" s="86" t="s">
         <v>24</v>
       </c>
       <c r="R63" s="69" t="s">
@@ -8403,41 +8399,41 @@
       </c>
       <c r="E64" s="52"/>
       <c r="F64" s="52"/>
-      <c r="G64" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="H64" s="86" t="s">
+      <c r="G64" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" s="87" t="s">
         <v>26</v>
       </c>
       <c r="I64" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J64" s="86" t="s">
+      <c r="J64" s="87" t="s">
         <v>257</v>
       </c>
-      <c r="K64" s="86" t="s">
+      <c r="K64" s="87" t="s">
         <v>257</v>
       </c>
       <c r="L64" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="M64" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N64" s="86" t="s">
+      <c r="M64" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N64" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O64" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P64" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q64" s="86" t="s">
+      <c r="P64" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q64" s="87" t="s">
         <v>26</v>
       </c>
       <c r="R64" s="79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -8455,37 +8451,37 @@
       </c>
       <c r="E65" s="32"/>
       <c r="F65" s="32"/>
-      <c r="G65" s="87" t="s">
+      <c r="G65" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="87" t="s">
+      <c r="H65" s="86" t="s">
         <v>30</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J65" s="87" t="s">
+      <c r="J65" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="K65" s="87" t="s">
+      <c r="K65" s="86" t="s">
         <v>30</v>
       </c>
       <c r="L65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M65" s="87" t="s">
+      <c r="M65" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="N65" s="87" t="s">
+      <c r="N65" s="86" t="s">
         <v>30</v>
       </c>
       <c r="O65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P65" s="87" t="s">
+      <c r="P65" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="Q65" s="87" t="s">
+      <c r="Q65" s="86" t="s">
         <v>30</v>
       </c>
       <c r="R65" s="69" t="s">
@@ -8561,11 +8557,11 @@
     </row>
     <row r="71" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="L71" s="76"/>
-      <c r="M71" s="104"/>
-      <c r="N71" s="104"/>
+      <c r="M71" s="107"/>
+      <c r="N71" s="107"/>
       <c r="O71" s="76"/>
-      <c r="P71" s="104"/>
-      <c r="Q71" s="104"/>
+      <c r="P71" s="107"/>
+      <c r="Q71" s="107"/>
       <c r="R71" s="84"/>
     </row>
     <row r="72" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -8590,11 +8586,11 @@
     </row>
     <row r="76" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="L76" s="76"/>
-      <c r="M76" s="104"/>
-      <c r="N76" s="104"/>
+      <c r="M76" s="107"/>
+      <c r="N76" s="107"/>
       <c r="O76" s="76"/>
-      <c r="P76" s="104"/>
-      <c r="Q76" s="104"/>
+      <c r="P76" s="107"/>
+      <c r="Q76" s="107"/>
       <c r="R76" s="84"/>
     </row>
     <row r="77" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -8609,6 +8605,196 @@
     <row r="78" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="214">
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J16:K16"/>
@@ -8633,196 +8819,6 @@
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="P60:Q60"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:C6">
@@ -8947,11 +8943,11 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="88"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="97" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="8">
@@ -8969,7 +8965,7 @@
       <c r="H6" s="8">
         <v>15</v>
       </c>
-      <c r="I6" s="94" t="s">
+      <c r="I6" s="100" t="s">
         <v>167</v>
       </c>
       <c r="J6" s="8">
@@ -8990,7 +8986,7 @@
       <c r="O6" s="25">
         <v>30</v>
       </c>
-      <c r="P6" s="94" t="s">
+      <c r="P6" s="100" t="s">
         <v>167</v>
       </c>
       <c r="Q6" s="8">
@@ -9025,11 +9021,11 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="89"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="92"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
@@ -9045,7 +9041,7 @@
       <c r="H7" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I7" s="95"/>
+      <c r="I7" s="101"/>
       <c r="J7" s="7" t="s">
         <v>8</v>
       </c>
@@ -9064,7 +9060,7 @@
       <c r="O7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="95"/>
+      <c r="P7" s="101"/>
       <c r="Q7" s="7" t="s">
         <v>176</v>
       </c>
@@ -9093,11 +9089,11 @@
       <c r="Z7" s="109"/>
     </row>
     <row r="8" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="89"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="92"/>
+      <c r="C8" s="98"/>
       <c r="D8" s="7">
         <v>68</v>
       </c>
@@ -9111,7 +9107,7 @@
         <v>60</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="95"/>
+      <c r="I8" s="101"/>
       <c r="J8" s="7">
         <v>90</v>
       </c>
@@ -9128,7 +9124,7 @@
       <c r="O8" s="26">
         <v>59</v>
       </c>
-      <c r="P8" s="95"/>
+      <c r="P8" s="101"/>
       <c r="Q8" s="7">
         <v>12</v>
       </c>
@@ -9153,11 +9149,11 @@
       <c r="Z8" s="109"/>
     </row>
     <row r="9" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="89"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="92"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="17">
         <v>14</v>
       </c>
@@ -9173,7 +9169,7 @@
       <c r="H9" s="17">
         <v>10</v>
       </c>
-      <c r="I9" s="95"/>
+      <c r="I9" s="101"/>
       <c r="J9" s="17">
         <v>18</v>
       </c>
@@ -9190,7 +9186,7 @@
       <c r="O9" s="36">
         <v>12</v>
       </c>
-      <c r="P9" s="95"/>
+      <c r="P9" s="101"/>
       <c r="Q9" s="7">
         <v>6</v>
       </c>
@@ -9215,11 +9211,11 @@
       <c r="Z9" s="109"/>
     </row>
     <row r="10" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="89"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="92"/>
+      <c r="C10" s="98"/>
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
@@ -9233,7 +9229,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="95"/>
+      <c r="I10" s="101"/>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
@@ -9250,7 +9246,7 @@
       <c r="O10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="95"/>
+      <c r="P10" s="101"/>
       <c r="Q10" s="7" t="s">
         <v>179</v>
       </c>
@@ -9275,11 +9271,11 @@
       <c r="Z10" s="109"/>
     </row>
     <row r="11" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="89"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="92"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="7" t="s">
         <v>94</v>
       </c>
@@ -9295,7 +9291,7 @@
       <c r="H11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="95"/>
+      <c r="I11" s="101"/>
       <c r="J11" s="7" t="s">
         <v>97</v>
       </c>
@@ -9312,7 +9308,7 @@
       <c r="O11" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="P11" s="95"/>
+      <c r="P11" s="101"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
@@ -9325,11 +9321,11 @@
       <c r="Z11" s="109"/>
     </row>
     <row r="12" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="89"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="92"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
@@ -9345,7 +9341,7 @@
       <c r="H12" s="18">
         <v>0.6875</v>
       </c>
-      <c r="I12" s="95"/>
+      <c r="I12" s="101"/>
       <c r="J12" s="7" t="s">
         <v>17</v>
       </c>
@@ -9364,7 +9360,7 @@
       <c r="O12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="95"/>
+      <c r="P12" s="101"/>
       <c r="Q12" s="7" t="s">
         <v>180</v>
       </c>
@@ -9389,11 +9385,11 @@
       <c r="Z12" s="109"/>
     </row>
     <row r="13" spans="1:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="90"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="93"/>
+      <c r="C13" s="99"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -9409,7 +9405,7 @@
       <c r="H13" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="96"/>
+      <c r="I13" s="102"/>
       <c r="J13" s="7" t="s">
         <v>21</v>
       </c>
@@ -9428,7 +9424,7 @@
       <c r="O13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="P13" s="96"/>
+      <c r="P13" s="102"/>
       <c r="Q13" s="7" t="s">
         <v>21</v>
       </c>
@@ -9484,17 +9480,17 @@
       <c r="I14" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="97" t="s">
+      <c r="J14" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="97" t="s">
+      <c r="K14" s="103" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="43"/>
-      <c r="M14" s="97" t="s">
+      <c r="M14" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="97" t="s">
+      <c r="N14" s="103" t="s">
         <v>23</v>
       </c>
       <c r="O14" s="44" t="s">
@@ -9508,19 +9504,19 @@
       </c>
       <c r="R14" s="43"/>
       <c r="S14" s="43"/>
-      <c r="T14" s="97" t="s">
+      <c r="T14" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="U14" s="97" t="s">
+      <c r="U14" s="103" t="s">
         <v>23</v>
       </c>
       <c r="V14" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="W14" s="97" t="s">
+      <c r="W14" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="X14" s="97" t="s">
+      <c r="X14" s="103" t="s">
         <v>23</v>
       </c>
       <c r="Y14" s="44"/>
@@ -9554,19 +9550,19 @@
       <c r="I15" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="J15" s="87" t="s">
+      <c r="J15" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="87" t="s">
+      <c r="K15" s="86" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="87" t="s">
+      <c r="M15" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="87" t="s">
+      <c r="N15" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O15" s="26" t="s">
@@ -9580,19 +9576,19 @@
       </c>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="87" t="s">
+      <c r="T15" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="U15" s="87" t="s">
+      <c r="U15" s="86" t="s">
         <v>23</v>
       </c>
       <c r="V15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W15" s="87" t="s">
+      <c r="W15" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="X15" s="87" t="s">
+      <c r="X15" s="86" t="s">
         <v>23</v>
       </c>
       <c r="Y15" s="26"/>
@@ -9626,17 +9622,17 @@
       <c r="I16" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="J16" s="86" t="s">
+      <c r="J16" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="86" t="s">
+      <c r="K16" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="86" t="s">
+      <c r="M16" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="86" t="s">
+      <c r="N16" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="40" t="s">
@@ -9650,19 +9646,19 @@
       </c>
       <c r="R16" s="39"/>
       <c r="S16" s="39"/>
-      <c r="T16" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U16" s="86" t="s">
+      <c r="T16" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U16" s="87" t="s">
         <v>30</v>
       </c>
       <c r="V16" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W16" s="86" t="s">
+      <c r="W16" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="X16" s="86" t="s">
+      <c r="X16" s="87" t="s">
         <v>182</v>
       </c>
       <c r="Y16" s="40"/>
@@ -9696,17 +9692,17 @@
       <c r="I17" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K17" s="87" t="s">
+      <c r="J17" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N17" s="87" t="s">
+      <c r="M17" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O17" s="26" t="s">
@@ -9720,19 +9716,19 @@
       </c>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
-      <c r="T17" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U17" s="87" t="s">
+      <c r="T17" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U17" s="86" t="s">
         <v>30</v>
       </c>
       <c r="V17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W17" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X17" s="87" t="s">
+      <c r="W17" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X17" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y17" s="26"/>
@@ -9766,17 +9762,17 @@
       <c r="I18" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="86" t="s">
+      <c r="J18" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="86" t="s">
+      <c r="K18" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="39"/>
-      <c r="M18" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N18" s="86" t="s">
+      <c r="M18" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O18" s="40" t="s">
@@ -9790,19 +9786,19 @@
       </c>
       <c r="R18" s="39"/>
       <c r="S18" s="39"/>
-      <c r="T18" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="U18" s="86" t="s">
+      <c r="T18" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="U18" s="87" t="s">
         <v>30</v>
       </c>
       <c r="V18" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W18" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X18" s="86" t="s">
+      <c r="W18" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X18" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y18" s="40"/>
@@ -9836,17 +9832,17 @@
       <c r="I19" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="J19" s="87" t="s">
+      <c r="J19" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="87" t="s">
+      <c r="K19" s="86" t="s">
         <v>34</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="87" t="s">
+      <c r="M19" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="87" t="s">
+      <c r="N19" s="86" t="s">
         <v>28</v>
       </c>
       <c r="O19" s="26" t="s">
@@ -9860,19 +9856,19 @@
       </c>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
-      <c r="T19" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U19" s="87" t="s">
+      <c r="T19" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U19" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W19" s="87" t="s">
+      <c r="W19" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="X19" s="87" t="s">
+      <c r="X19" s="86" t="s">
         <v>23</v>
       </c>
       <c r="Y19" s="26"/>
@@ -9906,17 +9902,17 @@
       <c r="I20" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J20" s="86" t="s">
+      <c r="J20" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="86" t="s">
+      <c r="K20" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="39"/>
-      <c r="M20" s="86" t="s">
+      <c r="M20" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="86" t="s">
+      <c r="N20" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O20" s="40" t="s">
@@ -9930,19 +9926,19 @@
       </c>
       <c r="R20" s="39"/>
       <c r="S20" s="39"/>
-      <c r="T20" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U20" s="86" t="s">
+      <c r="T20" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U20" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V20" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W20" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X20" s="86" t="s">
+      <c r="W20" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X20" s="87" t="s">
         <v>26</v>
       </c>
       <c r="Y20" s="40"/>
@@ -9976,17 +9972,17 @@
       <c r="I21" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J21" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="87" t="s">
+      <c r="J21" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="87" t="s">
+      <c r="M21" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="87" t="s">
+      <c r="N21" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="26" t="s">
@@ -10000,19 +9996,19 @@
       </c>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
-      <c r="T21" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U21" s="87" t="s">
+      <c r="T21" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U21" s="86" t="s">
         <v>26</v>
       </c>
       <c r="V21" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W21" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X21" s="87" t="s">
+      <c r="W21" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X21" s="86" t="s">
         <v>24</v>
       </c>
       <c r="Y21" s="26"/>
@@ -10046,17 +10042,17 @@
       <c r="I22" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="J22" s="86" t="s">
+      <c r="J22" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="86" t="s">
+      <c r="K22" s="87" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="39"/>
-      <c r="M22" s="86" t="s">
+      <c r="M22" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="N22" s="86" t="s">
+      <c r="N22" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O22" s="40" t="s">
@@ -10070,19 +10066,19 @@
       </c>
       <c r="R22" s="39"/>
       <c r="S22" s="39"/>
-      <c r="T22" s="86" t="s">
+      <c r="T22" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="U22" s="86" t="s">
+      <c r="U22" s="87" t="s">
         <v>23</v>
       </c>
       <c r="V22" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W22" s="86" t="s">
+      <c r="W22" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="X22" s="86" t="s">
+      <c r="X22" s="87" t="s">
         <v>23</v>
       </c>
       <c r="Y22" s="40"/>
@@ -10116,19 +10112,19 @@
       <c r="I23" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J23" s="87" t="s">
+      <c r="J23" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="87" t="s">
+      <c r="K23" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M23" s="87" t="s">
+      <c r="M23" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="87" t="s">
+      <c r="N23" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O23" s="26" t="s">
@@ -10142,19 +10138,19 @@
       </c>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
-      <c r="T23" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U23" s="87" t="s">
+      <c r="T23" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U23" s="86" t="s">
         <v>30</v>
       </c>
       <c r="V23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W23" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X23" s="87" t="s">
+      <c r="W23" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X23" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y23" s="26"/>
@@ -10188,17 +10184,17 @@
       <c r="I24" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="J24" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K24" s="86" t="s">
+      <c r="J24" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="39"/>
-      <c r="M24" s="86" t="s">
+      <c r="M24" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="86" t="s">
+      <c r="N24" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="40" t="s">
@@ -10212,19 +10208,19 @@
       </c>
       <c r="R24" s="39"/>
       <c r="S24" s="39"/>
-      <c r="T24" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U24" s="86" t="s">
+      <c r="T24" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U24" s="87" t="s">
         <v>30</v>
       </c>
       <c r="V24" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W24" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X24" s="86" t="s">
+      <c r="W24" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X24" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y24" s="40"/>
@@ -10258,17 +10254,17 @@
       <c r="I25" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="J25" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="87" t="s">
+      <c r="J25" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="86" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" s="87" t="s">
+      <c r="M25" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="86" t="s">
         <v>30</v>
       </c>
       <c r="O25" s="26" t="s">
@@ -10282,19 +10278,19 @@
       </c>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
-      <c r="T25" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U25" s="87" t="s">
+      <c r="T25" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U25" s="86" t="s">
         <v>30</v>
       </c>
       <c r="V25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W25" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X25" s="87" t="s">
+      <c r="W25" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X25" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y25" s="26"/>
@@ -10328,19 +10324,19 @@
       <c r="I26" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="86" t="s">
+      <c r="J26" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="86" t="s">
+      <c r="K26" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M26" s="86" t="s">
+      <c r="M26" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="86" t="s">
+      <c r="N26" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O26" s="40" t="s">
@@ -10354,19 +10350,19 @@
       </c>
       <c r="R26" s="39"/>
       <c r="S26" s="39"/>
-      <c r="T26" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U26" s="86" t="s">
+      <c r="T26" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U26" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V26" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W26" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X26" s="86" t="s">
+      <c r="W26" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X26" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y26" s="40"/>
@@ -10400,17 +10396,17 @@
       <c r="I27" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="J27" s="87" t="s">
+      <c r="J27" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="87" t="s">
+      <c r="K27" s="86" t="s">
         <v>44</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N27" s="87" t="s">
+      <c r="M27" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O27" s="26" t="s">
@@ -10424,19 +10420,19 @@
       </c>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
-      <c r="T27" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U27" s="87" t="s">
+      <c r="T27" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U27" s="86" t="s">
         <v>30</v>
       </c>
       <c r="V27" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W27" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X27" s="87" t="s">
+      <c r="W27" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X27" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y27" s="26"/>
@@ -10470,19 +10466,19 @@
       <c r="I28" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="J28" s="86" t="s">
+      <c r="J28" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="86" t="s">
+      <c r="K28" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="86" t="s">
+      <c r="M28" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N28" s="86" t="s">
+      <c r="N28" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O28" s="40" t="s">
@@ -10496,19 +10492,19 @@
       </c>
       <c r="R28" s="39"/>
       <c r="S28" s="39"/>
-      <c r="T28" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U28" s="86" t="s">
+      <c r="T28" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U28" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V28" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W28" s="86" t="s">
+      <c r="W28" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="X28" s="86" t="s">
+      <c r="X28" s="87" t="s">
         <v>23</v>
       </c>
       <c r="Y28" s="40"/>
@@ -10542,17 +10538,17 @@
       <c r="I29" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="J29" s="87" t="s">
+      <c r="J29" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="87" t="s">
+      <c r="K29" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="87" t="s">
+      <c r="M29" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N29" s="87" t="s">
+      <c r="N29" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O29" s="26" t="s">
@@ -10566,19 +10562,19 @@
       </c>
       <c r="R29" s="60"/>
       <c r="S29" s="60"/>
-      <c r="T29" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U29" s="87" t="s">
+      <c r="T29" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U29" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V29" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W29" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X29" s="87" t="s">
+      <c r="W29" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X29" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y29" s="26"/>
@@ -10612,17 +10608,17 @@
       <c r="I30" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="J30" s="86" t="s">
+      <c r="J30" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="86" t="s">
+      <c r="K30" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="39"/>
-      <c r="M30" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N30" s="86" t="s">
+      <c r="M30" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="87" t="s">
         <v>26</v>
       </c>
       <c r="O30" s="40" t="s">
@@ -10636,19 +10632,19 @@
       </c>
       <c r="R30" s="39"/>
       <c r="S30" s="39"/>
-      <c r="T30" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U30" s="86" t="s">
+      <c r="T30" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U30" s="87" t="s">
         <v>30</v>
       </c>
       <c r="V30" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W30" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X30" s="86" t="s">
+      <c r="W30" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X30" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y30" s="40"/>
@@ -10682,17 +10678,17 @@
       <c r="I31" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="J31" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" s="87" t="s">
+      <c r="J31" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="7"/>
-      <c r="M31" s="87" t="s">
+      <c r="M31" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N31" s="87" t="s">
+      <c r="N31" s="86" t="s">
         <v>28</v>
       </c>
       <c r="O31" s="26" t="s">
@@ -10706,19 +10702,19 @@
       </c>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
-      <c r="T31" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U31" s="87" t="s">
+      <c r="T31" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U31" s="86" t="s">
         <v>30</v>
       </c>
       <c r="V31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W31" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X31" s="87" t="s">
+      <c r="W31" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X31" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y31" s="26"/>
@@ -10752,17 +10748,17 @@
       <c r="I32" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J32" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K32" s="86" t="s">
+      <c r="J32" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="39"/>
-      <c r="M32" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N32" s="86" t="s">
+      <c r="M32" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N32" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="40" t="s">
@@ -10776,19 +10772,19 @@
       </c>
       <c r="R32" s="39"/>
       <c r="S32" s="39"/>
-      <c r="T32" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U32" s="86" t="s">
+      <c r="T32" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U32" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V32" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W32" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X32" s="86" t="s">
+      <c r="W32" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X32" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y32" s="40"/>
@@ -10822,17 +10818,17 @@
       <c r="I33" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="J33" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" s="87" t="s">
+      <c r="J33" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="M33" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N33" s="87" t="s">
+      <c r="M33" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N33" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O33" s="26" t="s">
@@ -10846,19 +10842,19 @@
       </c>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
-      <c r="T33" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U33" s="87" t="s">
+      <c r="T33" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U33" s="86" t="s">
         <v>30</v>
       </c>
       <c r="V33" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W33" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X33" s="87" t="s">
+      <c r="W33" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X33" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y33" s="26"/>
@@ -10892,17 +10888,17 @@
       <c r="I34" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="J34" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K34" s="86" t="s">
+      <c r="J34" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K34" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="39"/>
-      <c r="M34" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N34" s="86" t="s">
+      <c r="M34" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N34" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O34" s="40" t="s">
@@ -10916,19 +10912,19 @@
       </c>
       <c r="R34" s="39"/>
       <c r="S34" s="39"/>
-      <c r="T34" s="86" t="s">
+      <c r="T34" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="U34" s="86" t="s">
+      <c r="U34" s="87" t="s">
         <v>23</v>
       </c>
       <c r="V34" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W34" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X34" s="86" t="s">
+      <c r="W34" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X34" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y34" s="40"/>
@@ -10962,17 +10958,17 @@
       <c r="I35" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="J35" s="87" t="s">
+      <c r="J35" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="K35" s="87" t="s">
+      <c r="K35" s="86" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="7"/>
-      <c r="M35" s="87" t="s">
+      <c r="M35" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N35" s="87" t="s">
+      <c r="N35" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O35" s="26" t="s">
@@ -10986,19 +10982,19 @@
       </c>
       <c r="R35" s="60"/>
       <c r="S35" s="60"/>
-      <c r="T35" s="87" t="s">
+      <c r="T35" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="U35" s="87" t="s">
+      <c r="U35" s="86" t="s">
         <v>23</v>
       </c>
       <c r="V35" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="W35" s="87" t="s">
+      <c r="W35" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="X35" s="87" t="s">
+      <c r="X35" s="86" t="s">
         <v>23</v>
       </c>
       <c r="Y35" s="26"/>
@@ -11032,17 +11028,17 @@
       <c r="I36" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="J36" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K36" s="86" t="s">
+      <c r="J36" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K36" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L36" s="39"/>
-      <c r="M36" s="86" t="s">
+      <c r="M36" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="86" t="s">
+      <c r="N36" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O36" s="40" t="s">
@@ -11056,19 +11052,19 @@
       </c>
       <c r="R36" s="39"/>
       <c r="S36" s="39"/>
-      <c r="T36" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U36" s="86" t="s">
+      <c r="T36" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U36" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V36" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W36" s="86" t="s">
+      <c r="W36" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="X36" s="86" t="s">
+      <c r="X36" s="87" t="s">
         <v>23</v>
       </c>
       <c r="Y36" s="40"/>
@@ -11102,17 +11098,17 @@
       <c r="I37" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="J37" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K37" s="87" t="s">
+      <c r="J37" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L37" s="7"/>
-      <c r="M37" s="87" t="s">
+      <c r="M37" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="87" t="s">
+      <c r="N37" s="86" t="s">
         <v>23</v>
       </c>
       <c r="O37" s="26" t="s">
@@ -11126,19 +11122,19 @@
       </c>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
-      <c r="T37" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U37" s="87" t="s">
+      <c r="T37" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U37" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W37" s="87" t="s">
+      <c r="W37" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="X37" s="87" t="s">
+      <c r="X37" s="86" t="s">
         <v>23</v>
       </c>
       <c r="Y37" s="26"/>
@@ -11172,17 +11168,17 @@
       <c r="I38" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="J38" s="86" t="s">
+      <c r="J38" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="86" t="s">
+      <c r="K38" s="87" t="s">
         <v>23</v>
       </c>
       <c r="L38" s="39"/>
-      <c r="M38" s="86" t="s">
+      <c r="M38" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N38" s="86" t="s">
+      <c r="N38" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O38" s="40" t="s">
@@ -11196,19 +11192,19 @@
       </c>
       <c r="R38" s="39"/>
       <c r="S38" s="39"/>
-      <c r="T38" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U38" s="86" t="s">
+      <c r="T38" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U38" s="87" t="s">
         <v>30</v>
       </c>
       <c r="V38" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W38" s="86" t="s">
+      <c r="W38" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="X38" s="86" t="s">
+      <c r="X38" s="87" t="s">
         <v>23</v>
       </c>
       <c r="Y38" s="40"/>
@@ -11242,17 +11238,17 @@
       <c r="I39" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J39" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K39" s="87" t="s">
+      <c r="J39" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="7"/>
-      <c r="M39" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N39" s="87" t="s">
+      <c r="M39" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N39" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="26" t="s">
@@ -11266,19 +11262,19 @@
       </c>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
-      <c r="T39" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U39" s="87" t="s">
+      <c r="T39" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U39" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V39" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W39" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X39" s="87" t="s">
+      <c r="W39" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X39" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y39" s="26"/>
@@ -11312,19 +11308,19 @@
       <c r="I40" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="98" t="s">
-        <v>91</v>
-      </c>
-      <c r="K40" s="98" t="s">
+      <c r="J40" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="92" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="98" t="s">
-        <v>91</v>
-      </c>
-      <c r="N40" s="98" t="s">
+      <c r="M40" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="N40" s="92" t="s">
         <v>24</v>
       </c>
       <c r="O40" s="49" t="s">
@@ -11338,19 +11334,19 @@
       </c>
       <c r="R40" s="48"/>
       <c r="S40" s="48"/>
-      <c r="T40" s="98" t="s">
-        <v>91</v>
-      </c>
-      <c r="U40" s="98" t="s">
+      <c r="T40" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="U40" s="92" t="s">
         <v>30</v>
       </c>
       <c r="V40" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="W40" s="98" t="s">
-        <v>91</v>
-      </c>
-      <c r="X40" s="98" t="s">
+      <c r="W40" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="X40" s="92" t="s">
         <v>30</v>
       </c>
       <c r="Y40" s="49"/>
@@ -11384,17 +11380,17 @@
       <c r="I41" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="99" t="s">
+      <c r="J41" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="K41" s="99" t="s">
+      <c r="K41" s="93" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="31"/>
-      <c r="M41" s="99" t="s">
-        <v>91</v>
-      </c>
-      <c r="N41" s="99" t="s">
+      <c r="M41" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="N41" s="93" t="s">
         <v>24</v>
       </c>
       <c r="O41" s="32" t="s">
@@ -11408,19 +11404,19 @@
       </c>
       <c r="R41" s="31"/>
       <c r="S41" s="31"/>
-      <c r="T41" s="99" t="s">
+      <c r="T41" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="U41" s="99" t="s">
+      <c r="U41" s="93" t="s">
         <v>23</v>
       </c>
       <c r="V41" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="W41" s="99" t="s">
-        <v>91</v>
-      </c>
-      <c r="X41" s="99" t="s">
+      <c r="W41" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="X41" s="93" t="s">
         <v>30</v>
       </c>
       <c r="Y41" s="32"/>
@@ -11454,17 +11450,17 @@
       <c r="I42" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K42" s="86" t="s">
+      <c r="J42" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L42" s="39"/>
-      <c r="M42" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N42" s="86" t="s">
+      <c r="M42" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N42" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O42" s="40" t="s">
@@ -11478,19 +11474,19 @@
       </c>
       <c r="R42" s="39"/>
       <c r="S42" s="39"/>
-      <c r="T42" s="86" t="s">
+      <c r="T42" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="U42" s="86" t="s">
+      <c r="U42" s="87" t="s">
         <v>38</v>
       </c>
       <c r="V42" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W42" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X42" s="86" t="s">
+      <c r="W42" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X42" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y42" s="40"/>
@@ -11524,19 +11520,19 @@
       <c r="I43" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="J43" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K43" s="87" t="s">
+      <c r="J43" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M43" s="87" t="s">
+      <c r="M43" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N43" s="87" t="s">
+      <c r="N43" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O43" s="26" t="s">
@@ -11550,19 +11546,19 @@
       </c>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
-      <c r="T43" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U43" s="87" t="s">
+      <c r="T43" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U43" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V43" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W43" s="87" t="s">
+      <c r="W43" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="X43" s="87" t="s">
+      <c r="X43" s="86" t="s">
         <v>23</v>
       </c>
       <c r="Y43" s="26"/>
@@ -11596,17 +11592,17 @@
       <c r="I44" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="J44" s="86" t="s">
+      <c r="J44" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="K44" s="86" t="s">
+      <c r="K44" s="87" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="39"/>
-      <c r="M44" s="86" t="s">
+      <c r="M44" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="N44" s="86" t="s">
+      <c r="N44" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O44" s="40" t="s">
@@ -11620,19 +11616,19 @@
       </c>
       <c r="R44" s="39"/>
       <c r="S44" s="39"/>
-      <c r="T44" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U44" s="86" t="s">
+      <c r="T44" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U44" s="87" t="s">
         <v>26</v>
       </c>
       <c r="V44" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W44" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X44" s="86" t="s">
+      <c r="W44" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X44" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y44" s="40"/>
@@ -11666,17 +11662,17 @@
       <c r="I45" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="J45" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K45" s="87" t="s">
+      <c r="J45" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L45" s="7"/>
-      <c r="M45" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N45" s="87" t="s">
+      <c r="M45" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N45" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O45" s="26" t="s">
@@ -11690,19 +11686,19 @@
       </c>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
-      <c r="T45" s="87" t="s">
+      <c r="T45" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="U45" s="87" t="s">
+      <c r="U45" s="86" t="s">
         <v>182</v>
       </c>
       <c r="V45" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W45" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X45" s="87" t="s">
+      <c r="W45" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X45" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y45" s="26"/>
@@ -11736,17 +11732,17 @@
       <c r="I46" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J46" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K46" s="86" t="s">
+      <c r="J46" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K46" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="39"/>
-      <c r="M46" s="86" t="s">
+      <c r="M46" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N46" s="86" t="s">
+      <c r="N46" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O46" s="40" t="s">
@@ -11760,19 +11756,19 @@
       </c>
       <c r="R46" s="39"/>
       <c r="S46" s="39"/>
-      <c r="T46" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U46" s="86" t="s">
+      <c r="T46" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U46" s="87" t="s">
         <v>30</v>
       </c>
       <c r="V46" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W46" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X46" s="86" t="s">
+      <c r="W46" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X46" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y46" s="40"/>
@@ -11806,17 +11802,17 @@
       <c r="I47" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J47" s="87" t="s">
+      <c r="J47" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K47" s="87" t="s">
+      <c r="K47" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L47" s="7"/>
-      <c r="M47" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N47" s="87" t="s">
+      <c r="M47" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N47" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O47" s="26" t="s">
@@ -11830,19 +11826,19 @@
       </c>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
-      <c r="T47" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U47" s="87" t="s">
+      <c r="T47" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U47" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V47" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W47" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X47" s="87" t="s">
+      <c r="W47" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X47" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y47" s="26"/>
@@ -11876,17 +11872,17 @@
       <c r="I48" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="J48" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K48" s="86" t="s">
+      <c r="J48" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K48" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L48" s="39"/>
-      <c r="M48" s="86" t="s">
+      <c r="M48" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N48" s="86" t="s">
+      <c r="N48" s="87" t="s">
         <v>66</v>
       </c>
       <c r="O48" s="40" t="s">
@@ -11900,19 +11896,19 @@
       </c>
       <c r="R48" s="39"/>
       <c r="S48" s="39"/>
-      <c r="T48" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U48" s="86" t="s">
+      <c r="T48" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U48" s="87" t="s">
         <v>30</v>
       </c>
       <c r="V48" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W48" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X48" s="86" t="s">
+      <c r="W48" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X48" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y48" s="40"/>
@@ -11946,17 +11942,17 @@
       <c r="I49" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="J49" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K49" s="87" t="s">
+      <c r="J49" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K49" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="7"/>
-      <c r="M49" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N49" s="87" t="s">
+      <c r="M49" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N49" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O49" s="26" t="s">
@@ -11970,19 +11966,19 @@
       </c>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
-      <c r="T49" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U49" s="87" t="s">
+      <c r="T49" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U49" s="86" t="s">
         <v>26</v>
       </c>
       <c r="V49" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W49" s="87" t="s">
+      <c r="W49" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="X49" s="87" t="s">
+      <c r="X49" s="86" t="s">
         <v>23</v>
       </c>
       <c r="Y49" s="26"/>
@@ -12016,17 +12012,17 @@
       <c r="I50" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="J50" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K50" s="86" t="s">
+      <c r="J50" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K50" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="39"/>
-      <c r="M50" s="86" t="s">
+      <c r="M50" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="N50" s="86" t="s">
+      <c r="N50" s="87" t="s">
         <v>38</v>
       </c>
       <c r="O50" s="40" t="s">
@@ -12040,19 +12036,19 @@
       </c>
       <c r="R50" s="39"/>
       <c r="S50" s="39"/>
-      <c r="T50" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U50" s="86" t="s">
+      <c r="T50" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U50" s="87" t="s">
         <v>24</v>
       </c>
       <c r="V50" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W50" s="86" t="s">
+      <c r="W50" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="X50" s="86" t="s">
+      <c r="X50" s="87" t="s">
         <v>23</v>
       </c>
       <c r="Y50" s="40"/>
@@ -12086,17 +12082,17 @@
       <c r="I51" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="J51" s="87" t="s">
+      <c r="J51" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="K51" s="87" t="s">
+      <c r="K51" s="86" t="s">
         <v>38</v>
       </c>
       <c r="L51" s="7"/>
-      <c r="M51" s="87" t="s">
+      <c r="M51" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="N51" s="87" t="s">
+      <c r="N51" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O51" s="26" t="s">
@@ -12110,19 +12106,19 @@
       </c>
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
-      <c r="T51" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U51" s="87" t="s">
+      <c r="T51" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U51" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V51" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W51" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X51" s="87" t="s">
+      <c r="W51" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X51" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y51" s="26"/>
@@ -12156,19 +12152,19 @@
       <c r="I52" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="J52" s="86" t="s">
+      <c r="J52" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="86" t="s">
+      <c r="K52" s="87" t="s">
         <v>71</v>
       </c>
       <c r="L52" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M52" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N52" s="86" t="s">
+      <c r="M52" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N52" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O52" s="40" t="s">
@@ -12182,19 +12178,19 @@
       </c>
       <c r="R52" s="39"/>
       <c r="S52" s="39"/>
-      <c r="T52" s="86" t="s">
+      <c r="T52" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="U52" s="86" t="s">
+      <c r="U52" s="87" t="s">
         <v>71</v>
       </c>
       <c r="V52" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W52" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X52" s="86" t="s">
+      <c r="W52" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X52" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y52" s="40"/>
@@ -12228,19 +12224,19 @@
       <c r="I53" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="J53" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K53" s="87" t="s">
+      <c r="J53" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" s="86" t="s">
         <v>26</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M53" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N53" s="87" t="s">
+      <c r="M53" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N53" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O53" s="26" t="s">
@@ -12254,19 +12250,19 @@
       </c>
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
-      <c r="T53" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U53" s="87" t="s">
+      <c r="T53" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U53" s="86" t="s">
         <v>30</v>
       </c>
       <c r="V53" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W53" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X53" s="87" t="s">
+      <c r="W53" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X53" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y53" s="26"/>
@@ -12300,17 +12296,17 @@
       <c r="I54" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="J54" s="86" t="s">
+      <c r="J54" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="K54" s="86" t="s">
+      <c r="K54" s="87" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="39"/>
-      <c r="M54" s="86" t="s">
+      <c r="M54" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="N54" s="86" t="s">
+      <c r="N54" s="87" t="s">
         <v>25</v>
       </c>
       <c r="O54" s="40" t="s">
@@ -12324,19 +12320,19 @@
       </c>
       <c r="R54" s="39"/>
       <c r="S54" s="39"/>
-      <c r="T54" s="86" t="s">
+      <c r="T54" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="U54" s="86" t="s">
+      <c r="U54" s="87" t="s">
         <v>182</v>
       </c>
       <c r="V54" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W54" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X54" s="86" t="s">
+      <c r="W54" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X54" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y54" s="40"/>
@@ -12370,17 +12366,17 @@
       <c r="I55" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="J55" s="87" t="s">
+      <c r="J55" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="K55" s="87" t="s">
+      <c r="K55" s="86" t="s">
         <v>23</v>
       </c>
       <c r="L55" s="7"/>
-      <c r="M55" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="N55" s="87" t="s">
+      <c r="M55" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N55" s="86" t="s">
         <v>24</v>
       </c>
       <c r="O55" s="26" t="s">
@@ -12394,19 +12390,19 @@
       </c>
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
-      <c r="T55" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U55" s="87" t="s">
+      <c r="T55" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U55" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V55" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W55" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="X55" s="87" t="s">
+      <c r="W55" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="X55" s="86" t="s">
         <v>30</v>
       </c>
       <c r="Y55" s="26"/>
@@ -12440,17 +12436,17 @@
       <c r="I56" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="J56" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K56" s="86" t="s">
+      <c r="J56" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K56" s="87" t="s">
         <v>26</v>
       </c>
       <c r="L56" s="39"/>
-      <c r="M56" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N56" s="86" t="s">
+      <c r="M56" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N56" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O56" s="40" t="s">
@@ -12464,19 +12460,19 @@
       </c>
       <c r="R56" s="39"/>
       <c r="S56" s="39"/>
-      <c r="T56" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U56" s="86" t="s">
+      <c r="T56" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U56" s="87" t="s">
         <v>26</v>
       </c>
       <c r="V56" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W56" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X56" s="86" t="s">
+      <c r="W56" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X56" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y56" s="40"/>
@@ -12510,19 +12506,19 @@
       <c r="I57" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="J57" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K57" s="87" t="s">
+      <c r="J57" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K57" s="86" t="s">
         <v>24</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M57" s="87" t="s">
+      <c r="M57" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N57" s="87" t="s">
+      <c r="N57" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O57" s="26" t="s">
@@ -12536,19 +12532,19 @@
       </c>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
-      <c r="T57" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U57" s="87" t="s">
+      <c r="T57" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U57" s="86" t="s">
         <v>24</v>
       </c>
       <c r="V57" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W57" s="87" t="s">
+      <c r="W57" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="X57" s="87" t="s">
+      <c r="X57" s="86" t="s">
         <v>25</v>
       </c>
       <c r="Y57" s="26"/>
@@ -12582,17 +12578,17 @@
       <c r="I58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="J58" s="86" t="s">
+      <c r="J58" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="K58" s="86" t="s">
+      <c r="K58" s="87" t="s">
         <v>28</v>
       </c>
       <c r="L58" s="39"/>
-      <c r="M58" s="86" t="s">
+      <c r="M58" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="N58" s="86" t="s">
+      <c r="N58" s="87" t="s">
         <v>78</v>
       </c>
       <c r="O58" s="40" t="s">
@@ -12606,19 +12602,19 @@
       </c>
       <c r="R58" s="39"/>
       <c r="S58" s="39"/>
-      <c r="T58" s="86" t="s">
+      <c r="T58" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="U58" s="86" t="s">
+      <c r="U58" s="87" t="s">
         <v>38</v>
       </c>
       <c r="V58" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W58" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="X58" s="86" t="s">
+      <c r="W58" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="X58" s="87" t="s">
         <v>30</v>
       </c>
       <c r="Y58" s="40"/>
@@ -12652,17 +12648,17 @@
       <c r="I59" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="J59" s="87" t="s">
+      <c r="J59" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="K59" s="87" t="s">
+      <c r="K59" s="86" t="s">
         <v>38</v>
       </c>
       <c r="L59" s="7"/>
-      <c r="M59" s="87" t="s">
+      <c r="M59" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N59" s="87" t="s">
+      <c r="N59" s="86" t="s">
         <v>25</v>
       </c>
       <c r="O59" s="26" t="s">
@@ -12676,19 +12672,19 @@
       </c>
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
-      <c r="T59" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="U59" s="87" t="s">
+      <c r="T59" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="U59" s="86" t="s">
         <v>26</v>
       </c>
       <c r="V59" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W59" s="87" t="s">
+      <c r="W59" s="86" t="s">
         <v>184</v>
       </c>
-      <c r="X59" s="87" t="s">
+      <c r="X59" s="86" t="s">
         <v>185</v>
       </c>
       <c r="Y59" s="26"/>
@@ -12708,11 +12704,11 @@
       <c r="G60" s="51"/>
       <c r="H60" s="51"/>
       <c r="I60" s="50"/>
-      <c r="J60" s="100"/>
-      <c r="K60" s="101"/>
+      <c r="J60" s="90"/>
+      <c r="K60" s="91"/>
       <c r="L60" s="51"/>
-      <c r="M60" s="100"/>
-      <c r="N60" s="101"/>
+      <c r="M60" s="90"/>
+      <c r="N60" s="91"/>
       <c r="O60" s="52"/>
       <c r="P60" s="66"/>
       <c r="Q60" s="39" t="s">
@@ -12720,19 +12716,19 @@
       </c>
       <c r="R60" s="39"/>
       <c r="S60" s="39"/>
-      <c r="T60" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="U60" s="86" t="s">
+      <c r="T60" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="U60" s="87" t="s">
         <v>26</v>
       </c>
       <c r="V60" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W60" s="86" t="s">
+      <c r="W60" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="X60" s="86" t="s">
+      <c r="X60" s="87" t="s">
         <v>23</v>
       </c>
       <c r="Y60" s="52"/>
@@ -12750,11 +12746,11 @@
       <c r="G61" s="31"/>
       <c r="H61" s="31"/>
       <c r="I61" s="30"/>
-      <c r="J61" s="102"/>
-      <c r="K61" s="103"/>
+      <c r="J61" s="88"/>
+      <c r="K61" s="89"/>
       <c r="L61" s="31"/>
-      <c r="M61" s="102"/>
-      <c r="N61" s="103"/>
+      <c r="M61" s="88"/>
+      <c r="N61" s="89"/>
       <c r="O61" s="32"/>
       <c r="P61" s="65"/>
       <c r="Q61" s="32"/>
@@ -12780,11 +12776,11 @@
       <c r="G62" s="51"/>
       <c r="H62" s="51"/>
       <c r="I62" s="50"/>
-      <c r="J62" s="100"/>
-      <c r="K62" s="101"/>
+      <c r="J62" s="90"/>
+      <c r="K62" s="91"/>
       <c r="L62" s="51"/>
-      <c r="M62" s="100"/>
-      <c r="N62" s="101"/>
+      <c r="M62" s="90"/>
+      <c r="N62" s="91"/>
       <c r="O62" s="52"/>
       <c r="P62" s="66"/>
       <c r="Q62" s="52"/>
@@ -12810,11 +12806,11 @@
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
       <c r="I63" s="30"/>
-      <c r="J63" s="102"/>
-      <c r="K63" s="103"/>
+      <c r="J63" s="88"/>
+      <c r="K63" s="89"/>
       <c r="L63" s="31"/>
-      <c r="M63" s="102"/>
-      <c r="N63" s="103"/>
+      <c r="M63" s="88"/>
+      <c r="N63" s="89"/>
       <c r="O63" s="32"/>
       <c r="P63" s="65"/>
       <c r="Q63" s="32"/>
@@ -12840,11 +12836,11 @@
       <c r="G64" s="51"/>
       <c r="H64" s="51"/>
       <c r="I64" s="50"/>
-      <c r="J64" s="100"/>
-      <c r="K64" s="101"/>
+      <c r="J64" s="90"/>
+      <c r="K64" s="91"/>
       <c r="L64" s="51"/>
-      <c r="M64" s="100"/>
-      <c r="N64" s="101"/>
+      <c r="M64" s="90"/>
+      <c r="N64" s="91"/>
       <c r="O64" s="52"/>
       <c r="P64" s="66"/>
       <c r="Q64" s="52"/>
@@ -12870,11 +12866,11 @@
       <c r="G65" s="31"/>
       <c r="H65" s="31"/>
       <c r="I65" s="30"/>
-      <c r="J65" s="102"/>
-      <c r="K65" s="103"/>
+      <c r="J65" s="88"/>
+      <c r="K65" s="89"/>
       <c r="L65" s="31"/>
-      <c r="M65" s="102"/>
-      <c r="N65" s="103"/>
+      <c r="M65" s="88"/>
+      <c r="N65" s="89"/>
       <c r="O65" s="32"/>
       <c r="P65" s="65"/>
       <c r="Q65" s="32"/>
@@ -12914,17 +12910,17 @@
       <c r="I66" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J66" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K66" s="86" t="s">
+      <c r="J66" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="K66" s="87" t="s">
         <v>24</v>
       </c>
       <c r="L66" s="39"/>
-      <c r="M66" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="N66" s="86" t="s">
+      <c r="M66" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="N66" s="87" t="s">
         <v>24</v>
       </c>
       <c r="O66" s="40" t="s">
@@ -13007,36 +13003,157 @@
     <row r="69" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="205">
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="W54:X54"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="W56:X56"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="W60:X60"/>
+    <mergeCell ref="P6:P13"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="I6:I13"/>
+    <mergeCell ref="Z6:Z13"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M60:N60"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="J57:K57"/>
     <mergeCell ref="J58:K58"/>
@@ -13061,157 +13178,36 @@
     <mergeCell ref="J47:K47"/>
     <mergeCell ref="J48:K48"/>
     <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="I6:I13"/>
-    <mergeCell ref="Z6:Z13"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="W60:X60"/>
-    <mergeCell ref="P6:P13"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="W54:X54"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="W56:X56"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="W57:X57"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="W47:X47"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="W48:X48"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:F6 I6:N6 Z6:IV6">

--- a/app/xlsx/4月_5月シフト.xlsx
+++ b/app/xlsx/4月_5月シフト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiha\OneDrive\デスクトップ\MyPrograming\MyGo\rolemaster0.5\RoleMaserV0.5\app\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52427B3F-3739-4FE2-8A79-CE4F95AB8F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0B4C70-0419-4766-AF91-6966406E447E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12105" yWindow="0" windowWidth="16695" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PJシフト4月" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="245">
   <si>
     <t>ミエルココン</t>
   </si>
@@ -835,13 +835,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>8：30－21：30　※初出勤</t>
-    <rPh sb="12" eb="15">
-      <t>ハツシュッキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>西川</t>
     <rPh sb="0" eb="2">
       <t>ニシカワ</t>
@@ -878,10 +871,21 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>09:30-15:00</t>
-  </si>
-  <si>
     <t>修 14:00-21:30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14:00-21:30</t>
+  </si>
+  <si>
+    <t>8:30-16:00</t>
+  </si>
+  <si>
+    <t>8：30－21：30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修 08:30-20:00</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1632,7 +1636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1841,149 +1845,95 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="39">
     <dxf>
       <font>
         <color theme="8"/>
@@ -2521,11 +2471,11 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="72"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="82" t="s">
         <v>146</v>
       </c>
       <c r="D6" s="8">
@@ -2543,7 +2493,7 @@
       <c r="H6" s="8">
         <v>15</v>
       </c>
-      <c r="I6" s="78" t="s">
+      <c r="I6" s="85" t="s">
         <v>146</v>
       </c>
       <c r="J6" s="8">
@@ -2566,11 +2516,11 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="73"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="76"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2586,7 +2536,7 @@
       <c r="H7" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="I7" s="79"/>
+      <c r="I7" s="86"/>
       <c r="J7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2607,11 +2557,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="73"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="76"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="7">
         <v>68</v>
       </c>
@@ -2625,7 +2575,7 @@
         <v>60</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="79"/>
+      <c r="I8" s="86"/>
       <c r="J8" s="7">
         <v>90</v>
       </c>
@@ -2644,11 +2594,11 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="73"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="17">
         <v>14</v>
       </c>
@@ -2664,7 +2614,7 @@
       <c r="H9" s="17">
         <v>10</v>
       </c>
-      <c r="I9" s="79"/>
+      <c r="I9" s="86"/>
       <c r="J9" s="17">
         <v>18</v>
       </c>
@@ -2683,11 +2633,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="73"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="76"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2701,7 +2651,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="79"/>
+      <c r="I10" s="86"/>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2720,11 +2670,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="73"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="76"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="7" t="s">
         <v>94</v>
       </c>
@@ -2740,7 +2690,7 @@
       <c r="H11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="79"/>
+      <c r="I11" s="86"/>
       <c r="J11" s="7" t="s">
         <v>97</v>
       </c>
@@ -2759,11 +2709,11 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="73"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="76"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2779,7 +2729,7 @@
       <c r="H12" s="18">
         <v>0.6875</v>
       </c>
-      <c r="I12" s="79"/>
+      <c r="I12" s="86"/>
       <c r="J12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2800,11 +2750,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="74"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="77"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2820,7 +2770,7 @@
       <c r="H13" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="I13" s="80"/>
+      <c r="I13" s="87"/>
       <c r="J13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2866,17 +2816,17 @@
       <c r="I14" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="J14" s="81" t="s">
+      <c r="J14" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="81" t="s">
+      <c r="K14" s="88" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="43"/>
-      <c r="M14" s="81" t="s">
+      <c r="M14" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="81" t="s">
+      <c r="N14" s="88" t="s">
         <v>23</v>
       </c>
       <c r="O14" s="44" t="s">
@@ -2954,17 +2904,17 @@
       <c r="I16" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="J16" s="70" t="s">
+      <c r="J16" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="70" t="s">
+      <c r="K16" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="70" t="s">
+      <c r="M16" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="70" t="s">
+      <c r="N16" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="40" t="s">
@@ -3040,17 +2990,17 @@
       <c r="I18" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="J18" s="70" t="s">
+      <c r="J18" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="70" t="s">
+      <c r="K18" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="39"/>
-      <c r="M18" s="70" t="s">
+      <c r="M18" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N18" s="70" t="s">
+      <c r="N18" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O18" s="40" t="s">
@@ -3126,17 +3076,17 @@
       <c r="I20" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="70" t="s">
+      <c r="J20" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="70" t="s">
+      <c r="K20" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="39"/>
-      <c r="M20" s="70" t="s">
+      <c r="M20" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="70" t="s">
+      <c r="N20" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O20" s="40" t="s">
@@ -3212,17 +3162,17 @@
       <c r="I22" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="J22" s="70" t="s">
+      <c r="J22" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="70" t="s">
+      <c r="K22" s="72" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="39"/>
-      <c r="M22" s="70" t="s">
+      <c r="M22" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N22" s="70" t="s">
+      <c r="N22" s="72" t="s">
         <v>38</v>
       </c>
       <c r="O22" s="40" t="s">
@@ -3300,17 +3250,17 @@
       <c r="I24" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="J24" s="70" t="s">
+      <c r="J24" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K24" s="70" t="s">
+      <c r="K24" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="39"/>
-      <c r="M24" s="70" t="s">
+      <c r="M24" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="70" t="s">
+      <c r="N24" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="40" t="s">
@@ -3386,19 +3336,19 @@
       <c r="I26" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J26" s="70" t="s">
+      <c r="J26" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="70" t="s">
+      <c r="K26" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M26" s="70" t="s">
+      <c r="M26" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="70" t="s">
+      <c r="N26" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O26" s="40" t="s">
@@ -3474,19 +3424,19 @@
       <c r="I28" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="J28" s="70" t="s">
+      <c r="J28" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="70" t="s">
+      <c r="K28" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="70" t="s">
+      <c r="M28" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N28" s="70" t="s">
+      <c r="N28" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O28" s="40" t="s">
@@ -3562,17 +3512,17 @@
       <c r="I30" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="J30" s="70" t="s">
+      <c r="J30" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="70" t="s">
+      <c r="K30" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="39"/>
-      <c r="M30" s="70" t="s">
+      <c r="M30" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N30" s="70" t="s">
+      <c r="N30" s="72" t="s">
         <v>26</v>
       </c>
       <c r="O30" s="40" t="s">
@@ -3648,17 +3598,17 @@
       <c r="I32" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="J32" s="70" t="s">
+      <c r="J32" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K32" s="70" t="s">
+      <c r="K32" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="39"/>
-      <c r="M32" s="70" t="s">
+      <c r="M32" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N32" s="70" t="s">
+      <c r="N32" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="40" t="s">
@@ -3734,17 +3684,17 @@
       <c r="I34" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="J34" s="70" t="s">
+      <c r="J34" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K34" s="70" t="s">
+      <c r="K34" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="39"/>
-      <c r="M34" s="70" t="s">
+      <c r="M34" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N34" s="70" t="s">
+      <c r="N34" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O34" s="40" t="s">
@@ -3820,17 +3770,17 @@
       <c r="I36" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J36" s="70" t="s">
+      <c r="J36" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K36" s="70" t="s">
+      <c r="K36" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L36" s="39"/>
-      <c r="M36" s="70" t="s">
+      <c r="M36" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="70" t="s">
+      <c r="N36" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O36" s="40" t="s">
@@ -3906,17 +3856,17 @@
       <c r="I38" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="J38" s="70" t="s">
+      <c r="J38" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="70" t="s">
+      <c r="K38" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L38" s="39"/>
-      <c r="M38" s="70" t="s">
+      <c r="M38" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N38" s="70" t="s">
+      <c r="N38" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O38" s="40" t="s">
@@ -3992,19 +3942,19 @@
       <c r="I40" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="J40" s="82" t="s">
+      <c r="J40" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="K40" s="82" t="s">
+      <c r="K40" s="77" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="82" t="s">
+      <c r="M40" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="N40" s="82" t="s">
+      <c r="N40" s="77" t="s">
         <v>24</v>
       </c>
       <c r="O40" s="49" t="s">
@@ -4037,17 +3987,17 @@
       <c r="I41" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="J41" s="83" t="s">
+      <c r="J41" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="K41" s="83" t="s">
+      <c r="K41" s="78" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="31"/>
-      <c r="M41" s="83" t="s">
+      <c r="M41" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="N41" s="83" t="s">
+      <c r="N41" s="78" t="s">
         <v>24</v>
       </c>
       <c r="O41" s="32" t="s">
@@ -4080,17 +4030,17 @@
       <c r="I42" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="J42" s="70" t="s">
+      <c r="J42" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K42" s="70" t="s">
+      <c r="K42" s="72" t="s">
         <v>26</v>
       </c>
       <c r="L42" s="39"/>
-      <c r="M42" s="70" t="s">
+      <c r="M42" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N42" s="70" t="s">
+      <c r="N42" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O42" s="40" t="s">
@@ -4168,17 +4118,17 @@
       <c r="I44" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="J44" s="70" t="s">
+      <c r="J44" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="K44" s="70" t="s">
+      <c r="K44" s="72" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="39"/>
-      <c r="M44" s="70" t="s">
+      <c r="M44" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N44" s="70" t="s">
+      <c r="N44" s="72" t="s">
         <v>38</v>
       </c>
       <c r="O44" s="40" t="s">
@@ -4254,17 +4204,17 @@
       <c r="I46" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="J46" s="70" t="s">
+      <c r="J46" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K46" s="70" t="s">
+      <c r="K46" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="39"/>
-      <c r="M46" s="70" t="s">
+      <c r="M46" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N46" s="70" t="s">
+      <c r="N46" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O46" s="40" t="s">
@@ -4340,17 +4290,17 @@
       <c r="I48" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="J48" s="70" t="s">
+      <c r="J48" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K48" s="70" t="s">
+      <c r="K48" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L48" s="39"/>
-      <c r="M48" s="70" t="s">
+      <c r="M48" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N48" s="70" t="s">
+      <c r="N48" s="72" t="s">
         <v>66</v>
       </c>
       <c r="O48" s="40" t="s">
@@ -4426,17 +4376,17 @@
       <c r="I50" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="J50" s="70" t="s">
+      <c r="J50" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K50" s="70" t="s">
+      <c r="K50" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="39"/>
-      <c r="M50" s="70" t="s">
+      <c r="M50" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N50" s="70" t="s">
+      <c r="N50" s="72" t="s">
         <v>38</v>
       </c>
       <c r="O50" s="40" t="s">
@@ -4512,19 +4462,19 @@
       <c r="I52" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J52" s="70" t="s">
+      <c r="J52" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="70" t="s">
+      <c r="K52" s="72" t="s">
         <v>71</v>
       </c>
       <c r="L52" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M52" s="70" t="s">
+      <c r="M52" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N52" s="70" t="s">
+      <c r="N52" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O52" s="40" t="s">
@@ -4602,17 +4552,17 @@
       <c r="I54" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="J54" s="70" t="s">
+      <c r="J54" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="K54" s="70" t="s">
+      <c r="K54" s="72" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="39"/>
-      <c r="M54" s="70" t="s">
+      <c r="M54" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N54" s="70" t="s">
+      <c r="N54" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O54" s="40" t="s">
@@ -4688,17 +4638,17 @@
       <c r="I56" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="J56" s="70" t="s">
+      <c r="J56" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K56" s="70" t="s">
+      <c r="K56" s="72" t="s">
         <v>26</v>
       </c>
       <c r="L56" s="39"/>
-      <c r="M56" s="70" t="s">
+      <c r="M56" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N56" s="70" t="s">
+      <c r="N56" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O56" s="40" t="s">
@@ -4776,17 +4726,17 @@
       <c r="I58" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="J58" s="70" t="s">
+      <c r="J58" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="K58" s="70" t="s">
+      <c r="K58" s="72" t="s">
         <v>28</v>
       </c>
       <c r="L58" s="39"/>
-      <c r="M58" s="70" t="s">
+      <c r="M58" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N58" s="70" t="s">
+      <c r="N58" s="72" t="s">
         <v>78</v>
       </c>
       <c r="O58" s="40" t="s">
@@ -4850,15 +4800,15 @@
       <c r="G60" s="51"/>
       <c r="H60" s="51"/>
       <c r="I60" s="50"/>
-      <c r="J60" s="84" t="s">
+      <c r="J60" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="K60" s="85"/>
+      <c r="K60" s="76"/>
       <c r="L60" s="51"/>
-      <c r="M60" s="70" t="s">
+      <c r="M60" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N60" s="70" t="s">
+      <c r="N60" s="72" t="s">
         <v>66</v>
       </c>
       <c r="O60" s="26" t="s">
@@ -4879,10 +4829,10 @@
       <c r="G61" s="31"/>
       <c r="H61" s="31"/>
       <c r="I61" s="30"/>
-      <c r="J61" s="86" t="s">
+      <c r="J61" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="K61" s="87"/>
+      <c r="K61" s="74"/>
       <c r="L61" s="31"/>
       <c r="M61" s="71" t="s">
         <v>82</v>
@@ -4915,10 +4865,10 @@
         <v>24</v>
       </c>
       <c r="L62" s="51"/>
-      <c r="M62" s="70" t="s">
+      <c r="M62" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N62" s="70" t="s">
+      <c r="N62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O62" s="26" t="s">
@@ -4939,15 +4889,15 @@
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
       <c r="I63" s="30"/>
-      <c r="J63" s="86" t="s">
+      <c r="J63" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="K63" s="87"/>
+      <c r="K63" s="74"/>
       <c r="L63" s="31"/>
-      <c r="M63" s="70" t="s">
+      <c r="M63" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N63" s="70" t="s">
+      <c r="N63" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O63" s="26" t="s">
@@ -5004,10 +4954,10 @@
         <v>24</v>
       </c>
       <c r="L65" s="31"/>
-      <c r="M65" s="70" t="s">
+      <c r="M65" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N65" s="70" t="s">
+      <c r="N65" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O65" s="40" t="s">
@@ -5040,17 +4990,17 @@
       <c r="I66" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="J66" s="70" t="s">
+      <c r="J66" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K66" s="70" t="s">
+      <c r="K66" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L66" s="39"/>
-      <c r="M66" s="70" t="s">
+      <c r="M66" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N66" s="70" t="s">
+      <c r="N66" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O66" s="40" t="s">
@@ -5096,102 +5046,6 @@
     <row r="69" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:N21"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="J17:K17"/>
@@ -5205,49 +5059,145 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M15:N15"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="M63:N63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:F6 I6:N6">
-    <cfRule type="expression" dxfId="50" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="4" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="5" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="6" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 D7:H7 J7:O7">
-    <cfRule type="expression" dxfId="47" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="1" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="2" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="3" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H6">
-    <cfRule type="expression" dxfId="44" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="10" stopIfTrue="1">
       <formula>I$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="11" stopIfTrue="1">
       <formula>I$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="12" stopIfTrue="1">
       <formula>I$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="expression" dxfId="41" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="7" stopIfTrue="1">
       <formula>X$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="8" stopIfTrue="1">
       <formula>X$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
       <formula>X$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5259,8 +5209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A1C220-DC63-401D-B66B-975EAA99E44B}">
   <dimension ref="A2:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView tabSelected="1" topLeftCell="I6" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5289,10 +5239,10 @@
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -5357,11 +5307,11 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="72"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="82" t="s">
         <v>146</v>
       </c>
       <c r="D6" s="8">
@@ -5405,11 +5355,11 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="73"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="76"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="7" t="s">
         <v>152</v>
       </c>
@@ -5451,11 +5401,11 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="73"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="76"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="7">
         <v>13</v>
       </c>
@@ -5497,13 +5447,13 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="73"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>98</v>
@@ -5518,7 +5468,7 @@
         <v>96</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>98</v>
@@ -5543,11 +5493,11 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="73"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="76"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="7">
         <v>6</v>
       </c>
@@ -5589,11 +5539,11 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="73"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="76"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="7" t="s">
         <v>155</v>
       </c>
@@ -5635,11 +5585,11 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="73"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="76"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="7" t="s">
         <v>156</v>
       </c>
@@ -5681,11 +5631,11 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="74"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="77"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -5739,37 +5689,37 @@
       <c r="D14" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="81" t="s">
+      <c r="E14" s="88" t="s">
+        <v>244</v>
+      </c>
+      <c r="F14" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="88" t="s">
         <v>66</v>
       </c>
       <c r="J14" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="L14" s="71" t="s">
-        <v>225</v>
+      <c r="K14" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="72" t="s">
+        <v>66</v>
       </c>
       <c r="M14" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="N14" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14" s="81" t="s">
+      <c r="N14" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="88" t="s">
         <v>66</v>
       </c>
       <c r="P14" s="63" t="s">
@@ -5839,10 +5789,10 @@
       <c r="D16" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="70" t="s">
+      <c r="E16" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="70" t="s">
+      <c r="F16" s="72" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="39" t="s">
@@ -5857,19 +5807,19 @@
       <c r="J16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="70" t="s">
+      <c r="K16" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M16" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N16" s="70" t="s">
+      <c r="N16" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="70" t="s">
+      <c r="O16" s="72" t="s">
         <v>38</v>
       </c>
       <c r="P16" s="64" t="s">
@@ -5939,37 +5889,37 @@
       <c r="D18" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="70" t="s">
+      <c r="E18" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G18" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="70" t="s">
+      <c r="H18" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" s="70" t="s">
+      <c r="K18" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="O18" s="70" t="s">
+      <c r="N18" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P18" s="64" t="s">
@@ -6039,37 +5989,37 @@
       <c r="D20" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="70" t="s">
+      <c r="E20" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="70" t="s">
-        <v>242</v>
-      </c>
-      <c r="I20" s="70" t="s">
+      <c r="H20" s="72" t="s">
+        <v>240</v>
+      </c>
+      <c r="I20" s="72" t="s">
         <v>224</v>
       </c>
       <c r="J20" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="70" t="s">
+      <c r="K20" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M20" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N20" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="O20" s="70" t="s">
+      <c r="N20" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P20" s="64" t="s">
@@ -6139,37 +6089,37 @@
       <c r="D22" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E22" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="70" t="s">
+      <c r="E22" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G22" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22" s="70" t="s">
+      <c r="H22" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="72" t="s">
         <v>38</v>
       </c>
       <c r="J22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" s="70" t="s">
+      <c r="K22" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="O22" s="70" t="s">
+      <c r="N22" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P22" s="64" t="s">
@@ -6187,7 +6137,7 @@
         <v>105</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E23" s="71" t="s">
         <v>66</v>
@@ -6207,11 +6157,11 @@
       <c r="J23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K23" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L23" s="71" t="s">
-        <v>66</v>
+      <c r="K23" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="72" t="s">
+        <v>24</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>26</v>
@@ -6239,37 +6189,37 @@
       <c r="D24" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="70" t="s">
+      <c r="E24" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G24" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="70" t="s">
+      <c r="H24" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J24" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K24" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" s="70" t="s">
+      <c r="K24" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M24" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="O24" s="70" t="s">
+      <c r="N24" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P24" s="64" t="s">
@@ -6339,37 +6289,37 @@
       <c r="D26" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E26" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="70" t="s">
+      <c r="E26" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G26" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="70" t="s">
+      <c r="H26" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J26" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K26" s="70" t="s">
+      <c r="K26" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="70" t="s">
+      <c r="L26" s="72" t="s">
         <v>25</v>
       </c>
       <c r="M26" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N26" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="O26" s="70" t="s">
+      <c r="N26" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O26" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P26" s="64" t="s">
@@ -6439,37 +6389,37 @@
       <c r="D28" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E28" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="70" t="s">
+      <c r="E28" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G28" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" s="70" t="s">
+      <c r="H28" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J28" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="K28" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="L28" s="70" t="s">
-        <v>38</v>
+      <c r="K28" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="71" t="s">
+        <v>66</v>
       </c>
       <c r="M28" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N28" s="70" t="s">
+      <c r="N28" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="O28" s="70" t="s">
+      <c r="O28" s="72" t="s">
         <v>38</v>
       </c>
       <c r="P28" s="64" t="s">
@@ -6537,39 +6487,39 @@
         <v>141</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="E30" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="E30" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="70" t="s">
+      <c r="H30" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J30" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="L30" s="70" t="s">
+      <c r="K30" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L30" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M30" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N30" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="O30" s="70" t="s">
+      <c r="N30" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O30" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P30" s="64" t="s">
@@ -6639,37 +6589,37 @@
       <c r="D32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="70" t="s">
+      <c r="E32" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G32" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="70" t="s">
+      <c r="H32" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J32" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="K32" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" s="70" t="s">
+      <c r="K32" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M32" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N32" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="O32" s="70" t="s">
+      <c r="N32" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P32" s="64" t="s">
@@ -6739,10 +6689,10 @@
       <c r="D34" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="E34" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" s="70" t="s">
+      <c r="E34" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G34" s="39" t="s">
@@ -6757,19 +6707,19 @@
       <c r="J34" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K34" s="70" t="s">
+      <c r="K34" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="L34" s="70" t="s">
+      <c r="L34" s="72" t="s">
         <v>225</v>
       </c>
       <c r="M34" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N34" s="70" t="s">
+      <c r="N34" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="O34" s="70" t="s">
+      <c r="O34" s="72" t="s">
         <v>38</v>
       </c>
       <c r="P34" s="64" t="s">
@@ -6839,37 +6789,37 @@
       <c r="D36" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="70" t="s">
+      <c r="E36" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="I36" s="70" t="s">
+      <c r="H36" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J36" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K36" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="L36" s="70" t="s">
+      <c r="K36" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N36" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="O36" s="70" t="s">
+      <c r="N36" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O36" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P36" s="64" t="s">
@@ -6939,37 +6889,37 @@
       <c r="D38" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="70" t="s">
+      <c r="E38" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="70" t="s">
+      <c r="H38" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K38" s="70" t="s">
+      <c r="K38" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="L38" s="70" t="s">
+      <c r="L38" s="72" t="s">
         <v>227</v>
       </c>
       <c r="M38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N38" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="O38" s="70" t="s">
+      <c r="N38" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O38" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P38" s="64" t="s">
@@ -7039,37 +6989,37 @@
       <c r="D40" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="F40" s="70" t="s">
+      <c r="E40" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G40" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H40" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="I40" s="70" t="s">
+      <c r="H40" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="72" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K40" s="70" t="s">
+      <c r="K40" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="L40" s="70" t="s">
+      <c r="L40" s="72" t="s">
         <v>30</v>
       </c>
       <c r="M40" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="N40" s="70" t="s">
+      <c r="N40" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="O40" s="70" t="s">
+      <c r="O40" s="72" t="s">
         <v>30</v>
       </c>
       <c r="P40" s="64" t="s">
@@ -7089,37 +7039,37 @@
       <c r="D41" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="F41" s="90" t="s">
+      <c r="E41" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="93" t="s">
         <v>66</v>
       </c>
       <c r="G41" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="90" t="s">
+      <c r="H41" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="93" t="s">
         <v>26</v>
       </c>
       <c r="J41" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="K41" s="90" t="s">
+      <c r="K41" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="L41" s="90" t="s">
+      <c r="L41" s="93" t="s">
         <v>23</v>
       </c>
       <c r="M41" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="N41" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="O41" s="90" t="s">
+      <c r="N41" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="O41" s="93" t="s">
         <v>23</v>
       </c>
       <c r="P41" s="54" t="s">
@@ -7139,37 +7089,37 @@
       <c r="D42" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="E42" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="91" t="s">
+      <c r="E42" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="94" t="s">
         <v>66</v>
       </c>
       <c r="G42" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="I42" s="91" t="s">
+      <c r="H42" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="94" t="s">
         <v>66</v>
       </c>
       <c r="J42" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="K42" s="91" t="s">
+      <c r="K42" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="L42" s="91" t="s">
+      <c r="L42" s="94" t="s">
         <v>38</v>
       </c>
       <c r="M42" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="N42" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="O42" s="91" t="s">
+      <c r="N42" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="O42" s="94" t="s">
         <v>66</v>
       </c>
       <c r="P42" s="65" t="s">
@@ -7189,37 +7139,37 @@
       <c r="D43" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="83" t="s">
+      <c r="E43" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="83" t="s">
+      <c r="F43" s="78" t="s">
         <v>25</v>
       </c>
       <c r="G43" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="I43" s="83" t="s">
+      <c r="H43" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="78" t="s">
         <v>24</v>
       </c>
       <c r="J43" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="K43" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" s="83" t="s">
+      <c r="K43" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="78" t="s">
         <v>24</v>
       </c>
       <c r="M43" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="N43" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="O43" s="83" t="s">
+      <c r="N43" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="O43" s="78" t="s">
         <v>24</v>
       </c>
       <c r="P43" s="66" t="s">
@@ -7239,37 +7189,37 @@
       <c r="D44" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="70" t="s">
+      <c r="E44" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G44" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="70" t="s">
+      <c r="H44" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I44" s="70" t="s">
+      <c r="I44" s="72" t="s">
         <v>25</v>
       </c>
       <c r="J44" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K44" s="70" t="s">
-        <v>242</v>
-      </c>
-      <c r="L44" s="70" t="s">
+      <c r="K44" s="72" t="s">
+        <v>240</v>
+      </c>
+      <c r="L44" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M44" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N44" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="O44" s="70" t="s">
+      <c r="N44" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O44" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P44" s="64" t="s">
@@ -7339,37 +7289,37 @@
       <c r="D46" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="70" t="s">
+      <c r="E46" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G46" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H46" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="I46" s="70" t="s">
+      <c r="H46" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J46" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K46" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="L46" s="70" t="s">
+      <c r="K46" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L46" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M46" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N46" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="O46" s="70" t="s">
+      <c r="N46" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O46" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P46" s="64" t="s">
@@ -7439,37 +7389,37 @@
       <c r="D48" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="70" t="s">
+      <c r="E48" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G48" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="I48" s="70" t="s">
+      <c r="H48" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I48" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J48" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K48" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="L48" s="70" t="s">
+      <c r="K48" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M48" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N48" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="O48" s="70" t="s">
+      <c r="N48" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O48" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P48" s="64" t="s">
@@ -7539,37 +7489,37 @@
       <c r="D50" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50" s="70" t="s">
+      <c r="E50" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G50" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="I50" s="70" t="s">
+      <c r="H50" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J50" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="70" t="s">
+      <c r="K50" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="L50" s="70" t="s">
+      <c r="L50" s="72" t="s">
         <v>38</v>
       </c>
       <c r="M50" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N50" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="O50" s="70" t="s">
+      <c r="N50" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O50" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P50" s="64" t="s">
@@ -7639,37 +7589,37 @@
       <c r="D52" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="F52" s="70" t="s">
+      <c r="E52" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="I52" s="70" t="s">
+      <c r="H52" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J52" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K52" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="L52" s="70" t="s">
+      <c r="K52" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N52" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="O52" s="70" t="s">
+      <c r="N52" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O52" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P52" s="64" t="s">
@@ -7689,37 +7639,37 @@
       <c r="D53" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" s="89" t="s">
+      <c r="E53" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="95" t="s">
         <v>24</v>
       </c>
       <c r="G53" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H53" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="I53" s="89" t="s">
+      <c r="H53" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="95" t="s">
         <v>24</v>
       </c>
       <c r="J53" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="K53" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="L53" s="89" t="s">
+      <c r="K53" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" s="95" t="s">
         <v>26</v>
       </c>
       <c r="M53" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="N53" s="89" t="s">
+      <c r="N53" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="O53" s="89" t="s">
+      <c r="O53" s="95" t="s">
         <v>38</v>
       </c>
       <c r="P53" s="67" t="s">
@@ -7739,37 +7689,37 @@
       <c r="D54" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" s="70" t="s">
+      <c r="E54" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G54" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="I54" s="70" t="s">
+      <c r="H54" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" s="72" t="s">
         <v>26</v>
       </c>
       <c r="J54" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K54" s="70" t="s">
+      <c r="K54" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="L54" s="70" t="s">
+      <c r="L54" s="72" t="s">
         <v>38</v>
       </c>
       <c r="M54" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N54" s="70" t="s">
+      <c r="N54" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="O54" s="70" t="s">
+      <c r="O54" s="72" t="s">
         <v>38</v>
       </c>
       <c r="P54" s="64" t="s">
@@ -7839,37 +7789,37 @@
       <c r="D56" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E56" s="70" t="s">
+      <c r="E56" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="F56" s="70" t="s">
+      <c r="F56" s="72" t="s">
         <v>38</v>
       </c>
       <c r="G56" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H56" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="I56" s="70" t="s">
+      <c r="H56" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J56" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K56" s="70" t="s">
+      <c r="K56" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="L56" s="70" t="s">
+      <c r="L56" s="72" t="s">
         <v>38</v>
       </c>
       <c r="M56" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N56" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="O56" s="70" t="s">
+      <c r="N56" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O56" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P56" s="64" t="s">
@@ -7939,37 +7889,37 @@
       <c r="D58" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E58" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="F58" s="70" t="s">
+      <c r="E58" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" s="72" t="s">
         <v>38</v>
       </c>
       <c r="G58" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H58" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="I58" s="70" t="s">
+      <c r="H58" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I58" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J58" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K58" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="L58" s="70" t="s">
+      <c r="K58" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M58" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N58" s="70" t="s">
+      <c r="N58" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="O58" s="70" t="s">
+      <c r="O58" s="72" t="s">
         <v>25</v>
       </c>
       <c r="P58" s="64" t="s">
@@ -8039,37 +7989,37 @@
       <c r="D60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E60" s="70" t="s">
+      <c r="E60" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="F60" s="70" t="s">
+      <c r="F60" s="72" t="s">
         <v>30</v>
       </c>
       <c r="G60" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H60" s="70" t="s">
+      <c r="H60" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="I60" s="70" t="s">
+      <c r="I60" s="72" t="s">
         <v>30</v>
       </c>
       <c r="J60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K60" s="70" t="s">
+      <c r="K60" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="L60" s="70" t="s">
+      <c r="L60" s="72" t="s">
         <v>30</v>
       </c>
       <c r="M60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N60" s="70" t="s">
+      <c r="N60" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="O60" s="70" t="s">
+      <c r="O60" s="72" t="s">
         <v>25</v>
       </c>
       <c r="P60" s="64" t="s">
@@ -8139,37 +8089,37 @@
       <c r="D62" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E62" s="70" t="s">
+      <c r="E62" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="70" t="s">
+      <c r="F62" s="72" t="s">
         <v>25</v>
       </c>
       <c r="G62" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H62" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="I62" s="70" t="s">
+      <c r="H62" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" s="72" t="s">
         <v>26</v>
       </c>
       <c r="J62" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K62" s="70" t="s">
+      <c r="K62" s="72" t="s">
         <v>229</v>
       </c>
-      <c r="L62" s="70" t="s">
+      <c r="L62" s="72" t="s">
         <v>229</v>
       </c>
       <c r="M62" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N62" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="O62" s="70" t="s">
+      <c r="N62" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="O62" s="72" t="s">
         <v>26</v>
       </c>
       <c r="P62" s="64" t="s">
@@ -8239,37 +8189,37 @@
       <c r="D64" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E64" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" s="70" t="s">
+      <c r="E64" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G64" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H64" s="70" t="s">
+      <c r="H64" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="I64" s="70" t="s">
+      <c r="I64" s="72" t="s">
         <v>224</v>
       </c>
       <c r="J64" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K64" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="L64" s="70" t="s">
+      <c r="K64" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L64" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M64" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N64" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="O64" s="70" t="s">
+      <c r="N64" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="O64" s="72" t="s">
         <v>26</v>
       </c>
       <c r="P64" s="64" t="s">
@@ -8304,8 +8254,8 @@
       <c r="I65" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="J65" s="7" t="s">
-        <v>30</v>
+      <c r="J65" s="96" t="s">
+        <v>241</v>
       </c>
       <c r="K65" s="71" t="s">
         <v>30</v>
@@ -8317,7 +8267,7 @@
         <v>30</v>
       </c>
       <c r="N65" s="71" t="s">
-        <v>30</v>
+        <v>242</v>
       </c>
       <c r="O65" s="71" t="s">
         <v>30</v>
@@ -8338,23 +8288,23 @@
       <c r="E66" s="51"/>
       <c r="F66" s="51"/>
       <c r="G66" s="51"/>
-      <c r="H66" s="92"/>
-      <c r="I66" s="93"/>
+      <c r="H66" s="89"/>
+      <c r="I66" s="90"/>
       <c r="J66" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="K66" s="92" t="s">
-        <v>234</v>
-      </c>
-      <c r="L66" s="93"/>
+      <c r="K66" s="89" t="s">
+        <v>243</v>
+      </c>
+      <c r="L66" s="90"/>
       <c r="M66" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="N66" s="92" t="s">
+      <c r="N66" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="O66" s="94"/>
-      <c r="P66" s="95" t="s">
+      <c r="O66" s="91"/>
+      <c r="P66" s="70" t="s">
         <v>92</v>
       </c>
     </row>
@@ -8399,311 +8349,239 @@
     <row r="69" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="70" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="71" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D71" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="E71" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="I71" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="J71" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="K71" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="L71" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="M71" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="N71" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="O71" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="P71" s="68" t="s">
-        <v>19</v>
-      </c>
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="61"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="61"/>
+      <c r="I71" s="61"/>
+      <c r="J71" s="61"/>
+      <c r="K71" s="61"/>
+      <c r="L71" s="61"/>
+      <c r="M71" s="61"/>
+      <c r="N71" s="61"/>
+      <c r="O71" s="61"/>
+      <c r="P71" s="68"/>
     </row>
     <row r="72" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D72" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="E72" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="F72" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="G72" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="H72" s="88" t="s">
-        <v>241</v>
-      </c>
-      <c r="I72" s="88" t="s">
-        <v>241</v>
-      </c>
-      <c r="J72" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="K72" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="L72" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="M72" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="N72" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="O72" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="P72" s="68" t="s">
-        <v>30</v>
-      </c>
+      <c r="D72" s="61"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="92"/>
+      <c r="G72" s="61"/>
+      <c r="H72" s="92"/>
+      <c r="I72" s="92"/>
+      <c r="J72" s="61"/>
+      <c r="K72" s="92"/>
+      <c r="L72" s="92"/>
+      <c r="M72" s="61"/>
+      <c r="N72" s="92"/>
+      <c r="O72" s="92"/>
+      <c r="P72" s="68"/>
     </row>
     <row r="73" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D73" s="62">
-        <v>0</v>
-      </c>
-      <c r="E73" s="62">
-        <v>0</v>
-      </c>
-      <c r="F73" s="62">
-        <v>0</v>
-      </c>
-      <c r="G73" s="62">
-        <v>0</v>
-      </c>
-      <c r="H73" s="62">
-        <v>1</v>
-      </c>
-      <c r="I73" s="62">
-        <v>1</v>
-      </c>
-      <c r="J73" s="62">
-        <v>0</v>
-      </c>
-      <c r="K73" s="62">
-        <v>0</v>
-      </c>
-      <c r="L73" s="62">
-        <v>0</v>
-      </c>
-      <c r="M73" s="62">
-        <v>0</v>
-      </c>
-      <c r="N73" s="62">
-        <v>0</v>
-      </c>
-      <c r="O73" s="62">
-        <v>0</v>
-      </c>
-      <c r="P73" s="69">
-        <v>0</v>
-      </c>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
+      <c r="H73" s="62"/>
+      <c r="I73" s="62"/>
+      <c r="J73" s="62"/>
+      <c r="K73" s="62"/>
+      <c r="L73" s="62"/>
+      <c r="M73" s="62"/>
+      <c r="N73" s="62"/>
+      <c r="O73" s="62"/>
+      <c r="P73" s="69"/>
     </row>
     <row r="74" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="75" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="76" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D76" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="E76" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="J76" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="K76" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="L76" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="M76" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="N76" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="O76" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="P76" s="68" t="s">
-        <v>15</v>
-      </c>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="61"/>
+      <c r="I76" s="61"/>
+      <c r="J76" s="61"/>
+      <c r="K76" s="61"/>
+      <c r="L76" s="61"/>
+      <c r="M76" s="61"/>
+      <c r="N76" s="61"/>
+      <c r="O76" s="61"/>
+      <c r="P76" s="68"/>
     </row>
     <row r="77" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D77" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="E77" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="F77" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="G77" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="H77" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="I77" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="J77" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="K77" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="L77" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="M77" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="N77" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="O77" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="P77" s="68" t="s">
-        <v>30</v>
-      </c>
+      <c r="D77" s="61"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="92"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="92"/>
+      <c r="I77" s="92"/>
+      <c r="J77" s="61"/>
+      <c r="K77" s="92"/>
+      <c r="L77" s="92"/>
+      <c r="M77" s="61"/>
+      <c r="N77" s="92"/>
+      <c r="O77" s="92"/>
+      <c r="P77" s="68"/>
     </row>
     <row r="78" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D78" s="62">
-        <v>0</v>
-      </c>
-      <c r="E78" s="62">
-        <v>0</v>
-      </c>
-      <c r="F78" s="62">
-        <v>0</v>
-      </c>
-      <c r="G78" s="62">
-        <v>0</v>
-      </c>
-      <c r="H78" s="62">
-        <v>0</v>
-      </c>
-      <c r="I78" s="62">
-        <v>0</v>
-      </c>
-      <c r="J78" s="62">
-        <v>0</v>
-      </c>
-      <c r="K78" s="62">
-        <v>0</v>
-      </c>
-      <c r="L78" s="62">
-        <v>0</v>
-      </c>
-      <c r="M78" s="62">
-        <v>0</v>
-      </c>
-      <c r="N78" s="62">
-        <v>0</v>
-      </c>
-      <c r="O78" s="62">
-        <v>0</v>
-      </c>
-      <c r="P78" s="69">
-        <v>0</v>
-      </c>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="62"/>
+      <c r="I78" s="62"/>
+      <c r="J78" s="62"/>
+      <c r="K78" s="62"/>
+      <c r="L78" s="62"/>
+      <c r="M78" s="62"/>
+      <c r="N78" s="62"/>
+      <c r="O78" s="62"/>
+      <c r="P78" s="69"/>
     </row>
     <row r="79" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="221">
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="H50:I50"/>
     <mergeCell ref="H47:I47"/>
@@ -8728,202 +8606,118 @@
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E48:F48"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:C6">
-    <cfRule type="expression" dxfId="38" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="49" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="50" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="51" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="35" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="46" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="47" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="48" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="expression" dxfId="29" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="28" stopIfTrue="1">
       <formula>D$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="29" stopIfTrue="1">
       <formula>D$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="30" stopIfTrue="1">
       <formula>D$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:F7">
-    <cfRule type="expression" dxfId="23" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
       <formula>E$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="20" stopIfTrue="1">
       <formula>E$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="21" stopIfTrue="1">
       <formula>E$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="expression" dxfId="20" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
       <formula>G$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="17" stopIfTrue="1">
       <formula>G$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="18" stopIfTrue="1">
       <formula>G$7="土"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/app/xlsx/4月_5月シフト.xlsx
+++ b/app/xlsx/4月_5月シフト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiha\OneDrive\デスクトップ\MyPrograming\MyGo\rolemaster0.5\RoleMaserV0.5\app\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0B4C70-0419-4766-AF91-6966406E447E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF551D70-46DB-411C-9314-D3B6E4622F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PJシフト4月" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="245">
   <si>
     <t>ミエルココン</t>
   </si>
@@ -1636,7 +1636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1848,10 +1848,52 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1860,46 +1902,13 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1913,21 +1922,6 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2471,11 +2465,11 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="79"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="76" t="s">
         <v>146</v>
       </c>
       <c r="D6" s="8">
@@ -2493,7 +2487,7 @@
       <c r="H6" s="8">
         <v>15</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="79" t="s">
         <v>146</v>
       </c>
       <c r="J6" s="8">
@@ -2516,11 +2510,11 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="80"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2536,7 +2530,7 @@
       <c r="H7" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="I7" s="86"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2557,11 +2551,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="83"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="7">
         <v>68</v>
       </c>
@@ -2575,7 +2569,7 @@
         <v>60</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="86"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="7">
         <v>90</v>
       </c>
@@ -2594,11 +2588,11 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="80"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="17">
         <v>14</v>
       </c>
@@ -2614,7 +2608,7 @@
       <c r="H9" s="17">
         <v>10</v>
       </c>
-      <c r="I9" s="86"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="17">
         <v>18</v>
       </c>
@@ -2633,11 +2627,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2651,7 +2645,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="86"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2670,11 +2664,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="80"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="7" t="s">
         <v>94</v>
       </c>
@@ -2690,7 +2684,7 @@
       <c r="H11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="86"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="7" t="s">
         <v>97</v>
       </c>
@@ -2709,11 +2703,11 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="80"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2729,7 +2723,7 @@
       <c r="H12" s="18">
         <v>0.6875</v>
       </c>
-      <c r="I12" s="86"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2750,11 +2744,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2770,7 +2764,7 @@
       <c r="H13" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="I13" s="87"/>
+      <c r="I13" s="81"/>
       <c r="J13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2816,17 +2810,17 @@
       <c r="I14" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="J14" s="88" t="s">
+      <c r="J14" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="88" t="s">
+      <c r="K14" s="82" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="43"/>
-      <c r="M14" s="88" t="s">
+      <c r="M14" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="88" t="s">
+      <c r="N14" s="82" t="s">
         <v>23</v>
       </c>
       <c r="O14" s="44" t="s">
@@ -2859,19 +2853,19 @@
       <c r="I15" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="J15" s="71" t="s">
+      <c r="J15" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="71" t="s">
+      <c r="K15" s="72" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="71" t="s">
+      <c r="M15" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="71" t="s">
+      <c r="N15" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O15" s="26" t="s">
@@ -2904,17 +2898,17 @@
       <c r="I16" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="J16" s="72" t="s">
+      <c r="J16" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="72" t="s">
+      <c r="K16" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="72" t="s">
+      <c r="M16" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="72" t="s">
+      <c r="N16" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="40" t="s">
@@ -2947,17 +2941,17 @@
       <c r="I17" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="J17" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="71" t="s">
+      <c r="J17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="71" t="s">
+      <c r="M17" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N17" s="71" t="s">
+      <c r="N17" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O17" s="26" t="s">
@@ -2990,17 +2984,17 @@
       <c r="I18" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="J18" s="72" t="s">
+      <c r="J18" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="72" t="s">
+      <c r="K18" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="39"/>
-      <c r="M18" s="72" t="s">
+      <c r="M18" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N18" s="72" t="s">
+      <c r="N18" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O18" s="40" t="s">
@@ -3033,17 +3027,17 @@
       <c r="I19" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="J19" s="71" t="s">
+      <c r="J19" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="71" t="s">
+      <c r="K19" s="72" t="s">
         <v>34</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="71" t="s">
+      <c r="M19" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="71" t="s">
+      <c r="N19" s="72" t="s">
         <v>28</v>
       </c>
       <c r="O19" s="26" t="s">
@@ -3076,17 +3070,17 @@
       <c r="I20" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="72" t="s">
+      <c r="J20" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="72" t="s">
+      <c r="K20" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="39"/>
-      <c r="M20" s="72" t="s">
+      <c r="M20" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="72" t="s">
+      <c r="N20" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O20" s="40" t="s">
@@ -3119,17 +3113,17 @@
       <c r="I21" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="71" t="s">
+      <c r="J21" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K21" s="71" t="s">
+      <c r="K21" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="71" t="s">
+      <c r="M21" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="71" t="s">
+      <c r="N21" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="26" t="s">
@@ -3162,17 +3156,17 @@
       <c r="I22" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="J22" s="72" t="s">
+      <c r="J22" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="72" t="s">
+      <c r="K22" s="71" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="39"/>
-      <c r="M22" s="72" t="s">
+      <c r="M22" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N22" s="72" t="s">
+      <c r="N22" s="71" t="s">
         <v>38</v>
       </c>
       <c r="O22" s="40" t="s">
@@ -3205,19 +3199,19 @@
       <c r="I23" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="J23" s="71" t="s">
+      <c r="J23" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="71" t="s">
+      <c r="K23" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M23" s="71" t="s">
+      <c r="M23" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="71" t="s">
+      <c r="N23" s="72" t="s">
         <v>38</v>
       </c>
       <c r="O23" s="26" t="s">
@@ -3250,17 +3244,17 @@
       <c r="I24" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="J24" s="72" t="s">
+      <c r="J24" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K24" s="72" t="s">
+      <c r="K24" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="39"/>
-      <c r="M24" s="72" t="s">
+      <c r="M24" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="72" t="s">
+      <c r="N24" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="40" t="s">
@@ -3293,17 +3287,17 @@
       <c r="I25" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="J25" s="71" t="s">
+      <c r="J25" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K25" s="71" t="s">
+      <c r="K25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="71" t="s">
+      <c r="M25" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N25" s="71" t="s">
+      <c r="N25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="O25" s="26" t="s">
@@ -3336,19 +3330,19 @@
       <c r="I26" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J26" s="72" t="s">
+      <c r="J26" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="72" t="s">
+      <c r="K26" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M26" s="72" t="s">
+      <c r="M26" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="72" t="s">
+      <c r="N26" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O26" s="40" t="s">
@@ -3381,17 +3375,17 @@
       <c r="I27" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J27" s="71" t="s">
+      <c r="J27" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="71" t="s">
+      <c r="K27" s="72" t="s">
         <v>44</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="71" t="s">
+      <c r="M27" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N27" s="71" t="s">
+      <c r="N27" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O27" s="26" t="s">
@@ -3424,19 +3418,19 @@
       <c r="I28" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="J28" s="72" t="s">
+      <c r="J28" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="72" t="s">
+      <c r="K28" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="72" t="s">
+      <c r="M28" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N28" s="72" t="s">
+      <c r="N28" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O28" s="40" t="s">
@@ -3469,17 +3463,17 @@
       <c r="I29" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="J29" s="71" t="s">
+      <c r="J29" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="71" t="s">
+      <c r="K29" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="71" t="s">
+      <c r="M29" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N29" s="71" t="s">
+      <c r="N29" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O29" s="26" t="s">
@@ -3512,17 +3506,17 @@
       <c r="I30" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="J30" s="72" t="s">
+      <c r="J30" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="72" t="s">
+      <c r="K30" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="39"/>
-      <c r="M30" s="72" t="s">
+      <c r="M30" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N30" s="72" t="s">
+      <c r="N30" s="71" t="s">
         <v>26</v>
       </c>
       <c r="O30" s="40" t="s">
@@ -3555,17 +3549,17 @@
       <c r="I31" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="J31" s="71" t="s">
+      <c r="J31" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K31" s="71" t="s">
+      <c r="K31" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="7"/>
-      <c r="M31" s="71" t="s">
+      <c r="M31" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N31" s="71" t="s">
+      <c r="N31" s="72" t="s">
         <v>28</v>
       </c>
       <c r="O31" s="26" t="s">
@@ -3598,17 +3592,17 @@
       <c r="I32" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="J32" s="72" t="s">
+      <c r="J32" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K32" s="72" t="s">
+      <c r="K32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="39"/>
-      <c r="M32" s="72" t="s">
+      <c r="M32" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N32" s="72" t="s">
+      <c r="N32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="40" t="s">
@@ -3641,17 +3635,17 @@
       <c r="I33" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J33" s="71" t="s">
+      <c r="J33" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K33" s="71" t="s">
+      <c r="K33" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="M33" s="71" t="s">
+      <c r="M33" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N33" s="71" t="s">
+      <c r="N33" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O33" s="26" t="s">
@@ -3684,17 +3678,17 @@
       <c r="I34" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="J34" s="72" t="s">
+      <c r="J34" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K34" s="72" t="s">
+      <c r="K34" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="39"/>
-      <c r="M34" s="72" t="s">
+      <c r="M34" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N34" s="72" t="s">
+      <c r="N34" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O34" s="40" t="s">
@@ -3727,17 +3721,17 @@
       <c r="I35" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="J35" s="71" t="s">
+      <c r="J35" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="K35" s="71" t="s">
+      <c r="K35" s="72" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="7"/>
-      <c r="M35" s="71" t="s">
+      <c r="M35" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N35" s="71" t="s">
+      <c r="N35" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O35" s="26" t="s">
@@ -3770,17 +3764,17 @@
       <c r="I36" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J36" s="72" t="s">
+      <c r="J36" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K36" s="72" t="s">
+      <c r="K36" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L36" s="39"/>
-      <c r="M36" s="72" t="s">
+      <c r="M36" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="72" t="s">
+      <c r="N36" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O36" s="40" t="s">
@@ -3813,17 +3807,17 @@
       <c r="I37" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="J37" s="71" t="s">
+      <c r="J37" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K37" s="71" t="s">
+      <c r="K37" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L37" s="7"/>
-      <c r="M37" s="71" t="s">
+      <c r="M37" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="71" t="s">
+      <c r="N37" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O37" s="26" t="s">
@@ -3856,17 +3850,17 @@
       <c r="I38" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="J38" s="72" t="s">
+      <c r="J38" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="72" t="s">
+      <c r="K38" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L38" s="39"/>
-      <c r="M38" s="72" t="s">
+      <c r="M38" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N38" s="72" t="s">
+      <c r="N38" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O38" s="40" t="s">
@@ -3899,17 +3893,17 @@
       <c r="I39" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="J39" s="71" t="s">
+      <c r="J39" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K39" s="71" t="s">
+      <c r="K39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="7"/>
-      <c r="M39" s="71" t="s">
+      <c r="M39" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N39" s="71" t="s">
+      <c r="N39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="26" t="s">
@@ -3942,19 +3936,19 @@
       <c r="I40" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="J40" s="77" t="s">
+      <c r="J40" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="K40" s="77" t="s">
+      <c r="K40" s="83" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="77" t="s">
+      <c r="M40" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="N40" s="77" t="s">
+      <c r="N40" s="83" t="s">
         <v>24</v>
       </c>
       <c r="O40" s="49" t="s">
@@ -3987,17 +3981,17 @@
       <c r="I41" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="J41" s="78" t="s">
+      <c r="J41" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="K41" s="78" t="s">
+      <c r="K41" s="84" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="31"/>
-      <c r="M41" s="78" t="s">
+      <c r="M41" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="N41" s="78" t="s">
+      <c r="N41" s="84" t="s">
         <v>24</v>
       </c>
       <c r="O41" s="32" t="s">
@@ -4030,17 +4024,17 @@
       <c r="I42" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="J42" s="72" t="s">
+      <c r="J42" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K42" s="72" t="s">
+      <c r="K42" s="71" t="s">
         <v>26</v>
       </c>
       <c r="L42" s="39"/>
-      <c r="M42" s="72" t="s">
+      <c r="M42" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N42" s="72" t="s">
+      <c r="N42" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O42" s="40" t="s">
@@ -4073,19 +4067,19 @@
       <c r="I43" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="J43" s="71" t="s">
+      <c r="J43" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K43" s="71" t="s">
+      <c r="K43" s="72" t="s">
         <v>26</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M43" s="71" t="s">
+      <c r="M43" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N43" s="71" t="s">
+      <c r="N43" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O43" s="26" t="s">
@@ -4118,17 +4112,17 @@
       <c r="I44" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="J44" s="72" t="s">
+      <c r="J44" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="K44" s="72" t="s">
+      <c r="K44" s="71" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="39"/>
-      <c r="M44" s="72" t="s">
+      <c r="M44" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N44" s="72" t="s">
+      <c r="N44" s="71" t="s">
         <v>38</v>
       </c>
       <c r="O44" s="40" t="s">
@@ -4161,17 +4155,17 @@
       <c r="I45" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="J45" s="71" t="s">
+      <c r="J45" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K45" s="71" t="s">
+      <c r="K45" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L45" s="7"/>
-      <c r="M45" s="71" t="s">
+      <c r="M45" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N45" s="71" t="s">
+      <c r="N45" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O45" s="26" t="s">
@@ -4204,17 +4198,17 @@
       <c r="I46" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="J46" s="72" t="s">
+      <c r="J46" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K46" s="72" t="s">
+      <c r="K46" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="39"/>
-      <c r="M46" s="72" t="s">
+      <c r="M46" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N46" s="72" t="s">
+      <c r="N46" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O46" s="40" t="s">
@@ -4247,17 +4241,17 @@
       <c r="I47" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="J47" s="71" t="s">
+      <c r="J47" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K47" s="71" t="s">
+      <c r="K47" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L47" s="7"/>
-      <c r="M47" s="71" t="s">
+      <c r="M47" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N47" s="71" t="s">
+      <c r="N47" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O47" s="26" t="s">
@@ -4290,17 +4284,17 @@
       <c r="I48" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="J48" s="72" t="s">
+      <c r="J48" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K48" s="72" t="s">
+      <c r="K48" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L48" s="39"/>
-      <c r="M48" s="72" t="s">
+      <c r="M48" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N48" s="72" t="s">
+      <c r="N48" s="71" t="s">
         <v>66</v>
       </c>
       <c r="O48" s="40" t="s">
@@ -4333,17 +4327,17 @@
       <c r="I49" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="J49" s="71" t="s">
+      <c r="J49" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K49" s="71" t="s">
+      <c r="K49" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="7"/>
-      <c r="M49" s="71" t="s">
+      <c r="M49" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N49" s="71" t="s">
+      <c r="N49" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O49" s="26" t="s">
@@ -4376,17 +4370,17 @@
       <c r="I50" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="J50" s="72" t="s">
+      <c r="J50" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K50" s="72" t="s">
+      <c r="K50" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="39"/>
-      <c r="M50" s="72" t="s">
+      <c r="M50" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N50" s="72" t="s">
+      <c r="N50" s="71" t="s">
         <v>38</v>
       </c>
       <c r="O50" s="40" t="s">
@@ -4419,17 +4413,17 @@
       <c r="I51" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="J51" s="71" t="s">
+      <c r="J51" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="K51" s="71" t="s">
+      <c r="K51" s="72" t="s">
         <v>38</v>
       </c>
       <c r="L51" s="7"/>
-      <c r="M51" s="71" t="s">
+      <c r="M51" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N51" s="71" t="s">
+      <c r="N51" s="72" t="s">
         <v>38</v>
       </c>
       <c r="O51" s="26" t="s">
@@ -4462,19 +4456,19 @@
       <c r="I52" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J52" s="72" t="s">
+      <c r="J52" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="72" t="s">
+      <c r="K52" s="71" t="s">
         <v>71</v>
       </c>
       <c r="L52" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M52" s="72" t="s">
+      <c r="M52" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N52" s="72" t="s">
+      <c r="N52" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O52" s="40" t="s">
@@ -4507,19 +4501,19 @@
       <c r="I53" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J53" s="71" t="s">
+      <c r="J53" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K53" s="71" t="s">
+      <c r="K53" s="72" t="s">
         <v>26</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M53" s="71" t="s">
+      <c r="M53" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N53" s="71" t="s">
+      <c r="N53" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O53" s="26" t="s">
@@ -4552,17 +4546,17 @@
       <c r="I54" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="J54" s="72" t="s">
+      <c r="J54" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="K54" s="72" t="s">
+      <c r="K54" s="71" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="39"/>
-      <c r="M54" s="72" t="s">
+      <c r="M54" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N54" s="72" t="s">
+      <c r="N54" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O54" s="40" t="s">
@@ -4595,17 +4589,17 @@
       <c r="I55" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="J55" s="71" t="s">
+      <c r="J55" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K55" s="71" t="s">
+      <c r="K55" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L55" s="7"/>
-      <c r="M55" s="71" t="s">
+      <c r="M55" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N55" s="71" t="s">
+      <c r="N55" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O55" s="26" t="s">
@@ -4638,17 +4632,17 @@
       <c r="I56" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="J56" s="72" t="s">
+      <c r="J56" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K56" s="72" t="s">
+      <c r="K56" s="71" t="s">
         <v>26</v>
       </c>
       <c r="L56" s="39"/>
-      <c r="M56" s="72" t="s">
+      <c r="M56" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N56" s="72" t="s">
+      <c r="N56" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O56" s="40" t="s">
@@ -4681,19 +4675,19 @@
       <c r="I57" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="J57" s="71" t="s">
+      <c r="J57" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K57" s="71" t="s">
+      <c r="K57" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M57" s="71" t="s">
+      <c r="M57" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N57" s="71" t="s">
+      <c r="N57" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O57" s="26" t="s">
@@ -4726,17 +4720,17 @@
       <c r="I58" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="J58" s="72" t="s">
+      <c r="J58" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="K58" s="72" t="s">
+      <c r="K58" s="71" t="s">
         <v>28</v>
       </c>
       <c r="L58" s="39"/>
-      <c r="M58" s="72" t="s">
+      <c r="M58" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N58" s="72" t="s">
+      <c r="N58" s="71" t="s">
         <v>78</v>
       </c>
       <c r="O58" s="40" t="s">
@@ -4769,17 +4763,17 @@
       <c r="I59" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="J59" s="71" t="s">
+      <c r="J59" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="K59" s="71" t="s">
+      <c r="K59" s="72" t="s">
         <v>38</v>
       </c>
       <c r="L59" s="7"/>
-      <c r="M59" s="71" t="s">
+      <c r="M59" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N59" s="71" t="s">
+      <c r="N59" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O59" s="26" t="s">
@@ -4800,15 +4794,15 @@
       <c r="G60" s="51"/>
       <c r="H60" s="51"/>
       <c r="I60" s="50"/>
-      <c r="J60" s="75" t="s">
+      <c r="J60" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="K60" s="76"/>
+      <c r="K60" s="86"/>
       <c r="L60" s="51"/>
-      <c r="M60" s="72" t="s">
+      <c r="M60" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N60" s="72" t="s">
+      <c r="N60" s="71" t="s">
         <v>66</v>
       </c>
       <c r="O60" s="26" t="s">
@@ -4829,15 +4823,15 @@
       <c r="G61" s="31"/>
       <c r="H61" s="31"/>
       <c r="I61" s="30"/>
-      <c r="J61" s="73" t="s">
+      <c r="J61" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="K61" s="74"/>
+      <c r="K61" s="88"/>
       <c r="L61" s="31"/>
-      <c r="M61" s="71" t="s">
+      <c r="M61" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N61" s="71" t="s">
+      <c r="N61" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O61" s="40" t="s">
@@ -4858,17 +4852,17 @@
       <c r="G62" s="51"/>
       <c r="H62" s="51"/>
       <c r="I62" s="50"/>
-      <c r="J62" s="71" t="s">
+      <c r="J62" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K62" s="71" t="s">
+      <c r="K62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L62" s="51"/>
-      <c r="M62" s="72" t="s">
+      <c r="M62" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N62" s="72" t="s">
+      <c r="N62" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O62" s="26" t="s">
@@ -4889,15 +4883,15 @@
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
       <c r="I63" s="30"/>
-      <c r="J63" s="73" t="s">
+      <c r="J63" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="K63" s="74"/>
+      <c r="K63" s="88"/>
       <c r="L63" s="31"/>
-      <c r="M63" s="72" t="s">
+      <c r="M63" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N63" s="72" t="s">
+      <c r="N63" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O63" s="26" t="s">
@@ -4918,17 +4912,17 @@
       <c r="G64" s="51"/>
       <c r="H64" s="51"/>
       <c r="I64" s="50"/>
-      <c r="J64" s="71" t="s">
+      <c r="J64" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K64" s="71" t="s">
+      <c r="K64" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L64" s="51"/>
-      <c r="M64" s="71" t="s">
+      <c r="M64" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N64" s="71" t="s">
+      <c r="N64" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O64" s="40" t="s">
@@ -4947,17 +4941,17 @@
       <c r="G65" s="31"/>
       <c r="H65" s="31"/>
       <c r="I65" s="30"/>
-      <c r="J65" s="71" t="s">
+      <c r="J65" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K65" s="71" t="s">
+      <c r="K65" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L65" s="31"/>
-      <c r="M65" s="72" t="s">
+      <c r="M65" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N65" s="72" t="s">
+      <c r="N65" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O65" s="40" t="s">
@@ -4990,17 +4984,17 @@
       <c r="I66" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="J66" s="72" t="s">
+      <c r="J66" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K66" s="72" t="s">
+      <c r="K66" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L66" s="39"/>
-      <c r="M66" s="72" t="s">
+      <c r="M66" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N66" s="72" t="s">
+      <c r="N66" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O66" s="40" t="s">
@@ -5046,6 +5040,102 @@
     <row r="69" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="J17:K17"/>
@@ -5059,102 +5149,6 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="M63:N63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:F6 I6:N6">
@@ -5207,10 +5201,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A1C220-DC63-401D-B66B-975EAA99E44B}">
-  <dimension ref="A2:P79"/>
+  <dimension ref="A2:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I6" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14:L14"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5307,11 +5301,11 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="79"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="76" t="s">
         <v>146</v>
       </c>
       <c r="D6" s="8">
@@ -5355,11 +5349,11 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="80"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="7" t="s">
         <v>152</v>
       </c>
@@ -5401,11 +5395,11 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="83"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="7">
         <v>13</v>
       </c>
@@ -5447,11 +5441,11 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="80"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="7" t="s">
         <v>234</v>
       </c>
@@ -5493,11 +5487,11 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="7">
         <v>6</v>
       </c>
@@ -5539,11 +5533,11 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="80"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="7" t="s">
         <v>155</v>
       </c>
@@ -5585,11 +5579,11 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="80"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="7" t="s">
         <v>156</v>
       </c>
@@ -5631,11 +5625,11 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -5689,37 +5683,37 @@
       <c r="D14" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="88" t="s">
+      <c r="E14" s="82" t="s">
         <v>244</v>
       </c>
-      <c r="F14" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="97" t="s">
+      <c r="F14" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="88" t="s">
+      <c r="H14" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="82" t="s">
         <v>66</v>
       </c>
       <c r="J14" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="72" t="s">
+      <c r="K14" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M14" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="N14" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14" s="88" t="s">
+      <c r="N14" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="82" t="s">
         <v>66</v>
       </c>
       <c r="P14" s="63" t="s">
@@ -5739,37 +5733,37 @@
       <c r="D15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="71" t="s">
+      <c r="E15" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="71" t="s">
+      <c r="H15" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="71" t="s">
+      <c r="K15" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="L15" s="71" t="s">
+      <c r="L15" s="72" t="s">
         <v>225</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N15" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O15" s="71" t="s">
+      <c r="N15" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P15" s="54" t="s">
@@ -5789,37 +5783,37 @@
       <c r="D16" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="72" t="s">
+      <c r="E16" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="72" t="s">
+      <c r="F16" s="71" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="71" t="s">
+      <c r="H16" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="72" t="s">
+      <c r="K16" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M16" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N16" s="72" t="s">
+      <c r="N16" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="72" t="s">
+      <c r="O16" s="71" t="s">
         <v>38</v>
       </c>
       <c r="P16" s="64" t="s">
@@ -5839,37 +5833,37 @@
       <c r="D17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="71" t="s">
+      <c r="E17" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="71" t="s">
+      <c r="H17" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="71" t="s">
+      <c r="K17" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N17" s="71" t="s">
+      <c r="N17" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="O17" s="71" t="s">
+      <c r="O17" s="72" t="s">
         <v>30</v>
       </c>
       <c r="P17" s="54" t="s">
@@ -5889,37 +5883,37 @@
       <c r="D18" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="72" t="s">
+      <c r="E18" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G18" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="72" t="s">
+      <c r="H18" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" s="72" t="s">
+      <c r="K18" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O18" s="72" t="s">
+      <c r="N18" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P18" s="64" t="s">
@@ -5939,37 +5933,37 @@
       <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="71" t="s">
+      <c r="E19" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="71" t="s">
+      <c r="H19" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="71" t="s">
+      <c r="K19" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N19" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O19" s="71" t="s">
+      <c r="N19" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P19" s="54" t="s">
@@ -5989,37 +5983,37 @@
       <c r="D20" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="72" t="s">
+      <c r="E20" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="72" t="s">
+      <c r="H20" s="71" t="s">
         <v>240</v>
       </c>
-      <c r="I20" s="72" t="s">
+      <c r="I20" s="71" t="s">
         <v>224</v>
       </c>
       <c r="J20" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="72" t="s">
+      <c r="K20" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M20" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N20" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O20" s="72" t="s">
+      <c r="N20" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P20" s="64" t="s">
@@ -6039,37 +6033,37 @@
       <c r="D21" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E21" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="71" t="s">
+      <c r="E21" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="71" t="s">
+      <c r="H21" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="71" t="s">
+      <c r="K21" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="L21" s="71" t="s">
+      <c r="L21" s="72" t="s">
         <v>225</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O21" s="71" t="s">
+      <c r="N21" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P21" s="54" t="s">
@@ -6089,37 +6083,37 @@
       <c r="D22" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E22" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="72" t="s">
+      <c r="E22" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G22" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22" s="72" t="s">
+      <c r="H22" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="71" t="s">
         <v>38</v>
       </c>
       <c r="J22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" s="72" t="s">
+      <c r="K22" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O22" s="72" t="s">
+      <c r="N22" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P22" s="64" t="s">
@@ -6139,37 +6133,37 @@
       <c r="D23" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="E23" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="71" t="s">
+      <c r="E23" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="71" t="s">
+      <c r="H23" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K23" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23" s="72" t="s">
+      <c r="K23" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O23" s="71" t="s">
+      <c r="N23" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O23" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P23" s="54" t="s">
@@ -6189,37 +6183,37 @@
       <c r="D24" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="72" t="s">
+      <c r="E24" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G24" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="72" t="s">
+      <c r="H24" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J24" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K24" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" s="72" t="s">
+      <c r="K24" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M24" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O24" s="72" t="s">
+      <c r="N24" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P24" s="64" t="s">
@@ -6239,37 +6233,37 @@
       <c r="D25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="71" t="s">
+      <c r="E25" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="71" t="s">
+      <c r="F25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="71" t="s">
+      <c r="H25" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="I25" s="71" t="s">
+      <c r="I25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="71" t="s">
+      <c r="K25" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="71" t="s">
+      <c r="L25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N25" s="71" t="s">
+      <c r="N25" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="O25" s="71" t="s">
+      <c r="O25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="P25" s="54" t="s">
@@ -6289,37 +6283,37 @@
       <c r="D26" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E26" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="72" t="s">
+      <c r="E26" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G26" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="72" t="s">
+      <c r="H26" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J26" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K26" s="72" t="s">
+      <c r="K26" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="72" t="s">
+      <c r="L26" s="71" t="s">
         <v>25</v>
       </c>
       <c r="M26" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N26" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O26" s="72" t="s">
+      <c r="N26" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O26" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P26" s="64" t="s">
@@ -6339,37 +6333,37 @@
       <c r="D27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="71" t="s">
+      <c r="E27" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="71" t="s">
+      <c r="H27" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="71" t="s">
+      <c r="K27" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="71" t="s">
+      <c r="L27" s="72" t="s">
         <v>225</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N27" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O27" s="71" t="s">
+      <c r="N27" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P27" s="54" t="s">
@@ -6389,37 +6383,37 @@
       <c r="D28" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E28" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="72" t="s">
+      <c r="E28" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G28" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" s="72" t="s">
+      <c r="H28" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J28" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="K28" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L28" s="71" t="s">
+      <c r="K28" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M28" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N28" s="72" t="s">
+      <c r="N28" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="O28" s="72" t="s">
+      <c r="O28" s="71" t="s">
         <v>38</v>
       </c>
       <c r="P28" s="64" t="s">
@@ -6439,37 +6433,37 @@
       <c r="D29" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E29" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="71" t="s">
+      <c r="E29" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="71" t="s">
+      <c r="H29" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K29" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="71" t="s">
+      <c r="K29" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O29" s="71" t="s">
+      <c r="N29" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P29" s="54" t="s">
@@ -6489,37 +6483,37 @@
       <c r="D30" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="E30" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="72" t="s">
+      <c r="E30" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="72" t="s">
+      <c r="H30" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J30" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L30" s="72" t="s">
+      <c r="K30" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L30" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M30" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N30" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O30" s="72" t="s">
+      <c r="N30" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O30" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P30" s="64" t="s">
@@ -6539,37 +6533,37 @@
       <c r="D31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="71" t="s">
+      <c r="E31" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="71" t="s">
+      <c r="H31" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K31" s="71" t="s">
+      <c r="K31" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="L31" s="71" t="s">
+      <c r="L31" s="72" t="s">
         <v>226</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N31" s="71" t="s">
+      <c r="N31" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="O31" s="71" t="s">
+      <c r="O31" s="72" t="s">
         <v>226</v>
       </c>
       <c r="P31" s="54" t="s">
@@ -6589,37 +6583,37 @@
       <c r="D32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="72" t="s">
+      <c r="E32" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G32" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="72" t="s">
+      <c r="H32" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J32" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="K32" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" s="72" t="s">
+      <c r="K32" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M32" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N32" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O32" s="72" t="s">
+      <c r="N32" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P32" s="64" t="s">
@@ -6639,37 +6633,37 @@
       <c r="D33" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="71" t="s">
+      <c r="E33" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="71" t="s">
+      <c r="H33" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L33" s="71" t="s">
+      <c r="K33" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N33" s="71" t="s">
+      <c r="N33" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="O33" s="71" t="s">
+      <c r="O33" s="72" t="s">
         <v>38</v>
       </c>
       <c r="P33" s="54" t="s">
@@ -6689,37 +6683,37 @@
       <c r="D34" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="E34" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" s="72" t="s">
+      <c r="E34" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G34" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="71" t="s">
+      <c r="H34" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I34" s="71" t="s">
+      <c r="I34" s="72" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K34" s="72" t="s">
+      <c r="K34" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="L34" s="72" t="s">
+      <c r="L34" s="71" t="s">
         <v>225</v>
       </c>
       <c r="M34" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N34" s="72" t="s">
+      <c r="N34" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="O34" s="72" t="s">
+      <c r="O34" s="71" t="s">
         <v>38</v>
       </c>
       <c r="P34" s="64" t="s">
@@ -6739,37 +6733,37 @@
       <c r="D35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="71" t="s">
+      <c r="E35" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I35" s="71" t="s">
+      <c r="H35" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K35" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L35" s="71" t="s">
+      <c r="K35" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L35" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N35" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O35" s="71" t="s">
+      <c r="N35" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O35" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P35" s="54" t="s">
@@ -6789,37 +6783,37 @@
       <c r="D36" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="72" t="s">
+      <c r="E36" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I36" s="72" t="s">
+      <c r="H36" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J36" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K36" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L36" s="72" t="s">
+      <c r="K36" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N36" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O36" s="72" t="s">
+      <c r="N36" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O36" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P36" s="64" t="s">
@@ -6839,37 +6833,37 @@
       <c r="D37" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E37" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="71" t="s">
+      <c r="E37" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="71" t="s">
+      <c r="H37" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="71" t="s">
+      <c r="I37" s="72" t="s">
         <v>25</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K37" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L37" s="71" t="s">
+      <c r="K37" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L37" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N37" s="71" t="s">
+      <c r="N37" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="O37" s="71" t="s">
+      <c r="O37" s="72" t="s">
         <v>38</v>
       </c>
       <c r="P37" s="54" t="s">
@@ -6889,37 +6883,37 @@
       <c r="D38" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="72" t="s">
+      <c r="E38" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="72" t="s">
+      <c r="H38" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K38" s="72" t="s">
+      <c r="K38" s="71" t="s">
         <v>227</v>
       </c>
-      <c r="L38" s="72" t="s">
+      <c r="L38" s="71" t="s">
         <v>227</v>
       </c>
       <c r="M38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N38" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O38" s="72" t="s">
+      <c r="N38" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O38" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P38" s="64" t="s">
@@ -6939,37 +6933,37 @@
       <c r="D39" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="71" t="s">
+      <c r="E39" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I39" s="71" t="s">
+      <c r="H39" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K39" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L39" s="71" t="s">
+      <c r="K39" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N39" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O39" s="71" t="s">
+      <c r="N39" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P39" s="54" t="s">
@@ -6989,37 +6983,37 @@
       <c r="D40" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F40" s="72" t="s">
+      <c r="E40" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G40" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H40" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I40" s="72" t="s">
+      <c r="H40" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="71" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K40" s="72" t="s">
+      <c r="K40" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="L40" s="72" t="s">
+      <c r="L40" s="71" t="s">
         <v>30</v>
       </c>
       <c r="M40" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="N40" s="72" t="s">
+      <c r="N40" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="O40" s="72" t="s">
+      <c r="O40" s="71" t="s">
         <v>30</v>
       </c>
       <c r="P40" s="64" t="s">
@@ -7039,37 +7033,37 @@
       <c r="D41" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="F41" s="93" t="s">
+      <c r="E41" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="91" t="s">
         <v>66</v>
       </c>
       <c r="G41" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="93" t="s">
+      <c r="H41" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="91" t="s">
         <v>26</v>
       </c>
       <c r="J41" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="K41" s="93" t="s">
+      <c r="K41" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="L41" s="93" t="s">
+      <c r="L41" s="91" t="s">
         <v>23</v>
       </c>
       <c r="M41" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="N41" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="O41" s="93" t="s">
+      <c r="N41" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="O41" s="91" t="s">
         <v>23</v>
       </c>
       <c r="P41" s="54" t="s">
@@ -7089,37 +7083,37 @@
       <c r="D42" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="E42" s="94" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="94" t="s">
+      <c r="E42" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="90" t="s">
         <v>66</v>
       </c>
       <c r="G42" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="94" t="s">
-        <v>66</v>
-      </c>
-      <c r="I42" s="94" t="s">
+      <c r="H42" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="90" t="s">
         <v>66</v>
       </c>
       <c r="J42" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="K42" s="94" t="s">
+      <c r="K42" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="L42" s="94" t="s">
+      <c r="L42" s="90" t="s">
         <v>38</v>
       </c>
       <c r="M42" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="N42" s="94" t="s">
-        <v>66</v>
-      </c>
-      <c r="O42" s="94" t="s">
+      <c r="N42" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="O42" s="90" t="s">
         <v>66</v>
       </c>
       <c r="P42" s="65" t="s">
@@ -7139,37 +7133,37 @@
       <c r="D43" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="78" t="s">
+      <c r="E43" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="78" t="s">
+      <c r="F43" s="84" t="s">
         <v>25</v>
       </c>
       <c r="G43" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="I43" s="78" t="s">
+      <c r="H43" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="84" t="s">
         <v>24</v>
       </c>
       <c r="J43" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="K43" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" s="78" t="s">
+      <c r="K43" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="84" t="s">
         <v>24</v>
       </c>
       <c r="M43" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="N43" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="O43" s="78" t="s">
+      <c r="N43" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="O43" s="84" t="s">
         <v>24</v>
       </c>
       <c r="P43" s="66" t="s">
@@ -7189,37 +7183,37 @@
       <c r="D44" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="72" t="s">
+      <c r="E44" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G44" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="72" t="s">
+      <c r="H44" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="I44" s="72" t="s">
+      <c r="I44" s="71" t="s">
         <v>25</v>
       </c>
       <c r="J44" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K44" s="72" t="s">
+      <c r="K44" s="71" t="s">
         <v>240</v>
       </c>
-      <c r="L44" s="72" t="s">
+      <c r="L44" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M44" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N44" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O44" s="72" t="s">
+      <c r="N44" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O44" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P44" s="64" t="s">
@@ -7239,37 +7233,37 @@
       <c r="D45" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="71" t="s">
+      <c r="E45" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" s="71" t="s">
+      <c r="H45" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="72" t="s">
         <v>26</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K45" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L45" s="71" t="s">
+      <c r="K45" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L45" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N45" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O45" s="71" t="s">
+      <c r="N45" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O45" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P45" s="54" t="s">
@@ -7289,37 +7283,37 @@
       <c r="D46" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="72" t="s">
+      <c r="E46" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G46" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H46" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I46" s="72" t="s">
+      <c r="H46" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J46" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K46" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L46" s="72" t="s">
+      <c r="K46" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L46" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M46" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N46" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O46" s="72" t="s">
+      <c r="N46" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O46" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P46" s="64" t="s">
@@ -7339,37 +7333,37 @@
       <c r="D47" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F47" s="71" t="s">
+      <c r="E47" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H47" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="I47" s="71" t="s">
+      <c r="H47" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="72" t="s">
         <v>26</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K47" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L47" s="71" t="s">
+      <c r="K47" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M47" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N47" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O47" s="71" t="s">
+      <c r="N47" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O47" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P47" s="54" t="s">
@@ -7389,37 +7383,37 @@
       <c r="D48" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="72" t="s">
+      <c r="E48" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="71" t="s">
         <v>26</v>
       </c>
       <c r="G48" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I48" s="72" t="s">
+      <c r="H48" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I48" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J48" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K48" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L48" s="72" t="s">
+      <c r="K48" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M48" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N48" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O48" s="72" t="s">
+      <c r="N48" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O48" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P48" s="64" t="s">
@@ -7439,37 +7433,37 @@
       <c r="D49" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" s="71" t="s">
+      <c r="E49" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H49" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I49" s="71" t="s">
+      <c r="H49" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K49" s="71" t="s">
+      <c r="K49" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="L49" s="71" t="s">
+      <c r="L49" s="72" t="s">
         <v>228</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N49" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O49" s="71" t="s">
+      <c r="N49" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O49" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P49" s="54" t="s">
@@ -7489,37 +7483,37 @@
       <c r="D50" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50" s="72" t="s">
+      <c r="E50" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G50" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I50" s="72" t="s">
+      <c r="H50" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J50" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="72" t="s">
+      <c r="K50" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="L50" s="72" t="s">
+      <c r="L50" s="71" t="s">
         <v>38</v>
       </c>
       <c r="M50" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N50" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O50" s="72" t="s">
+      <c r="N50" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O50" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P50" s="64" t="s">
@@ -7539,37 +7533,37 @@
       <c r="D51" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="71" t="s">
+      <c r="E51" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H51" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="I51" s="71" t="s">
+      <c r="H51" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="72" t="s">
         <v>26</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K51" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L51" s="71" t="s">
+      <c r="K51" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M51" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N51" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O51" s="71" t="s">
+      <c r="N51" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O51" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P51" s="54" t="s">
@@ -7589,37 +7583,37 @@
       <c r="D52" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F52" s="72" t="s">
+      <c r="E52" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="71" t="s">
         <v>26</v>
       </c>
       <c r="G52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I52" s="72" t="s">
+      <c r="H52" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J52" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K52" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L52" s="72" t="s">
+      <c r="K52" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N52" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O52" s="72" t="s">
+      <c r="N52" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O52" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P52" s="64" t="s">
@@ -7639,37 +7633,37 @@
       <c r="D53" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" s="95" t="s">
+      <c r="E53" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="89" t="s">
         <v>24</v>
       </c>
       <c r="G53" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H53" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="I53" s="95" t="s">
+      <c r="H53" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="89" t="s">
         <v>24</v>
       </c>
       <c r="J53" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="K53" s="95" t="s">
-        <v>26</v>
-      </c>
-      <c r="L53" s="95" t="s">
+      <c r="K53" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" s="89" t="s">
         <v>26</v>
       </c>
       <c r="M53" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="N53" s="95" t="s">
+      <c r="N53" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="O53" s="95" t="s">
+      <c r="O53" s="89" t="s">
         <v>38</v>
       </c>
       <c r="P53" s="67" t="s">
@@ -7689,37 +7683,37 @@
       <c r="D54" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" s="72" t="s">
+      <c r="E54" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="71" t="s">
         <v>26</v>
       </c>
       <c r="G54" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I54" s="72" t="s">
+      <c r="H54" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" s="71" t="s">
         <v>26</v>
       </c>
       <c r="J54" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K54" s="72" t="s">
+      <c r="K54" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="L54" s="72" t="s">
+      <c r="L54" s="71" t="s">
         <v>38</v>
       </c>
       <c r="M54" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N54" s="72" t="s">
+      <c r="N54" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="O54" s="72" t="s">
+      <c r="O54" s="71" t="s">
         <v>38</v>
       </c>
       <c r="P54" s="64" t="s">
@@ -7739,37 +7733,37 @@
       <c r="D55" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F55" s="71" t="s">
+      <c r="E55" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H55" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="I55" s="71" t="s">
+      <c r="H55" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="I55" s="72" t="s">
         <v>25</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K55" s="71" t="s">
+      <c r="K55" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="L55" s="71" t="s">
+      <c r="L55" s="72" t="s">
         <v>30</v>
       </c>
       <c r="M55" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N55" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O55" s="71" t="s">
+      <c r="N55" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O55" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P55" s="54" t="s">
@@ -7789,37 +7783,37 @@
       <c r="D56" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E56" s="72" t="s">
+      <c r="E56" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="F56" s="72" t="s">
+      <c r="F56" s="71" t="s">
         <v>38</v>
       </c>
       <c r="G56" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H56" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I56" s="72" t="s">
+      <c r="H56" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J56" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K56" s="72" t="s">
+      <c r="K56" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="L56" s="72" t="s">
+      <c r="L56" s="71" t="s">
         <v>38</v>
       </c>
       <c r="M56" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N56" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O56" s="72" t="s">
+      <c r="N56" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O56" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P56" s="64" t="s">
@@ -7839,37 +7833,37 @@
       <c r="D57" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F57" s="71" t="s">
+      <c r="E57" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H57" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="I57" s="71" t="s">
+      <c r="H57" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" s="72" t="s">
         <v>26</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K57" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L57" s="71" t="s">
+      <c r="K57" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M57" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="N57" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O57" s="71" t="s">
+      <c r="N57" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O57" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P57" s="54" t="s">
@@ -7889,37 +7883,37 @@
       <c r="D58" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E58" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="F58" s="72" t="s">
+      <c r="E58" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" s="71" t="s">
         <v>38</v>
       </c>
       <c r="G58" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H58" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I58" s="72" t="s">
+      <c r="H58" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I58" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J58" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K58" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L58" s="72" t="s">
+      <c r="K58" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M58" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N58" s="72" t="s">
+      <c r="N58" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="O58" s="72" t="s">
+      <c r="O58" s="71" t="s">
         <v>25</v>
       </c>
       <c r="P58" s="64" t="s">
@@ -7939,37 +7933,37 @@
       <c r="D59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="71" t="s">
+      <c r="E59" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F59" s="71" t="s">
+      <c r="F59" s="72" t="s">
         <v>25</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H59" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I59" s="71" t="s">
+      <c r="H59" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I59" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K59" s="71" t="s">
+      <c r="K59" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="L59" s="71" t="s">
+      <c r="L59" s="72" t="s">
         <v>38</v>
       </c>
       <c r="M59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N59" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O59" s="71" t="s">
+      <c r="N59" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O59" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P59" s="54" t="s">
@@ -7989,37 +7983,37 @@
       <c r="D60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E60" s="72" t="s">
+      <c r="E60" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="F60" s="72" t="s">
+      <c r="F60" s="71" t="s">
         <v>30</v>
       </c>
       <c r="G60" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H60" s="72" t="s">
+      <c r="H60" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="I60" s="72" t="s">
+      <c r="I60" s="71" t="s">
         <v>30</v>
       </c>
       <c r="J60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K60" s="72" t="s">
+      <c r="K60" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="L60" s="72" t="s">
+      <c r="L60" s="71" t="s">
         <v>30</v>
       </c>
       <c r="M60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N60" s="72" t="s">
+      <c r="N60" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="O60" s="72" t="s">
+      <c r="O60" s="71" t="s">
         <v>25</v>
       </c>
       <c r="P60" s="64" t="s">
@@ -8039,37 +8033,37 @@
       <c r="D61" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F61" s="71" t="s">
+      <c r="E61" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H61" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I61" s="71" t="s">
+      <c r="H61" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K61" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L61" s="71" t="s">
+      <c r="K61" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M61" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N61" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="O61" s="71" t="s">
+      <c r="N61" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="O61" s="72" t="s">
         <v>26</v>
       </c>
       <c r="P61" s="54" t="s">
@@ -8089,37 +8083,37 @@
       <c r="D62" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E62" s="72" t="s">
+      <c r="E62" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="72" t="s">
+      <c r="F62" s="71" t="s">
         <v>25</v>
       </c>
       <c r="G62" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H62" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I62" s="72" t="s">
+      <c r="H62" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" s="71" t="s">
         <v>26</v>
       </c>
       <c r="J62" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K62" s="72" t="s">
+      <c r="K62" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="L62" s="72" t="s">
+      <c r="L62" s="71" t="s">
         <v>229</v>
       </c>
       <c r="M62" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N62" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="O62" s="72" t="s">
+      <c r="N62" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="O62" s="71" t="s">
         <v>26</v>
       </c>
       <c r="P62" s="64" t="s">
@@ -8139,37 +8133,37 @@
       <c r="D63" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E63" s="71" t="s">
+      <c r="E63" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="F63" s="71" t="s">
+      <c r="F63" s="72" t="s">
         <v>38</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H63" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I63" s="71" t="s">
+      <c r="H63" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K63" s="71" t="s">
+      <c r="K63" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="L63" s="71" t="s">
+      <c r="L63" s="72" t="s">
         <v>25</v>
       </c>
       <c r="M63" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N63" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O63" s="71" t="s">
+      <c r="N63" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O63" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P63" s="54" t="s">
@@ -8189,37 +8183,37 @@
       <c r="D64" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E64" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" s="72" t="s">
+      <c r="E64" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="71" t="s">
         <v>26</v>
       </c>
       <c r="G64" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H64" s="72" t="s">
+      <c r="H64" s="71" t="s">
         <v>224</v>
       </c>
-      <c r="I64" s="72" t="s">
+      <c r="I64" s="71" t="s">
         <v>224</v>
       </c>
       <c r="J64" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K64" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L64" s="72" t="s">
+      <c r="K64" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L64" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M64" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N64" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="O64" s="72" t="s">
+      <c r="N64" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="O64" s="71" t="s">
         <v>26</v>
       </c>
       <c r="P64" s="64" t="s">
@@ -8239,37 +8233,37 @@
       <c r="D65" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="71" t="s">
+      <c r="E65" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="F65" s="71" t="s">
+      <c r="F65" s="72" t="s">
         <v>30</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="71" t="s">
+      <c r="H65" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="I65" s="71" t="s">
+      <c r="I65" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="J65" s="96" t="s">
+      <c r="J65" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K65" s="71" t="s">
+      <c r="K65" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="L65" s="71" t="s">
+      <c r="L65" s="72" t="s">
         <v>30</v>
       </c>
       <c r="M65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N65" s="71" t="s">
+      <c r="N65" s="72" t="s">
         <v>242</v>
       </c>
-      <c r="O65" s="71" t="s">
+      <c r="O65" s="72" t="s">
         <v>30</v>
       </c>
       <c r="P65" s="54" t="s">
@@ -8283,204 +8277,380 @@
       <c r="B66" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="C66" s="38"/>
+      <c r="C66" s="24" t="s">
+        <v>233</v>
+      </c>
       <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
+      <c r="E66" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66" s="72" t="s">
+        <v>30</v>
+      </c>
       <c r="G66" s="51"/>
-      <c r="H66" s="89"/>
-      <c r="I66" s="90"/>
-      <c r="J66" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="K66" s="89" t="s">
+      <c r="H66" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="I66" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="J66" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="K66" s="92" t="s">
         <v>243</v>
       </c>
-      <c r="L66" s="90"/>
+      <c r="L66" s="93"/>
       <c r="M66" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="N66" s="89" t="s">
+      <c r="N66" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="O66" s="91"/>
+      <c r="O66" s="94"/>
       <c r="P66" s="70" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="35"/>
-      <c r="B67" s="14" t="s">
+      <c r="A67" s="33"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="72"/>
+      <c r="I67" s="72"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="72"/>
+      <c r="L67" s="72"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="72"/>
+      <c r="O67" s="72"/>
+      <c r="P67" s="54"/>
+    </row>
+    <row r="68" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="33"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="72"/>
+      <c r="I68" s="72"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="72"/>
+      <c r="L68" s="72"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="72"/>
+      <c r="O68" s="72"/>
+      <c r="P68" s="54"/>
+    </row>
+    <row r="69" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="35"/>
+      <c r="B69" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C67" s="20"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="16"/>
-    </row>
-    <row r="68" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="34"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="10"/>
-    </row>
-    <row r="69" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="70" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="61"/>
-      <c r="K71" s="61"/>
-      <c r="L71" s="61"/>
-      <c r="M71" s="61"/>
-      <c r="N71" s="61"/>
-      <c r="O71" s="61"/>
-      <c r="P71" s="68"/>
-    </row>
-    <row r="72" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D72" s="61"/>
-      <c r="E72" s="92"/>
-      <c r="F72" s="92"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="92"/>
-      <c r="I72" s="92"/>
-      <c r="J72" s="61"/>
-      <c r="K72" s="92"/>
-      <c r="L72" s="92"/>
-      <c r="M72" s="61"/>
-      <c r="N72" s="92"/>
-      <c r="O72" s="92"/>
-      <c r="P72" s="68"/>
-    </row>
+      <c r="C69" s="20"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="16"/>
+    </row>
+    <row r="70" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="34"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="10"/>
+    </row>
+    <row r="71" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="73" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="62"/>
-      <c r="H73" s="62"/>
-      <c r="I73" s="62"/>
-      <c r="J73" s="62"/>
-      <c r="K73" s="62"/>
-      <c r="L73" s="62"/>
-      <c r="M73" s="62"/>
-      <c r="N73" s="62"/>
-      <c r="O73" s="62"/>
-      <c r="P73" s="69"/>
-    </row>
-    <row r="74" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="75" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D76" s="61"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="61"/>
-      <c r="I76" s="61"/>
-      <c r="J76" s="61"/>
-      <c r="K76" s="61"/>
-      <c r="L76" s="61"/>
-      <c r="M76" s="61"/>
-      <c r="N76" s="61"/>
-      <c r="O76" s="61"/>
-      <c r="P76" s="68"/>
-    </row>
-    <row r="77" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D77" s="61"/>
-      <c r="E77" s="92"/>
-      <c r="F77" s="92"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="92"/>
-      <c r="I77" s="92"/>
-      <c r="J77" s="61"/>
-      <c r="K77" s="92"/>
-      <c r="L77" s="92"/>
-      <c r="M77" s="61"/>
-      <c r="N77" s="92"/>
-      <c r="O77" s="92"/>
-      <c r="P77" s="68"/>
-    </row>
+      <c r="D73" s="61"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="61"/>
+      <c r="K73" s="61"/>
+      <c r="L73" s="61"/>
+      <c r="M73" s="61"/>
+      <c r="N73" s="61"/>
+      <c r="O73" s="61"/>
+      <c r="P73" s="68"/>
+    </row>
+    <row r="74" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D74" s="61"/>
+      <c r="E74" s="95"/>
+      <c r="F74" s="95"/>
+      <c r="G74" s="61"/>
+      <c r="H74" s="95"/>
+      <c r="I74" s="95"/>
+      <c r="J74" s="61"/>
+      <c r="K74" s="95"/>
+      <c r="L74" s="95"/>
+      <c r="M74" s="61"/>
+      <c r="N74" s="95"/>
+      <c r="O74" s="95"/>
+      <c r="P74" s="68"/>
+    </row>
+    <row r="75" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="62"/>
+      <c r="K75" s="62"/>
+      <c r="L75" s="62"/>
+      <c r="M75" s="62"/>
+      <c r="N75" s="62"/>
+      <c r="O75" s="62"/>
+      <c r="P75" s="69"/>
+    </row>
+    <row r="76" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="77" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="78" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="62"/>
-      <c r="I78" s="62"/>
-      <c r="J78" s="62"/>
-      <c r="K78" s="62"/>
-      <c r="L78" s="62"/>
-      <c r="M78" s="62"/>
-      <c r="N78" s="62"/>
-      <c r="O78" s="62"/>
-      <c r="P78" s="69"/>
-    </row>
-    <row r="79" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="61"/>
+      <c r="H78" s="61"/>
+      <c r="I78" s="61"/>
+      <c r="J78" s="61"/>
+      <c r="K78" s="61"/>
+      <c r="L78" s="61"/>
+      <c r="M78" s="61"/>
+      <c r="N78" s="61"/>
+      <c r="O78" s="61"/>
+      <c r="P78" s="68"/>
+    </row>
+    <row r="79" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D79" s="61"/>
+      <c r="E79" s="95"/>
+      <c r="F79" s="95"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="95"/>
+      <c r="I79" s="95"/>
+      <c r="J79" s="61"/>
+      <c r="K79" s="95"/>
+      <c r="L79" s="95"/>
+      <c r="M79" s="61"/>
+      <c r="N79" s="95"/>
+      <c r="O79" s="95"/>
+      <c r="P79" s="68"/>
+    </row>
+    <row r="80" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D80" s="62"/>
+      <c r="E80" s="62"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="62"/>
+      <c r="H80" s="62"/>
+      <c r="I80" s="62"/>
+      <c r="J80" s="62"/>
+      <c r="K80" s="62"/>
+      <c r="L80" s="62"/>
+      <c r="M80" s="62"/>
+      <c r="N80" s="62"/>
+      <c r="O80" s="62"/>
+      <c r="P80" s="69"/>
+    </row>
+    <row r="81" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="221">
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N41:O41"/>
+  <mergeCells count="230">
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
     <mergeCell ref="K64:L64"/>
     <mergeCell ref="K65:L65"/>
     <mergeCell ref="N14:O14"/>
@@ -8505,165 +8675,44 @@
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="N31:O31"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N60:O60"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:C6">

--- a/app/xlsx/4月_5月シフト.xlsx
+++ b/app/xlsx/4月_5月シフト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiha\OneDrive\デスクトップ\MyPrograming\MyGo\rolemaster0.5\RoleMaserV0.5\app\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF551D70-46DB-411C-9314-D3B6E4622F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAF8CE8-A9BC-41FA-AF6A-5116F4D2ACCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="244">
   <si>
     <t>ミエルココン</t>
   </si>
@@ -879,10 +879,6 @@
   </si>
   <si>
     <t>8:30-16:00</t>
-  </si>
-  <si>
-    <t>8：30－21：30</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>修 08:30-20:00</t>
@@ -956,7 +952,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1608,19 +1604,6 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="double">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -1636,7 +1619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1848,10 +1831,28 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1884,44 +1885,23 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2465,11 +2445,11 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="73"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="82" t="s">
         <v>146</v>
       </c>
       <c r="D6" s="8">
@@ -2487,7 +2467,7 @@
       <c r="H6" s="8">
         <v>15</v>
       </c>
-      <c r="I6" s="79" t="s">
+      <c r="I6" s="85" t="s">
         <v>146</v>
       </c>
       <c r="J6" s="8">
@@ -2510,11 +2490,11 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="74"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="77"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2530,7 +2510,7 @@
       <c r="H7" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="I7" s="80"/>
+      <c r="I7" s="86"/>
       <c r="J7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2551,11 +2531,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="77"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="7">
         <v>68</v>
       </c>
@@ -2569,7 +2549,7 @@
         <v>60</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="80"/>
+      <c r="I8" s="86"/>
       <c r="J8" s="7">
         <v>90</v>
       </c>
@@ -2588,11 +2568,11 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="74"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="77"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="17">
         <v>14</v>
       </c>
@@ -2608,7 +2588,7 @@
       <c r="H9" s="17">
         <v>10</v>
       </c>
-      <c r="I9" s="80"/>
+      <c r="I9" s="86"/>
       <c r="J9" s="17">
         <v>18</v>
       </c>
@@ -2627,11 +2607,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2645,7 +2625,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="80"/>
+      <c r="I10" s="86"/>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2664,11 +2644,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="74"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="77"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="7" t="s">
         <v>94</v>
       </c>
@@ -2684,7 +2664,7 @@
       <c r="H11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="80"/>
+      <c r="I11" s="86"/>
       <c r="J11" s="7" t="s">
         <v>97</v>
       </c>
@@ -2703,11 +2683,11 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="74"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="77"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2723,7 +2703,7 @@
       <c r="H12" s="18">
         <v>0.6875</v>
       </c>
-      <c r="I12" s="80"/>
+      <c r="I12" s="86"/>
       <c r="J12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2744,11 +2724,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="75"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="78"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2764,7 +2744,7 @@
       <c r="H13" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="I13" s="81"/>
+      <c r="I13" s="87"/>
       <c r="J13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2810,17 +2790,17 @@
       <c r="I14" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="J14" s="82" t="s">
+      <c r="J14" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="82" t="s">
+      <c r="K14" s="88" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="43"/>
-      <c r="M14" s="82" t="s">
+      <c r="M14" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="82" t="s">
+      <c r="N14" s="88" t="s">
         <v>23</v>
       </c>
       <c r="O14" s="44" t="s">
@@ -2853,19 +2833,19 @@
       <c r="I15" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="J15" s="72" t="s">
+      <c r="J15" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="72" t="s">
+      <c r="K15" s="71" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="72" t="s">
+      <c r="M15" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="72" t="s">
+      <c r="N15" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O15" s="26" t="s">
@@ -2898,17 +2878,17 @@
       <c r="I16" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="J16" s="71" t="s">
+      <c r="J16" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="71" t="s">
+      <c r="K16" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="71" t="s">
+      <c r="M16" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="71" t="s">
+      <c r="N16" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="40" t="s">
@@ -2941,17 +2921,17 @@
       <c r="I17" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="J17" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="72" t="s">
+      <c r="J17" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="72" t="s">
+      <c r="M17" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N17" s="72" t="s">
+      <c r="N17" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O17" s="26" t="s">
@@ -2984,17 +2964,17 @@
       <c r="I18" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="J18" s="71" t="s">
+      <c r="J18" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="71" t="s">
+      <c r="K18" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="39"/>
-      <c r="M18" s="71" t="s">
+      <c r="M18" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N18" s="71" t="s">
+      <c r="N18" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O18" s="40" t="s">
@@ -3027,17 +3007,17 @@
       <c r="I19" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="J19" s="72" t="s">
+      <c r="J19" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="72" t="s">
+      <c r="K19" s="71" t="s">
         <v>34</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="72" t="s">
+      <c r="M19" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="72" t="s">
+      <c r="N19" s="71" t="s">
         <v>28</v>
       </c>
       <c r="O19" s="26" t="s">
@@ -3070,17 +3050,17 @@
       <c r="I20" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="71" t="s">
+      <c r="J20" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="71" t="s">
+      <c r="K20" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="39"/>
-      <c r="M20" s="71" t="s">
+      <c r="M20" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="71" t="s">
+      <c r="N20" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O20" s="40" t="s">
@@ -3113,17 +3093,17 @@
       <c r="I21" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="72" t="s">
+      <c r="J21" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K21" s="72" t="s">
+      <c r="K21" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="72" t="s">
+      <c r="M21" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="72" t="s">
+      <c r="N21" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="26" t="s">
@@ -3156,17 +3136,17 @@
       <c r="I22" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="J22" s="71" t="s">
+      <c r="J22" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="71" t="s">
+      <c r="K22" s="72" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="39"/>
-      <c r="M22" s="71" t="s">
+      <c r="M22" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N22" s="71" t="s">
+      <c r="N22" s="72" t="s">
         <v>38</v>
       </c>
       <c r="O22" s="40" t="s">
@@ -3199,19 +3179,19 @@
       <c r="I23" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="J23" s="72" t="s">
+      <c r="J23" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="72" t="s">
+      <c r="K23" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M23" s="72" t="s">
+      <c r="M23" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="72" t="s">
+      <c r="N23" s="71" t="s">
         <v>38</v>
       </c>
       <c r="O23" s="26" t="s">
@@ -3244,17 +3224,17 @@
       <c r="I24" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="J24" s="71" t="s">
+      <c r="J24" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K24" s="71" t="s">
+      <c r="K24" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="39"/>
-      <c r="M24" s="71" t="s">
+      <c r="M24" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="71" t="s">
+      <c r="N24" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="40" t="s">
@@ -3287,17 +3267,17 @@
       <c r="I25" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="J25" s="72" t="s">
+      <c r="J25" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K25" s="72" t="s">
+      <c r="K25" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="72" t="s">
+      <c r="M25" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N25" s="72" t="s">
+      <c r="N25" s="71" t="s">
         <v>30</v>
       </c>
       <c r="O25" s="26" t="s">
@@ -3330,19 +3310,19 @@
       <c r="I26" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J26" s="71" t="s">
+      <c r="J26" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="71" t="s">
+      <c r="K26" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M26" s="71" t="s">
+      <c r="M26" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="71" t="s">
+      <c r="N26" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O26" s="40" t="s">
@@ -3375,17 +3355,17 @@
       <c r="I27" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J27" s="72" t="s">
+      <c r="J27" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="72" t="s">
+      <c r="K27" s="71" t="s">
         <v>44</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="72" t="s">
+      <c r="M27" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N27" s="72" t="s">
+      <c r="N27" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O27" s="26" t="s">
@@ -3418,19 +3398,19 @@
       <c r="I28" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="J28" s="71" t="s">
+      <c r="J28" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="71" t="s">
+      <c r="K28" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="71" t="s">
+      <c r="M28" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N28" s="71" t="s">
+      <c r="N28" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O28" s="40" t="s">
@@ -3463,17 +3443,17 @@
       <c r="I29" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="J29" s="72" t="s">
+      <c r="J29" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="72" t="s">
+      <c r="K29" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="72" t="s">
+      <c r="M29" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N29" s="72" t="s">
+      <c r="N29" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O29" s="26" t="s">
@@ -3506,17 +3486,17 @@
       <c r="I30" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="J30" s="71" t="s">
+      <c r="J30" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="71" t="s">
+      <c r="K30" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="39"/>
-      <c r="M30" s="71" t="s">
+      <c r="M30" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N30" s="71" t="s">
+      <c r="N30" s="72" t="s">
         <v>26</v>
       </c>
       <c r="O30" s="40" t="s">
@@ -3549,17 +3529,17 @@
       <c r="I31" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="J31" s="72" t="s">
+      <c r="J31" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K31" s="72" t="s">
+      <c r="K31" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="7"/>
-      <c r="M31" s="72" t="s">
+      <c r="M31" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N31" s="72" t="s">
+      <c r="N31" s="71" t="s">
         <v>28</v>
       </c>
       <c r="O31" s="26" t="s">
@@ -3592,17 +3572,17 @@
       <c r="I32" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="J32" s="71" t="s">
+      <c r="J32" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K32" s="71" t="s">
+      <c r="K32" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="39"/>
-      <c r="M32" s="71" t="s">
+      <c r="M32" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N32" s="71" t="s">
+      <c r="N32" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="40" t="s">
@@ -3635,17 +3615,17 @@
       <c r="I33" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J33" s="72" t="s">
+      <c r="J33" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K33" s="72" t="s">
+      <c r="K33" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="M33" s="72" t="s">
+      <c r="M33" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N33" s="72" t="s">
+      <c r="N33" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O33" s="26" t="s">
@@ -3678,17 +3658,17 @@
       <c r="I34" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="J34" s="71" t="s">
+      <c r="J34" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K34" s="71" t="s">
+      <c r="K34" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="39"/>
-      <c r="M34" s="71" t="s">
+      <c r="M34" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N34" s="71" t="s">
+      <c r="N34" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O34" s="40" t="s">
@@ -3721,17 +3701,17 @@
       <c r="I35" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="J35" s="72" t="s">
+      <c r="J35" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="K35" s="72" t="s">
+      <c r="K35" s="71" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="7"/>
-      <c r="M35" s="72" t="s">
+      <c r="M35" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N35" s="72" t="s">
+      <c r="N35" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O35" s="26" t="s">
@@ -3764,17 +3744,17 @@
       <c r="I36" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J36" s="71" t="s">
+      <c r="J36" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K36" s="71" t="s">
+      <c r="K36" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L36" s="39"/>
-      <c r="M36" s="71" t="s">
+      <c r="M36" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="71" t="s">
+      <c r="N36" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O36" s="40" t="s">
@@ -3807,17 +3787,17 @@
       <c r="I37" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="J37" s="72" t="s">
+      <c r="J37" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K37" s="72" t="s">
+      <c r="K37" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L37" s="7"/>
-      <c r="M37" s="72" t="s">
+      <c r="M37" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="72" t="s">
+      <c r="N37" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O37" s="26" t="s">
@@ -3850,17 +3830,17 @@
       <c r="I38" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="J38" s="71" t="s">
+      <c r="J38" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="71" t="s">
+      <c r="K38" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L38" s="39"/>
-      <c r="M38" s="71" t="s">
+      <c r="M38" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N38" s="71" t="s">
+      <c r="N38" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O38" s="40" t="s">
@@ -3893,17 +3873,17 @@
       <c r="I39" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="J39" s="72" t="s">
+      <c r="J39" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K39" s="72" t="s">
+      <c r="K39" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="7"/>
-      <c r="M39" s="72" t="s">
+      <c r="M39" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N39" s="72" t="s">
+      <c r="N39" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="26" t="s">
@@ -3936,19 +3916,19 @@
       <c r="I40" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="J40" s="83" t="s">
+      <c r="J40" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="K40" s="83" t="s">
+      <c r="K40" s="77" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="83" t="s">
+      <c r="M40" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="N40" s="83" t="s">
+      <c r="N40" s="77" t="s">
         <v>24</v>
       </c>
       <c r="O40" s="49" t="s">
@@ -3981,17 +3961,17 @@
       <c r="I41" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="J41" s="84" t="s">
+      <c r="J41" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="K41" s="84" t="s">
+      <c r="K41" s="78" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="31"/>
-      <c r="M41" s="84" t="s">
+      <c r="M41" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="N41" s="84" t="s">
+      <c r="N41" s="78" t="s">
         <v>24</v>
       </c>
       <c r="O41" s="32" t="s">
@@ -4024,17 +4004,17 @@
       <c r="I42" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="J42" s="71" t="s">
+      <c r="J42" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K42" s="71" t="s">
+      <c r="K42" s="72" t="s">
         <v>26</v>
       </c>
       <c r="L42" s="39"/>
-      <c r="M42" s="71" t="s">
+      <c r="M42" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N42" s="71" t="s">
+      <c r="N42" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O42" s="40" t="s">
@@ -4067,19 +4047,19 @@
       <c r="I43" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="J43" s="72" t="s">
+      <c r="J43" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K43" s="72" t="s">
+      <c r="K43" s="71" t="s">
         <v>26</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M43" s="72" t="s">
+      <c r="M43" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N43" s="72" t="s">
+      <c r="N43" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O43" s="26" t="s">
@@ -4112,17 +4092,17 @@
       <c r="I44" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="J44" s="71" t="s">
+      <c r="J44" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="K44" s="71" t="s">
+      <c r="K44" s="72" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="39"/>
-      <c r="M44" s="71" t="s">
+      <c r="M44" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N44" s="71" t="s">
+      <c r="N44" s="72" t="s">
         <v>38</v>
       </c>
       <c r="O44" s="40" t="s">
@@ -4155,17 +4135,17 @@
       <c r="I45" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="J45" s="72" t="s">
+      <c r="J45" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K45" s="72" t="s">
+      <c r="K45" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L45" s="7"/>
-      <c r="M45" s="72" t="s">
+      <c r="M45" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N45" s="72" t="s">
+      <c r="N45" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O45" s="26" t="s">
@@ -4198,17 +4178,17 @@
       <c r="I46" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="J46" s="71" t="s">
+      <c r="J46" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K46" s="71" t="s">
+      <c r="K46" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="39"/>
-      <c r="M46" s="71" t="s">
+      <c r="M46" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N46" s="71" t="s">
+      <c r="N46" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O46" s="40" t="s">
@@ -4241,17 +4221,17 @@
       <c r="I47" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="J47" s="72" t="s">
+      <c r="J47" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K47" s="72" t="s">
+      <c r="K47" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L47" s="7"/>
-      <c r="M47" s="72" t="s">
+      <c r="M47" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N47" s="72" t="s">
+      <c r="N47" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O47" s="26" t="s">
@@ -4284,17 +4264,17 @@
       <c r="I48" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="J48" s="71" t="s">
+      <c r="J48" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K48" s="71" t="s">
+      <c r="K48" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L48" s="39"/>
-      <c r="M48" s="71" t="s">
+      <c r="M48" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N48" s="71" t="s">
+      <c r="N48" s="72" t="s">
         <v>66</v>
       </c>
       <c r="O48" s="40" t="s">
@@ -4327,17 +4307,17 @@
       <c r="I49" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="J49" s="72" t="s">
+      <c r="J49" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K49" s="72" t="s">
+      <c r="K49" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="7"/>
-      <c r="M49" s="72" t="s">
+      <c r="M49" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N49" s="72" t="s">
+      <c r="N49" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O49" s="26" t="s">
@@ -4370,17 +4350,17 @@
       <c r="I50" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="J50" s="71" t="s">
+      <c r="J50" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K50" s="71" t="s">
+      <c r="K50" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="39"/>
-      <c r="M50" s="71" t="s">
+      <c r="M50" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N50" s="71" t="s">
+      <c r="N50" s="72" t="s">
         <v>38</v>
       </c>
       <c r="O50" s="40" t="s">
@@ -4413,17 +4393,17 @@
       <c r="I51" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="J51" s="72" t="s">
+      <c r="J51" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="K51" s="72" t="s">
+      <c r="K51" s="71" t="s">
         <v>38</v>
       </c>
       <c r="L51" s="7"/>
-      <c r="M51" s="72" t="s">
+      <c r="M51" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N51" s="72" t="s">
+      <c r="N51" s="71" t="s">
         <v>38</v>
       </c>
       <c r="O51" s="26" t="s">
@@ -4456,19 +4436,19 @@
       <c r="I52" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J52" s="71" t="s">
+      <c r="J52" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="71" t="s">
+      <c r="K52" s="72" t="s">
         <v>71</v>
       </c>
       <c r="L52" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M52" s="71" t="s">
+      <c r="M52" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N52" s="71" t="s">
+      <c r="N52" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O52" s="40" t="s">
@@ -4501,19 +4481,19 @@
       <c r="I53" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J53" s="72" t="s">
+      <c r="J53" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K53" s="72" t="s">
+      <c r="K53" s="71" t="s">
         <v>26</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M53" s="72" t="s">
+      <c r="M53" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N53" s="72" t="s">
+      <c r="N53" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O53" s="26" t="s">
@@ -4546,17 +4526,17 @@
       <c r="I54" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="J54" s="71" t="s">
+      <c r="J54" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="K54" s="71" t="s">
+      <c r="K54" s="72" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="39"/>
-      <c r="M54" s="71" t="s">
+      <c r="M54" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N54" s="71" t="s">
+      <c r="N54" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O54" s="40" t="s">
@@ -4589,17 +4569,17 @@
       <c r="I55" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="J55" s="72" t="s">
+      <c r="J55" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K55" s="72" t="s">
+      <c r="K55" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L55" s="7"/>
-      <c r="M55" s="72" t="s">
+      <c r="M55" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N55" s="72" t="s">
+      <c r="N55" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O55" s="26" t="s">
@@ -4632,17 +4612,17 @@
       <c r="I56" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="J56" s="71" t="s">
+      <c r="J56" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K56" s="71" t="s">
+      <c r="K56" s="72" t="s">
         <v>26</v>
       </c>
       <c r="L56" s="39"/>
-      <c r="M56" s="71" t="s">
+      <c r="M56" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N56" s="71" t="s">
+      <c r="N56" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O56" s="40" t="s">
@@ -4675,19 +4655,19 @@
       <c r="I57" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="J57" s="72" t="s">
+      <c r="J57" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K57" s="72" t="s">
+      <c r="K57" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M57" s="72" t="s">
+      <c r="M57" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N57" s="72" t="s">
+      <c r="N57" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O57" s="26" t="s">
@@ -4720,17 +4700,17 @@
       <c r="I58" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="J58" s="71" t="s">
+      <c r="J58" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="K58" s="71" t="s">
+      <c r="K58" s="72" t="s">
         <v>28</v>
       </c>
       <c r="L58" s="39"/>
-      <c r="M58" s="71" t="s">
+      <c r="M58" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N58" s="71" t="s">
+      <c r="N58" s="72" t="s">
         <v>78</v>
       </c>
       <c r="O58" s="40" t="s">
@@ -4763,17 +4743,17 @@
       <c r="I59" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="J59" s="72" t="s">
+      <c r="J59" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="K59" s="72" t="s">
+      <c r="K59" s="71" t="s">
         <v>38</v>
       </c>
       <c r="L59" s="7"/>
-      <c r="M59" s="72" t="s">
+      <c r="M59" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N59" s="72" t="s">
+      <c r="N59" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O59" s="26" t="s">
@@ -4794,15 +4774,15 @@
       <c r="G60" s="51"/>
       <c r="H60" s="51"/>
       <c r="I60" s="50"/>
-      <c r="J60" s="85" t="s">
+      <c r="J60" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="K60" s="86"/>
+      <c r="K60" s="76"/>
       <c r="L60" s="51"/>
-      <c r="M60" s="71" t="s">
+      <c r="M60" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N60" s="71" t="s">
+      <c r="N60" s="72" t="s">
         <v>66</v>
       </c>
       <c r="O60" s="26" t="s">
@@ -4823,15 +4803,15 @@
       <c r="G61" s="31"/>
       <c r="H61" s="31"/>
       <c r="I61" s="30"/>
-      <c r="J61" s="87" t="s">
+      <c r="J61" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="K61" s="88"/>
+      <c r="K61" s="74"/>
       <c r="L61" s="31"/>
-      <c r="M61" s="72" t="s">
+      <c r="M61" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N61" s="72" t="s">
+      <c r="N61" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O61" s="40" t="s">
@@ -4852,17 +4832,17 @@
       <c r="G62" s="51"/>
       <c r="H62" s="51"/>
       <c r="I62" s="50"/>
-      <c r="J62" s="72" t="s">
+      <c r="J62" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K62" s="72" t="s">
+      <c r="K62" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L62" s="51"/>
-      <c r="M62" s="71" t="s">
+      <c r="M62" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N62" s="71" t="s">
+      <c r="N62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O62" s="26" t="s">
@@ -4883,15 +4863,15 @@
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
       <c r="I63" s="30"/>
-      <c r="J63" s="87" t="s">
+      <c r="J63" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="K63" s="88"/>
+      <c r="K63" s="74"/>
       <c r="L63" s="31"/>
-      <c r="M63" s="71" t="s">
+      <c r="M63" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N63" s="71" t="s">
+      <c r="N63" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O63" s="26" t="s">
@@ -4912,17 +4892,17 @@
       <c r="G64" s="51"/>
       <c r="H64" s="51"/>
       <c r="I64" s="50"/>
-      <c r="J64" s="72" t="s">
+      <c r="J64" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K64" s="72" t="s">
+      <c r="K64" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L64" s="51"/>
-      <c r="M64" s="72" t="s">
+      <c r="M64" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N64" s="72" t="s">
+      <c r="N64" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O64" s="40" t="s">
@@ -4941,17 +4921,17 @@
       <c r="G65" s="31"/>
       <c r="H65" s="31"/>
       <c r="I65" s="30"/>
-      <c r="J65" s="72" t="s">
+      <c r="J65" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K65" s="72" t="s">
+      <c r="K65" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L65" s="31"/>
-      <c r="M65" s="71" t="s">
+      <c r="M65" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N65" s="71" t="s">
+      <c r="N65" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O65" s="40" t="s">
@@ -4984,17 +4964,17 @@
       <c r="I66" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="J66" s="71" t="s">
+      <c r="J66" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K66" s="71" t="s">
+      <c r="K66" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L66" s="39"/>
-      <c r="M66" s="71" t="s">
+      <c r="M66" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N66" s="71" t="s">
+      <c r="N66" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O66" s="40" t="s">
@@ -5040,102 +5020,6 @@
     <row r="69" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:N21"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="J17:K17"/>
@@ -5149,6 +5033,102 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M15:N15"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="M63:N63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:F6 I6:N6">
@@ -5203,8 +5183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A1C220-DC63-401D-B66B-975EAA99E44B}">
   <dimension ref="A2:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:XFD68"/>
+    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66:L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5301,11 +5281,11 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="73"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="82" t="s">
         <v>146</v>
       </c>
       <c r="D6" s="8">
@@ -5349,11 +5329,11 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="74"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="77"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="7" t="s">
         <v>152</v>
       </c>
@@ -5395,11 +5375,11 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="77"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="7">
         <v>13</v>
       </c>
@@ -5441,11 +5421,11 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="74"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="77"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="7" t="s">
         <v>234</v>
       </c>
@@ -5487,11 +5467,11 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="7">
         <v>6</v>
       </c>
@@ -5533,11 +5513,11 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="74"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="77"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="7" t="s">
         <v>155</v>
       </c>
@@ -5579,11 +5559,11 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="74"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="77"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="7" t="s">
         <v>156</v>
       </c>
@@ -5625,11 +5605,11 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="75"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="78"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -5683,37 +5663,37 @@
       <c r="D14" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="82" t="s">
-        <v>244</v>
-      </c>
-      <c r="F14" s="82" t="s">
+      <c r="E14" s="88" t="s">
+        <v>243</v>
+      </c>
+      <c r="F14" s="88" t="s">
         <v>66</v>
       </c>
       <c r="G14" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="82" t="s">
+      <c r="H14" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="88" t="s">
         <v>66</v>
       </c>
       <c r="J14" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="71" t="s">
+      <c r="K14" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M14" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="N14" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14" s="82" t="s">
+      <c r="N14" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="88" t="s">
         <v>66</v>
       </c>
       <c r="P14" s="63" t="s">
@@ -5733,37 +5713,37 @@
       <c r="D15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="72" t="s">
+      <c r="E15" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="72" t="s">
+      <c r="H15" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="72" t="s">
+      <c r="K15" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="L15" s="72" t="s">
+      <c r="L15" s="71" t="s">
         <v>225</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N15" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O15" s="72" t="s">
+      <c r="N15" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P15" s="54" t="s">
@@ -5783,37 +5763,37 @@
       <c r="D16" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="71" t="s">
+      <c r="E16" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="71" t="s">
+      <c r="F16" s="72" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="72" t="s">
+      <c r="H16" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="71" t="s">
+      <c r="K16" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M16" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N16" s="71" t="s">
+      <c r="N16" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="71" t="s">
+      <c r="O16" s="72" t="s">
         <v>38</v>
       </c>
       <c r="P16" s="64" t="s">
@@ -5833,37 +5813,37 @@
       <c r="D17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="72" t="s">
+      <c r="E17" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="72" t="s">
+      <c r="H17" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="72" t="s">
+      <c r="K17" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N17" s="72" t="s">
+      <c r="N17" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="O17" s="72" t="s">
+      <c r="O17" s="71" t="s">
         <v>30</v>
       </c>
       <c r="P17" s="54" t="s">
@@ -5883,37 +5863,37 @@
       <c r="D18" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="71" t="s">
+      <c r="E18" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G18" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="71" t="s">
+      <c r="H18" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" s="71" t="s">
+      <c r="K18" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O18" s="71" t="s">
+      <c r="N18" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P18" s="64" t="s">
@@ -5933,37 +5913,37 @@
       <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="72" t="s">
+      <c r="E19" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="72" t="s">
+      <c r="H19" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="72" t="s">
+      <c r="K19" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N19" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O19" s="72" t="s">
+      <c r="N19" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P19" s="54" t="s">
@@ -5983,37 +5963,37 @@
       <c r="D20" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="71" t="s">
+      <c r="E20" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="71" t="s">
+      <c r="H20" s="72" t="s">
         <v>240</v>
       </c>
-      <c r="I20" s="71" t="s">
+      <c r="I20" s="72" t="s">
         <v>224</v>
       </c>
       <c r="J20" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="71" t="s">
+      <c r="K20" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M20" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N20" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O20" s="71" t="s">
+      <c r="N20" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P20" s="64" t="s">
@@ -6033,37 +6013,37 @@
       <c r="D21" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E21" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="72" t="s">
+      <c r="E21" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="71" t="s">
         <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="72" t="s">
+      <c r="H21" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="72" t="s">
+      <c r="K21" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="L21" s="72" t="s">
+      <c r="L21" s="71" t="s">
         <v>225</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O21" s="72" t="s">
+      <c r="N21" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P21" s="54" t="s">
@@ -6083,37 +6063,37 @@
       <c r="D22" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E22" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="71" t="s">
+      <c r="E22" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G22" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22" s="71" t="s">
+      <c r="H22" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="72" t="s">
         <v>38</v>
       </c>
       <c r="J22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" s="71" t="s">
+      <c r="K22" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O22" s="71" t="s">
+      <c r="N22" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P22" s="64" t="s">
@@ -6133,37 +6113,37 @@
       <c r="D23" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="E23" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="72" t="s">
+      <c r="E23" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="72" t="s">
+      <c r="H23" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K23" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23" s="71" t="s">
+      <c r="K23" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O23" s="72" t="s">
+      <c r="N23" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O23" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P23" s="54" t="s">
@@ -6183,37 +6163,37 @@
       <c r="D24" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="71" t="s">
+      <c r="E24" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G24" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="71" t="s">
+      <c r="H24" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J24" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K24" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" s="71" t="s">
+      <c r="K24" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M24" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O24" s="71" t="s">
+      <c r="N24" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P24" s="64" t="s">
@@ -6233,37 +6213,37 @@
       <c r="D25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="72" t="s">
+      <c r="E25" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="72" t="s">
+      <c r="F25" s="71" t="s">
         <v>30</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="72" t="s">
+      <c r="H25" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="I25" s="72" t="s">
+      <c r="I25" s="71" t="s">
         <v>30</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="72" t="s">
+      <c r="K25" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="72" t="s">
+      <c r="L25" s="71" t="s">
         <v>30</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N25" s="72" t="s">
+      <c r="N25" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="O25" s="72" t="s">
+      <c r="O25" s="71" t="s">
         <v>30</v>
       </c>
       <c r="P25" s="54" t="s">
@@ -6283,37 +6263,37 @@
       <c r="D26" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E26" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="71" t="s">
+      <c r="E26" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G26" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="71" t="s">
+      <c r="H26" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J26" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K26" s="71" t="s">
+      <c r="K26" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="71" t="s">
+      <c r="L26" s="72" t="s">
         <v>25</v>
       </c>
       <c r="M26" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N26" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O26" s="71" t="s">
+      <c r="N26" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O26" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P26" s="64" t="s">
@@ -6333,37 +6313,37 @@
       <c r="D27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="72" t="s">
+      <c r="E27" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="72" t="s">
+      <c r="H27" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="72" t="s">
+      <c r="K27" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="72" t="s">
+      <c r="L27" s="71" t="s">
         <v>225</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N27" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O27" s="72" t="s">
+      <c r="N27" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P27" s="54" t="s">
@@ -6383,37 +6363,37 @@
       <c r="D28" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E28" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="71" t="s">
+      <c r="E28" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G28" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" s="71" t="s">
+      <c r="H28" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J28" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="K28" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L28" s="72" t="s">
+      <c r="K28" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M28" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N28" s="71" t="s">
+      <c r="N28" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="O28" s="71" t="s">
+      <c r="O28" s="72" t="s">
         <v>38</v>
       </c>
       <c r="P28" s="64" t="s">
@@ -6433,37 +6413,37 @@
       <c r="D29" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E29" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="72" t="s">
+      <c r="E29" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="72" t="s">
+      <c r="H29" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K29" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="72" t="s">
+      <c r="K29" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O29" s="72" t="s">
+      <c r="N29" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P29" s="54" t="s">
@@ -6483,37 +6463,37 @@
       <c r="D30" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="E30" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="71" t="s">
+      <c r="E30" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="71" t="s">
+      <c r="H30" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J30" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L30" s="71" t="s">
+      <c r="K30" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L30" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M30" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N30" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O30" s="71" t="s">
+      <c r="N30" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O30" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P30" s="64" t="s">
@@ -6533,37 +6513,37 @@
       <c r="D31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="72" t="s">
+      <c r="E31" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="72" t="s">
+      <c r="H31" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K31" s="72" t="s">
+      <c r="K31" s="71" t="s">
         <v>226</v>
       </c>
-      <c r="L31" s="72" t="s">
+      <c r="L31" s="71" t="s">
         <v>226</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N31" s="72" t="s">
+      <c r="N31" s="71" t="s">
         <v>226</v>
       </c>
-      <c r="O31" s="72" t="s">
+      <c r="O31" s="71" t="s">
         <v>226</v>
       </c>
       <c r="P31" s="54" t="s">
@@ -6583,37 +6563,37 @@
       <c r="D32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="71" t="s">
+      <c r="E32" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G32" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="71" t="s">
+      <c r="H32" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J32" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="K32" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" s="71" t="s">
+      <c r="K32" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M32" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N32" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O32" s="71" t="s">
+      <c r="N32" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P32" s="64" t="s">
@@ -6633,37 +6613,37 @@
       <c r="D33" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="72" t="s">
+      <c r="E33" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="72" t="s">
+      <c r="H33" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L33" s="72" t="s">
+      <c r="K33" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N33" s="72" t="s">
+      <c r="N33" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="O33" s="72" t="s">
+      <c r="O33" s="71" t="s">
         <v>38</v>
       </c>
       <c r="P33" s="54" t="s">
@@ -6683,37 +6663,37 @@
       <c r="D34" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="E34" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" s="71" t="s">
+      <c r="E34" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G34" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="72" t="s">
+      <c r="H34" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="I34" s="72" t="s">
+      <c r="I34" s="71" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K34" s="71" t="s">
+      <c r="K34" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="L34" s="71" t="s">
+      <c r="L34" s="72" t="s">
         <v>225</v>
       </c>
       <c r="M34" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N34" s="71" t="s">
+      <c r="N34" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="O34" s="71" t="s">
+      <c r="O34" s="72" t="s">
         <v>38</v>
       </c>
       <c r="P34" s="64" t="s">
@@ -6733,37 +6713,37 @@
       <c r="D35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="72" t="s">
+      <c r="E35" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I35" s="72" t="s">
+      <c r="H35" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K35" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L35" s="72" t="s">
+      <c r="K35" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L35" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N35" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O35" s="72" t="s">
+      <c r="N35" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O35" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P35" s="54" t="s">
@@ -6783,37 +6763,37 @@
       <c r="D36" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="71" t="s">
+      <c r="E36" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I36" s="71" t="s">
+      <c r="H36" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J36" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K36" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L36" s="71" t="s">
+      <c r="K36" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N36" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O36" s="71" t="s">
+      <c r="N36" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O36" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P36" s="64" t="s">
@@ -6833,37 +6813,37 @@
       <c r="D37" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E37" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="72" t="s">
+      <c r="E37" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="72" t="s">
+      <c r="H37" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="72" t="s">
+      <c r="I37" s="71" t="s">
         <v>25</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K37" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L37" s="72" t="s">
+      <c r="K37" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L37" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N37" s="72" t="s">
+      <c r="N37" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="O37" s="72" t="s">
+      <c r="O37" s="71" t="s">
         <v>38</v>
       </c>
       <c r="P37" s="54" t="s">
@@ -6883,37 +6863,37 @@
       <c r="D38" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="71" t="s">
+      <c r="E38" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="71" t="s">
+      <c r="H38" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K38" s="71" t="s">
+      <c r="K38" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="L38" s="71" t="s">
+      <c r="L38" s="72" t="s">
         <v>227</v>
       </c>
       <c r="M38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N38" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O38" s="71" t="s">
+      <c r="N38" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O38" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P38" s="64" t="s">
@@ -6933,37 +6913,37 @@
       <c r="D39" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="72" t="s">
+      <c r="E39" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I39" s="72" t="s">
+      <c r="H39" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K39" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L39" s="72" t="s">
+      <c r="K39" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N39" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O39" s="72" t="s">
+      <c r="N39" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O39" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P39" s="54" t="s">
@@ -6983,37 +6963,37 @@
       <c r="D40" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F40" s="71" t="s">
+      <c r="E40" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G40" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H40" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="I40" s="71" t="s">
+      <c r="H40" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="72" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K40" s="71" t="s">
+      <c r="K40" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="L40" s="71" t="s">
+      <c r="L40" s="72" t="s">
         <v>30</v>
       </c>
       <c r="M40" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="N40" s="71" t="s">
+      <c r="N40" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="O40" s="71" t="s">
+      <c r="O40" s="72" t="s">
         <v>30</v>
       </c>
       <c r="P40" s="64" t="s">
@@ -7033,37 +7013,37 @@
       <c r="D41" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="F41" s="91" t="s">
+      <c r="E41" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="92" t="s">
         <v>66</v>
       </c>
       <c r="G41" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="91" t="s">
+      <c r="H41" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="92" t="s">
         <v>26</v>
       </c>
       <c r="J41" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="K41" s="91" t="s">
+      <c r="K41" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="L41" s="91" t="s">
+      <c r="L41" s="92" t="s">
         <v>23</v>
       </c>
       <c r="M41" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="N41" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="O41" s="91" t="s">
+      <c r="N41" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="O41" s="92" t="s">
         <v>23</v>
       </c>
       <c r="P41" s="54" t="s">
@@ -7083,37 +7063,37 @@
       <c r="D42" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="E42" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="90" t="s">
+      <c r="E42" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="93" t="s">
         <v>66</v>
       </c>
       <c r="G42" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="I42" s="90" t="s">
+      <c r="H42" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="93" t="s">
         <v>66</v>
       </c>
       <c r="J42" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="K42" s="90" t="s">
+      <c r="K42" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="L42" s="90" t="s">
+      <c r="L42" s="93" t="s">
         <v>38</v>
       </c>
       <c r="M42" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="N42" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="O42" s="90" t="s">
+      <c r="N42" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="O42" s="93" t="s">
         <v>66</v>
       </c>
       <c r="P42" s="65" t="s">
@@ -7133,37 +7113,37 @@
       <c r="D43" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="84" t="s">
+      <c r="E43" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="84" t="s">
+      <c r="F43" s="78" t="s">
         <v>25</v>
       </c>
       <c r="G43" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="I43" s="84" t="s">
+      <c r="H43" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="78" t="s">
         <v>24</v>
       </c>
       <c r="J43" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="K43" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" s="84" t="s">
+      <c r="K43" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="78" t="s">
         <v>24</v>
       </c>
       <c r="M43" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="N43" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="O43" s="84" t="s">
+      <c r="N43" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="O43" s="78" t="s">
         <v>24</v>
       </c>
       <c r="P43" s="66" t="s">
@@ -7183,37 +7163,37 @@
       <c r="D44" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="71" t="s">
+      <c r="E44" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G44" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="71" t="s">
+      <c r="H44" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I44" s="71" t="s">
+      <c r="I44" s="72" t="s">
         <v>25</v>
       </c>
       <c r="J44" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K44" s="71" t="s">
+      <c r="K44" s="72" t="s">
         <v>240</v>
       </c>
-      <c r="L44" s="71" t="s">
+      <c r="L44" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M44" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N44" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O44" s="71" t="s">
+      <c r="N44" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O44" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P44" s="64" t="s">
@@ -7233,37 +7213,37 @@
       <c r="D45" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="72" t="s">
+      <c r="E45" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="71" t="s">
         <v>26</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" s="72" t="s">
+      <c r="H45" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="71" t="s">
         <v>26</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K45" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L45" s="72" t="s">
+      <c r="K45" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L45" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N45" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O45" s="72" t="s">
+      <c r="N45" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O45" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P45" s="54" t="s">
@@ -7283,37 +7263,37 @@
       <c r="D46" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="71" t="s">
+      <c r="E46" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G46" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H46" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I46" s="71" t="s">
+      <c r="H46" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J46" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K46" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L46" s="71" t="s">
+      <c r="K46" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L46" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M46" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N46" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O46" s="71" t="s">
+      <c r="N46" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O46" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P46" s="64" t="s">
@@ -7333,37 +7313,37 @@
       <c r="D47" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F47" s="72" t="s">
+      <c r="E47" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H47" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I47" s="72" t="s">
+      <c r="H47" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="71" t="s">
         <v>26</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K47" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L47" s="72" t="s">
+      <c r="K47" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M47" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N47" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O47" s="72" t="s">
+      <c r="N47" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O47" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P47" s="54" t="s">
@@ -7383,37 +7363,37 @@
       <c r="D48" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="71" t="s">
+      <c r="E48" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G48" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I48" s="71" t="s">
+      <c r="H48" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I48" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J48" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K48" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L48" s="71" t="s">
+      <c r="K48" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M48" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N48" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O48" s="71" t="s">
+      <c r="N48" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O48" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P48" s="64" t="s">
@@ -7433,37 +7413,37 @@
       <c r="D49" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" s="72" t="s">
+      <c r="E49" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H49" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I49" s="72" t="s">
+      <c r="H49" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K49" s="72" t="s">
+      <c r="K49" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="L49" s="72" t="s">
+      <c r="L49" s="71" t="s">
         <v>228</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N49" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O49" s="72" t="s">
+      <c r="N49" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O49" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P49" s="54" t="s">
@@ -7483,37 +7463,37 @@
       <c r="D50" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50" s="71" t="s">
+      <c r="E50" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G50" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I50" s="71" t="s">
+      <c r="H50" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J50" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="71" t="s">
+      <c r="K50" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="L50" s="71" t="s">
+      <c r="L50" s="72" t="s">
         <v>38</v>
       </c>
       <c r="M50" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N50" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O50" s="71" t="s">
+      <c r="N50" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O50" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P50" s="64" t="s">
@@ -7533,37 +7513,37 @@
       <c r="D51" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="72" t="s">
+      <c r="E51" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="71" t="s">
         <v>26</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H51" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I51" s="72" t="s">
+      <c r="H51" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="71" t="s">
         <v>26</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K51" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L51" s="72" t="s">
+      <c r="K51" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M51" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N51" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O51" s="72" t="s">
+      <c r="N51" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O51" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P51" s="54" t="s">
@@ -7583,37 +7563,37 @@
       <c r="D52" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F52" s="71" t="s">
+      <c r="E52" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I52" s="71" t="s">
+      <c r="H52" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J52" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K52" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L52" s="71" t="s">
+      <c r="K52" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N52" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O52" s="71" t="s">
+      <c r="N52" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O52" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P52" s="64" t="s">
@@ -7633,37 +7613,37 @@
       <c r="D53" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" s="89" t="s">
+      <c r="E53" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="94" t="s">
         <v>24</v>
       </c>
       <c r="G53" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H53" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="I53" s="89" t="s">
+      <c r="H53" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="94" t="s">
         <v>24</v>
       </c>
       <c r="J53" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="K53" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="L53" s="89" t="s">
+      <c r="K53" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" s="94" t="s">
         <v>26</v>
       </c>
       <c r="M53" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="N53" s="89" t="s">
+      <c r="N53" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="O53" s="89" t="s">
+      <c r="O53" s="94" t="s">
         <v>38</v>
       </c>
       <c r="P53" s="67" t="s">
@@ -7683,37 +7663,37 @@
       <c r="D54" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" s="71" t="s">
+      <c r="E54" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G54" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="I54" s="71" t="s">
+      <c r="H54" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" s="72" t="s">
         <v>26</v>
       </c>
       <c r="J54" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K54" s="71" t="s">
+      <c r="K54" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="L54" s="71" t="s">
+      <c r="L54" s="72" t="s">
         <v>38</v>
       </c>
       <c r="M54" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N54" s="71" t="s">
+      <c r="N54" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="O54" s="71" t="s">
+      <c r="O54" s="72" t="s">
         <v>38</v>
       </c>
       <c r="P54" s="64" t="s">
@@ -7733,37 +7713,37 @@
       <c r="D55" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F55" s="72" t="s">
+      <c r="E55" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H55" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="I55" s="72" t="s">
+      <c r="H55" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="I55" s="71" t="s">
         <v>25</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K55" s="72" t="s">
+      <c r="K55" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="L55" s="72" t="s">
+      <c r="L55" s="71" t="s">
         <v>30</v>
       </c>
       <c r="M55" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N55" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O55" s="72" t="s">
+      <c r="N55" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O55" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P55" s="54" t="s">
@@ -7783,37 +7763,37 @@
       <c r="D56" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E56" s="71" t="s">
+      <c r="E56" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="F56" s="71" t="s">
+      <c r="F56" s="72" t="s">
         <v>38</v>
       </c>
       <c r="G56" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H56" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I56" s="71" t="s">
+      <c r="H56" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J56" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K56" s="71" t="s">
+      <c r="K56" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="L56" s="71" t="s">
+      <c r="L56" s="72" t="s">
         <v>38</v>
       </c>
       <c r="M56" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N56" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O56" s="71" t="s">
+      <c r="N56" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O56" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P56" s="64" t="s">
@@ -7833,37 +7813,37 @@
       <c r="D57" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F57" s="72" t="s">
+      <c r="E57" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="71" t="s">
         <v>26</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H57" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I57" s="72" t="s">
+      <c r="H57" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" s="71" t="s">
         <v>26</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K57" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L57" s="72" t="s">
+      <c r="K57" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M57" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="N57" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O57" s="72" t="s">
+      <c r="N57" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O57" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P57" s="54" t="s">
@@ -7883,37 +7863,37 @@
       <c r="D58" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E58" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="F58" s="71" t="s">
+      <c r="E58" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" s="72" t="s">
         <v>38</v>
       </c>
       <c r="G58" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H58" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I58" s="71" t="s">
+      <c r="H58" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I58" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J58" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K58" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L58" s="71" t="s">
+      <c r="K58" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M58" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N58" s="71" t="s">
+      <c r="N58" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="O58" s="71" t="s">
+      <c r="O58" s="72" t="s">
         <v>25</v>
       </c>
       <c r="P58" s="64" t="s">
@@ -7933,37 +7913,37 @@
       <c r="D59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="72" t="s">
+      <c r="E59" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="F59" s="72" t="s">
+      <c r="F59" s="71" t="s">
         <v>25</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H59" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I59" s="72" t="s">
+      <c r="H59" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I59" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K59" s="72" t="s">
+      <c r="K59" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="L59" s="72" t="s">
+      <c r="L59" s="71" t="s">
         <v>38</v>
       </c>
       <c r="M59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N59" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O59" s="72" t="s">
+      <c r="N59" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O59" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P59" s="54" t="s">
@@ -7983,37 +7963,37 @@
       <c r="D60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E60" s="71" t="s">
+      <c r="E60" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="F60" s="71" t="s">
+      <c r="F60" s="72" t="s">
         <v>30</v>
       </c>
       <c r="G60" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H60" s="71" t="s">
+      <c r="H60" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="I60" s="71" t="s">
+      <c r="I60" s="72" t="s">
         <v>30</v>
       </c>
       <c r="J60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K60" s="71" t="s">
+      <c r="K60" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="L60" s="71" t="s">
+      <c r="L60" s="72" t="s">
         <v>30</v>
       </c>
       <c r="M60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N60" s="71" t="s">
+      <c r="N60" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="O60" s="71" t="s">
+      <c r="O60" s="72" t="s">
         <v>25</v>
       </c>
       <c r="P60" s="64" t="s">
@@ -8033,37 +8013,37 @@
       <c r="D61" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F61" s="72" t="s">
+      <c r="E61" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H61" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I61" s="72" t="s">
+      <c r="H61" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K61" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L61" s="72" t="s">
+      <c r="K61" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M61" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N61" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="O61" s="72" t="s">
+      <c r="N61" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="O61" s="71" t="s">
         <v>26</v>
       </c>
       <c r="P61" s="54" t="s">
@@ -8083,37 +8063,37 @@
       <c r="D62" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E62" s="71" t="s">
+      <c r="E62" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="71" t="s">
+      <c r="F62" s="72" t="s">
         <v>25</v>
       </c>
       <c r="G62" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H62" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="I62" s="71" t="s">
+      <c r="H62" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" s="72" t="s">
         <v>26</v>
       </c>
       <c r="J62" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K62" s="71" t="s">
+      <c r="K62" s="72" t="s">
         <v>229</v>
       </c>
-      <c r="L62" s="71" t="s">
+      <c r="L62" s="72" t="s">
         <v>229</v>
       </c>
       <c r="M62" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N62" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="O62" s="71" t="s">
+      <c r="N62" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="O62" s="72" t="s">
         <v>26</v>
       </c>
       <c r="P62" s="64" t="s">
@@ -8133,37 +8113,37 @@
       <c r="D63" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E63" s="72" t="s">
+      <c r="E63" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="F63" s="72" t="s">
+      <c r="F63" s="71" t="s">
         <v>38</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H63" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I63" s="72" t="s">
+      <c r="H63" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K63" s="72" t="s">
+      <c r="K63" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="L63" s="72" t="s">
+      <c r="L63" s="71" t="s">
         <v>25</v>
       </c>
       <c r="M63" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N63" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O63" s="72" t="s">
+      <c r="N63" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O63" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P63" s="54" t="s">
@@ -8183,37 +8163,37 @@
       <c r="D64" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E64" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" s="71" t="s">
+      <c r="E64" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G64" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H64" s="71" t="s">
+      <c r="H64" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="I64" s="71" t="s">
+      <c r="I64" s="72" t="s">
         <v>224</v>
       </c>
       <c r="J64" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K64" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L64" s="71" t="s">
+      <c r="K64" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L64" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M64" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N64" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="O64" s="71" t="s">
+      <c r="N64" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="O64" s="72" t="s">
         <v>26</v>
       </c>
       <c r="P64" s="64" t="s">
@@ -8233,37 +8213,37 @@
       <c r="D65" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="72" t="s">
+      <c r="E65" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="F65" s="72" t="s">
+      <c r="F65" s="71" t="s">
         <v>30</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="72" t="s">
+      <c r="H65" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="I65" s="72" t="s">
+      <c r="I65" s="71" t="s">
         <v>30</v>
       </c>
       <c r="J65" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K65" s="72" t="s">
+      <c r="K65" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="L65" s="72" t="s">
+      <c r="L65" s="71" t="s">
         <v>30</v>
       </c>
       <c r="M65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N65" s="72" t="s">
+      <c r="N65" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="O65" s="72" t="s">
+      <c r="O65" s="71" t="s">
         <v>30</v>
       </c>
       <c r="P65" s="54" t="s">
@@ -8281,33 +8261,35 @@
         <v>233</v>
       </c>
       <c r="D66" s="51"/>
-      <c r="E66" s="72" t="s">
+      <c r="E66" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="F66" s="72" t="s">
+      <c r="F66" s="71" t="s">
         <v>30</v>
       </c>
       <c r="G66" s="51"/>
-      <c r="H66" s="72" t="s">
+      <c r="H66" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="I66" s="72" t="s">
+      <c r="I66" s="71" t="s">
         <v>30</v>
       </c>
       <c r="J66" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K66" s="92" t="s">
-        <v>243</v>
-      </c>
-      <c r="L66" s="93"/>
+      <c r="K66" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L66" s="71" t="s">
+        <v>66</v>
+      </c>
       <c r="M66" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="N66" s="92" t="s">
+      <c r="N66" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="O66" s="94"/>
+      <c r="O66" s="90"/>
       <c r="P66" s="70" t="s">
         <v>92</v>
       </c>
@@ -8317,17 +8299,17 @@
       <c r="B67" s="12"/>
       <c r="C67" s="30"/>
       <c r="D67" s="7"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71"/>
       <c r="G67" s="7"/>
-      <c r="H67" s="72"/>
-      <c r="I67" s="72"/>
+      <c r="H67" s="71"/>
+      <c r="I67" s="71"/>
       <c r="J67" s="7"/>
-      <c r="K67" s="72"/>
-      <c r="L67" s="72"/>
+      <c r="K67" s="71"/>
+      <c r="L67" s="71"/>
       <c r="M67" s="7"/>
-      <c r="N67" s="72"/>
-      <c r="O67" s="72"/>
+      <c r="N67" s="71"/>
+      <c r="O67" s="71"/>
       <c r="P67" s="54"/>
     </row>
     <row r="68" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -8335,17 +8317,17 @@
       <c r="B68" s="12"/>
       <c r="C68" s="30"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
       <c r="G68" s="7"/>
-      <c r="H68" s="72"/>
-      <c r="I68" s="72"/>
+      <c r="H68" s="71"/>
+      <c r="I68" s="71"/>
       <c r="J68" s="7"/>
-      <c r="K68" s="72"/>
-      <c r="L68" s="72"/>
+      <c r="K68" s="71"/>
+      <c r="L68" s="71"/>
       <c r="M68" s="7"/>
-      <c r="N68" s="72"/>
-      <c r="O68" s="72"/>
+      <c r="N68" s="71"/>
+      <c r="O68" s="71"/>
       <c r="P68" s="54"/>
     </row>
     <row r="69" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.15">
@@ -8405,17 +8387,17 @@
     </row>
     <row r="74" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D74" s="61"/>
-      <c r="E74" s="95"/>
-      <c r="F74" s="95"/>
+      <c r="E74" s="91"/>
+      <c r="F74" s="91"/>
       <c r="G74" s="61"/>
-      <c r="H74" s="95"/>
-      <c r="I74" s="95"/>
+      <c r="H74" s="91"/>
+      <c r="I74" s="91"/>
       <c r="J74" s="61"/>
-      <c r="K74" s="95"/>
-      <c r="L74" s="95"/>
+      <c r="K74" s="91"/>
+      <c r="L74" s="91"/>
       <c r="M74" s="61"/>
-      <c r="N74" s="95"/>
-      <c r="O74" s="95"/>
+      <c r="N74" s="91"/>
+      <c r="O74" s="91"/>
       <c r="P74" s="68"/>
     </row>
     <row r="75" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -8452,17 +8434,17 @@
     </row>
     <row r="79" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D79" s="61"/>
-      <c r="E79" s="95"/>
-      <c r="F79" s="95"/>
+      <c r="E79" s="91"/>
+      <c r="F79" s="91"/>
       <c r="G79" s="61"/>
-      <c r="H79" s="95"/>
-      <c r="I79" s="95"/>
+      <c r="H79" s="91"/>
+      <c r="I79" s="91"/>
       <c r="J79" s="61"/>
-      <c r="K79" s="95"/>
-      <c r="L79" s="95"/>
+      <c r="K79" s="91"/>
+      <c r="L79" s="91"/>
       <c r="M79" s="61"/>
-      <c r="N79" s="95"/>
-      <c r="O79" s="95"/>
+      <c r="N79" s="91"/>
+      <c r="O79" s="91"/>
       <c r="P79" s="68"/>
     </row>
     <row r="80" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -8483,39 +8465,177 @@
     <row r="81" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="230">
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
     <mergeCell ref="A6:A13"/>
     <mergeCell ref="C6:C13"/>
     <mergeCell ref="H14:I14"/>
@@ -8540,179 +8660,41 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
     <mergeCell ref="H59:I59"/>
     <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="N66:O66"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:C6">

--- a/app/xlsx/4月_5月シフト.xlsx
+++ b/app/xlsx/4月_5月シフト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiha\OneDrive\デスクトップ\MyPrograming\MyGo\rolemaster0.5\RoleMaserV0.5\app\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAF8CE8-A9BC-41FA-AF6A-5116F4D2ACCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50165460-F451-428B-8338-84D669A042B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1831,10 +1831,52 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1843,64 +1885,22 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2445,11 +2445,11 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="79"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="76" t="s">
         <v>146</v>
       </c>
       <c r="D6" s="8">
@@ -2467,7 +2467,7 @@
       <c r="H6" s="8">
         <v>15</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="79" t="s">
         <v>146</v>
       </c>
       <c r="J6" s="8">
@@ -2490,11 +2490,11 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="80"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2510,7 +2510,7 @@
       <c r="H7" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="I7" s="86"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2531,11 +2531,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="83"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="7">
         <v>68</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>60</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="86"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="7">
         <v>90</v>
       </c>
@@ -2568,11 +2568,11 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="80"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="17">
         <v>14</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="H9" s="17">
         <v>10</v>
       </c>
-      <c r="I9" s="86"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="17">
         <v>18</v>
       </c>
@@ -2607,11 +2607,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="86"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2644,11 +2644,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="80"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="7" t="s">
         <v>94</v>
       </c>
@@ -2664,7 +2664,7 @@
       <c r="H11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="86"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="7" t="s">
         <v>97</v>
       </c>
@@ -2683,11 +2683,11 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="80"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2703,7 +2703,7 @@
       <c r="H12" s="18">
         <v>0.6875</v>
       </c>
-      <c r="I12" s="86"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2724,11 +2724,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2744,7 +2744,7 @@
       <c r="H13" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="I13" s="87"/>
+      <c r="I13" s="81"/>
       <c r="J13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2790,17 +2790,17 @@
       <c r="I14" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="J14" s="88" t="s">
+      <c r="J14" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="88" t="s">
+      <c r="K14" s="82" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="43"/>
-      <c r="M14" s="88" t="s">
+      <c r="M14" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="88" t="s">
+      <c r="N14" s="82" t="s">
         <v>23</v>
       </c>
       <c r="O14" s="44" t="s">
@@ -2833,19 +2833,19 @@
       <c r="I15" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="J15" s="71" t="s">
+      <c r="J15" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="71" t="s">
+      <c r="K15" s="72" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="71" t="s">
+      <c r="M15" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="71" t="s">
+      <c r="N15" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O15" s="26" t="s">
@@ -2878,17 +2878,17 @@
       <c r="I16" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="J16" s="72" t="s">
+      <c r="J16" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="72" t="s">
+      <c r="K16" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="72" t="s">
+      <c r="M16" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="72" t="s">
+      <c r="N16" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="40" t="s">
@@ -2921,17 +2921,17 @@
       <c r="I17" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="J17" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="71" t="s">
+      <c r="J17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="71" t="s">
+      <c r="M17" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N17" s="71" t="s">
+      <c r="N17" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O17" s="26" t="s">
@@ -2964,17 +2964,17 @@
       <c r="I18" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="J18" s="72" t="s">
+      <c r="J18" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="72" t="s">
+      <c r="K18" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="39"/>
-      <c r="M18" s="72" t="s">
+      <c r="M18" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N18" s="72" t="s">
+      <c r="N18" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O18" s="40" t="s">
@@ -3007,17 +3007,17 @@
       <c r="I19" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="J19" s="71" t="s">
+      <c r="J19" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="71" t="s">
+      <c r="K19" s="72" t="s">
         <v>34</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="71" t="s">
+      <c r="M19" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="71" t="s">
+      <c r="N19" s="72" t="s">
         <v>28</v>
       </c>
       <c r="O19" s="26" t="s">
@@ -3050,17 +3050,17 @@
       <c r="I20" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="72" t="s">
+      <c r="J20" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="72" t="s">
+      <c r="K20" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="39"/>
-      <c r="M20" s="72" t="s">
+      <c r="M20" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="72" t="s">
+      <c r="N20" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O20" s="40" t="s">
@@ -3093,17 +3093,17 @@
       <c r="I21" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="71" t="s">
+      <c r="J21" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K21" s="71" t="s">
+      <c r="K21" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="71" t="s">
+      <c r="M21" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="71" t="s">
+      <c r="N21" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="26" t="s">
@@ -3136,17 +3136,17 @@
       <c r="I22" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="J22" s="72" t="s">
+      <c r="J22" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="72" t="s">
+      <c r="K22" s="71" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="39"/>
-      <c r="M22" s="72" t="s">
+      <c r="M22" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N22" s="72" t="s">
+      <c r="N22" s="71" t="s">
         <v>38</v>
       </c>
       <c r="O22" s="40" t="s">
@@ -3179,19 +3179,19 @@
       <c r="I23" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="J23" s="71" t="s">
+      <c r="J23" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="71" t="s">
+      <c r="K23" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M23" s="71" t="s">
+      <c r="M23" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="71" t="s">
+      <c r="N23" s="72" t="s">
         <v>38</v>
       </c>
       <c r="O23" s="26" t="s">
@@ -3224,17 +3224,17 @@
       <c r="I24" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="J24" s="72" t="s">
+      <c r="J24" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K24" s="72" t="s">
+      <c r="K24" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="39"/>
-      <c r="M24" s="72" t="s">
+      <c r="M24" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="72" t="s">
+      <c r="N24" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="40" t="s">
@@ -3267,17 +3267,17 @@
       <c r="I25" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="J25" s="71" t="s">
+      <c r="J25" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K25" s="71" t="s">
+      <c r="K25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="71" t="s">
+      <c r="M25" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N25" s="71" t="s">
+      <c r="N25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="O25" s="26" t="s">
@@ -3310,19 +3310,19 @@
       <c r="I26" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J26" s="72" t="s">
+      <c r="J26" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="72" t="s">
+      <c r="K26" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M26" s="72" t="s">
+      <c r="M26" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="72" t="s">
+      <c r="N26" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O26" s="40" t="s">
@@ -3355,17 +3355,17 @@
       <c r="I27" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J27" s="71" t="s">
+      <c r="J27" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="71" t="s">
+      <c r="K27" s="72" t="s">
         <v>44</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="71" t="s">
+      <c r="M27" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N27" s="71" t="s">
+      <c r="N27" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O27" s="26" t="s">
@@ -3398,19 +3398,19 @@
       <c r="I28" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="J28" s="72" t="s">
+      <c r="J28" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="72" t="s">
+      <c r="K28" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="72" t="s">
+      <c r="M28" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N28" s="72" t="s">
+      <c r="N28" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O28" s="40" t="s">
@@ -3443,17 +3443,17 @@
       <c r="I29" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="J29" s="71" t="s">
+      <c r="J29" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="71" t="s">
+      <c r="K29" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="71" t="s">
+      <c r="M29" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N29" s="71" t="s">
+      <c r="N29" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O29" s="26" t="s">
@@ -3486,17 +3486,17 @@
       <c r="I30" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="J30" s="72" t="s">
+      <c r="J30" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="72" t="s">
+      <c r="K30" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="39"/>
-      <c r="M30" s="72" t="s">
+      <c r="M30" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N30" s="72" t="s">
+      <c r="N30" s="71" t="s">
         <v>26</v>
       </c>
       <c r="O30" s="40" t="s">
@@ -3529,17 +3529,17 @@
       <c r="I31" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="J31" s="71" t="s">
+      <c r="J31" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K31" s="71" t="s">
+      <c r="K31" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="7"/>
-      <c r="M31" s="71" t="s">
+      <c r="M31" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N31" s="71" t="s">
+      <c r="N31" s="72" t="s">
         <v>28</v>
       </c>
       <c r="O31" s="26" t="s">
@@ -3572,17 +3572,17 @@
       <c r="I32" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="J32" s="72" t="s">
+      <c r="J32" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K32" s="72" t="s">
+      <c r="K32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="39"/>
-      <c r="M32" s="72" t="s">
+      <c r="M32" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N32" s="72" t="s">
+      <c r="N32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="40" t="s">
@@ -3615,17 +3615,17 @@
       <c r="I33" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J33" s="71" t="s">
+      <c r="J33" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K33" s="71" t="s">
+      <c r="K33" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="M33" s="71" t="s">
+      <c r="M33" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N33" s="71" t="s">
+      <c r="N33" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O33" s="26" t="s">
@@ -3658,17 +3658,17 @@
       <c r="I34" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="J34" s="72" t="s">
+      <c r="J34" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K34" s="72" t="s">
+      <c r="K34" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="39"/>
-      <c r="M34" s="72" t="s">
+      <c r="M34" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N34" s="72" t="s">
+      <c r="N34" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O34" s="40" t="s">
@@ -3701,17 +3701,17 @@
       <c r="I35" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="J35" s="71" t="s">
+      <c r="J35" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="K35" s="71" t="s">
+      <c r="K35" s="72" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="7"/>
-      <c r="M35" s="71" t="s">
+      <c r="M35" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N35" s="71" t="s">
+      <c r="N35" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O35" s="26" t="s">
@@ -3744,17 +3744,17 @@
       <c r="I36" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J36" s="72" t="s">
+      <c r="J36" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K36" s="72" t="s">
+      <c r="K36" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L36" s="39"/>
-      <c r="M36" s="72" t="s">
+      <c r="M36" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="72" t="s">
+      <c r="N36" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O36" s="40" t="s">
@@ -3787,17 +3787,17 @@
       <c r="I37" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="J37" s="71" t="s">
+      <c r="J37" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K37" s="71" t="s">
+      <c r="K37" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L37" s="7"/>
-      <c r="M37" s="71" t="s">
+      <c r="M37" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="71" t="s">
+      <c r="N37" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O37" s="26" t="s">
@@ -3830,17 +3830,17 @@
       <c r="I38" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="J38" s="72" t="s">
+      <c r="J38" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="72" t="s">
+      <c r="K38" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L38" s="39"/>
-      <c r="M38" s="72" t="s">
+      <c r="M38" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N38" s="72" t="s">
+      <c r="N38" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O38" s="40" t="s">
@@ -3873,17 +3873,17 @@
       <c r="I39" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="J39" s="71" t="s">
+      <c r="J39" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K39" s="71" t="s">
+      <c r="K39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="7"/>
-      <c r="M39" s="71" t="s">
+      <c r="M39" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N39" s="71" t="s">
+      <c r="N39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="26" t="s">
@@ -3916,19 +3916,19 @@
       <c r="I40" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="J40" s="77" t="s">
+      <c r="J40" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="K40" s="77" t="s">
+      <c r="K40" s="83" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="77" t="s">
+      <c r="M40" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="N40" s="77" t="s">
+      <c r="N40" s="83" t="s">
         <v>24</v>
       </c>
       <c r="O40" s="49" t="s">
@@ -3961,17 +3961,17 @@
       <c r="I41" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="J41" s="78" t="s">
+      <c r="J41" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="K41" s="78" t="s">
+      <c r="K41" s="84" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="31"/>
-      <c r="M41" s="78" t="s">
+      <c r="M41" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="N41" s="78" t="s">
+      <c r="N41" s="84" t="s">
         <v>24</v>
       </c>
       <c r="O41" s="32" t="s">
@@ -4004,17 +4004,17 @@
       <c r="I42" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="J42" s="72" t="s">
+      <c r="J42" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K42" s="72" t="s">
+      <c r="K42" s="71" t="s">
         <v>26</v>
       </c>
       <c r="L42" s="39"/>
-      <c r="M42" s="72" t="s">
+      <c r="M42" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N42" s="72" t="s">
+      <c r="N42" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O42" s="40" t="s">
@@ -4047,19 +4047,19 @@
       <c r="I43" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="J43" s="71" t="s">
+      <c r="J43" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K43" s="71" t="s">
+      <c r="K43" s="72" t="s">
         <v>26</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M43" s="71" t="s">
+      <c r="M43" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N43" s="71" t="s">
+      <c r="N43" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O43" s="26" t="s">
@@ -4092,17 +4092,17 @@
       <c r="I44" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="J44" s="72" t="s">
+      <c r="J44" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="K44" s="72" t="s">
+      <c r="K44" s="71" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="39"/>
-      <c r="M44" s="72" t="s">
+      <c r="M44" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N44" s="72" t="s">
+      <c r="N44" s="71" t="s">
         <v>38</v>
       </c>
       <c r="O44" s="40" t="s">
@@ -4135,17 +4135,17 @@
       <c r="I45" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="J45" s="71" t="s">
+      <c r="J45" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K45" s="71" t="s">
+      <c r="K45" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L45" s="7"/>
-      <c r="M45" s="71" t="s">
+      <c r="M45" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N45" s="71" t="s">
+      <c r="N45" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O45" s="26" t="s">
@@ -4178,17 +4178,17 @@
       <c r="I46" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="J46" s="72" t="s">
+      <c r="J46" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K46" s="72" t="s">
+      <c r="K46" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="39"/>
-      <c r="M46" s="72" t="s">
+      <c r="M46" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N46" s="72" t="s">
+      <c r="N46" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O46" s="40" t="s">
@@ -4221,17 +4221,17 @@
       <c r="I47" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="J47" s="71" t="s">
+      <c r="J47" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K47" s="71" t="s">
+      <c r="K47" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L47" s="7"/>
-      <c r="M47" s="71" t="s">
+      <c r="M47" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N47" s="71" t="s">
+      <c r="N47" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O47" s="26" t="s">
@@ -4264,17 +4264,17 @@
       <c r="I48" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="J48" s="72" t="s">
+      <c r="J48" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K48" s="72" t="s">
+      <c r="K48" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L48" s="39"/>
-      <c r="M48" s="72" t="s">
+      <c r="M48" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N48" s="72" t="s">
+      <c r="N48" s="71" t="s">
         <v>66</v>
       </c>
       <c r="O48" s="40" t="s">
@@ -4307,17 +4307,17 @@
       <c r="I49" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="J49" s="71" t="s">
+      <c r="J49" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K49" s="71" t="s">
+      <c r="K49" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="7"/>
-      <c r="M49" s="71" t="s">
+      <c r="M49" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N49" s="71" t="s">
+      <c r="N49" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O49" s="26" t="s">
@@ -4350,17 +4350,17 @@
       <c r="I50" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="J50" s="72" t="s">
+      <c r="J50" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K50" s="72" t="s">
+      <c r="K50" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="39"/>
-      <c r="M50" s="72" t="s">
+      <c r="M50" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N50" s="72" t="s">
+      <c r="N50" s="71" t="s">
         <v>38</v>
       </c>
       <c r="O50" s="40" t="s">
@@ -4393,17 +4393,17 @@
       <c r="I51" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="J51" s="71" t="s">
+      <c r="J51" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="K51" s="71" t="s">
+      <c r="K51" s="72" t="s">
         <v>38</v>
       </c>
       <c r="L51" s="7"/>
-      <c r="M51" s="71" t="s">
+      <c r="M51" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N51" s="71" t="s">
+      <c r="N51" s="72" t="s">
         <v>38</v>
       </c>
       <c r="O51" s="26" t="s">
@@ -4436,19 +4436,19 @@
       <c r="I52" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J52" s="72" t="s">
+      <c r="J52" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="72" t="s">
+      <c r="K52" s="71" t="s">
         <v>71</v>
       </c>
       <c r="L52" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M52" s="72" t="s">
+      <c r="M52" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N52" s="72" t="s">
+      <c r="N52" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O52" s="40" t="s">
@@ -4481,19 +4481,19 @@
       <c r="I53" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J53" s="71" t="s">
+      <c r="J53" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K53" s="71" t="s">
+      <c r="K53" s="72" t="s">
         <v>26</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M53" s="71" t="s">
+      <c r="M53" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N53" s="71" t="s">
+      <c r="N53" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O53" s="26" t="s">
@@ -4526,17 +4526,17 @@
       <c r="I54" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="J54" s="72" t="s">
+      <c r="J54" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="K54" s="72" t="s">
+      <c r="K54" s="71" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="39"/>
-      <c r="M54" s="72" t="s">
+      <c r="M54" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N54" s="72" t="s">
+      <c r="N54" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O54" s="40" t="s">
@@ -4569,17 +4569,17 @@
       <c r="I55" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="J55" s="71" t="s">
+      <c r="J55" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K55" s="71" t="s">
+      <c r="K55" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L55" s="7"/>
-      <c r="M55" s="71" t="s">
+      <c r="M55" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N55" s="71" t="s">
+      <c r="N55" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O55" s="26" t="s">
@@ -4612,17 +4612,17 @@
       <c r="I56" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="J56" s="72" t="s">
+      <c r="J56" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K56" s="72" t="s">
+      <c r="K56" s="71" t="s">
         <v>26</v>
       </c>
       <c r="L56" s="39"/>
-      <c r="M56" s="72" t="s">
+      <c r="M56" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N56" s="72" t="s">
+      <c r="N56" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O56" s="40" t="s">
@@ -4655,19 +4655,19 @@
       <c r="I57" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="J57" s="71" t="s">
+      <c r="J57" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K57" s="71" t="s">
+      <c r="K57" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M57" s="71" t="s">
+      <c r="M57" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N57" s="71" t="s">
+      <c r="N57" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O57" s="26" t="s">
@@ -4700,17 +4700,17 @@
       <c r="I58" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="J58" s="72" t="s">
+      <c r="J58" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="K58" s="72" t="s">
+      <c r="K58" s="71" t="s">
         <v>28</v>
       </c>
       <c r="L58" s="39"/>
-      <c r="M58" s="72" t="s">
+      <c r="M58" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N58" s="72" t="s">
+      <c r="N58" s="71" t="s">
         <v>78</v>
       </c>
       <c r="O58" s="40" t="s">
@@ -4743,17 +4743,17 @@
       <c r="I59" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="J59" s="71" t="s">
+      <c r="J59" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="K59" s="71" t="s">
+      <c r="K59" s="72" t="s">
         <v>38</v>
       </c>
       <c r="L59" s="7"/>
-      <c r="M59" s="71" t="s">
+      <c r="M59" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N59" s="71" t="s">
+      <c r="N59" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O59" s="26" t="s">
@@ -4774,15 +4774,15 @@
       <c r="G60" s="51"/>
       <c r="H60" s="51"/>
       <c r="I60" s="50"/>
-      <c r="J60" s="75" t="s">
+      <c r="J60" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="K60" s="76"/>
+      <c r="K60" s="86"/>
       <c r="L60" s="51"/>
-      <c r="M60" s="72" t="s">
+      <c r="M60" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N60" s="72" t="s">
+      <c r="N60" s="71" t="s">
         <v>66</v>
       </c>
       <c r="O60" s="26" t="s">
@@ -4803,15 +4803,15 @@
       <c r="G61" s="31"/>
       <c r="H61" s="31"/>
       <c r="I61" s="30"/>
-      <c r="J61" s="73" t="s">
+      <c r="J61" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="K61" s="74"/>
+      <c r="K61" s="88"/>
       <c r="L61" s="31"/>
-      <c r="M61" s="71" t="s">
+      <c r="M61" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N61" s="71" t="s">
+      <c r="N61" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O61" s="40" t="s">
@@ -4832,17 +4832,17 @@
       <c r="G62" s="51"/>
       <c r="H62" s="51"/>
       <c r="I62" s="50"/>
-      <c r="J62" s="71" t="s">
+      <c r="J62" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K62" s="71" t="s">
+      <c r="K62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L62" s="51"/>
-      <c r="M62" s="72" t="s">
+      <c r="M62" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N62" s="72" t="s">
+      <c r="N62" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O62" s="26" t="s">
@@ -4863,15 +4863,15 @@
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
       <c r="I63" s="30"/>
-      <c r="J63" s="73" t="s">
+      <c r="J63" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="K63" s="74"/>
+      <c r="K63" s="88"/>
       <c r="L63" s="31"/>
-      <c r="M63" s="72" t="s">
+      <c r="M63" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N63" s="72" t="s">
+      <c r="N63" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O63" s="26" t="s">
@@ -4892,17 +4892,17 @@
       <c r="G64" s="51"/>
       <c r="H64" s="51"/>
       <c r="I64" s="50"/>
-      <c r="J64" s="71" t="s">
+      <c r="J64" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K64" s="71" t="s">
+      <c r="K64" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L64" s="51"/>
-      <c r="M64" s="71" t="s">
+      <c r="M64" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N64" s="71" t="s">
+      <c r="N64" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O64" s="40" t="s">
@@ -4921,17 +4921,17 @@
       <c r="G65" s="31"/>
       <c r="H65" s="31"/>
       <c r="I65" s="30"/>
-      <c r="J65" s="71" t="s">
+      <c r="J65" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K65" s="71" t="s">
+      <c r="K65" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L65" s="31"/>
-      <c r="M65" s="72" t="s">
+      <c r="M65" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N65" s="72" t="s">
+      <c r="N65" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O65" s="40" t="s">
@@ -4964,17 +4964,17 @@
       <c r="I66" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="J66" s="72" t="s">
+      <c r="J66" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K66" s="72" t="s">
+      <c r="K66" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L66" s="39"/>
-      <c r="M66" s="72" t="s">
+      <c r="M66" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N66" s="72" t="s">
+      <c r="N66" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O66" s="40" t="s">
@@ -5020,6 +5020,102 @@
     <row r="69" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="J17:K17"/>
@@ -5033,102 +5129,6 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="M63:N63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:F6 I6:N6">
@@ -5183,8 +5183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A1C220-DC63-401D-B66B-975EAA99E44B}">
   <dimension ref="A2:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66:L66"/>
+    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
+      <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5281,11 +5281,11 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="79"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="76" t="s">
         <v>146</v>
       </c>
       <c r="D6" s="8">
@@ -5329,11 +5329,11 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="80"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="7" t="s">
         <v>152</v>
       </c>
@@ -5375,11 +5375,11 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="83"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="7">
         <v>13</v>
       </c>
@@ -5421,11 +5421,11 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="80"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="7" t="s">
         <v>234</v>
       </c>
@@ -5467,11 +5467,11 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="7">
         <v>6</v>
       </c>
@@ -5513,11 +5513,11 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="80"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="7" t="s">
         <v>155</v>
       </c>
@@ -5559,11 +5559,11 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="80"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="7" t="s">
         <v>156</v>
       </c>
@@ -5605,11 +5605,11 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -5663,37 +5663,37 @@
       <c r="D14" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="88" t="s">
+      <c r="E14" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="F14" s="88" t="s">
+      <c r="F14" s="82" t="s">
         <v>66</v>
       </c>
       <c r="G14" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="88" t="s">
+      <c r="H14" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="82" t="s">
         <v>66</v>
       </c>
       <c r="J14" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="72" t="s">
+      <c r="K14" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M14" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="N14" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14" s="88" t="s">
+      <c r="N14" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="82" t="s">
         <v>66</v>
       </c>
       <c r="P14" s="63" t="s">
@@ -5713,37 +5713,37 @@
       <c r="D15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="71" t="s">
+      <c r="E15" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="71" t="s">
+      <c r="H15" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="71" t="s">
+      <c r="K15" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="L15" s="71" t="s">
+      <c r="L15" s="72" t="s">
         <v>225</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N15" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O15" s="71" t="s">
+      <c r="N15" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P15" s="54" t="s">
@@ -5763,37 +5763,37 @@
       <c r="D16" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="72" t="s">
+      <c r="E16" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="72" t="s">
+      <c r="F16" s="71" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="71" t="s">
+      <c r="H16" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="72" t="s">
+      <c r="K16" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M16" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N16" s="72" t="s">
+      <c r="N16" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="72" t="s">
+      <c r="O16" s="71" t="s">
         <v>38</v>
       </c>
       <c r="P16" s="64" t="s">
@@ -5813,37 +5813,37 @@
       <c r="D17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="71" t="s">
+      <c r="E17" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="71" t="s">
+      <c r="H17" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="71" t="s">
+      <c r="K17" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N17" s="71" t="s">
+      <c r="N17" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="O17" s="71" t="s">
+      <c r="O17" s="72" t="s">
         <v>30</v>
       </c>
       <c r="P17" s="54" t="s">
@@ -5863,37 +5863,37 @@
       <c r="D18" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="72" t="s">
+      <c r="E18" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G18" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="72" t="s">
+      <c r="H18" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" s="72" t="s">
+      <c r="K18" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O18" s="72" t="s">
+      <c r="N18" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P18" s="64" t="s">
@@ -5913,37 +5913,37 @@
       <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="71" t="s">
+      <c r="E19" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="71" t="s">
+      <c r="H19" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="71" t="s">
+      <c r="K19" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N19" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O19" s="71" t="s">
+      <c r="N19" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P19" s="54" t="s">
@@ -5963,37 +5963,37 @@
       <c r="D20" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="72" t="s">
+      <c r="E20" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="72" t="s">
+      <c r="H20" s="71" t="s">
         <v>240</v>
       </c>
-      <c r="I20" s="72" t="s">
+      <c r="I20" s="71" t="s">
         <v>224</v>
       </c>
       <c r="J20" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="72" t="s">
+      <c r="K20" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M20" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N20" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O20" s="72" t="s">
+      <c r="N20" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P20" s="64" t="s">
@@ -6013,37 +6013,37 @@
       <c r="D21" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E21" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="71" t="s">
+      <c r="E21" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="71" t="s">
+      <c r="H21" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="71" t="s">
+      <c r="K21" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="L21" s="71" t="s">
+      <c r="L21" s="72" t="s">
         <v>225</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O21" s="71" t="s">
+      <c r="N21" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P21" s="54" t="s">
@@ -6063,37 +6063,37 @@
       <c r="D22" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E22" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="72" t="s">
+      <c r="E22" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G22" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22" s="72" t="s">
+      <c r="H22" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="71" t="s">
         <v>38</v>
       </c>
       <c r="J22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" s="72" t="s">
+      <c r="K22" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O22" s="72" t="s">
+      <c r="N22" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P22" s="64" t="s">
@@ -6113,37 +6113,37 @@
       <c r="D23" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="E23" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="71" t="s">
+      <c r="E23" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="71" t="s">
+      <c r="H23" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K23" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23" s="72" t="s">
+      <c r="K23" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O23" s="71" t="s">
+      <c r="N23" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O23" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P23" s="54" t="s">
@@ -6163,37 +6163,37 @@
       <c r="D24" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="72" t="s">
+      <c r="E24" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G24" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="72" t="s">
+      <c r="H24" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J24" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K24" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" s="72" t="s">
+      <c r="K24" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M24" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O24" s="72" t="s">
+      <c r="N24" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P24" s="64" t="s">
@@ -6213,37 +6213,37 @@
       <c r="D25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="71" t="s">
+      <c r="E25" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="71" t="s">
+      <c r="F25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="71" t="s">
+      <c r="H25" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="I25" s="71" t="s">
+      <c r="I25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="71" t="s">
+      <c r="K25" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="71" t="s">
+      <c r="L25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N25" s="71" t="s">
+      <c r="N25" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="O25" s="71" t="s">
+      <c r="O25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="P25" s="54" t="s">
@@ -6263,37 +6263,37 @@
       <c r="D26" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E26" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="72" t="s">
+      <c r="E26" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G26" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="72" t="s">
+      <c r="H26" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J26" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K26" s="72" t="s">
+      <c r="K26" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="72" t="s">
+      <c r="L26" s="71" t="s">
         <v>25</v>
       </c>
       <c r="M26" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N26" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O26" s="72" t="s">
+      <c r="N26" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O26" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P26" s="64" t="s">
@@ -6313,37 +6313,37 @@
       <c r="D27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="71" t="s">
+      <c r="E27" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="71" t="s">
+      <c r="H27" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="71" t="s">
+      <c r="K27" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="71" t="s">
+      <c r="L27" s="72" t="s">
         <v>225</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N27" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O27" s="71" t="s">
+      <c r="N27" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P27" s="54" t="s">
@@ -6363,37 +6363,37 @@
       <c r="D28" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E28" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="72" t="s">
+      <c r="E28" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G28" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" s="72" t="s">
+      <c r="H28" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J28" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="K28" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L28" s="71" t="s">
+      <c r="K28" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M28" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N28" s="72" t="s">
+      <c r="N28" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="O28" s="72" t="s">
+      <c r="O28" s="71" t="s">
         <v>38</v>
       </c>
       <c r="P28" s="64" t="s">
@@ -6413,37 +6413,37 @@
       <c r="D29" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E29" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="71" t="s">
+      <c r="E29" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="71" t="s">
+      <c r="H29" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K29" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="71" t="s">
+      <c r="K29" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O29" s="71" t="s">
+      <c r="N29" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P29" s="54" t="s">
@@ -6463,37 +6463,37 @@
       <c r="D30" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="E30" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="72" t="s">
+      <c r="E30" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="72" t="s">
+      <c r="H30" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J30" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L30" s="72" t="s">
+      <c r="K30" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L30" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M30" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N30" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O30" s="72" t="s">
+      <c r="N30" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O30" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P30" s="64" t="s">
@@ -6513,37 +6513,37 @@
       <c r="D31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="71" t="s">
+      <c r="E31" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="71" t="s">
+      <c r="H31" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K31" s="71" t="s">
+      <c r="K31" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="L31" s="71" t="s">
+      <c r="L31" s="72" t="s">
         <v>226</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N31" s="71" t="s">
+      <c r="N31" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="O31" s="71" t="s">
+      <c r="O31" s="72" t="s">
         <v>226</v>
       </c>
       <c r="P31" s="54" t="s">
@@ -6563,37 +6563,37 @@
       <c r="D32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="72" t="s">
+      <c r="E32" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G32" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="72" t="s">
+      <c r="H32" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J32" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="K32" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" s="72" t="s">
+      <c r="K32" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M32" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N32" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O32" s="72" t="s">
+      <c r="N32" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P32" s="64" t="s">
@@ -6613,37 +6613,37 @@
       <c r="D33" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="71" t="s">
+      <c r="E33" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="71" t="s">
+      <c r="H33" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L33" s="71" t="s">
+      <c r="K33" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N33" s="71" t="s">
+      <c r="N33" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="O33" s="71" t="s">
+      <c r="O33" s="72" t="s">
         <v>38</v>
       </c>
       <c r="P33" s="54" t="s">
@@ -6663,37 +6663,37 @@
       <c r="D34" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="E34" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" s="72" t="s">
+      <c r="E34" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G34" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="71" t="s">
+      <c r="H34" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I34" s="71" t="s">
+      <c r="I34" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="J34" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="K34" s="72" t="s">
+      <c r="J34" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="L34" s="72" t="s">
+      <c r="L34" s="71" t="s">
         <v>225</v>
       </c>
       <c r="M34" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N34" s="72" t="s">
+      <c r="N34" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="O34" s="72" t="s">
+      <c r="O34" s="71" t="s">
         <v>38</v>
       </c>
       <c r="P34" s="64" t="s">
@@ -6713,37 +6713,37 @@
       <c r="D35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="71" t="s">
+      <c r="E35" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I35" s="71" t="s">
+      <c r="H35" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K35" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L35" s="71" t="s">
+      <c r="K35" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L35" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N35" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O35" s="71" t="s">
+      <c r="N35" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O35" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P35" s="54" t="s">
@@ -6763,37 +6763,37 @@
       <c r="D36" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="72" t="s">
+      <c r="E36" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I36" s="72" t="s">
+      <c r="H36" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J36" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K36" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L36" s="72" t="s">
+      <c r="K36" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N36" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O36" s="72" t="s">
+      <c r="N36" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O36" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P36" s="64" t="s">
@@ -6813,37 +6813,37 @@
       <c r="D37" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E37" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="71" t="s">
+      <c r="E37" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="71" t="s">
+      <c r="H37" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="71" t="s">
+      <c r="I37" s="72" t="s">
         <v>25</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K37" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L37" s="71" t="s">
+      <c r="K37" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L37" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N37" s="71" t="s">
+      <c r="N37" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="O37" s="71" t="s">
+      <c r="O37" s="72" t="s">
         <v>38</v>
       </c>
       <c r="P37" s="54" t="s">
@@ -6863,37 +6863,37 @@
       <c r="D38" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="72" t="s">
+      <c r="E38" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="72" t="s">
+      <c r="H38" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K38" s="72" t="s">
+      <c r="K38" s="71" t="s">
         <v>227</v>
       </c>
-      <c r="L38" s="72" t="s">
+      <c r="L38" s="71" t="s">
         <v>227</v>
       </c>
       <c r="M38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N38" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O38" s="72" t="s">
+      <c r="N38" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O38" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P38" s="64" t="s">
@@ -6913,37 +6913,37 @@
       <c r="D39" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="71" t="s">
+      <c r="E39" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I39" s="71" t="s">
+      <c r="H39" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K39" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L39" s="71" t="s">
+      <c r="K39" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N39" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O39" s="71" t="s">
+      <c r="N39" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P39" s="54" t="s">
@@ -6963,37 +6963,37 @@
       <c r="D40" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F40" s="72" t="s">
+      <c r="E40" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G40" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H40" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I40" s="72" t="s">
+      <c r="H40" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="71" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K40" s="72" t="s">
+      <c r="K40" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="L40" s="72" t="s">
+      <c r="L40" s="71" t="s">
         <v>30</v>
       </c>
       <c r="M40" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="N40" s="72" t="s">
+      <c r="N40" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="O40" s="72" t="s">
+      <c r="O40" s="71" t="s">
         <v>30</v>
       </c>
       <c r="P40" s="64" t="s">
@@ -7013,37 +7013,37 @@
       <c r="D41" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="92" t="s">
-        <v>66</v>
-      </c>
-      <c r="F41" s="92" t="s">
+      <c r="E41" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="91" t="s">
         <v>66</v>
       </c>
       <c r="G41" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="92" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="92" t="s">
+      <c r="H41" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="91" t="s">
         <v>26</v>
       </c>
       <c r="J41" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="K41" s="92" t="s">
+      <c r="K41" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="L41" s="92" t="s">
+      <c r="L41" s="91" t="s">
         <v>23</v>
       </c>
       <c r="M41" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="N41" s="92" t="s">
-        <v>92</v>
-      </c>
-      <c r="O41" s="92" t="s">
+      <c r="N41" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="O41" s="91" t="s">
         <v>23</v>
       </c>
       <c r="P41" s="54" t="s">
@@ -7063,37 +7063,37 @@
       <c r="D42" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="E42" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="93" t="s">
+      <c r="E42" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="90" t="s">
         <v>66</v>
       </c>
       <c r="G42" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="I42" s="93" t="s">
+      <c r="H42" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="90" t="s">
         <v>66</v>
       </c>
       <c r="J42" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="K42" s="93" t="s">
+      <c r="K42" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="L42" s="93" t="s">
+      <c r="L42" s="90" t="s">
         <v>38</v>
       </c>
       <c r="M42" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="N42" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="O42" s="93" t="s">
+      <c r="N42" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="O42" s="90" t="s">
         <v>66</v>
       </c>
       <c r="P42" s="65" t="s">
@@ -7113,37 +7113,37 @@
       <c r="D43" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="78" t="s">
+      <c r="E43" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="78" t="s">
+      <c r="F43" s="84" t="s">
         <v>25</v>
       </c>
       <c r="G43" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="I43" s="78" t="s">
+      <c r="H43" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="84" t="s">
         <v>24</v>
       </c>
       <c r="J43" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="K43" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" s="78" t="s">
+      <c r="K43" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="84" t="s">
         <v>24</v>
       </c>
       <c r="M43" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="N43" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="O43" s="78" t="s">
+      <c r="N43" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="O43" s="84" t="s">
         <v>24</v>
       </c>
       <c r="P43" s="66" t="s">
@@ -7163,37 +7163,37 @@
       <c r="D44" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="72" t="s">
+      <c r="E44" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G44" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="72" t="s">
+      <c r="H44" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="I44" s="72" t="s">
+      <c r="I44" s="71" t="s">
         <v>25</v>
       </c>
       <c r="J44" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K44" s="72" t="s">
+      <c r="K44" s="71" t="s">
         <v>240</v>
       </c>
-      <c r="L44" s="72" t="s">
+      <c r="L44" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M44" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N44" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O44" s="72" t="s">
+      <c r="N44" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O44" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P44" s="64" t="s">
@@ -7213,37 +7213,37 @@
       <c r="D45" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="71" t="s">
+      <c r="E45" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" s="71" t="s">
+      <c r="H45" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="72" t="s">
         <v>26</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K45" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L45" s="71" t="s">
+      <c r="K45" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L45" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N45" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O45" s="71" t="s">
+      <c r="N45" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O45" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P45" s="54" t="s">
@@ -7263,37 +7263,37 @@
       <c r="D46" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="72" t="s">
+      <c r="E46" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G46" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H46" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I46" s="72" t="s">
+      <c r="H46" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J46" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K46" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L46" s="72" t="s">
+      <c r="K46" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L46" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M46" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N46" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O46" s="72" t="s">
+      <c r="N46" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O46" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P46" s="64" t="s">
@@ -7313,37 +7313,37 @@
       <c r="D47" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F47" s="71" t="s">
+      <c r="E47" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H47" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="I47" s="71" t="s">
+      <c r="H47" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="72" t="s">
         <v>26</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K47" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L47" s="71" t="s">
+      <c r="K47" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M47" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N47" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O47" s="71" t="s">
+      <c r="N47" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O47" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P47" s="54" t="s">
@@ -7363,37 +7363,37 @@
       <c r="D48" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="72" t="s">
+      <c r="E48" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="71" t="s">
         <v>26</v>
       </c>
       <c r="G48" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I48" s="72" t="s">
+      <c r="H48" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I48" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J48" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K48" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L48" s="72" t="s">
+      <c r="K48" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M48" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N48" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O48" s="72" t="s">
+      <c r="N48" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O48" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P48" s="64" t="s">
@@ -7413,37 +7413,37 @@
       <c r="D49" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" s="71" t="s">
+      <c r="E49" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H49" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I49" s="71" t="s">
+      <c r="H49" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K49" s="71" t="s">
+      <c r="K49" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="L49" s="71" t="s">
+      <c r="L49" s="72" t="s">
         <v>228</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N49" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O49" s="71" t="s">
+      <c r="N49" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O49" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P49" s="54" t="s">
@@ -7463,37 +7463,37 @@
       <c r="D50" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50" s="72" t="s">
+      <c r="E50" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G50" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I50" s="72" t="s">
+      <c r="H50" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J50" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="72" t="s">
+      <c r="K50" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="L50" s="72" t="s">
+      <c r="L50" s="71" t="s">
         <v>38</v>
       </c>
       <c r="M50" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N50" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O50" s="72" t="s">
+      <c r="N50" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O50" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P50" s="64" t="s">
@@ -7513,37 +7513,37 @@
       <c r="D51" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="71" t="s">
+      <c r="E51" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H51" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="I51" s="71" t="s">
+      <c r="H51" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="72" t="s">
         <v>26</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K51" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L51" s="71" t="s">
+      <c r="K51" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M51" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N51" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O51" s="71" t="s">
+      <c r="N51" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O51" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P51" s="54" t="s">
@@ -7563,37 +7563,37 @@
       <c r="D52" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F52" s="72" t="s">
+      <c r="E52" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="71" t="s">
         <v>26</v>
       </c>
       <c r="G52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I52" s="72" t="s">
+      <c r="H52" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J52" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K52" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L52" s="72" t="s">
+      <c r="K52" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N52" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O52" s="72" t="s">
+      <c r="N52" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O52" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P52" s="64" t="s">
@@ -7613,37 +7613,37 @@
       <c r="D53" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" s="94" t="s">
+      <c r="E53" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="89" t="s">
         <v>24</v>
       </c>
       <c r="G53" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H53" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="I53" s="94" t="s">
+      <c r="H53" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="89" t="s">
         <v>24</v>
       </c>
       <c r="J53" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="K53" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="L53" s="94" t="s">
+      <c r="K53" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" s="89" t="s">
         <v>26</v>
       </c>
       <c r="M53" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="N53" s="94" t="s">
+      <c r="N53" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="O53" s="94" t="s">
+      <c r="O53" s="89" t="s">
         <v>38</v>
       </c>
       <c r="P53" s="67" t="s">
@@ -7663,37 +7663,37 @@
       <c r="D54" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" s="72" t="s">
+      <c r="E54" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="71" t="s">
         <v>26</v>
       </c>
       <c r="G54" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I54" s="72" t="s">
+      <c r="H54" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" s="71" t="s">
         <v>26</v>
       </c>
       <c r="J54" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K54" s="72" t="s">
+      <c r="K54" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="L54" s="72" t="s">
+      <c r="L54" s="71" t="s">
         <v>38</v>
       </c>
       <c r="M54" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N54" s="72" t="s">
+      <c r="N54" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="O54" s="72" t="s">
+      <c r="O54" s="71" t="s">
         <v>38</v>
       </c>
       <c r="P54" s="64" t="s">
@@ -7713,37 +7713,37 @@
       <c r="D55" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F55" s="71" t="s">
+      <c r="E55" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H55" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="I55" s="71" t="s">
+      <c r="H55" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="I55" s="72" t="s">
         <v>25</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K55" s="71" t="s">
+      <c r="K55" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="L55" s="71" t="s">
+      <c r="L55" s="72" t="s">
         <v>30</v>
       </c>
       <c r="M55" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N55" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O55" s="71" t="s">
+      <c r="N55" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O55" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P55" s="54" t="s">
@@ -7763,37 +7763,37 @@
       <c r="D56" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E56" s="72" t="s">
+      <c r="E56" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="F56" s="72" t="s">
+      <c r="F56" s="71" t="s">
         <v>38</v>
       </c>
       <c r="G56" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H56" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I56" s="72" t="s">
+      <c r="H56" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J56" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K56" s="72" t="s">
+      <c r="K56" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="L56" s="72" t="s">
+      <c r="L56" s="71" t="s">
         <v>38</v>
       </c>
       <c r="M56" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N56" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O56" s="72" t="s">
+      <c r="N56" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O56" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P56" s="64" t="s">
@@ -7813,37 +7813,37 @@
       <c r="D57" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F57" s="71" t="s">
+      <c r="E57" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H57" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="I57" s="71" t="s">
+      <c r="H57" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" s="72" t="s">
         <v>26</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K57" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L57" s="71" t="s">
+      <c r="K57" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M57" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="N57" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O57" s="71" t="s">
+      <c r="N57" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O57" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P57" s="54" t="s">
@@ -7863,37 +7863,37 @@
       <c r="D58" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E58" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="F58" s="72" t="s">
+      <c r="E58" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" s="71" t="s">
         <v>38</v>
       </c>
       <c r="G58" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H58" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I58" s="72" t="s">
+      <c r="H58" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I58" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J58" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K58" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L58" s="72" t="s">
+      <c r="K58" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M58" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N58" s="72" t="s">
+      <c r="N58" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="O58" s="72" t="s">
+      <c r="O58" s="71" t="s">
         <v>25</v>
       </c>
       <c r="P58" s="64" t="s">
@@ -7913,37 +7913,37 @@
       <c r="D59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="71" t="s">
+      <c r="E59" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F59" s="71" t="s">
+      <c r="F59" s="72" t="s">
         <v>25</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H59" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I59" s="71" t="s">
+      <c r="H59" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I59" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K59" s="71" t="s">
+      <c r="K59" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="L59" s="71" t="s">
+      <c r="L59" s="72" t="s">
         <v>38</v>
       </c>
       <c r="M59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N59" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O59" s="71" t="s">
+      <c r="N59" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O59" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P59" s="54" t="s">
@@ -7963,37 +7963,37 @@
       <c r="D60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E60" s="72" t="s">
+      <c r="E60" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="F60" s="72" t="s">
+      <c r="F60" s="71" t="s">
         <v>30</v>
       </c>
       <c r="G60" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H60" s="72" t="s">
+      <c r="H60" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="I60" s="72" t="s">
+      <c r="I60" s="71" t="s">
         <v>30</v>
       </c>
       <c r="J60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K60" s="72" t="s">
+      <c r="K60" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="L60" s="72" t="s">
+      <c r="L60" s="71" t="s">
         <v>30</v>
       </c>
       <c r="M60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N60" s="72" t="s">
+      <c r="N60" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="O60" s="72" t="s">
+      <c r="O60" s="71" t="s">
         <v>25</v>
       </c>
       <c r="P60" s="64" t="s">
@@ -8013,37 +8013,37 @@
       <c r="D61" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F61" s="71" t="s">
+      <c r="E61" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H61" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I61" s="71" t="s">
+      <c r="H61" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K61" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L61" s="71" t="s">
+      <c r="K61" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M61" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N61" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="O61" s="71" t="s">
+      <c r="N61" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="O61" s="72" t="s">
         <v>26</v>
       </c>
       <c r="P61" s="54" t="s">
@@ -8063,37 +8063,37 @@
       <c r="D62" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E62" s="72" t="s">
+      <c r="E62" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="72" t="s">
+      <c r="F62" s="71" t="s">
         <v>25</v>
       </c>
       <c r="G62" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H62" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I62" s="72" t="s">
+      <c r="H62" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" s="71" t="s">
         <v>26</v>
       </c>
       <c r="J62" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K62" s="72" t="s">
+      <c r="K62" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="L62" s="72" t="s">
+      <c r="L62" s="71" t="s">
         <v>229</v>
       </c>
       <c r="M62" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N62" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="O62" s="72" t="s">
+      <c r="N62" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="O62" s="71" t="s">
         <v>26</v>
       </c>
       <c r="P62" s="64" t="s">
@@ -8113,37 +8113,37 @@
       <c r="D63" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E63" s="71" t="s">
+      <c r="E63" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="F63" s="71" t="s">
+      <c r="F63" s="72" t="s">
         <v>38</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H63" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I63" s="71" t="s">
+      <c r="H63" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K63" s="71" t="s">
+      <c r="K63" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="L63" s="71" t="s">
+      <c r="L63" s="72" t="s">
         <v>25</v>
       </c>
       <c r="M63" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N63" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O63" s="71" t="s">
+      <c r="N63" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O63" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P63" s="54" t="s">
@@ -8163,37 +8163,37 @@
       <c r="D64" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E64" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" s="72" t="s">
+      <c r="E64" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="71" t="s">
         <v>26</v>
       </c>
       <c r="G64" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H64" s="72" t="s">
+      <c r="H64" s="71" t="s">
         <v>224</v>
       </c>
-      <c r="I64" s="72" t="s">
+      <c r="I64" s="71" t="s">
         <v>224</v>
       </c>
       <c r="J64" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K64" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L64" s="72" t="s">
+      <c r="K64" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L64" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M64" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N64" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="O64" s="72" t="s">
+      <c r="N64" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="O64" s="71" t="s">
         <v>26</v>
       </c>
       <c r="P64" s="64" t="s">
@@ -8213,37 +8213,37 @@
       <c r="D65" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="71" t="s">
+      <c r="E65" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="F65" s="71" t="s">
+      <c r="F65" s="72" t="s">
         <v>30</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="71" t="s">
+      <c r="H65" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="I65" s="71" t="s">
+      <c r="I65" s="72" t="s">
         <v>30</v>
       </c>
       <c r="J65" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K65" s="71" t="s">
+      <c r="K65" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="L65" s="71" t="s">
+      <c r="L65" s="72" t="s">
         <v>30</v>
       </c>
       <c r="M65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N65" s="71" t="s">
+      <c r="N65" s="72" t="s">
         <v>242</v>
       </c>
-      <c r="O65" s="71" t="s">
+      <c r="O65" s="72" t="s">
         <v>30</v>
       </c>
       <c r="P65" s="54" t="s">
@@ -8261,35 +8261,35 @@
         <v>233</v>
       </c>
       <c r="D66" s="51"/>
-      <c r="E66" s="71" t="s">
+      <c r="E66" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="F66" s="71" t="s">
+      <c r="F66" s="72" t="s">
         <v>30</v>
       </c>
       <c r="G66" s="51"/>
-      <c r="H66" s="71" t="s">
+      <c r="H66" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="I66" s="71" t="s">
+      <c r="I66" s="72" t="s">
         <v>30</v>
       </c>
       <c r="J66" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K66" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L66" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="M66" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="N66" s="89" t="s">
+      <c r="K66" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="L66" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="N66" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="O66" s="90"/>
+      <c r="O66" s="94"/>
       <c r="P66" s="70" t="s">
         <v>92</v>
       </c>
@@ -8299,17 +8299,17 @@
       <c r="B67" s="12"/>
       <c r="C67" s="30"/>
       <c r="D67" s="7"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
       <c r="G67" s="7"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="71"/>
+      <c r="H67" s="72"/>
+      <c r="I67" s="72"/>
       <c r="J67" s="7"/>
-      <c r="K67" s="71"/>
-      <c r="L67" s="71"/>
+      <c r="K67" s="72"/>
+      <c r="L67" s="72"/>
       <c r="M67" s="7"/>
-      <c r="N67" s="71"/>
-      <c r="O67" s="71"/>
+      <c r="N67" s="72"/>
+      <c r="O67" s="72"/>
       <c r="P67" s="54"/>
     </row>
     <row r="68" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -8317,17 +8317,17 @@
       <c r="B68" s="12"/>
       <c r="C68" s="30"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
       <c r="G68" s="7"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="71"/>
+      <c r="H68" s="72"/>
+      <c r="I68" s="72"/>
       <c r="J68" s="7"/>
-      <c r="K68" s="71"/>
-      <c r="L68" s="71"/>
+      <c r="K68" s="72"/>
+      <c r="L68" s="72"/>
       <c r="M68" s="7"/>
-      <c r="N68" s="71"/>
-      <c r="O68" s="71"/>
+      <c r="N68" s="72"/>
+      <c r="O68" s="72"/>
       <c r="P68" s="54"/>
     </row>
     <row r="69" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.15">
@@ -8387,17 +8387,17 @@
     </row>
     <row r="74" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D74" s="61"/>
-      <c r="E74" s="91"/>
-      <c r="F74" s="91"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="92"/>
       <c r="G74" s="61"/>
-      <c r="H74" s="91"/>
-      <c r="I74" s="91"/>
+      <c r="H74" s="92"/>
+      <c r="I74" s="92"/>
       <c r="J74" s="61"/>
-      <c r="K74" s="91"/>
-      <c r="L74" s="91"/>
+      <c r="K74" s="92"/>
+      <c r="L74" s="92"/>
       <c r="M74" s="61"/>
-      <c r="N74" s="91"/>
-      <c r="O74" s="91"/>
+      <c r="N74" s="92"/>
+      <c r="O74" s="92"/>
       <c r="P74" s="68"/>
     </row>
     <row r="75" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -8434,17 +8434,17 @@
     </row>
     <row r="79" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D79" s="61"/>
-      <c r="E79" s="91"/>
-      <c r="F79" s="91"/>
+      <c r="E79" s="92"/>
+      <c r="F79" s="92"/>
       <c r="G79" s="61"/>
-      <c r="H79" s="91"/>
-      <c r="I79" s="91"/>
+      <c r="H79" s="92"/>
+      <c r="I79" s="92"/>
       <c r="J79" s="61"/>
-      <c r="K79" s="91"/>
-      <c r="L79" s="91"/>
+      <c r="K79" s="92"/>
+      <c r="L79" s="92"/>
       <c r="M79" s="61"/>
-      <c r="N79" s="91"/>
-      <c r="O79" s="91"/>
+      <c r="N79" s="92"/>
+      <c r="O79" s="92"/>
       <c r="P79" s="68"/>
     </row>
     <row r="80" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -8465,44 +8465,174 @@
     <row r="81" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="230">
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
     <mergeCell ref="K64:L64"/>
     <mergeCell ref="K65:L65"/>
     <mergeCell ref="N14:O14"/>
@@ -8527,174 +8657,44 @@
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="N31:O31"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N60:O60"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:C6">

--- a/app/xlsx/4月_5月シフト.xlsx
+++ b/app/xlsx/4月_5月シフト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiha\OneDrive\デスクトップ\MyPrograming\MyGo\rolemaster0.5\RoleMaserV0.5\app\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50165460-F451-428B-8338-84D669A042B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328992E7-FD5C-4BF0-BDBE-6047264FB7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PJシフト4月" sheetId="4" r:id="rId1"/>
@@ -1831,10 +1831,28 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1867,40 +1885,22 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2445,11 +2445,11 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="73"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="82" t="s">
         <v>146</v>
       </c>
       <c r="D6" s="8">
@@ -2467,7 +2467,7 @@
       <c r="H6" s="8">
         <v>15</v>
       </c>
-      <c r="I6" s="79" t="s">
+      <c r="I6" s="85" t="s">
         <v>146</v>
       </c>
       <c r="J6" s="8">
@@ -2490,11 +2490,11 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="74"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="77"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2510,7 +2510,7 @@
       <c r="H7" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="I7" s="80"/>
+      <c r="I7" s="86"/>
       <c r="J7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2531,11 +2531,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="77"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="7">
         <v>68</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>60</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="80"/>
+      <c r="I8" s="86"/>
       <c r="J8" s="7">
         <v>90</v>
       </c>
@@ -2568,11 +2568,11 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="74"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="77"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="17">
         <v>14</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="H9" s="17">
         <v>10</v>
       </c>
-      <c r="I9" s="80"/>
+      <c r="I9" s="86"/>
       <c r="J9" s="17">
         <v>18</v>
       </c>
@@ -2607,11 +2607,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="80"/>
+      <c r="I10" s="86"/>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2644,11 +2644,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="74"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="77"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="7" t="s">
         <v>94</v>
       </c>
@@ -2664,7 +2664,7 @@
       <c r="H11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="80"/>
+      <c r="I11" s="86"/>
       <c r="J11" s="7" t="s">
         <v>97</v>
       </c>
@@ -2683,11 +2683,11 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="74"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="77"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2703,7 +2703,7 @@
       <c r="H12" s="18">
         <v>0.6875</v>
       </c>
-      <c r="I12" s="80"/>
+      <c r="I12" s="86"/>
       <c r="J12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2724,11 +2724,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="75"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="78"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2744,7 +2744,7 @@
       <c r="H13" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="I13" s="81"/>
+      <c r="I13" s="87"/>
       <c r="J13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2790,17 +2790,17 @@
       <c r="I14" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="J14" s="82" t="s">
+      <c r="J14" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="82" t="s">
+      <c r="K14" s="88" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="43"/>
-      <c r="M14" s="82" t="s">
+      <c r="M14" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="82" t="s">
+      <c r="N14" s="88" t="s">
         <v>23</v>
       </c>
       <c r="O14" s="44" t="s">
@@ -2833,19 +2833,19 @@
       <c r="I15" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="J15" s="72" t="s">
+      <c r="J15" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="72" t="s">
+      <c r="K15" s="71" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="72" t="s">
+      <c r="M15" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="72" t="s">
+      <c r="N15" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O15" s="26" t="s">
@@ -2878,17 +2878,17 @@
       <c r="I16" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="J16" s="71" t="s">
+      <c r="J16" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="71" t="s">
+      <c r="K16" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="71" t="s">
+      <c r="M16" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="71" t="s">
+      <c r="N16" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="40" t="s">
@@ -2921,17 +2921,17 @@
       <c r="I17" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="J17" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="72" t="s">
+      <c r="J17" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="72" t="s">
+      <c r="M17" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N17" s="72" t="s">
+      <c r="N17" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O17" s="26" t="s">
@@ -2964,17 +2964,17 @@
       <c r="I18" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="J18" s="71" t="s">
+      <c r="J18" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="71" t="s">
+      <c r="K18" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="39"/>
-      <c r="M18" s="71" t="s">
+      <c r="M18" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N18" s="71" t="s">
+      <c r="N18" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O18" s="40" t="s">
@@ -3007,17 +3007,17 @@
       <c r="I19" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="J19" s="72" t="s">
+      <c r="J19" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="72" t="s">
+      <c r="K19" s="71" t="s">
         <v>34</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="72" t="s">
+      <c r="M19" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="72" t="s">
+      <c r="N19" s="71" t="s">
         <v>28</v>
       </c>
       <c r="O19" s="26" t="s">
@@ -3050,17 +3050,17 @@
       <c r="I20" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="71" t="s">
+      <c r="J20" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="71" t="s">
+      <c r="K20" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="39"/>
-      <c r="M20" s="71" t="s">
+      <c r="M20" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="71" t="s">
+      <c r="N20" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O20" s="40" t="s">
@@ -3093,17 +3093,17 @@
       <c r="I21" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="72" t="s">
+      <c r="J21" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K21" s="72" t="s">
+      <c r="K21" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="72" t="s">
+      <c r="M21" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="72" t="s">
+      <c r="N21" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="26" t="s">
@@ -3136,17 +3136,17 @@
       <c r="I22" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="J22" s="71" t="s">
+      <c r="J22" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="71" t="s">
+      <c r="K22" s="72" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="39"/>
-      <c r="M22" s="71" t="s">
+      <c r="M22" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N22" s="71" t="s">
+      <c r="N22" s="72" t="s">
         <v>38</v>
       </c>
       <c r="O22" s="40" t="s">
@@ -3179,19 +3179,19 @@
       <c r="I23" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="J23" s="72" t="s">
+      <c r="J23" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="72" t="s">
+      <c r="K23" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M23" s="72" t="s">
+      <c r="M23" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="72" t="s">
+      <c r="N23" s="71" t="s">
         <v>38</v>
       </c>
       <c r="O23" s="26" t="s">
@@ -3224,17 +3224,17 @@
       <c r="I24" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="J24" s="71" t="s">
+      <c r="J24" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K24" s="71" t="s">
+      <c r="K24" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="39"/>
-      <c r="M24" s="71" t="s">
+      <c r="M24" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="71" t="s">
+      <c r="N24" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="40" t="s">
@@ -3267,17 +3267,17 @@
       <c r="I25" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="J25" s="72" t="s">
+      <c r="J25" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K25" s="72" t="s">
+      <c r="K25" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="72" t="s">
+      <c r="M25" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N25" s="72" t="s">
+      <c r="N25" s="71" t="s">
         <v>30</v>
       </c>
       <c r="O25" s="26" t="s">
@@ -3310,19 +3310,19 @@
       <c r="I26" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J26" s="71" t="s">
+      <c r="J26" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="71" t="s">
+      <c r="K26" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M26" s="71" t="s">
+      <c r="M26" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="71" t="s">
+      <c r="N26" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O26" s="40" t="s">
@@ -3355,17 +3355,17 @@
       <c r="I27" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J27" s="72" t="s">
+      <c r="J27" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="72" t="s">
+      <c r="K27" s="71" t="s">
         <v>44</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="72" t="s">
+      <c r="M27" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N27" s="72" t="s">
+      <c r="N27" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O27" s="26" t="s">
@@ -3398,19 +3398,19 @@
       <c r="I28" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="J28" s="71" t="s">
+      <c r="J28" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="71" t="s">
+      <c r="K28" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="71" t="s">
+      <c r="M28" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N28" s="71" t="s">
+      <c r="N28" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O28" s="40" t="s">
@@ -3443,17 +3443,17 @@
       <c r="I29" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="J29" s="72" t="s">
+      <c r="J29" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="72" t="s">
+      <c r="K29" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="72" t="s">
+      <c r="M29" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N29" s="72" t="s">
+      <c r="N29" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O29" s="26" t="s">
@@ -3486,17 +3486,17 @@
       <c r="I30" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="J30" s="71" t="s">
+      <c r="J30" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="71" t="s">
+      <c r="K30" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="39"/>
-      <c r="M30" s="71" t="s">
+      <c r="M30" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N30" s="71" t="s">
+      <c r="N30" s="72" t="s">
         <v>26</v>
       </c>
       <c r="O30" s="40" t="s">
@@ -3529,17 +3529,17 @@
       <c r="I31" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="J31" s="72" t="s">
+      <c r="J31" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K31" s="72" t="s">
+      <c r="K31" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="7"/>
-      <c r="M31" s="72" t="s">
+      <c r="M31" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N31" s="72" t="s">
+      <c r="N31" s="71" t="s">
         <v>28</v>
       </c>
       <c r="O31" s="26" t="s">
@@ -3572,17 +3572,17 @@
       <c r="I32" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="J32" s="71" t="s">
+      <c r="J32" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K32" s="71" t="s">
+      <c r="K32" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="39"/>
-      <c r="M32" s="71" t="s">
+      <c r="M32" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N32" s="71" t="s">
+      <c r="N32" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="40" t="s">
@@ -3615,17 +3615,17 @@
       <c r="I33" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J33" s="72" t="s">
+      <c r="J33" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K33" s="72" t="s">
+      <c r="K33" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="M33" s="72" t="s">
+      <c r="M33" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N33" s="72" t="s">
+      <c r="N33" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O33" s="26" t="s">
@@ -3658,17 +3658,17 @@
       <c r="I34" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="J34" s="71" t="s">
+      <c r="J34" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K34" s="71" t="s">
+      <c r="K34" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="39"/>
-      <c r="M34" s="71" t="s">
+      <c r="M34" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N34" s="71" t="s">
+      <c r="N34" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O34" s="40" t="s">
@@ -3701,17 +3701,17 @@
       <c r="I35" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="J35" s="72" t="s">
+      <c r="J35" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="K35" s="72" t="s">
+      <c r="K35" s="71" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="7"/>
-      <c r="M35" s="72" t="s">
+      <c r="M35" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N35" s="72" t="s">
+      <c r="N35" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O35" s="26" t="s">
@@ -3744,17 +3744,17 @@
       <c r="I36" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J36" s="71" t="s">
+      <c r="J36" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K36" s="71" t="s">
+      <c r="K36" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L36" s="39"/>
-      <c r="M36" s="71" t="s">
+      <c r="M36" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="71" t="s">
+      <c r="N36" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O36" s="40" t="s">
@@ -3787,17 +3787,17 @@
       <c r="I37" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="J37" s="72" t="s">
+      <c r="J37" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K37" s="72" t="s">
+      <c r="K37" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L37" s="7"/>
-      <c r="M37" s="72" t="s">
+      <c r="M37" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="72" t="s">
+      <c r="N37" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O37" s="26" t="s">
@@ -3830,17 +3830,17 @@
       <c r="I38" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="J38" s="71" t="s">
+      <c r="J38" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="71" t="s">
+      <c r="K38" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L38" s="39"/>
-      <c r="M38" s="71" t="s">
+      <c r="M38" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N38" s="71" t="s">
+      <c r="N38" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O38" s="40" t="s">
@@ -3873,17 +3873,17 @@
       <c r="I39" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="J39" s="72" t="s">
+      <c r="J39" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K39" s="72" t="s">
+      <c r="K39" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="7"/>
-      <c r="M39" s="72" t="s">
+      <c r="M39" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N39" s="72" t="s">
+      <c r="N39" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="26" t="s">
@@ -3916,19 +3916,19 @@
       <c r="I40" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="J40" s="83" t="s">
+      <c r="J40" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="K40" s="83" t="s">
+      <c r="K40" s="77" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="83" t="s">
+      <c r="M40" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="N40" s="83" t="s">
+      <c r="N40" s="77" t="s">
         <v>24</v>
       </c>
       <c r="O40" s="49" t="s">
@@ -3961,17 +3961,17 @@
       <c r="I41" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="J41" s="84" t="s">
+      <c r="J41" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="K41" s="84" t="s">
+      <c r="K41" s="78" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="31"/>
-      <c r="M41" s="84" t="s">
+      <c r="M41" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="N41" s="84" t="s">
+      <c r="N41" s="78" t="s">
         <v>24</v>
       </c>
       <c r="O41" s="32" t="s">
@@ -4004,17 +4004,17 @@
       <c r="I42" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="J42" s="71" t="s">
+      <c r="J42" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K42" s="71" t="s">
+      <c r="K42" s="72" t="s">
         <v>26</v>
       </c>
       <c r="L42" s="39"/>
-      <c r="M42" s="71" t="s">
+      <c r="M42" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N42" s="71" t="s">
+      <c r="N42" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O42" s="40" t="s">
@@ -4047,19 +4047,19 @@
       <c r="I43" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="J43" s="72" t="s">
+      <c r="J43" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K43" s="72" t="s">
+      <c r="K43" s="71" t="s">
         <v>26</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M43" s="72" t="s">
+      <c r="M43" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N43" s="72" t="s">
+      <c r="N43" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O43" s="26" t="s">
@@ -4092,17 +4092,17 @@
       <c r="I44" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="J44" s="71" t="s">
+      <c r="J44" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="K44" s="71" t="s">
+      <c r="K44" s="72" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="39"/>
-      <c r="M44" s="71" t="s">
+      <c r="M44" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N44" s="71" t="s">
+      <c r="N44" s="72" t="s">
         <v>38</v>
       </c>
       <c r="O44" s="40" t="s">
@@ -4135,17 +4135,17 @@
       <c r="I45" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="J45" s="72" t="s">
+      <c r="J45" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K45" s="72" t="s">
+      <c r="K45" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L45" s="7"/>
-      <c r="M45" s="72" t="s">
+      <c r="M45" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N45" s="72" t="s">
+      <c r="N45" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O45" s="26" t="s">
@@ -4178,17 +4178,17 @@
       <c r="I46" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="J46" s="71" t="s">
+      <c r="J46" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K46" s="71" t="s">
+      <c r="K46" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="39"/>
-      <c r="M46" s="71" t="s">
+      <c r="M46" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N46" s="71" t="s">
+      <c r="N46" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O46" s="40" t="s">
@@ -4221,17 +4221,17 @@
       <c r="I47" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="J47" s="72" t="s">
+      <c r="J47" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K47" s="72" t="s">
+      <c r="K47" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L47" s="7"/>
-      <c r="M47" s="72" t="s">
+      <c r="M47" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N47" s="72" t="s">
+      <c r="N47" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O47" s="26" t="s">
@@ -4264,17 +4264,17 @@
       <c r="I48" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="J48" s="71" t="s">
+      <c r="J48" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K48" s="71" t="s">
+      <c r="K48" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L48" s="39"/>
-      <c r="M48" s="71" t="s">
+      <c r="M48" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N48" s="71" t="s">
+      <c r="N48" s="72" t="s">
         <v>66</v>
       </c>
       <c r="O48" s="40" t="s">
@@ -4307,17 +4307,17 @@
       <c r="I49" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="J49" s="72" t="s">
+      <c r="J49" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K49" s="72" t="s">
+      <c r="K49" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="7"/>
-      <c r="M49" s="72" t="s">
+      <c r="M49" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N49" s="72" t="s">
+      <c r="N49" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O49" s="26" t="s">
@@ -4350,17 +4350,17 @@
       <c r="I50" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="J50" s="71" t="s">
+      <c r="J50" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K50" s="71" t="s">
+      <c r="K50" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="39"/>
-      <c r="M50" s="71" t="s">
+      <c r="M50" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N50" s="71" t="s">
+      <c r="N50" s="72" t="s">
         <v>38</v>
       </c>
       <c r="O50" s="40" t="s">
@@ -4393,17 +4393,17 @@
       <c r="I51" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="J51" s="72" t="s">
+      <c r="J51" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="K51" s="72" t="s">
+      <c r="K51" s="71" t="s">
         <v>38</v>
       </c>
       <c r="L51" s="7"/>
-      <c r="M51" s="72" t="s">
+      <c r="M51" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N51" s="72" t="s">
+      <c r="N51" s="71" t="s">
         <v>38</v>
       </c>
       <c r="O51" s="26" t="s">
@@ -4436,19 +4436,19 @@
       <c r="I52" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J52" s="71" t="s">
+      <c r="J52" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="71" t="s">
+      <c r="K52" s="72" t="s">
         <v>71</v>
       </c>
       <c r="L52" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M52" s="71" t="s">
+      <c r="M52" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N52" s="71" t="s">
+      <c r="N52" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O52" s="40" t="s">
@@ -4481,19 +4481,19 @@
       <c r="I53" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J53" s="72" t="s">
+      <c r="J53" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K53" s="72" t="s">
+      <c r="K53" s="71" t="s">
         <v>26</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M53" s="72" t="s">
+      <c r="M53" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N53" s="72" t="s">
+      <c r="N53" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O53" s="26" t="s">
@@ -4526,17 +4526,17 @@
       <c r="I54" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="J54" s="71" t="s">
+      <c r="J54" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="K54" s="71" t="s">
+      <c r="K54" s="72" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="39"/>
-      <c r="M54" s="71" t="s">
+      <c r="M54" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N54" s="71" t="s">
+      <c r="N54" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O54" s="40" t="s">
@@ -4569,17 +4569,17 @@
       <c r="I55" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="J55" s="72" t="s">
+      <c r="J55" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K55" s="72" t="s">
+      <c r="K55" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L55" s="7"/>
-      <c r="M55" s="72" t="s">
+      <c r="M55" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N55" s="72" t="s">
+      <c r="N55" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O55" s="26" t="s">
@@ -4612,17 +4612,17 @@
       <c r="I56" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="J56" s="71" t="s">
+      <c r="J56" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K56" s="71" t="s">
+      <c r="K56" s="72" t="s">
         <v>26</v>
       </c>
       <c r="L56" s="39"/>
-      <c r="M56" s="71" t="s">
+      <c r="M56" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N56" s="71" t="s">
+      <c r="N56" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O56" s="40" t="s">
@@ -4655,19 +4655,19 @@
       <c r="I57" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="J57" s="72" t="s">
+      <c r="J57" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K57" s="72" t="s">
+      <c r="K57" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M57" s="72" t="s">
+      <c r="M57" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N57" s="72" t="s">
+      <c r="N57" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O57" s="26" t="s">
@@ -4700,17 +4700,17 @@
       <c r="I58" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="J58" s="71" t="s">
+      <c r="J58" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="K58" s="71" t="s">
+      <c r="K58" s="72" t="s">
         <v>28</v>
       </c>
       <c r="L58" s="39"/>
-      <c r="M58" s="71" t="s">
+      <c r="M58" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N58" s="71" t="s">
+      <c r="N58" s="72" t="s">
         <v>78</v>
       </c>
       <c r="O58" s="40" t="s">
@@ -4743,17 +4743,17 @@
       <c r="I59" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="J59" s="72" t="s">
+      <c r="J59" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="K59" s="72" t="s">
+      <c r="K59" s="71" t="s">
         <v>38</v>
       </c>
       <c r="L59" s="7"/>
-      <c r="M59" s="72" t="s">
+      <c r="M59" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N59" s="72" t="s">
+      <c r="N59" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O59" s="26" t="s">
@@ -4774,15 +4774,15 @@
       <c r="G60" s="51"/>
       <c r="H60" s="51"/>
       <c r="I60" s="50"/>
-      <c r="J60" s="85" t="s">
+      <c r="J60" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="K60" s="86"/>
+      <c r="K60" s="76"/>
       <c r="L60" s="51"/>
-      <c r="M60" s="71" t="s">
+      <c r="M60" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N60" s="71" t="s">
+      <c r="N60" s="72" t="s">
         <v>66</v>
       </c>
       <c r="O60" s="26" t="s">
@@ -4803,15 +4803,15 @@
       <c r="G61" s="31"/>
       <c r="H61" s="31"/>
       <c r="I61" s="30"/>
-      <c r="J61" s="87" t="s">
+      <c r="J61" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="K61" s="88"/>
+      <c r="K61" s="74"/>
       <c r="L61" s="31"/>
-      <c r="M61" s="72" t="s">
+      <c r="M61" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N61" s="72" t="s">
+      <c r="N61" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O61" s="40" t="s">
@@ -4832,17 +4832,17 @@
       <c r="G62" s="51"/>
       <c r="H62" s="51"/>
       <c r="I62" s="50"/>
-      <c r="J62" s="72" t="s">
+      <c r="J62" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K62" s="72" t="s">
+      <c r="K62" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L62" s="51"/>
-      <c r="M62" s="71" t="s">
+      <c r="M62" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N62" s="71" t="s">
+      <c r="N62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O62" s="26" t="s">
@@ -4863,15 +4863,15 @@
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
       <c r="I63" s="30"/>
-      <c r="J63" s="87" t="s">
+      <c r="J63" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="K63" s="88"/>
+      <c r="K63" s="74"/>
       <c r="L63" s="31"/>
-      <c r="M63" s="71" t="s">
+      <c r="M63" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N63" s="71" t="s">
+      <c r="N63" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O63" s="26" t="s">
@@ -4892,17 +4892,17 @@
       <c r="G64" s="51"/>
       <c r="H64" s="51"/>
       <c r="I64" s="50"/>
-      <c r="J64" s="72" t="s">
+      <c r="J64" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K64" s="72" t="s">
+      <c r="K64" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L64" s="51"/>
-      <c r="M64" s="72" t="s">
+      <c r="M64" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N64" s="72" t="s">
+      <c r="N64" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O64" s="40" t="s">
@@ -4921,17 +4921,17 @@
       <c r="G65" s="31"/>
       <c r="H65" s="31"/>
       <c r="I65" s="30"/>
-      <c r="J65" s="72" t="s">
+      <c r="J65" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K65" s="72" t="s">
+      <c r="K65" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L65" s="31"/>
-      <c r="M65" s="71" t="s">
+      <c r="M65" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N65" s="71" t="s">
+      <c r="N65" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O65" s="40" t="s">
@@ -4964,17 +4964,17 @@
       <c r="I66" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="J66" s="71" t="s">
+      <c r="J66" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K66" s="71" t="s">
+      <c r="K66" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L66" s="39"/>
-      <c r="M66" s="71" t="s">
+      <c r="M66" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N66" s="71" t="s">
+      <c r="N66" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O66" s="40" t="s">
@@ -5020,102 +5020,6 @@
     <row r="69" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:N21"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="J17:K17"/>
@@ -5129,6 +5033,102 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M15:N15"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="M63:N63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:F6 I6:N6">
@@ -5183,8 +5183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A1C220-DC63-401D-B66B-975EAA99E44B}">
   <dimension ref="A2:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66"/>
+    <sheetView tabSelected="1" topLeftCell="J6" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5281,11 +5281,11 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="73"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="82" t="s">
         <v>146</v>
       </c>
       <c r="D6" s="8">
@@ -5329,11 +5329,11 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="74"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="77"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="7" t="s">
         <v>152</v>
       </c>
@@ -5375,11 +5375,11 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="77"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="7">
         <v>13</v>
       </c>
@@ -5421,11 +5421,11 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="74"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="77"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="7" t="s">
         <v>234</v>
       </c>
@@ -5467,11 +5467,11 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="7">
         <v>6</v>
       </c>
@@ -5513,11 +5513,11 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="74"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="77"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="7" t="s">
         <v>155</v>
       </c>
@@ -5559,11 +5559,11 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="74"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="77"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="7" t="s">
         <v>156</v>
       </c>
@@ -5605,11 +5605,11 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="75"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="78"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -5663,37 +5663,37 @@
       <c r="D14" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="82" t="s">
+      <c r="E14" s="88" t="s">
         <v>243</v>
       </c>
-      <c r="F14" s="82" t="s">
+      <c r="F14" s="88" t="s">
         <v>66</v>
       </c>
       <c r="G14" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="82" t="s">
+      <c r="H14" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="88" t="s">
         <v>66</v>
       </c>
       <c r="J14" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="71" t="s">
+      <c r="K14" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M14" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="N14" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14" s="82" t="s">
+      <c r="N14" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="88" t="s">
         <v>66</v>
       </c>
       <c r="P14" s="63" t="s">
@@ -5713,37 +5713,37 @@
       <c r="D15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="72" t="s">
+      <c r="E15" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="72" t="s">
+      <c r="H15" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="72" t="s">
+      <c r="K15" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="L15" s="72" t="s">
+      <c r="L15" s="71" t="s">
         <v>225</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N15" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O15" s="72" t="s">
+      <c r="N15" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P15" s="54" t="s">
@@ -5763,37 +5763,37 @@
       <c r="D16" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="71" t="s">
+      <c r="E16" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="71" t="s">
+      <c r="F16" s="72" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="72" t="s">
+      <c r="H16" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="71" t="s">
+      <c r="K16" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M16" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N16" s="71" t="s">
+      <c r="N16" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="71" t="s">
+      <c r="O16" s="72" t="s">
         <v>38</v>
       </c>
       <c r="P16" s="64" t="s">
@@ -5813,37 +5813,37 @@
       <c r="D17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="72" t="s">
+      <c r="E17" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="72" t="s">
+      <c r="H17" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="72" t="s">
+      <c r="K17" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N17" s="72" t="s">
+      <c r="N17" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="O17" s="72" t="s">
+      <c r="O17" s="71" t="s">
         <v>30</v>
       </c>
       <c r="P17" s="54" t="s">
@@ -5863,37 +5863,37 @@
       <c r="D18" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="71" t="s">
+      <c r="E18" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G18" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="71" t="s">
+      <c r="H18" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" s="71" t="s">
+      <c r="K18" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O18" s="71" t="s">
+      <c r="N18" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P18" s="64" t="s">
@@ -5913,37 +5913,37 @@
       <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="72" t="s">
+      <c r="E19" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="72" t="s">
+      <c r="H19" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="72" t="s">
+      <c r="K19" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N19" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O19" s="72" t="s">
+      <c r="N19" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P19" s="54" t="s">
@@ -5963,37 +5963,37 @@
       <c r="D20" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="71" t="s">
+      <c r="E20" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="71" t="s">
+      <c r="H20" s="72" t="s">
         <v>240</v>
       </c>
-      <c r="I20" s="71" t="s">
+      <c r="I20" s="72" t="s">
         <v>224</v>
       </c>
       <c r="J20" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="71" t="s">
+      <c r="K20" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M20" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N20" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O20" s="71" t="s">
+      <c r="N20" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P20" s="64" t="s">
@@ -6013,37 +6013,37 @@
       <c r="D21" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E21" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="72" t="s">
+      <c r="E21" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="71" t="s">
         <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="72" t="s">
+      <c r="H21" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="72" t="s">
+      <c r="K21" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="L21" s="72" t="s">
+      <c r="L21" s="71" t="s">
         <v>225</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O21" s="72" t="s">
+      <c r="N21" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P21" s="54" t="s">
@@ -6063,37 +6063,37 @@
       <c r="D22" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E22" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="71" t="s">
+      <c r="E22" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G22" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22" s="71" t="s">
+      <c r="H22" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="72" t="s">
         <v>38</v>
       </c>
       <c r="J22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" s="71" t="s">
+      <c r="K22" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O22" s="71" t="s">
+      <c r="N22" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P22" s="64" t="s">
@@ -6113,37 +6113,37 @@
       <c r="D23" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="E23" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="72" t="s">
+      <c r="E23" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="72" t="s">
+      <c r="H23" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K23" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23" s="71" t="s">
+      <c r="K23" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O23" s="72" t="s">
+      <c r="N23" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O23" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P23" s="54" t="s">
@@ -6163,37 +6163,37 @@
       <c r="D24" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="71" t="s">
+      <c r="E24" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G24" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="71" t="s">
+      <c r="H24" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J24" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K24" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" s="71" t="s">
+      <c r="K24" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M24" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O24" s="71" t="s">
+      <c r="N24" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P24" s="64" t="s">
@@ -6213,37 +6213,37 @@
       <c r="D25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="72" t="s">
+      <c r="E25" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="72" t="s">
+      <c r="F25" s="71" t="s">
         <v>30</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="72" t="s">
+      <c r="H25" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="I25" s="72" t="s">
+      <c r="I25" s="71" t="s">
         <v>30</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="72" t="s">
+      <c r="K25" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="72" t="s">
+      <c r="L25" s="71" t="s">
         <v>30</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N25" s="72" t="s">
+      <c r="N25" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="O25" s="72" t="s">
+      <c r="O25" s="71" t="s">
         <v>30</v>
       </c>
       <c r="P25" s="54" t="s">
@@ -6263,37 +6263,37 @@
       <c r="D26" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E26" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="71" t="s">
+      <c r="E26" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G26" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="71" t="s">
+      <c r="H26" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J26" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K26" s="71" t="s">
+      <c r="K26" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="71" t="s">
+      <c r="L26" s="72" t="s">
         <v>25</v>
       </c>
       <c r="M26" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N26" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O26" s="71" t="s">
+      <c r="N26" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O26" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P26" s="64" t="s">
@@ -6313,37 +6313,37 @@
       <c r="D27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="72" t="s">
+      <c r="E27" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="72" t="s">
+      <c r="H27" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="72" t="s">
+      <c r="K27" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="72" t="s">
+      <c r="L27" s="71" t="s">
         <v>225</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N27" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O27" s="72" t="s">
+      <c r="N27" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P27" s="54" t="s">
@@ -6363,37 +6363,37 @@
       <c r="D28" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E28" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="71" t="s">
+      <c r="E28" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G28" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" s="71" t="s">
+      <c r="H28" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J28" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="K28" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L28" s="72" t="s">
+      <c r="K28" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M28" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N28" s="71" t="s">
+      <c r="N28" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="O28" s="71" t="s">
+      <c r="O28" s="72" t="s">
         <v>38</v>
       </c>
       <c r="P28" s="64" t="s">
@@ -6413,37 +6413,37 @@
       <c r="D29" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E29" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="72" t="s">
+      <c r="E29" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="72" t="s">
+      <c r="H29" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K29" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="72" t="s">
+      <c r="K29" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O29" s="72" t="s">
+      <c r="N29" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P29" s="54" t="s">
@@ -6463,37 +6463,37 @@
       <c r="D30" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="E30" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="71" t="s">
+      <c r="E30" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="71" t="s">
+      <c r="H30" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J30" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L30" s="71" t="s">
+      <c r="K30" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L30" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M30" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N30" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O30" s="71" t="s">
+      <c r="N30" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O30" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P30" s="64" t="s">
@@ -6513,37 +6513,37 @@
       <c r="D31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="72" t="s">
+      <c r="E31" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="72" t="s">
+      <c r="H31" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K31" s="72" t="s">
+      <c r="K31" s="71" t="s">
         <v>226</v>
       </c>
-      <c r="L31" s="72" t="s">
+      <c r="L31" s="71" t="s">
         <v>226</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N31" s="72" t="s">
+      <c r="N31" s="71" t="s">
         <v>226</v>
       </c>
-      <c r="O31" s="72" t="s">
+      <c r="O31" s="71" t="s">
         <v>226</v>
       </c>
       <c r="P31" s="54" t="s">
@@ -6563,37 +6563,37 @@
       <c r="D32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="71" t="s">
+      <c r="E32" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G32" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="71" t="s">
+      <c r="H32" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J32" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="K32" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="M32" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="N32" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O32" s="71" t="s">
+      <c r="K32" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P32" s="64" t="s">
@@ -6613,37 +6613,37 @@
       <c r="D33" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="72" t="s">
+      <c r="E33" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="72" t="s">
+      <c r="H33" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L33" s="72" t="s">
+      <c r="K33" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N33" s="72" t="s">
+      <c r="N33" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="O33" s="72" t="s">
+      <c r="O33" s="71" t="s">
         <v>38</v>
       </c>
       <c r="P33" s="54" t="s">
@@ -6663,37 +6663,37 @@
       <c r="D34" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="E34" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" s="71" t="s">
+      <c r="E34" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G34" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="72" t="s">
+      <c r="H34" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="I34" s="72" t="s">
+      <c r="I34" s="71" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K34" s="71" t="s">
+      <c r="K34" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="L34" s="71" t="s">
+      <c r="L34" s="72" t="s">
         <v>225</v>
       </c>
       <c r="M34" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N34" s="71" t="s">
+      <c r="N34" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="O34" s="71" t="s">
+      <c r="O34" s="72" t="s">
         <v>38</v>
       </c>
       <c r="P34" s="64" t="s">
@@ -6713,37 +6713,37 @@
       <c r="D35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="72" t="s">
+      <c r="E35" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I35" s="72" t="s">
+      <c r="H35" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K35" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L35" s="72" t="s">
+      <c r="K35" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L35" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N35" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O35" s="72" t="s">
+      <c r="N35" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O35" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P35" s="54" t="s">
@@ -6763,37 +6763,37 @@
       <c r="D36" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="71" t="s">
+      <c r="E36" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I36" s="71" t="s">
+      <c r="H36" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J36" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K36" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L36" s="71" t="s">
+      <c r="K36" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N36" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O36" s="71" t="s">
+      <c r="N36" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O36" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P36" s="64" t="s">
@@ -6813,37 +6813,37 @@
       <c r="D37" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E37" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="72" t="s">
+      <c r="E37" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="72" t="s">
+      <c r="H37" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="72" t="s">
+      <c r="I37" s="71" t="s">
         <v>25</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K37" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L37" s="72" t="s">
+      <c r="K37" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L37" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N37" s="72" t="s">
+      <c r="N37" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="O37" s="72" t="s">
+      <c r="O37" s="71" t="s">
         <v>38</v>
       </c>
       <c r="P37" s="54" t="s">
@@ -6863,37 +6863,37 @@
       <c r="D38" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="71" t="s">
+      <c r="E38" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="71" t="s">
+      <c r="H38" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K38" s="71" t="s">
+      <c r="K38" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="L38" s="71" t="s">
+      <c r="L38" s="72" t="s">
         <v>227</v>
       </c>
       <c r="M38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N38" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O38" s="71" t="s">
+      <c r="N38" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O38" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P38" s="64" t="s">
@@ -6913,37 +6913,37 @@
       <c r="D39" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="72" t="s">
+      <c r="E39" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I39" s="72" t="s">
+      <c r="H39" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K39" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L39" s="72" t="s">
+      <c r="K39" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N39" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O39" s="72" t="s">
+      <c r="N39" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O39" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P39" s="54" t="s">
@@ -6963,37 +6963,37 @@
       <c r="D40" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F40" s="71" t="s">
+      <c r="E40" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G40" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H40" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="I40" s="71" t="s">
+      <c r="H40" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="72" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K40" s="71" t="s">
+      <c r="K40" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="L40" s="71" t="s">
+      <c r="L40" s="72" t="s">
         <v>30</v>
       </c>
       <c r="M40" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="N40" s="71" t="s">
+      <c r="N40" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="O40" s="71" t="s">
+      <c r="O40" s="72" t="s">
         <v>30</v>
       </c>
       <c r="P40" s="64" t="s">
@@ -7013,37 +7013,37 @@
       <c r="D41" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="F41" s="91" t="s">
+      <c r="E41" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="92" t="s">
         <v>66</v>
       </c>
       <c r="G41" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="91" t="s">
+      <c r="H41" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="92" t="s">
         <v>26</v>
       </c>
       <c r="J41" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="K41" s="91" t="s">
+      <c r="K41" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="L41" s="91" t="s">
+      <c r="L41" s="92" t="s">
         <v>23</v>
       </c>
       <c r="M41" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="N41" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="O41" s="91" t="s">
+      <c r="N41" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="O41" s="92" t="s">
         <v>23</v>
       </c>
       <c r="P41" s="54" t="s">
@@ -7063,37 +7063,37 @@
       <c r="D42" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="E42" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="90" t="s">
+      <c r="E42" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="93" t="s">
         <v>66</v>
       </c>
       <c r="G42" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="I42" s="90" t="s">
+      <c r="H42" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="93" t="s">
         <v>66</v>
       </c>
       <c r="J42" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="K42" s="90" t="s">
+      <c r="K42" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="L42" s="90" t="s">
+      <c r="L42" s="93" t="s">
         <v>38</v>
       </c>
       <c r="M42" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="N42" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="O42" s="90" t="s">
+      <c r="N42" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="O42" s="93" t="s">
         <v>66</v>
       </c>
       <c r="P42" s="65" t="s">
@@ -7113,37 +7113,37 @@
       <c r="D43" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="84" t="s">
+      <c r="E43" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="84" t="s">
+      <c r="F43" s="78" t="s">
         <v>25</v>
       </c>
       <c r="G43" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="I43" s="84" t="s">
+      <c r="H43" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="78" t="s">
         <v>24</v>
       </c>
       <c r="J43" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="K43" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" s="84" t="s">
+      <c r="K43" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="78" t="s">
         <v>24</v>
       </c>
       <c r="M43" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="N43" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="O43" s="84" t="s">
+      <c r="N43" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="O43" s="78" t="s">
         <v>24</v>
       </c>
       <c r="P43" s="66" t="s">
@@ -7163,37 +7163,37 @@
       <c r="D44" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="71" t="s">
+      <c r="E44" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G44" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="71" t="s">
+      <c r="H44" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I44" s="71" t="s">
+      <c r="I44" s="72" t="s">
         <v>25</v>
       </c>
       <c r="J44" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K44" s="71" t="s">
+      <c r="K44" s="72" t="s">
         <v>240</v>
       </c>
-      <c r="L44" s="71" t="s">
+      <c r="L44" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M44" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N44" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O44" s="71" t="s">
+      <c r="N44" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O44" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P44" s="64" t="s">
@@ -7213,37 +7213,37 @@
       <c r="D45" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="72" t="s">
+      <c r="E45" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="71" t="s">
         <v>26</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" s="72" t="s">
+      <c r="H45" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="71" t="s">
         <v>26</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K45" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L45" s="72" t="s">
+      <c r="K45" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L45" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N45" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O45" s="72" t="s">
+      <c r="N45" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O45" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P45" s="54" t="s">
@@ -7263,37 +7263,37 @@
       <c r="D46" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="71" t="s">
+      <c r="E46" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G46" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H46" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I46" s="71" t="s">
+      <c r="H46" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J46" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K46" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L46" s="71" t="s">
+      <c r="K46" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L46" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M46" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N46" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O46" s="71" t="s">
+      <c r="N46" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O46" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P46" s="64" t="s">
@@ -7313,37 +7313,37 @@
       <c r="D47" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F47" s="72" t="s">
+      <c r="E47" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H47" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I47" s="72" t="s">
+      <c r="H47" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="71" t="s">
         <v>26</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K47" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L47" s="72" t="s">
+      <c r="K47" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M47" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N47" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O47" s="72" t="s">
+      <c r="N47" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O47" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P47" s="54" t="s">
@@ -7363,37 +7363,37 @@
       <c r="D48" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="71" t="s">
+      <c r="E48" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G48" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I48" s="71" t="s">
+      <c r="H48" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I48" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J48" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K48" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L48" s="71" t="s">
+      <c r="K48" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M48" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N48" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O48" s="71" t="s">
+      <c r="N48" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O48" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P48" s="64" t="s">
@@ -7413,37 +7413,37 @@
       <c r="D49" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" s="72" t="s">
+      <c r="E49" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H49" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I49" s="72" t="s">
+      <c r="H49" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K49" s="72" t="s">
+      <c r="K49" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="L49" s="72" t="s">
+      <c r="L49" s="71" t="s">
         <v>228</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N49" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O49" s="72" t="s">
+      <c r="N49" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O49" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P49" s="54" t="s">
@@ -7463,37 +7463,37 @@
       <c r="D50" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50" s="71" t="s">
+      <c r="E50" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G50" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I50" s="71" t="s">
+      <c r="H50" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J50" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="71" t="s">
+      <c r="K50" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="L50" s="71" t="s">
+      <c r="L50" s="72" t="s">
         <v>38</v>
       </c>
       <c r="M50" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N50" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O50" s="71" t="s">
+      <c r="N50" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O50" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P50" s="64" t="s">
@@ -7513,37 +7513,37 @@
       <c r="D51" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="72" t="s">
+      <c r="E51" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="71" t="s">
         <v>26</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H51" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I51" s="72" t="s">
+      <c r="H51" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="71" t="s">
         <v>26</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K51" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L51" s="72" t="s">
+      <c r="K51" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M51" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N51" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O51" s="72" t="s">
+      <c r="N51" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O51" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P51" s="54" t="s">
@@ -7563,37 +7563,37 @@
       <c r="D52" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F52" s="71" t="s">
+      <c r="E52" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I52" s="71" t="s">
+      <c r="H52" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J52" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K52" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L52" s="71" t="s">
+      <c r="K52" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N52" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O52" s="71" t="s">
+      <c r="N52" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O52" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P52" s="64" t="s">
@@ -7613,37 +7613,37 @@
       <c r="D53" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" s="89" t="s">
+      <c r="E53" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="94" t="s">
         <v>24</v>
       </c>
       <c r="G53" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H53" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="I53" s="89" t="s">
+      <c r="H53" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="94" t="s">
         <v>24</v>
       </c>
       <c r="J53" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="K53" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="L53" s="89" t="s">
+      <c r="K53" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" s="94" t="s">
         <v>26</v>
       </c>
       <c r="M53" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="N53" s="89" t="s">
+      <c r="N53" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="O53" s="89" t="s">
+      <c r="O53" s="94" t="s">
         <v>38</v>
       </c>
       <c r="P53" s="67" t="s">
@@ -7663,37 +7663,37 @@
       <c r="D54" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" s="71" t="s">
+      <c r="E54" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G54" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="I54" s="71" t="s">
+      <c r="H54" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" s="72" t="s">
         <v>26</v>
       </c>
       <c r="J54" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K54" s="71" t="s">
+      <c r="K54" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="L54" s="71" t="s">
+      <c r="L54" s="72" t="s">
         <v>38</v>
       </c>
       <c r="M54" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N54" s="71" t="s">
+      <c r="N54" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="O54" s="71" t="s">
+      <c r="O54" s="72" t="s">
         <v>38</v>
       </c>
       <c r="P54" s="64" t="s">
@@ -7713,37 +7713,37 @@
       <c r="D55" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F55" s="72" t="s">
+      <c r="E55" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H55" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="I55" s="72" t="s">
+      <c r="H55" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="I55" s="71" t="s">
         <v>25</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K55" s="72" t="s">
+      <c r="K55" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="L55" s="72" t="s">
+      <c r="L55" s="71" t="s">
         <v>30</v>
       </c>
       <c r="M55" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N55" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O55" s="72" t="s">
+      <c r="N55" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O55" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P55" s="54" t="s">
@@ -7763,37 +7763,37 @@
       <c r="D56" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E56" s="71" t="s">
+      <c r="E56" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="F56" s="71" t="s">
+      <c r="F56" s="72" t="s">
         <v>38</v>
       </c>
       <c r="G56" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H56" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I56" s="71" t="s">
+      <c r="H56" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J56" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K56" s="71" t="s">
+      <c r="K56" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="L56" s="71" t="s">
+      <c r="L56" s="72" t="s">
         <v>38</v>
       </c>
       <c r="M56" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N56" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O56" s="71" t="s">
+      <c r="N56" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O56" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P56" s="64" t="s">
@@ -7813,37 +7813,37 @@
       <c r="D57" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F57" s="72" t="s">
+      <c r="E57" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="71" t="s">
         <v>26</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H57" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I57" s="72" t="s">
+      <c r="H57" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" s="71" t="s">
         <v>26</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K57" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L57" s="72" t="s">
+      <c r="K57" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M57" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="N57" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O57" s="72" t="s">
+      <c r="N57" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O57" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P57" s="54" t="s">
@@ -7863,37 +7863,37 @@
       <c r="D58" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E58" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="F58" s="71" t="s">
+      <c r="E58" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" s="72" t="s">
         <v>38</v>
       </c>
       <c r="G58" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H58" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I58" s="71" t="s">
+      <c r="H58" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I58" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J58" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K58" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L58" s="71" t="s">
+      <c r="K58" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M58" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N58" s="71" t="s">
+      <c r="N58" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="O58" s="71" t="s">
+      <c r="O58" s="72" t="s">
         <v>25</v>
       </c>
       <c r="P58" s="64" t="s">
@@ -7913,37 +7913,37 @@
       <c r="D59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="72" t="s">
+      <c r="E59" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="F59" s="72" t="s">
+      <c r="F59" s="71" t="s">
         <v>25</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H59" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I59" s="72" t="s">
+      <c r="H59" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I59" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K59" s="72" t="s">
+      <c r="K59" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="L59" s="72" t="s">
+      <c r="L59" s="71" t="s">
         <v>38</v>
       </c>
       <c r="M59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N59" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O59" s="72" t="s">
+      <c r="N59" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O59" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P59" s="54" t="s">
@@ -7963,37 +7963,37 @@
       <c r="D60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E60" s="71" t="s">
+      <c r="E60" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="F60" s="71" t="s">
+      <c r="F60" s="72" t="s">
         <v>30</v>
       </c>
       <c r="G60" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H60" s="71" t="s">
+      <c r="H60" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="I60" s="71" t="s">
+      <c r="I60" s="72" t="s">
         <v>30</v>
       </c>
       <c r="J60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K60" s="71" t="s">
+      <c r="K60" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="L60" s="71" t="s">
+      <c r="L60" s="72" t="s">
         <v>30</v>
       </c>
       <c r="M60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N60" s="71" t="s">
+      <c r="N60" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="O60" s="71" t="s">
+      <c r="O60" s="72" t="s">
         <v>25</v>
       </c>
       <c r="P60" s="64" t="s">
@@ -8013,37 +8013,37 @@
       <c r="D61" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F61" s="72" t="s">
+      <c r="E61" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H61" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I61" s="72" t="s">
+      <c r="H61" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K61" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L61" s="72" t="s">
+      <c r="K61" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M61" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N61" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="O61" s="72" t="s">
+      <c r="N61" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="O61" s="71" t="s">
         <v>26</v>
       </c>
       <c r="P61" s="54" t="s">
@@ -8063,37 +8063,37 @@
       <c r="D62" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E62" s="71" t="s">
+      <c r="E62" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="71" t="s">
+      <c r="F62" s="72" t="s">
         <v>25</v>
       </c>
       <c r="G62" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H62" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="I62" s="71" t="s">
+      <c r="H62" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" s="72" t="s">
         <v>26</v>
       </c>
       <c r="J62" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K62" s="71" t="s">
+      <c r="K62" s="72" t="s">
         <v>229</v>
       </c>
-      <c r="L62" s="71" t="s">
+      <c r="L62" s="72" t="s">
         <v>229</v>
       </c>
       <c r="M62" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N62" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="O62" s="71" t="s">
+      <c r="N62" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="O62" s="72" t="s">
         <v>26</v>
       </c>
       <c r="P62" s="64" t="s">
@@ -8113,37 +8113,37 @@
       <c r="D63" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E63" s="72" t="s">
+      <c r="E63" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="F63" s="72" t="s">
+      <c r="F63" s="71" t="s">
         <v>38</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H63" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I63" s="72" t="s">
+      <c r="H63" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K63" s="72" t="s">
+      <c r="K63" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="L63" s="72" t="s">
+      <c r="L63" s="71" t="s">
         <v>25</v>
       </c>
       <c r="M63" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N63" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O63" s="72" t="s">
+      <c r="N63" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O63" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P63" s="54" t="s">
@@ -8163,37 +8163,37 @@
       <c r="D64" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E64" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" s="71" t="s">
+      <c r="E64" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G64" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H64" s="71" t="s">
+      <c r="H64" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="I64" s="71" t="s">
+      <c r="I64" s="72" t="s">
         <v>224</v>
       </c>
       <c r="J64" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K64" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L64" s="71" t="s">
+      <c r="K64" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L64" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M64" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N64" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="O64" s="71" t="s">
+      <c r="N64" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="O64" s="72" t="s">
         <v>26</v>
       </c>
       <c r="P64" s="64" t="s">
@@ -8213,37 +8213,37 @@
       <c r="D65" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="72" t="s">
+      <c r="E65" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="F65" s="72" t="s">
+      <c r="F65" s="71" t="s">
         <v>30</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="72" t="s">
+      <c r="H65" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="I65" s="72" t="s">
+      <c r="I65" s="71" t="s">
         <v>30</v>
       </c>
       <c r="J65" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K65" s="72" t="s">
+      <c r="K65" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="L65" s="72" t="s">
+      <c r="L65" s="71" t="s">
         <v>30</v>
       </c>
       <c r="M65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N65" s="72" t="s">
+      <c r="N65" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="O65" s="72" t="s">
+      <c r="O65" s="71" t="s">
         <v>30</v>
       </c>
       <c r="P65" s="54" t="s">
@@ -8261,35 +8261,35 @@
         <v>233</v>
       </c>
       <c r="D66" s="51"/>
-      <c r="E66" s="72" t="s">
+      <c r="E66" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="F66" s="72" t="s">
+      <c r="F66" s="71" t="s">
         <v>30</v>
       </c>
       <c r="G66" s="51"/>
-      <c r="H66" s="72" t="s">
+      <c r="H66" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="I66" s="72" t="s">
+      <c r="I66" s="71" t="s">
         <v>30</v>
       </c>
       <c r="J66" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K66" s="72" t="s">
+      <c r="K66" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="L66" s="72" t="s">
+      <c r="L66" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M66" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N66" s="93" t="s">
+      <c r="N66" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="O66" s="94"/>
+      <c r="O66" s="90"/>
       <c r="P66" s="70" t="s">
         <v>92</v>
       </c>
@@ -8299,17 +8299,17 @@
       <c r="B67" s="12"/>
       <c r="C67" s="30"/>
       <c r="D67" s="7"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71"/>
       <c r="G67" s="7"/>
-      <c r="H67" s="72"/>
-      <c r="I67" s="72"/>
+      <c r="H67" s="71"/>
+      <c r="I67" s="71"/>
       <c r="J67" s="7"/>
-      <c r="K67" s="72"/>
-      <c r="L67" s="72"/>
+      <c r="K67" s="71"/>
+      <c r="L67" s="71"/>
       <c r="M67" s="7"/>
-      <c r="N67" s="72"/>
-      <c r="O67" s="72"/>
+      <c r="N67" s="71"/>
+      <c r="O67" s="71"/>
       <c r="P67" s="54"/>
     </row>
     <row r="68" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -8317,17 +8317,17 @@
       <c r="B68" s="12"/>
       <c r="C68" s="30"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
       <c r="G68" s="7"/>
-      <c r="H68" s="72"/>
-      <c r="I68" s="72"/>
+      <c r="H68" s="71"/>
+      <c r="I68" s="71"/>
       <c r="J68" s="7"/>
-      <c r="K68" s="72"/>
-      <c r="L68" s="72"/>
+      <c r="K68" s="71"/>
+      <c r="L68" s="71"/>
       <c r="M68" s="7"/>
-      <c r="N68" s="72"/>
-      <c r="O68" s="72"/>
+      <c r="N68" s="71"/>
+      <c r="O68" s="71"/>
       <c r="P68" s="54"/>
     </row>
     <row r="69" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.15">
@@ -8387,17 +8387,17 @@
     </row>
     <row r="74" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D74" s="61"/>
-      <c r="E74" s="92"/>
-      <c r="F74" s="92"/>
+      <c r="E74" s="91"/>
+      <c r="F74" s="91"/>
       <c r="G74" s="61"/>
-      <c r="H74" s="92"/>
-      <c r="I74" s="92"/>
+      <c r="H74" s="91"/>
+      <c r="I74" s="91"/>
       <c r="J74" s="61"/>
-      <c r="K74" s="92"/>
-      <c r="L74" s="92"/>
+      <c r="K74" s="91"/>
+      <c r="L74" s="91"/>
       <c r="M74" s="61"/>
-      <c r="N74" s="92"/>
-      <c r="O74" s="92"/>
+      <c r="N74" s="91"/>
+      <c r="O74" s="91"/>
       <c r="P74" s="68"/>
     </row>
     <row r="75" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -8434,17 +8434,17 @@
     </row>
     <row r="79" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D79" s="61"/>
-      <c r="E79" s="92"/>
-      <c r="F79" s="92"/>
+      <c r="E79" s="91"/>
+      <c r="F79" s="91"/>
       <c r="G79" s="61"/>
-      <c r="H79" s="92"/>
-      <c r="I79" s="92"/>
+      <c r="H79" s="91"/>
+      <c r="I79" s="91"/>
       <c r="J79" s="61"/>
-      <c r="K79" s="92"/>
-      <c r="L79" s="92"/>
+      <c r="K79" s="91"/>
+      <c r="L79" s="91"/>
       <c r="M79" s="61"/>
-      <c r="N79" s="92"/>
-      <c r="O79" s="92"/>
+      <c r="N79" s="91"/>
+      <c r="O79" s="91"/>
       <c r="P79" s="68"/>
     </row>
     <row r="80" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -8465,17 +8465,201 @@
     <row r="81" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="230">
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="E74:F74"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="H66:I66"/>
@@ -8500,201 +8684,17 @@
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="H59:I59"/>
     <mergeCell ref="H60:I60"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="N66:O66"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:C6">

--- a/app/xlsx/4月_5月シフト.xlsx
+++ b/app/xlsx/4月_5月シフト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiha\OneDrive\デスクトップ\MyPrograming\MyGo\rolemaster0.5\RoleMaserV0.5\app\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328992E7-FD5C-4BF0-BDBE-6047264FB7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC09CB6-FA10-4A51-B481-70B374879193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PJシフト4月" sheetId="4" r:id="rId1"/>
@@ -1831,10 +1831,52 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1843,64 +1885,22 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2445,11 +2445,11 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="79"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="76" t="s">
         <v>146</v>
       </c>
       <c r="D6" s="8">
@@ -2467,7 +2467,7 @@
       <c r="H6" s="8">
         <v>15</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="79" t="s">
         <v>146</v>
       </c>
       <c r="J6" s="8">
@@ -2490,11 +2490,11 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="80"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2510,7 +2510,7 @@
       <c r="H7" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="I7" s="86"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2531,11 +2531,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="83"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="7">
         <v>68</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>60</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="86"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="7">
         <v>90</v>
       </c>
@@ -2568,11 +2568,11 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="80"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="17">
         <v>14</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="H9" s="17">
         <v>10</v>
       </c>
-      <c r="I9" s="86"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="17">
         <v>18</v>
       </c>
@@ -2607,11 +2607,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="86"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2644,11 +2644,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="80"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="7" t="s">
         <v>94</v>
       </c>
@@ -2664,7 +2664,7 @@
       <c r="H11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="86"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="7" t="s">
         <v>97</v>
       </c>
@@ -2683,11 +2683,11 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="80"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2703,7 +2703,7 @@
       <c r="H12" s="18">
         <v>0.6875</v>
       </c>
-      <c r="I12" s="86"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2724,11 +2724,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2744,7 +2744,7 @@
       <c r="H13" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="I13" s="87"/>
+      <c r="I13" s="81"/>
       <c r="J13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2790,17 +2790,17 @@
       <c r="I14" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="J14" s="88" t="s">
+      <c r="J14" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="88" t="s">
+      <c r="K14" s="82" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="43"/>
-      <c r="M14" s="88" t="s">
+      <c r="M14" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="88" t="s">
+      <c r="N14" s="82" t="s">
         <v>23</v>
       </c>
       <c r="O14" s="44" t="s">
@@ -2833,19 +2833,19 @@
       <c r="I15" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="J15" s="71" t="s">
+      <c r="J15" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="71" t="s">
+      <c r="K15" s="72" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="71" t="s">
+      <c r="M15" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="71" t="s">
+      <c r="N15" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O15" s="26" t="s">
@@ -2878,17 +2878,17 @@
       <c r="I16" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="J16" s="72" t="s">
+      <c r="J16" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="72" t="s">
+      <c r="K16" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="72" t="s">
+      <c r="M16" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="72" t="s">
+      <c r="N16" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="40" t="s">
@@ -2921,17 +2921,17 @@
       <c r="I17" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="J17" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="71" t="s">
+      <c r="J17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="71" t="s">
+      <c r="M17" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N17" s="71" t="s">
+      <c r="N17" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O17" s="26" t="s">
@@ -2964,17 +2964,17 @@
       <c r="I18" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="J18" s="72" t="s">
+      <c r="J18" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="72" t="s">
+      <c r="K18" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="39"/>
-      <c r="M18" s="72" t="s">
+      <c r="M18" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N18" s="72" t="s">
+      <c r="N18" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O18" s="40" t="s">
@@ -3007,17 +3007,17 @@
       <c r="I19" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="J19" s="71" t="s">
+      <c r="J19" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="71" t="s">
+      <c r="K19" s="72" t="s">
         <v>34</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="71" t="s">
+      <c r="M19" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="71" t="s">
+      <c r="N19" s="72" t="s">
         <v>28</v>
       </c>
       <c r="O19" s="26" t="s">
@@ -3050,17 +3050,17 @@
       <c r="I20" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="72" t="s">
+      <c r="J20" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="72" t="s">
+      <c r="K20" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="39"/>
-      <c r="M20" s="72" t="s">
+      <c r="M20" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="72" t="s">
+      <c r="N20" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O20" s="40" t="s">
@@ -3093,17 +3093,17 @@
       <c r="I21" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="71" t="s">
+      <c r="J21" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K21" s="71" t="s">
+      <c r="K21" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="71" t="s">
+      <c r="M21" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="71" t="s">
+      <c r="N21" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="26" t="s">
@@ -3136,17 +3136,17 @@
       <c r="I22" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="J22" s="72" t="s">
+      <c r="J22" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="72" t="s">
+      <c r="K22" s="71" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="39"/>
-      <c r="M22" s="72" t="s">
+      <c r="M22" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N22" s="72" t="s">
+      <c r="N22" s="71" t="s">
         <v>38</v>
       </c>
       <c r="O22" s="40" t="s">
@@ -3179,19 +3179,19 @@
       <c r="I23" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="J23" s="71" t="s">
+      <c r="J23" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="71" t="s">
+      <c r="K23" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M23" s="71" t="s">
+      <c r="M23" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="71" t="s">
+      <c r="N23" s="72" t="s">
         <v>38</v>
       </c>
       <c r="O23" s="26" t="s">
@@ -3224,17 +3224,17 @@
       <c r="I24" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="J24" s="72" t="s">
+      <c r="J24" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K24" s="72" t="s">
+      <c r="K24" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="39"/>
-      <c r="M24" s="72" t="s">
+      <c r="M24" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="72" t="s">
+      <c r="N24" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="40" t="s">
@@ -3267,17 +3267,17 @@
       <c r="I25" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="J25" s="71" t="s">
+      <c r="J25" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K25" s="71" t="s">
+      <c r="K25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="71" t="s">
+      <c r="M25" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N25" s="71" t="s">
+      <c r="N25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="O25" s="26" t="s">
@@ -3310,19 +3310,19 @@
       <c r="I26" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J26" s="72" t="s">
+      <c r="J26" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="72" t="s">
+      <c r="K26" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M26" s="72" t="s">
+      <c r="M26" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="72" t="s">
+      <c r="N26" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O26" s="40" t="s">
@@ -3355,17 +3355,17 @@
       <c r="I27" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J27" s="71" t="s">
+      <c r="J27" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="71" t="s">
+      <c r="K27" s="72" t="s">
         <v>44</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="71" t="s">
+      <c r="M27" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N27" s="71" t="s">
+      <c r="N27" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O27" s="26" t="s">
@@ -3398,19 +3398,19 @@
       <c r="I28" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="J28" s="72" t="s">
+      <c r="J28" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="72" t="s">
+      <c r="K28" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="72" t="s">
+      <c r="M28" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N28" s="72" t="s">
+      <c r="N28" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O28" s="40" t="s">
@@ -3443,17 +3443,17 @@
       <c r="I29" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="J29" s="71" t="s">
+      <c r="J29" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="71" t="s">
+      <c r="K29" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="71" t="s">
+      <c r="M29" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N29" s="71" t="s">
+      <c r="N29" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O29" s="26" t="s">
@@ -3486,17 +3486,17 @@
       <c r="I30" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="J30" s="72" t="s">
+      <c r="J30" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="72" t="s">
+      <c r="K30" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="39"/>
-      <c r="M30" s="72" t="s">
+      <c r="M30" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N30" s="72" t="s">
+      <c r="N30" s="71" t="s">
         <v>26</v>
       </c>
       <c r="O30" s="40" t="s">
@@ -3529,17 +3529,17 @@
       <c r="I31" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="J31" s="71" t="s">
+      <c r="J31" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K31" s="71" t="s">
+      <c r="K31" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="7"/>
-      <c r="M31" s="71" t="s">
+      <c r="M31" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N31" s="71" t="s">
+      <c r="N31" s="72" t="s">
         <v>28</v>
       </c>
       <c r="O31" s="26" t="s">
@@ -3572,17 +3572,17 @@
       <c r="I32" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="J32" s="72" t="s">
+      <c r="J32" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K32" s="72" t="s">
+      <c r="K32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="39"/>
-      <c r="M32" s="72" t="s">
+      <c r="M32" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N32" s="72" t="s">
+      <c r="N32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="40" t="s">
@@ -3615,17 +3615,17 @@
       <c r="I33" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J33" s="71" t="s">
+      <c r="J33" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K33" s="71" t="s">
+      <c r="K33" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="M33" s="71" t="s">
+      <c r="M33" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N33" s="71" t="s">
+      <c r="N33" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O33" s="26" t="s">
@@ -3658,17 +3658,17 @@
       <c r="I34" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="J34" s="72" t="s">
+      <c r="J34" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K34" s="72" t="s">
+      <c r="K34" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="39"/>
-      <c r="M34" s="72" t="s">
+      <c r="M34" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N34" s="72" t="s">
+      <c r="N34" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O34" s="40" t="s">
@@ -3701,17 +3701,17 @@
       <c r="I35" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="J35" s="71" t="s">
+      <c r="J35" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="K35" s="71" t="s">
+      <c r="K35" s="72" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="7"/>
-      <c r="M35" s="71" t="s">
+      <c r="M35" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N35" s="71" t="s">
+      <c r="N35" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O35" s="26" t="s">
@@ -3744,17 +3744,17 @@
       <c r="I36" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J36" s="72" t="s">
+      <c r="J36" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K36" s="72" t="s">
+      <c r="K36" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L36" s="39"/>
-      <c r="M36" s="72" t="s">
+      <c r="M36" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="72" t="s">
+      <c r="N36" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O36" s="40" t="s">
@@ -3787,17 +3787,17 @@
       <c r="I37" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="J37" s="71" t="s">
+      <c r="J37" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K37" s="71" t="s">
+      <c r="K37" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L37" s="7"/>
-      <c r="M37" s="71" t="s">
+      <c r="M37" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="71" t="s">
+      <c r="N37" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O37" s="26" t="s">
@@ -3830,17 +3830,17 @@
       <c r="I38" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="J38" s="72" t="s">
+      <c r="J38" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="72" t="s">
+      <c r="K38" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L38" s="39"/>
-      <c r="M38" s="72" t="s">
+      <c r="M38" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N38" s="72" t="s">
+      <c r="N38" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O38" s="40" t="s">
@@ -3873,17 +3873,17 @@
       <c r="I39" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="J39" s="71" t="s">
+      <c r="J39" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K39" s="71" t="s">
+      <c r="K39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="7"/>
-      <c r="M39" s="71" t="s">
+      <c r="M39" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N39" s="71" t="s">
+      <c r="N39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="26" t="s">
@@ -3916,19 +3916,19 @@
       <c r="I40" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="J40" s="77" t="s">
+      <c r="J40" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="K40" s="77" t="s">
+      <c r="K40" s="83" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="77" t="s">
+      <c r="M40" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="N40" s="77" t="s">
+      <c r="N40" s="83" t="s">
         <v>24</v>
       </c>
       <c r="O40" s="49" t="s">
@@ -3961,17 +3961,17 @@
       <c r="I41" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="J41" s="78" t="s">
+      <c r="J41" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="K41" s="78" t="s">
+      <c r="K41" s="84" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="31"/>
-      <c r="M41" s="78" t="s">
+      <c r="M41" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="N41" s="78" t="s">
+      <c r="N41" s="84" t="s">
         <v>24</v>
       </c>
       <c r="O41" s="32" t="s">
@@ -4004,17 +4004,17 @@
       <c r="I42" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="J42" s="72" t="s">
+      <c r="J42" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K42" s="72" t="s">
+      <c r="K42" s="71" t="s">
         <v>26</v>
       </c>
       <c r="L42" s="39"/>
-      <c r="M42" s="72" t="s">
+      <c r="M42" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N42" s="72" t="s">
+      <c r="N42" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O42" s="40" t="s">
@@ -4047,19 +4047,19 @@
       <c r="I43" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="J43" s="71" t="s">
+      <c r="J43" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K43" s="71" t="s">
+      <c r="K43" s="72" t="s">
         <v>26</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M43" s="71" t="s">
+      <c r="M43" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N43" s="71" t="s">
+      <c r="N43" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O43" s="26" t="s">
@@ -4092,17 +4092,17 @@
       <c r="I44" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="J44" s="72" t="s">
+      <c r="J44" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="K44" s="72" t="s">
+      <c r="K44" s="71" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="39"/>
-      <c r="M44" s="72" t="s">
+      <c r="M44" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N44" s="72" t="s">
+      <c r="N44" s="71" t="s">
         <v>38</v>
       </c>
       <c r="O44" s="40" t="s">
@@ -4135,17 +4135,17 @@
       <c r="I45" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="J45" s="71" t="s">
+      <c r="J45" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K45" s="71" t="s">
+      <c r="K45" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L45" s="7"/>
-      <c r="M45" s="71" t="s">
+      <c r="M45" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N45" s="71" t="s">
+      <c r="N45" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O45" s="26" t="s">
@@ -4178,17 +4178,17 @@
       <c r="I46" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="J46" s="72" t="s">
+      <c r="J46" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K46" s="72" t="s">
+      <c r="K46" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="39"/>
-      <c r="M46" s="72" t="s">
+      <c r="M46" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N46" s="72" t="s">
+      <c r="N46" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O46" s="40" t="s">
@@ -4221,17 +4221,17 @@
       <c r="I47" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="J47" s="71" t="s">
+      <c r="J47" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K47" s="71" t="s">
+      <c r="K47" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L47" s="7"/>
-      <c r="M47" s="71" t="s">
+      <c r="M47" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N47" s="71" t="s">
+      <c r="N47" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O47" s="26" t="s">
@@ -4264,17 +4264,17 @@
       <c r="I48" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="J48" s="72" t="s">
+      <c r="J48" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K48" s="72" t="s">
+      <c r="K48" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L48" s="39"/>
-      <c r="M48" s="72" t="s">
+      <c r="M48" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N48" s="72" t="s">
+      <c r="N48" s="71" t="s">
         <v>66</v>
       </c>
       <c r="O48" s="40" t="s">
@@ -4307,17 +4307,17 @@
       <c r="I49" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="J49" s="71" t="s">
+      <c r="J49" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K49" s="71" t="s">
+      <c r="K49" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="7"/>
-      <c r="M49" s="71" t="s">
+      <c r="M49" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N49" s="71" t="s">
+      <c r="N49" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O49" s="26" t="s">
@@ -4350,17 +4350,17 @@
       <c r="I50" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="J50" s="72" t="s">
+      <c r="J50" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K50" s="72" t="s">
+      <c r="K50" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="39"/>
-      <c r="M50" s="72" t="s">
+      <c r="M50" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N50" s="72" t="s">
+      <c r="N50" s="71" t="s">
         <v>38</v>
       </c>
       <c r="O50" s="40" t="s">
@@ -4393,17 +4393,17 @@
       <c r="I51" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="J51" s="71" t="s">
+      <c r="J51" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="K51" s="71" t="s">
+      <c r="K51" s="72" t="s">
         <v>38</v>
       </c>
       <c r="L51" s="7"/>
-      <c r="M51" s="71" t="s">
+      <c r="M51" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N51" s="71" t="s">
+      <c r="N51" s="72" t="s">
         <v>38</v>
       </c>
       <c r="O51" s="26" t="s">
@@ -4436,19 +4436,19 @@
       <c r="I52" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J52" s="72" t="s">
+      <c r="J52" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="72" t="s">
+      <c r="K52" s="71" t="s">
         <v>71</v>
       </c>
       <c r="L52" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M52" s="72" t="s">
+      <c r="M52" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N52" s="72" t="s">
+      <c r="N52" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O52" s="40" t="s">
@@ -4481,19 +4481,19 @@
       <c r="I53" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J53" s="71" t="s">
+      <c r="J53" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K53" s="71" t="s">
+      <c r="K53" s="72" t="s">
         <v>26</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M53" s="71" t="s">
+      <c r="M53" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N53" s="71" t="s">
+      <c r="N53" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O53" s="26" t="s">
@@ -4526,17 +4526,17 @@
       <c r="I54" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="J54" s="72" t="s">
+      <c r="J54" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="K54" s="72" t="s">
+      <c r="K54" s="71" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="39"/>
-      <c r="M54" s="72" t="s">
+      <c r="M54" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N54" s="72" t="s">
+      <c r="N54" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O54" s="40" t="s">
@@ -4569,17 +4569,17 @@
       <c r="I55" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="J55" s="71" t="s">
+      <c r="J55" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K55" s="71" t="s">
+      <c r="K55" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L55" s="7"/>
-      <c r="M55" s="71" t="s">
+      <c r="M55" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N55" s="71" t="s">
+      <c r="N55" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O55" s="26" t="s">
@@ -4612,17 +4612,17 @@
       <c r="I56" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="J56" s="72" t="s">
+      <c r="J56" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K56" s="72" t="s">
+      <c r="K56" s="71" t="s">
         <v>26</v>
       </c>
       <c r="L56" s="39"/>
-      <c r="M56" s="72" t="s">
+      <c r="M56" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N56" s="72" t="s">
+      <c r="N56" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O56" s="40" t="s">
@@ -4655,19 +4655,19 @@
       <c r="I57" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="J57" s="71" t="s">
+      <c r="J57" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K57" s="71" t="s">
+      <c r="K57" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M57" s="71" t="s">
+      <c r="M57" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N57" s="71" t="s">
+      <c r="N57" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O57" s="26" t="s">
@@ -4700,17 +4700,17 @@
       <c r="I58" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="J58" s="72" t="s">
+      <c r="J58" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="K58" s="72" t="s">
+      <c r="K58" s="71" t="s">
         <v>28</v>
       </c>
       <c r="L58" s="39"/>
-      <c r="M58" s="72" t="s">
+      <c r="M58" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N58" s="72" t="s">
+      <c r="N58" s="71" t="s">
         <v>78</v>
       </c>
       <c r="O58" s="40" t="s">
@@ -4743,17 +4743,17 @@
       <c r="I59" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="J59" s="71" t="s">
+      <c r="J59" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="K59" s="71" t="s">
+      <c r="K59" s="72" t="s">
         <v>38</v>
       </c>
       <c r="L59" s="7"/>
-      <c r="M59" s="71" t="s">
+      <c r="M59" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N59" s="71" t="s">
+      <c r="N59" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O59" s="26" t="s">
@@ -4774,15 +4774,15 @@
       <c r="G60" s="51"/>
       <c r="H60" s="51"/>
       <c r="I60" s="50"/>
-      <c r="J60" s="75" t="s">
+      <c r="J60" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="K60" s="76"/>
+      <c r="K60" s="86"/>
       <c r="L60" s="51"/>
-      <c r="M60" s="72" t="s">
+      <c r="M60" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N60" s="72" t="s">
+      <c r="N60" s="71" t="s">
         <v>66</v>
       </c>
       <c r="O60" s="26" t="s">
@@ -4803,15 +4803,15 @@
       <c r="G61" s="31"/>
       <c r="H61" s="31"/>
       <c r="I61" s="30"/>
-      <c r="J61" s="73" t="s">
+      <c r="J61" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="K61" s="74"/>
+      <c r="K61" s="88"/>
       <c r="L61" s="31"/>
-      <c r="M61" s="71" t="s">
+      <c r="M61" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N61" s="71" t="s">
+      <c r="N61" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O61" s="40" t="s">
@@ -4832,17 +4832,17 @@
       <c r="G62" s="51"/>
       <c r="H62" s="51"/>
       <c r="I62" s="50"/>
-      <c r="J62" s="71" t="s">
+      <c r="J62" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K62" s="71" t="s">
+      <c r="K62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L62" s="51"/>
-      <c r="M62" s="72" t="s">
+      <c r="M62" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N62" s="72" t="s">
+      <c r="N62" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O62" s="26" t="s">
@@ -4863,15 +4863,15 @@
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
       <c r="I63" s="30"/>
-      <c r="J63" s="73" t="s">
+      <c r="J63" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="K63" s="74"/>
+      <c r="K63" s="88"/>
       <c r="L63" s="31"/>
-      <c r="M63" s="72" t="s">
+      <c r="M63" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N63" s="72" t="s">
+      <c r="N63" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O63" s="26" t="s">
@@ -4892,17 +4892,17 @@
       <c r="G64" s="51"/>
       <c r="H64" s="51"/>
       <c r="I64" s="50"/>
-      <c r="J64" s="71" t="s">
+      <c r="J64" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K64" s="71" t="s">
+      <c r="K64" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L64" s="51"/>
-      <c r="M64" s="71" t="s">
+      <c r="M64" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N64" s="71" t="s">
+      <c r="N64" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O64" s="40" t="s">
@@ -4921,17 +4921,17 @@
       <c r="G65" s="31"/>
       <c r="H65" s="31"/>
       <c r="I65" s="30"/>
-      <c r="J65" s="71" t="s">
+      <c r="J65" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="K65" s="71" t="s">
+      <c r="K65" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L65" s="31"/>
-      <c r="M65" s="72" t="s">
+      <c r="M65" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N65" s="72" t="s">
+      <c r="N65" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O65" s="40" t="s">
@@ -4964,17 +4964,17 @@
       <c r="I66" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="J66" s="72" t="s">
+      <c r="J66" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K66" s="72" t="s">
+      <c r="K66" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L66" s="39"/>
-      <c r="M66" s="72" t="s">
+      <c r="M66" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="N66" s="72" t="s">
+      <c r="N66" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O66" s="40" t="s">
@@ -5020,6 +5020,102 @@
     <row r="69" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="J17:K17"/>
@@ -5033,102 +5129,6 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="M63:N63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:F6 I6:N6">
@@ -5183,8 +5183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A1C220-DC63-401D-B66B-975EAA99E44B}">
   <dimension ref="A2:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J6" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26:O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5281,11 +5281,11 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="79"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="76" t="s">
         <v>146</v>
       </c>
       <c r="D6" s="8">
@@ -5329,11 +5329,11 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="80"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="7" t="s">
         <v>152</v>
       </c>
@@ -5375,11 +5375,11 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="83"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="7">
         <v>13</v>
       </c>
@@ -5421,11 +5421,11 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="80"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="7" t="s">
         <v>234</v>
       </c>
@@ -5467,11 +5467,11 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="7">
         <v>6</v>
       </c>
@@ -5513,11 +5513,11 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="80"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="7" t="s">
         <v>155</v>
       </c>
@@ -5559,11 +5559,11 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="80"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="7" t="s">
         <v>156</v>
       </c>
@@ -5605,11 +5605,11 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -5663,37 +5663,37 @@
       <c r="D14" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="88" t="s">
+      <c r="E14" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="F14" s="88" t="s">
+      <c r="F14" s="82" t="s">
         <v>66</v>
       </c>
       <c r="G14" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="88" t="s">
+      <c r="H14" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="82" t="s">
         <v>66</v>
       </c>
       <c r="J14" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="72" t="s">
+      <c r="K14" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M14" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="N14" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14" s="88" t="s">
+      <c r="N14" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="82" t="s">
         <v>66</v>
       </c>
       <c r="P14" s="63" t="s">
@@ -5713,37 +5713,37 @@
       <c r="D15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="71" t="s">
+      <c r="E15" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="71" t="s">
+      <c r="H15" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="71" t="s">
+      <c r="K15" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="L15" s="71" t="s">
+      <c r="L15" s="72" t="s">
         <v>225</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N15" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O15" s="71" t="s">
+      <c r="N15" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P15" s="54" t="s">
@@ -5763,37 +5763,37 @@
       <c r="D16" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="72" t="s">
+      <c r="E16" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="72" t="s">
+      <c r="F16" s="71" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="71" t="s">
+      <c r="H16" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="72" t="s">
+      <c r="K16" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M16" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N16" s="72" t="s">
+      <c r="N16" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="72" t="s">
+      <c r="O16" s="71" t="s">
         <v>38</v>
       </c>
       <c r="P16" s="64" t="s">
@@ -5813,37 +5813,37 @@
       <c r="D17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="71" t="s">
+      <c r="E17" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="71" t="s">
+      <c r="H17" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="71" t="s">
+      <c r="K17" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N17" s="71" t="s">
+      <c r="N17" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="O17" s="71" t="s">
+      <c r="O17" s="72" t="s">
         <v>30</v>
       </c>
       <c r="P17" s="54" t="s">
@@ -5863,37 +5863,37 @@
       <c r="D18" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="72" t="s">
+      <c r="E18" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G18" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="72" t="s">
+      <c r="H18" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" s="72" t="s">
+      <c r="K18" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O18" s="72" t="s">
+      <c r="N18" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P18" s="64" t="s">
@@ -5913,37 +5913,37 @@
       <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="71" t="s">
+      <c r="E19" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="71" t="s">
+      <c r="H19" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="71" t="s">
+      <c r="K19" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N19" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O19" s="71" t="s">
+      <c r="N19" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P19" s="54" t="s">
@@ -5963,37 +5963,37 @@
       <c r="D20" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="72" t="s">
+      <c r="E20" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="72" t="s">
+      <c r="H20" s="71" t="s">
         <v>240</v>
       </c>
-      <c r="I20" s="72" t="s">
+      <c r="I20" s="71" t="s">
         <v>224</v>
       </c>
       <c r="J20" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="72" t="s">
+      <c r="K20" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M20" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N20" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O20" s="72" t="s">
+      <c r="N20" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P20" s="64" t="s">
@@ -6013,37 +6013,37 @@
       <c r="D21" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E21" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="71" t="s">
+      <c r="E21" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="71" t="s">
+      <c r="H21" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="71" t="s">
+      <c r="K21" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="L21" s="71" t="s">
+      <c r="L21" s="72" t="s">
         <v>225</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O21" s="71" t="s">
+      <c r="N21" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P21" s="54" t="s">
@@ -6063,37 +6063,37 @@
       <c r="D22" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E22" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="72" t="s">
+      <c r="E22" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G22" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22" s="72" t="s">
+      <c r="H22" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="71" t="s">
         <v>38</v>
       </c>
       <c r="J22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" s="72" t="s">
+      <c r="K22" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O22" s="72" t="s">
+      <c r="N22" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P22" s="64" t="s">
@@ -6113,37 +6113,37 @@
       <c r="D23" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="E23" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="71" t="s">
+      <c r="E23" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="71" t="s">
+      <c r="H23" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K23" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23" s="72" t="s">
+      <c r="K23" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O23" s="71" t="s">
+      <c r="N23" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O23" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P23" s="54" t="s">
@@ -6163,37 +6163,37 @@
       <c r="D24" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="72" t="s">
+      <c r="E24" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G24" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="72" t="s">
+      <c r="H24" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J24" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K24" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" s="72" t="s">
+      <c r="K24" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M24" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O24" s="72" t="s">
+      <c r="N24" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P24" s="64" t="s">
@@ -6213,37 +6213,37 @@
       <c r="D25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="71" t="s">
+      <c r="E25" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="71" t="s">
+      <c r="F25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="71" t="s">
+      <c r="H25" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="I25" s="71" t="s">
+      <c r="I25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="71" t="s">
+      <c r="K25" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="71" t="s">
+      <c r="L25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N25" s="71" t="s">
+      <c r="N25" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="O25" s="71" t="s">
+      <c r="O25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="P25" s="54" t="s">
@@ -6263,37 +6263,37 @@
       <c r="D26" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E26" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="72" t="s">
+      <c r="E26" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G26" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="72" t="s">
+      <c r="H26" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J26" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K26" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="L26" s="72" t="s">
-        <v>25</v>
+      <c r="K26" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="71" t="s">
+        <v>66</v>
       </c>
       <c r="M26" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="N26" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O26" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="N26" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O26" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P26" s="64" t="s">
@@ -6313,37 +6313,37 @@
       <c r="D27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="71" t="s">
+      <c r="E27" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="71" t="s">
+      <c r="H27" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="71" t="s">
+      <c r="K27" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="71" t="s">
+      <c r="L27" s="72" t="s">
         <v>225</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N27" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O27" s="71" t="s">
+      <c r="N27" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P27" s="54" t="s">
@@ -6363,37 +6363,37 @@
       <c r="D28" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E28" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="72" t="s">
+      <c r="E28" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G28" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" s="72" t="s">
+      <c r="H28" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J28" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="K28" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L28" s="71" t="s">
+      <c r="K28" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M28" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N28" s="72" t="s">
+      <c r="N28" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="O28" s="72" t="s">
+      <c r="O28" s="71" t="s">
         <v>38</v>
       </c>
       <c r="P28" s="64" t="s">
@@ -6413,37 +6413,37 @@
       <c r="D29" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E29" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="71" t="s">
+      <c r="E29" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="71" t="s">
+      <c r="H29" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K29" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="71" t="s">
+      <c r="K29" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O29" s="71" t="s">
+      <c r="N29" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P29" s="54" t="s">
@@ -6463,37 +6463,37 @@
       <c r="D30" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="E30" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="72" t="s">
+      <c r="E30" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="72" t="s">
+      <c r="H30" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J30" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L30" s="72" t="s">
+      <c r="K30" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L30" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M30" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N30" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O30" s="72" t="s">
+      <c r="N30" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O30" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P30" s="64" t="s">
@@ -6513,37 +6513,37 @@
       <c r="D31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="71" t="s">
+      <c r="E31" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="71" t="s">
+      <c r="H31" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K31" s="71" t="s">
+      <c r="K31" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="L31" s="71" t="s">
+      <c r="L31" s="72" t="s">
         <v>226</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N31" s="71" t="s">
+      <c r="N31" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="O31" s="71" t="s">
+      <c r="O31" s="72" t="s">
         <v>226</v>
       </c>
       <c r="P31" s="54" t="s">
@@ -6563,37 +6563,37 @@
       <c r="D32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="72" t="s">
+      <c r="E32" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G32" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="72" t="s">
+      <c r="H32" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J32" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="K32" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" s="72" t="s">
+      <c r="K32" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M32" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N32" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O32" s="72" t="s">
+      <c r="N32" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P32" s="64" t="s">
@@ -6613,37 +6613,37 @@
       <c r="D33" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="71" t="s">
+      <c r="E33" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="71" t="s">
+      <c r="H33" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L33" s="71" t="s">
+      <c r="K33" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N33" s="71" t="s">
+      <c r="N33" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="O33" s="71" t="s">
+      <c r="O33" s="72" t="s">
         <v>38</v>
       </c>
       <c r="P33" s="54" t="s">
@@ -6663,37 +6663,37 @@
       <c r="D34" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="E34" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" s="72" t="s">
+      <c r="E34" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G34" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="71" t="s">
+      <c r="H34" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I34" s="71" t="s">
+      <c r="I34" s="72" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K34" s="72" t="s">
+      <c r="K34" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="L34" s="72" t="s">
+      <c r="L34" s="71" t="s">
         <v>225</v>
       </c>
       <c r="M34" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N34" s="72" t="s">
+      <c r="N34" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="O34" s="72" t="s">
+      <c r="O34" s="71" t="s">
         <v>38</v>
       </c>
       <c r="P34" s="64" t="s">
@@ -6713,37 +6713,37 @@
       <c r="D35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="71" t="s">
+      <c r="E35" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I35" s="71" t="s">
+      <c r="H35" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K35" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L35" s="71" t="s">
+      <c r="K35" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L35" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N35" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O35" s="71" t="s">
+      <c r="N35" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O35" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P35" s="54" t="s">
@@ -6763,37 +6763,37 @@
       <c r="D36" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="72" t="s">
+      <c r="E36" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I36" s="72" t="s">
+      <c r="H36" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J36" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K36" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L36" s="72" t="s">
+      <c r="K36" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N36" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O36" s="72" t="s">
+      <c r="N36" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O36" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P36" s="64" t="s">
@@ -6813,37 +6813,37 @@
       <c r="D37" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E37" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="71" t="s">
+      <c r="E37" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="71" t="s">
+      <c r="H37" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="71" t="s">
+      <c r="I37" s="72" t="s">
         <v>25</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K37" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L37" s="71" t="s">
+      <c r="K37" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L37" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N37" s="71" t="s">
+      <c r="N37" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="O37" s="71" t="s">
+      <c r="O37" s="72" t="s">
         <v>38</v>
       </c>
       <c r="P37" s="54" t="s">
@@ -6863,37 +6863,37 @@
       <c r="D38" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="72" t="s">
+      <c r="E38" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="72" t="s">
+      <c r="H38" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K38" s="72" t="s">
+      <c r="K38" s="71" t="s">
         <v>227</v>
       </c>
-      <c r="L38" s="72" t="s">
+      <c r="L38" s="71" t="s">
         <v>227</v>
       </c>
       <c r="M38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N38" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O38" s="72" t="s">
+      <c r="N38" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O38" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P38" s="64" t="s">
@@ -6913,37 +6913,37 @@
       <c r="D39" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="71" t="s">
+      <c r="E39" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I39" s="71" t="s">
+      <c r="H39" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K39" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L39" s="71" t="s">
+      <c r="K39" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N39" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O39" s="71" t="s">
+      <c r="N39" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P39" s="54" t="s">
@@ -6963,37 +6963,37 @@
       <c r="D40" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F40" s="72" t="s">
+      <c r="E40" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="71" t="s">
         <v>66</v>
       </c>
       <c r="G40" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H40" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I40" s="72" t="s">
+      <c r="H40" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="71" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K40" s="72" t="s">
+      <c r="K40" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="L40" s="72" t="s">
+      <c r="L40" s="71" t="s">
         <v>30</v>
       </c>
       <c r="M40" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="N40" s="72" t="s">
+      <c r="N40" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="O40" s="72" t="s">
+      <c r="O40" s="71" t="s">
         <v>30</v>
       </c>
       <c r="P40" s="64" t="s">
@@ -7013,37 +7013,37 @@
       <c r="D41" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="92" t="s">
-        <v>66</v>
-      </c>
-      <c r="F41" s="92" t="s">
+      <c r="E41" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="91" t="s">
         <v>66</v>
       </c>
       <c r="G41" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="92" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="92" t="s">
+      <c r="H41" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="91" t="s">
         <v>26</v>
       </c>
       <c r="J41" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="K41" s="92" t="s">
+      <c r="K41" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="L41" s="92" t="s">
+      <c r="L41" s="91" t="s">
         <v>23</v>
       </c>
       <c r="M41" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="N41" s="92" t="s">
-        <v>92</v>
-      </c>
-      <c r="O41" s="92" t="s">
+      <c r="N41" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="O41" s="91" t="s">
         <v>23</v>
       </c>
       <c r="P41" s="54" t="s">
@@ -7063,37 +7063,37 @@
       <c r="D42" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="E42" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="93" t="s">
+      <c r="E42" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="90" t="s">
         <v>66</v>
       </c>
       <c r="G42" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="I42" s="93" t="s">
+      <c r="H42" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="90" t="s">
         <v>66</v>
       </c>
       <c r="J42" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="K42" s="93" t="s">
+      <c r="K42" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="L42" s="93" t="s">
+      <c r="L42" s="90" t="s">
         <v>38</v>
       </c>
       <c r="M42" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="N42" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="O42" s="93" t="s">
+      <c r="N42" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="O42" s="90" t="s">
         <v>66</v>
       </c>
       <c r="P42" s="65" t="s">
@@ -7113,37 +7113,37 @@
       <c r="D43" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="78" t="s">
+      <c r="E43" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="78" t="s">
+      <c r="F43" s="84" t="s">
         <v>25</v>
       </c>
       <c r="G43" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="I43" s="78" t="s">
+      <c r="H43" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="84" t="s">
         <v>24</v>
       </c>
       <c r="J43" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="K43" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" s="78" t="s">
+      <c r="K43" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="84" t="s">
         <v>24</v>
       </c>
       <c r="M43" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="N43" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="O43" s="78" t="s">
+      <c r="N43" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="O43" s="84" t="s">
         <v>24</v>
       </c>
       <c r="P43" s="66" t="s">
@@ -7163,37 +7163,37 @@
       <c r="D44" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="72" t="s">
+      <c r="E44" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G44" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="72" t="s">
+      <c r="H44" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="I44" s="72" t="s">
+      <c r="I44" s="71" t="s">
         <v>25</v>
       </c>
       <c r="J44" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K44" s="72" t="s">
+      <c r="K44" s="71" t="s">
         <v>240</v>
       </c>
-      <c r="L44" s="72" t="s">
+      <c r="L44" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M44" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N44" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O44" s="72" t="s">
+      <c r="N44" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O44" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P44" s="64" t="s">
@@ -7213,37 +7213,37 @@
       <c r="D45" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="71" t="s">
+      <c r="E45" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" s="71" t="s">
+      <c r="H45" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="72" t="s">
         <v>26</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K45" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L45" s="71" t="s">
+      <c r="K45" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L45" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N45" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O45" s="71" t="s">
+      <c r="N45" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O45" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P45" s="54" t="s">
@@ -7263,37 +7263,37 @@
       <c r="D46" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="72" t="s">
+      <c r="E46" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G46" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H46" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I46" s="72" t="s">
+      <c r="H46" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J46" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K46" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L46" s="72" t="s">
+      <c r="K46" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L46" s="71" t="s">
         <v>66</v>
       </c>
       <c r="M46" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N46" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O46" s="72" t="s">
+      <c r="N46" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O46" s="71" t="s">
         <v>66</v>
       </c>
       <c r="P46" s="64" t="s">
@@ -7313,37 +7313,37 @@
       <c r="D47" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F47" s="71" t="s">
+      <c r="E47" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H47" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="I47" s="71" t="s">
+      <c r="H47" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="72" t="s">
         <v>26</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K47" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L47" s="71" t="s">
+      <c r="K47" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M47" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N47" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O47" s="71" t="s">
+      <c r="N47" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O47" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P47" s="54" t="s">
@@ -7363,37 +7363,37 @@
       <c r="D48" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="72" t="s">
+      <c r="E48" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="71" t="s">
         <v>26</v>
       </c>
       <c r="G48" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I48" s="72" t="s">
+      <c r="H48" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I48" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J48" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K48" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L48" s="72" t="s">
+      <c r="K48" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M48" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N48" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O48" s="72" t="s">
+      <c r="N48" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O48" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P48" s="64" t="s">
@@ -7413,37 +7413,37 @@
       <c r="D49" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" s="71" t="s">
+      <c r="E49" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="72" t="s">
         <v>24</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H49" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I49" s="71" t="s">
+      <c r="H49" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K49" s="71" t="s">
+      <c r="K49" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="L49" s="71" t="s">
+      <c r="L49" s="72" t="s">
         <v>228</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N49" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O49" s="71" t="s">
+      <c r="N49" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O49" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P49" s="54" t="s">
@@ -7463,37 +7463,37 @@
       <c r="D50" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50" s="72" t="s">
+      <c r="E50" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="71" t="s">
         <v>24</v>
       </c>
       <c r="G50" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I50" s="72" t="s">
+      <c r="H50" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J50" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="72" t="s">
+      <c r="K50" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="L50" s="72" t="s">
+      <c r="L50" s="71" t="s">
         <v>38</v>
       </c>
       <c r="M50" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N50" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O50" s="72" t="s">
+      <c r="N50" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O50" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P50" s="64" t="s">
@@ -7513,37 +7513,37 @@
       <c r="D51" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="71" t="s">
+      <c r="E51" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H51" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="I51" s="71" t="s">
+      <c r="H51" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="72" t="s">
         <v>26</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K51" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L51" s="71" t="s">
+      <c r="K51" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M51" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N51" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O51" s="71" t="s">
+      <c r="N51" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O51" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P51" s="54" t="s">
@@ -7563,37 +7563,37 @@
       <c r="D52" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F52" s="72" t="s">
+      <c r="E52" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="71" t="s">
         <v>26</v>
       </c>
       <c r="G52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I52" s="72" t="s">
+      <c r="H52" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J52" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K52" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L52" s="72" t="s">
+      <c r="K52" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N52" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O52" s="72" t="s">
+      <c r="N52" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O52" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P52" s="64" t="s">
@@ -7613,37 +7613,37 @@
       <c r="D53" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" s="94" t="s">
+      <c r="E53" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="89" t="s">
         <v>24</v>
       </c>
       <c r="G53" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H53" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="I53" s="94" t="s">
+      <c r="H53" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="89" t="s">
         <v>24</v>
       </c>
       <c r="J53" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="K53" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="L53" s="94" t="s">
+      <c r="K53" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" s="89" t="s">
         <v>26</v>
       </c>
       <c r="M53" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="N53" s="94" t="s">
+      <c r="N53" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="O53" s="94" t="s">
+      <c r="O53" s="89" t="s">
         <v>38</v>
       </c>
       <c r="P53" s="67" t="s">
@@ -7663,37 +7663,37 @@
       <c r="D54" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" s="72" t="s">
+      <c r="E54" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="71" t="s">
         <v>26</v>
       </c>
       <c r="G54" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I54" s="72" t="s">
+      <c r="H54" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" s="71" t="s">
         <v>26</v>
       </c>
       <c r="J54" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K54" s="72" t="s">
+      <c r="K54" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="L54" s="72" t="s">
+      <c r="L54" s="71" t="s">
         <v>38</v>
       </c>
       <c r="M54" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N54" s="72" t="s">
+      <c r="N54" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="O54" s="72" t="s">
+      <c r="O54" s="71" t="s">
         <v>38</v>
       </c>
       <c r="P54" s="64" t="s">
@@ -7713,37 +7713,37 @@
       <c r="D55" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F55" s="71" t="s">
+      <c r="E55" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H55" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="I55" s="71" t="s">
+      <c r="H55" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="I55" s="72" t="s">
         <v>25</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K55" s="71" t="s">
+      <c r="K55" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="L55" s="71" t="s">
+      <c r="L55" s="72" t="s">
         <v>30</v>
       </c>
       <c r="M55" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N55" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O55" s="71" t="s">
+      <c r="N55" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O55" s="72" t="s">
         <v>66</v>
       </c>
       <c r="P55" s="54" t="s">
@@ -7763,37 +7763,37 @@
       <c r="D56" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E56" s="72" t="s">
+      <c r="E56" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="F56" s="72" t="s">
+      <c r="F56" s="71" t="s">
         <v>38</v>
       </c>
       <c r="G56" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H56" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I56" s="72" t="s">
+      <c r="H56" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="71" t="s">
         <v>24</v>
       </c>
       <c r="J56" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K56" s="72" t="s">
+      <c r="K56" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="L56" s="72" t="s">
+      <c r="L56" s="71" t="s">
         <v>38</v>
       </c>
       <c r="M56" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N56" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O56" s="72" t="s">
+      <c r="N56" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O56" s="71" t="s">
         <v>24</v>
       </c>
       <c r="P56" s="64" t="s">
@@ -7813,37 +7813,37 @@
       <c r="D57" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F57" s="71" t="s">
+      <c r="E57" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H57" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="I57" s="71" t="s">
+      <c r="H57" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" s="72" t="s">
         <v>26</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K57" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L57" s="71" t="s">
+      <c r="K57" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M57" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="N57" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O57" s="71" t="s">
+      <c r="N57" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O57" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P57" s="54" t="s">
@@ -7863,37 +7863,37 @@
       <c r="D58" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E58" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="F58" s="72" t="s">
+      <c r="E58" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" s="71" t="s">
         <v>38</v>
       </c>
       <c r="G58" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H58" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I58" s="72" t="s">
+      <c r="H58" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I58" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J58" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K58" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L58" s="72" t="s">
+      <c r="K58" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M58" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N58" s="72" t="s">
+      <c r="N58" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="O58" s="72" t="s">
+      <c r="O58" s="71" t="s">
         <v>25</v>
       </c>
       <c r="P58" s="64" t="s">
@@ -7913,37 +7913,37 @@
       <c r="D59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="71" t="s">
+      <c r="E59" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F59" s="71" t="s">
+      <c r="F59" s="72" t="s">
         <v>25</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H59" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I59" s="71" t="s">
+      <c r="H59" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I59" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K59" s="71" t="s">
+      <c r="K59" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="L59" s="71" t="s">
+      <c r="L59" s="72" t="s">
         <v>38</v>
       </c>
       <c r="M59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N59" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O59" s="71" t="s">
+      <c r="N59" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O59" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P59" s="54" t="s">
@@ -7963,37 +7963,37 @@
       <c r="D60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E60" s="72" t="s">
+      <c r="E60" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="F60" s="72" t="s">
+      <c r="F60" s="71" t="s">
         <v>30</v>
       </c>
       <c r="G60" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H60" s="72" t="s">
+      <c r="H60" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="I60" s="72" t="s">
+      <c r="I60" s="71" t="s">
         <v>30</v>
       </c>
       <c r="J60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K60" s="72" t="s">
+      <c r="K60" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="L60" s="72" t="s">
+      <c r="L60" s="71" t="s">
         <v>30</v>
       </c>
       <c r="M60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N60" s="72" t="s">
+      <c r="N60" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="O60" s="72" t="s">
+      <c r="O60" s="71" t="s">
         <v>25</v>
       </c>
       <c r="P60" s="64" t="s">
@@ -8013,37 +8013,37 @@
       <c r="D61" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F61" s="71" t="s">
+      <c r="E61" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H61" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I61" s="71" t="s">
+      <c r="H61" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K61" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L61" s="71" t="s">
+      <c r="K61" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M61" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N61" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="O61" s="71" t="s">
+      <c r="N61" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="O61" s="72" t="s">
         <v>26</v>
       </c>
       <c r="P61" s="54" t="s">
@@ -8063,37 +8063,37 @@
       <c r="D62" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E62" s="72" t="s">
+      <c r="E62" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="72" t="s">
+      <c r="F62" s="71" t="s">
         <v>25</v>
       </c>
       <c r="G62" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H62" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I62" s="72" t="s">
+      <c r="H62" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" s="71" t="s">
         <v>26</v>
       </c>
       <c r="J62" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K62" s="72" t="s">
+      <c r="K62" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="L62" s="72" t="s">
+      <c r="L62" s="71" t="s">
         <v>229</v>
       </c>
       <c r="M62" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N62" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="O62" s="72" t="s">
+      <c r="N62" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="O62" s="71" t="s">
         <v>26</v>
       </c>
       <c r="P62" s="64" t="s">
@@ -8113,37 +8113,37 @@
       <c r="D63" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E63" s="71" t="s">
+      <c r="E63" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="F63" s="71" t="s">
+      <c r="F63" s="72" t="s">
         <v>38</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H63" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I63" s="71" t="s">
+      <c r="H63" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K63" s="71" t="s">
+      <c r="K63" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="L63" s="71" t="s">
+      <c r="L63" s="72" t="s">
         <v>25</v>
       </c>
       <c r="M63" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N63" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O63" s="71" t="s">
+      <c r="N63" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O63" s="72" t="s">
         <v>24</v>
       </c>
       <c r="P63" s="54" t="s">
@@ -8163,37 +8163,37 @@
       <c r="D64" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E64" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" s="72" t="s">
+      <c r="E64" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="71" t="s">
         <v>26</v>
       </c>
       <c r="G64" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H64" s="72" t="s">
+      <c r="H64" s="71" t="s">
         <v>224</v>
       </c>
-      <c r="I64" s="72" t="s">
+      <c r="I64" s="71" t="s">
         <v>224</v>
       </c>
       <c r="J64" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K64" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L64" s="72" t="s">
+      <c r="K64" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L64" s="71" t="s">
         <v>24</v>
       </c>
       <c r="M64" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N64" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="O64" s="72" t="s">
+      <c r="N64" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="O64" s="71" t="s">
         <v>26</v>
       </c>
       <c r="P64" s="64" t="s">
@@ -8213,37 +8213,37 @@
       <c r="D65" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="71" t="s">
+      <c r="E65" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="F65" s="71" t="s">
+      <c r="F65" s="72" t="s">
         <v>30</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="71" t="s">
+      <c r="H65" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="I65" s="71" t="s">
+      <c r="I65" s="72" t="s">
         <v>30</v>
       </c>
       <c r="J65" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K65" s="71" t="s">
+      <c r="K65" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="L65" s="71" t="s">
+      <c r="L65" s="72" t="s">
         <v>30</v>
       </c>
       <c r="M65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N65" s="71" t="s">
+      <c r="N65" s="72" t="s">
         <v>242</v>
       </c>
-      <c r="O65" s="71" t="s">
+      <c r="O65" s="72" t="s">
         <v>30</v>
       </c>
       <c r="P65" s="54" t="s">
@@ -8261,35 +8261,35 @@
         <v>233</v>
       </c>
       <c r="D66" s="51"/>
-      <c r="E66" s="71" t="s">
+      <c r="E66" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="F66" s="71" t="s">
+      <c r="F66" s="72" t="s">
         <v>30</v>
       </c>
       <c r="G66" s="51"/>
-      <c r="H66" s="71" t="s">
+      <c r="H66" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="I66" s="71" t="s">
+      <c r="I66" s="72" t="s">
         <v>30</v>
       </c>
       <c r="J66" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K66" s="71" t="s">
+      <c r="K66" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="L66" s="71" t="s">
+      <c r="L66" s="72" t="s">
         <v>66</v>
       </c>
       <c r="M66" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N66" s="89" t="s">
+      <c r="N66" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="O66" s="90"/>
+      <c r="O66" s="94"/>
       <c r="P66" s="70" t="s">
         <v>92</v>
       </c>
@@ -8299,17 +8299,17 @@
       <c r="B67" s="12"/>
       <c r="C67" s="30"/>
       <c r="D67" s="7"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
       <c r="G67" s="7"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="71"/>
+      <c r="H67" s="72"/>
+      <c r="I67" s="72"/>
       <c r="J67" s="7"/>
-      <c r="K67" s="71"/>
-      <c r="L67" s="71"/>
+      <c r="K67" s="72"/>
+      <c r="L67" s="72"/>
       <c r="M67" s="7"/>
-      <c r="N67" s="71"/>
-      <c r="O67" s="71"/>
+      <c r="N67" s="72"/>
+      <c r="O67" s="72"/>
       <c r="P67" s="54"/>
     </row>
     <row r="68" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -8317,17 +8317,17 @@
       <c r="B68" s="12"/>
       <c r="C68" s="30"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
       <c r="G68" s="7"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="71"/>
+      <c r="H68" s="72"/>
+      <c r="I68" s="72"/>
       <c r="J68" s="7"/>
-      <c r="K68" s="71"/>
-      <c r="L68" s="71"/>
+      <c r="K68" s="72"/>
+      <c r="L68" s="72"/>
       <c r="M68" s="7"/>
-      <c r="N68" s="71"/>
-      <c r="O68" s="71"/>
+      <c r="N68" s="72"/>
+      <c r="O68" s="72"/>
       <c r="P68" s="54"/>
     </row>
     <row r="69" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.15">
@@ -8387,17 +8387,17 @@
     </row>
     <row r="74" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D74" s="61"/>
-      <c r="E74" s="91"/>
-      <c r="F74" s="91"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="92"/>
       <c r="G74" s="61"/>
-      <c r="H74" s="91"/>
-      <c r="I74" s="91"/>
+      <c r="H74" s="92"/>
+      <c r="I74" s="92"/>
       <c r="J74" s="61"/>
-      <c r="K74" s="91"/>
-      <c r="L74" s="91"/>
+      <c r="K74" s="92"/>
+      <c r="L74" s="92"/>
       <c r="M74" s="61"/>
-      <c r="N74" s="91"/>
-      <c r="O74" s="91"/>
+      <c r="N74" s="92"/>
+      <c r="O74" s="92"/>
       <c r="P74" s="68"/>
     </row>
     <row r="75" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -8434,17 +8434,17 @@
     </row>
     <row r="79" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D79" s="61"/>
-      <c r="E79" s="91"/>
-      <c r="F79" s="91"/>
+      <c r="E79" s="92"/>
+      <c r="F79" s="92"/>
       <c r="G79" s="61"/>
-      <c r="H79" s="91"/>
-      <c r="I79" s="91"/>
+      <c r="H79" s="92"/>
+      <c r="I79" s="92"/>
       <c r="J79" s="61"/>
-      <c r="K79" s="91"/>
-      <c r="L79" s="91"/>
+      <c r="K79" s="92"/>
+      <c r="L79" s="92"/>
       <c r="M79" s="61"/>
-      <c r="N79" s="91"/>
-      <c r="O79" s="91"/>
+      <c r="N79" s="92"/>
+      <c r="O79" s="92"/>
       <c r="P79" s="68"/>
     </row>
     <row r="80" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -8465,44 +8465,174 @@
     <row r="81" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="230">
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
     <mergeCell ref="K64:L64"/>
     <mergeCell ref="K65:L65"/>
     <mergeCell ref="N14:O14"/>
@@ -8527,174 +8657,44 @@
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="N31:O31"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N60:O60"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:C6">

--- a/app/xlsx/4月_5月シフト.xlsx
+++ b/app/xlsx/4月_5月シフト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPrograming\MyGo\rolemaster0.5\RoleMaserV0.5\app\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE785BC-6DF3-4646-849C-982ECF2B3406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC685D4-4BB3-4377-A46D-D2C144CAE79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10260" windowHeight="13080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PJシフト4月" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2423" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2422" uniqueCount="284">
   <si>
     <t>ミエルココン</t>
   </si>
@@ -944,10 +944,6 @@
     <rPh sb="0" eb="1">
       <t>シュウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【AM】修 08:30-16:00</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2227,10 +2223,145 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2239,47 +2370,17 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2287,263 +2388,53 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="51">
     <dxf>
       <font>
         <color theme="8"/>
@@ -3141,11 +3032,11 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.65" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="107" t="s">
         <v>146</v>
       </c>
       <c r="D6" s="8">
@@ -3163,7 +3054,7 @@
       <c r="H6" s="8">
         <v>15</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="110" t="s">
         <v>146</v>
       </c>
       <c r="J6" s="8">
@@ -3186,11 +3077,11 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="80"/>
+      <c r="A7" s="105"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="108"/>
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
@@ -3206,7 +3097,7 @@
       <c r="H7" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="I7" s="86"/>
+      <c r="I7" s="111"/>
       <c r="J7" s="7" t="s">
         <v>8</v>
       </c>
@@ -3227,11 +3118,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="80"/>
+      <c r="A8" s="105"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="83"/>
+      <c r="C8" s="108"/>
       <c r="D8" s="7">
         <v>68</v>
       </c>
@@ -3245,7 +3136,7 @@
         <v>60</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="86"/>
+      <c r="I8" s="111"/>
       <c r="J8" s="7">
         <v>90</v>
       </c>
@@ -3264,11 +3155,11 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="108"/>
       <c r="D9" s="17">
         <v>14</v>
       </c>
@@ -3284,7 +3175,7 @@
       <c r="H9" s="17">
         <v>10</v>
       </c>
-      <c r="I9" s="86"/>
+      <c r="I9" s="111"/>
       <c r="J9" s="17">
         <v>18</v>
       </c>
@@ -3303,11 +3194,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="80"/>
+      <c r="A10" s="105"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
@@ -3321,7 +3212,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="86"/>
+      <c r="I10" s="111"/>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
@@ -3340,11 +3231,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="80"/>
+      <c r="A11" s="105"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="7" t="s">
         <v>94</v>
       </c>
@@ -3360,7 +3251,7 @@
       <c r="H11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="86"/>
+      <c r="I11" s="111"/>
       <c r="J11" s="7" t="s">
         <v>97</v>
       </c>
@@ -3379,11 +3270,11 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="80"/>
+      <c r="A12" s="105"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
@@ -3399,7 +3290,7 @@
       <c r="H12" s="18">
         <v>0.6875</v>
       </c>
-      <c r="I12" s="86"/>
+      <c r="I12" s="111"/>
       <c r="J12" s="7" t="s">
         <v>17</v>
       </c>
@@ -3420,11 +3311,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="81"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="109"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -3440,7 +3331,7 @@
       <c r="H13" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="I13" s="87"/>
+      <c r="I13" s="112"/>
       <c r="J13" s="7" t="s">
         <v>21</v>
       </c>
@@ -3486,17 +3377,17 @@
       <c r="I14" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="J14" s="88" t="s">
+      <c r="J14" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="88" t="s">
+      <c r="K14" s="113" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="43"/>
-      <c r="M14" s="88" t="s">
+      <c r="M14" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="88" t="s">
+      <c r="N14" s="113" t="s">
         <v>23</v>
       </c>
       <c r="O14" s="44" t="s">
@@ -3529,19 +3420,19 @@
       <c r="I15" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="J15" s="71" t="s">
+      <c r="J15" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="71" t="s">
+      <c r="K15" s="103" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="71" t="s">
+      <c r="M15" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="71" t="s">
+      <c r="N15" s="103" t="s">
         <v>25</v>
       </c>
       <c r="O15" s="26" t="s">
@@ -3574,17 +3465,17 @@
       <c r="I16" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="J16" s="72" t="s">
+      <c r="J16" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="72" t="s">
+      <c r="K16" s="102" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="72" t="s">
+      <c r="M16" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="72" t="s">
+      <c r="N16" s="102" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="40" t="s">
@@ -3617,17 +3508,17 @@
       <c r="I17" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="J17" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="71" t="s">
+      <c r="J17" s="103" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="71" t="s">
+      <c r="M17" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="N17" s="71" t="s">
+      <c r="N17" s="103" t="s">
         <v>24</v>
       </c>
       <c r="O17" s="26" t="s">
@@ -3660,17 +3551,17 @@
       <c r="I18" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="J18" s="72" t="s">
+      <c r="J18" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="72" t="s">
+      <c r="K18" s="102" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="39"/>
-      <c r="M18" s="72" t="s">
+      <c r="M18" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="N18" s="72" t="s">
+      <c r="N18" s="102" t="s">
         <v>24</v>
       </c>
       <c r="O18" s="40" t="s">
@@ -3703,17 +3594,17 @@
       <c r="I19" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="J19" s="71" t="s">
+      <c r="J19" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="71" t="s">
+      <c r="K19" s="103" t="s">
         <v>34</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="71" t="s">
+      <c r="M19" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="71" t="s">
+      <c r="N19" s="103" t="s">
         <v>28</v>
       </c>
       <c r="O19" s="26" t="s">
@@ -3746,17 +3637,17 @@
       <c r="I20" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="72" t="s">
+      <c r="J20" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="72" t="s">
+      <c r="K20" s="102" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="39"/>
-      <c r="M20" s="72" t="s">
+      <c r="M20" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="72" t="s">
+      <c r="N20" s="102" t="s">
         <v>23</v>
       </c>
       <c r="O20" s="40" t="s">
@@ -3789,17 +3680,17 @@
       <c r="I21" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="71" t="s">
+      <c r="J21" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="K21" s="71" t="s">
+      <c r="K21" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="71" t="s">
+      <c r="M21" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="71" t="s">
+      <c r="N21" s="103" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="26" t="s">
@@ -3832,17 +3723,17 @@
       <c r="I22" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="J22" s="72" t="s">
+      <c r="J22" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="72" t="s">
+      <c r="K22" s="102" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="39"/>
-      <c r="M22" s="72" t="s">
+      <c r="M22" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="N22" s="72" t="s">
+      <c r="N22" s="102" t="s">
         <v>38</v>
       </c>
       <c r="O22" s="40" t="s">
@@ -3875,19 +3766,19 @@
       <c r="I23" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="J23" s="71" t="s">
+      <c r="J23" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="71" t="s">
+      <c r="K23" s="103" t="s">
         <v>23</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M23" s="71" t="s">
+      <c r="M23" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="71" t="s">
+      <c r="N23" s="103" t="s">
         <v>38</v>
       </c>
       <c r="O23" s="26" t="s">
@@ -3920,17 +3811,17 @@
       <c r="I24" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="J24" s="72" t="s">
+      <c r="J24" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="K24" s="72" t="s">
+      <c r="K24" s="102" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="39"/>
-      <c r="M24" s="72" t="s">
+      <c r="M24" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="72" t="s">
+      <c r="N24" s="102" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="40" t="s">
@@ -3963,17 +3854,17 @@
       <c r="I25" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="J25" s="71" t="s">
+      <c r="J25" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="K25" s="71" t="s">
+      <c r="K25" s="103" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="71" t="s">
+      <c r="M25" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="N25" s="71" t="s">
+      <c r="N25" s="103" t="s">
         <v>30</v>
       </c>
       <c r="O25" s="26" t="s">
@@ -4006,19 +3897,19 @@
       <c r="I26" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J26" s="72" t="s">
+      <c r="J26" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="72" t="s">
+      <c r="K26" s="102" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M26" s="72" t="s">
+      <c r="M26" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="72" t="s">
+      <c r="N26" s="102" t="s">
         <v>23</v>
       </c>
       <c r="O26" s="40" t="s">
@@ -4051,17 +3942,17 @@
       <c r="I27" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J27" s="71" t="s">
+      <c r="J27" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="71" t="s">
+      <c r="K27" s="103" t="s">
         <v>44</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="71" t="s">
+      <c r="M27" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="N27" s="71" t="s">
+      <c r="N27" s="103" t="s">
         <v>24</v>
       </c>
       <c r="O27" s="26" t="s">
@@ -4094,19 +3985,19 @@
       <c r="I28" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="J28" s="72" t="s">
+      <c r="J28" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="72" t="s">
+      <c r="K28" s="102" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="72" t="s">
+      <c r="M28" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="N28" s="72" t="s">
+      <c r="N28" s="102" t="s">
         <v>25</v>
       </c>
       <c r="O28" s="40" t="s">
@@ -4139,17 +4030,17 @@
       <c r="I29" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="J29" s="71" t="s">
+      <c r="J29" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="71" t="s">
+      <c r="K29" s="103" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="71" t="s">
+      <c r="M29" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="N29" s="71" t="s">
+      <c r="N29" s="103" t="s">
         <v>23</v>
       </c>
       <c r="O29" s="26" t="s">
@@ -4182,17 +4073,17 @@
       <c r="I30" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="J30" s="72" t="s">
+      <c r="J30" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="72" t="s">
+      <c r="K30" s="102" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="39"/>
-      <c r="M30" s="72" t="s">
+      <c r="M30" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="N30" s="72" t="s">
+      <c r="N30" s="102" t="s">
         <v>26</v>
       </c>
       <c r="O30" s="40" t="s">
@@ -4225,17 +4116,17 @@
       <c r="I31" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="J31" s="71" t="s">
+      <c r="J31" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="K31" s="71" t="s">
+      <c r="K31" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="7"/>
-      <c r="M31" s="71" t="s">
+      <c r="M31" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="N31" s="71" t="s">
+      <c r="N31" s="103" t="s">
         <v>28</v>
       </c>
       <c r="O31" s="26" t="s">
@@ -4268,17 +4159,17 @@
       <c r="I32" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="J32" s="72" t="s">
+      <c r="J32" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="K32" s="72" t="s">
+      <c r="K32" s="102" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="39"/>
-      <c r="M32" s="72" t="s">
+      <c r="M32" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="N32" s="72" t="s">
+      <c r="N32" s="102" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="40" t="s">
@@ -4311,17 +4202,17 @@
       <c r="I33" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J33" s="71" t="s">
+      <c r="J33" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="K33" s="71" t="s">
+      <c r="K33" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="M33" s="71" t="s">
+      <c r="M33" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="N33" s="71" t="s">
+      <c r="N33" s="103" t="s">
         <v>24</v>
       </c>
       <c r="O33" s="26" t="s">
@@ -4354,17 +4245,17 @@
       <c r="I34" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="J34" s="72" t="s">
+      <c r="J34" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="K34" s="72" t="s">
+      <c r="K34" s="102" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="39"/>
-      <c r="M34" s="72" t="s">
+      <c r="M34" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="N34" s="72" t="s">
+      <c r="N34" s="102" t="s">
         <v>24</v>
       </c>
       <c r="O34" s="40" t="s">
@@ -4397,17 +4288,17 @@
       <c r="I35" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="J35" s="71" t="s">
+      <c r="J35" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="K35" s="71" t="s">
+      <c r="K35" s="103" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="7"/>
-      <c r="M35" s="71" t="s">
+      <c r="M35" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="N35" s="71" t="s">
+      <c r="N35" s="103" t="s">
         <v>23</v>
       </c>
       <c r="O35" s="26" t="s">
@@ -4440,17 +4331,17 @@
       <c r="I36" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J36" s="72" t="s">
+      <c r="J36" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="K36" s="72" t="s">
+      <c r="K36" s="102" t="s">
         <v>24</v>
       </c>
       <c r="L36" s="39"/>
-      <c r="M36" s="72" t="s">
+      <c r="M36" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="72" t="s">
+      <c r="N36" s="102" t="s">
         <v>25</v>
       </c>
       <c r="O36" s="40" t="s">
@@ -4483,17 +4374,17 @@
       <c r="I37" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="J37" s="71" t="s">
+      <c r="J37" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="K37" s="71" t="s">
+      <c r="K37" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L37" s="7"/>
-      <c r="M37" s="71" t="s">
+      <c r="M37" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="71" t="s">
+      <c r="N37" s="103" t="s">
         <v>23</v>
       </c>
       <c r="O37" s="26" t="s">
@@ -4526,17 +4417,17 @@
       <c r="I38" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="J38" s="72" t="s">
+      <c r="J38" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="72" t="s">
+      <c r="K38" s="102" t="s">
         <v>23</v>
       </c>
       <c r="L38" s="39"/>
-      <c r="M38" s="72" t="s">
+      <c r="M38" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="N38" s="72" t="s">
+      <c r="N38" s="102" t="s">
         <v>23</v>
       </c>
       <c r="O38" s="40" t="s">
@@ -4569,17 +4460,17 @@
       <c r="I39" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="J39" s="71" t="s">
+      <c r="J39" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="K39" s="71" t="s">
+      <c r="K39" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="7"/>
-      <c r="M39" s="71" t="s">
+      <c r="M39" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="N39" s="71" t="s">
+      <c r="N39" s="103" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="26" t="s">
@@ -4612,19 +4503,19 @@
       <c r="I40" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="J40" s="77" t="s">
+      <c r="J40" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="K40" s="77" t="s">
+      <c r="K40" s="114" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="77" t="s">
+      <c r="M40" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="N40" s="77" t="s">
+      <c r="N40" s="114" t="s">
         <v>24</v>
       </c>
       <c r="O40" s="49" t="s">
@@ -4657,17 +4548,17 @@
       <c r="I41" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="J41" s="78" t="s">
+      <c r="J41" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="K41" s="78" t="s">
+      <c r="K41" s="115" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="31"/>
-      <c r="M41" s="78" t="s">
+      <c r="M41" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="N41" s="78" t="s">
+      <c r="N41" s="115" t="s">
         <v>24</v>
       </c>
       <c r="O41" s="32" t="s">
@@ -4700,17 +4591,17 @@
       <c r="I42" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="J42" s="72" t="s">
+      <c r="J42" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="K42" s="72" t="s">
+      <c r="K42" s="102" t="s">
         <v>26</v>
       </c>
       <c r="L42" s="39"/>
-      <c r="M42" s="72" t="s">
+      <c r="M42" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="N42" s="72" t="s">
+      <c r="N42" s="102" t="s">
         <v>24</v>
       </c>
       <c r="O42" s="40" t="s">
@@ -4743,19 +4634,19 @@
       <c r="I43" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="J43" s="71" t="s">
+      <c r="J43" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="K43" s="71" t="s">
+      <c r="K43" s="103" t="s">
         <v>26</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M43" s="71" t="s">
+      <c r="M43" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="N43" s="71" t="s">
+      <c r="N43" s="103" t="s">
         <v>25</v>
       </c>
       <c r="O43" s="26" t="s">
@@ -4788,17 +4679,17 @@
       <c r="I44" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="J44" s="72" t="s">
+      <c r="J44" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="K44" s="72" t="s">
+      <c r="K44" s="102" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="39"/>
-      <c r="M44" s="72" t="s">
+      <c r="M44" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="N44" s="72" t="s">
+      <c r="N44" s="102" t="s">
         <v>38</v>
       </c>
       <c r="O44" s="40" t="s">
@@ -4831,17 +4722,17 @@
       <c r="I45" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="J45" s="71" t="s">
+      <c r="J45" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="K45" s="71" t="s">
+      <c r="K45" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L45" s="7"/>
-      <c r="M45" s="71" t="s">
+      <c r="M45" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="N45" s="71" t="s">
+      <c r="N45" s="103" t="s">
         <v>24</v>
       </c>
       <c r="O45" s="26" t="s">
@@ -4874,17 +4765,17 @@
       <c r="I46" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="J46" s="72" t="s">
+      <c r="J46" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="K46" s="72" t="s">
+      <c r="K46" s="102" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="39"/>
-      <c r="M46" s="72" t="s">
+      <c r="M46" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="N46" s="72" t="s">
+      <c r="N46" s="102" t="s">
         <v>23</v>
       </c>
       <c r="O46" s="40" t="s">
@@ -4917,17 +4808,17 @@
       <c r="I47" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="J47" s="71" t="s">
+      <c r="J47" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="K47" s="71" t="s">
+      <c r="K47" s="103" t="s">
         <v>23</v>
       </c>
       <c r="L47" s="7"/>
-      <c r="M47" s="71" t="s">
+      <c r="M47" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="N47" s="71" t="s">
+      <c r="N47" s="103" t="s">
         <v>24</v>
       </c>
       <c r="O47" s="26" t="s">
@@ -4960,17 +4851,17 @@
       <c r="I48" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="J48" s="72" t="s">
+      <c r="J48" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="K48" s="72" t="s">
+      <c r="K48" s="102" t="s">
         <v>24</v>
       </c>
       <c r="L48" s="39"/>
-      <c r="M48" s="72" t="s">
+      <c r="M48" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="N48" s="72" t="s">
+      <c r="N48" s="102" t="s">
         <v>66</v>
       </c>
       <c r="O48" s="40" t="s">
@@ -5003,17 +4894,17 @@
       <c r="I49" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="J49" s="71" t="s">
+      <c r="J49" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="K49" s="71" t="s">
+      <c r="K49" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="7"/>
-      <c r="M49" s="71" t="s">
+      <c r="M49" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="N49" s="71" t="s">
+      <c r="N49" s="103" t="s">
         <v>24</v>
       </c>
       <c r="O49" s="26" t="s">
@@ -5046,17 +4937,17 @@
       <c r="I50" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="J50" s="72" t="s">
+      <c r="J50" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="K50" s="72" t="s">
+      <c r="K50" s="102" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="39"/>
-      <c r="M50" s="72" t="s">
+      <c r="M50" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="N50" s="72" t="s">
+      <c r="N50" s="102" t="s">
         <v>38</v>
       </c>
       <c r="O50" s="40" t="s">
@@ -5089,17 +4980,17 @@
       <c r="I51" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="J51" s="71" t="s">
+      <c r="J51" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="K51" s="71" t="s">
+      <c r="K51" s="103" t="s">
         <v>38</v>
       </c>
       <c r="L51" s="7"/>
-      <c r="M51" s="71" t="s">
+      <c r="M51" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="N51" s="71" t="s">
+      <c r="N51" s="103" t="s">
         <v>38</v>
       </c>
       <c r="O51" s="26" t="s">
@@ -5132,19 +5023,19 @@
       <c r="I52" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J52" s="72" t="s">
+      <c r="J52" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="72" t="s">
+      <c r="K52" s="102" t="s">
         <v>71</v>
       </c>
       <c r="L52" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M52" s="72" t="s">
+      <c r="M52" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="N52" s="72" t="s">
+      <c r="N52" s="102" t="s">
         <v>24</v>
       </c>
       <c r="O52" s="40" t="s">
@@ -5177,19 +5068,19 @@
       <c r="I53" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J53" s="71" t="s">
+      <c r="J53" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="K53" s="71" t="s">
+      <c r="K53" s="103" t="s">
         <v>26</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M53" s="71" t="s">
+      <c r="M53" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="N53" s="71" t="s">
+      <c r="N53" s="103" t="s">
         <v>24</v>
       </c>
       <c r="O53" s="26" t="s">
@@ -5222,17 +5113,17 @@
       <c r="I54" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="J54" s="72" t="s">
+      <c r="J54" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="K54" s="72" t="s">
+      <c r="K54" s="102" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="39"/>
-      <c r="M54" s="72" t="s">
+      <c r="M54" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="N54" s="72" t="s">
+      <c r="N54" s="102" t="s">
         <v>25</v>
       </c>
       <c r="O54" s="40" t="s">
@@ -5265,17 +5156,17 @@
       <c r="I55" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="J55" s="71" t="s">
+      <c r="J55" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="K55" s="71" t="s">
+      <c r="K55" s="103" t="s">
         <v>23</v>
       </c>
       <c r="L55" s="7"/>
-      <c r="M55" s="71" t="s">
+      <c r="M55" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="N55" s="71" t="s">
+      <c r="N55" s="103" t="s">
         <v>24</v>
       </c>
       <c r="O55" s="26" t="s">
@@ -5308,17 +5199,17 @@
       <c r="I56" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="J56" s="72" t="s">
+      <c r="J56" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="K56" s="72" t="s">
+      <c r="K56" s="102" t="s">
         <v>26</v>
       </c>
       <c r="L56" s="39"/>
-      <c r="M56" s="72" t="s">
+      <c r="M56" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="N56" s="72" t="s">
+      <c r="N56" s="102" t="s">
         <v>24</v>
       </c>
       <c r="O56" s="40" t="s">
@@ -5351,19 +5242,19 @@
       <c r="I57" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="J57" s="71" t="s">
+      <c r="J57" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="K57" s="71" t="s">
+      <c r="K57" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M57" s="71" t="s">
+      <c r="M57" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="N57" s="71" t="s">
+      <c r="N57" s="103" t="s">
         <v>25</v>
       </c>
       <c r="O57" s="26" t="s">
@@ -5396,17 +5287,17 @@
       <c r="I58" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="J58" s="72" t="s">
+      <c r="J58" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="K58" s="72" t="s">
+      <c r="K58" s="102" t="s">
         <v>28</v>
       </c>
       <c r="L58" s="39"/>
-      <c r="M58" s="72" t="s">
+      <c r="M58" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="N58" s="72" t="s">
+      <c r="N58" s="102" t="s">
         <v>78</v>
       </c>
       <c r="O58" s="40" t="s">
@@ -5439,17 +5330,17 @@
       <c r="I59" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="J59" s="71" t="s">
+      <c r="J59" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="K59" s="71" t="s">
+      <c r="K59" s="103" t="s">
         <v>38</v>
       </c>
       <c r="L59" s="7"/>
-      <c r="M59" s="71" t="s">
+      <c r="M59" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="N59" s="71" t="s">
+      <c r="N59" s="103" t="s">
         <v>25</v>
       </c>
       <c r="O59" s="26" t="s">
@@ -5470,15 +5361,15 @@
       <c r="G60" s="51"/>
       <c r="H60" s="51"/>
       <c r="I60" s="50"/>
-      <c r="J60" s="75" t="s">
+      <c r="J60" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="K60" s="76"/>
+      <c r="K60" s="117"/>
       <c r="L60" s="51"/>
-      <c r="M60" s="72" t="s">
+      <c r="M60" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="N60" s="72" t="s">
+      <c r="N60" s="102" t="s">
         <v>66</v>
       </c>
       <c r="O60" s="26" t="s">
@@ -5499,15 +5390,15 @@
       <c r="G61" s="31"/>
       <c r="H61" s="31"/>
       <c r="I61" s="30"/>
-      <c r="J61" s="73" t="s">
+      <c r="J61" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="K61" s="74"/>
+      <c r="K61" s="119"/>
       <c r="L61" s="31"/>
-      <c r="M61" s="71" t="s">
+      <c r="M61" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="N61" s="71" t="s">
+      <c r="N61" s="103" t="s">
         <v>25</v>
       </c>
       <c r="O61" s="40" t="s">
@@ -5528,17 +5419,17 @@
       <c r="G62" s="51"/>
       <c r="H62" s="51"/>
       <c r="I62" s="50"/>
-      <c r="J62" s="71" t="s">
+      <c r="J62" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="K62" s="71" t="s">
+      <c r="K62" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L62" s="51"/>
-      <c r="M62" s="72" t="s">
+      <c r="M62" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="N62" s="72" t="s">
+      <c r="N62" s="102" t="s">
         <v>24</v>
       </c>
       <c r="O62" s="26" t="s">
@@ -5559,15 +5450,15 @@
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
       <c r="I63" s="30"/>
-      <c r="J63" s="73" t="s">
+      <c r="J63" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="K63" s="74"/>
+      <c r="K63" s="119"/>
       <c r="L63" s="31"/>
-      <c r="M63" s="72" t="s">
+      <c r="M63" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="N63" s="72" t="s">
+      <c r="N63" s="102" t="s">
         <v>24</v>
       </c>
       <c r="O63" s="26" t="s">
@@ -5588,17 +5479,17 @@
       <c r="G64" s="51"/>
       <c r="H64" s="51"/>
       <c r="I64" s="50"/>
-      <c r="J64" s="71" t="s">
+      <c r="J64" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="K64" s="71" t="s">
+      <c r="K64" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L64" s="51"/>
-      <c r="M64" s="71" t="s">
+      <c r="M64" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="N64" s="71" t="s">
+      <c r="N64" s="103" t="s">
         <v>25</v>
       </c>
       <c r="O64" s="40" t="s">
@@ -5617,17 +5508,17 @@
       <c r="G65" s="31"/>
       <c r="H65" s="31"/>
       <c r="I65" s="30"/>
-      <c r="J65" s="71" t="s">
+      <c r="J65" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="K65" s="71" t="s">
+      <c r="K65" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L65" s="31"/>
-      <c r="M65" s="72" t="s">
+      <c r="M65" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="N65" s="72" t="s">
+      <c r="N65" s="102" t="s">
         <v>24</v>
       </c>
       <c r="O65" s="40" t="s">
@@ -5660,17 +5551,17 @@
       <c r="I66" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="J66" s="72" t="s">
+      <c r="J66" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="K66" s="72" t="s">
+      <c r="K66" s="102" t="s">
         <v>24</v>
       </c>
       <c r="L66" s="39"/>
-      <c r="M66" s="72" t="s">
+      <c r="M66" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="N66" s="72" t="s">
+      <c r="N66" s="102" t="s">
         <v>24</v>
       </c>
       <c r="O66" s="40" t="s">
@@ -5716,6 +5607,102 @@
     <row r="69" spans="1:15" ht="14.65" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="J17:K17"/>
@@ -5729,145 +5716,49 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="M63:N63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:F6 I6:N6">
-    <cfRule type="expression" dxfId="71" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="4" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="5" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="6" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 D7:H7 J7:O7">
-    <cfRule type="expression" dxfId="68" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="1" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="2" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="3" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H6">
-    <cfRule type="expression" dxfId="65" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="10" stopIfTrue="1">
       <formula>I$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="11" stopIfTrue="1">
       <formula>I$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="12" stopIfTrue="1">
       <formula>I$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="expression" dxfId="62" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="7" stopIfTrue="1">
       <formula>X$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="8" stopIfTrue="1">
       <formula>X$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="9" stopIfTrue="1">
       <formula>X$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5977,11 +5868,11 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="107" t="s">
         <v>146</v>
       </c>
       <c r="D6" s="8">
@@ -6025,11 +5916,11 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="80"/>
+      <c r="A7" s="105"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="108"/>
       <c r="D7" s="7" t="s">
         <v>152</v>
       </c>
@@ -6071,11 +5962,11 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="80"/>
+      <c r="A8" s="105"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="83"/>
+      <c r="C8" s="108"/>
       <c r="D8" s="7">
         <v>13</v>
       </c>
@@ -6117,11 +6008,11 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="108"/>
       <c r="D9" s="7" t="s">
         <v>234</v>
       </c>
@@ -6163,11 +6054,11 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="80"/>
+      <c r="A10" s="105"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="7">
         <v>6</v>
       </c>
@@ -6209,11 +6100,11 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="80"/>
+      <c r="A11" s="105"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="7" t="s">
         <v>155</v>
       </c>
@@ -6255,11 +6146,11 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="80"/>
+      <c r="A12" s="105"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="7" t="s">
         <v>156</v>
       </c>
@@ -6301,11 +6192,11 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="81"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="109"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -6359,37 +6250,37 @@
       <c r="D14" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="88" t="s">
+      <c r="E14" s="113" t="s">
         <v>243</v>
       </c>
-      <c r="F14" s="88" t="s">
+      <c r="F14" s="113" t="s">
         <v>66</v>
       </c>
       <c r="G14" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="88" t="s">
+      <c r="H14" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="113" t="s">
         <v>66</v>
       </c>
       <c r="J14" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="72" t="s">
+      <c r="K14" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="102" t="s">
         <v>66</v>
       </c>
       <c r="M14" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="N14" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14" s="88" t="s">
+      <c r="N14" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="113" t="s">
         <v>66</v>
       </c>
       <c r="P14" s="63" t="s">
@@ -6409,37 +6300,37 @@
       <c r="D15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="71" t="s">
+      <c r="E15" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="103" t="s">
         <v>66</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="71" t="s">
+      <c r="H15" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="103" t="s">
         <v>66</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="71" t="s">
+      <c r="K15" s="103" t="s">
         <v>225</v>
       </c>
-      <c r="L15" s="71" t="s">
+      <c r="L15" s="103" t="s">
         <v>225</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N15" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O15" s="71" t="s">
+      <c r="N15" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" s="103" t="s">
         <v>66</v>
       </c>
       <c r="P15" s="54" t="s">
@@ -6459,37 +6350,37 @@
       <c r="D16" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="72" t="s">
+      <c r="E16" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="72" t="s">
+      <c r="F16" s="102" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="71" t="s">
+      <c r="H16" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="103" t="s">
         <v>66</v>
       </c>
       <c r="J16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="72" t="s">
+      <c r="K16" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="102" t="s">
         <v>66</v>
       </c>
       <c r="M16" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N16" s="72" t="s">
+      <c r="N16" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="72" t="s">
+      <c r="O16" s="102" t="s">
         <v>38</v>
       </c>
       <c r="P16" s="64" t="s">
@@ -6509,37 +6400,37 @@
       <c r="D17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="71" t="s">
+      <c r="E17" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="103" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="71" t="s">
+      <c r="H17" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="103" t="s">
         <v>24</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="71" t="s">
+      <c r="K17" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="103" t="s">
         <v>24</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N17" s="71" t="s">
+      <c r="N17" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="O17" s="71" t="s">
+      <c r="O17" s="103" t="s">
         <v>30</v>
       </c>
       <c r="P17" s="54" t="s">
@@ -6559,37 +6450,37 @@
       <c r="D18" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="72" t="s">
+      <c r="E18" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="102" t="s">
         <v>66</v>
       </c>
       <c r="G18" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="72" t="s">
+      <c r="H18" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="102" t="s">
         <v>24</v>
       </c>
       <c r="J18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" s="72" t="s">
+      <c r="K18" s="102" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="102" t="s">
         <v>66</v>
       </c>
       <c r="M18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O18" s="72" t="s">
+      <c r="N18" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="102" t="s">
         <v>24</v>
       </c>
       <c r="P18" s="64" t="s">
@@ -6609,37 +6500,37 @@
       <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="71" t="s">
+      <c r="E19" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="103" t="s">
         <v>24</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="71" t="s">
+      <c r="H19" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="103" t="s">
         <v>66</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="71" t="s">
+      <c r="K19" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="103" t="s">
         <v>24</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N19" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O19" s="71" t="s">
+      <c r="N19" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="103" t="s">
         <v>24</v>
       </c>
       <c r="P19" s="54" t="s">
@@ -6659,37 +6550,37 @@
       <c r="D20" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="72" t="s">
+      <c r="E20" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="102" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="72" t="s">
+      <c r="H20" s="102" t="s">
         <v>240</v>
       </c>
-      <c r="I20" s="72" t="s">
+      <c r="I20" s="102" t="s">
         <v>224</v>
       </c>
       <c r="J20" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="72" t="s">
+      <c r="K20" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="102" t="s">
         <v>66</v>
       </c>
       <c r="M20" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N20" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O20" s="72" t="s">
+      <c r="N20" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="102" t="s">
         <v>66</v>
       </c>
       <c r="P20" s="64" t="s">
@@ -6709,37 +6600,37 @@
       <c r="D21" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E21" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="71" t="s">
+      <c r="E21" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="103" t="s">
         <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="71" t="s">
+      <c r="H21" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="103" t="s">
         <v>66</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="71" t="s">
+      <c r="K21" s="103" t="s">
         <v>225</v>
       </c>
-      <c r="L21" s="71" t="s">
+      <c r="L21" s="103" t="s">
         <v>225</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O21" s="71" t="s">
+      <c r="N21" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="103" t="s">
         <v>24</v>
       </c>
       <c r="P21" s="54" t="s">
@@ -6759,37 +6650,37 @@
       <c r="D22" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E22" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="72" t="s">
+      <c r="E22" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="102" t="s">
         <v>66</v>
       </c>
       <c r="G22" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22" s="72" t="s">
+      <c r="H22" s="102" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="102" t="s">
         <v>38</v>
       </c>
       <c r="J22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" s="72" t="s">
+      <c r="K22" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="102" t="s">
         <v>66</v>
       </c>
       <c r="M22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O22" s="72" t="s">
+      <c r="N22" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22" s="102" t="s">
         <v>66</v>
       </c>
       <c r="P22" s="64" t="s">
@@ -6809,37 +6700,37 @@
       <c r="D23" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="E23" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="71" t="s">
+      <c r="E23" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="103" t="s">
         <v>66</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="71" t="s">
+      <c r="H23" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="103" t="s">
         <v>24</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K23" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23" s="72" t="s">
+      <c r="K23" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="102" t="s">
         <v>24</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O23" s="71" t="s">
+      <c r="N23" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="O23" s="103" t="s">
         <v>66</v>
       </c>
       <c r="P23" s="54" t="s">
@@ -6859,37 +6750,37 @@
       <c r="D24" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="72" t="s">
+      <c r="E24" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="102" t="s">
         <v>66</v>
       </c>
       <c r="G24" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="72" t="s">
+      <c r="H24" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="102" t="s">
         <v>24</v>
       </c>
       <c r="J24" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K24" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" s="72" t="s">
+      <c r="K24" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="102" t="s">
         <v>24</v>
       </c>
       <c r="M24" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O24" s="72" t="s">
+      <c r="N24" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="102" t="s">
         <v>24</v>
       </c>
       <c r="P24" s="64" t="s">
@@ -6909,37 +6800,37 @@
       <c r="D25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="71" t="s">
+      <c r="E25" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="71" t="s">
+      <c r="F25" s="103" t="s">
         <v>30</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="71" t="s">
+      <c r="H25" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="I25" s="71" t="s">
+      <c r="I25" s="103" t="s">
         <v>30</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="71" t="s">
+      <c r="K25" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="71" t="s">
+      <c r="L25" s="103" t="s">
         <v>30</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N25" s="71" t="s">
+      <c r="N25" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="O25" s="71" t="s">
+      <c r="O25" s="103" t="s">
         <v>30</v>
       </c>
       <c r="P25" s="54" t="s">
@@ -6959,37 +6850,37 @@
       <c r="D26" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E26" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="72" t="s">
+      <c r="E26" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="102" t="s">
         <v>24</v>
       </c>
       <c r="G26" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="72" t="s">
+      <c r="H26" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="102" t="s">
         <v>24</v>
       </c>
       <c r="J26" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K26" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L26" s="72" t="s">
+      <c r="K26" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="102" t="s">
         <v>66</v>
       </c>
       <c r="M26" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N26" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O26" s="72" t="s">
+      <c r="N26" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="O26" s="102" t="s">
         <v>66</v>
       </c>
       <c r="P26" s="64" t="s">
@@ -7009,37 +6900,37 @@
       <c r="D27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="71" t="s">
+      <c r="E27" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="103" t="s">
         <v>24</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="71" t="s">
+      <c r="H27" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="103" t="s">
         <v>24</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="71" t="s">
+      <c r="K27" s="103" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="71" t="s">
+      <c r="L27" s="103" t="s">
         <v>225</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N27" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O27" s="71" t="s">
+      <c r="N27" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" s="103" t="s">
         <v>24</v>
       </c>
       <c r="P27" s="54" t="s">
@@ -7059,37 +6950,37 @@
       <c r="D28" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E28" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="72" t="s">
+      <c r="E28" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="102" t="s">
         <v>66</v>
       </c>
       <c r="G28" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" s="72" t="s">
+      <c r="H28" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="102" t="s">
         <v>66</v>
       </c>
       <c r="J28" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="K28" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L28" s="71" t="s">
+      <c r="K28" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="103" t="s">
         <v>66</v>
       </c>
       <c r="M28" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N28" s="72" t="s">
+      <c r="N28" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="O28" s="72" t="s">
+      <c r="O28" s="102" t="s">
         <v>38</v>
       </c>
       <c r="P28" s="64" t="s">
@@ -7109,37 +7000,37 @@
       <c r="D29" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E29" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="71" t="s">
+      <c r="E29" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="103" t="s">
         <v>24</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="71" t="s">
+      <c r="H29" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="103" t="s">
         <v>24</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K29" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="71" t="s">
+      <c r="K29" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="103" t="s">
         <v>24</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O29" s="71" t="s">
+      <c r="N29" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" s="103" t="s">
         <v>66</v>
       </c>
       <c r="P29" s="54" t="s">
@@ -7159,37 +7050,37 @@
       <c r="D30" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="E30" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="72" t="s">
+      <c r="E30" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="102" t="s">
         <v>24</v>
       </c>
       <c r="G30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="72" t="s">
+      <c r="H30" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="102" t="s">
         <v>66</v>
       </c>
       <c r="J30" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L30" s="72" t="s">
+      <c r="K30" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="L30" s="102" t="s">
         <v>66</v>
       </c>
       <c r="M30" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N30" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O30" s="72" t="s">
+      <c r="N30" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="O30" s="102" t="s">
         <v>66</v>
       </c>
       <c r="P30" s="64" t="s">
@@ -7209,37 +7100,37 @@
       <c r="D31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="71" t="s">
+      <c r="E31" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="103" t="s">
         <v>24</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="71" t="s">
+      <c r="H31" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="103" t="s">
         <v>24</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K31" s="71" t="s">
+      <c r="K31" s="103" t="s">
         <v>226</v>
       </c>
-      <c r="L31" s="71" t="s">
+      <c r="L31" s="103" t="s">
         <v>226</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N31" s="71" t="s">
+      <c r="N31" s="103" t="s">
         <v>226</v>
       </c>
-      <c r="O31" s="71" t="s">
+      <c r="O31" s="103" t="s">
         <v>226</v>
       </c>
       <c r="P31" s="54" t="s">
@@ -7259,37 +7150,37 @@
       <c r="D32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="72" t="s">
+      <c r="E32" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="102" t="s">
         <v>24</v>
       </c>
       <c r="G32" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="72" t="s">
+      <c r="H32" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="102" t="s">
         <v>24</v>
       </c>
       <c r="J32" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="K32" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" s="72" t="s">
+      <c r="K32" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="102" t="s">
         <v>24</v>
       </c>
       <c r="M32" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N32" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O32" s="72" t="s">
+      <c r="N32" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="102" t="s">
         <v>24</v>
       </c>
       <c r="P32" s="64" t="s">
@@ -7309,37 +7200,37 @@
       <c r="D33" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="71" t="s">
+      <c r="E33" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="103" t="s">
         <v>66</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="71" t="s">
+      <c r="H33" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="103" t="s">
         <v>24</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L33" s="71" t="s">
+      <c r="K33" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="103" t="s">
         <v>24</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N33" s="71" t="s">
+      <c r="N33" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="O33" s="71" t="s">
+      <c r="O33" s="103" t="s">
         <v>38</v>
       </c>
       <c r="P33" s="54" t="s">
@@ -7359,37 +7250,37 @@
       <c r="D34" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="E34" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" s="72" t="s">
+      <c r="E34" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="102" t="s">
         <v>66</v>
       </c>
       <c r="G34" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="71" t="s">
+      <c r="H34" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="I34" s="71" t="s">
+      <c r="I34" s="103" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K34" s="72" t="s">
+      <c r="K34" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="L34" s="72" t="s">
+      <c r="L34" s="102" t="s">
         <v>225</v>
       </c>
       <c r="M34" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N34" s="72" t="s">
+      <c r="N34" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="O34" s="72" t="s">
+      <c r="O34" s="102" t="s">
         <v>38</v>
       </c>
       <c r="P34" s="64" t="s">
@@ -7409,37 +7300,37 @@
       <c r="D35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="71" t="s">
+      <c r="E35" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="103" t="s">
         <v>24</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I35" s="71" t="s">
+      <c r="H35" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="103" t="s">
         <v>66</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K35" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L35" s="71" t="s">
+      <c r="K35" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="L35" s="103" t="s">
         <v>66</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N35" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O35" s="71" t="s">
+      <c r="N35" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="O35" s="103" t="s">
         <v>66</v>
       </c>
       <c r="P35" s="54" t="s">
@@ -7459,37 +7350,37 @@
       <c r="D36" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="72" t="s">
+      <c r="E36" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="102" t="s">
         <v>24</v>
       </c>
       <c r="G36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I36" s="72" t="s">
+      <c r="H36" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36" s="102" t="s">
         <v>66</v>
       </c>
       <c r="J36" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K36" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L36" s="72" t="s">
+      <c r="K36" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="102" t="s">
         <v>24</v>
       </c>
       <c r="M36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N36" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O36" s="72" t="s">
+      <c r="N36" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="O36" s="102" t="s">
         <v>24</v>
       </c>
       <c r="P36" s="64" t="s">
@@ -7509,37 +7400,37 @@
       <c r="D37" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E37" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="71" t="s">
+      <c r="E37" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="103" t="s">
         <v>24</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="71" t="s">
+      <c r="H37" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="71" t="s">
+      <c r="I37" s="103" t="s">
         <v>25</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K37" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L37" s="71" t="s">
+      <c r="K37" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="L37" s="103" t="s">
         <v>66</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N37" s="71" t="s">
+      <c r="N37" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="O37" s="71" t="s">
+      <c r="O37" s="103" t="s">
         <v>38</v>
       </c>
       <c r="P37" s="54" t="s">
@@ -7559,37 +7450,37 @@
       <c r="D38" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="72" t="s">
+      <c r="E38" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="102" t="s">
         <v>24</v>
       </c>
       <c r="G38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="72" t="s">
+      <c r="H38" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="102" t="s">
         <v>24</v>
       </c>
       <c r="J38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K38" s="72" t="s">
+      <c r="K38" s="102" t="s">
         <v>227</v>
       </c>
-      <c r="L38" s="72" t="s">
+      <c r="L38" s="102" t="s">
         <v>227</v>
       </c>
       <c r="M38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N38" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O38" s="72" t="s">
+      <c r="N38" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="O38" s="102" t="s">
         <v>66</v>
       </c>
       <c r="P38" s="64" t="s">
@@ -7609,37 +7500,37 @@
       <c r="D39" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="71" t="s">
+      <c r="E39" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="103" t="s">
         <v>24</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I39" s="71" t="s">
+      <c r="H39" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="103" t="s">
         <v>24</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K39" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L39" s="71" t="s">
+      <c r="K39" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="103" t="s">
         <v>24</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N39" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O39" s="71" t="s">
+      <c r="N39" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="O39" s="103" t="s">
         <v>24</v>
       </c>
       <c r="P39" s="54" t="s">
@@ -7659,37 +7550,37 @@
       <c r="D40" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F40" s="72" t="s">
+      <c r="E40" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="102" t="s">
         <v>66</v>
       </c>
       <c r="G40" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H40" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I40" s="72" t="s">
+      <c r="H40" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="102" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K40" s="72" t="s">
+      <c r="K40" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="L40" s="72" t="s">
+      <c r="L40" s="102" t="s">
         <v>30</v>
       </c>
       <c r="M40" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="N40" s="72" t="s">
+      <c r="N40" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="O40" s="72" t="s">
+      <c r="O40" s="102" t="s">
         <v>30</v>
       </c>
       <c r="P40" s="64" t="s">
@@ -7709,37 +7600,37 @@
       <c r="D41" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="92" t="s">
-        <v>66</v>
-      </c>
-      <c r="F41" s="92" t="s">
+      <c r="E41" s="122" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="122" t="s">
         <v>66</v>
       </c>
       <c r="G41" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="92" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="92" t="s">
+      <c r="H41" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="122" t="s">
         <v>26</v>
       </c>
       <c r="J41" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="K41" s="92" t="s">
+      <c r="K41" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="L41" s="92" t="s">
+      <c r="L41" s="122" t="s">
         <v>23</v>
       </c>
       <c r="M41" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="N41" s="92" t="s">
-        <v>92</v>
-      </c>
-      <c r="O41" s="92" t="s">
+      <c r="N41" s="122" t="s">
+        <v>92</v>
+      </c>
+      <c r="O41" s="122" t="s">
         <v>23</v>
       </c>
       <c r="P41" s="54" t="s">
@@ -7759,37 +7650,37 @@
       <c r="D42" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="E42" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="93" t="s">
+      <c r="E42" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="121" t="s">
         <v>66</v>
       </c>
       <c r="G42" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="I42" s="93" t="s">
+      <c r="H42" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="121" t="s">
         <v>66</v>
       </c>
       <c r="J42" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="K42" s="93" t="s">
+      <c r="K42" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="L42" s="93" t="s">
+      <c r="L42" s="121" t="s">
         <v>38</v>
       </c>
       <c r="M42" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="N42" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="O42" s="93" t="s">
+      <c r="N42" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="O42" s="121" t="s">
         <v>66</v>
       </c>
       <c r="P42" s="65" t="s">
@@ -7809,37 +7700,37 @@
       <c r="D43" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="78" t="s">
+      <c r="E43" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="78" t="s">
+      <c r="F43" s="115" t="s">
         <v>25</v>
       </c>
       <c r="G43" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="I43" s="78" t="s">
+      <c r="H43" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="115" t="s">
         <v>24</v>
       </c>
       <c r="J43" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="K43" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" s="78" t="s">
+      <c r="K43" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="115" t="s">
         <v>24</v>
       </c>
       <c r="M43" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="N43" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="O43" s="78" t="s">
+      <c r="N43" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="O43" s="115" t="s">
         <v>24</v>
       </c>
       <c r="P43" s="66" t="s">
@@ -7859,37 +7750,37 @@
       <c r="D44" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="72" t="s">
+      <c r="E44" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="102" t="s">
         <v>24</v>
       </c>
       <c r="G44" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="72" t="s">
+      <c r="H44" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="I44" s="72" t="s">
+      <c r="I44" s="102" t="s">
         <v>25</v>
       </c>
       <c r="J44" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K44" s="72" t="s">
+      <c r="K44" s="102" t="s">
         <v>240</v>
       </c>
-      <c r="L44" s="72" t="s">
+      <c r="L44" s="102" t="s">
         <v>66</v>
       </c>
       <c r="M44" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N44" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O44" s="72" t="s">
+      <c r="N44" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="O44" s="102" t="s">
         <v>24</v>
       </c>
       <c r="P44" s="64" t="s">
@@ -7909,37 +7800,37 @@
       <c r="D45" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="71" t="s">
+      <c r="E45" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="103" t="s">
         <v>26</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" s="71" t="s">
+      <c r="H45" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="103" t="s">
         <v>26</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K45" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="L45" s="71" t="s">
+      <c r="K45" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="L45" s="103" t="s">
         <v>66</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N45" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O45" s="71" t="s">
+      <c r="N45" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="O45" s="103" t="s">
         <v>66</v>
       </c>
       <c r="P45" s="54" t="s">
@@ -7959,37 +7850,37 @@
       <c r="D46" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="72" t="s">
+      <c r="E46" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="102" t="s">
         <v>24</v>
       </c>
       <c r="G46" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H46" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I46" s="72" t="s">
+      <c r="H46" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="102" t="s">
         <v>24</v>
       </c>
       <c r="J46" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K46" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="L46" s="72" t="s">
+      <c r="K46" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="L46" s="102" t="s">
         <v>66</v>
       </c>
       <c r="M46" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N46" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O46" s="72" t="s">
+      <c r="N46" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="O46" s="102" t="s">
         <v>66</v>
       </c>
       <c r="P46" s="64" t="s">
@@ -8009,37 +7900,37 @@
       <c r="D47" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F47" s="71" t="s">
+      <c r="E47" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="103" t="s">
         <v>66</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H47" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="I47" s="71" t="s">
+      <c r="H47" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="103" t="s">
         <v>26</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K47" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L47" s="71" t="s">
+      <c r="K47" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="103" t="s">
         <v>24</v>
       </c>
       <c r="M47" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N47" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O47" s="71" t="s">
+      <c r="N47" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="O47" s="103" t="s">
         <v>24</v>
       </c>
       <c r="P47" s="54" t="s">
@@ -8059,37 +7950,37 @@
       <c r="D48" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="72" t="s">
+      <c r="E48" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="102" t="s">
         <v>26</v>
       </c>
       <c r="G48" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I48" s="72" t="s">
+      <c r="H48" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="I48" s="102" t="s">
         <v>66</v>
       </c>
       <c r="J48" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K48" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L48" s="72" t="s">
+      <c r="K48" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" s="102" t="s">
         <v>24</v>
       </c>
       <c r="M48" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N48" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O48" s="72" t="s">
+      <c r="N48" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="O48" s="102" t="s">
         <v>24</v>
       </c>
       <c r="P48" s="64" t="s">
@@ -8109,37 +8000,37 @@
       <c r="D49" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" s="71" t="s">
+      <c r="E49" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="103" t="s">
         <v>24</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H49" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I49" s="71" t="s">
+      <c r="H49" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="103" t="s">
         <v>24</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K49" s="71" t="s">
+      <c r="K49" s="103" t="s">
         <v>228</v>
       </c>
-      <c r="L49" s="71" t="s">
+      <c r="L49" s="103" t="s">
         <v>228</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N49" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O49" s="71" t="s">
+      <c r="N49" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="O49" s="103" t="s">
         <v>24</v>
       </c>
       <c r="P49" s="54" t="s">
@@ -8159,37 +8050,37 @@
       <c r="D50" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50" s="72" t="s">
+      <c r="E50" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="102" t="s">
         <v>24</v>
       </c>
       <c r="G50" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I50" s="72" t="s">
+      <c r="H50" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="102" t="s">
         <v>24</v>
       </c>
       <c r="J50" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="72" t="s">
+      <c r="K50" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="L50" s="72" t="s">
+      <c r="L50" s="102" t="s">
         <v>38</v>
       </c>
       <c r="M50" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N50" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O50" s="72" t="s">
+      <c r="N50" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="O50" s="102" t="s">
         <v>24</v>
       </c>
       <c r="P50" s="64" t="s">
@@ -8209,37 +8100,37 @@
       <c r="D51" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="71" t="s">
+      <c r="E51" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="103" t="s">
         <v>26</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H51" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="I51" s="71" t="s">
+      <c r="H51" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="103" t="s">
         <v>26</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K51" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L51" s="71" t="s">
+      <c r="K51" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" s="103" t="s">
         <v>24</v>
       </c>
       <c r="M51" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N51" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O51" s="71" t="s">
+      <c r="N51" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="O51" s="103" t="s">
         <v>24</v>
       </c>
       <c r="P51" s="54" t="s">
@@ -8259,37 +8150,37 @@
       <c r="D52" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F52" s="72" t="s">
+      <c r="E52" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="102" t="s">
         <v>26</v>
       </c>
       <c r="G52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I52" s="72" t="s">
+      <c r="H52" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" s="102" t="s">
         <v>24</v>
       </c>
       <c r="J52" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K52" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L52" s="72" t="s">
+      <c r="K52" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" s="102" t="s">
         <v>24</v>
       </c>
       <c r="M52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N52" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O52" s="72" t="s">
+      <c r="N52" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="O52" s="102" t="s">
         <v>24</v>
       </c>
       <c r="P52" s="64" t="s">
@@ -8309,37 +8200,37 @@
       <c r="D53" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" s="94" t="s">
+      <c r="E53" s="120" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="120" t="s">
         <v>24</v>
       </c>
       <c r="G53" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H53" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="I53" s="94" t="s">
+      <c r="H53" s="120" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="120" t="s">
         <v>24</v>
       </c>
       <c r="J53" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="K53" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="L53" s="94" t="s">
+      <c r="K53" s="120" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" s="120" t="s">
         <v>26</v>
       </c>
       <c r="M53" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="N53" s="94" t="s">
+      <c r="N53" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="O53" s="94" t="s">
+      <c r="O53" s="120" t="s">
         <v>38</v>
       </c>
       <c r="P53" s="67" t="s">
@@ -8359,37 +8250,37 @@
       <c r="D54" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" s="72" t="s">
+      <c r="E54" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="102" t="s">
         <v>26</v>
       </c>
       <c r="G54" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I54" s="72" t="s">
+      <c r="H54" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" s="102" t="s">
         <v>26</v>
       </c>
       <c r="J54" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K54" s="72" t="s">
+      <c r="K54" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="L54" s="72" t="s">
+      <c r="L54" s="102" t="s">
         <v>38</v>
       </c>
       <c r="M54" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N54" s="72" t="s">
+      <c r="N54" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="O54" s="72" t="s">
+      <c r="O54" s="102" t="s">
         <v>38</v>
       </c>
       <c r="P54" s="64" t="s">
@@ -8409,37 +8300,37 @@
       <c r="D55" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F55" s="71" t="s">
+      <c r="E55" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" s="103" t="s">
         <v>66</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H55" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="I55" s="71" t="s">
+      <c r="H55" s="103" t="s">
+        <v>92</v>
+      </c>
+      <c r="I55" s="103" t="s">
         <v>25</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K55" s="71" t="s">
+      <c r="K55" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="L55" s="71" t="s">
+      <c r="L55" s="103" t="s">
         <v>30</v>
       </c>
       <c r="M55" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N55" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="O55" s="71" t="s">
+      <c r="N55" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="O55" s="103" t="s">
         <v>66</v>
       </c>
       <c r="P55" s="54" t="s">
@@ -8459,37 +8350,37 @@
       <c r="D56" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E56" s="72" t="s">
+      <c r="E56" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="F56" s="72" t="s">
+      <c r="F56" s="102" t="s">
         <v>38</v>
       </c>
       <c r="G56" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H56" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I56" s="72" t="s">
+      <c r="H56" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="102" t="s">
         <v>24</v>
       </c>
       <c r="J56" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K56" s="72" t="s">
+      <c r="K56" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="L56" s="72" t="s">
+      <c r="L56" s="102" t="s">
         <v>38</v>
       </c>
       <c r="M56" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N56" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O56" s="72" t="s">
+      <c r="N56" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="O56" s="102" t="s">
         <v>24</v>
       </c>
       <c r="P56" s="64" t="s">
@@ -8509,37 +8400,37 @@
       <c r="D57" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F57" s="71" t="s">
+      <c r="E57" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="103" t="s">
         <v>26</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H57" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="I57" s="71" t="s">
+      <c r="H57" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" s="103" t="s">
         <v>26</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K57" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L57" s="71" t="s">
+      <c r="K57" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" s="103" t="s">
         <v>24</v>
       </c>
       <c r="M57" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="N57" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O57" s="71" t="s">
+      <c r="N57" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="O57" s="103" t="s">
         <v>24</v>
       </c>
       <c r="P57" s="54" t="s">
@@ -8559,37 +8450,37 @@
       <c r="D58" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E58" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="F58" s="72" t="s">
+      <c r="E58" s="102" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" s="102" t="s">
         <v>38</v>
       </c>
       <c r="G58" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H58" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I58" s="72" t="s">
+      <c r="H58" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="I58" s="102" t="s">
         <v>66</v>
       </c>
       <c r="J58" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K58" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L58" s="72" t="s">
+      <c r="K58" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" s="102" t="s">
         <v>24</v>
       </c>
       <c r="M58" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N58" s="72" t="s">
+      <c r="N58" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="O58" s="72" t="s">
+      <c r="O58" s="102" t="s">
         <v>25</v>
       </c>
       <c r="P58" s="64" t="s">
@@ -8609,37 +8500,37 @@
       <c r="D59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="71" t="s">
+      <c r="E59" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="F59" s="71" t="s">
+      <c r="F59" s="103" t="s">
         <v>25</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H59" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I59" s="71" t="s">
+      <c r="H59" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="I59" s="103" t="s">
         <v>66</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K59" s="71" t="s">
+      <c r="K59" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="L59" s="71" t="s">
+      <c r="L59" s="103" t="s">
         <v>38</v>
       </c>
       <c r="M59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N59" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O59" s="71" t="s">
+      <c r="N59" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="O59" s="103" t="s">
         <v>24</v>
       </c>
       <c r="P59" s="54" t="s">
@@ -8659,37 +8550,37 @@
       <c r="D60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E60" s="72" t="s">
+      <c r="E60" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="F60" s="72" t="s">
+      <c r="F60" s="102" t="s">
         <v>30</v>
       </c>
       <c r="G60" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H60" s="72" t="s">
+      <c r="H60" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="I60" s="72" t="s">
+      <c r="I60" s="102" t="s">
         <v>30</v>
       </c>
       <c r="J60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K60" s="72" t="s">
+      <c r="K60" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="L60" s="72" t="s">
+      <c r="L60" s="102" t="s">
         <v>30</v>
       </c>
       <c r="M60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N60" s="72" t="s">
+      <c r="N60" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="O60" s="72" t="s">
+      <c r="O60" s="102" t="s">
         <v>25</v>
       </c>
       <c r="P60" s="64" t="s">
@@ -8709,37 +8600,37 @@
       <c r="D61" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F61" s="71" t="s">
+      <c r="E61" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="103" t="s">
         <v>66</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H61" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I61" s="71" t="s">
+      <c r="H61" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" s="103" t="s">
         <v>24</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K61" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L61" s="71" t="s">
+      <c r="K61" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" s="103" t="s">
         <v>24</v>
       </c>
       <c r="M61" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N61" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="O61" s="71" t="s">
+      <c r="N61" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="O61" s="103" t="s">
         <v>26</v>
       </c>
       <c r="P61" s="54" t="s">
@@ -8759,37 +8650,37 @@
       <c r="D62" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E62" s="72" t="s">
+      <c r="E62" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="72" t="s">
+      <c r="F62" s="102" t="s">
         <v>25</v>
       </c>
       <c r="G62" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H62" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I62" s="72" t="s">
+      <c r="H62" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" s="102" t="s">
         <v>26</v>
       </c>
       <c r="J62" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K62" s="72" t="s">
+      <c r="K62" s="102" t="s">
         <v>229</v>
       </c>
-      <c r="L62" s="72" t="s">
+      <c r="L62" s="102" t="s">
         <v>229</v>
       </c>
       <c r="M62" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N62" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="O62" s="72" t="s">
+      <c r="N62" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="O62" s="102" t="s">
         <v>26</v>
       </c>
       <c r="P62" s="64" t="s">
@@ -8809,37 +8700,37 @@
       <c r="D63" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E63" s="71" t="s">
+      <c r="E63" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="F63" s="71" t="s">
+      <c r="F63" s="103" t="s">
         <v>38</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H63" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I63" s="71" t="s">
+      <c r="H63" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="103" t="s">
         <v>24</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K63" s="71" t="s">
+      <c r="K63" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="L63" s="71" t="s">
+      <c r="L63" s="103" t="s">
         <v>25</v>
       </c>
       <c r="M63" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N63" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O63" s="71" t="s">
+      <c r="N63" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="O63" s="103" t="s">
         <v>24</v>
       </c>
       <c r="P63" s="54" t="s">
@@ -8859,37 +8750,37 @@
       <c r="D64" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E64" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" s="72" t="s">
+      <c r="E64" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="102" t="s">
         <v>26</v>
       </c>
       <c r="G64" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H64" s="72" t="s">
+      <c r="H64" s="102" t="s">
         <v>224</v>
       </c>
-      <c r="I64" s="72" t="s">
+      <c r="I64" s="102" t="s">
         <v>224</v>
       </c>
       <c r="J64" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K64" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L64" s="72" t="s">
+      <c r="K64" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="L64" s="102" t="s">
         <v>24</v>
       </c>
       <c r="M64" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N64" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="O64" s="72" t="s">
+      <c r="N64" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="O64" s="102" t="s">
         <v>26</v>
       </c>
       <c r="P64" s="64" t="s">
@@ -8909,37 +8800,37 @@
       <c r="D65" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="71" t="s">
+      <c r="E65" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="F65" s="71" t="s">
+      <c r="F65" s="103" t="s">
         <v>30</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="71" t="s">
+      <c r="H65" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="I65" s="71" t="s">
+      <c r="I65" s="103" t="s">
         <v>30</v>
       </c>
       <c r="J65" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K65" s="71" t="s">
+      <c r="K65" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="L65" s="71" t="s">
+      <c r="L65" s="103" t="s">
         <v>30</v>
       </c>
       <c r="M65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N65" s="71" t="s">
+      <c r="N65" s="103" t="s">
         <v>242</v>
       </c>
-      <c r="O65" s="71" t="s">
+      <c r="O65" s="103" t="s">
         <v>30</v>
       </c>
       <c r="P65" s="54" t="s">
@@ -8957,35 +8848,35 @@
         <v>233</v>
       </c>
       <c r="D66" s="51"/>
-      <c r="E66" s="71" t="s">
+      <c r="E66" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="F66" s="71" t="s">
+      <c r="F66" s="103" t="s">
         <v>30</v>
       </c>
       <c r="G66" s="51"/>
-      <c r="H66" s="71" t="s">
+      <c r="H66" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="I66" s="71" t="s">
+      <c r="I66" s="103" t="s">
         <v>30</v>
       </c>
       <c r="J66" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K66" s="71" t="s">
+      <c r="K66" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="L66" s="71" t="s">
+      <c r="L66" s="103" t="s">
         <v>66</v>
       </c>
       <c r="M66" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N66" s="89" t="s">
+      <c r="N66" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="O66" s="90"/>
+      <c r="O66" s="125"/>
       <c r="P66" s="70" t="s">
         <v>92</v>
       </c>
@@ -8995,17 +8886,17 @@
       <c r="B67" s="12"/>
       <c r="C67" s="30"/>
       <c r="D67" s="7"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71"/>
+      <c r="E67" s="103"/>
+      <c r="F67" s="103"/>
       <c r="G67" s="7"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="71"/>
+      <c r="H67" s="103"/>
+      <c r="I67" s="103"/>
       <c r="J67" s="7"/>
-      <c r="K67" s="71"/>
-      <c r="L67" s="71"/>
+      <c r="K67" s="103"/>
+      <c r="L67" s="103"/>
       <c r="M67" s="7"/>
-      <c r="N67" s="71"/>
-      <c r="O67" s="71"/>
+      <c r="N67" s="103"/>
+      <c r="O67" s="103"/>
       <c r="P67" s="54"/>
     </row>
     <row r="68" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.35">
@@ -9013,17 +8904,17 @@
       <c r="B68" s="12"/>
       <c r="C68" s="30"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
+      <c r="E68" s="103"/>
+      <c r="F68" s="103"/>
       <c r="G68" s="7"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="71"/>
+      <c r="H68" s="103"/>
+      <c r="I68" s="103"/>
       <c r="J68" s="7"/>
-      <c r="K68" s="71"/>
-      <c r="L68" s="71"/>
+      <c r="K68" s="103"/>
+      <c r="L68" s="103"/>
       <c r="M68" s="7"/>
-      <c r="N68" s="71"/>
-      <c r="O68" s="71"/>
+      <c r="N68" s="103"/>
+      <c r="O68" s="103"/>
       <c r="P68" s="54"/>
     </row>
     <row r="69" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.3">
@@ -9083,17 +8974,17 @@
     </row>
     <row r="74" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D74" s="61"/>
-      <c r="E74" s="91"/>
-      <c r="F74" s="91"/>
+      <c r="E74" s="123"/>
+      <c r="F74" s="123"/>
       <c r="G74" s="61"/>
-      <c r="H74" s="91"/>
-      <c r="I74" s="91"/>
+      <c r="H74" s="123"/>
+      <c r="I74" s="123"/>
       <c r="J74" s="61"/>
-      <c r="K74" s="91"/>
-      <c r="L74" s="91"/>
+      <c r="K74" s="123"/>
+      <c r="L74" s="123"/>
       <c r="M74" s="61"/>
-      <c r="N74" s="91"/>
-      <c r="O74" s="91"/>
+      <c r="N74" s="123"/>
+      <c r="O74" s="123"/>
       <c r="P74" s="68"/>
     </row>
     <row r="75" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9130,17 +9021,17 @@
     </row>
     <row r="79" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D79" s="61"/>
-      <c r="E79" s="91"/>
-      <c r="F79" s="91"/>
+      <c r="E79" s="123"/>
+      <c r="F79" s="123"/>
       <c r="G79" s="61"/>
-      <c r="H79" s="91"/>
-      <c r="I79" s="91"/>
+      <c r="H79" s="123"/>
+      <c r="I79" s="123"/>
       <c r="J79" s="61"/>
-      <c r="K79" s="91"/>
-      <c r="L79" s="91"/>
+      <c r="K79" s="123"/>
+      <c r="L79" s="123"/>
       <c r="M79" s="61"/>
-      <c r="N79" s="91"/>
-      <c r="O79" s="91"/>
+      <c r="N79" s="123"/>
+      <c r="O79" s="123"/>
       <c r="P79" s="68"/>
     </row>
     <row r="80" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9161,44 +9052,174 @@
     <row r="81" ht="14.65" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="230">
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
     <mergeCell ref="K64:L64"/>
     <mergeCell ref="K65:L65"/>
     <mergeCell ref="N14:O14"/>
@@ -9223,272 +9244,142 @@
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="N31:O31"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N60:O60"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:C6">
-    <cfRule type="expression" dxfId="59" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="49" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="50" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="51" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="56" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="46" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="47" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="48" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="expression" dxfId="53" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="28" stopIfTrue="1">
       <formula>D$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
       <formula>D$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="30" stopIfTrue="1">
       <formula>D$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:F7">
-    <cfRule type="expression" dxfId="50" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="19" stopIfTrue="1">
       <formula>E$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="20" stopIfTrue="1">
       <formula>E$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="21" stopIfTrue="1">
       <formula>E$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="expression" dxfId="47" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="16" stopIfTrue="1">
       <formula>G$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="17" stopIfTrue="1">
       <formula>G$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="18" stopIfTrue="1">
       <formula>G$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:I7">
-    <cfRule type="expression" dxfId="44" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="10" stopIfTrue="1">
       <formula>H$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="11" stopIfTrue="1">
       <formula>H$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="12" stopIfTrue="1">
       <formula>H$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J7">
-    <cfRule type="expression" dxfId="41" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="7" stopIfTrue="1">
       <formula>J$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="8" stopIfTrue="1">
       <formula>J$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="9" stopIfTrue="1">
       <formula>J$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L7">
-    <cfRule type="expression" dxfId="38" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
       <formula>K$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
       <formula>K$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
       <formula>K$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:P7">
-    <cfRule type="expression" dxfId="35" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="1" stopIfTrue="1">
       <formula>M$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="2" stopIfTrue="1">
       <formula>M$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
       <formula>M$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9500,8 +9391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE493FF-0AF8-4B65-A512-6D8199FFE52D}">
   <dimension ref="A2:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:P8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -9598,11 +9489,11 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="14.65" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="107" t="s">
         <v>146</v>
       </c>
       <c r="D6" s="8">
@@ -9629,7 +9520,7 @@
       <c r="K6" s="8">
         <v>10</v>
       </c>
-      <c r="L6" s="131" t="s">
+      <c r="L6" s="99" t="s">
         <v>6</v>
       </c>
       <c r="M6" s="8">
@@ -9646,11 +9537,11 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="80"/>
+      <c r="A7" s="105"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="108"/>
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
@@ -9664,10 +9555,10 @@
         <v>9</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>8</v>
@@ -9675,14 +9566,14 @@
       <c r="K7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="103" t="s">
+      <c r="L7" s="76" t="s">
         <v>7</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>8</v>
@@ -9692,55 +9583,55 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="80"/>
+      <c r="A8" s="105"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="132">
+      <c r="C8" s="108"/>
+      <c r="D8" s="100">
         <v>38</v>
       </c>
-      <c r="E8" s="132">
+      <c r="E8" s="100">
         <v>61</v>
       </c>
-      <c r="F8" s="132">
+      <c r="F8" s="100">
         <v>37</v>
       </c>
-      <c r="G8" s="132"/>
-      <c r="H8" s="133" t="s">
+      <c r="G8" s="100"/>
+      <c r="H8" s="127" t="s">
+        <v>282</v>
+      </c>
+      <c r="I8" s="130" t="s">
         <v>283</v>
       </c>
-      <c r="I8" s="134" t="s">
-        <v>284</v>
-      </c>
-      <c r="J8" s="132">
+      <c r="J8" s="100">
         <v>79</v>
       </c>
-      <c r="K8" s="132">
+      <c r="K8" s="100">
         <v>51</v>
       </c>
       <c r="L8" s="7">
         <v>72</v>
       </c>
-      <c r="M8" s="132">
-        <v>26</v>
-      </c>
-      <c r="N8" s="132">
-        <v>24</v>
-      </c>
-      <c r="O8" s="132">
+      <c r="M8" s="100">
+        <v>26</v>
+      </c>
+      <c r="N8" s="100">
+        <v>24</v>
+      </c>
+      <c r="O8" s="100">
         <v>62</v>
       </c>
-      <c r="P8" s="139">
+      <c r="P8" s="101">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="108"/>
       <c r="D9" s="7" t="s">
         <v>234</v>
       </c>
@@ -9753,8 +9644,8 @@
       <c r="G9" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H9" s="135"/>
-      <c r="I9" s="136"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="131"/>
       <c r="J9" s="7" t="s">
         <v>98</v>
       </c>
@@ -9778,11 +9669,11 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="80"/>
+      <c r="A10" s="105"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="7">
         <v>6</v>
       </c>
@@ -9795,8 +9686,8 @@
       <c r="G10" s="7">
         <v>13</v>
       </c>
-      <c r="H10" s="135"/>
-      <c r="I10" s="136"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="7">
         <v>10</v>
       </c>
@@ -9820,11 +9711,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="80"/>
+      <c r="A11" s="105"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="7" t="s">
         <v>155</v>
       </c>
@@ -9837,8 +9728,8 @@
       <c r="G11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="135"/>
-      <c r="I11" s="136"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="7" t="s">
         <v>14</v>
       </c>
@@ -9862,11 +9753,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="80"/>
+      <c r="A12" s="105"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="7" t="s">
         <v>156</v>
       </c>
@@ -9879,8 +9770,8 @@
       <c r="G12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="135"/>
-      <c r="I12" s="136"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="7" t="s">
         <v>18</v>
       </c>
@@ -9904,11 +9795,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="81"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="109"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -9921,8 +9812,8 @@
       <c r="G13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="135"/>
-      <c r="I13" s="136"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="7" t="s">
         <v>21</v>
       </c>
@@ -9955,43 +9846,43 @@
       <c r="C14" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="D14" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="96" t="s">
+      <c r="D14" s="138" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="138" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="139" t="s">
         <v>245</v>
       </c>
-      <c r="G14" s="96" t="s">
+      <c r="G14" s="139" t="s">
         <v>246</v>
       </c>
-      <c r="H14" s="137"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="98" t="s">
+      <c r="H14" s="129"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="138" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="138" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="M14" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="98" t="s">
+      <c r="M14" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="72" t="s">
         <v>174</v>
       </c>
     </row>
@@ -10005,27 +9896,27 @@
       <c r="C15" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="103" t="s">
         <v>247</v>
       </c>
-      <c r="E15" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="101" t="s">
+      <c r="E15" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="134" t="s">
         <v>248</v>
       </c>
-      <c r="G15" s="101" t="s">
+      <c r="G15" s="134" t="s">
         <v>231</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="102" t="s">
+      <c r="J15" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="K15" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15" s="103" t="s">
+      <c r="K15" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="76" t="s">
         <v>175</v>
       </c>
       <c r="M15" s="7" t="s">
@@ -10040,8 +9931,8 @@
       <c r="P15" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="Q15" s="104"/>
-      <c r="R15" s="103" t="s">
+      <c r="Q15" s="77"/>
+      <c r="R15" s="76" t="s">
         <v>175</v>
       </c>
     </row>
@@ -10055,43 +9946,41 @@
       <c r="C16" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="105" t="s">
+      <c r="D16" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="120"/>
+      <c r="F16" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="105" t="s">
+      <c r="G16" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="102" t="s">
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="135" t="s">
         <v>250</v>
       </c>
-      <c r="K16" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="107" t="s">
+      <c r="K16" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="M16" s="108" t="s">
+      <c r="M16" s="80" t="s">
         <v>231</v>
       </c>
-      <c r="N16" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="O16" s="106" t="s">
+      <c r="N16" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="P16" s="109" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="111" t="s">
+      <c r="P16" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="83" t="s">
         <v>176</v>
       </c>
     </row>
@@ -10105,24 +9994,24 @@
       <c r="C17" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="94" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="94"/>
-      <c r="F17" s="102" t="s">
+      <c r="D17" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="120"/>
+      <c r="F17" s="135" t="s">
         <v>245</v>
       </c>
-      <c r="G17" s="102" t="s">
+      <c r="G17" s="135" t="s">
         <v>246</v>
       </c>
       <c r="H17" s="52"/>
       <c r="I17" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="J17" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="71" t="s">
+      <c r="J17" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="12" t="s">
@@ -10135,13 +10024,13 @@
         <v>222</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P17" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="Q17" s="104"/>
-      <c r="R17" s="103" t="s">
+      <c r="Q17" s="77"/>
+      <c r="R17" s="76" t="s">
         <v>177</v>
       </c>
     </row>
@@ -10155,43 +10044,43 @@
       <c r="C18" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="105" t="s">
+      <c r="D18" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="126" t="s">
         <v>252</v>
       </c>
-      <c r="G18" s="105" t="s">
+      <c r="G18" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="107" t="s">
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="M18" s="106" t="s">
+      <c r="M18" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="N18" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="O18" s="106" t="s">
+      <c r="N18" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="P18" s="109" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="107" t="s">
+      <c r="P18" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="79" t="s">
         <v>178</v>
       </c>
     </row>
@@ -10205,24 +10094,24 @@
       <c r="C19" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="71" t="s">
+      <c r="D19" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="103" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="71" t="s">
+      <c r="J19" s="103" t="s">
         <v>253</v>
       </c>
-      <c r="K19" s="71" t="s">
+      <c r="K19" s="103" t="s">
         <v>253</v>
       </c>
       <c r="L19" s="12" t="s">
@@ -10240,7 +10129,7 @@
       <c r="P19" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="Q19" s="104"/>
+      <c r="Q19" s="77"/>
       <c r="R19" s="12" t="s">
         <v>179</v>
       </c>
@@ -10255,43 +10144,43 @@
       <c r="C20" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="102" t="s">
+      <c r="D20" s="135" t="s">
         <v>250</v>
       </c>
-      <c r="E20" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="112" t="s">
+      <c r="E20" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="136" t="s">
         <v>245</v>
       </c>
-      <c r="G20" s="112" t="s">
+      <c r="G20" s="136" t="s">
         <v>246</v>
       </c>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="105" t="s">
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="126" t="s">
         <v>247</v>
       </c>
-      <c r="K20" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="107" t="s">
+      <c r="K20" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="M20" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="O20" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="P20" s="109" t="s">
+      <c r="M20" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="Q20" s="110"/>
-      <c r="R20" s="107" t="s">
+      <c r="Q20" s="82"/>
+      <c r="R20" s="79" t="s">
         <v>180</v>
       </c>
     </row>
@@ -10305,24 +10194,24 @@
       <c r="C21" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="71" t="s">
+      <c r="D21" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="103" t="s">
         <v>24</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="K21" s="71" t="s">
+      <c r="J21" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="103" t="s">
         <v>66</v>
       </c>
       <c r="L21" s="12" t="s">
@@ -10334,13 +10223,13 @@
       <c r="N21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O21" s="113" t="s">
+      <c r="O21" s="75" t="s">
         <v>25</v>
       </c>
       <c r="P21" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="Q21" s="104"/>
+      <c r="Q21" s="77"/>
       <c r="R21" s="12" t="s">
         <v>181</v>
       </c>
@@ -10355,47 +10244,47 @@
       <c r="C22" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="105" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="101" t="s">
+      <c r="D22" s="126" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="134" t="s">
         <v>254</v>
       </c>
-      <c r="G22" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106" t="s">
+      <c r="G22" s="134" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78" t="s">
         <v>251</v>
       </c>
-      <c r="J22" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="K22" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" s="107" t="s">
+      <c r="J22" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="M22" s="106" t="s">
+      <c r="M22" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="N22" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="O22" s="106" t="s">
+      <c r="N22" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="P22" s="109" t="s">
+      <c r="P22" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="Q22" s="110" t="s">
+      <c r="Q22" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="R22" s="107" t="s">
+      <c r="R22" s="79" t="s">
         <v>182</v>
       </c>
     </row>
@@ -10409,42 +10298,42 @@
       <c r="C23" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="102" t="s">
+      <c r="D23" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="E23" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="101" t="s">
+      <c r="E23" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="134" t="s">
         <v>248</v>
       </c>
-      <c r="G23" s="101" t="s">
+      <c r="G23" s="134" t="s">
         <v>246</v>
       </c>
       <c r="H23" s="52"/>
       <c r="I23" s="52"/>
-      <c r="J23" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="K23" s="71" t="s">
+      <c r="J23" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" s="103" t="s">
         <v>66</v>
       </c>
       <c r="L23" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="M23" s="113" t="s">
+      <c r="M23" s="75" t="s">
         <v>255</v>
       </c>
       <c r="N23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O23" s="108" t="s">
+      <c r="O23" s="80" t="s">
         <v>25</v>
       </c>
       <c r="P23" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="Q23" s="104"/>
+      <c r="Q23" s="77"/>
       <c r="R23" s="12" t="s">
         <v>183</v>
       </c>
@@ -10459,43 +10348,43 @@
       <c r="C24" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="105" t="s">
+      <c r="D24" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="126" t="s">
         <v>231</v>
       </c>
-      <c r="G24" s="105" t="s">
+      <c r="G24" s="126" t="s">
         <v>231</v>
       </c>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" s="107" t="s">
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="M24" s="114" t="s">
+      <c r="M24" s="84" t="s">
         <v>231</v>
       </c>
-      <c r="N24" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="O24" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="P24" s="109" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q24" s="110"/>
-      <c r="R24" s="107" t="s">
+      <c r="N24" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="79" t="s">
         <v>184</v>
       </c>
     </row>
@@ -10509,24 +10398,24 @@
       <c r="C25" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="71" t="s">
+      <c r="E25" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="71" t="s">
+      <c r="F25" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="71" t="s">
+      <c r="G25" s="103" t="s">
         <v>30</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="71" t="s">
+      <c r="J25" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="71" t="s">
+      <c r="K25" s="103" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="12" t="s">
@@ -10544,7 +10433,7 @@
       <c r="P25" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="Q25" s="104"/>
+      <c r="Q25" s="77"/>
       <c r="R25" s="12" t="s">
         <v>185</v>
       </c>
@@ -10559,43 +10448,43 @@
       <c r="C26" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="112" t="s">
+      <c r="D26" s="136" t="s">
         <v>249</v>
       </c>
-      <c r="E26" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="105" t="s">
+      <c r="E26" s="136" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="126" t="s">
         <v>246</v>
       </c>
-      <c r="G26" s="105" t="s">
+      <c r="G26" s="126" t="s">
         <v>246</v>
       </c>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="105" t="s">
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="L26" s="107" t="s">
+      <c r="K26" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="M26" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="N26" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="O26" s="106" t="s">
+      <c r="M26" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="N26" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="P26" s="115" t="s">
+      <c r="P26" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="Q26" s="110"/>
-      <c r="R26" s="107" t="s">
+      <c r="Q26" s="82"/>
+      <c r="R26" s="79" t="s">
         <v>186</v>
       </c>
     </row>
@@ -10609,24 +10498,24 @@
       <c r="C27" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="71" t="s">
+      <c r="D27" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="103" t="s">
         <v>24</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="K27" s="71" t="s">
+      <c r="J27" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L27" s="12" t="s">
@@ -10644,7 +10533,7 @@
       <c r="P27" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="Q27" s="104"/>
+      <c r="Q27" s="77"/>
       <c r="R27" s="12" t="s">
         <v>187</v>
       </c>
@@ -10659,45 +10548,45 @@
       <c r="C28" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="112" t="s">
+      <c r="D28" s="136" t="s">
+        <v>249</v>
+      </c>
+      <c r="E28" s="136" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="126" t="s">
+        <v>246</v>
+      </c>
+      <c r="G28" s="126" t="s">
+        <v>246</v>
+      </c>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="136" t="s">
+        <v>249</v>
+      </c>
+      <c r="K28" s="136" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="M28" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="78" t="s">
         <v>256</v>
       </c>
-      <c r="E28" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="105" t="s">
-        <v>246</v>
-      </c>
-      <c r="G28" s="105" t="s">
-        <v>246</v>
-      </c>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="112" t="s">
-        <v>249</v>
-      </c>
-      <c r="K28" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="L28" s="107" t="s">
-        <v>188</v>
-      </c>
-      <c r="M28" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28" s="106" t="s">
-        <v>257</v>
-      </c>
-      <c r="O28" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="P28" s="116" t="s">
+      <c r="O28" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="P28" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="110" t="s">
+      <c r="Q28" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="R28" s="107" t="s">
+      <c r="R28" s="79" t="s">
         <v>188</v>
       </c>
     </row>
@@ -10711,24 +10600,24 @@
       <c r="C29" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="102" t="s">
+      <c r="D29" s="135" t="s">
         <v>250</v>
       </c>
-      <c r="E29" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="71" t="s">
+      <c r="E29" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="103" t="s">
         <v>24</v>
       </c>
       <c r="H29" s="52"/>
       <c r="I29" s="52"/>
-      <c r="J29" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="71" t="s">
+      <c r="J29" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L29" s="12" t="s">
@@ -10743,10 +10632,10 @@
       <c r="O29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="P29" s="116" t="s">
+      <c r="P29" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="Q29" s="117"/>
+      <c r="Q29" s="87"/>
       <c r="R29" s="12" t="s">
         <v>189</v>
       </c>
@@ -10761,43 +10650,43 @@
       <c r="C30" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="K30" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="L30" s="107" t="s">
+      <c r="D30" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="M30" s="106" t="s">
+      <c r="M30" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="N30" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="O30" s="106" t="s">
+      <c r="N30" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="O30" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="P30" s="109" t="s">
+      <c r="P30" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="Q30" s="110"/>
-      <c r="R30" s="107" t="s">
+      <c r="Q30" s="82"/>
+      <c r="R30" s="79" t="s">
         <v>190</v>
       </c>
     </row>
@@ -10811,24 +10700,24 @@
       <c r="C31" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="D31" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="71" t="s">
+      <c r="D31" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="103" t="s">
         <v>24</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="71" t="s">
+      <c r="J31" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="K31" s="71" t="s">
+      <c r="K31" s="103" t="s">
         <v>25</v>
       </c>
       <c r="L31" s="12" t="s">
@@ -10846,7 +10735,7 @@
       <c r="P31" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="Q31" s="104"/>
+      <c r="Q31" s="77"/>
       <c r="R31" s="12" t="s">
         <v>191</v>
       </c>
@@ -10861,43 +10750,43 @@
       <c r="C32" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="105" t="s">
+      <c r="D32" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="105" t="s">
+      <c r="E32" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" s="107" t="s">
+      <c r="F32" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="M32" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="N32" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="O32" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="P32" s="109" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32" s="110"/>
-      <c r="R32" s="107" t="s">
+      <c r="M32" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="82"/>
+      <c r="R32" s="79" t="s">
         <v>192</v>
       </c>
     </row>
@@ -10911,24 +10800,24 @@
       <c r="C33" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="D33" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="71" t="s">
+      <c r="D33" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="103" t="s">
         <v>246</v>
       </c>
-      <c r="G33" s="71" t="s">
+      <c r="G33" s="103" t="s">
         <v>246</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" s="71" t="s">
+      <c r="J33" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="12" t="s">
@@ -10946,7 +10835,7 @@
       <c r="P33" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="Q33" s="104"/>
+      <c r="Q33" s="77"/>
       <c r="R33" s="12" t="s">
         <v>193</v>
       </c>
@@ -10961,43 +10850,43 @@
       <c r="C34" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" s="102" t="s">
-        <v>258</v>
-      </c>
-      <c r="G34" s="102" t="s">
+      <c r="D34" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="135" t="s">
+        <v>257</v>
+      </c>
+      <c r="G34" s="135" t="s">
         <v>246</v>
       </c>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="K34" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="L34" s="107" t="s">
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="L34" s="79" t="s">
         <v>194</v>
       </c>
-      <c r="M34" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="N34" s="113" t="s">
+      <c r="M34" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="O34" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="P34" s="109" t="s">
+      <c r="O34" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="P34" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="Q34" s="110"/>
-      <c r="R34" s="107" t="s">
+      <c r="Q34" s="82"/>
+      <c r="R34" s="79" t="s">
         <v>194</v>
       </c>
     </row>
@@ -11011,25 +10900,25 @@
       <c r="C35" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="71" t="s">
+      <c r="D35" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="103" t="s">
         <v>24</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="71" t="s">
-        <v>259</v>
-      </c>
-      <c r="K35" s="71" t="s">
-        <v>259</v>
+      <c r="J35" s="103" t="s">
+        <v>258</v>
+      </c>
+      <c r="K35" s="103" t="s">
+        <v>258</v>
       </c>
       <c r="L35" s="12" t="s">
         <v>195</v>
@@ -11046,7 +10935,7 @@
       <c r="P35" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="Q35" s="104"/>
+      <c r="Q35" s="77"/>
       <c r="R35" s="12" t="s">
         <v>195</v>
       </c>
@@ -11061,43 +10950,43 @@
       <c r="C36" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="K36" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="L36" s="107" t="s">
+      <c r="D36" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="79" t="s">
         <v>196</v>
       </c>
-      <c r="M36" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="N36" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="O36" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="P36" s="109" t="s">
+      <c r="M36" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="O36" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="P36" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="Q36" s="110"/>
-      <c r="R36" s="107" t="s">
+      <c r="Q36" s="82"/>
+      <c r="R36" s="79" t="s">
         <v>196</v>
       </c>
     </row>
@@ -11111,24 +11000,24 @@
       <c r="C37" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="71" t="s">
+      <c r="D37" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="71" t="s">
+      <c r="E37" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="101" t="s">
+      <c r="F37" s="134" t="s">
         <v>248</v>
       </c>
-      <c r="G37" s="101" t="s">
+      <c r="G37" s="134" t="s">
         <v>246</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="71" t="s">
+      <c r="J37" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="K37" s="71" t="s">
+      <c r="K37" s="103" t="s">
         <v>30</v>
       </c>
       <c r="L37" s="12" t="s">
@@ -11146,7 +11035,7 @@
       <c r="P37" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="Q37" s="104"/>
+      <c r="Q37" s="77"/>
       <c r="R37" s="12" t="s">
         <v>197</v>
       </c>
@@ -11161,43 +11050,43 @@
       <c r="C38" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="K38" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="L38" s="107" t="s">
+      <c r="D38" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" s="79" t="s">
         <v>198</v>
       </c>
-      <c r="M38" s="106" t="s">
+      <c r="M38" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="N38" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="O38" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="P38" s="109" t="s">
+      <c r="N38" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="O38" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="P38" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="Q38" s="110"/>
-      <c r="R38" s="107" t="s">
+      <c r="Q38" s="82"/>
+      <c r="R38" s="79" t="s">
         <v>198</v>
       </c>
     </row>
@@ -11211,24 +11100,24 @@
       <c r="C39" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="71" t="s">
+      <c r="D39" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="103" t="s">
         <v>246</v>
       </c>
-      <c r="G39" s="71" t="s">
+      <c r="G39" s="103" t="s">
         <v>246</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="K39" s="71" t="s">
+      <c r="J39" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="12" t="s">
@@ -11246,7 +11135,7 @@
       <c r="P39" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="Q39" s="104" t="s">
+      <c r="Q39" s="77" t="s">
         <v>251</v>
       </c>
       <c r="R39" s="12" t="s">
@@ -11263,41 +11152,41 @@
       <c r="C40" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="105" t="s">
-        <v>260</v>
-      </c>
-      <c r="G40" s="105" t="s">
+      <c r="D40" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="126" t="s">
+        <v>259</v>
+      </c>
+      <c r="G40" s="126" t="s">
         <v>246</v>
       </c>
-      <c r="H40" s="106"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="K40" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="L40" s="107" t="s">
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="M40" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="N40" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="O40" s="106" t="s">
+      <c r="M40" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="O40" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="P40" s="109"/>
-      <c r="Q40" s="110"/>
-      <c r="R40" s="107" t="s">
+      <c r="P40" s="81"/>
+      <c r="Q40" s="82"/>
+      <c r="R40" s="79" t="s">
         <v>200</v>
       </c>
     </row>
@@ -11311,24 +11200,24 @@
       <c r="C41" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="D41" s="71" t="s">
+      <c r="D41" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="71" t="s">
+      <c r="E41" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="F41" s="71" t="s">
+      <c r="F41" s="103" t="s">
         <v>246</v>
       </c>
-      <c r="G41" s="71" t="s">
+      <c r="G41" s="103" t="s">
         <v>246</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="K41" s="71" t="s">
+      <c r="J41" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="K41" s="103" t="s">
         <v>66</v>
       </c>
       <c r="L41" s="12" t="s">
@@ -11346,7 +11235,7 @@
       <c r="P41" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="Q41" s="104"/>
+      <c r="Q41" s="77"/>
       <c r="R41" s="12" t="s">
         <v>201</v>
       </c>
@@ -11361,43 +11250,43 @@
       <c r="C42" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="D42" s="118" t="s">
-        <v>261</v>
-      </c>
-      <c r="E42" s="118" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="119" t="s">
+      <c r="D42" s="133" t="s">
+        <v>260</v>
+      </c>
+      <c r="E42" s="133" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="137" t="s">
         <v>248</v>
       </c>
-      <c r="G42" s="119" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" s="120"/>
-      <c r="I42" s="120"/>
-      <c r="J42" s="118" t="s">
-        <v>66</v>
-      </c>
-      <c r="K42" s="118" t="s">
-        <v>66</v>
-      </c>
-      <c r="L42" s="121" t="s">
+      <c r="G42" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="133" t="s">
+        <v>66</v>
+      </c>
+      <c r="K42" s="133" t="s">
+        <v>66</v>
+      </c>
+      <c r="L42" s="89" t="s">
         <v>202</v>
       </c>
-      <c r="M42" s="120" t="s">
-        <v>24</v>
-      </c>
-      <c r="N42" s="120" t="s">
+      <c r="M42" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="N42" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="O42" s="120" t="s">
-        <v>92</v>
-      </c>
-      <c r="P42" s="122" t="s">
+      <c r="O42" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="P42" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="Q42" s="123"/>
-      <c r="R42" s="121" t="s">
+      <c r="Q42" s="91"/>
+      <c r="R42" s="89" t="s">
         <v>202</v>
       </c>
     </row>
@@ -11411,24 +11300,24 @@
       <c r="C43" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" s="78" t="s">
+      <c r="D43" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="115" t="s">
         <v>24</v>
       </c>
       <c r="H43" s="31"/>
       <c r="I43" s="31"/>
-      <c r="J43" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="K43" s="78" t="s">
+      <c r="J43" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="115" t="s">
         <v>24</v>
       </c>
       <c r="L43" s="29" t="s">
@@ -11446,7 +11335,7 @@
       <c r="P43" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="Q43" s="124"/>
+      <c r="Q43" s="92"/>
       <c r="R43" s="29" t="s">
         <v>203</v>
       </c>
@@ -11461,46 +11350,46 @@
       <c r="C44" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D44" s="105" t="s">
+      <c r="D44" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="105" t="s">
+      <c r="E44" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="F44" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="106"/>
-      <c r="I44" s="106"/>
-      <c r="J44" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="K44" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="L44" s="107" t="s">
-        <v>262</v>
-      </c>
-      <c r="M44" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="N44" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="O44" s="106" t="s">
+      <c r="F44" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="M44" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="N44" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="O44" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="P44" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q44" s="110" t="s">
+      <c r="P44" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q44" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="R44" s="107" t="s">
-        <v>262</v>
+      <c r="R44" s="79" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
@@ -11513,28 +11402,28 @@
       <c r="C45" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="D45" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" s="71" t="s">
+      <c r="D45" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="103" t="s">
         <v>24</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
-      <c r="J45" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="K45" s="71" t="s">
+      <c r="J45" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="K45" s="103" t="s">
         <v>66</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>24</v>
@@ -11548,9 +11437,9 @@
       <c r="P45" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="Q45" s="104"/>
+      <c r="Q45" s="77"/>
       <c r="R45" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
@@ -11563,43 +11452,43 @@
       <c r="C46" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="105" t="s">
+      <c r="D46" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="105" t="s">
+      <c r="E46" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="H46" s="106"/>
-      <c r="I46" s="106"/>
-      <c r="J46" s="105" t="s">
+      <c r="F46" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="78"/>
+      <c r="I46" s="78"/>
+      <c r="J46" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="K46" s="105" t="s">
+      <c r="K46" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="L46" s="107" t="s">
+      <c r="L46" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="M46" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="N46" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="O46" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="P46" s="109" t="s">
+      <c r="M46" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="O46" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="P46" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="Q46" s="110"/>
-      <c r="R46" s="107" t="s">
+      <c r="Q46" s="82"/>
+      <c r="R46" s="79" t="s">
         <v>204</v>
       </c>
     </row>
@@ -11613,24 +11502,24 @@
       <c r="C47" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="D47" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" s="71" t="s">
-        <v>264</v>
-      </c>
-      <c r="G47" s="71" t="s">
-        <v>264</v>
+      <c r="D47" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="103" t="s">
+        <v>263</v>
+      </c>
+      <c r="G47" s="103" t="s">
+        <v>263</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
-      <c r="J47" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="K47" s="71" t="s">
+      <c r="J47" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L47" s="12" t="s">
@@ -11648,7 +11537,7 @@
       <c r="P47" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="Q47" s="104"/>
+      <c r="Q47" s="77"/>
       <c r="R47" s="12" t="s">
         <v>205</v>
       </c>
@@ -11663,43 +11552,43 @@
       <c r="C48" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="E48" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="F48" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="H48" s="106"/>
-      <c r="I48" s="106"/>
-      <c r="J48" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="K48" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="L48" s="107" t="s">
+      <c r="D48" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="M48" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="N48" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="O48" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="P48" s="109" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q48" s="110"/>
-      <c r="R48" s="107" t="s">
+      <c r="M48" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="N48" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="O48" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="P48" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q48" s="82"/>
+      <c r="R48" s="79" t="s">
         <v>206</v>
       </c>
     </row>
@@ -11713,25 +11602,25 @@
       <c r="C49" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="D49" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" s="71" t="s">
+      <c r="D49" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="103" t="s">
         <v>231</v>
       </c>
-      <c r="G49" s="71" t="s">
+      <c r="G49" s="103" t="s">
         <v>231</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
-      <c r="J49" s="71" t="s">
-        <v>265</v>
-      </c>
-      <c r="K49" s="71" t="s">
-        <v>265</v>
+      <c r="J49" s="103" t="s">
+        <v>264</v>
+      </c>
+      <c r="K49" s="103" t="s">
+        <v>264</v>
       </c>
       <c r="L49" s="12" t="s">
         <v>207</v>
@@ -11748,7 +11637,7 @@
       <c r="P49" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="Q49" s="104"/>
+      <c r="Q49" s="77"/>
       <c r="R49" s="12" t="s">
         <v>207</v>
       </c>
@@ -11763,45 +11652,45 @@
       <c r="C50" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D50" s="105" t="s">
-        <v>92</v>
-      </c>
-      <c r="E50" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="H50" s="106"/>
-      <c r="I50" s="106" t="s">
+      <c r="D50" s="126" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="78"/>
+      <c r="I50" s="78" t="s">
         <v>251</v>
       </c>
-      <c r="J50" s="105" t="s">
+      <c r="J50" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="105" t="s">
+      <c r="K50" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="L50" s="107" t="s">
+      <c r="L50" s="79" t="s">
         <v>208</v>
       </c>
-      <c r="M50" s="106" t="s">
+      <c r="M50" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="N50" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="O50" s="106" t="s">
+      <c r="N50" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="O50" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="P50" s="109" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q50" s="110"/>
-      <c r="R50" s="107" t="s">
+      <c r="P50" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q50" s="82"/>
+      <c r="R50" s="79" t="s">
         <v>208</v>
       </c>
     </row>
@@ -11815,24 +11704,24 @@
       <c r="C51" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="D51" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="71" t="s">
+      <c r="D51" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="103" t="s">
         <v>231</v>
       </c>
-      <c r="G51" s="71" t="s">
+      <c r="G51" s="103" t="s">
         <v>231</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
-      <c r="J51" s="71" t="s">
+      <c r="J51" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="K51" s="71" t="s">
+      <c r="K51" s="103" t="s">
         <v>25</v>
       </c>
       <c r="L51" s="12" t="s">
@@ -11850,7 +11739,7 @@
       <c r="P51" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="Q51" s="104"/>
+      <c r="Q51" s="77"/>
       <c r="R51" s="12" t="s">
         <v>209</v>
       </c>
@@ -11865,43 +11754,43 @@
       <c r="C52" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D52" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="F52" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="H52" s="106"/>
-      <c r="I52" s="106"/>
-      <c r="J52" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="K52" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="L52" s="107" t="s">
+      <c r="D52" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" s="78"/>
+      <c r="I52" s="78"/>
+      <c r="J52" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="K52" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="M52" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="N52" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="O52" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="P52" s="109" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q52" s="110"/>
-      <c r="R52" s="107" t="s">
+      <c r="M52" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="N52" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="O52" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="P52" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q52" s="82"/>
+      <c r="R52" s="79" t="s">
         <v>210</v>
       </c>
     </row>
@@ -11915,24 +11804,24 @@
       <c r="C53" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="D53" s="71" t="s">
+      <c r="D53" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="E53" s="71" t="s">
+      <c r="E53" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="F53" s="71" t="s">
-        <v>264</v>
-      </c>
-      <c r="G53" s="71" t="s">
-        <v>264</v>
+      <c r="F53" s="103" t="s">
+        <v>263</v>
+      </c>
+      <c r="G53" s="103" t="s">
+        <v>263</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
-      <c r="J53" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="K53" s="71" t="s">
+      <c r="J53" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="K53" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L53" s="12" t="s">
@@ -11950,7 +11839,7 @@
       <c r="P53" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="Q53" s="104"/>
+      <c r="Q53" s="77"/>
       <c r="R53" s="12" t="s">
         <v>211</v>
       </c>
@@ -11965,43 +11854,43 @@
       <c r="C54" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D54" s="105" t="s">
+      <c r="D54" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="105" t="s">
+      <c r="E54" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="H54" s="106"/>
-      <c r="I54" s="106"/>
-      <c r="J54" s="105" t="s">
+      <c r="F54" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="78"/>
+      <c r="I54" s="78"/>
+      <c r="J54" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="K54" s="105" t="s">
+      <c r="K54" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="L54" s="107" t="s">
+      <c r="L54" s="79" t="s">
         <v>212</v>
       </c>
-      <c r="M54" s="106" t="s">
+      <c r="M54" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="N54" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="O54" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="P54" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q54" s="110"/>
-      <c r="R54" s="107" t="s">
+      <c r="N54" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="O54" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="P54" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q54" s="82"/>
+      <c r="R54" s="79" t="s">
         <v>212</v>
       </c>
     </row>
@@ -12015,24 +11904,24 @@
       <c r="C55" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="D55" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="E55" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F55" s="71" t="s">
+      <c r="D55" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" s="103" t="s">
         <v>231</v>
       </c>
-      <c r="G55" s="71" t="s">
+      <c r="G55" s="103" t="s">
         <v>231</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
-      <c r="J55" s="71" t="s">
+      <c r="J55" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="K55" s="71" t="s">
+      <c r="K55" s="103" t="s">
         <v>25</v>
       </c>
       <c r="L55" s="12" t="s">
@@ -12050,7 +11939,7 @@
       <c r="P55" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="Q55" s="104"/>
+      <c r="Q55" s="77"/>
       <c r="R55" s="12" t="s">
         <v>213</v>
       </c>
@@ -12065,43 +11954,43 @@
       <c r="C56" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="D56" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="E56" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="F56" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="H56" s="106"/>
-      <c r="I56" s="106"/>
-      <c r="J56" s="105" t="s">
+      <c r="D56" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="78"/>
+      <c r="I56" s="78"/>
+      <c r="J56" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="K56" s="105" t="s">
+      <c r="K56" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="L56" s="107" t="s">
+      <c r="L56" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="M56" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="N56" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="O56" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="P56" s="109" t="s">
+      <c r="M56" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="N56" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="O56" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="P56" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="Q56" s="110"/>
-      <c r="R56" s="107" t="s">
+      <c r="Q56" s="82"/>
+      <c r="R56" s="79" t="s">
         <v>164</v>
       </c>
     </row>
@@ -12115,24 +12004,24 @@
       <c r="C57" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="D57" s="71" t="s">
+      <c r="D57" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="E57" s="71" t="s">
+      <c r="E57" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="F57" s="71" t="s">
-        <v>264</v>
-      </c>
-      <c r="G57" s="71" t="s">
-        <v>264</v>
+      <c r="F57" s="103" t="s">
+        <v>263</v>
+      </c>
+      <c r="G57" s="103" t="s">
+        <v>263</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
-      <c r="J57" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="K57" s="71" t="s">
+      <c r="J57" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="K57" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L57" s="12" t="s">
@@ -12150,7 +12039,7 @@
       <c r="P57" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="Q57" s="104"/>
+      <c r="Q57" s="77"/>
       <c r="R57" s="12" t="s">
         <v>165</v>
       </c>
@@ -12165,43 +12054,43 @@
       <c r="C58" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="D58" s="105" t="s">
-        <v>266</v>
-      </c>
-      <c r="E58" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="F58" s="105" t="s">
-        <v>260</v>
-      </c>
-      <c r="G58" s="105" t="s">
+      <c r="D58" s="126" t="s">
+        <v>265</v>
+      </c>
+      <c r="E58" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58" s="126" t="s">
+        <v>259</v>
+      </c>
+      <c r="G58" s="126" t="s">
         <v>246</v>
       </c>
-      <c r="H58" s="106"/>
-      <c r="I58" s="106"/>
-      <c r="J58" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="K58" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="L58" s="107" t="s">
+      <c r="H58" s="78"/>
+      <c r="I58" s="78"/>
+      <c r="J58" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="K58" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="M58" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="N58" s="106" t="s">
+      <c r="M58" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="N58" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="O58" s="106" t="s">
+      <c r="O58" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="P58" s="109" t="s">
+      <c r="P58" s="81" t="s">
         <v>240</v>
       </c>
-      <c r="Q58" s="110"/>
-      <c r="R58" s="107" t="s">
+      <c r="Q58" s="82"/>
+      <c r="R58" s="79" t="s">
         <v>166</v>
       </c>
     </row>
@@ -12215,24 +12104,24 @@
       <c r="C59" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="D59" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F59" s="71" t="s">
-        <v>264</v>
-      </c>
-      <c r="G59" s="71" t="s">
-        <v>264</v>
+      <c r="D59" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" s="103" t="s">
+        <v>263</v>
+      </c>
+      <c r="G59" s="103" t="s">
+        <v>263</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
-      <c r="J59" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="K59" s="71" t="s">
+      <c r="J59" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="K59" s="103" t="s">
         <v>26</v>
       </c>
       <c r="L59" s="12" t="s">
@@ -12250,7 +12139,7 @@
       <c r="P59" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="Q59" s="104"/>
+      <c r="Q59" s="77"/>
       <c r="R59" s="12" t="s">
         <v>167</v>
       </c>
@@ -12265,43 +12154,43 @@
       <c r="C60" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="D60" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="E60" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="F60" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="H60" s="106"/>
-      <c r="I60" s="106"/>
-      <c r="J60" s="105" t="s">
+      <c r="D60" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="78"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="K60" s="105" t="s">
+      <c r="K60" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="L60" s="107" t="s">
+      <c r="L60" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="M60" s="106" t="s">
+      <c r="M60" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="N60" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="O60" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="P60" s="109" t="s">
+      <c r="N60" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="O60" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="P60" s="81" t="s">
         <v>240</v>
       </c>
-      <c r="Q60" s="110"/>
-      <c r="R60" s="107" t="s">
+      <c r="Q60" s="82"/>
+      <c r="R60" s="79" t="s">
         <v>168</v>
       </c>
     </row>
@@ -12315,24 +12204,24 @@
       <c r="C61" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="D61" s="71" t="s">
+      <c r="D61" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="E61" s="71" t="s">
+      <c r="E61" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="F61" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G61" s="71" t="s">
+      <c r="F61" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" s="103" t="s">
         <v>24</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
-      <c r="J61" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="K61" s="71" t="s">
+      <c r="J61" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="K61" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L61" s="12" t="s">
@@ -12350,7 +12239,7 @@
       <c r="P61" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="Q61" s="104"/>
+      <c r="Q61" s="77"/>
       <c r="R61" s="12" t="s">
         <v>169</v>
       </c>
@@ -12365,45 +12254,45 @@
       <c r="C62" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="D62" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="E62" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="F62" s="105" t="s">
-        <v>264</v>
-      </c>
-      <c r="G62" s="105" t="s">
-        <v>264</v>
-      </c>
-      <c r="H62" s="106"/>
-      <c r="I62" s="106"/>
-      <c r="J62" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="K62" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="L62" s="107" t="s">
+      <c r="D62" s="126" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="126" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="126" t="s">
+        <v>263</v>
+      </c>
+      <c r="G62" s="126" t="s">
+        <v>263</v>
+      </c>
+      <c r="H62" s="78"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="K62" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="L62" s="79" t="s">
         <v>170</v>
       </c>
-      <c r="M62" s="106" t="s">
+      <c r="M62" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="N62" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="O62" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="P62" s="109" t="s">
+      <c r="N62" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="O62" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="P62" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="Q62" s="110" t="s">
+      <c r="Q62" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="R62" s="107" t="s">
+      <c r="R62" s="79" t="s">
         <v>170</v>
       </c>
     </row>
@@ -12417,24 +12306,24 @@
       <c r="C63" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="D63" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="E63" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F63" s="71" t="s">
+      <c r="D63" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="103" t="s">
         <v>231</v>
       </c>
-      <c r="G63" s="71" t="s">
+      <c r="G63" s="103" t="s">
         <v>231</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
-      <c r="J63" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="K63" s="71" t="s">
+      <c r="J63" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="K63" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L63" s="12" t="s">
@@ -12452,7 +12341,7 @@
       <c r="P63" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="Q63" s="104"/>
+      <c r="Q63" s="77"/>
       <c r="R63" s="12" t="s">
         <v>171</v>
       </c>
@@ -12467,43 +12356,43 @@
       <c r="C64" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="D64" s="105" t="s">
+      <c r="D64" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="E64" s="105" t="s">
+      <c r="E64" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="F64" s="105" t="s">
-        <v>264</v>
-      </c>
-      <c r="G64" s="105" t="s">
-        <v>264</v>
-      </c>
-      <c r="H64" s="106"/>
-      <c r="I64" s="106"/>
-      <c r="J64" s="105" t="s">
+      <c r="F64" s="126" t="s">
+        <v>263</v>
+      </c>
+      <c r="G64" s="126" t="s">
+        <v>263</v>
+      </c>
+      <c r="H64" s="78"/>
+      <c r="I64" s="78"/>
+      <c r="J64" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="K64" s="105" t="s">
+      <c r="K64" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="L64" s="107" t="s">
+      <c r="L64" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="M64" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="N64" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="O64" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="P64" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q64" s="110"/>
-      <c r="R64" s="107" t="s">
+      <c r="M64" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="N64" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="O64" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="P64" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q64" s="82"/>
+      <c r="R64" s="79" t="s">
         <v>172</v>
       </c>
     </row>
@@ -12517,24 +12406,24 @@
       <c r="C65" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="D65" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F65" s="71" t="s">
+      <c r="D65" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="103" t="s">
         <v>232</v>
       </c>
-      <c r="G65" s="71" t="s">
+      <c r="G65" s="103" t="s">
         <v>232</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
-      <c r="J65" s="71" t="s">
+      <c r="J65" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="K65" s="71" t="s">
+      <c r="K65" s="103" t="s">
         <v>38</v>
       </c>
       <c r="L65" s="12" t="s">
@@ -12552,7 +12441,7 @@
       <c r="P65" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="Q65" s="104"/>
+      <c r="Q65" s="77"/>
       <c r="R65" s="12" t="s">
         <v>173</v>
       </c>
@@ -12561,92 +12450,92 @@
       <c r="A66" s="45">
         <v>53</v>
       </c>
-      <c r="B66" s="107" t="s">
-        <v>267</v>
+      <c r="B66" s="79" t="s">
+        <v>266</v>
       </c>
       <c r="C66" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="D66" s="105" t="s">
+      <c r="D66" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="E66" s="105" t="s">
+      <c r="E66" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="F66" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="G66" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="H66" s="106"/>
-      <c r="I66" s="106"/>
-      <c r="J66" s="105" t="s">
+      <c r="F66" s="126" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="126" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" s="78"/>
+      <c r="I66" s="78"/>
+      <c r="J66" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="K66" s="105" t="s">
+      <c r="K66" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="L66" s="107" t="s">
-        <v>267</v>
-      </c>
-      <c r="M66" s="106" t="s">
+      <c r="L66" s="79" t="s">
+        <v>266</v>
+      </c>
+      <c r="M66" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="N66" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="O66" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="P66" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q66" s="110"/>
-      <c r="R66" s="107" t="s">
-        <v>267</v>
+      <c r="N66" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="O66" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="P66" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q66" s="82"/>
+      <c r="R66" s="79" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="14.65" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A67" s="33"/>
       <c r="B67" s="12"/>
       <c r="C67" s="30"/>
-      <c r="D67" s="125" t="s">
+      <c r="D67" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="E67" s="93" t="s">
         <v>268</v>
       </c>
-      <c r="E67" s="125" t="s">
+      <c r="F67" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="G67" s="93" t="s">
         <v>269</v>
       </c>
-      <c r="F67" s="125" t="s">
+      <c r="H67" s="93"/>
+      <c r="I67" s="93"/>
+      <c r="J67" s="94" t="s">
+        <v>269</v>
+      </c>
+      <c r="K67" s="95" t="s">
         <v>268</v>
-      </c>
-      <c r="G67" s="125" t="s">
-        <v>270</v>
-      </c>
-      <c r="H67" s="125"/>
-      <c r="I67" s="125"/>
-      <c r="J67" s="126" t="s">
-        <v>270</v>
-      </c>
-      <c r="K67" s="127" t="s">
-        <v>269</v>
       </c>
       <c r="L67" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="M67" s="127" t="s">
+      <c r="M67" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="N67" s="94" t="s">
         <v>271</v>
       </c>
-      <c r="N67" s="126" t="s">
+      <c r="O67" s="93" t="s">
         <v>272</v>
       </c>
-      <c r="O67" s="125" t="s">
+      <c r="P67" s="96" t="s">
         <v>273</v>
       </c>
-      <c r="P67" s="128" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q67" s="129"/>
+      <c r="Q67" s="97"/>
       <c r="R67" s="14" t="s">
         <v>80</v>
       </c>
@@ -12656,43 +12545,43 @@
       <c r="B68" s="12"/>
       <c r="C68" s="30"/>
       <c r="D68" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E68" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="E68" s="9" t="s">
-        <v>276</v>
-      </c>
       <c r="F68" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="L68" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="K68" s="9" t="s">
+      <c r="M68" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="N68" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="O68" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="P68" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="L68" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="M68" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="N68" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="O68" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="P68" s="10" t="s">
+      <c r="Q68" s="98"/>
+      <c r="R68" s="13" t="s">
         <v>277</v>
-      </c>
-      <c r="Q68" s="130"/>
-      <c r="R68" s="13" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="14.65" thickTop="1" x14ac:dyDescent="0.3">
@@ -12752,17 +12641,17 @@
     </row>
     <row r="74" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D74" s="61"/>
-      <c r="E74" s="91"/>
-      <c r="F74" s="91"/>
+      <c r="E74" s="123"/>
+      <c r="F74" s="123"/>
       <c r="G74" s="61"/>
-      <c r="H74" s="91"/>
-      <c r="I74" s="91"/>
+      <c r="H74" s="123"/>
+      <c r="I74" s="123"/>
       <c r="J74" s="61"/>
-      <c r="K74" s="91"/>
-      <c r="L74" s="91"/>
+      <c r="K74" s="123"/>
+      <c r="L74" s="123"/>
       <c r="M74" s="61"/>
-      <c r="N74" s="91"/>
-      <c r="O74" s="91"/>
+      <c r="N74" s="123"/>
+      <c r="O74" s="123"/>
       <c r="P74" s="68"/>
     </row>
     <row r="75" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12799,17 +12688,17 @@
     </row>
     <row r="79" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D79" s="61"/>
-      <c r="E79" s="91"/>
-      <c r="F79" s="91"/>
+      <c r="E79" s="123"/>
+      <c r="F79" s="123"/>
       <c r="G79" s="61"/>
-      <c r="H79" s="91"/>
-      <c r="I79" s="91"/>
+      <c r="H79" s="123"/>
+      <c r="I79" s="123"/>
       <c r="J79" s="61"/>
-      <c r="K79" s="91"/>
-      <c r="L79" s="91"/>
+      <c r="K79" s="123"/>
+      <c r="L79" s="123"/>
       <c r="M79" s="61"/>
-      <c r="N79" s="91"/>
-      <c r="O79" s="91"/>
+      <c r="N79" s="123"/>
+      <c r="O79" s="123"/>
       <c r="P79" s="68"/>
     </row>
     <row r="80" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12830,6 +12719,153 @@
     <row r="81" ht="14.65" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="171">
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="J53:K53"/>
     <mergeCell ref="J66:K66"/>
     <mergeCell ref="H8:H14"/>
     <mergeCell ref="I8:I14"/>
@@ -12854,174 +12890,27 @@
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="F59:G59"/>
     <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:C6">
-    <cfRule type="expression" dxfId="32" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="31" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="32" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="33" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="29" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="28" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="29" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="30" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/app/xlsx/4月_5月シフト.xlsx
+++ b/app/xlsx/4月_5月シフト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPrograming\MyGo\rolemaster0.5\RoleMaserV0.5\app\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiha\OneDrive\デスクトップ\MyPrograming\MyGo\rolemaster0.5\RoleMaserV0.5\app\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC685D4-4BB3-4377-A46D-D2C144CAE79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A544C93E-5761-4562-8E74-D6C976805AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PJシフト4月" sheetId="4" r:id="rId1"/>
@@ -2316,10 +2316,28 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2352,45 +2370,48 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -2407,27 +2428,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2967,14 +2967,14 @@
       <selection activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.46484375" style="4" customWidth="1"/>
-    <col min="2" max="3" width="16.73046875" style="3" customWidth="1"/>
-    <col min="4" max="15" width="16.73046875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
+    <col min="2" max="3" width="16.75" style="3" customWidth="1"/>
+    <col min="4" max="15" width="16.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2995,12 +2995,12 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -3031,12 +3031,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="14.65" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="104"/>
+    <row r="6" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="110"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="113" t="s">
         <v>146</v>
       </c>
       <c r="D6" s="8">
@@ -3054,7 +3054,7 @@
       <c r="H6" s="8">
         <v>15</v>
       </c>
-      <c r="I6" s="110" t="s">
+      <c r="I6" s="116" t="s">
         <v>146</v>
       </c>
       <c r="J6" s="8">
@@ -3076,12 +3076,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="105"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="111"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="108"/>
+      <c r="C7" s="114"/>
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
@@ -3097,7 +3097,7 @@
       <c r="H7" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="I7" s="111"/>
+      <c r="I7" s="117"/>
       <c r="J7" s="7" t="s">
         <v>8</v>
       </c>
@@ -3117,12 +3117,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="105"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="111"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="108"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="7">
         <v>68</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>60</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="111"/>
+      <c r="I8" s="117"/>
       <c r="J8" s="7">
         <v>90</v>
       </c>
@@ -3154,12 +3154,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="105"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="111"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="108"/>
+      <c r="C9" s="114"/>
       <c r="D9" s="17">
         <v>14</v>
       </c>
@@ -3175,7 +3175,7 @@
       <c r="H9" s="17">
         <v>10</v>
       </c>
-      <c r="I9" s="111"/>
+      <c r="I9" s="117"/>
       <c r="J9" s="17">
         <v>18</v>
       </c>
@@ -3193,12 +3193,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="105"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="111"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="108"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="111"/>
+      <c r="I10" s="117"/>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
@@ -3230,12 +3230,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="105"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="111"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="108"/>
+      <c r="C11" s="114"/>
       <c r="D11" s="7" t="s">
         <v>94</v>
       </c>
@@ -3251,7 +3251,7 @@
       <c r="H11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="111"/>
+      <c r="I11" s="117"/>
       <c r="J11" s="7" t="s">
         <v>97</v>
       </c>
@@ -3269,12 +3269,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="105"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="111"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="108"/>
+      <c r="C12" s="114"/>
       <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
@@ -3290,7 +3290,7 @@
       <c r="H12" s="18">
         <v>0.6875</v>
       </c>
-      <c r="I12" s="111"/>
+      <c r="I12" s="117"/>
       <c r="J12" s="7" t="s">
         <v>17</v>
       </c>
@@ -3310,12 +3310,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="106"/>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="112"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="109"/>
+      <c r="C13" s="115"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -3331,7 +3331,7 @@
       <c r="H13" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="I13" s="112"/>
+      <c r="I13" s="118"/>
       <c r="J13" s="7" t="s">
         <v>21</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="14.65" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A14" s="41">
         <v>1</v>
       </c>
@@ -3377,24 +3377,24 @@
       <c r="I14" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="J14" s="113" t="s">
+      <c r="J14" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="113" t="s">
+      <c r="K14" s="119" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="43"/>
-      <c r="M14" s="113" t="s">
+      <c r="M14" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="113" t="s">
+      <c r="N14" s="119" t="s">
         <v>23</v>
       </c>
       <c r="O14" s="44" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="33">
         <v>2</v>
       </c>
@@ -3420,26 +3420,26 @@
       <c r="I15" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="J15" s="103" t="s">
+      <c r="J15" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="103" t="s">
+      <c r="K15" s="102" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="103" t="s">
+      <c r="M15" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="103" t="s">
+      <c r="N15" s="102" t="s">
         <v>25</v>
       </c>
       <c r="O15" s="26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="37">
         <v>3</v>
       </c>
@@ -3465,24 +3465,24 @@
       <c r="I16" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="J16" s="102" t="s">
+      <c r="J16" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="102" t="s">
+      <c r="K16" s="103" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="102" t="s">
+      <c r="M16" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="102" t="s">
+      <c r="N16" s="103" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="33">
         <v>4</v>
       </c>
@@ -3508,24 +3508,24 @@
       <c r="I17" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="J17" s="103" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="103" t="s">
+      <c r="J17" s="102" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="102" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="103" t="s">
+      <c r="M17" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="N17" s="103" t="s">
+      <c r="N17" s="102" t="s">
         <v>24</v>
       </c>
       <c r="O17" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="37">
         <v>5</v>
       </c>
@@ -3551,24 +3551,24 @@
       <c r="I18" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="J18" s="102" t="s">
+      <c r="J18" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="102" t="s">
+      <c r="K18" s="103" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="39"/>
-      <c r="M18" s="102" t="s">
+      <c r="M18" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="N18" s="102" t="s">
+      <c r="N18" s="103" t="s">
         <v>24</v>
       </c>
       <c r="O18" s="40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="33">
         <v>6</v>
       </c>
@@ -3594,24 +3594,24 @@
       <c r="I19" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="J19" s="103" t="s">
+      <c r="J19" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="103" t="s">
+      <c r="K19" s="102" t="s">
         <v>34</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="103" t="s">
+      <c r="M19" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="103" t="s">
+      <c r="N19" s="102" t="s">
         <v>28</v>
       </c>
       <c r="O19" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="37">
         <v>7</v>
       </c>
@@ -3637,24 +3637,24 @@
       <c r="I20" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="102" t="s">
+      <c r="J20" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="102" t="s">
+      <c r="K20" s="103" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="39"/>
-      <c r="M20" s="102" t="s">
+      <c r="M20" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="102" t="s">
+      <c r="N20" s="103" t="s">
         <v>23</v>
       </c>
       <c r="O20" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="33">
         <v>8</v>
       </c>
@@ -3680,24 +3680,24 @@
       <c r="I21" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="103" t="s">
+      <c r="J21" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="K21" s="103" t="s">
+      <c r="K21" s="102" t="s">
         <v>24</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="103" t="s">
+      <c r="M21" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="103" t="s">
+      <c r="N21" s="102" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="37">
         <v>9</v>
       </c>
@@ -3723,24 +3723,24 @@
       <c r="I22" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="J22" s="102" t="s">
+      <c r="J22" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="102" t="s">
+      <c r="K22" s="103" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="39"/>
-      <c r="M22" s="102" t="s">
+      <c r="M22" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="N22" s="102" t="s">
+      <c r="N22" s="103" t="s">
         <v>38</v>
       </c>
       <c r="O22" s="40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="33">
         <v>10</v>
       </c>
@@ -3766,26 +3766,26 @@
       <c r="I23" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="J23" s="103" t="s">
+      <c r="J23" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="103" t="s">
+      <c r="K23" s="102" t="s">
         <v>23</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M23" s="103" t="s">
+      <c r="M23" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="103" t="s">
+      <c r="N23" s="102" t="s">
         <v>38</v>
       </c>
       <c r="O23" s="26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="37">
         <v>11</v>
       </c>
@@ -3811,24 +3811,24 @@
       <c r="I24" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="J24" s="102" t="s">
+      <c r="J24" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="K24" s="102" t="s">
+      <c r="K24" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="39"/>
-      <c r="M24" s="102" t="s">
+      <c r="M24" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="102" t="s">
+      <c r="N24" s="103" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="33">
         <v>12</v>
       </c>
@@ -3854,24 +3854,24 @@
       <c r="I25" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="J25" s="103" t="s">
+      <c r="J25" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="K25" s="103" t="s">
+      <c r="K25" s="102" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="103" t="s">
+      <c r="M25" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="N25" s="103" t="s">
+      <c r="N25" s="102" t="s">
         <v>30</v>
       </c>
       <c r="O25" s="26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="37">
         <v>13</v>
       </c>
@@ -3897,26 +3897,26 @@
       <c r="I26" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J26" s="102" t="s">
+      <c r="J26" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="102" t="s">
+      <c r="K26" s="103" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M26" s="102" t="s">
+      <c r="M26" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="102" t="s">
+      <c r="N26" s="103" t="s">
         <v>23</v>
       </c>
       <c r="O26" s="40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="33">
         <v>14</v>
       </c>
@@ -3942,24 +3942,24 @@
       <c r="I27" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J27" s="103" t="s">
+      <c r="J27" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="103" t="s">
+      <c r="K27" s="102" t="s">
         <v>44</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="103" t="s">
+      <c r="M27" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="N27" s="103" t="s">
+      <c r="N27" s="102" t="s">
         <v>24</v>
       </c>
       <c r="O27" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="37">
         <v>15</v>
       </c>
@@ -3985,26 +3985,26 @@
       <c r="I28" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="J28" s="102" t="s">
+      <c r="J28" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="102" t="s">
+      <c r="K28" s="103" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="102" t="s">
+      <c r="M28" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="N28" s="102" t="s">
+      <c r="N28" s="103" t="s">
         <v>25</v>
       </c>
       <c r="O28" s="40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="33">
         <v>16</v>
       </c>
@@ -4030,24 +4030,24 @@
       <c r="I29" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="J29" s="103" t="s">
+      <c r="J29" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="103" t="s">
+      <c r="K29" s="102" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="103" t="s">
+      <c r="M29" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="N29" s="103" t="s">
+      <c r="N29" s="102" t="s">
         <v>23</v>
       </c>
       <c r="O29" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="37">
         <v>17</v>
       </c>
@@ -4073,24 +4073,24 @@
       <c r="I30" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="J30" s="102" t="s">
+      <c r="J30" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="102" t="s">
+      <c r="K30" s="103" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="39"/>
-      <c r="M30" s="102" t="s">
+      <c r="M30" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="N30" s="102" t="s">
+      <c r="N30" s="103" t="s">
         <v>26</v>
       </c>
       <c r="O30" s="40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="33">
         <v>18</v>
       </c>
@@ -4116,24 +4116,24 @@
       <c r="I31" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="J31" s="103" t="s">
+      <c r="J31" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="K31" s="103" t="s">
+      <c r="K31" s="102" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="7"/>
-      <c r="M31" s="103" t="s">
+      <c r="M31" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="N31" s="103" t="s">
+      <c r="N31" s="102" t="s">
         <v>28</v>
       </c>
       <c r="O31" s="26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="37">
         <v>19</v>
       </c>
@@ -4159,24 +4159,24 @@
       <c r="I32" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="J32" s="102" t="s">
+      <c r="J32" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="K32" s="102" t="s">
+      <c r="K32" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="39"/>
-      <c r="M32" s="102" t="s">
+      <c r="M32" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="N32" s="102" t="s">
+      <c r="N32" s="103" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="33">
         <v>20</v>
       </c>
@@ -4202,24 +4202,24 @@
       <c r="I33" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J33" s="103" t="s">
+      <c r="J33" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="K33" s="103" t="s">
+      <c r="K33" s="102" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="M33" s="103" t="s">
+      <c r="M33" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="N33" s="103" t="s">
+      <c r="N33" s="102" t="s">
         <v>24</v>
       </c>
       <c r="O33" s="26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="37">
         <v>21</v>
       </c>
@@ -4245,24 +4245,24 @@
       <c r="I34" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="J34" s="102" t="s">
+      <c r="J34" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="K34" s="102" t="s">
+      <c r="K34" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="39"/>
-      <c r="M34" s="102" t="s">
+      <c r="M34" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="N34" s="102" t="s">
+      <c r="N34" s="103" t="s">
         <v>24</v>
       </c>
       <c r="O34" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="33">
         <v>22</v>
       </c>
@@ -4288,24 +4288,24 @@
       <c r="I35" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="J35" s="103" t="s">
+      <c r="J35" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="K35" s="103" t="s">
+      <c r="K35" s="102" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="7"/>
-      <c r="M35" s="103" t="s">
+      <c r="M35" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="N35" s="103" t="s">
+      <c r="N35" s="102" t="s">
         <v>23</v>
       </c>
       <c r="O35" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="37">
         <v>23</v>
       </c>
@@ -4331,24 +4331,24 @@
       <c r="I36" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J36" s="102" t="s">
+      <c r="J36" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="K36" s="102" t="s">
+      <c r="K36" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L36" s="39"/>
-      <c r="M36" s="102" t="s">
+      <c r="M36" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="102" t="s">
+      <c r="N36" s="103" t="s">
         <v>25</v>
       </c>
       <c r="O36" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="33">
         <v>24</v>
       </c>
@@ -4374,24 +4374,24 @@
       <c r="I37" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="J37" s="103" t="s">
+      <c r="J37" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="K37" s="103" t="s">
+      <c r="K37" s="102" t="s">
         <v>24</v>
       </c>
       <c r="L37" s="7"/>
-      <c r="M37" s="103" t="s">
+      <c r="M37" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="103" t="s">
+      <c r="N37" s="102" t="s">
         <v>23</v>
       </c>
       <c r="O37" s="26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="37">
         <v>25</v>
       </c>
@@ -4417,24 +4417,24 @@
       <c r="I38" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="J38" s="102" t="s">
+      <c r="J38" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="102" t="s">
+      <c r="K38" s="103" t="s">
         <v>23</v>
       </c>
       <c r="L38" s="39"/>
-      <c r="M38" s="102" t="s">
+      <c r="M38" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="N38" s="102" t="s">
+      <c r="N38" s="103" t="s">
         <v>23</v>
       </c>
       <c r="O38" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="33">
         <v>26</v>
       </c>
@@ -4460,24 +4460,24 @@
       <c r="I39" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="J39" s="103" t="s">
+      <c r="J39" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="K39" s="103" t="s">
+      <c r="K39" s="102" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="7"/>
-      <c r="M39" s="103" t="s">
+      <c r="M39" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="N39" s="103" t="s">
+      <c r="N39" s="102" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="45">
         <v>27</v>
       </c>
@@ -4503,26 +4503,26 @@
       <c r="I40" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="J40" s="114" t="s">
+      <c r="J40" s="108" t="s">
         <v>91</v>
       </c>
-      <c r="K40" s="114" t="s">
+      <c r="K40" s="108" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="114" t="s">
+      <c r="M40" s="108" t="s">
         <v>91</v>
       </c>
-      <c r="N40" s="114" t="s">
+      <c r="N40" s="108" t="s">
         <v>24</v>
       </c>
       <c r="O40" s="49" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="14.65" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A41" s="35">
         <v>28</v>
       </c>
@@ -4548,24 +4548,24 @@
       <c r="I41" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="J41" s="115" t="s">
+      <c r="J41" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="K41" s="115" t="s">
+      <c r="K41" s="109" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="31"/>
-      <c r="M41" s="115" t="s">
+      <c r="M41" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="N41" s="115" t="s">
+      <c r="N41" s="109" t="s">
         <v>24</v>
       </c>
       <c r="O41" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="37">
         <v>29</v>
       </c>
@@ -4591,24 +4591,24 @@
       <c r="I42" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="J42" s="102" t="s">
+      <c r="J42" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="K42" s="102" t="s">
+      <c r="K42" s="103" t="s">
         <v>26</v>
       </c>
       <c r="L42" s="39"/>
-      <c r="M42" s="102" t="s">
+      <c r="M42" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="N42" s="102" t="s">
+      <c r="N42" s="103" t="s">
         <v>24</v>
       </c>
       <c r="O42" s="40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="33">
         <v>30</v>
       </c>
@@ -4634,26 +4634,26 @@
       <c r="I43" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="J43" s="103" t="s">
+      <c r="J43" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="K43" s="103" t="s">
+      <c r="K43" s="102" t="s">
         <v>26</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M43" s="103" t="s">
+      <c r="M43" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="N43" s="103" t="s">
+      <c r="N43" s="102" t="s">
         <v>25</v>
       </c>
       <c r="O43" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="37">
         <v>31</v>
       </c>
@@ -4679,24 +4679,24 @@
       <c r="I44" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="J44" s="102" t="s">
+      <c r="J44" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="K44" s="102" t="s">
+      <c r="K44" s="103" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="39"/>
-      <c r="M44" s="102" t="s">
+      <c r="M44" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="N44" s="102" t="s">
+      <c r="N44" s="103" t="s">
         <v>38</v>
       </c>
       <c r="O44" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="33">
         <v>32</v>
       </c>
@@ -4722,24 +4722,24 @@
       <c r="I45" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="J45" s="103" t="s">
+      <c r="J45" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="K45" s="103" t="s">
+      <c r="K45" s="102" t="s">
         <v>24</v>
       </c>
       <c r="L45" s="7"/>
-      <c r="M45" s="103" t="s">
+      <c r="M45" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="N45" s="103" t="s">
+      <c r="N45" s="102" t="s">
         <v>24</v>
       </c>
       <c r="O45" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="37">
         <v>33</v>
       </c>
@@ -4765,24 +4765,24 @@
       <c r="I46" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="J46" s="102" t="s">
+      <c r="J46" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="K46" s="102" t="s">
+      <c r="K46" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="39"/>
-      <c r="M46" s="102" t="s">
+      <c r="M46" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="N46" s="102" t="s">
+      <c r="N46" s="103" t="s">
         <v>23</v>
       </c>
       <c r="O46" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="33">
         <v>34</v>
       </c>
@@ -4808,24 +4808,24 @@
       <c r="I47" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="J47" s="103" t="s">
+      <c r="J47" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="K47" s="103" t="s">
+      <c r="K47" s="102" t="s">
         <v>23</v>
       </c>
       <c r="L47" s="7"/>
-      <c r="M47" s="103" t="s">
+      <c r="M47" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="N47" s="103" t="s">
+      <c r="N47" s="102" t="s">
         <v>24</v>
       </c>
       <c r="O47" s="26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="37">
         <v>35</v>
       </c>
@@ -4851,24 +4851,24 @@
       <c r="I48" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="J48" s="102" t="s">
+      <c r="J48" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="K48" s="102" t="s">
+      <c r="K48" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L48" s="39"/>
-      <c r="M48" s="102" t="s">
+      <c r="M48" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="N48" s="102" t="s">
+      <c r="N48" s="103" t="s">
         <v>66</v>
       </c>
       <c r="O48" s="40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="33">
         <v>36</v>
       </c>
@@ -4894,24 +4894,24 @@
       <c r="I49" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="J49" s="103" t="s">
+      <c r="J49" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="K49" s="103" t="s">
+      <c r="K49" s="102" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="7"/>
-      <c r="M49" s="103" t="s">
+      <c r="M49" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="N49" s="103" t="s">
+      <c r="N49" s="102" t="s">
         <v>24</v>
       </c>
       <c r="O49" s="26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="37">
         <v>37</v>
       </c>
@@ -4937,24 +4937,24 @@
       <c r="I50" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="J50" s="102" t="s">
+      <c r="J50" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="K50" s="102" t="s">
+      <c r="K50" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="39"/>
-      <c r="M50" s="102" t="s">
+      <c r="M50" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="N50" s="102" t="s">
+      <c r="N50" s="103" t="s">
         <v>38</v>
       </c>
       <c r="O50" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="33">
         <v>38</v>
       </c>
@@ -4980,24 +4980,24 @@
       <c r="I51" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="J51" s="103" t="s">
+      <c r="J51" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="K51" s="103" t="s">
+      <c r="K51" s="102" t="s">
         <v>38</v>
       </c>
       <c r="L51" s="7"/>
-      <c r="M51" s="103" t="s">
+      <c r="M51" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="N51" s="103" t="s">
+      <c r="N51" s="102" t="s">
         <v>38</v>
       </c>
       <c r="O51" s="26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="37">
         <v>39</v>
       </c>
@@ -5023,26 +5023,26 @@
       <c r="I52" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J52" s="102" t="s">
+      <c r="J52" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="102" t="s">
+      <c r="K52" s="103" t="s">
         <v>71</v>
       </c>
       <c r="L52" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M52" s="102" t="s">
+      <c r="M52" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="N52" s="102" t="s">
+      <c r="N52" s="103" t="s">
         <v>24</v>
       </c>
       <c r="O52" s="40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="33">
         <v>40</v>
       </c>
@@ -5068,26 +5068,26 @@
       <c r="I53" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J53" s="103" t="s">
+      <c r="J53" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="K53" s="103" t="s">
+      <c r="K53" s="102" t="s">
         <v>26</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M53" s="103" t="s">
+      <c r="M53" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="N53" s="103" t="s">
+      <c r="N53" s="102" t="s">
         <v>24</v>
       </c>
       <c r="O53" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="37">
         <v>41</v>
       </c>
@@ -5113,24 +5113,24 @@
       <c r="I54" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="J54" s="102" t="s">
+      <c r="J54" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="K54" s="102" t="s">
+      <c r="K54" s="103" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="39"/>
-      <c r="M54" s="102" t="s">
+      <c r="M54" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="N54" s="102" t="s">
+      <c r="N54" s="103" t="s">
         <v>25</v>
       </c>
       <c r="O54" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="33">
         <v>42</v>
       </c>
@@ -5156,24 +5156,24 @@
       <c r="I55" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="J55" s="103" t="s">
+      <c r="J55" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="K55" s="103" t="s">
+      <c r="K55" s="102" t="s">
         <v>23</v>
       </c>
       <c r="L55" s="7"/>
-      <c r="M55" s="103" t="s">
+      <c r="M55" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="N55" s="103" t="s">
+      <c r="N55" s="102" t="s">
         <v>24</v>
       </c>
       <c r="O55" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="37">
         <v>43</v>
       </c>
@@ -5199,24 +5199,24 @@
       <c r="I56" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="J56" s="102" t="s">
+      <c r="J56" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="K56" s="102" t="s">
+      <c r="K56" s="103" t="s">
         <v>26</v>
       </c>
       <c r="L56" s="39"/>
-      <c r="M56" s="102" t="s">
+      <c r="M56" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="N56" s="102" t="s">
+      <c r="N56" s="103" t="s">
         <v>24</v>
       </c>
       <c r="O56" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="33">
         <v>44</v>
       </c>
@@ -5242,26 +5242,26 @@
       <c r="I57" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="J57" s="103" t="s">
+      <c r="J57" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="K57" s="103" t="s">
+      <c r="K57" s="102" t="s">
         <v>24</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M57" s="103" t="s">
+      <c r="M57" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="N57" s="103" t="s">
+      <c r="N57" s="102" t="s">
         <v>25</v>
       </c>
       <c r="O57" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="37">
         <v>45</v>
       </c>
@@ -5287,24 +5287,24 @@
       <c r="I58" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="J58" s="102" t="s">
+      <c r="J58" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="K58" s="102" t="s">
+      <c r="K58" s="103" t="s">
         <v>28</v>
       </c>
       <c r="L58" s="39"/>
-      <c r="M58" s="102" t="s">
+      <c r="M58" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="N58" s="102" t="s">
+      <c r="N58" s="103" t="s">
         <v>78</v>
       </c>
       <c r="O58" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="33">
         <v>46</v>
       </c>
@@ -5330,24 +5330,24 @@
       <c r="I59" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="J59" s="103" t="s">
+      <c r="J59" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="K59" s="103" t="s">
+      <c r="K59" s="102" t="s">
         <v>38</v>
       </c>
       <c r="L59" s="7"/>
-      <c r="M59" s="103" t="s">
+      <c r="M59" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="N59" s="103" t="s">
+      <c r="N59" s="102" t="s">
         <v>25</v>
       </c>
       <c r="O59" s="26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="37">
         <v>47</v>
       </c>
@@ -5361,22 +5361,22 @@
       <c r="G60" s="51"/>
       <c r="H60" s="51"/>
       <c r="I60" s="50"/>
-      <c r="J60" s="116" t="s">
+      <c r="J60" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="K60" s="117"/>
+      <c r="K60" s="107"/>
       <c r="L60" s="51"/>
-      <c r="M60" s="102" t="s">
+      <c r="M60" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="N60" s="102" t="s">
+      <c r="N60" s="103" t="s">
         <v>66</v>
       </c>
       <c r="O60" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="33">
         <v>48</v>
       </c>
@@ -5390,22 +5390,22 @@
       <c r="G61" s="31"/>
       <c r="H61" s="31"/>
       <c r="I61" s="30"/>
-      <c r="J61" s="118" t="s">
+      <c r="J61" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="K61" s="119"/>
+      <c r="K61" s="105"/>
       <c r="L61" s="31"/>
-      <c r="M61" s="103" t="s">
+      <c r="M61" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="N61" s="103" t="s">
+      <c r="N61" s="102" t="s">
         <v>25</v>
       </c>
       <c r="O61" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="37">
         <v>49</v>
       </c>
@@ -5419,24 +5419,24 @@
       <c r="G62" s="51"/>
       <c r="H62" s="51"/>
       <c r="I62" s="50"/>
-      <c r="J62" s="103" t="s">
+      <c r="J62" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="K62" s="103" t="s">
+      <c r="K62" s="102" t="s">
         <v>24</v>
       </c>
       <c r="L62" s="51"/>
-      <c r="M62" s="102" t="s">
+      <c r="M62" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="N62" s="102" t="s">
+      <c r="N62" s="103" t="s">
         <v>24</v>
       </c>
       <c r="O62" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="33">
         <v>50</v>
       </c>
@@ -5450,22 +5450,22 @@
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
       <c r="I63" s="30"/>
-      <c r="J63" s="118" t="s">
+      <c r="J63" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="K63" s="119"/>
+      <c r="K63" s="105"/>
       <c r="L63" s="31"/>
-      <c r="M63" s="102" t="s">
+      <c r="M63" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="N63" s="102" t="s">
+      <c r="N63" s="103" t="s">
         <v>24</v>
       </c>
       <c r="O63" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="37">
         <v>51</v>
       </c>
@@ -5479,24 +5479,24 @@
       <c r="G64" s="51"/>
       <c r="H64" s="51"/>
       <c r="I64" s="50"/>
-      <c r="J64" s="103" t="s">
+      <c r="J64" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="K64" s="103" t="s">
+      <c r="K64" s="102" t="s">
         <v>24</v>
       </c>
       <c r="L64" s="51"/>
-      <c r="M64" s="103" t="s">
+      <c r="M64" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="N64" s="103" t="s">
+      <c r="N64" s="102" t="s">
         <v>25</v>
       </c>
       <c r="O64" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="33">
         <v>52</v>
       </c>
@@ -5508,24 +5508,24 @@
       <c r="G65" s="31"/>
       <c r="H65" s="31"/>
       <c r="I65" s="30"/>
-      <c r="J65" s="103" t="s">
+      <c r="J65" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="K65" s="103" t="s">
+      <c r="K65" s="102" t="s">
         <v>24</v>
       </c>
       <c r="L65" s="31"/>
-      <c r="M65" s="102" t="s">
+      <c r="M65" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="N65" s="102" t="s">
+      <c r="N65" s="103" t="s">
         <v>24</v>
       </c>
       <c r="O65" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="45">
         <v>53</v>
       </c>
@@ -5551,24 +5551,24 @@
       <c r="I66" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="J66" s="102" t="s">
+      <c r="J66" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="K66" s="102" t="s">
+      <c r="K66" s="103" t="s">
         <v>24</v>
       </c>
       <c r="L66" s="39"/>
-      <c r="M66" s="102" t="s">
+      <c r="M66" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="N66" s="102" t="s">
+      <c r="N66" s="103" t="s">
         <v>24</v>
       </c>
       <c r="O66" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="14.65" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A67" s="35"/>
       <c r="B67" s="14" t="s">
         <v>80</v>
@@ -5587,7 +5587,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="27"/>
     </row>
-    <row r="68" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="34"/>
       <c r="B68" s="13"/>
       <c r="C68" s="21"/>
@@ -5604,105 +5604,9 @@
       <c r="N68" s="9"/>
       <c r="O68" s="28"/>
     </row>
-    <row r="69" spans="1:15" ht="14.65" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:N21"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="J17:K17"/>
@@ -5716,6 +5620,102 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M15:N15"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="M63:N63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:F6 I6:N6">
@@ -5770,29 +5770,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A1C220-DC63-401D-B66B-975EAA99E44B}">
   <dimension ref="A2:P81"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection sqref="A1:P1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N20" activeCellId="1" sqref="N22:O22 N20:O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.46484375" style="4" customWidth="1"/>
-    <col min="2" max="3" width="16.73046875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.46484375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.265625" style="4"/>
-    <col min="6" max="6" width="14.265625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.265625" style="4"/>
-    <col min="8" max="8" width="14.265625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="20.46484375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="16.1328125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.265625" style="4"/>
-    <col min="12" max="12" width="20.1328125" style="4" customWidth="1"/>
-    <col min="13" max="14" width="14.265625" style="4"/>
-    <col min="15" max="15" width="18.59765625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="14.265625" style="4"/>
+    <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
+    <col min="2" max="3" width="16.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="4"/>
+    <col min="6" max="6" width="14.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="4"/>
+    <col min="8" max="8" width="14.25" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.25" style="4"/>
+    <col min="12" max="12" width="20.125" style="4" customWidth="1"/>
+    <col min="13" max="14" width="14.25" style="4"/>
+    <col min="15" max="15" width="18.625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="14.25" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -5816,12 +5816,12 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -5867,12 +5867,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="104"/>
+    <row r="6" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="110"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="113" t="s">
         <v>146</v>
       </c>
       <c r="D6" s="8">
@@ -5915,12 +5915,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="105"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="111"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="108"/>
+      <c r="C7" s="114"/>
       <c r="D7" s="7" t="s">
         <v>152</v>
       </c>
@@ -5961,12 +5961,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="105"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="111"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="108"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="7">
         <v>13</v>
       </c>
@@ -6007,12 +6007,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="105"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="111"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="108"/>
+      <c r="C9" s="114"/>
       <c r="D9" s="7" t="s">
         <v>234</v>
       </c>
@@ -6053,12 +6053,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="105"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="111"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="108"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="7">
         <v>6</v>
       </c>
@@ -6099,12 +6099,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="105"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="111"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="108"/>
+      <c r="C11" s="114"/>
       <c r="D11" s="7" t="s">
         <v>155</v>
       </c>
@@ -6145,12 +6145,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="105"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="111"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="108"/>
+      <c r="C12" s="114"/>
       <c r="D12" s="7" t="s">
         <v>156</v>
       </c>
@@ -6191,12 +6191,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="106"/>
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="112"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="109"/>
+      <c r="C13" s="115"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A14" s="41">
         <v>1</v>
       </c>
@@ -6250,44 +6250,44 @@
       <c r="D14" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="113" t="s">
+      <c r="E14" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="F14" s="113" t="s">
+      <c r="F14" s="119" t="s">
         <v>66</v>
       </c>
       <c r="G14" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="113" t="s">
+      <c r="H14" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="119" t="s">
         <v>66</v>
       </c>
       <c r="J14" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="102" t="s">
+      <c r="K14" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="103" t="s">
         <v>66</v>
       </c>
       <c r="M14" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="N14" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14" s="113" t="s">
+      <c r="N14" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="119" t="s">
         <v>66</v>
       </c>
       <c r="P14" s="63" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="33">
         <v>2</v>
       </c>
@@ -6300,44 +6300,44 @@
       <c r="D15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="103" t="s">
+      <c r="E15" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="102" t="s">
         <v>66</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="103" t="s">
+      <c r="H15" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="102" t="s">
         <v>66</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="103" t="s">
+      <c r="K15" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="L15" s="103" t="s">
+      <c r="L15" s="102" t="s">
         <v>225</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N15" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="O15" s="103" t="s">
+      <c r="N15" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" s="102" t="s">
         <v>66</v>
       </c>
       <c r="P15" s="54" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="37">
         <v>3</v>
       </c>
@@ -6350,44 +6350,44 @@
       <c r="D16" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="102" t="s">
+      <c r="E16" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="102" t="s">
+      <c r="F16" s="103" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="103" t="s">
+      <c r="H16" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="102" t="s">
         <v>66</v>
       </c>
       <c r="J16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="102" t="s">
+      <c r="K16" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="103" t="s">
         <v>66</v>
       </c>
       <c r="M16" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N16" s="102" t="s">
+      <c r="N16" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="102" t="s">
+      <c r="O16" s="103" t="s">
         <v>38</v>
       </c>
       <c r="P16" s="64" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="33">
         <v>4</v>
       </c>
@@ -6400,44 +6400,44 @@
       <c r="D17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="103" t="s">
+      <c r="E17" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="102" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="103" t="s">
+      <c r="H17" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="102" t="s">
         <v>24</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="103" t="s">
+      <c r="K17" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="102" t="s">
         <v>24</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N17" s="103" t="s">
+      <c r="N17" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="O17" s="103" t="s">
+      <c r="O17" s="102" t="s">
         <v>30</v>
       </c>
       <c r="P17" s="54" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="37">
         <v>5</v>
       </c>
@@ -6450,44 +6450,44 @@
       <c r="D18" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="102" t="s">
+      <c r="E18" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="103" t="s">
         <v>66</v>
       </c>
       <c r="G18" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="102" t="s">
+      <c r="H18" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="103" t="s">
         <v>24</v>
       </c>
       <c r="J18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="102" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" s="102" t="s">
+      <c r="K18" s="103" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="103" t="s">
         <v>66</v>
       </c>
       <c r="M18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="O18" s="102" t="s">
+      <c r="N18" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="103" t="s">
         <v>24</v>
       </c>
       <c r="P18" s="64" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="33">
         <v>6</v>
       </c>
@@ -6500,44 +6500,44 @@
       <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="103" t="s">
+      <c r="E19" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="102" t="s">
         <v>24</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="103" t="s">
+      <c r="H19" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="102" t="s">
         <v>66</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="103" t="s">
+      <c r="K19" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="102" t="s">
         <v>24</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N19" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="O19" s="103" t="s">
+      <c r="N19" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="102" t="s">
         <v>24</v>
       </c>
       <c r="P19" s="54" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="37">
         <v>7</v>
       </c>
@@ -6550,44 +6550,44 @@
       <c r="D20" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="102" t="s">
+      <c r="E20" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="103" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="102" t="s">
+      <c r="H20" s="103" t="s">
         <v>240</v>
       </c>
-      <c r="I20" s="102" t="s">
+      <c r="I20" s="103" t="s">
         <v>224</v>
       </c>
       <c r="J20" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="102" t="s">
+      <c r="K20" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="103" t="s">
         <v>66</v>
       </c>
       <c r="M20" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N20" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="O20" s="102" t="s">
-        <v>66</v>
+      <c r="N20" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="103" t="s">
+        <v>24</v>
       </c>
       <c r="P20" s="64" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="33">
         <v>8</v>
       </c>
@@ -6600,44 +6600,44 @@
       <c r="D21" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E21" s="103" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="103" t="s">
+      <c r="E21" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="102" t="s">
         <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="103" t="s">
+      <c r="H21" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="102" t="s">
         <v>66</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="103" t="s">
+      <c r="K21" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="L21" s="103" t="s">
+      <c r="L21" s="102" t="s">
         <v>225</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="O21" s="103" t="s">
+      <c r="N21" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="102" t="s">
         <v>24</v>
       </c>
       <c r="P21" s="54" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="37">
         <v>9</v>
       </c>
@@ -6650,44 +6650,44 @@
       <c r="D22" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E22" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="102" t="s">
+      <c r="E22" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="103" t="s">
         <v>66</v>
       </c>
       <c r="G22" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="102" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22" s="102" t="s">
+      <c r="H22" s="103" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="103" t="s">
         <v>38</v>
       </c>
       <c r="J22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" s="102" t="s">
+      <c r="K22" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="103" t="s">
         <v>66</v>
       </c>
       <c r="M22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="O22" s="102" t="s">
-        <v>66</v>
+      <c r="N22" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="103" t="s">
+        <v>24</v>
       </c>
       <c r="P22" s="64" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="33">
         <v>10</v>
       </c>
@@ -6700,44 +6700,44 @@
       <c r="D23" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="E23" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="103" t="s">
+      <c r="E23" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="102" t="s">
         <v>66</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="103" t="s">
+      <c r="H23" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="102" t="s">
         <v>24</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K23" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23" s="102" t="s">
+      <c r="K23" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="103" t="s">
         <v>24</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="O23" s="103" t="s">
+      <c r="N23" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="O23" s="102" t="s">
         <v>66</v>
       </c>
       <c r="P23" s="54" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="37">
         <v>11</v>
       </c>
@@ -6750,44 +6750,44 @@
       <c r="D24" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="102" t="s">
+      <c r="E24" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="103" t="s">
         <v>66</v>
       </c>
       <c r="G24" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="102" t="s">
+      <c r="H24" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="103" t="s">
         <v>24</v>
       </c>
       <c r="J24" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K24" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" s="102" t="s">
+      <c r="K24" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="103" t="s">
         <v>24</v>
       </c>
       <c r="M24" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="O24" s="102" t="s">
+      <c r="N24" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="103" t="s">
         <v>24</v>
       </c>
       <c r="P24" s="64" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="33">
         <v>12</v>
       </c>
@@ -6800,44 +6800,44 @@
       <c r="D25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="103" t="s">
+      <c r="E25" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="103" t="s">
+      <c r="F25" s="102" t="s">
         <v>30</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="103" t="s">
+      <c r="H25" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="I25" s="103" t="s">
+      <c r="I25" s="102" t="s">
         <v>30</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="103" t="s">
+      <c r="K25" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="103" t="s">
+      <c r="L25" s="102" t="s">
         <v>30</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N25" s="103" t="s">
+      <c r="N25" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="O25" s="103" t="s">
+      <c r="O25" s="102" t="s">
         <v>30</v>
       </c>
       <c r="P25" s="54" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="37">
         <v>13</v>
       </c>
@@ -6850,44 +6850,44 @@
       <c r="D26" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E26" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="102" t="s">
+      <c r="E26" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="103" t="s">
         <v>24</v>
       </c>
       <c r="G26" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="102" t="s">
+      <c r="H26" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="103" t="s">
         <v>24</v>
       </c>
       <c r="J26" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K26" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="L26" s="102" t="s">
+      <c r="K26" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="103" t="s">
         <v>66</v>
       </c>
       <c r="M26" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N26" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="O26" s="102" t="s">
+      <c r="N26" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="O26" s="103" t="s">
         <v>66</v>
       </c>
       <c r="P26" s="64" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="33">
         <v>14</v>
       </c>
@@ -6900,44 +6900,44 @@
       <c r="D27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="103" t="s">
+      <c r="E27" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="102" t="s">
         <v>24</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="103" t="s">
+      <c r="H27" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="102" t="s">
         <v>24</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="103" t="s">
+      <c r="K27" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="103" t="s">
+      <c r="L27" s="102" t="s">
         <v>225</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N27" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="O27" s="103" t="s">
+      <c r="N27" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" s="102" t="s">
         <v>24</v>
       </c>
       <c r="P27" s="54" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="37">
         <v>15</v>
       </c>
@@ -6950,44 +6950,44 @@
       <c r="D28" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E28" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="102" t="s">
+      <c r="E28" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="103" t="s">
         <v>66</v>
       </c>
       <c r="G28" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" s="102" t="s">
+      <c r="H28" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="103" t="s">
         <v>66</v>
       </c>
       <c r="J28" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="K28" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="L28" s="103" t="s">
+      <c r="K28" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="102" t="s">
         <v>66</v>
       </c>
       <c r="M28" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N28" s="102" t="s">
+      <c r="N28" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="O28" s="102" t="s">
+      <c r="O28" s="103" t="s">
         <v>38</v>
       </c>
       <c r="P28" s="64" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="33">
         <v>16</v>
       </c>
@@ -7000,44 +7000,44 @@
       <c r="D29" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E29" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="103" t="s">
+      <c r="E29" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="102" t="s">
         <v>24</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="103" t="s">
+      <c r="H29" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="102" t="s">
         <v>24</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K29" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="103" t="s">
+      <c r="K29" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="102" t="s">
         <v>24</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="O29" s="103" t="s">
+      <c r="N29" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" s="102" t="s">
         <v>66</v>
       </c>
       <c r="P29" s="54" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="37">
         <v>17</v>
       </c>
@@ -7050,44 +7050,44 @@
       <c r="D30" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="E30" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="102" t="s">
+      <c r="E30" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="103" t="s">
         <v>24</v>
       </c>
       <c r="G30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="102" t="s">
+      <c r="H30" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="103" t="s">
         <v>66</v>
       </c>
       <c r="J30" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="L30" s="102" t="s">
+      <c r="K30" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="L30" s="103" t="s">
         <v>66</v>
       </c>
       <c r="M30" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N30" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="O30" s="102" t="s">
+      <c r="N30" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="O30" s="103" t="s">
         <v>66</v>
       </c>
       <c r="P30" s="64" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="33">
         <v>18</v>
       </c>
@@ -7100,44 +7100,44 @@
       <c r="D31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="103" t="s">
+      <c r="E31" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="102" t="s">
         <v>24</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="103" t="s">
+      <c r="H31" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="102" t="s">
         <v>24</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K31" s="103" t="s">
+      <c r="K31" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="L31" s="103" t="s">
+      <c r="L31" s="102" t="s">
         <v>226</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N31" s="103" t="s">
+      <c r="N31" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="O31" s="103" t="s">
+      <c r="O31" s="102" t="s">
         <v>226</v>
       </c>
       <c r="P31" s="54" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="37">
         <v>19</v>
       </c>
@@ -7150,44 +7150,44 @@
       <c r="D32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="102" t="s">
+      <c r="E32" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="103" t="s">
         <v>24</v>
       </c>
       <c r="G32" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="102" t="s">
+      <c r="H32" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="103" t="s">
         <v>24</v>
       </c>
       <c r="J32" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="K32" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" s="102" t="s">
+      <c r="K32" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="103" t="s">
         <v>24</v>
       </c>
       <c r="M32" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N32" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="O32" s="102" t="s">
+      <c r="N32" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="103" t="s">
         <v>24</v>
       </c>
       <c r="P32" s="64" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="33">
         <v>20</v>
       </c>
@@ -7200,44 +7200,44 @@
       <c r="D33" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="103" t="s">
+      <c r="E33" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="102" t="s">
         <v>66</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="103" t="s">
+      <c r="H33" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="102" t="s">
         <v>24</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="L33" s="103" t="s">
+      <c r="K33" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="102" t="s">
         <v>24</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N33" s="103" t="s">
+      <c r="N33" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="O33" s="103" t="s">
+      <c r="O33" s="102" t="s">
         <v>38</v>
       </c>
       <c r="P33" s="54" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="37">
         <v>21</v>
       </c>
@@ -7250,44 +7250,44 @@
       <c r="D34" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="E34" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" s="102" t="s">
+      <c r="E34" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="103" t="s">
         <v>66</v>
       </c>
       <c r="G34" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="103" t="s">
+      <c r="H34" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="I34" s="103" t="s">
+      <c r="I34" s="102" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K34" s="102" t="s">
+      <c r="K34" s="103" t="s">
         <v>225</v>
       </c>
-      <c r="L34" s="102" t="s">
+      <c r="L34" s="103" t="s">
         <v>225</v>
       </c>
       <c r="M34" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N34" s="102" t="s">
+      <c r="N34" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="O34" s="102" t="s">
+      <c r="O34" s="103" t="s">
         <v>38</v>
       </c>
       <c r="P34" s="64" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="33">
         <v>22</v>
       </c>
@@ -7300,44 +7300,44 @@
       <c r="D35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="103" t="s">
+      <c r="E35" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="102" t="s">
         <v>24</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="I35" s="103" t="s">
+      <c r="H35" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="102" t="s">
         <v>66</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K35" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="L35" s="103" t="s">
+      <c r="K35" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="L35" s="102" t="s">
         <v>66</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N35" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="O35" s="103" t="s">
+      <c r="N35" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="O35" s="102" t="s">
         <v>66</v>
       </c>
       <c r="P35" s="54" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="37">
         <v>23</v>
       </c>
@@ -7350,44 +7350,44 @@
       <c r="D36" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="102" t="s">
+      <c r="E36" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="103" t="s">
         <v>24</v>
       </c>
       <c r="G36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="I36" s="102" t="s">
+      <c r="H36" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36" s="103" t="s">
         <v>66</v>
       </c>
       <c r="J36" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K36" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="L36" s="102" t="s">
+      <c r="K36" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="103" t="s">
         <v>24</v>
       </c>
       <c r="M36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N36" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="O36" s="102" t="s">
+      <c r="N36" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="O36" s="103" t="s">
         <v>24</v>
       </c>
       <c r="P36" s="64" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="33">
         <v>24</v>
       </c>
@@ -7400,44 +7400,44 @@
       <c r="D37" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E37" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="103" t="s">
+      <c r="E37" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="102" t="s">
         <v>24</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="103" t="s">
+      <c r="H37" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="103" t="s">
+      <c r="I37" s="102" t="s">
         <v>25</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K37" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="L37" s="103" t="s">
+      <c r="K37" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="L37" s="102" t="s">
         <v>66</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N37" s="103" t="s">
+      <c r="N37" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="O37" s="103" t="s">
+      <c r="O37" s="102" t="s">
         <v>38</v>
       </c>
       <c r="P37" s="54" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="37">
         <v>25</v>
       </c>
@@ -7450,44 +7450,44 @@
       <c r="D38" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="102" t="s">
+      <c r="E38" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="103" t="s">
         <v>24</v>
       </c>
       <c r="G38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="102" t="s">
+      <c r="H38" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="103" t="s">
         <v>24</v>
       </c>
       <c r="J38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K38" s="102" t="s">
+      <c r="K38" s="103" t="s">
         <v>227</v>
       </c>
-      <c r="L38" s="102" t="s">
+      <c r="L38" s="103" t="s">
         <v>227</v>
       </c>
       <c r="M38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N38" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="O38" s="102" t="s">
+      <c r="N38" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="O38" s="103" t="s">
         <v>66</v>
       </c>
       <c r="P38" s="64" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="33">
         <v>26</v>
       </c>
@@ -7500,44 +7500,44 @@
       <c r="D39" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="103" t="s">
+      <c r="E39" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="102" t="s">
         <v>24</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="I39" s="103" t="s">
+      <c r="H39" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="102" t="s">
         <v>24</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K39" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="L39" s="103" t="s">
+      <c r="K39" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="102" t="s">
         <v>24</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N39" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="O39" s="103" t="s">
+      <c r="N39" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="O39" s="102" t="s">
         <v>24</v>
       </c>
       <c r="P39" s="54" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="45">
         <v>27</v>
       </c>
@@ -7550,44 +7550,44 @@
       <c r="D40" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="F40" s="102" t="s">
+      <c r="E40" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="103" t="s">
         <v>66</v>
       </c>
       <c r="G40" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H40" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="I40" s="102" t="s">
+      <c r="H40" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="103" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K40" s="102" t="s">
+      <c r="K40" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="L40" s="102" t="s">
+      <c r="L40" s="103" t="s">
         <v>30</v>
       </c>
       <c r="M40" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="N40" s="102" t="s">
+      <c r="N40" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="O40" s="102" t="s">
+      <c r="O40" s="103" t="s">
         <v>30</v>
       </c>
       <c r="P40" s="64" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A41" s="35">
         <v>28</v>
       </c>
@@ -7600,44 +7600,44 @@
       <c r="D41" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="122" t="s">
-        <v>66</v>
-      </c>
-      <c r="F41" s="122" t="s">
+      <c r="E41" s="123" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="123" t="s">
         <v>66</v>
       </c>
       <c r="G41" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="122" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="122" t="s">
+      <c r="H41" s="123" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="123" t="s">
         <v>26</v>
       </c>
       <c r="J41" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="K41" s="122" t="s">
+      <c r="K41" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="L41" s="122" t="s">
+      <c r="L41" s="123" t="s">
         <v>23</v>
       </c>
       <c r="M41" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="N41" s="122" t="s">
-        <v>92</v>
-      </c>
-      <c r="O41" s="122" t="s">
+      <c r="N41" s="123" t="s">
+        <v>92</v>
+      </c>
+      <c r="O41" s="123" t="s">
         <v>23</v>
       </c>
       <c r="P41" s="54" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="37">
         <v>29</v>
       </c>
@@ -7650,44 +7650,44 @@
       <c r="D42" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="E42" s="121" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="121" t="s">
+      <c r="E42" s="124" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="124" t="s">
         <v>66</v>
       </c>
       <c r="G42" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="121" t="s">
-        <v>66</v>
-      </c>
-      <c r="I42" s="121" t="s">
+      <c r="H42" s="124" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="124" t="s">
         <v>66</v>
       </c>
       <c r="J42" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="K42" s="121" t="s">
+      <c r="K42" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="L42" s="121" t="s">
+      <c r="L42" s="124" t="s">
         <v>38</v>
       </c>
       <c r="M42" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="N42" s="121" t="s">
-        <v>66</v>
-      </c>
-      <c r="O42" s="121" t="s">
+      <c r="N42" s="124" t="s">
+        <v>66</v>
+      </c>
+      <c r="O42" s="124" t="s">
         <v>66</v>
       </c>
       <c r="P42" s="65" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A43" s="33">
         <v>30</v>
       </c>
@@ -7700,44 +7700,44 @@
       <c r="D43" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="115" t="s">
+      <c r="E43" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="115" t="s">
+      <c r="F43" s="109" t="s">
         <v>25</v>
       </c>
       <c r="G43" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="I43" s="115" t="s">
+      <c r="H43" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="109" t="s">
         <v>24</v>
       </c>
       <c r="J43" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="K43" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" s="115" t="s">
+      <c r="K43" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="109" t="s">
         <v>24</v>
       </c>
       <c r="M43" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="N43" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="O43" s="115" t="s">
+      <c r="N43" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="O43" s="109" t="s">
         <v>24</v>
       </c>
       <c r="P43" s="66" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" s="37">
         <v>31</v>
       </c>
@@ -7750,44 +7750,44 @@
       <c r="D44" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="102" t="s">
+      <c r="E44" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="103" t="s">
         <v>24</v>
       </c>
       <c r="G44" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="102" t="s">
+      <c r="H44" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="I44" s="102" t="s">
+      <c r="I44" s="103" t="s">
         <v>25</v>
       </c>
       <c r="J44" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K44" s="102" t="s">
+      <c r="K44" s="103" t="s">
         <v>240</v>
       </c>
-      <c r="L44" s="102" t="s">
+      <c r="L44" s="103" t="s">
         <v>66</v>
       </c>
       <c r="M44" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N44" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="O44" s="102" t="s">
+      <c r="N44" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="O44" s="103" t="s">
         <v>24</v>
       </c>
       <c r="P44" s="64" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="33">
         <v>32</v>
       </c>
@@ -7800,44 +7800,44 @@
       <c r="D45" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="103" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="103" t="s">
+      <c r="E45" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="102" t="s">
         <v>26</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="103" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" s="103" t="s">
+      <c r="H45" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="102" t="s">
         <v>26</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K45" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="L45" s="103" t="s">
+      <c r="K45" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="L45" s="102" t="s">
         <v>66</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N45" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="O45" s="103" t="s">
+      <c r="N45" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="O45" s="102" t="s">
         <v>66</v>
       </c>
       <c r="P45" s="54" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="37">
         <v>33</v>
       </c>
@@ -7850,44 +7850,44 @@
       <c r="D46" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="102" t="s">
+      <c r="E46" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="103" t="s">
         <v>24</v>
       </c>
       <c r="G46" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H46" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="I46" s="102" t="s">
+      <c r="H46" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="103" t="s">
         <v>24</v>
       </c>
       <c r="J46" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K46" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="L46" s="102" t="s">
+      <c r="K46" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="L46" s="103" t="s">
         <v>66</v>
       </c>
       <c r="M46" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N46" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="O46" s="102" t="s">
+      <c r="N46" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="O46" s="103" t="s">
         <v>66</v>
       </c>
       <c r="P46" s="64" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" s="33">
         <v>34</v>
       </c>
@@ -7900,44 +7900,44 @@
       <c r="D47" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="F47" s="103" t="s">
+      <c r="E47" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="102" t="s">
         <v>66</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H47" s="103" t="s">
-        <v>26</v>
-      </c>
-      <c r="I47" s="103" t="s">
+      <c r="H47" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="102" t="s">
         <v>26</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K47" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="L47" s="103" t="s">
+      <c r="K47" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="102" t="s">
         <v>24</v>
       </c>
       <c r="M47" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N47" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="O47" s="103" t="s">
+      <c r="N47" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="O47" s="102" t="s">
         <v>24</v>
       </c>
       <c r="P47" s="54" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" s="37">
         <v>35</v>
       </c>
@@ -7950,44 +7950,44 @@
       <c r="D48" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="102" t="s">
+      <c r="E48" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="103" t="s">
         <v>26</v>
       </c>
       <c r="G48" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="I48" s="102" t="s">
+      <c r="H48" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="I48" s="103" t="s">
         <v>66</v>
       </c>
       <c r="J48" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K48" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="L48" s="102" t="s">
+      <c r="K48" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" s="103" t="s">
         <v>24</v>
       </c>
       <c r="M48" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N48" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="O48" s="102" t="s">
+      <c r="N48" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="O48" s="103" t="s">
         <v>24</v>
       </c>
       <c r="P48" s="64" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49" s="33">
         <v>36</v>
       </c>
@@ -8000,44 +8000,44 @@
       <c r="D49" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" s="103" t="s">
+      <c r="E49" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="102" t="s">
         <v>24</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H49" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="I49" s="103" t="s">
+      <c r="H49" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="102" t="s">
         <v>24</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K49" s="103" t="s">
+      <c r="K49" s="102" t="s">
         <v>228</v>
       </c>
-      <c r="L49" s="103" t="s">
+      <c r="L49" s="102" t="s">
         <v>228</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N49" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="O49" s="103" t="s">
+      <c r="N49" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="O49" s="102" t="s">
         <v>24</v>
       </c>
       <c r="P49" s="54" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50" s="37">
         <v>37</v>
       </c>
@@ -8050,44 +8050,44 @@
       <c r="D50" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50" s="102" t="s">
+      <c r="E50" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="103" t="s">
         <v>24</v>
       </c>
       <c r="G50" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="I50" s="102" t="s">
+      <c r="H50" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="103" t="s">
         <v>24</v>
       </c>
       <c r="J50" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="102" t="s">
+      <c r="K50" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="L50" s="102" t="s">
+      <c r="L50" s="103" t="s">
         <v>38</v>
       </c>
       <c r="M50" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="N50" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="O50" s="102" t="s">
+      <c r="N50" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="O50" s="103" t="s">
         <v>24</v>
       </c>
       <c r="P50" s="64" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A51" s="33">
         <v>38</v>
       </c>
@@ -8100,44 +8100,44 @@
       <c r="D51" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="103" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="103" t="s">
+      <c r="E51" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="102" t="s">
         <v>26</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H51" s="103" t="s">
-        <v>26</v>
-      </c>
-      <c r="I51" s="103" t="s">
+      <c r="H51" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="102" t="s">
         <v>26</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K51" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="L51" s="103" t="s">
+      <c r="K51" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" s="102" t="s">
         <v>24</v>
       </c>
       <c r="M51" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N51" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="O51" s="103" t="s">
+      <c r="N51" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="O51" s="102" t="s">
         <v>24</v>
       </c>
       <c r="P51" s="54" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A52" s="37">
         <v>39</v>
       </c>
@@ -8150,44 +8150,44 @@
       <c r="D52" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="F52" s="102" t="s">
+      <c r="E52" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="103" t="s">
         <v>26</v>
       </c>
       <c r="G52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="I52" s="102" t="s">
+      <c r="H52" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" s="103" t="s">
         <v>24</v>
       </c>
       <c r="J52" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K52" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="L52" s="102" t="s">
+      <c r="K52" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" s="103" t="s">
         <v>24</v>
       </c>
       <c r="M52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N52" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="O52" s="102" t="s">
+      <c r="N52" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="O52" s="103" t="s">
         <v>24</v>
       </c>
       <c r="P52" s="64" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A53" s="33">
         <v>40</v>
       </c>
@@ -8200,44 +8200,44 @@
       <c r="D53" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="120" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" s="120" t="s">
+      <c r="E53" s="125" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="125" t="s">
         <v>24</v>
       </c>
       <c r="G53" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H53" s="120" t="s">
-        <v>24</v>
-      </c>
-      <c r="I53" s="120" t="s">
+      <c r="H53" s="125" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="125" t="s">
         <v>24</v>
       </c>
       <c r="J53" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="K53" s="120" t="s">
-        <v>26</v>
-      </c>
-      <c r="L53" s="120" t="s">
+      <c r="K53" s="125" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" s="125" t="s">
         <v>26</v>
       </c>
       <c r="M53" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="N53" s="120" t="s">
+      <c r="N53" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="O53" s="120" t="s">
+      <c r="O53" s="125" t="s">
         <v>38</v>
       </c>
       <c r="P53" s="67" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A54" s="37">
         <v>41</v>
       </c>
@@ -8250,44 +8250,44 @@
       <c r="D54" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" s="102" t="s">
+      <c r="E54" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="103" t="s">
         <v>26</v>
       </c>
       <c r="G54" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="I54" s="102" t="s">
+      <c r="H54" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" s="103" t="s">
         <v>26</v>
       </c>
       <c r="J54" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K54" s="102" t="s">
+      <c r="K54" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="L54" s="102" t="s">
+      <c r="L54" s="103" t="s">
         <v>38</v>
       </c>
       <c r="M54" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N54" s="102" t="s">
+      <c r="N54" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="O54" s="102" t="s">
+      <c r="O54" s="103" t="s">
         <v>38</v>
       </c>
       <c r="P54" s="64" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A55" s="33">
         <v>42</v>
       </c>
@@ -8300,44 +8300,44 @@
       <c r="D55" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="F55" s="103" t="s">
+      <c r="E55" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" s="102" t="s">
         <v>66</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H55" s="103" t="s">
-        <v>92</v>
-      </c>
-      <c r="I55" s="103" t="s">
+      <c r="H55" s="102" t="s">
+        <v>92</v>
+      </c>
+      <c r="I55" s="102" t="s">
         <v>25</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K55" s="103" t="s">
+      <c r="K55" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="L55" s="103" t="s">
+      <c r="L55" s="102" t="s">
         <v>30</v>
       </c>
       <c r="M55" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N55" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="O55" s="103" t="s">
+      <c r="N55" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="O55" s="102" t="s">
         <v>66</v>
       </c>
       <c r="P55" s="54" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56" s="37">
         <v>43</v>
       </c>
@@ -8350,44 +8350,44 @@
       <c r="D56" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E56" s="102" t="s">
+      <c r="E56" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="F56" s="102" t="s">
+      <c r="F56" s="103" t="s">
         <v>38</v>
       </c>
       <c r="G56" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H56" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="I56" s="102" t="s">
+      <c r="H56" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="103" t="s">
         <v>24</v>
       </c>
       <c r="J56" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K56" s="102" t="s">
+      <c r="K56" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="L56" s="102" t="s">
+      <c r="L56" s="103" t="s">
         <v>38</v>
       </c>
       <c r="M56" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N56" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="O56" s="102" t="s">
+      <c r="N56" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="O56" s="103" t="s">
         <v>24</v>
       </c>
       <c r="P56" s="64" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A57" s="33">
         <v>44</v>
       </c>
@@ -8400,44 +8400,44 @@
       <c r="D57" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="103" t="s">
-        <v>26</v>
-      </c>
-      <c r="F57" s="103" t="s">
+      <c r="E57" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="102" t="s">
         <v>26</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H57" s="103" t="s">
-        <v>26</v>
-      </c>
-      <c r="I57" s="103" t="s">
+      <c r="H57" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" s="102" t="s">
         <v>26</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K57" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="L57" s="103" t="s">
+      <c r="K57" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" s="102" t="s">
         <v>24</v>
       </c>
       <c r="M57" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="N57" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="O57" s="103" t="s">
+      <c r="N57" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="O57" s="102" t="s">
         <v>24</v>
       </c>
       <c r="P57" s="54" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A58" s="37">
         <v>45</v>
       </c>
@@ -8450,44 +8450,44 @@
       <c r="D58" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E58" s="102" t="s">
-        <v>92</v>
-      </c>
-      <c r="F58" s="102" t="s">
+      <c r="E58" s="103" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" s="103" t="s">
         <v>38</v>
       </c>
       <c r="G58" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H58" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="I58" s="102" t="s">
+      <c r="H58" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="I58" s="103" t="s">
         <v>66</v>
       </c>
       <c r="J58" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K58" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="L58" s="102" t="s">
+      <c r="K58" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" s="103" t="s">
         <v>24</v>
       </c>
       <c r="M58" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N58" s="102" t="s">
+      <c r="N58" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="O58" s="102" t="s">
+      <c r="O58" s="103" t="s">
         <v>25</v>
       </c>
       <c r="P58" s="64" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A59" s="33">
         <v>46</v>
       </c>
@@ -8500,44 +8500,44 @@
       <c r="D59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="103" t="s">
+      <c r="E59" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="F59" s="103" t="s">
+      <c r="F59" s="102" t="s">
         <v>25</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H59" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="I59" s="103" t="s">
+      <c r="H59" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="I59" s="102" t="s">
         <v>66</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K59" s="103" t="s">
+      <c r="K59" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="L59" s="103" t="s">
+      <c r="L59" s="102" t="s">
         <v>38</v>
       </c>
       <c r="M59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N59" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="O59" s="103" t="s">
+      <c r="N59" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="O59" s="102" t="s">
         <v>24</v>
       </c>
       <c r="P59" s="54" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A60" s="37">
         <v>47</v>
       </c>
@@ -8550,44 +8550,44 @@
       <c r="D60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E60" s="102" t="s">
+      <c r="E60" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="F60" s="102" t="s">
+      <c r="F60" s="103" t="s">
         <v>30</v>
       </c>
       <c r="G60" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H60" s="102" t="s">
+      <c r="H60" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="I60" s="102" t="s">
+      <c r="I60" s="103" t="s">
         <v>30</v>
       </c>
       <c r="J60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K60" s="102" t="s">
+      <c r="K60" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="L60" s="102" t="s">
+      <c r="L60" s="103" t="s">
         <v>30</v>
       </c>
       <c r="M60" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N60" s="102" t="s">
+      <c r="N60" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="O60" s="102" t="s">
+      <c r="O60" s="103" t="s">
         <v>25</v>
       </c>
       <c r="P60" s="64" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A61" s="33">
         <v>48</v>
       </c>
@@ -8600,44 +8600,44 @@
       <c r="D61" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="F61" s="103" t="s">
+      <c r="E61" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="102" t="s">
         <v>66</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H61" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="I61" s="103" t="s">
+      <c r="H61" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" s="102" t="s">
         <v>24</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K61" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="L61" s="103" t="s">
+      <c r="K61" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" s="102" t="s">
         <v>24</v>
       </c>
       <c r="M61" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N61" s="103" t="s">
-        <v>26</v>
-      </c>
-      <c r="O61" s="103" t="s">
+      <c r="N61" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="O61" s="102" t="s">
         <v>26</v>
       </c>
       <c r="P61" s="54" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A62" s="37">
         <v>49</v>
       </c>
@@ -8650,44 +8650,44 @@
       <c r="D62" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E62" s="102" t="s">
+      <c r="E62" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="102" t="s">
+      <c r="F62" s="103" t="s">
         <v>25</v>
       </c>
       <c r="G62" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H62" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="I62" s="102" t="s">
+      <c r="H62" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" s="103" t="s">
         <v>26</v>
       </c>
       <c r="J62" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K62" s="102" t="s">
+      <c r="K62" s="103" t="s">
         <v>229</v>
       </c>
-      <c r="L62" s="102" t="s">
+      <c r="L62" s="103" t="s">
         <v>229</v>
       </c>
       <c r="M62" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N62" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="O62" s="102" t="s">
+      <c r="N62" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="O62" s="103" t="s">
         <v>26</v>
       </c>
       <c r="P62" s="64" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A63" s="33">
         <v>50</v>
       </c>
@@ -8700,44 +8700,44 @@
       <c r="D63" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E63" s="103" t="s">
+      <c r="E63" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="F63" s="103" t="s">
+      <c r="F63" s="102" t="s">
         <v>38</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H63" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="I63" s="103" t="s">
+      <c r="H63" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="102" t="s">
         <v>24</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K63" s="103" t="s">
+      <c r="K63" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="L63" s="103" t="s">
+      <c r="L63" s="102" t="s">
         <v>25</v>
       </c>
       <c r="M63" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N63" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="O63" s="103" t="s">
+      <c r="N63" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="O63" s="102" t="s">
         <v>24</v>
       </c>
       <c r="P63" s="54" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A64" s="37">
         <v>51</v>
       </c>
@@ -8750,44 +8750,44 @@
       <c r="D64" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E64" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" s="102" t="s">
+      <c r="E64" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="103" t="s">
         <v>26</v>
       </c>
       <c r="G64" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H64" s="102" t="s">
+      <c r="H64" s="103" t="s">
         <v>224</v>
       </c>
-      <c r="I64" s="102" t="s">
+      <c r="I64" s="103" t="s">
         <v>224</v>
       </c>
       <c r="J64" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K64" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="L64" s="102" t="s">
+      <c r="K64" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="L64" s="103" t="s">
         <v>24</v>
       </c>
       <c r="M64" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N64" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="O64" s="102" t="s">
+      <c r="N64" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="O64" s="103" t="s">
         <v>26</v>
       </c>
       <c r="P64" s="64" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A65" s="33">
         <v>52</v>
       </c>
@@ -8800,44 +8800,44 @@
       <c r="D65" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="103" t="s">
+      <c r="E65" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="F65" s="103" t="s">
+      <c r="F65" s="102" t="s">
         <v>30</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="103" t="s">
+      <c r="H65" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="I65" s="103" t="s">
+      <c r="I65" s="102" t="s">
         <v>30</v>
       </c>
       <c r="J65" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K65" s="103" t="s">
+      <c r="K65" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="L65" s="103" t="s">
+      <c r="L65" s="102" t="s">
         <v>30</v>
       </c>
       <c r="M65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N65" s="103" t="s">
+      <c r="N65" s="102" t="s">
         <v>242</v>
       </c>
-      <c r="O65" s="103" t="s">
+      <c r="O65" s="102" t="s">
         <v>30</v>
       </c>
       <c r="P65" s="54" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="45">
         <v>53</v>
       </c>
@@ -8848,76 +8848,76 @@
         <v>233</v>
       </c>
       <c r="D66" s="51"/>
-      <c r="E66" s="103" t="s">
+      <c r="E66" s="102" t="s">
        